--- a/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/BfR_Format_Backtrace.xlsx
+++ b/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/BfR_Format_Backtrace.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="114">
   <si>
     <t>Supplier</t>
   </si>
@@ -290,348 +290,6 @@
   </si>
   <si>
     <t>Production</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Adolf Roland</t>
-  </si>
-  <si>
-    <t>Konrad-Adenauer-Strasse</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>96215</t>
-  </si>
-  <si>
-    <t>Lichtenfels</t>
-  </si>
-  <si>
-    <t>DE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Albert Benno</t>
-  </si>
-  <si>
-    <t>Darmstädter Strasse</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>64354</t>
-  </si>
-  <si>
-    <t>Reinheim</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Albert Beno</t>
-  </si>
-  <si>
-    <t>Darmstädter Strase</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Alex</t>
-  </si>
-  <si>
-    <t>Alte Döhrener Strasse</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>30169</t>
-  </si>
-  <si>
-    <t>Hannover</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Anschütz Heinz</t>
-  </si>
-  <si>
-    <t>Stiller Gasse</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>98574</t>
-  </si>
-  <si>
-    <t>Schmalkalden</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Baak Helmut</t>
-  </si>
-  <si>
-    <t>Pollstrasse</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>33758</t>
-  </si>
-  <si>
-    <t>Schloß Holte-Stukenbrock</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bäcker Haake</t>
-  </si>
-  <si>
-    <t>Falldorf</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>28857</t>
-  </si>
-  <si>
-    <t>Syke</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bäcker Mees</t>
-  </si>
-  <si>
-    <t>Tegginger Strasse</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>78315</t>
-  </si>
-  <si>
-    <t>Radolfzell</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bäckerei Altdoerfer</t>
-  </si>
-  <si>
-    <t>KORNBUEHLWEG</t>
-  </si>
-  <si>
-    <t>72501</t>
-  </si>
-  <si>
-    <t>Gammertingen</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bio Geisler</t>
-  </si>
-  <si>
-    <t>Hauptstrasse</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>97618</t>
-  </si>
-  <si>
-    <t>Unsleben</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bio-Haus</t>
-  </si>
-  <si>
-    <t>Bahnhofstrasse</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>97447</t>
-  </si>
-  <si>
-    <t>Gerolzhofen</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bio-Lager</t>
-  </si>
-  <si>
-    <t>Schaumburger Strasse</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>31714</t>
-  </si>
-  <si>
-    <t>Sachsenhagen</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Gewürz Arno</t>
-  </si>
-  <si>
-    <t>169</t>
-  </si>
-  <si>
-    <t>67714</t>
-  </si>
-  <si>
-    <t>Waldfischbach-Burgalben</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Heckmair Andreas</t>
-  </si>
-  <si>
-    <t>Nebelhornstrasse</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>87561</t>
-  </si>
-  <si>
-    <t>Oberstdorf</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> JungMarkt</t>
-  </si>
-  <si>
-    <t>Am Ehrenmal</t>
-  </si>
-  <si>
-    <t>36132</t>
-  </si>
-  <si>
-    <t>Eiterfeld</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MarktEber</t>
-  </si>
-  <si>
-    <t>Berliner Strasse</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>16761</t>
-  </si>
-  <si>
-    <t>Hennigsdorf</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MarktSchleuse</t>
-  </si>
-  <si>
-    <t>91788</t>
-  </si>
-  <si>
-    <t>Pappenheim</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mlady  Kurt</t>
-  </si>
-  <si>
-    <t>Waldheimer Strasse</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>01683</t>
-  </si>
-  <si>
-    <t>Nossen</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Otte</t>
-  </si>
-  <si>
-    <t>Lettenweg</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>79639</t>
-  </si>
-  <si>
-    <t>Grenzach-Wyhlen</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Prophete Hermann</t>
-  </si>
-  <si>
-    <t>Marienstrasse</t>
-  </si>
-  <si>
-    <t>35606</t>
-  </si>
-  <si>
-    <t>Solms</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Riedl-Leirer Monika</t>
-  </si>
-  <si>
-    <t>Friedrichstrasse</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>79713</t>
-  </si>
-  <si>
-    <t>Bad Säckingen</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Schaich Peter</t>
-  </si>
-  <si>
-    <t>Bogenstrasse</t>
-  </si>
-  <si>
-    <t>87527</t>
-  </si>
-  <si>
-    <t>SONTHOFEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Schmidt Fritz</t>
-  </si>
-  <si>
-    <t>Am Kirchplatz</t>
-  </si>
-  <si>
-    <t>91171</t>
-  </si>
-  <si>
-    <t>Greding</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Voggel Anton</t>
-  </si>
-  <si>
-    <t>Weiler Strasse</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Fischen</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Wolf Bernhard</t>
-  </si>
-  <si>
-    <t>Saalestrasse</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>97616</t>
-  </si>
-  <si>
-    <t>Bad Neustadt</t>
   </si>
   <si>
     <t>Endkunde</t>
@@ -2051,6 +1709,26 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2069,6 +1747,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2126,8 +1822,20 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2156,10 +1864,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="8" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2171,60 +1883,6 @@
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="112">
@@ -2640,9 +2298,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2666,13 +2322,13 @@
   <sheetData>
     <row r="1" spans="1:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
-        <v>220</v>
-      </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="80"/>
+        <v>106</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="91"/>
     </row>
     <row r="2" spans="1:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="37"/>
@@ -2683,58 +2339,58 @@
       <c r="F2" s="40"/>
     </row>
     <row r="3" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="81" t="s">
-        <v>226</v>
-      </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="84"/>
+      <c r="A3" s="92" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="95"/>
     </row>
     <row r="4" spans="1:14" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="63" t="s">
-        <v>216</v>
-      </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="63" t="s">
+      <c r="D4" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" s="70"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="H4" s="64"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="98" t="s">
+      <c r="H4" s="70"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="90"/>
-      <c r="L4" s="91" t="s">
+      <c r="K4" s="114"/>
+      <c r="L4" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="92" t="s">
+      <c r="M4" s="107" t="s">
         <v>79</v>
       </c>
       <c r="N4" s="29"/>
     </row>
     <row r="5" spans="1:14" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
+      <c r="A5" s="81"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
       <c r="D5" s="33" t="s">
         <v>82</v>
       </c>
@@ -2759,8 +2415,8 @@
       <c r="K5" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="L5" s="72"/>
-      <c r="M5" s="67"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="73"/>
       <c r="N5" s="29"/>
     </row>
     <row r="6" spans="1:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2792,11 +2448,11 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="95" t="s">
-        <v>224</v>
-      </c>
-      <c r="B8" s="96"/>
-      <c r="C8" s="97"/>
+      <c r="A8" s="110" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="111"/>
+      <c r="C8" s="112"/>
       <c r="D8" s="30"/>
       <c r="E8" s="30"/>
       <c r="F8" s="30"/>
@@ -2832,94 +2488,94 @@
       <c r="D11" s="28"/>
     </row>
     <row r="12" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="86" t="s">
-        <v>225</v>
-      </c>
-      <c r="B12" s="87"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="88"/>
+      <c r="A12" s="97" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="98"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="98"/>
+      <c r="J12" s="98"/>
+      <c r="K12" s="98"/>
+      <c r="L12" s="98"/>
+      <c r="M12" s="99"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="111"/>
-      <c r="B13" s="104" t="s">
-        <v>219</v>
-      </c>
-      <c r="C13" s="105"/>
-      <c r="D13" s="107" t="s">
+      <c r="A13" s="75"/>
+      <c r="B13" s="77" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="78"/>
+      <c r="D13" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="E13" s="105"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="107" t="s">
-        <v>215</v>
-      </c>
-      <c r="H13" s="105"/>
-      <c r="I13" s="105"/>
-      <c r="J13" s="107" t="s">
-        <v>218</v>
-      </c>
-      <c r="K13" s="108"/>
-      <c r="L13" s="109" t="s">
+      <c r="E13" s="78"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="79" t="s">
+        <v>101</v>
+      </c>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="79" t="s">
+        <v>104</v>
+      </c>
+      <c r="K13" s="100"/>
+      <c r="L13" s="103" t="s">
         <v>75</v>
       </c>
-      <c r="M13" s="112" t="s">
+      <c r="M13" s="104" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="113"/>
-      <c r="B14" s="106" t="s">
+      <c r="A14" s="76"/>
+      <c r="B14" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="106" t="s">
+      <c r="C14" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="110" t="s">
+      <c r="D14" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="E14" s="110" t="s">
+      <c r="E14" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="F14" s="110" t="s">
+      <c r="F14" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="G14" s="110" t="s">
+      <c r="G14" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="H14" s="110" t="s">
+      <c r="H14" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="I14" s="110" t="s">
+      <c r="I14" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="J14" s="105"/>
-      <c r="K14" s="108"/>
-      <c r="L14" s="105"/>
-      <c r="M14" s="114"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="100"/>
+      <c r="L14" s="78"/>
+      <c r="M14" s="105"/>
     </row>
     <row r="15" spans="1:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="115"/>
-      <c r="B15" s="116"/>
-      <c r="C15" s="117"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="116"/>
-      <c r="F15" s="116"/>
-      <c r="G15" s="116"/>
-      <c r="H15" s="116"/>
-      <c r="I15" s="116"/>
-      <c r="J15" s="118"/>
-      <c r="K15" s="119"/>
-      <c r="L15" s="117"/>
-      <c r="M15" s="120"/>
+      <c r="A15" s="65"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="101"/>
+      <c r="K15" s="102"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="68"/>
     </row>
     <row r="16" spans="1:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="36"/>
@@ -2937,57 +2593,57 @@
       <c r="M16" s="28"/>
     </row>
     <row r="17" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="81" t="s">
-        <v>227</v>
-      </c>
-      <c r="B17" s="85"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="83"/>
-      <c r="L17" s="83"/>
-      <c r="M17" s="84"/>
+      <c r="A17" s="92" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" s="96"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="94"/>
+      <c r="L17" s="94"/>
+      <c r="M17" s="95"/>
     </row>
     <row r="18" spans="1:13" s="20" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="69" t="s">
-        <v>221</v>
-      </c>
-      <c r="B18" s="71" t="s">
-        <v>223</v>
-      </c>
-      <c r="C18" s="73" t="s">
-        <v>222</v>
-      </c>
-      <c r="D18" s="68" t="s">
-        <v>216</v>
-      </c>
-      <c r="E18" s="64"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="75" t="s">
-        <v>217</v>
-      </c>
-      <c r="H18" s="76"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="68" t="s">
+      <c r="A18" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" s="82" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="84" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="70"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="86" t="s">
+        <v>103</v>
+      </c>
+      <c r="H18" s="87"/>
+      <c r="I18" s="88"/>
+      <c r="J18" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="K18" s="65"/>
-      <c r="L18" s="73" t="s">
+      <c r="K18" s="71"/>
+      <c r="L18" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="M18" s="66" t="s">
+      <c r="M18" s="72" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="70"/>
-      <c r="B19" s="72"/>
-      <c r="C19" s="74"/>
+      <c r="A19" s="81"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="85"/>
       <c r="D19" s="19" t="s">
         <v>82</v>
       </c>
@@ -3012,8 +2668,8 @@
       <c r="K19" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="L19" s="72"/>
-      <c r="M19" s="67"/>
+      <c r="L19" s="83"/>
+      <c r="M19" s="73"/>
     </row>
     <row r="20" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="48"/>
@@ -4405,9 +4061,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K500"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4461,753 +4119,303 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="31">
-        <v>394</v>
-      </c>
-      <c r="B2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F2" t="s">
-        <v>93</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>212</v>
-      </c>
+      <c r="A2" s="31"/>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
       <c r="K2" s="2" t="str">
         <f>A2&amp;", "&amp;B2&amp;", "&amp;C2&amp;" "&amp;D2&amp;", "&amp;F2&amp;", "&amp;I2</f>
-        <v>394,  Adolf Roland, Konrad-Adenauer-Strasse 10, Lichtenfels, DE</v>
+        <v xml:space="preserve">, ,  , , </v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="31">
-        <v>346</v>
-      </c>
-      <c r="B3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F3" t="s">
-        <v>99</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>212</v>
-      </c>
+      <c r="A3" s="31"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
       <c r="K3" s="2" t="str">
-        <f t="shared" ref="K3:K50" si="0">A3&amp;", "&amp;B3&amp;", "&amp;C3&amp;" "&amp;D3&amp;", "&amp;F3&amp;", "&amp;I3</f>
-        <v>346,  Albert Benno, Darmstädter Strasse 33, Reinheim, DE</v>
+        <f t="shared" ref="K3:K66" si="0">A3&amp;", "&amp;B3&amp;", "&amp;C3&amp;" "&amp;D3&amp;", "&amp;F3&amp;", "&amp;I3</f>
+        <v xml:space="preserve">, ,  , , </v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="31">
-        <v>1346</v>
-      </c>
-      <c r="B4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D4">
-        <v>33</v>
-      </c>
-      <c r="E4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>212</v>
-      </c>
+      <c r="A4" s="31"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
       <c r="K4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1346,  Albert Beno, Darmstädter Strase 33, Reinheim, DE</v>
+        <v xml:space="preserve">, ,  , , </v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="31">
-        <v>640</v>
-      </c>
-      <c r="B5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F5" t="s">
-        <v>106</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>212</v>
-      </c>
+      <c r="A5" s="31"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
       <c r="K5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>640,  Alex, Alte Döhrener Strasse 30, Hannover, DE</v>
+        <v xml:space="preserve">, ,  , , </v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="31">
-        <v>463</v>
-      </c>
-      <c r="B6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E6" t="s">
-        <v>110</v>
-      </c>
-      <c r="F6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>203</v>
-      </c>
+      <c r="A6" s="31"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
       <c r="K6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>463,  Anschütz Heinz, Stiller Gasse 17, Schmalkalden, DE</v>
+        <v xml:space="preserve">, ,  , , </v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="31">
-        <v>598</v>
-      </c>
-      <c r="B7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F7" t="s">
-        <v>116</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>212</v>
-      </c>
+      <c r="A7" s="31"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
       <c r="K7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>598,  Baak Helmut, Pollstrasse 25, Schloß Holte-Stukenbrock, DE</v>
+        <v xml:space="preserve">, ,  , , </v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="31">
-        <v>679</v>
-      </c>
-      <c r="B8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E8" t="s">
-        <v>120</v>
-      </c>
-      <c r="F8" t="s">
-        <v>121</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>204</v>
-      </c>
+      <c r="A8" s="31"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
       <c r="K8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>679,  Bäcker Haake, Falldorf 26, Syke, DE</v>
+        <v xml:space="preserve">, ,  , , </v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="31">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D9" t="s">
-        <v>124</v>
-      </c>
-      <c r="E9" t="s">
-        <v>125</v>
-      </c>
-      <c r="F9" t="s">
-        <v>126</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>204</v>
-      </c>
+      <c r="A9" s="31"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
       <c r="K9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>20,  Bäcker Mees, Tegginger Strasse 9, Radolfzell, DE</v>
+        <v xml:space="preserve">, ,  , , </v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="31">
-        <v>102</v>
-      </c>
-      <c r="B10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C10" t="s">
-        <v>128</v>
-      </c>
-      <c r="D10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" t="s">
-        <v>129</v>
-      </c>
-      <c r="F10" t="s">
-        <v>130</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>209</v>
-      </c>
+      <c r="A10" s="31"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
       <c r="K10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>102,  Bäckerei Altdoerfer, KORNBUEHLWEG 10, Gammertingen, DE</v>
+        <v xml:space="preserve">, ,  , , </v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="31">
-        <v>754</v>
-      </c>
-      <c r="B11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C11" t="s">
-        <v>132</v>
-      </c>
-      <c r="D11" t="s">
-        <v>133</v>
-      </c>
-      <c r="E11" t="s">
-        <v>134</v>
-      </c>
-      <c r="F11" t="s">
-        <v>135</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>211</v>
-      </c>
+      <c r="A11" s="31"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
       <c r="K11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>754,  Bio Geisler, Hauptstrasse 7, Unsleben, DE</v>
+        <v xml:space="preserve">, ,  , , </v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="31">
-        <v>354</v>
-      </c>
-      <c r="B12" t="s">
-        <v>136</v>
-      </c>
-      <c r="C12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D12" t="s">
-        <v>138</v>
-      </c>
-      <c r="E12" t="s">
-        <v>139</v>
-      </c>
-      <c r="F12" t="s">
-        <v>140</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>211</v>
-      </c>
+      <c r="A12" s="31"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
       <c r="K12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>354,  Bio-Haus, Bahnhofstrasse 2, Gerolzhofen, DE</v>
+        <v xml:space="preserve">, ,  , , </v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="31">
-        <v>642</v>
-      </c>
-      <c r="B13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C13" t="s">
-        <v>142</v>
-      </c>
-      <c r="D13" t="s">
-        <v>143</v>
-      </c>
-      <c r="E13" t="s">
-        <v>144</v>
-      </c>
-      <c r="F13" t="s">
-        <v>145</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>211</v>
-      </c>
+      <c r="A13" s="31"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
       <c r="K13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>642,  Bio-Lager, Schaumburger Strasse 28, Sachsenhagen, DE</v>
+        <v xml:space="preserve">, ,  , , </v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="31">
-        <v>749</v>
-      </c>
-      <c r="B14" t="s">
-        <v>146</v>
-      </c>
-      <c r="C14" t="s">
-        <v>132</v>
-      </c>
-      <c r="D14" t="s">
-        <v>147</v>
-      </c>
-      <c r="E14" t="s">
-        <v>148</v>
-      </c>
-      <c r="F14" t="s">
-        <v>149</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>205</v>
-      </c>
+      <c r="A14" s="31"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
       <c r="K14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>749,  Gewürz Arno, Hauptstrasse 169, Waldfischbach-Burgalben, DE</v>
+        <v xml:space="preserve">, ,  , , </v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="31">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
-        <v>150</v>
-      </c>
-      <c r="C15" t="s">
-        <v>151</v>
-      </c>
-      <c r="D15" t="s">
-        <v>152</v>
-      </c>
-      <c r="E15" t="s">
-        <v>153</v>
-      </c>
-      <c r="F15" t="s">
-        <v>154</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>203</v>
-      </c>
+      <c r="A15" s="31"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
       <c r="K15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1,  Heckmair Andreas, Nebelhornstrasse 46, Oberstdorf, DE</v>
+        <v xml:space="preserve">, ,  , , </v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="31">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>155</v>
-      </c>
-      <c r="C16" t="s">
-        <v>156</v>
-      </c>
-      <c r="D16" t="s">
-        <v>138</v>
-      </c>
-      <c r="E16" t="s">
-        <v>157</v>
-      </c>
-      <c r="F16" t="s">
-        <v>158</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>210</v>
-      </c>
+      <c r="A16" s="31"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
       <c r="K16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>22,  JungMarkt, Am Ehrenmal 2, Eiterfeld, DE</v>
+        <v xml:space="preserve">, ,  , , </v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="31">
-        <v>750</v>
-      </c>
-      <c r="B17" t="s">
-        <v>159</v>
-      </c>
-      <c r="C17" t="s">
-        <v>160</v>
-      </c>
-      <c r="D17" t="s">
-        <v>161</v>
-      </c>
-      <c r="E17" t="s">
-        <v>162</v>
-      </c>
-      <c r="F17" t="s">
-        <v>163</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>210</v>
-      </c>
+      <c r="A17" s="31"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
       <c r="K17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>750,  MarktEber, Berliner Strasse 48, Hennigsdorf, DE</v>
+        <v xml:space="preserve">, ,  , , </v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="31">
-        <v>236</v>
-      </c>
-      <c r="B18" t="s">
-        <v>164</v>
-      </c>
-      <c r="C18" t="s">
-        <v>137</v>
-      </c>
-      <c r="D18" t="s">
-        <v>133</v>
-      </c>
-      <c r="E18" t="s">
-        <v>165</v>
-      </c>
-      <c r="F18" t="s">
-        <v>166</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>210</v>
-      </c>
+      <c r="A18" s="31"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
       <c r="K18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>236,  MarktSchleuse, Bahnhofstrasse 7, Pappenheim, DE</v>
+        <v xml:space="preserve">, ,  , , </v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="31">
-        <v>740</v>
-      </c>
-      <c r="B19" t="s">
-        <v>167</v>
-      </c>
-      <c r="C19" t="s">
-        <v>168</v>
-      </c>
-      <c r="D19" t="s">
-        <v>169</v>
-      </c>
-      <c r="E19" t="s">
-        <v>170</v>
-      </c>
-      <c r="F19" t="s">
-        <v>171</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>212</v>
-      </c>
+      <c r="A19" s="31"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
       <c r="K19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>740,  Mlady  Kurt, Waldheimer Strasse 71, Nossen, DE</v>
+        <v xml:space="preserve">, ,  , , </v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="31">
-        <v>6</v>
-      </c>
-      <c r="B20" t="s">
-        <v>172</v>
-      </c>
-      <c r="C20" t="s">
-        <v>173</v>
-      </c>
-      <c r="D20" t="s">
-        <v>174</v>
-      </c>
-      <c r="E20" t="s">
-        <v>175</v>
-      </c>
-      <c r="F20" t="s">
-        <v>176</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>203</v>
-      </c>
+      <c r="A20" s="31"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
       <c r="K20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>6,  Otte, Lettenweg 11, Grenzach-Wyhlen, DE</v>
+        <v xml:space="preserve">, ,  , , </v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="31">
-        <v>451</v>
-      </c>
-      <c r="B21" t="s">
-        <v>177</v>
-      </c>
-      <c r="C21" t="s">
-        <v>178</v>
-      </c>
-      <c r="D21" t="s">
-        <v>138</v>
-      </c>
-      <c r="E21" t="s">
-        <v>179</v>
-      </c>
-      <c r="F21" t="s">
-        <v>180</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>212</v>
-      </c>
+      <c r="A21" s="31"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
       <c r="K21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>451,  Prophete Hermann, Marienstrasse 2, Solms, DE</v>
+        <v xml:space="preserve">, ,  , , </v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="31">
-        <v>8</v>
-      </c>
-      <c r="B22" t="s">
-        <v>181</v>
-      </c>
-      <c r="C22" t="s">
-        <v>182</v>
-      </c>
-      <c r="D22" t="s">
-        <v>183</v>
-      </c>
-      <c r="E22" t="s">
-        <v>184</v>
-      </c>
-      <c r="F22" t="s">
-        <v>185</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>212</v>
-      </c>
+      <c r="A22" s="31"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
       <c r="K22" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>8,  Riedl-Leirer Monika, Friedrichstrasse 92, Bad Säckingen, DE</v>
+        <v xml:space="preserve">, ,  , , </v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="31">
-        <v>4</v>
-      </c>
-      <c r="B23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C23" t="s">
-        <v>187</v>
-      </c>
-      <c r="D23" t="s">
-        <v>138</v>
-      </c>
-      <c r="E23" t="s">
-        <v>188</v>
-      </c>
-      <c r="F23" t="s">
-        <v>189</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>203</v>
-      </c>
+      <c r="A23" s="31"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
       <c r="K23" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>4,  Schaich Peter, Bogenstrasse 2, SONTHOFEN, DE</v>
+        <v xml:space="preserve">, ,  , , </v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="31">
-        <v>261</v>
-      </c>
-      <c r="B24" t="s">
-        <v>190</v>
-      </c>
-      <c r="C24" t="s">
-        <v>191</v>
-      </c>
-      <c r="D24" t="s">
-        <v>174</v>
-      </c>
-      <c r="E24" t="s">
-        <v>192</v>
-      </c>
-      <c r="F24" t="s">
-        <v>193</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>212</v>
-      </c>
+      <c r="A24" s="31"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
       <c r="K24" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>261,  Schmidt Fritz, Am Kirchplatz 11, Greding, DE</v>
+        <v xml:space="preserve">, ,  , , </v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="31">
-        <v>3</v>
-      </c>
-      <c r="B25" t="s">
-        <v>194</v>
-      </c>
-      <c r="C25" t="s">
-        <v>195</v>
-      </c>
-      <c r="D25" t="s">
-        <v>196</v>
-      </c>
-      <c r="E25" t="s">
-        <v>188</v>
-      </c>
-      <c r="F25" t="s">
-        <v>197</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>203</v>
-      </c>
+      <c r="A25" s="31"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
       <c r="K25" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>3,  Voggel Anton, Weiler Strasse 5, Fischen, DE</v>
+        <v xml:space="preserve">, ,  , , </v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="31">
-        <v>742</v>
-      </c>
-      <c r="B26" t="s">
-        <v>198</v>
-      </c>
-      <c r="C26" t="s">
-        <v>199</v>
-      </c>
-      <c r="D26" t="s">
-        <v>200</v>
-      </c>
-      <c r="E26" t="s">
-        <v>201</v>
-      </c>
-      <c r="F26" t="s">
-        <v>202</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>212</v>
-      </c>
+      <c r="A26" s="31"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
       <c r="K26" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>742,  Wolf Bernhard, Saalestrasse 24, Bad Neustadt, DE</v>
+        <v xml:space="preserve">, ,  , , </v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -5351,6 +4559,2706 @@
     <row r="50" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K50" s="2" t="str">
         <f t="shared" si="0"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="51" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K51" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="52" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K52" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="53" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K53" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="54" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K54" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="55" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K55" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="56" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K56" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="57" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K57" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="58" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K58" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="59" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K59" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="60" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K60" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="61" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K61" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="62" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K62" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="63" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K63" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="64" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K64" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="65" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K65" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="66" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K66" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="67" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K67" s="2" t="str">
+        <f t="shared" ref="K67:K130" si="1">A67&amp;", "&amp;B67&amp;", "&amp;C67&amp;" "&amp;D67&amp;", "&amp;F67&amp;", "&amp;I67</f>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="68" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K68" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="69" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K69" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="70" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K70" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="71" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K71" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="72" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K72" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="73" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K73" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="74" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K74" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="75" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K75" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="76" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K76" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="77" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K77" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="78" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K78" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="79" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K79" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="80" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K80" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="81" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K81" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="82" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K82" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="83" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K83" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="84" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K84" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="85" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K85" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="86" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K86" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="87" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K87" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="88" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K88" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="89" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K89" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="90" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K90" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="91" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K91" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="92" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K92" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="93" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K93" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="94" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K94" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="95" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K95" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="96" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K96" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="97" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K97" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="98" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K98" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="99" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K99" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="100" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K100" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="101" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K101" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="102" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K102" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="103" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K103" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="104" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K104" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="105" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K105" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="106" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K106" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="107" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K107" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="108" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K108" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="109" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K109" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="110" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K110" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="111" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K111" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="112" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K112" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="113" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K113" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="114" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K114" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="115" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K115" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="116" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K116" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="117" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K117" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="118" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K118" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="119" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K119" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="120" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K120" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="121" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K121" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="122" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K122" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="123" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K123" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="124" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K124" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="125" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K125" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="126" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K126" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="127" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K127" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="128" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K128" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="129" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K129" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="130" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K130" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="131" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K131" s="2" t="str">
+        <f t="shared" ref="K131:K194" si="2">A131&amp;", "&amp;B131&amp;", "&amp;C131&amp;" "&amp;D131&amp;", "&amp;F131&amp;", "&amp;I131</f>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="132" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K132" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="133" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K133" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="134" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K134" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="135" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K135" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="136" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K136" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="137" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K137" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="138" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K138" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="139" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K139" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="140" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K140" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="141" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K141" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="142" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K142" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="143" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K143" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="144" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K144" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="145" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K145" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="146" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K146" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="147" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K147" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="148" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K148" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="149" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K149" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="150" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K150" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="151" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K151" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="152" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K152" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="153" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K153" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="154" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K154" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="155" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K155" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="156" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K156" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="157" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K157" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="158" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K158" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="159" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K159" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="160" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K160" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="161" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K161" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="162" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K162" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="163" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K163" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="164" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K164" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="165" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K165" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="166" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K166" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="167" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K167" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="168" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K168" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="169" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K169" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="170" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K170" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="171" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K171" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="172" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K172" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="173" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K173" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="174" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K174" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="175" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K175" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="176" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K176" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="177" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K177" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="178" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K178" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="179" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K179" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="180" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K180" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="181" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K181" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="182" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K182" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="183" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K183" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="184" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K184" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="185" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K185" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="186" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K186" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="187" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K187" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="188" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K188" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="189" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K189" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="190" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K190" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="191" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K191" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="192" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K192" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="193" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K193" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="194" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K194" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="195" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K195" s="2" t="str">
+        <f t="shared" ref="K195:K258" si="3">A195&amp;", "&amp;B195&amp;", "&amp;C195&amp;" "&amp;D195&amp;", "&amp;F195&amp;", "&amp;I195</f>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="196" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K196" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="197" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K197" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="198" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K198" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="199" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K199" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="200" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K200" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="201" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K201" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="202" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K202" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="203" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K203" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="204" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K204" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="205" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K205" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="206" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K206" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="207" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K207" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="208" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K208" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="209" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K209" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="210" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K210" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="211" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K211" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="212" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K212" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="213" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K213" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="214" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K214" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="215" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K215" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="216" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K216" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="217" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K217" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="218" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K218" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="219" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K219" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="220" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K220" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="221" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K221" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="222" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K222" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="223" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K223" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="224" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K224" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="225" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K225" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="226" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K226" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="227" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K227" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="228" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K228" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="229" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K229" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="230" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K230" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="231" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K231" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="232" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K232" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="233" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K233" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="234" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K234" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="235" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K235" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="236" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K236" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="237" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K237" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="238" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K238" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="239" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K239" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="240" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K240" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="241" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K241" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="242" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K242" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="243" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K243" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="244" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K244" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="245" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K245" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="246" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K246" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="247" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K247" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="248" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K248" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="249" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K249" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="250" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K250" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="251" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K251" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="252" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K252" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="253" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K253" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="254" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K254" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="255" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K255" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="256" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K256" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="257" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K257" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="258" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K258" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="259" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K259" s="2" t="str">
+        <f t="shared" ref="K259:K322" si="4">A259&amp;", "&amp;B259&amp;", "&amp;C259&amp;" "&amp;D259&amp;", "&amp;F259&amp;", "&amp;I259</f>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="260" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K260" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="261" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K261" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="262" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K262" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="263" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K263" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="264" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K264" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="265" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K265" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="266" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K266" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="267" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K267" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="268" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K268" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="269" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K269" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="270" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K270" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="271" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K271" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="272" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K272" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="273" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K273" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="274" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K274" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="275" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K275" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="276" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K276" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="277" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K277" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="278" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K278" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="279" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K279" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="280" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K280" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="281" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K281" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="282" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K282" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="283" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K283" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="284" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K284" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="285" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K285" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="286" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K286" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="287" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K287" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="288" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K288" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="289" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K289" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="290" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K290" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="291" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K291" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="292" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K292" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="293" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K293" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="294" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K294" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="295" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K295" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="296" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K296" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="297" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K297" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="298" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K298" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="299" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K299" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="300" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K300" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="301" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K301" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="302" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K302" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="303" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K303" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="304" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K304" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="305" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K305" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="306" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K306" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="307" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K307" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="308" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K308" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="309" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K309" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="310" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K310" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="311" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K311" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="312" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K312" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="313" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K313" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="314" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K314" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="315" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K315" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="316" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K316" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="317" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K317" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="318" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K318" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="319" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K319" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="320" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K320" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="321" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K321" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="322" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K322" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="323" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K323" s="2" t="str">
+        <f t="shared" ref="K323:K386" si="5">A323&amp;", "&amp;B323&amp;", "&amp;C323&amp;" "&amp;D323&amp;", "&amp;F323&amp;", "&amp;I323</f>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="324" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K324" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="325" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K325" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="326" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K326" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="327" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K327" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="328" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K328" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="329" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K329" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="330" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K330" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="331" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K331" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="332" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K332" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="333" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K333" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="334" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K334" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="335" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K335" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="336" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K336" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="337" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K337" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="338" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K338" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="339" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K339" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="340" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K340" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="341" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K341" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="342" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K342" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="343" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K343" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="344" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K344" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="345" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K345" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="346" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K346" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="347" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K347" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="348" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K348" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="349" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K349" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="350" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K350" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="351" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K351" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="352" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K352" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="353" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K353" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="354" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K354" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="355" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K355" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="356" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K356" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="357" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K357" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="358" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K358" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="359" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K359" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="360" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K360" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="361" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K361" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="362" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K362" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="363" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K363" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="364" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K364" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="365" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K365" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="366" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K366" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="367" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K367" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="368" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K368" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="369" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K369" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="370" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K370" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="371" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K371" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="372" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K372" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="373" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K373" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="374" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K374" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="375" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K375" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="376" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K376" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="377" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K377" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="378" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K378" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="379" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K379" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="380" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K380" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="381" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K381" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="382" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K382" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="383" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K383" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="384" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K384" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="385" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K385" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="386" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K386" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="387" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K387" s="2" t="str">
+        <f t="shared" ref="K387:K450" si="6">A387&amp;", "&amp;B387&amp;", "&amp;C387&amp;" "&amp;D387&amp;", "&amp;F387&amp;", "&amp;I387</f>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="388" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K388" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="389" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K389" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="390" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K390" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="391" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K391" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="392" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K392" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="393" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K393" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="394" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K394" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="395" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K395" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="396" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K396" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="397" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K397" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="398" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K398" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="399" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K399" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="400" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K400" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="401" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K401" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="402" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K402" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="403" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K403" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="404" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K404" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="405" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K405" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="406" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K406" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="407" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K407" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="408" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K408" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="409" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K409" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="410" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K410" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="411" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K411" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="412" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K412" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="413" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K413" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="414" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K414" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="415" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K415" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="416" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K416" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="417" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K417" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="418" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K418" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="419" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K419" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="420" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K420" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="421" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K421" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="422" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K422" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="423" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K423" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="424" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K424" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="425" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K425" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="426" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K426" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="427" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K427" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="428" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K428" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="429" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K429" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="430" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K430" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="431" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K431" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="432" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K432" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="433" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K433" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="434" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K434" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="435" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K435" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="436" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K436" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="437" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K437" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="438" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K438" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="439" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K439" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="440" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K440" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="441" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K441" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="442" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K442" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="443" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K443" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="444" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K444" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="445" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K445" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="446" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K446" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="447" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K447" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="448" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K448" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="449" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K449" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="450" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K450" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="451" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K451" s="2" t="str">
+        <f t="shared" ref="K451:K500" si="7">A451&amp;", "&amp;B451&amp;", "&amp;C451&amp;" "&amp;D451&amp;", "&amp;F451&amp;", "&amp;I451</f>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="452" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K452" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="453" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K453" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="454" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K454" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="455" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K455" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="456" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K456" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="457" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K457" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="458" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K458" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="459" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K459" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="460" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K460" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="461" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K461" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="462" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K462" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="463" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K463" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="464" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K464" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="465" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K465" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="466" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K466" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="467" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K467" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="468" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K468" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="469" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K469" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="470" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K470" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="471" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K471" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="472" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K472" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="473" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K473" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="474" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K474" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="475" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K475" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="476" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K476" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="477" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K477" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="478" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K478" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="479" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K479" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="480" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K480" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="481" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K481" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="482" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K482" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="483" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K483" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="484" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K484" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="485" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K485" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="486" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K486" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="487" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K487" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="488" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K488" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="489" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K489" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="490" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K490" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="491" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K491" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="492" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K492" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="493" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K493" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="494" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K494" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="495" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K495" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="496" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K496" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="497" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K497" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="498" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K498" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="499" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K499" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">, ,  , , </v>
+      </c>
+    </row>
+    <row r="500" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K500" s="2" t="str">
+        <f t="shared" si="7"/>
         <v xml:space="preserve">, ,  , , </v>
       </c>
     </row>
@@ -5380,7 +7288,7 @@
   <dimension ref="A1:G150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5396,19 +7304,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="102" t="s">
-        <v>216</v>
-      </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="99" t="s">
+      <c r="A1" s="119" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="115" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="103"/>
-      <c r="F1" s="99" t="s">
+      <c r="E1" s="120"/>
+      <c r="F1" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="100" t="s">
+      <c r="G1" s="117" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5428,8 +7336,8 @@
       <c r="E2" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="89"/>
-      <c r="G2" s="101"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="118"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="52"/>
@@ -6791,7 +8699,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Stations!$K$2:$K$50</xm:f>
@@ -6803,6 +8711,12 @@
             <xm:f>LookUp!$D$2:$D$34</xm:f>
           </x14:formula1>
           <xm:sqref>E3:E150</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>BackTracing!$C$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>G3:G150</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6902,7 +8816,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>203</v>
+        <v>89</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>72</v>
@@ -6916,7 +8830,7 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>204</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>71</v>
@@ -6930,13 +8844,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>205</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>213</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -6944,7 +8858,7 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>206</v>
+        <v>92</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>70</v>
@@ -6958,7 +8872,7 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>207</v>
+        <v>93</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>65</v>
@@ -6972,7 +8886,7 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>208</v>
+        <v>94</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>17</v>
@@ -6986,7 +8900,7 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>209</v>
+        <v>95</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>66</v>
@@ -7000,7 +8914,7 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>210</v>
+        <v>96</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>67</v>
@@ -7014,7 +8928,7 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>211</v>
+        <v>97</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>68</v>
@@ -7028,7 +8942,7 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>212</v>
+        <v>98</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>69</v>
@@ -7189,7 +9103,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>214</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">

--- a/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/BfR_Format_Backtrace.xlsx
+++ b/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/BfR_Format_Backtrace.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="116">
   <si>
     <t>Supplier</t>
   </si>
@@ -368,6 +368,16 @@
   </si>
   <si>
     <t>Ingredients for Lot(s)</t>
+  </si>
+  <si>
+    <t>IMMER echte PFLICHT!!! Falls nicht bekannt, dann bitte eines ausdenken!</t>
+  </si>
+  <si>
+    <t>pro Exceltabelle wird nur nur eine "Station in Focus"  abgefragt.
+Es können mehrere Lieferungen bzw. Lots abgefragt werden.
+Für jedes Lot gilt es:
+- weitere Lotinformationen zu erfassen
+- alle Zutaten-Lieferungen zu erfassen</t>
   </si>
 </sst>
 </file>
@@ -1729,76 +1739,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1822,7 +1762,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1842,13 +1789,22 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1865,6 +1821,60 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2298,7 +2308,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:M17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2324,11 +2336,11 @@
       <c r="A1" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="91"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="71"/>
     </row>
     <row r="2" spans="1:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="37"/>
@@ -2339,58 +2351,58 @@
       <c r="F2" s="40"/>
     </row>
     <row r="3" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="72" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="95"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="75"/>
     </row>
     <row r="4" spans="1:14" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="106" t="s">
+      <c r="C4" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="69" t="s">
+      <c r="D4" s="100" t="s">
         <v>102</v>
       </c>
-      <c r="E4" s="70"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="69" t="s">
+      <c r="E4" s="101"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="H4" s="70"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="113" t="s">
+      <c r="H4" s="101"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="114"/>
-      <c r="L4" s="106" t="s">
+      <c r="K4" s="99"/>
+      <c r="L4" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="107" t="s">
+      <c r="M4" s="90" t="s">
         <v>79</v>
       </c>
       <c r="N4" s="29"/>
     </row>
     <row r="5" spans="1:14" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
+      <c r="A5" s="93"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
       <c r="D5" s="33" t="s">
         <v>82</v>
       </c>
@@ -2415,8 +2427,8 @@
       <c r="K5" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="L5" s="83"/>
-      <c r="M5" s="73"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="91"/>
       <c r="N5" s="29"/>
     </row>
     <row r="6" spans="1:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2448,11 +2460,11 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="95" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="111"/>
-      <c r="C8" s="112"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="97"/>
       <c r="D8" s="30"/>
       <c r="E8" s="30"/>
       <c r="F8" s="30"/>
@@ -2488,51 +2500,51 @@
       <c r="D11" s="28"/>
     </row>
     <row r="12" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="97" t="s">
+      <c r="A12" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="B12" s="98"/>
-      <c r="C12" s="98"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="98"/>
-      <c r="H12" s="98"/>
-      <c r="I12" s="98"/>
-      <c r="J12" s="98"/>
-      <c r="K12" s="98"/>
-      <c r="L12" s="98"/>
-      <c r="M12" s="99"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="79"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="75"/>
-      <c r="B13" s="77" t="s">
+      <c r="A13" s="105"/>
+      <c r="B13" s="107" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="78"/>
-      <c r="D13" s="79" t="s">
+      <c r="C13" s="82"/>
+      <c r="D13" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="79" t="s">
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="79" t="s">
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="80" t="s">
         <v>104</v>
       </c>
-      <c r="K13" s="100"/>
-      <c r="L13" s="103" t="s">
+      <c r="K13" s="81"/>
+      <c r="L13" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="M13" s="104" t="s">
+      <c r="M13" s="86" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="76"/>
+      <c r="A14" s="106"/>
       <c r="B14" s="63" t="s">
         <v>86</v>
       </c>
@@ -2557,10 +2569,10 @@
       <c r="I14" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="J14" s="78"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="78"/>
-      <c r="M14" s="105"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="87"/>
     </row>
     <row r="15" spans="1:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="65"/>
@@ -2572,8 +2584,8 @@
       <c r="G15" s="66"/>
       <c r="H15" s="66"/>
       <c r="I15" s="66"/>
-      <c r="J15" s="101"/>
-      <c r="K15" s="102"/>
+      <c r="J15" s="83"/>
+      <c r="K15" s="84"/>
       <c r="L15" s="67"/>
       <c r="M15" s="68"/>
     </row>
@@ -2593,57 +2605,57 @@
       <c r="M16" s="28"/>
     </row>
     <row r="17" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="92" t="s">
+      <c r="A17" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="B17" s="96"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="96"/>
-      <c r="K17" s="94"/>
-      <c r="L17" s="94"/>
-      <c r="M17" s="95"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="75"/>
     </row>
     <row r="18" spans="1:13" s="20" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="80" t="s">
+      <c r="A18" s="108" t="s">
         <v>107</v>
       </c>
-      <c r="B18" s="82" t="s">
+      <c r="B18" s="109" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="84" t="s">
+      <c r="C18" s="110" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="74" t="s">
+      <c r="D18" s="104" t="s">
         <v>102</v>
       </c>
-      <c r="E18" s="70"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="86" t="s">
+      <c r="E18" s="101"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="112" t="s">
         <v>103</v>
       </c>
-      <c r="H18" s="87"/>
-      <c r="I18" s="88"/>
-      <c r="J18" s="74" t="s">
+      <c r="H18" s="113"/>
+      <c r="I18" s="114"/>
+      <c r="J18" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="K18" s="71"/>
-      <c r="L18" s="84" t="s">
+      <c r="K18" s="102"/>
+      <c r="L18" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="M18" s="72" t="s">
+      <c r="M18" s="103" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="81"/>
-      <c r="B19" s="83"/>
-      <c r="C19" s="85"/>
+      <c r="A19" s="93"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="111"/>
       <c r="D19" s="19" t="s">
         <v>82</v>
       </c>
@@ -2668,8 +2680,8 @@
       <c r="K19" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="L19" s="83"/>
-      <c r="M19" s="73"/>
+      <c r="L19" s="89"/>
+      <c r="M19" s="91"/>
     </row>
     <row r="20" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="48"/>
@@ -3966,6 +3978,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="G18:I18"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="A3:M3"/>
     <mergeCell ref="A17:M17"/>
@@ -3982,19 +4007,6 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="G4:I4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="G18:I18"/>
   </mergeCells>
   <dataValidations count="8">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L16"/>
@@ -9083,10 +9095,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9096,22 +9108,35 @@
     <col min="3" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="23"/>
     </row>
   </sheetData>

--- a/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/BfR_Format_Backtrace.xlsx
+++ b/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/BfR_Format_Backtrace.xlsx
@@ -4,30 +4,27 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="BackTracing" sheetId="5" r:id="rId1"/>
-    <sheet name="Stations" sheetId="2" r:id="rId2"/>
+    <sheet name="Stations" sheetId="2" r:id="rId1"/>
+    <sheet name="BackTracing" sheetId="5" r:id="rId2"/>
     <sheet name="Opt_ForwardTracing" sheetId="1" r:id="rId3"/>
     <sheet name="Opt_Sampling" sheetId="4" r:id="rId4"/>
     <sheet name="LookUp" sheetId="3" r:id="rId5"/>
     <sheet name="Help" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Stations!$A$1:$K$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Stations!$A$1:$K$50</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="120">
   <si>
     <t>Supplier</t>
-  </si>
-  <si>
-    <t>Product Number</t>
   </si>
   <si>
     <t>Product Name</t>
@@ -289,9 +286,6 @@
     <t>Type / Unit</t>
   </si>
   <si>
-    <t>Production</t>
-  </si>
-  <si>
     <t>Endkunde</t>
   </si>
   <si>
@@ -328,9 +322,6 @@
     <t>ist bereits ausgefüllt vom Receiver, kann aber korrigiert werden vom Inspektor</t>
   </si>
   <si>
-    <t>Expiry / Best before date</t>
-  </si>
-  <si>
     <t>Delivery Departure</t>
   </si>
   <si>
@@ -346,15 +337,7 @@
     <t>Station in Focus:</t>
   </si>
   <si>
-    <t>Product Name
-of Ingredient</t>
-  </si>
-  <si>
     <t>Lot Number
-of Ingredient</t>
-  </si>
-  <si>
-    <t>Product Number
 of Ingredient</t>
   </si>
   <si>
@@ -378,6 +361,34 @@
 Für jedes Lot gilt es:
 - weitere Lotinformationen zu erfassen
 - alle Zutaten-Lieferungen zu erfassen</t>
+  </si>
+  <si>
+    <t>Additional Fields</t>
+  </si>
+  <si>
+    <t>Additional Fields:</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Ingredient Name</t>
+  </si>
+  <si>
+    <t>Lot Number of "Product Out"</t>
+  </si>
+  <si>
+    <t>Item Number</t>
+  </si>
+  <si>
+    <t>Item Number
+of Ingredient</t>
+  </si>
+  <si>
+    <t>Production Date</t>
+  </si>
+  <si>
+    <t>Best before date</t>
   </si>
 </sst>
 </file>
@@ -649,7 +660,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="30">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -824,8 +835,14 @@
         <bgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="45">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -1104,19 +1121,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1130,37 +1134,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
@@ -1289,37 +1267,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1335,15 +1282,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1354,17 +1292,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1389,6 +1316,93 @@
         <color indexed="64"/>
       </left>
       <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -1514,7 +1528,7 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
@@ -1548,28 +1562,8 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1614,9 +1608,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="77" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
@@ -1651,27 +1642,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1682,101 +1670,273 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="30" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="30" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="30" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="30" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="30" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1785,88 +1945,25 @@
     <xf numFmtId="0" fontId="36" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="30" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1877,21 +1974,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2306,1774 +2407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N106"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:M17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="2"/>
-    <col min="12" max="12" width="52.28515625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="18.42578125" style="2" customWidth="1"/>
-    <col min="14" max="15" width="11.42578125" style="2"/>
-    <col min="16" max="16" width="10.42578125" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="11.42578125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="71"/>
-    </row>
-    <row r="2" spans="1:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-    </row>
-    <row r="3" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="72" t="s">
-        <v>112</v>
-      </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="75"/>
-    </row>
-    <row r="4" spans="1:14" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="94" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="88" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="100" t="s">
-        <v>102</v>
-      </c>
-      <c r="E4" s="101"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="100" t="s">
-        <v>85</v>
-      </c>
-      <c r="H4" s="101"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="98" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="99"/>
-      <c r="L4" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="90" t="s">
-        <v>79</v>
-      </c>
-      <c r="N4" s="29"/>
-    </row>
-    <row r="5" spans="1:14" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="H5" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="I5" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="J5" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="K5" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="L5" s="89"/>
-      <c r="M5" s="91"/>
-      <c r="N5" s="29"/>
-    </row>
-    <row r="6" spans="1:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="42"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="44"/>
-    </row>
-    <row r="7" spans="1:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="41"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="28"/>
-    </row>
-    <row r="8" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="95" t="s">
-        <v>110</v>
-      </c>
-      <c r="B8" s="96"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-    </row>
-    <row r="9" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="28"/>
-    </row>
-    <row r="10" spans="1:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="58"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="28"/>
-    </row>
-    <row r="11" spans="1:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="28"/>
-    </row>
-    <row r="12" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="77" t="s">
-        <v>111</v>
-      </c>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="78"/>
-      <c r="K12" s="78"/>
-      <c r="L12" s="78"/>
-      <c r="M12" s="79"/>
-    </row>
-    <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="105"/>
-      <c r="B13" s="107" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" s="82"/>
-      <c r="D13" s="80" t="s">
-        <v>88</v>
-      </c>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="80" t="s">
-        <v>101</v>
-      </c>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="80" t="s">
-        <v>104</v>
-      </c>
-      <c r="K13" s="81"/>
-      <c r="L13" s="85" t="s">
-        <v>75</v>
-      </c>
-      <c r="M13" s="86" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="106"/>
-      <c r="B14" s="63" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" s="64" t="s">
-        <v>82</v>
-      </c>
-      <c r="E14" s="64" t="s">
-        <v>83</v>
-      </c>
-      <c r="F14" s="64" t="s">
-        <v>84</v>
-      </c>
-      <c r="G14" s="64" t="s">
-        <v>82</v>
-      </c>
-      <c r="H14" s="64" t="s">
-        <v>83</v>
-      </c>
-      <c r="I14" s="64" t="s">
-        <v>84</v>
-      </c>
-      <c r="J14" s="82"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="82"/>
-      <c r="M14" s="87"/>
-    </row>
-    <row r="15" spans="1:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="65"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="83"/>
-      <c r="K15" s="84"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="68"/>
-    </row>
-    <row r="16" spans="1:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="28"/>
-    </row>
-    <row r="17" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="72" t="s">
-        <v>113</v>
-      </c>
-      <c r="B17" s="76"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="76"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="74"/>
-      <c r="M17" s="75"/>
-    </row>
-    <row r="18" spans="1:13" s="20" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="108" t="s">
-        <v>107</v>
-      </c>
-      <c r="B18" s="109" t="s">
-        <v>109</v>
-      </c>
-      <c r="C18" s="110" t="s">
-        <v>108</v>
-      </c>
-      <c r="D18" s="104" t="s">
-        <v>102</v>
-      </c>
-      <c r="E18" s="101"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="112" t="s">
-        <v>103</v>
-      </c>
-      <c r="H18" s="113"/>
-      <c r="I18" s="114"/>
-      <c r="J18" s="104" t="s">
-        <v>33</v>
-      </c>
-      <c r="K18" s="102"/>
-      <c r="L18" s="110" t="s">
-        <v>0</v>
-      </c>
-      <c r="M18" s="103" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="93"/>
-      <c r="B19" s="89"/>
-      <c r="C19" s="111"/>
-      <c r="D19" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="G19" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="H19" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="I19" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="J19" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="K19" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="L19" s="89"/>
-      <c r="M19" s="91"/>
-    </row>
-    <row r="20" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="48"/>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="62"/>
-    </row>
-    <row r="21" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="48"/>
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="60"/>
-      <c r="M21" s="62"/>
-    </row>
-    <row r="22" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="48"/>
-      <c r="B22" s="60"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="62"/>
-    </row>
-    <row r="23" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="48"/>
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="60"/>
-      <c r="M23" s="62"/>
-    </row>
-    <row r="24" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="48"/>
-      <c r="B24" s="60"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="60"/>
-      <c r="L24" s="60"/>
-      <c r="M24" s="62"/>
-    </row>
-    <row r="25" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="48"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="60"/>
-      <c r="M25" s="62"/>
-    </row>
-    <row r="26" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="48"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="62"/>
-    </row>
-    <row r="27" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="61"/>
-      <c r="B27" s="60"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="60"/>
-      <c r="M27" s="62"/>
-    </row>
-    <row r="28" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="61"/>
-      <c r="B28" s="60"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="60"/>
-      <c r="M28" s="62"/>
-    </row>
-    <row r="29" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="61"/>
-      <c r="B29" s="60"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="62"/>
-    </row>
-    <row r="30" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="61"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="60"/>
-      <c r="L30" s="60"/>
-      <c r="M30" s="62"/>
-    </row>
-    <row r="31" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="61"/>
-      <c r="B31" s="60"/>
-      <c r="C31" s="60"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="60"/>
-      <c r="L31" s="60"/>
-      <c r="M31" s="62"/>
-    </row>
-    <row r="32" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="61"/>
-      <c r="B32" s="60"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="60"/>
-      <c r="L32" s="60"/>
-      <c r="M32" s="62"/>
-    </row>
-    <row r="33" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="61"/>
-      <c r="B33" s="60"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="60"/>
-      <c r="L33" s="60"/>
-      <c r="M33" s="62"/>
-    </row>
-    <row r="34" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="61"/>
-      <c r="B34" s="60"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="60"/>
-      <c r="L34" s="60"/>
-      <c r="M34" s="62"/>
-    </row>
-    <row r="35" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="61"/>
-      <c r="B35" s="60"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="60"/>
-      <c r="L35" s="60"/>
-      <c r="M35" s="62"/>
-    </row>
-    <row r="36" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="61"/>
-      <c r="B36" s="60"/>
-      <c r="C36" s="60"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="60"/>
-      <c r="L36" s="60"/>
-      <c r="M36" s="62"/>
-    </row>
-    <row r="37" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="61"/>
-      <c r="B37" s="60"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="60"/>
-      <c r="L37" s="60"/>
-      <c r="M37" s="62"/>
-    </row>
-    <row r="38" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="61"/>
-      <c r="B38" s="60"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="60"/>
-      <c r="L38" s="60"/>
-      <c r="M38" s="62"/>
-    </row>
-    <row r="39" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="61"/>
-      <c r="B39" s="60"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="60"/>
-      <c r="L39" s="60"/>
-      <c r="M39" s="62"/>
-    </row>
-    <row r="40" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="61"/>
-      <c r="B40" s="60"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="60"/>
-      <c r="L40" s="60"/>
-      <c r="M40" s="62"/>
-    </row>
-    <row r="41" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="61"/>
-      <c r="B41" s="60"/>
-      <c r="C41" s="60"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="25"/>
-      <c r="K41" s="60"/>
-      <c r="L41" s="60"/>
-      <c r="M41" s="62"/>
-    </row>
-    <row r="42" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="61"/>
-      <c r="B42" s="60"/>
-      <c r="C42" s="60"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="25"/>
-      <c r="K42" s="60"/>
-      <c r="L42" s="60"/>
-      <c r="M42" s="62"/>
-    </row>
-    <row r="43" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="61"/>
-      <c r="B43" s="60"/>
-      <c r="C43" s="60"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="60"/>
-      <c r="L43" s="60"/>
-      <c r="M43" s="62"/>
-    </row>
-    <row r="44" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="61"/>
-      <c r="B44" s="60"/>
-      <c r="C44" s="60"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="60"/>
-      <c r="L44" s="60"/>
-      <c r="M44" s="62"/>
-    </row>
-    <row r="45" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="61"/>
-      <c r="B45" s="60"/>
-      <c r="C45" s="60"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="25"/>
-      <c r="K45" s="60"/>
-      <c r="L45" s="60"/>
-      <c r="M45" s="62"/>
-    </row>
-    <row r="46" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="61"/>
-      <c r="B46" s="60"/>
-      <c r="C46" s="60"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25"/>
-      <c r="J46" s="25"/>
-      <c r="K46" s="60"/>
-      <c r="L46" s="60"/>
-      <c r="M46" s="62"/>
-    </row>
-    <row r="47" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="61"/>
-      <c r="B47" s="60"/>
-      <c r="C47" s="60"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="25"/>
-      <c r="K47" s="60"/>
-      <c r="L47" s="60"/>
-      <c r="M47" s="62"/>
-    </row>
-    <row r="48" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="61"/>
-      <c r="B48" s="60"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="25"/>
-      <c r="K48" s="60"/>
-      <c r="L48" s="60"/>
-      <c r="M48" s="62"/>
-    </row>
-    <row r="49" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="61"/>
-      <c r="B49" s="60"/>
-      <c r="C49" s="60"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="25"/>
-      <c r="K49" s="60"/>
-      <c r="L49" s="60"/>
-      <c r="M49" s="62"/>
-    </row>
-    <row r="50" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="61"/>
-      <c r="B50" s="60"/>
-      <c r="C50" s="60"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="25"/>
-      <c r="J50" s="25"/>
-      <c r="K50" s="60"/>
-      <c r="L50" s="60"/>
-      <c r="M50" s="62"/>
-    </row>
-    <row r="51" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="61"/>
-      <c r="B51" s="60"/>
-      <c r="C51" s="60"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="25"/>
-      <c r="K51" s="60"/>
-      <c r="L51" s="60"/>
-      <c r="M51" s="62"/>
-    </row>
-    <row r="52" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="61"/>
-      <c r="B52" s="60"/>
-      <c r="C52" s="60"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="25"/>
-      <c r="K52" s="60"/>
-      <c r="L52" s="60"/>
-      <c r="M52" s="62"/>
-    </row>
-    <row r="53" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="61"/>
-      <c r="B53" s="60"/>
-      <c r="C53" s="60"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="25"/>
-      <c r="H53" s="25"/>
-      <c r="I53" s="25"/>
-      <c r="J53" s="25"/>
-      <c r="K53" s="60"/>
-      <c r="L53" s="60"/>
-      <c r="M53" s="62"/>
-    </row>
-    <row r="54" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="61"/>
-      <c r="B54" s="60"/>
-      <c r="C54" s="60"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="25"/>
-      <c r="H54" s="25"/>
-      <c r="I54" s="25"/>
-      <c r="J54" s="25"/>
-      <c r="K54" s="60"/>
-      <c r="L54" s="60"/>
-      <c r="M54" s="62"/>
-    </row>
-    <row r="55" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="61"/>
-      <c r="B55" s="60"/>
-      <c r="C55" s="60"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="25"/>
-      <c r="I55" s="25"/>
-      <c r="J55" s="25"/>
-      <c r="K55" s="60"/>
-      <c r="L55" s="60"/>
-      <c r="M55" s="62"/>
-    </row>
-    <row r="56" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="61"/>
-      <c r="B56" s="60"/>
-      <c r="C56" s="60"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="25"/>
-      <c r="H56" s="25"/>
-      <c r="I56" s="25"/>
-      <c r="J56" s="25"/>
-      <c r="K56" s="60"/>
-      <c r="L56" s="60"/>
-      <c r="M56" s="62"/>
-    </row>
-    <row r="57" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="61"/>
-      <c r="B57" s="60"/>
-      <c r="C57" s="60"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="25"/>
-      <c r="J57" s="25"/>
-      <c r="K57" s="60"/>
-      <c r="L57" s="60"/>
-      <c r="M57" s="62"/>
-    </row>
-    <row r="58" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="61"/>
-      <c r="B58" s="60"/>
-      <c r="C58" s="60"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="25"/>
-      <c r="J58" s="25"/>
-      <c r="K58" s="60"/>
-      <c r="L58" s="60"/>
-      <c r="M58" s="62"/>
-    </row>
-    <row r="59" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="61"/>
-      <c r="B59" s="60"/>
-      <c r="C59" s="60"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="25"/>
-      <c r="I59" s="25"/>
-      <c r="J59" s="25"/>
-      <c r="K59" s="60"/>
-      <c r="L59" s="60"/>
-      <c r="M59" s="62"/>
-    </row>
-    <row r="60" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="61"/>
-      <c r="B60" s="60"/>
-      <c r="C60" s="60"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="25"/>
-      <c r="K60" s="60"/>
-      <c r="L60" s="60"/>
-      <c r="M60" s="62"/>
-    </row>
-    <row r="61" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="61"/>
-      <c r="B61" s="60"/>
-      <c r="C61" s="60"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="25"/>
-      <c r="J61" s="25"/>
-      <c r="K61" s="60"/>
-      <c r="L61" s="60"/>
-      <c r="M61" s="62"/>
-    </row>
-    <row r="62" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="61"/>
-      <c r="B62" s="60"/>
-      <c r="C62" s="60"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
-      <c r="I62" s="25"/>
-      <c r="J62" s="25"/>
-      <c r="K62" s="60"/>
-      <c r="L62" s="60"/>
-      <c r="M62" s="62"/>
-    </row>
-    <row r="63" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="61"/>
-      <c r="B63" s="60"/>
-      <c r="C63" s="60"/>
-      <c r="D63" s="25"/>
-      <c r="E63" s="25"/>
-      <c r="F63" s="25"/>
-      <c r="G63" s="25"/>
-      <c r="H63" s="25"/>
-      <c r="I63" s="25"/>
-      <c r="J63" s="25"/>
-      <c r="K63" s="60"/>
-      <c r="L63" s="60"/>
-      <c r="M63" s="62"/>
-    </row>
-    <row r="64" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="61"/>
-      <c r="B64" s="60"/>
-      <c r="C64" s="60"/>
-      <c r="D64" s="25"/>
-      <c r="E64" s="25"/>
-      <c r="F64" s="25"/>
-      <c r="G64" s="25"/>
-      <c r="H64" s="25"/>
-      <c r="I64" s="25"/>
-      <c r="J64" s="25"/>
-      <c r="K64" s="60"/>
-      <c r="L64" s="60"/>
-      <c r="M64" s="62"/>
-    </row>
-    <row r="65" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="61"/>
-      <c r="B65" s="60"/>
-      <c r="C65" s="60"/>
-      <c r="D65" s="25"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="25"/>
-      <c r="G65" s="25"/>
-      <c r="H65" s="25"/>
-      <c r="I65" s="25"/>
-      <c r="J65" s="25"/>
-      <c r="K65" s="60"/>
-      <c r="L65" s="60"/>
-      <c r="M65" s="62"/>
-    </row>
-    <row r="66" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="61"/>
-      <c r="B66" s="60"/>
-      <c r="C66" s="60"/>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="25"/>
-      <c r="I66" s="25"/>
-      <c r="J66" s="25"/>
-      <c r="K66" s="60"/>
-      <c r="L66" s="60"/>
-      <c r="M66" s="62"/>
-    </row>
-    <row r="67" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="61"/>
-      <c r="B67" s="60"/>
-      <c r="C67" s="60"/>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="25"/>
-      <c r="I67" s="25"/>
-      <c r="J67" s="25"/>
-      <c r="K67" s="60"/>
-      <c r="L67" s="60"/>
-      <c r="M67" s="62"/>
-    </row>
-    <row r="68" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="61"/>
-      <c r="B68" s="60"/>
-      <c r="C68" s="60"/>
-      <c r="D68" s="25"/>
-      <c r="E68" s="25"/>
-      <c r="F68" s="25"/>
-      <c r="G68" s="25"/>
-      <c r="H68" s="25"/>
-      <c r="I68" s="25"/>
-      <c r="J68" s="25"/>
-      <c r="K68" s="60"/>
-      <c r="L68" s="60"/>
-      <c r="M68" s="62"/>
-    </row>
-    <row r="69" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="61"/>
-      <c r="B69" s="60"/>
-      <c r="C69" s="60"/>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="25"/>
-      <c r="K69" s="60"/>
-      <c r="L69" s="60"/>
-      <c r="M69" s="62"/>
-    </row>
-    <row r="70" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="61"/>
-      <c r="B70" s="60"/>
-      <c r="C70" s="60"/>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="25"/>
-      <c r="J70" s="25"/>
-      <c r="K70" s="60"/>
-      <c r="L70" s="60"/>
-      <c r="M70" s="62"/>
-    </row>
-    <row r="71" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="61"/>
-      <c r="B71" s="60"/>
-      <c r="C71" s="60"/>
-      <c r="D71" s="25"/>
-      <c r="E71" s="25"/>
-      <c r="F71" s="25"/>
-      <c r="G71" s="25"/>
-      <c r="H71" s="25"/>
-      <c r="I71" s="25"/>
-      <c r="J71" s="25"/>
-      <c r="K71" s="60"/>
-      <c r="L71" s="60"/>
-      <c r="M71" s="62"/>
-    </row>
-    <row r="72" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="61"/>
-      <c r="B72" s="60"/>
-      <c r="C72" s="60"/>
-      <c r="D72" s="25"/>
-      <c r="E72" s="25"/>
-      <c r="F72" s="25"/>
-      <c r="G72" s="25"/>
-      <c r="H72" s="25"/>
-      <c r="I72" s="25"/>
-      <c r="J72" s="25"/>
-      <c r="K72" s="60"/>
-      <c r="L72" s="60"/>
-      <c r="M72" s="62"/>
-    </row>
-    <row r="73" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="61"/>
-      <c r="B73" s="60"/>
-      <c r="C73" s="60"/>
-      <c r="D73" s="25"/>
-      <c r="E73" s="25"/>
-      <c r="F73" s="25"/>
-      <c r="G73" s="25"/>
-      <c r="H73" s="25"/>
-      <c r="I73" s="25"/>
-      <c r="J73" s="25"/>
-      <c r="K73" s="60"/>
-      <c r="L73" s="60"/>
-      <c r="M73" s="62"/>
-    </row>
-    <row r="74" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="61"/>
-      <c r="B74" s="60"/>
-      <c r="C74" s="60"/>
-      <c r="D74" s="25"/>
-      <c r="E74" s="25"/>
-      <c r="F74" s="25"/>
-      <c r="G74" s="25"/>
-      <c r="H74" s="25"/>
-      <c r="I74" s="25"/>
-      <c r="J74" s="25"/>
-      <c r="K74" s="60"/>
-      <c r="L74" s="60"/>
-      <c r="M74" s="62"/>
-    </row>
-    <row r="75" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="61"/>
-      <c r="B75" s="60"/>
-      <c r="C75" s="60"/>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="25"/>
-      <c r="I75" s="25"/>
-      <c r="J75" s="25"/>
-      <c r="K75" s="60"/>
-      <c r="L75" s="60"/>
-      <c r="M75" s="62"/>
-    </row>
-    <row r="76" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="61"/>
-      <c r="B76" s="60"/>
-      <c r="C76" s="60"/>
-      <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="25"/>
-      <c r="G76" s="25"/>
-      <c r="H76" s="25"/>
-      <c r="I76" s="25"/>
-      <c r="J76" s="25"/>
-      <c r="K76" s="60"/>
-      <c r="L76" s="60"/>
-      <c r="M76" s="62"/>
-    </row>
-    <row r="77" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="61"/>
-      <c r="B77" s="60"/>
-      <c r="C77" s="60"/>
-      <c r="D77" s="25"/>
-      <c r="E77" s="25"/>
-      <c r="F77" s="25"/>
-      <c r="G77" s="25"/>
-      <c r="H77" s="25"/>
-      <c r="I77" s="25"/>
-      <c r="J77" s="25"/>
-      <c r="K77" s="60"/>
-      <c r="L77" s="60"/>
-      <c r="M77" s="62"/>
-    </row>
-    <row r="78" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="61"/>
-      <c r="B78" s="60"/>
-      <c r="C78" s="60"/>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="25"/>
-      <c r="H78" s="25"/>
-      <c r="I78" s="25"/>
-      <c r="J78" s="25"/>
-      <c r="K78" s="60"/>
-      <c r="L78" s="60"/>
-      <c r="M78" s="62"/>
-    </row>
-    <row r="79" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="61"/>
-      <c r="B79" s="60"/>
-      <c r="C79" s="60"/>
-      <c r="D79" s="25"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="25"/>
-      <c r="H79" s="25"/>
-      <c r="I79" s="25"/>
-      <c r="J79" s="25"/>
-      <c r="K79" s="60"/>
-      <c r="L79" s="60"/>
-      <c r="M79" s="62"/>
-    </row>
-    <row r="80" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="61"/>
-      <c r="B80" s="60"/>
-      <c r="C80" s="60"/>
-      <c r="D80" s="25"/>
-      <c r="E80" s="25"/>
-      <c r="F80" s="25"/>
-      <c r="G80" s="25"/>
-      <c r="H80" s="25"/>
-      <c r="I80" s="25"/>
-      <c r="J80" s="25"/>
-      <c r="K80" s="60"/>
-      <c r="L80" s="60"/>
-      <c r="M80" s="62"/>
-    </row>
-    <row r="81" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="61"/>
-      <c r="B81" s="60"/>
-      <c r="C81" s="60"/>
-      <c r="D81" s="25"/>
-      <c r="E81" s="25"/>
-      <c r="F81" s="25"/>
-      <c r="G81" s="25"/>
-      <c r="H81" s="25"/>
-      <c r="I81" s="25"/>
-      <c r="J81" s="25"/>
-      <c r="K81" s="60"/>
-      <c r="L81" s="60"/>
-      <c r="M81" s="62"/>
-    </row>
-    <row r="82" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="61"/>
-      <c r="B82" s="60"/>
-      <c r="C82" s="60"/>
-      <c r="D82" s="25"/>
-      <c r="E82" s="25"/>
-      <c r="F82" s="25"/>
-      <c r="G82" s="25"/>
-      <c r="H82" s="25"/>
-      <c r="I82" s="25"/>
-      <c r="J82" s="25"/>
-      <c r="K82" s="60"/>
-      <c r="L82" s="60"/>
-      <c r="M82" s="62"/>
-    </row>
-    <row r="83" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="61"/>
-      <c r="B83" s="60"/>
-      <c r="C83" s="60"/>
-      <c r="D83" s="25"/>
-      <c r="E83" s="25"/>
-      <c r="F83" s="25"/>
-      <c r="G83" s="25"/>
-      <c r="H83" s="25"/>
-      <c r="I83" s="25"/>
-      <c r="J83" s="25"/>
-      <c r="K83" s="60"/>
-      <c r="L83" s="60"/>
-      <c r="M83" s="62"/>
-    </row>
-    <row r="84" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="61"/>
-      <c r="B84" s="60"/>
-      <c r="C84" s="60"/>
-      <c r="D84" s="25"/>
-      <c r="E84" s="25"/>
-      <c r="F84" s="25"/>
-      <c r="G84" s="25"/>
-      <c r="H84" s="25"/>
-      <c r="I84" s="25"/>
-      <c r="J84" s="25"/>
-      <c r="K84" s="60"/>
-      <c r="L84" s="60"/>
-      <c r="M84" s="62"/>
-    </row>
-    <row r="85" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="61"/>
-      <c r="B85" s="60"/>
-      <c r="C85" s="60"/>
-      <c r="D85" s="25"/>
-      <c r="E85" s="25"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="25"/>
-      <c r="H85" s="25"/>
-      <c r="I85" s="25"/>
-      <c r="J85" s="25"/>
-      <c r="K85" s="60"/>
-      <c r="L85" s="60"/>
-      <c r="M85" s="62"/>
-    </row>
-    <row r="86" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="61"/>
-      <c r="B86" s="60"/>
-      <c r="C86" s="60"/>
-      <c r="D86" s="25"/>
-      <c r="E86" s="25"/>
-      <c r="F86" s="25"/>
-      <c r="G86" s="25"/>
-      <c r="H86" s="25"/>
-      <c r="I86" s="25"/>
-      <c r="J86" s="25"/>
-      <c r="K86" s="60"/>
-      <c r="L86" s="60"/>
-      <c r="M86" s="62"/>
-    </row>
-    <row r="87" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="61"/>
-      <c r="B87" s="60"/>
-      <c r="C87" s="60"/>
-      <c r="D87" s="25"/>
-      <c r="E87" s="25"/>
-      <c r="F87" s="25"/>
-      <c r="G87" s="25"/>
-      <c r="H87" s="25"/>
-      <c r="I87" s="25"/>
-      <c r="J87" s="25"/>
-      <c r="K87" s="60"/>
-      <c r="L87" s="60"/>
-      <c r="M87" s="62"/>
-    </row>
-    <row r="88" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="61"/>
-      <c r="B88" s="60"/>
-      <c r="C88" s="60"/>
-      <c r="D88" s="25"/>
-      <c r="E88" s="25"/>
-      <c r="F88" s="25"/>
-      <c r="G88" s="25"/>
-      <c r="H88" s="25"/>
-      <c r="I88" s="25"/>
-      <c r="J88" s="25"/>
-      <c r="K88" s="60"/>
-      <c r="L88" s="60"/>
-      <c r="M88" s="62"/>
-    </row>
-    <row r="89" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="61"/>
-      <c r="B89" s="60"/>
-      <c r="C89" s="60"/>
-      <c r="D89" s="25"/>
-      <c r="E89" s="25"/>
-      <c r="F89" s="25"/>
-      <c r="G89" s="25"/>
-      <c r="H89" s="25"/>
-      <c r="I89" s="25"/>
-      <c r="J89" s="25"/>
-      <c r="K89" s="60"/>
-      <c r="L89" s="60"/>
-      <c r="M89" s="62"/>
-    </row>
-    <row r="90" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="61"/>
-      <c r="B90" s="60"/>
-      <c r="C90" s="60"/>
-      <c r="D90" s="25"/>
-      <c r="E90" s="25"/>
-      <c r="F90" s="25"/>
-      <c r="G90" s="25"/>
-      <c r="H90" s="25"/>
-      <c r="I90" s="25"/>
-      <c r="J90" s="25"/>
-      <c r="K90" s="60"/>
-      <c r="L90" s="60"/>
-      <c r="M90" s="62"/>
-    </row>
-    <row r="91" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="61"/>
-      <c r="B91" s="60"/>
-      <c r="C91" s="60"/>
-      <c r="D91" s="25"/>
-      <c r="E91" s="25"/>
-      <c r="F91" s="25"/>
-      <c r="G91" s="25"/>
-      <c r="H91" s="25"/>
-      <c r="I91" s="25"/>
-      <c r="J91" s="25"/>
-      <c r="K91" s="60"/>
-      <c r="L91" s="60"/>
-      <c r="M91" s="62"/>
-    </row>
-    <row r="92" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="61"/>
-      <c r="B92" s="60"/>
-      <c r="C92" s="60"/>
-      <c r="D92" s="25"/>
-      <c r="E92" s="25"/>
-      <c r="F92" s="25"/>
-      <c r="G92" s="25"/>
-      <c r="H92" s="25"/>
-      <c r="I92" s="25"/>
-      <c r="J92" s="25"/>
-      <c r="K92" s="60"/>
-      <c r="L92" s="60"/>
-      <c r="M92" s="62"/>
-    </row>
-    <row r="93" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="61"/>
-      <c r="B93" s="60"/>
-      <c r="C93" s="60"/>
-      <c r="D93" s="25"/>
-      <c r="E93" s="25"/>
-      <c r="F93" s="25"/>
-      <c r="G93" s="25"/>
-      <c r="H93" s="25"/>
-      <c r="I93" s="25"/>
-      <c r="J93" s="25"/>
-      <c r="K93" s="60"/>
-      <c r="L93" s="60"/>
-      <c r="M93" s="62"/>
-    </row>
-    <row r="94" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="61"/>
-      <c r="B94" s="60"/>
-      <c r="C94" s="60"/>
-      <c r="D94" s="25"/>
-      <c r="E94" s="25"/>
-      <c r="F94" s="25"/>
-      <c r="G94" s="25"/>
-      <c r="H94" s="25"/>
-      <c r="I94" s="25"/>
-      <c r="J94" s="25"/>
-      <c r="K94" s="60"/>
-      <c r="L94" s="60"/>
-      <c r="M94" s="62"/>
-    </row>
-    <row r="95" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="61"/>
-      <c r="B95" s="60"/>
-      <c r="C95" s="60"/>
-      <c r="D95" s="25"/>
-      <c r="E95" s="25"/>
-      <c r="F95" s="25"/>
-      <c r="G95" s="25"/>
-      <c r="H95" s="25"/>
-      <c r="I95" s="25"/>
-      <c r="J95" s="25"/>
-      <c r="K95" s="60"/>
-      <c r="L95" s="60"/>
-      <c r="M95" s="62"/>
-    </row>
-    <row r="96" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="61"/>
-      <c r="B96" s="60"/>
-      <c r="C96" s="60"/>
-      <c r="D96" s="25"/>
-      <c r="E96" s="25"/>
-      <c r="F96" s="25"/>
-      <c r="G96" s="25"/>
-      <c r="H96" s="25"/>
-      <c r="I96" s="25"/>
-      <c r="J96" s="25"/>
-      <c r="K96" s="60"/>
-      <c r="L96" s="60"/>
-      <c r="M96" s="62"/>
-    </row>
-    <row r="97" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="61"/>
-      <c r="B97" s="60"/>
-      <c r="C97" s="60"/>
-      <c r="D97" s="25"/>
-      <c r="E97" s="25"/>
-      <c r="F97" s="25"/>
-      <c r="G97" s="25"/>
-      <c r="H97" s="25"/>
-      <c r="I97" s="25"/>
-      <c r="J97" s="25"/>
-      <c r="K97" s="60"/>
-      <c r="L97" s="60"/>
-      <c r="M97" s="62"/>
-    </row>
-    <row r="98" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="61"/>
-      <c r="B98" s="60"/>
-      <c r="C98" s="60"/>
-      <c r="D98" s="25"/>
-      <c r="E98" s="25"/>
-      <c r="F98" s="25"/>
-      <c r="G98" s="25"/>
-      <c r="H98" s="25"/>
-      <c r="I98" s="25"/>
-      <c r="J98" s="25"/>
-      <c r="K98" s="60"/>
-      <c r="L98" s="60"/>
-      <c r="M98" s="62"/>
-    </row>
-    <row r="99" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="61"/>
-      <c r="B99" s="60"/>
-      <c r="C99" s="60"/>
-      <c r="D99" s="25"/>
-      <c r="E99" s="25"/>
-      <c r="F99" s="25"/>
-      <c r="G99" s="25"/>
-      <c r="H99" s="25"/>
-      <c r="I99" s="25"/>
-      <c r="J99" s="25"/>
-      <c r="K99" s="60"/>
-      <c r="L99" s="60"/>
-      <c r="M99" s="62"/>
-    </row>
-    <row r="100" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="61"/>
-      <c r="B100" s="60"/>
-      <c r="C100" s="60"/>
-      <c r="D100" s="25"/>
-      <c r="E100" s="25"/>
-      <c r="F100" s="25"/>
-      <c r="G100" s="25"/>
-      <c r="H100" s="25"/>
-      <c r="I100" s="25"/>
-      <c r="J100" s="25"/>
-      <c r="K100" s="60"/>
-      <c r="L100" s="60"/>
-      <c r="M100" s="62"/>
-    </row>
-    <row r="101" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="61"/>
-      <c r="B101" s="60"/>
-      <c r="C101" s="60"/>
-      <c r="D101" s="25"/>
-      <c r="E101" s="25"/>
-      <c r="F101" s="25"/>
-      <c r="G101" s="25"/>
-      <c r="H101" s="25"/>
-      <c r="I101" s="25"/>
-      <c r="J101" s="25"/>
-      <c r="K101" s="60"/>
-      <c r="L101" s="60"/>
-      <c r="M101" s="62"/>
-    </row>
-    <row r="102" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="61"/>
-      <c r="B102" s="60"/>
-      <c r="C102" s="60"/>
-      <c r="D102" s="25"/>
-      <c r="E102" s="25"/>
-      <c r="F102" s="25"/>
-      <c r="G102" s="25"/>
-      <c r="H102" s="25"/>
-      <c r="I102" s="25"/>
-      <c r="J102" s="25"/>
-      <c r="K102" s="60"/>
-      <c r="L102" s="60"/>
-      <c r="M102" s="62"/>
-    </row>
-    <row r="103" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="61"/>
-      <c r="B103" s="60"/>
-      <c r="C103" s="60"/>
-      <c r="D103" s="25"/>
-      <c r="E103" s="25"/>
-      <c r="F103" s="25"/>
-      <c r="G103" s="25"/>
-      <c r="H103" s="25"/>
-      <c r="I103" s="25"/>
-      <c r="J103" s="25"/>
-      <c r="K103" s="60"/>
-      <c r="L103" s="60"/>
-      <c r="M103" s="62"/>
-    </row>
-    <row r="104" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="61"/>
-      <c r="B104" s="60"/>
-      <c r="C104" s="60"/>
-      <c r="D104" s="25"/>
-      <c r="E104" s="25"/>
-      <c r="F104" s="25"/>
-      <c r="G104" s="25"/>
-      <c r="H104" s="25"/>
-      <c r="I104" s="25"/>
-      <c r="J104" s="25"/>
-      <c r="K104" s="60"/>
-      <c r="L104" s="60"/>
-      <c r="M104" s="62"/>
-    </row>
-    <row r="105" spans="1:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="58"/>
-      <c r="B105" s="57"/>
-      <c r="C105" s="57"/>
-      <c r="D105" s="47"/>
-      <c r="E105" s="47"/>
-      <c r="F105" s="47"/>
-      <c r="G105" s="47"/>
-      <c r="H105" s="47"/>
-      <c r="I105" s="47"/>
-      <c r="J105" s="47"/>
-      <c r="K105" s="57"/>
-      <c r="L105" s="57"/>
-      <c r="M105" s="59"/>
-    </row>
-    <row r="106" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K106" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A3:M3"/>
-    <mergeCell ref="A17:M17"/>
-    <mergeCell ref="A12:M12"/>
-    <mergeCell ref="J13:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="G4:I4"/>
-  </mergeCells>
-  <dataValidations count="8">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L16"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M15">
-      <formula1>$C$6</formula1>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D15 D20:D105 G20:G105 G15 G6">
-      <formula1>1</formula1>
-      <formula2>31</formula2>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E20:E105 E15 E6 H20:H105 H15 H6">
-      <formula1>1</formula1>
-      <formula2>12</formula2>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I20:I105">
-      <formula1>1900</formula1>
-      <formula2>3000</formula2>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J20:J105 J6 B15">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6 I6 F15 I15 F20:F105">
-      <formula1>1900</formula1>
-      <formula2>3000</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M20:M105">
-      <formula1>$C$6</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Stations!$K$2:$K$50</xm:f>
-          </x14:formula1>
-          <xm:sqref>B1:B2 L6 L20:L105</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>LookUp!$D$2:$D$34</xm:f>
-          </x14:formula1>
-          <xm:sqref>K6 C15 K20:K105</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>LookUp!$C$2:$C$11</xm:f>
-          </x14:formula1>
-          <xm:sqref>J15</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>LookUp!$A$2:$A$13</xm:f>
-          </x14:formula1>
-          <xm:sqref>L15</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K500"/>
+  <dimension ref="A1:T500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -4091,47 +2425,59 @@
     <col min="8" max="8" width="13.7109375" style="2" customWidth="1"/>
     <col min="9" max="9" width="16.7109375" style="2" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="30.5703125" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="11" max="11" width="17.28515625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" style="70" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="18" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:20" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="31"/>
+      <c r="J1" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="25"/>
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2"/>
@@ -4141,9 +2487,10 @@
         <f>A2&amp;", "&amp;B2&amp;", "&amp;C2&amp;" "&amp;D2&amp;", "&amp;F2&amp;", "&amp;I2</f>
         <v xml:space="preserve">, ,  , , </v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
+      <c r="L2" s="69"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="25"/>
       <c r="B3"/>
       <c r="C3"/>
       <c r="D3"/>
@@ -4154,8 +2501,8 @@
         <v xml:space="preserve">, ,  , , </v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="25"/>
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4"/>
@@ -4166,8 +2513,8 @@
         <v xml:space="preserve">, ,  , , </v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="25"/>
       <c r="B5"/>
       <c r="C5"/>
       <c r="D5"/>
@@ -4178,8 +2525,8 @@
         <v xml:space="preserve">, ,  , , </v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="25"/>
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6"/>
@@ -4190,8 +2537,8 @@
         <v xml:space="preserve">, ,  , , </v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="25"/>
       <c r="B7"/>
       <c r="C7"/>
       <c r="D7"/>
@@ -4202,8 +2549,8 @@
         <v xml:space="preserve">, ,  , , </v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="25"/>
       <c r="B8"/>
       <c r="C8"/>
       <c r="D8"/>
@@ -4214,8 +2561,8 @@
         <v xml:space="preserve">, ,  , , </v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="25"/>
       <c r="B9"/>
       <c r="C9"/>
       <c r="D9"/>
@@ -4226,8 +2573,8 @@
         <v xml:space="preserve">, ,  , , </v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="25"/>
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10"/>
@@ -4238,8 +2585,8 @@
         <v xml:space="preserve">, ,  , , </v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="25"/>
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11"/>
@@ -4250,8 +2597,8 @@
         <v xml:space="preserve">, ,  , , </v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
       <c r="B12"/>
       <c r="C12"/>
       <c r="D12"/>
@@ -4262,8 +2609,8 @@
         <v xml:space="preserve">, ,  , , </v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="25"/>
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
@@ -4274,8 +2621,8 @@
         <v xml:space="preserve">, ,  , , </v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="25"/>
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
@@ -4286,8 +2633,8 @@
         <v xml:space="preserve">, ,  , , </v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="25"/>
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
@@ -4298,8 +2645,8 @@
         <v xml:space="preserve">, ,  , , </v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="25"/>
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
@@ -4311,7 +2658,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
+      <c r="A17" s="25"/>
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
@@ -4323,7 +2670,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
+      <c r="A18" s="25"/>
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
@@ -4335,7 +2682,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
+      <c r="A19" s="25"/>
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
@@ -4347,7 +2694,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
+      <c r="A20" s="25"/>
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
@@ -4359,7 +2706,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
+      <c r="A21" s="25"/>
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
@@ -4371,7 +2718,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="31"/>
+      <c r="A22" s="25"/>
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
@@ -4383,7 +2730,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
+      <c r="A23" s="25"/>
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
@@ -4395,7 +2742,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
+      <c r="A24" s="25"/>
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
@@ -4407,7 +2754,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
+      <c r="A25" s="25"/>
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
@@ -4419,7 +2766,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="31"/>
+      <c r="A26" s="25"/>
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
@@ -7276,8 +5623,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:K50"/>
-  <dataValidations count="1">
+  <dataValidations count="3">
     <dataValidation sqref="E2:E26"/>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576">
+      <formula1>1</formula1>
+    </dataValidation>
+    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:XFD1"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -7288,6 +5639,2522 @@
             <xm:f>LookUp!$B$2:$B$12</xm:f>
           </x14:formula1>
           <xm:sqref>J2:J1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U106"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7" style="2" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="6" style="2" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="51.85546875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="21.140625" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="101"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="103"/>
+    </row>
+    <row r="2" spans="1:21" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="31"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+    </row>
+    <row r="3" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="99" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="76" t="s">
+        <v>111</v>
+      </c>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="77"/>
+      <c r="U3" s="78"/>
+    </row>
+    <row r="4" spans="1:21" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="124" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="115" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="116"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="115" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" s="116"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="113" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="114"/>
+      <c r="K4" s="120" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="122" t="s">
+        <v>78</v>
+      </c>
+      <c r="M4" s="125" t="s">
+        <v>116</v>
+      </c>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="79"/>
+    </row>
+    <row r="5" spans="1:21" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="105"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="K5" s="121"/>
+      <c r="L5" s="123"/>
+      <c r="M5" s="126"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="60"/>
+      <c r="T5" s="60"/>
+      <c r="U5" s="79"/>
+    </row>
+    <row r="6" spans="1:21" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="36"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="81"/>
+      <c r="O6" s="81"/>
+      <c r="P6" s="81"/>
+      <c r="Q6" s="81"/>
+      <c r="R6" s="81"/>
+      <c r="S6" s="81"/>
+      <c r="T6" s="81"/>
+      <c r="U6" s="82"/>
+    </row>
+    <row r="7" spans="1:21" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="35"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="23"/>
+    </row>
+    <row r="8" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="110" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="111"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+    </row>
+    <row r="9" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="23"/>
+    </row>
+    <row r="10" spans="1:21" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="51"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="23"/>
+    </row>
+    <row r="11" spans="1:21" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="23"/>
+    </row>
+    <row r="12" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="110" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="118"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="76" t="s">
+        <v>111</v>
+      </c>
+      <c r="N12" s="77"/>
+      <c r="O12" s="77"/>
+      <c r="P12" s="77"/>
+      <c r="Q12" s="77"/>
+      <c r="R12" s="77"/>
+      <c r="S12" s="77"/>
+      <c r="T12" s="77"/>
+      <c r="U12" s="78"/>
+    </row>
+    <row r="13" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="129" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="127" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="128"/>
+      <c r="M13" s="104" t="s">
+        <v>118</v>
+      </c>
+      <c r="N13" s="106" t="s">
+        <v>119</v>
+      </c>
+      <c r="O13" s="106" t="s">
+        <v>101</v>
+      </c>
+      <c r="P13" s="108" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="97"/>
+      <c r="R13" s="92"/>
+      <c r="S13" s="90"/>
+      <c r="T13" s="91"/>
+      <c r="U13" s="95"/>
+    </row>
+    <row r="14" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="130"/>
+      <c r="B14" s="56" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="72" t="s">
+        <v>86</v>
+      </c>
+      <c r="M14" s="105"/>
+      <c r="N14" s="107"/>
+      <c r="O14" s="107"/>
+      <c r="P14" s="109"/>
+      <c r="Q14" s="98"/>
+      <c r="R14" s="75"/>
+      <c r="S14" s="92"/>
+      <c r="T14" s="91"/>
+      <c r="U14" s="96"/>
+    </row>
+    <row r="15" spans="1:21" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="73"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="74"/>
+      <c r="M15" s="83"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="55"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="55"/>
+      <c r="S15" s="93"/>
+      <c r="T15" s="94"/>
+      <c r="U15" s="74"/>
+    </row>
+    <row r="16" spans="1:21" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+    </row>
+    <row r="17" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="99" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" s="100"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="100"/>
+      <c r="H17" s="100"/>
+      <c r="I17" s="100"/>
+      <c r="J17" s="100"/>
+      <c r="K17" s="100"/>
+      <c r="L17" s="100"/>
+      <c r="M17" s="76" t="s">
+        <v>111</v>
+      </c>
+      <c r="N17" s="77"/>
+      <c r="O17" s="77"/>
+      <c r="P17" s="77"/>
+      <c r="Q17" s="77"/>
+      <c r="R17" s="77"/>
+      <c r="S17" s="77"/>
+      <c r="T17" s="77"/>
+      <c r="U17" s="78"/>
+    </row>
+    <row r="18" spans="1:21" s="15" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="131" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" s="133" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="135" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="116"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="136" t="s">
+        <v>100</v>
+      </c>
+      <c r="G18" s="137"/>
+      <c r="H18" s="138"/>
+      <c r="I18" s="135" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" s="117"/>
+      <c r="K18" s="133" t="s">
+        <v>0</v>
+      </c>
+      <c r="L18" s="139" t="s">
+        <v>115</v>
+      </c>
+      <c r="M18" s="132" t="s">
+        <v>117</v>
+      </c>
+      <c r="N18" s="61"/>
+      <c r="O18" s="61"/>
+      <c r="P18" s="61"/>
+      <c r="Q18" s="61"/>
+      <c r="R18" s="61"/>
+      <c r="S18" s="61"/>
+      <c r="T18" s="61"/>
+      <c r="U18" s="85"/>
+    </row>
+    <row r="19" spans="1:21" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="105"/>
+      <c r="B19" s="134"/>
+      <c r="C19" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="K19" s="121"/>
+      <c r="L19" s="123"/>
+      <c r="M19" s="126"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="61"/>
+      <c r="P19" s="61"/>
+      <c r="Q19" s="61"/>
+      <c r="R19" s="61"/>
+      <c r="S19" s="61"/>
+      <c r="T19" s="61"/>
+      <c r="U19" s="85"/>
+    </row>
+    <row r="20" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="41"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="84"/>
+      <c r="O20" s="84"/>
+      <c r="P20" s="84"/>
+      <c r="Q20" s="84"/>
+      <c r="R20" s="84"/>
+      <c r="S20" s="84"/>
+      <c r="T20" s="84"/>
+      <c r="U20" s="86"/>
+    </row>
+    <row r="21" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="41"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="84"/>
+      <c r="O21" s="84"/>
+      <c r="P21" s="84"/>
+      <c r="Q21" s="84"/>
+      <c r="R21" s="84"/>
+      <c r="S21" s="84"/>
+      <c r="T21" s="84"/>
+      <c r="U21" s="86"/>
+    </row>
+    <row r="22" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="41"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="84"/>
+      <c r="O22" s="84"/>
+      <c r="P22" s="84"/>
+      <c r="Q22" s="84"/>
+      <c r="R22" s="84"/>
+      <c r="S22" s="84"/>
+      <c r="T22" s="84"/>
+      <c r="U22" s="86"/>
+    </row>
+    <row r="23" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="41"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="84"/>
+      <c r="O23" s="84"/>
+      <c r="P23" s="84"/>
+      <c r="Q23" s="84"/>
+      <c r="R23" s="84"/>
+      <c r="S23" s="84"/>
+      <c r="T23" s="84"/>
+      <c r="U23" s="86"/>
+    </row>
+    <row r="24" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="41"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="84"/>
+      <c r="O24" s="84"/>
+      <c r="P24" s="84"/>
+      <c r="Q24" s="84"/>
+      <c r="R24" s="84"/>
+      <c r="S24" s="84"/>
+      <c r="T24" s="84"/>
+      <c r="U24" s="86"/>
+    </row>
+    <row r="25" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="41"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="84"/>
+      <c r="O25" s="84"/>
+      <c r="P25" s="84"/>
+      <c r="Q25" s="84"/>
+      <c r="R25" s="84"/>
+      <c r="S25" s="84"/>
+      <c r="T25" s="84"/>
+      <c r="U25" s="86"/>
+    </row>
+    <row r="26" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="41"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="84"/>
+      <c r="O26" s="84"/>
+      <c r="P26" s="84"/>
+      <c r="Q26" s="84"/>
+      <c r="R26" s="84"/>
+      <c r="S26" s="84"/>
+      <c r="T26" s="84"/>
+      <c r="U26" s="86"/>
+    </row>
+    <row r="27" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="54"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="84"/>
+      <c r="O27" s="84"/>
+      <c r="P27" s="84"/>
+      <c r="Q27" s="84"/>
+      <c r="R27" s="84"/>
+      <c r="S27" s="84"/>
+      <c r="T27" s="84"/>
+      <c r="U27" s="86"/>
+    </row>
+    <row r="28" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="54"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="84"/>
+      <c r="O28" s="84"/>
+      <c r="P28" s="84"/>
+      <c r="Q28" s="84"/>
+      <c r="R28" s="84"/>
+      <c r="S28" s="84"/>
+      <c r="T28" s="84"/>
+      <c r="U28" s="86"/>
+    </row>
+    <row r="29" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="54"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="84"/>
+      <c r="O29" s="84"/>
+      <c r="P29" s="84"/>
+      <c r="Q29" s="84"/>
+      <c r="R29" s="84"/>
+      <c r="S29" s="84"/>
+      <c r="T29" s="84"/>
+      <c r="U29" s="86"/>
+    </row>
+    <row r="30" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="54"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="58"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="84"/>
+      <c r="O30" s="84"/>
+      <c r="P30" s="84"/>
+      <c r="Q30" s="84"/>
+      <c r="R30" s="84"/>
+      <c r="S30" s="84"/>
+      <c r="T30" s="84"/>
+      <c r="U30" s="86"/>
+    </row>
+    <row r="31" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="54"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="58"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="84"/>
+      <c r="O31" s="84"/>
+      <c r="P31" s="84"/>
+      <c r="Q31" s="84"/>
+      <c r="R31" s="84"/>
+      <c r="S31" s="84"/>
+      <c r="T31" s="84"/>
+      <c r="U31" s="86"/>
+    </row>
+    <row r="32" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="54"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="58"/>
+      <c r="M32" s="54"/>
+      <c r="N32" s="84"/>
+      <c r="O32" s="84"/>
+      <c r="P32" s="84"/>
+      <c r="Q32" s="84"/>
+      <c r="R32" s="84"/>
+      <c r="S32" s="84"/>
+      <c r="T32" s="84"/>
+      <c r="U32" s="86"/>
+    </row>
+    <row r="33" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="54"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="53"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="58"/>
+      <c r="M33" s="54"/>
+      <c r="N33" s="84"/>
+      <c r="O33" s="84"/>
+      <c r="P33" s="84"/>
+      <c r="Q33" s="84"/>
+      <c r="R33" s="84"/>
+      <c r="S33" s="84"/>
+      <c r="T33" s="84"/>
+      <c r="U33" s="86"/>
+    </row>
+    <row r="34" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="54"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="53"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="58"/>
+      <c r="M34" s="54"/>
+      <c r="N34" s="84"/>
+      <c r="O34" s="84"/>
+      <c r="P34" s="84"/>
+      <c r="Q34" s="84"/>
+      <c r="R34" s="84"/>
+      <c r="S34" s="84"/>
+      <c r="T34" s="84"/>
+      <c r="U34" s="86"/>
+    </row>
+    <row r="35" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="54"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="53"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="58"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="84"/>
+      <c r="O35" s="84"/>
+      <c r="P35" s="84"/>
+      <c r="Q35" s="84"/>
+      <c r="R35" s="84"/>
+      <c r="S35" s="84"/>
+      <c r="T35" s="84"/>
+      <c r="U35" s="86"/>
+    </row>
+    <row r="36" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="54"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="58"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="84"/>
+      <c r="O36" s="84"/>
+      <c r="P36" s="84"/>
+      <c r="Q36" s="84"/>
+      <c r="R36" s="84"/>
+      <c r="S36" s="84"/>
+      <c r="T36" s="84"/>
+      <c r="U36" s="86"/>
+    </row>
+    <row r="37" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="54"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="53"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="58"/>
+      <c r="M37" s="54"/>
+      <c r="N37" s="84"/>
+      <c r="O37" s="84"/>
+      <c r="P37" s="84"/>
+      <c r="Q37" s="84"/>
+      <c r="R37" s="84"/>
+      <c r="S37" s="84"/>
+      <c r="T37" s="84"/>
+      <c r="U37" s="86"/>
+    </row>
+    <row r="38" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="54"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="53"/>
+      <c r="K38" s="53"/>
+      <c r="L38" s="58"/>
+      <c r="M38" s="54"/>
+      <c r="N38" s="84"/>
+      <c r="O38" s="84"/>
+      <c r="P38" s="84"/>
+      <c r="Q38" s="84"/>
+      <c r="R38" s="84"/>
+      <c r="S38" s="84"/>
+      <c r="T38" s="84"/>
+      <c r="U38" s="86"/>
+    </row>
+    <row r="39" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="54"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="53"/>
+      <c r="K39" s="53"/>
+      <c r="L39" s="58"/>
+      <c r="M39" s="54"/>
+      <c r="N39" s="84"/>
+      <c r="O39" s="84"/>
+      <c r="P39" s="84"/>
+      <c r="Q39" s="84"/>
+      <c r="R39" s="84"/>
+      <c r="S39" s="84"/>
+      <c r="T39" s="84"/>
+      <c r="U39" s="86"/>
+    </row>
+    <row r="40" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="54"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="53"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="58"/>
+      <c r="M40" s="54"/>
+      <c r="N40" s="84"/>
+      <c r="O40" s="84"/>
+      <c r="P40" s="84"/>
+      <c r="Q40" s="84"/>
+      <c r="R40" s="84"/>
+      <c r="S40" s="84"/>
+      <c r="T40" s="84"/>
+      <c r="U40" s="86"/>
+    </row>
+    <row r="41" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="54"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="53"/>
+      <c r="L41" s="58"/>
+      <c r="M41" s="54"/>
+      <c r="N41" s="84"/>
+      <c r="O41" s="84"/>
+      <c r="P41" s="84"/>
+      <c r="Q41" s="84"/>
+      <c r="R41" s="84"/>
+      <c r="S41" s="84"/>
+      <c r="T41" s="84"/>
+      <c r="U41" s="86"/>
+    </row>
+    <row r="42" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="54"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="53"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="58"/>
+      <c r="M42" s="54"/>
+      <c r="N42" s="84"/>
+      <c r="O42" s="84"/>
+      <c r="P42" s="84"/>
+      <c r="Q42" s="84"/>
+      <c r="R42" s="84"/>
+      <c r="S42" s="84"/>
+      <c r="T42" s="84"/>
+      <c r="U42" s="86"/>
+    </row>
+    <row r="43" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="54"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="53"/>
+      <c r="K43" s="53"/>
+      <c r="L43" s="58"/>
+      <c r="M43" s="54"/>
+      <c r="N43" s="84"/>
+      <c r="O43" s="84"/>
+      <c r="P43" s="84"/>
+      <c r="Q43" s="84"/>
+      <c r="R43" s="84"/>
+      <c r="S43" s="84"/>
+      <c r="T43" s="84"/>
+      <c r="U43" s="86"/>
+    </row>
+    <row r="44" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="54"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="53"/>
+      <c r="K44" s="53"/>
+      <c r="L44" s="58"/>
+      <c r="M44" s="54"/>
+      <c r="N44" s="84"/>
+      <c r="O44" s="84"/>
+      <c r="P44" s="84"/>
+      <c r="Q44" s="84"/>
+      <c r="R44" s="84"/>
+      <c r="S44" s="84"/>
+      <c r="T44" s="84"/>
+      <c r="U44" s="86"/>
+    </row>
+    <row r="45" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="54"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="53"/>
+      <c r="K45" s="53"/>
+      <c r="L45" s="58"/>
+      <c r="M45" s="54"/>
+      <c r="N45" s="84"/>
+      <c r="O45" s="84"/>
+      <c r="P45" s="84"/>
+      <c r="Q45" s="84"/>
+      <c r="R45" s="84"/>
+      <c r="S45" s="84"/>
+      <c r="T45" s="84"/>
+      <c r="U45" s="86"/>
+    </row>
+    <row r="46" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="54"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="53"/>
+      <c r="K46" s="53"/>
+      <c r="L46" s="58"/>
+      <c r="M46" s="54"/>
+      <c r="N46" s="84"/>
+      <c r="O46" s="84"/>
+      <c r="P46" s="84"/>
+      <c r="Q46" s="84"/>
+      <c r="R46" s="84"/>
+      <c r="S46" s="84"/>
+      <c r="T46" s="84"/>
+      <c r="U46" s="86"/>
+    </row>
+    <row r="47" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="54"/>
+      <c r="B47" s="53"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="53"/>
+      <c r="K47" s="53"/>
+      <c r="L47" s="58"/>
+      <c r="M47" s="54"/>
+      <c r="N47" s="84"/>
+      <c r="O47" s="84"/>
+      <c r="P47" s="84"/>
+      <c r="Q47" s="84"/>
+      <c r="R47" s="84"/>
+      <c r="S47" s="84"/>
+      <c r="T47" s="84"/>
+      <c r="U47" s="86"/>
+    </row>
+    <row r="48" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="54"/>
+      <c r="B48" s="53"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="53"/>
+      <c r="K48" s="53"/>
+      <c r="L48" s="58"/>
+      <c r="M48" s="54"/>
+      <c r="N48" s="84"/>
+      <c r="O48" s="84"/>
+      <c r="P48" s="84"/>
+      <c r="Q48" s="84"/>
+      <c r="R48" s="84"/>
+      <c r="S48" s="84"/>
+      <c r="T48" s="84"/>
+      <c r="U48" s="86"/>
+    </row>
+    <row r="49" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="54"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="53"/>
+      <c r="K49" s="53"/>
+      <c r="L49" s="58"/>
+      <c r="M49" s="54"/>
+      <c r="N49" s="84"/>
+      <c r="O49" s="84"/>
+      <c r="P49" s="84"/>
+      <c r="Q49" s="84"/>
+      <c r="R49" s="84"/>
+      <c r="S49" s="84"/>
+      <c r="T49" s="84"/>
+      <c r="U49" s="86"/>
+    </row>
+    <row r="50" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="54"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="53"/>
+      <c r="K50" s="53"/>
+      <c r="L50" s="58"/>
+      <c r="M50" s="54"/>
+      <c r="N50" s="84"/>
+      <c r="O50" s="84"/>
+      <c r="P50" s="84"/>
+      <c r="Q50" s="84"/>
+      <c r="R50" s="84"/>
+      <c r="S50" s="84"/>
+      <c r="T50" s="84"/>
+      <c r="U50" s="86"/>
+    </row>
+    <row r="51" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="54"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="53"/>
+      <c r="K51" s="53"/>
+      <c r="L51" s="58"/>
+      <c r="M51" s="54"/>
+      <c r="N51" s="84"/>
+      <c r="O51" s="84"/>
+      <c r="P51" s="84"/>
+      <c r="Q51" s="84"/>
+      <c r="R51" s="84"/>
+      <c r="S51" s="84"/>
+      <c r="T51" s="84"/>
+      <c r="U51" s="86"/>
+    </row>
+    <row r="52" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="54"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="53"/>
+      <c r="K52" s="53"/>
+      <c r="L52" s="58"/>
+      <c r="M52" s="54"/>
+      <c r="N52" s="84"/>
+      <c r="O52" s="84"/>
+      <c r="P52" s="84"/>
+      <c r="Q52" s="84"/>
+      <c r="R52" s="84"/>
+      <c r="S52" s="84"/>
+      <c r="T52" s="84"/>
+      <c r="U52" s="86"/>
+    </row>
+    <row r="53" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="54"/>
+      <c r="B53" s="53"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="53"/>
+      <c r="K53" s="53"/>
+      <c r="L53" s="58"/>
+      <c r="M53" s="54"/>
+      <c r="N53" s="84"/>
+      <c r="O53" s="84"/>
+      <c r="P53" s="84"/>
+      <c r="Q53" s="84"/>
+      <c r="R53" s="84"/>
+      <c r="S53" s="84"/>
+      <c r="T53" s="84"/>
+      <c r="U53" s="86"/>
+    </row>
+    <row r="54" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="54"/>
+      <c r="B54" s="53"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="53"/>
+      <c r="K54" s="53"/>
+      <c r="L54" s="58"/>
+      <c r="M54" s="54"/>
+      <c r="N54" s="84"/>
+      <c r="O54" s="84"/>
+      <c r="P54" s="84"/>
+      <c r="Q54" s="84"/>
+      <c r="R54" s="84"/>
+      <c r="S54" s="84"/>
+      <c r="T54" s="84"/>
+      <c r="U54" s="86"/>
+    </row>
+    <row r="55" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="54"/>
+      <c r="B55" s="53"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="53"/>
+      <c r="K55" s="53"/>
+      <c r="L55" s="58"/>
+      <c r="M55" s="54"/>
+      <c r="N55" s="84"/>
+      <c r="O55" s="84"/>
+      <c r="P55" s="84"/>
+      <c r="Q55" s="84"/>
+      <c r="R55" s="84"/>
+      <c r="S55" s="84"/>
+      <c r="T55" s="84"/>
+      <c r="U55" s="86"/>
+    </row>
+    <row r="56" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="54"/>
+      <c r="B56" s="53"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="53"/>
+      <c r="K56" s="53"/>
+      <c r="L56" s="58"/>
+      <c r="M56" s="54"/>
+      <c r="N56" s="84"/>
+      <c r="O56" s="84"/>
+      <c r="P56" s="84"/>
+      <c r="Q56" s="84"/>
+      <c r="R56" s="84"/>
+      <c r="S56" s="84"/>
+      <c r="T56" s="84"/>
+      <c r="U56" s="86"/>
+    </row>
+    <row r="57" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="54"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="53"/>
+      <c r="K57" s="53"/>
+      <c r="L57" s="58"/>
+      <c r="M57" s="54"/>
+      <c r="N57" s="84"/>
+      <c r="O57" s="84"/>
+      <c r="P57" s="84"/>
+      <c r="Q57" s="84"/>
+      <c r="R57" s="84"/>
+      <c r="S57" s="84"/>
+      <c r="T57" s="84"/>
+      <c r="U57" s="86"/>
+    </row>
+    <row r="58" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="54"/>
+      <c r="B58" s="53"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="53"/>
+      <c r="K58" s="53"/>
+      <c r="L58" s="58"/>
+      <c r="M58" s="54"/>
+      <c r="N58" s="84"/>
+      <c r="O58" s="84"/>
+      <c r="P58" s="84"/>
+      <c r="Q58" s="84"/>
+      <c r="R58" s="84"/>
+      <c r="S58" s="84"/>
+      <c r="T58" s="84"/>
+      <c r="U58" s="86"/>
+    </row>
+    <row r="59" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="54"/>
+      <c r="B59" s="53"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="53"/>
+      <c r="K59" s="53"/>
+      <c r="L59" s="58"/>
+      <c r="M59" s="54"/>
+      <c r="N59" s="84"/>
+      <c r="O59" s="84"/>
+      <c r="P59" s="84"/>
+      <c r="Q59" s="84"/>
+      <c r="R59" s="84"/>
+      <c r="S59" s="84"/>
+      <c r="T59" s="84"/>
+      <c r="U59" s="86"/>
+    </row>
+    <row r="60" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="54"/>
+      <c r="B60" s="53"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="53"/>
+      <c r="K60" s="53"/>
+      <c r="L60" s="58"/>
+      <c r="M60" s="54"/>
+      <c r="N60" s="84"/>
+      <c r="O60" s="84"/>
+      <c r="P60" s="84"/>
+      <c r="Q60" s="84"/>
+      <c r="R60" s="84"/>
+      <c r="S60" s="84"/>
+      <c r="T60" s="84"/>
+      <c r="U60" s="86"/>
+    </row>
+    <row r="61" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="54"/>
+      <c r="B61" s="53"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="53"/>
+      <c r="K61" s="53"/>
+      <c r="L61" s="58"/>
+      <c r="M61" s="54"/>
+      <c r="N61" s="84"/>
+      <c r="O61" s="84"/>
+      <c r="P61" s="84"/>
+      <c r="Q61" s="84"/>
+      <c r="R61" s="84"/>
+      <c r="S61" s="84"/>
+      <c r="T61" s="84"/>
+      <c r="U61" s="86"/>
+    </row>
+    <row r="62" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="54"/>
+      <c r="B62" s="53"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="53"/>
+      <c r="K62" s="53"/>
+      <c r="L62" s="58"/>
+      <c r="M62" s="54"/>
+      <c r="N62" s="84"/>
+      <c r="O62" s="84"/>
+      <c r="P62" s="84"/>
+      <c r="Q62" s="84"/>
+      <c r="R62" s="84"/>
+      <c r="S62" s="84"/>
+      <c r="T62" s="84"/>
+      <c r="U62" s="86"/>
+    </row>
+    <row r="63" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="54"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="53"/>
+      <c r="K63" s="53"/>
+      <c r="L63" s="58"/>
+      <c r="M63" s="54"/>
+      <c r="N63" s="84"/>
+      <c r="O63" s="84"/>
+      <c r="P63" s="84"/>
+      <c r="Q63" s="84"/>
+      <c r="R63" s="84"/>
+      <c r="S63" s="84"/>
+      <c r="T63" s="84"/>
+      <c r="U63" s="86"/>
+    </row>
+    <row r="64" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="54"/>
+      <c r="B64" s="53"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="53"/>
+      <c r="K64" s="53"/>
+      <c r="L64" s="58"/>
+      <c r="M64" s="54"/>
+      <c r="N64" s="84"/>
+      <c r="O64" s="84"/>
+      <c r="P64" s="84"/>
+      <c r="Q64" s="84"/>
+      <c r="R64" s="84"/>
+      <c r="S64" s="84"/>
+      <c r="T64" s="84"/>
+      <c r="U64" s="86"/>
+    </row>
+    <row r="65" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="54"/>
+      <c r="B65" s="53"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="53"/>
+      <c r="K65" s="53"/>
+      <c r="L65" s="58"/>
+      <c r="M65" s="54"/>
+      <c r="N65" s="84"/>
+      <c r="O65" s="84"/>
+      <c r="P65" s="84"/>
+      <c r="Q65" s="84"/>
+      <c r="R65" s="84"/>
+      <c r="S65" s="84"/>
+      <c r="T65" s="84"/>
+      <c r="U65" s="86"/>
+    </row>
+    <row r="66" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="54"/>
+      <c r="B66" s="53"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="53"/>
+      <c r="K66" s="53"/>
+      <c r="L66" s="58"/>
+      <c r="M66" s="54"/>
+      <c r="N66" s="84"/>
+      <c r="O66" s="84"/>
+      <c r="P66" s="84"/>
+      <c r="Q66" s="84"/>
+      <c r="R66" s="84"/>
+      <c r="S66" s="84"/>
+      <c r="T66" s="84"/>
+      <c r="U66" s="86"/>
+    </row>
+    <row r="67" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="54"/>
+      <c r="B67" s="53"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="53"/>
+      <c r="K67" s="53"/>
+      <c r="L67" s="58"/>
+      <c r="M67" s="54"/>
+      <c r="N67" s="84"/>
+      <c r="O67" s="84"/>
+      <c r="P67" s="84"/>
+      <c r="Q67" s="84"/>
+      <c r="R67" s="84"/>
+      <c r="S67" s="84"/>
+      <c r="T67" s="84"/>
+      <c r="U67" s="86"/>
+    </row>
+    <row r="68" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="54"/>
+      <c r="B68" s="53"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="53"/>
+      <c r="K68" s="53"/>
+      <c r="L68" s="58"/>
+      <c r="M68" s="54"/>
+      <c r="N68" s="84"/>
+      <c r="O68" s="84"/>
+      <c r="P68" s="84"/>
+      <c r="Q68" s="84"/>
+      <c r="R68" s="84"/>
+      <c r="S68" s="84"/>
+      <c r="T68" s="84"/>
+      <c r="U68" s="86"/>
+    </row>
+    <row r="69" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="54"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="20"/>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="53"/>
+      <c r="K69" s="53"/>
+      <c r="L69" s="58"/>
+      <c r="M69" s="54"/>
+      <c r="N69" s="84"/>
+      <c r="O69" s="84"/>
+      <c r="P69" s="84"/>
+      <c r="Q69" s="84"/>
+      <c r="R69" s="84"/>
+      <c r="S69" s="84"/>
+      <c r="T69" s="84"/>
+      <c r="U69" s="86"/>
+    </row>
+    <row r="70" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="54"/>
+      <c r="B70" s="53"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="53"/>
+      <c r="K70" s="53"/>
+      <c r="L70" s="58"/>
+      <c r="M70" s="54"/>
+      <c r="N70" s="84"/>
+      <c r="O70" s="84"/>
+      <c r="P70" s="84"/>
+      <c r="Q70" s="84"/>
+      <c r="R70" s="84"/>
+      <c r="S70" s="84"/>
+      <c r="T70" s="84"/>
+      <c r="U70" s="86"/>
+    </row>
+    <row r="71" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="54"/>
+      <c r="B71" s="53"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="20"/>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="53"/>
+      <c r="K71" s="53"/>
+      <c r="L71" s="58"/>
+      <c r="M71" s="54"/>
+      <c r="N71" s="84"/>
+      <c r="O71" s="84"/>
+      <c r="P71" s="84"/>
+      <c r="Q71" s="84"/>
+      <c r="R71" s="84"/>
+      <c r="S71" s="84"/>
+      <c r="T71" s="84"/>
+      <c r="U71" s="86"/>
+    </row>
+    <row r="72" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="54"/>
+      <c r="B72" s="53"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="20"/>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="53"/>
+      <c r="K72" s="53"/>
+      <c r="L72" s="58"/>
+      <c r="M72" s="54"/>
+      <c r="N72" s="84"/>
+      <c r="O72" s="84"/>
+      <c r="P72" s="84"/>
+      <c r="Q72" s="84"/>
+      <c r="R72" s="84"/>
+      <c r="S72" s="84"/>
+      <c r="T72" s="84"/>
+      <c r="U72" s="86"/>
+    </row>
+    <row r="73" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="54"/>
+      <c r="B73" s="53"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="20"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="53"/>
+      <c r="K73" s="53"/>
+      <c r="L73" s="58"/>
+      <c r="M73" s="54"/>
+      <c r="N73" s="84"/>
+      <c r="O73" s="84"/>
+      <c r="P73" s="84"/>
+      <c r="Q73" s="84"/>
+      <c r="R73" s="84"/>
+      <c r="S73" s="84"/>
+      <c r="T73" s="84"/>
+      <c r="U73" s="86"/>
+    </row>
+    <row r="74" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="54"/>
+      <c r="B74" s="53"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="20"/>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="53"/>
+      <c r="K74" s="53"/>
+      <c r="L74" s="58"/>
+      <c r="M74" s="54"/>
+      <c r="N74" s="84"/>
+      <c r="O74" s="84"/>
+      <c r="P74" s="84"/>
+      <c r="Q74" s="84"/>
+      <c r="R74" s="84"/>
+      <c r="S74" s="84"/>
+      <c r="T74" s="84"/>
+      <c r="U74" s="86"/>
+    </row>
+    <row r="75" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="54"/>
+      <c r="B75" s="53"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="20"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="20"/>
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="53"/>
+      <c r="K75" s="53"/>
+      <c r="L75" s="58"/>
+      <c r="M75" s="54"/>
+      <c r="N75" s="84"/>
+      <c r="O75" s="84"/>
+      <c r="P75" s="84"/>
+      <c r="Q75" s="84"/>
+      <c r="R75" s="84"/>
+      <c r="S75" s="84"/>
+      <c r="T75" s="84"/>
+      <c r="U75" s="86"/>
+    </row>
+    <row r="76" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="54"/>
+      <c r="B76" s="53"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="20"/>
+      <c r="F76" s="20"/>
+      <c r="G76" s="20"/>
+      <c r="H76" s="20"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="53"/>
+      <c r="K76" s="53"/>
+      <c r="L76" s="58"/>
+      <c r="M76" s="54"/>
+      <c r="N76" s="84"/>
+      <c r="O76" s="84"/>
+      <c r="P76" s="84"/>
+      <c r="Q76" s="84"/>
+      <c r="R76" s="84"/>
+      <c r="S76" s="84"/>
+      <c r="T76" s="84"/>
+      <c r="U76" s="86"/>
+    </row>
+    <row r="77" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="54"/>
+      <c r="B77" s="53"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="20"/>
+      <c r="E77" s="20"/>
+      <c r="F77" s="20"/>
+      <c r="G77" s="20"/>
+      <c r="H77" s="20"/>
+      <c r="I77" s="20"/>
+      <c r="J77" s="53"/>
+      <c r="K77" s="53"/>
+      <c r="L77" s="58"/>
+      <c r="M77" s="54"/>
+      <c r="N77" s="84"/>
+      <c r="O77" s="84"/>
+      <c r="P77" s="84"/>
+      <c r="Q77" s="84"/>
+      <c r="R77" s="84"/>
+      <c r="S77" s="84"/>
+      <c r="T77" s="84"/>
+      <c r="U77" s="86"/>
+    </row>
+    <row r="78" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="54"/>
+      <c r="B78" s="53"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="20"/>
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="53"/>
+      <c r="K78" s="53"/>
+      <c r="L78" s="58"/>
+      <c r="M78" s="54"/>
+      <c r="N78" s="84"/>
+      <c r="O78" s="84"/>
+      <c r="P78" s="84"/>
+      <c r="Q78" s="84"/>
+      <c r="R78" s="84"/>
+      <c r="S78" s="84"/>
+      <c r="T78" s="84"/>
+      <c r="U78" s="86"/>
+    </row>
+    <row r="79" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="54"/>
+      <c r="B79" s="53"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="20"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="20"/>
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="53"/>
+      <c r="K79" s="53"/>
+      <c r="L79" s="58"/>
+      <c r="M79" s="54"/>
+      <c r="N79" s="84"/>
+      <c r="O79" s="84"/>
+      <c r="P79" s="84"/>
+      <c r="Q79" s="84"/>
+      <c r="R79" s="84"/>
+      <c r="S79" s="84"/>
+      <c r="T79" s="84"/>
+      <c r="U79" s="86"/>
+    </row>
+    <row r="80" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="54"/>
+      <c r="B80" s="53"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="20"/>
+      <c r="F80" s="20"/>
+      <c r="G80" s="20"/>
+      <c r="H80" s="20"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="53"/>
+      <c r="K80" s="53"/>
+      <c r="L80" s="58"/>
+      <c r="M80" s="54"/>
+      <c r="N80" s="84"/>
+      <c r="O80" s="84"/>
+      <c r="P80" s="84"/>
+      <c r="Q80" s="84"/>
+      <c r="R80" s="84"/>
+      <c r="S80" s="84"/>
+      <c r="T80" s="84"/>
+      <c r="U80" s="86"/>
+    </row>
+    <row r="81" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="54"/>
+      <c r="B81" s="53"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="20"/>
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="53"/>
+      <c r="K81" s="53"/>
+      <c r="L81" s="58"/>
+      <c r="M81" s="54"/>
+      <c r="N81" s="84"/>
+      <c r="O81" s="84"/>
+      <c r="P81" s="84"/>
+      <c r="Q81" s="84"/>
+      <c r="R81" s="84"/>
+      <c r="S81" s="84"/>
+      <c r="T81" s="84"/>
+      <c r="U81" s="86"/>
+    </row>
+    <row r="82" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="54"/>
+      <c r="B82" s="53"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="20"/>
+      <c r="F82" s="20"/>
+      <c r="G82" s="20"/>
+      <c r="H82" s="20"/>
+      <c r="I82" s="20"/>
+      <c r="J82" s="53"/>
+      <c r="K82" s="53"/>
+      <c r="L82" s="58"/>
+      <c r="M82" s="54"/>
+      <c r="N82" s="84"/>
+      <c r="O82" s="84"/>
+      <c r="P82" s="84"/>
+      <c r="Q82" s="84"/>
+      <c r="R82" s="84"/>
+      <c r="S82" s="84"/>
+      <c r="T82" s="84"/>
+      <c r="U82" s="86"/>
+    </row>
+    <row r="83" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="54"/>
+      <c r="B83" s="53"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="20"/>
+      <c r="F83" s="20"/>
+      <c r="G83" s="20"/>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="53"/>
+      <c r="K83" s="53"/>
+      <c r="L83" s="58"/>
+      <c r="M83" s="54"/>
+      <c r="N83" s="84"/>
+      <c r="O83" s="84"/>
+      <c r="P83" s="84"/>
+      <c r="Q83" s="84"/>
+      <c r="R83" s="84"/>
+      <c r="S83" s="84"/>
+      <c r="T83" s="84"/>
+      <c r="U83" s="86"/>
+    </row>
+    <row r="84" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="54"/>
+      <c r="B84" s="53"/>
+      <c r="C84" s="20"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="20"/>
+      <c r="F84" s="20"/>
+      <c r="G84" s="20"/>
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="53"/>
+      <c r="K84" s="53"/>
+      <c r="L84" s="58"/>
+      <c r="M84" s="54"/>
+      <c r="N84" s="84"/>
+      <c r="O84" s="84"/>
+      <c r="P84" s="84"/>
+      <c r="Q84" s="84"/>
+      <c r="R84" s="84"/>
+      <c r="S84" s="84"/>
+      <c r="T84" s="84"/>
+      <c r="U84" s="86"/>
+    </row>
+    <row r="85" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="54"/>
+      <c r="B85" s="53"/>
+      <c r="C85" s="20"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="20"/>
+      <c r="F85" s="20"/>
+      <c r="G85" s="20"/>
+      <c r="H85" s="20"/>
+      <c r="I85" s="20"/>
+      <c r="J85" s="53"/>
+      <c r="K85" s="53"/>
+      <c r="L85" s="58"/>
+      <c r="M85" s="54"/>
+      <c r="N85" s="84"/>
+      <c r="O85" s="84"/>
+      <c r="P85" s="84"/>
+      <c r="Q85" s="84"/>
+      <c r="R85" s="84"/>
+      <c r="S85" s="84"/>
+      <c r="T85" s="84"/>
+      <c r="U85" s="86"/>
+    </row>
+    <row r="86" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="54"/>
+      <c r="B86" s="53"/>
+      <c r="C86" s="20"/>
+      <c r="D86" s="20"/>
+      <c r="E86" s="20"/>
+      <c r="F86" s="20"/>
+      <c r="G86" s="20"/>
+      <c r="H86" s="20"/>
+      <c r="I86" s="20"/>
+      <c r="J86" s="53"/>
+      <c r="K86" s="53"/>
+      <c r="L86" s="58"/>
+      <c r="M86" s="54"/>
+      <c r="N86" s="84"/>
+      <c r="O86" s="84"/>
+      <c r="P86" s="84"/>
+      <c r="Q86" s="84"/>
+      <c r="R86" s="84"/>
+      <c r="S86" s="84"/>
+      <c r="T86" s="84"/>
+      <c r="U86" s="86"/>
+    </row>
+    <row r="87" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="54"/>
+      <c r="B87" s="53"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="20"/>
+      <c r="E87" s="20"/>
+      <c r="F87" s="20"/>
+      <c r="G87" s="20"/>
+      <c r="H87" s="20"/>
+      <c r="I87" s="20"/>
+      <c r="J87" s="53"/>
+      <c r="K87" s="53"/>
+      <c r="L87" s="58"/>
+      <c r="M87" s="54"/>
+      <c r="N87" s="84"/>
+      <c r="O87" s="84"/>
+      <c r="P87" s="84"/>
+      <c r="Q87" s="84"/>
+      <c r="R87" s="84"/>
+      <c r="S87" s="84"/>
+      <c r="T87" s="84"/>
+      <c r="U87" s="86"/>
+    </row>
+    <row r="88" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="54"/>
+      <c r="B88" s="53"/>
+      <c r="C88" s="20"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="20"/>
+      <c r="F88" s="20"/>
+      <c r="G88" s="20"/>
+      <c r="H88" s="20"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="53"/>
+      <c r="K88" s="53"/>
+      <c r="L88" s="58"/>
+      <c r="M88" s="54"/>
+      <c r="N88" s="84"/>
+      <c r="O88" s="84"/>
+      <c r="P88" s="84"/>
+      <c r="Q88" s="84"/>
+      <c r="R88" s="84"/>
+      <c r="S88" s="84"/>
+      <c r="T88" s="84"/>
+      <c r="U88" s="86"/>
+    </row>
+    <row r="89" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="54"/>
+      <c r="B89" s="53"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="20"/>
+      <c r="F89" s="20"/>
+      <c r="G89" s="20"/>
+      <c r="H89" s="20"/>
+      <c r="I89" s="20"/>
+      <c r="J89" s="53"/>
+      <c r="K89" s="53"/>
+      <c r="L89" s="58"/>
+      <c r="M89" s="54"/>
+      <c r="N89" s="84"/>
+      <c r="O89" s="84"/>
+      <c r="P89" s="84"/>
+      <c r="Q89" s="84"/>
+      <c r="R89" s="84"/>
+      <c r="S89" s="84"/>
+      <c r="T89" s="84"/>
+      <c r="U89" s="86"/>
+    </row>
+    <row r="90" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="54"/>
+      <c r="B90" s="53"/>
+      <c r="C90" s="20"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="20"/>
+      <c r="F90" s="20"/>
+      <c r="G90" s="20"/>
+      <c r="H90" s="20"/>
+      <c r="I90" s="20"/>
+      <c r="J90" s="53"/>
+      <c r="K90" s="53"/>
+      <c r="L90" s="58"/>
+      <c r="M90" s="54"/>
+      <c r="N90" s="84"/>
+      <c r="O90" s="84"/>
+      <c r="P90" s="84"/>
+      <c r="Q90" s="84"/>
+      <c r="R90" s="84"/>
+      <c r="S90" s="84"/>
+      <c r="T90" s="84"/>
+      <c r="U90" s="86"/>
+    </row>
+    <row r="91" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="54"/>
+      <c r="B91" s="53"/>
+      <c r="C91" s="20"/>
+      <c r="D91" s="20"/>
+      <c r="E91" s="20"/>
+      <c r="F91" s="20"/>
+      <c r="G91" s="20"/>
+      <c r="H91" s="20"/>
+      <c r="I91" s="20"/>
+      <c r="J91" s="53"/>
+      <c r="K91" s="53"/>
+      <c r="L91" s="58"/>
+      <c r="M91" s="54"/>
+      <c r="N91" s="84"/>
+      <c r="O91" s="84"/>
+      <c r="P91" s="84"/>
+      <c r="Q91" s="84"/>
+      <c r="R91" s="84"/>
+      <c r="S91" s="84"/>
+      <c r="T91" s="84"/>
+      <c r="U91" s="86"/>
+    </row>
+    <row r="92" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="54"/>
+      <c r="B92" s="53"/>
+      <c r="C92" s="20"/>
+      <c r="D92" s="20"/>
+      <c r="E92" s="20"/>
+      <c r="F92" s="20"/>
+      <c r="G92" s="20"/>
+      <c r="H92" s="20"/>
+      <c r="I92" s="20"/>
+      <c r="J92" s="53"/>
+      <c r="K92" s="53"/>
+      <c r="L92" s="58"/>
+      <c r="M92" s="54"/>
+      <c r="N92" s="84"/>
+      <c r="O92" s="84"/>
+      <c r="P92" s="84"/>
+      <c r="Q92" s="84"/>
+      <c r="R92" s="84"/>
+      <c r="S92" s="84"/>
+      <c r="T92" s="84"/>
+      <c r="U92" s="86"/>
+    </row>
+    <row r="93" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="54"/>
+      <c r="B93" s="53"/>
+      <c r="C93" s="20"/>
+      <c r="D93" s="20"/>
+      <c r="E93" s="20"/>
+      <c r="F93" s="20"/>
+      <c r="G93" s="20"/>
+      <c r="H93" s="20"/>
+      <c r="I93" s="20"/>
+      <c r="J93" s="53"/>
+      <c r="K93" s="53"/>
+      <c r="L93" s="58"/>
+      <c r="M93" s="54"/>
+      <c r="N93" s="84"/>
+      <c r="O93" s="84"/>
+      <c r="P93" s="84"/>
+      <c r="Q93" s="84"/>
+      <c r="R93" s="84"/>
+      <c r="S93" s="84"/>
+      <c r="T93" s="84"/>
+      <c r="U93" s="86"/>
+    </row>
+    <row r="94" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="54"/>
+      <c r="B94" s="53"/>
+      <c r="C94" s="20"/>
+      <c r="D94" s="20"/>
+      <c r="E94" s="20"/>
+      <c r="F94" s="20"/>
+      <c r="G94" s="20"/>
+      <c r="H94" s="20"/>
+      <c r="I94" s="20"/>
+      <c r="J94" s="53"/>
+      <c r="K94" s="53"/>
+      <c r="L94" s="58"/>
+      <c r="M94" s="54"/>
+      <c r="N94" s="84"/>
+      <c r="O94" s="84"/>
+      <c r="P94" s="84"/>
+      <c r="Q94" s="84"/>
+      <c r="R94" s="84"/>
+      <c r="S94" s="84"/>
+      <c r="T94" s="84"/>
+      <c r="U94" s="86"/>
+    </row>
+    <row r="95" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="54"/>
+      <c r="B95" s="53"/>
+      <c r="C95" s="20"/>
+      <c r="D95" s="20"/>
+      <c r="E95" s="20"/>
+      <c r="F95" s="20"/>
+      <c r="G95" s="20"/>
+      <c r="H95" s="20"/>
+      <c r="I95" s="20"/>
+      <c r="J95" s="53"/>
+      <c r="K95" s="53"/>
+      <c r="L95" s="58"/>
+      <c r="M95" s="54"/>
+      <c r="N95" s="84"/>
+      <c r="O95" s="84"/>
+      <c r="P95" s="84"/>
+      <c r="Q95" s="84"/>
+      <c r="R95" s="84"/>
+      <c r="S95" s="84"/>
+      <c r="T95" s="84"/>
+      <c r="U95" s="86"/>
+    </row>
+    <row r="96" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="54"/>
+      <c r="B96" s="53"/>
+      <c r="C96" s="20"/>
+      <c r="D96" s="20"/>
+      <c r="E96" s="20"/>
+      <c r="F96" s="20"/>
+      <c r="G96" s="20"/>
+      <c r="H96" s="20"/>
+      <c r="I96" s="20"/>
+      <c r="J96" s="53"/>
+      <c r="K96" s="53"/>
+      <c r="L96" s="58"/>
+      <c r="M96" s="54"/>
+      <c r="N96" s="84"/>
+      <c r="O96" s="84"/>
+      <c r="P96" s="84"/>
+      <c r="Q96" s="84"/>
+      <c r="R96" s="84"/>
+      <c r="S96" s="84"/>
+      <c r="T96" s="84"/>
+      <c r="U96" s="86"/>
+    </row>
+    <row r="97" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="54"/>
+      <c r="B97" s="53"/>
+      <c r="C97" s="20"/>
+      <c r="D97" s="20"/>
+      <c r="E97" s="20"/>
+      <c r="F97" s="20"/>
+      <c r="G97" s="20"/>
+      <c r="H97" s="20"/>
+      <c r="I97" s="20"/>
+      <c r="J97" s="53"/>
+      <c r="K97" s="53"/>
+      <c r="L97" s="58"/>
+      <c r="M97" s="54"/>
+      <c r="N97" s="84"/>
+      <c r="O97" s="84"/>
+      <c r="P97" s="84"/>
+      <c r="Q97" s="84"/>
+      <c r="R97" s="84"/>
+      <c r="S97" s="84"/>
+      <c r="T97" s="84"/>
+      <c r="U97" s="86"/>
+    </row>
+    <row r="98" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="54"/>
+      <c r="B98" s="53"/>
+      <c r="C98" s="20"/>
+      <c r="D98" s="20"/>
+      <c r="E98" s="20"/>
+      <c r="F98" s="20"/>
+      <c r="G98" s="20"/>
+      <c r="H98" s="20"/>
+      <c r="I98" s="20"/>
+      <c r="J98" s="53"/>
+      <c r="K98" s="53"/>
+      <c r="L98" s="58"/>
+      <c r="M98" s="54"/>
+      <c r="N98" s="84"/>
+      <c r="O98" s="84"/>
+      <c r="P98" s="84"/>
+      <c r="Q98" s="84"/>
+      <c r="R98" s="84"/>
+      <c r="S98" s="84"/>
+      <c r="T98" s="84"/>
+      <c r="U98" s="86"/>
+    </row>
+    <row r="99" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="54"/>
+      <c r="B99" s="53"/>
+      <c r="C99" s="20"/>
+      <c r="D99" s="20"/>
+      <c r="E99" s="20"/>
+      <c r="F99" s="20"/>
+      <c r="G99" s="20"/>
+      <c r="H99" s="20"/>
+      <c r="I99" s="20"/>
+      <c r="J99" s="53"/>
+      <c r="K99" s="53"/>
+      <c r="L99" s="58"/>
+      <c r="M99" s="54"/>
+      <c r="N99" s="84"/>
+      <c r="O99" s="84"/>
+      <c r="P99" s="84"/>
+      <c r="Q99" s="84"/>
+      <c r="R99" s="84"/>
+      <c r="S99" s="84"/>
+      <c r="T99" s="84"/>
+      <c r="U99" s="86"/>
+    </row>
+    <row r="100" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="54"/>
+      <c r="B100" s="53"/>
+      <c r="C100" s="20"/>
+      <c r="D100" s="20"/>
+      <c r="E100" s="20"/>
+      <c r="F100" s="20"/>
+      <c r="G100" s="20"/>
+      <c r="H100" s="20"/>
+      <c r="I100" s="20"/>
+      <c r="J100" s="53"/>
+      <c r="K100" s="53"/>
+      <c r="L100" s="58"/>
+      <c r="M100" s="54"/>
+      <c r="N100" s="84"/>
+      <c r="O100" s="84"/>
+      <c r="P100" s="84"/>
+      <c r="Q100" s="84"/>
+      <c r="R100" s="84"/>
+      <c r="S100" s="84"/>
+      <c r="T100" s="84"/>
+      <c r="U100" s="86"/>
+    </row>
+    <row r="101" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="54"/>
+      <c r="B101" s="53"/>
+      <c r="C101" s="20"/>
+      <c r="D101" s="20"/>
+      <c r="E101" s="20"/>
+      <c r="F101" s="20"/>
+      <c r="G101" s="20"/>
+      <c r="H101" s="20"/>
+      <c r="I101" s="20"/>
+      <c r="J101" s="53"/>
+      <c r="K101" s="53"/>
+      <c r="L101" s="58"/>
+      <c r="M101" s="54"/>
+      <c r="N101" s="84"/>
+      <c r="O101" s="84"/>
+      <c r="P101" s="84"/>
+      <c r="Q101" s="84"/>
+      <c r="R101" s="84"/>
+      <c r="S101" s="84"/>
+      <c r="T101" s="84"/>
+      <c r="U101" s="86"/>
+    </row>
+    <row r="102" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="54"/>
+      <c r="B102" s="53"/>
+      <c r="C102" s="20"/>
+      <c r="D102" s="20"/>
+      <c r="E102" s="20"/>
+      <c r="F102" s="20"/>
+      <c r="G102" s="20"/>
+      <c r="H102" s="20"/>
+      <c r="I102" s="20"/>
+      <c r="J102" s="53"/>
+      <c r="K102" s="53"/>
+      <c r="L102" s="58"/>
+      <c r="M102" s="54"/>
+      <c r="N102" s="84"/>
+      <c r="O102" s="84"/>
+      <c r="P102" s="84"/>
+      <c r="Q102" s="84"/>
+      <c r="R102" s="84"/>
+      <c r="S102" s="84"/>
+      <c r="T102" s="84"/>
+      <c r="U102" s="86"/>
+    </row>
+    <row r="103" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="54"/>
+      <c r="B103" s="53"/>
+      <c r="C103" s="20"/>
+      <c r="D103" s="20"/>
+      <c r="E103" s="20"/>
+      <c r="F103" s="20"/>
+      <c r="G103" s="20"/>
+      <c r="H103" s="20"/>
+      <c r="I103" s="20"/>
+      <c r="J103" s="53"/>
+      <c r="K103" s="53"/>
+      <c r="L103" s="58"/>
+      <c r="M103" s="54"/>
+      <c r="N103" s="84"/>
+      <c r="O103" s="84"/>
+      <c r="P103" s="84"/>
+      <c r="Q103" s="84"/>
+      <c r="R103" s="84"/>
+      <c r="S103" s="84"/>
+      <c r="T103" s="84"/>
+      <c r="U103" s="86"/>
+    </row>
+    <row r="104" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="54"/>
+      <c r="B104" s="53"/>
+      <c r="C104" s="20"/>
+      <c r="D104" s="20"/>
+      <c r="E104" s="20"/>
+      <c r="F104" s="20"/>
+      <c r="G104" s="20"/>
+      <c r="H104" s="20"/>
+      <c r="I104" s="20"/>
+      <c r="J104" s="53"/>
+      <c r="K104" s="53"/>
+      <c r="L104" s="58"/>
+      <c r="M104" s="54"/>
+      <c r="N104" s="84"/>
+      <c r="O104" s="84"/>
+      <c r="P104" s="84"/>
+      <c r="Q104" s="84"/>
+      <c r="R104" s="84"/>
+      <c r="S104" s="84"/>
+      <c r="T104" s="84"/>
+      <c r="U104" s="86"/>
+    </row>
+    <row r="105" spans="1:21" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="51"/>
+      <c r="B105" s="50"/>
+      <c r="C105" s="40"/>
+      <c r="D105" s="40"/>
+      <c r="E105" s="40"/>
+      <c r="F105" s="40"/>
+      <c r="G105" s="40"/>
+      <c r="H105" s="40"/>
+      <c r="I105" s="40"/>
+      <c r="J105" s="50"/>
+      <c r="K105" s="50"/>
+      <c r="L105" s="59"/>
+      <c r="M105" s="87"/>
+      <c r="N105" s="88"/>
+      <c r="O105" s="88"/>
+      <c r="P105" s="88"/>
+      <c r="Q105" s="88"/>
+      <c r="R105" s="88"/>
+      <c r="S105" s="88"/>
+      <c r="T105" s="88"/>
+      <c r="U105" s="89"/>
+    </row>
+    <row r="106" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K106" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+  </mergeCells>
+  <dataValidations count="8">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L16"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A15">
+      <formula1>$B$6</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 F6 C20:C105 F20:F105">
+      <formula1>1</formula1>
+      <formula2>31</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20:D105 G6 D6 G20:G105">
+      <formula1>1</formula1>
+      <formula2>12</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H105 E6 H6 E20:E105">
+      <formula1>1900</formula1>
+      <formula2>3000</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15 I20:I105">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L20:L105">
+      <formula1>$B$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6">
+      <formula1>"0"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Stations!$K:$K</xm:f>
+          </x14:formula1>
+          <xm:sqref>K6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Stations!$K$2:$K$50</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1:B2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>LookUp!$D$2:$D$34</xm:f>
+          </x14:formula1>
+          <xm:sqref>J6 C15 J20:J105</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>LookUp!$C$2:$C$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>O15</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>LookUp!$A$2:$A$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>P15</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Stations!$K:$K</xm:f>
+          </x14:formula1>
+          <xm:sqref>K20:K105</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7316,1372 +8183,1372 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="119" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="115" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="120"/>
-      <c r="F1" s="115" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="117" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A1" s="144" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="140" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="145"/>
+      <c r="F1" s="140" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="142" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="C2" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="F2" s="116"/>
-      <c r="G2" s="118"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="143"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="52"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="53"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="46"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="53"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="46"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="52"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="53"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="46"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="53"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="46"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="52"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="53"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="46"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="52"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="53"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="46"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="52"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="53"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="46"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="52"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="53"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="46"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="52"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="53"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="46"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="52"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="53"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="46"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="52"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="53"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="46"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="52"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="53"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="46"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="52"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="53"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="46"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="52"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="53"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="46"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="52"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="53"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="46"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="52"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="53"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="46"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="52"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="53"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="46"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="52"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="53"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="46"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="52"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="53"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="46"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="52"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="53"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="46"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="52"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="53"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="46"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="52"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="53"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="46"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="52"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="53"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="46"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="52"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="53"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="46"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="52"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="53"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="46"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="52"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="53"/>
+      <c r="A28" s="45"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="46"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="52"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="53"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="46"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="52"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="53"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="46"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="52"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="53"/>
+      <c r="A31" s="45"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="46"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="52"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="53"/>
+      <c r="A32" s="45"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="46"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="52"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="53"/>
+      <c r="A33" s="45"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="46"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="52"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="53"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="46"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="52"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="53"/>
+      <c r="A35" s="45"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="46"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="52"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="53"/>
+      <c r="A36" s="45"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="46"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="52"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="53"/>
+      <c r="A37" s="45"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="46"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="52"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="53"/>
+      <c r="A38" s="45"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="46"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="52"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="53"/>
+      <c r="A39" s="45"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="46"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="52"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="53"/>
+      <c r="A40" s="45"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="46"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="52"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="53"/>
+      <c r="A41" s="45"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="46"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="52"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="53"/>
+      <c r="A42" s="45"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="46"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="52"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="53"/>
+      <c r="A43" s="45"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="46"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="52"/>
-      <c r="B44" s="35"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="53"/>
+      <c r="A44" s="45"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="46"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="52"/>
-      <c r="B45" s="35"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="53"/>
+      <c r="A45" s="45"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="46"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="52"/>
-      <c r="B46" s="35"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="53"/>
+      <c r="A46" s="45"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="46"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="52"/>
-      <c r="B47" s="35"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="53"/>
+      <c r="A47" s="45"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="46"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="52"/>
-      <c r="B48" s="35"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="53"/>
+      <c r="A48" s="45"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="46"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="52"/>
-      <c r="B49" s="35"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="53"/>
+      <c r="A49" s="45"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="46"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="52"/>
-      <c r="B50" s="35"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="53"/>
+      <c r="A50" s="45"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="46"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="52"/>
-      <c r="B51" s="35"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="53"/>
+      <c r="A51" s="45"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="46"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="52"/>
-      <c r="B52" s="35"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="53"/>
+      <c r="A52" s="45"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="46"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="52"/>
-      <c r="B53" s="35"/>
-      <c r="C53" s="35"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="53"/>
+      <c r="A53" s="45"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="46"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="52"/>
-      <c r="B54" s="35"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="53"/>
+      <c r="A54" s="45"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="46"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="52"/>
-      <c r="B55" s="35"/>
-      <c r="C55" s="35"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="53"/>
+      <c r="A55" s="45"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="46"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="52"/>
-      <c r="B56" s="35"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="53"/>
+      <c r="A56" s="45"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="46"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="52"/>
-      <c r="B57" s="35"/>
-      <c r="C57" s="35"/>
-      <c r="D57" s="35"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="35"/>
-      <c r="G57" s="53"/>
+      <c r="A57" s="45"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="46"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="52"/>
-      <c r="B58" s="35"/>
-      <c r="C58" s="35"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="53"/>
+      <c r="A58" s="45"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="46"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="52"/>
-      <c r="B59" s="35"/>
-      <c r="C59" s="35"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="35"/>
-      <c r="F59" s="35"/>
-      <c r="G59" s="53"/>
+      <c r="A59" s="45"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="46"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="52"/>
-      <c r="B60" s="35"/>
-      <c r="C60" s="35"/>
-      <c r="D60" s="35"/>
-      <c r="E60" s="35"/>
-      <c r="F60" s="35"/>
-      <c r="G60" s="53"/>
+      <c r="A60" s="45"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="46"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="52"/>
-      <c r="B61" s="35"/>
-      <c r="C61" s="35"/>
-      <c r="D61" s="35"/>
-      <c r="E61" s="35"/>
-      <c r="F61" s="35"/>
-      <c r="G61" s="53"/>
+      <c r="A61" s="45"/>
+      <c r="B61" s="29"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="46"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="52"/>
-      <c r="B62" s="35"/>
-      <c r="C62" s="35"/>
-      <c r="D62" s="35"/>
-      <c r="E62" s="35"/>
-      <c r="F62" s="35"/>
-      <c r="G62" s="53"/>
+      <c r="A62" s="45"/>
+      <c r="B62" s="29"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="46"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="52"/>
-      <c r="B63" s="35"/>
-      <c r="C63" s="35"/>
-      <c r="D63" s="35"/>
-      <c r="E63" s="35"/>
-      <c r="F63" s="35"/>
-      <c r="G63" s="53"/>
+      <c r="A63" s="45"/>
+      <c r="B63" s="29"/>
+      <c r="C63" s="29"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="29"/>
+      <c r="G63" s="46"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="52"/>
-      <c r="B64" s="35"/>
-      <c r="C64" s="35"/>
-      <c r="D64" s="35"/>
-      <c r="E64" s="35"/>
-      <c r="F64" s="35"/>
-      <c r="G64" s="53"/>
+      <c r="A64" s="45"/>
+      <c r="B64" s="29"/>
+      <c r="C64" s="29"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="29"/>
+      <c r="F64" s="29"/>
+      <c r="G64" s="46"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="52"/>
-      <c r="B65" s="35"/>
-      <c r="C65" s="35"/>
-      <c r="D65" s="35"/>
-      <c r="E65" s="35"/>
-      <c r="F65" s="35"/>
-      <c r="G65" s="53"/>
+      <c r="A65" s="45"/>
+      <c r="B65" s="29"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="29"/>
+      <c r="G65" s="46"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="52"/>
-      <c r="B66" s="35"/>
-      <c r="C66" s="35"/>
-      <c r="D66" s="35"/>
-      <c r="E66" s="35"/>
-      <c r="F66" s="35"/>
-      <c r="G66" s="53"/>
+      <c r="A66" s="45"/>
+      <c r="B66" s="29"/>
+      <c r="C66" s="29"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="29"/>
+      <c r="G66" s="46"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="52"/>
-      <c r="B67" s="35"/>
-      <c r="C67" s="35"/>
-      <c r="D67" s="35"/>
-      <c r="E67" s="35"/>
-      <c r="F67" s="35"/>
-      <c r="G67" s="53"/>
+      <c r="A67" s="45"/>
+      <c r="B67" s="29"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="29"/>
+      <c r="G67" s="46"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="52"/>
-      <c r="B68" s="35"/>
-      <c r="C68" s="35"/>
-      <c r="D68" s="35"/>
-      <c r="E68" s="35"/>
-      <c r="F68" s="35"/>
-      <c r="G68" s="53"/>
+      <c r="A68" s="45"/>
+      <c r="B68" s="29"/>
+      <c r="C68" s="29"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="29"/>
+      <c r="F68" s="29"/>
+      <c r="G68" s="46"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="52"/>
-      <c r="B69" s="35"/>
-      <c r="C69" s="35"/>
-      <c r="D69" s="35"/>
-      <c r="E69" s="35"/>
-      <c r="F69" s="35"/>
-      <c r="G69" s="53"/>
+      <c r="A69" s="45"/>
+      <c r="B69" s="29"/>
+      <c r="C69" s="29"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="29"/>
+      <c r="F69" s="29"/>
+      <c r="G69" s="46"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="52"/>
-      <c r="B70" s="35"/>
-      <c r="C70" s="35"/>
-      <c r="D70" s="35"/>
-      <c r="E70" s="35"/>
-      <c r="F70" s="35"/>
-      <c r="G70" s="53"/>
+      <c r="A70" s="45"/>
+      <c r="B70" s="29"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="46"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="52"/>
-      <c r="B71" s="35"/>
-      <c r="C71" s="35"/>
-      <c r="D71" s="35"/>
-      <c r="E71" s="35"/>
-      <c r="F71" s="35"/>
-      <c r="G71" s="53"/>
+      <c r="A71" s="45"/>
+      <c r="B71" s="29"/>
+      <c r="C71" s="29"/>
+      <c r="D71" s="29"/>
+      <c r="E71" s="29"/>
+      <c r="F71" s="29"/>
+      <c r="G71" s="46"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="52"/>
-      <c r="B72" s="35"/>
-      <c r="C72" s="35"/>
-      <c r="D72" s="35"/>
-      <c r="E72" s="35"/>
-      <c r="F72" s="35"/>
-      <c r="G72" s="53"/>
+      <c r="A72" s="45"/>
+      <c r="B72" s="29"/>
+      <c r="C72" s="29"/>
+      <c r="D72" s="29"/>
+      <c r="E72" s="29"/>
+      <c r="F72" s="29"/>
+      <c r="G72" s="46"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="52"/>
-      <c r="B73" s="35"/>
-      <c r="C73" s="35"/>
-      <c r="D73" s="35"/>
-      <c r="E73" s="35"/>
-      <c r="F73" s="35"/>
-      <c r="G73" s="53"/>
+      <c r="A73" s="45"/>
+      <c r="B73" s="29"/>
+      <c r="C73" s="29"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="29"/>
+      <c r="G73" s="46"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="52"/>
-      <c r="B74" s="35"/>
-      <c r="C74" s="35"/>
-      <c r="D74" s="35"/>
-      <c r="E74" s="35"/>
-      <c r="F74" s="35"/>
-      <c r="G74" s="53"/>
+      <c r="A74" s="45"/>
+      <c r="B74" s="29"/>
+      <c r="C74" s="29"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="29"/>
+      <c r="F74" s="29"/>
+      <c r="G74" s="46"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="52"/>
-      <c r="B75" s="35"/>
-      <c r="C75" s="35"/>
-      <c r="D75" s="35"/>
-      <c r="E75" s="35"/>
-      <c r="F75" s="35"/>
-      <c r="G75" s="53"/>
+      <c r="A75" s="45"/>
+      <c r="B75" s="29"/>
+      <c r="C75" s="29"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="29"/>
+      <c r="F75" s="29"/>
+      <c r="G75" s="46"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="52"/>
-      <c r="B76" s="35"/>
-      <c r="C76" s="35"/>
-      <c r="D76" s="35"/>
-      <c r="E76" s="35"/>
-      <c r="F76" s="35"/>
-      <c r="G76" s="53"/>
+      <c r="A76" s="45"/>
+      <c r="B76" s="29"/>
+      <c r="C76" s="29"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="29"/>
+      <c r="F76" s="29"/>
+      <c r="G76" s="46"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="52"/>
-      <c r="B77" s="35"/>
-      <c r="C77" s="35"/>
-      <c r="D77" s="35"/>
-      <c r="E77" s="35"/>
-      <c r="F77" s="35"/>
-      <c r="G77" s="53"/>
+      <c r="A77" s="45"/>
+      <c r="B77" s="29"/>
+      <c r="C77" s="29"/>
+      <c r="D77" s="29"/>
+      <c r="E77" s="29"/>
+      <c r="F77" s="29"/>
+      <c r="G77" s="46"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="52"/>
-      <c r="B78" s="35"/>
-      <c r="C78" s="35"/>
-      <c r="D78" s="35"/>
-      <c r="E78" s="35"/>
-      <c r="F78" s="35"/>
-      <c r="G78" s="53"/>
+      <c r="A78" s="45"/>
+      <c r="B78" s="29"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="29"/>
+      <c r="G78" s="46"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="52"/>
-      <c r="B79" s="35"/>
-      <c r="C79" s="35"/>
-      <c r="D79" s="35"/>
-      <c r="E79" s="35"/>
-      <c r="F79" s="35"/>
-      <c r="G79" s="53"/>
+      <c r="A79" s="45"/>
+      <c r="B79" s="29"/>
+      <c r="C79" s="29"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="29"/>
+      <c r="G79" s="46"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="52"/>
-      <c r="B80" s="35"/>
-      <c r="C80" s="35"/>
-      <c r="D80" s="35"/>
-      <c r="E80" s="35"/>
-      <c r="F80" s="35"/>
-      <c r="G80" s="53"/>
+      <c r="A80" s="45"/>
+      <c r="B80" s="29"/>
+      <c r="C80" s="29"/>
+      <c r="D80" s="29"/>
+      <c r="E80" s="29"/>
+      <c r="F80" s="29"/>
+      <c r="G80" s="46"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="52"/>
-      <c r="B81" s="35"/>
-      <c r="C81" s="35"/>
-      <c r="D81" s="35"/>
-      <c r="E81" s="35"/>
-      <c r="F81" s="35"/>
-      <c r="G81" s="53"/>
+      <c r="A81" s="45"/>
+      <c r="B81" s="29"/>
+      <c r="C81" s="29"/>
+      <c r="D81" s="29"/>
+      <c r="E81" s="29"/>
+      <c r="F81" s="29"/>
+      <c r="G81" s="46"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="52"/>
-      <c r="B82" s="35"/>
-      <c r="C82" s="35"/>
-      <c r="D82" s="35"/>
-      <c r="E82" s="35"/>
-      <c r="F82" s="35"/>
-      <c r="G82" s="53"/>
+      <c r="A82" s="45"/>
+      <c r="B82" s="29"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="29"/>
+      <c r="E82" s="29"/>
+      <c r="F82" s="29"/>
+      <c r="G82" s="46"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="52"/>
-      <c r="B83" s="35"/>
-      <c r="C83" s="35"/>
-      <c r="D83" s="35"/>
-      <c r="E83" s="35"/>
-      <c r="F83" s="35"/>
-      <c r="G83" s="53"/>
+      <c r="A83" s="45"/>
+      <c r="B83" s="29"/>
+      <c r="C83" s="29"/>
+      <c r="D83" s="29"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="29"/>
+      <c r="G83" s="46"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="52"/>
-      <c r="B84" s="35"/>
-      <c r="C84" s="35"/>
-      <c r="D84" s="35"/>
-      <c r="E84" s="35"/>
-      <c r="F84" s="35"/>
-      <c r="G84" s="53"/>
+      <c r="A84" s="45"/>
+      <c r="B84" s="29"/>
+      <c r="C84" s="29"/>
+      <c r="D84" s="29"/>
+      <c r="E84" s="29"/>
+      <c r="F84" s="29"/>
+      <c r="G84" s="46"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="52"/>
-      <c r="B85" s="35"/>
-      <c r="C85" s="35"/>
-      <c r="D85" s="35"/>
-      <c r="E85" s="35"/>
-      <c r="F85" s="35"/>
-      <c r="G85" s="53"/>
+      <c r="A85" s="45"/>
+      <c r="B85" s="29"/>
+      <c r="C85" s="29"/>
+      <c r="D85" s="29"/>
+      <c r="E85" s="29"/>
+      <c r="F85" s="29"/>
+      <c r="G85" s="46"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="52"/>
-      <c r="B86" s="35"/>
-      <c r="C86" s="35"/>
-      <c r="D86" s="35"/>
-      <c r="E86" s="35"/>
-      <c r="F86" s="35"/>
-      <c r="G86" s="53"/>
+      <c r="A86" s="45"/>
+      <c r="B86" s="29"/>
+      <c r="C86" s="29"/>
+      <c r="D86" s="29"/>
+      <c r="E86" s="29"/>
+      <c r="F86" s="29"/>
+      <c r="G86" s="46"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="52"/>
-      <c r="B87" s="35"/>
-      <c r="C87" s="35"/>
-      <c r="D87" s="35"/>
-      <c r="E87" s="35"/>
-      <c r="F87" s="35"/>
-      <c r="G87" s="53"/>
+      <c r="A87" s="45"/>
+      <c r="B87" s="29"/>
+      <c r="C87" s="29"/>
+      <c r="D87" s="29"/>
+      <c r="E87" s="29"/>
+      <c r="F87" s="29"/>
+      <c r="G87" s="46"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="52"/>
-      <c r="B88" s="35"/>
-      <c r="C88" s="35"/>
-      <c r="D88" s="35"/>
-      <c r="E88" s="35"/>
-      <c r="F88" s="35"/>
-      <c r="G88" s="53"/>
+      <c r="A88" s="45"/>
+      <c r="B88" s="29"/>
+      <c r="C88" s="29"/>
+      <c r="D88" s="29"/>
+      <c r="E88" s="29"/>
+      <c r="F88" s="29"/>
+      <c r="G88" s="46"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="52"/>
-      <c r="B89" s="35"/>
-      <c r="C89" s="35"/>
-      <c r="D89" s="35"/>
-      <c r="E89" s="35"/>
-      <c r="F89" s="35"/>
-      <c r="G89" s="53"/>
+      <c r="A89" s="45"/>
+      <c r="B89" s="29"/>
+      <c r="C89" s="29"/>
+      <c r="D89" s="29"/>
+      <c r="E89" s="29"/>
+      <c r="F89" s="29"/>
+      <c r="G89" s="46"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="52"/>
-      <c r="B90" s="35"/>
-      <c r="C90" s="35"/>
-      <c r="D90" s="35"/>
-      <c r="E90" s="35"/>
-      <c r="F90" s="35"/>
-      <c r="G90" s="53"/>
+      <c r="A90" s="45"/>
+      <c r="B90" s="29"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="29"/>
+      <c r="F90" s="29"/>
+      <c r="G90" s="46"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="52"/>
-      <c r="B91" s="35"/>
-      <c r="C91" s="35"/>
-      <c r="D91" s="35"/>
-      <c r="E91" s="35"/>
-      <c r="F91" s="35"/>
-      <c r="G91" s="53"/>
+      <c r="A91" s="45"/>
+      <c r="B91" s="29"/>
+      <c r="C91" s="29"/>
+      <c r="D91" s="29"/>
+      <c r="E91" s="29"/>
+      <c r="F91" s="29"/>
+      <c r="G91" s="46"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="52"/>
-      <c r="B92" s="35"/>
-      <c r="C92" s="35"/>
-      <c r="D92" s="35"/>
-      <c r="E92" s="35"/>
-      <c r="F92" s="35"/>
-      <c r="G92" s="53"/>
+      <c r="A92" s="45"/>
+      <c r="B92" s="29"/>
+      <c r="C92" s="29"/>
+      <c r="D92" s="29"/>
+      <c r="E92" s="29"/>
+      <c r="F92" s="29"/>
+      <c r="G92" s="46"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="52"/>
-      <c r="B93" s="35"/>
-      <c r="C93" s="35"/>
-      <c r="D93" s="35"/>
-      <c r="E93" s="35"/>
-      <c r="F93" s="35"/>
-      <c r="G93" s="53"/>
+      <c r="A93" s="45"/>
+      <c r="B93" s="29"/>
+      <c r="C93" s="29"/>
+      <c r="D93" s="29"/>
+      <c r="E93" s="29"/>
+      <c r="F93" s="29"/>
+      <c r="G93" s="46"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="52"/>
-      <c r="B94" s="35"/>
-      <c r="C94" s="35"/>
-      <c r="D94" s="35"/>
-      <c r="E94" s="35"/>
-      <c r="F94" s="35"/>
-      <c r="G94" s="53"/>
+      <c r="A94" s="45"/>
+      <c r="B94" s="29"/>
+      <c r="C94" s="29"/>
+      <c r="D94" s="29"/>
+      <c r="E94" s="29"/>
+      <c r="F94" s="29"/>
+      <c r="G94" s="46"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="52"/>
-      <c r="B95" s="35"/>
-      <c r="C95" s="35"/>
-      <c r="D95" s="35"/>
-      <c r="E95" s="35"/>
-      <c r="F95" s="35"/>
-      <c r="G95" s="53"/>
+      <c r="A95" s="45"/>
+      <c r="B95" s="29"/>
+      <c r="C95" s="29"/>
+      <c r="D95" s="29"/>
+      <c r="E95" s="29"/>
+      <c r="F95" s="29"/>
+      <c r="G95" s="46"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="52"/>
-      <c r="B96" s="35"/>
-      <c r="C96" s="35"/>
-      <c r="D96" s="35"/>
-      <c r="E96" s="35"/>
-      <c r="F96" s="35"/>
-      <c r="G96" s="53"/>
+      <c r="A96" s="45"/>
+      <c r="B96" s="29"/>
+      <c r="C96" s="29"/>
+      <c r="D96" s="29"/>
+      <c r="E96" s="29"/>
+      <c r="F96" s="29"/>
+      <c r="G96" s="46"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="52"/>
-      <c r="B97" s="35"/>
-      <c r="C97" s="35"/>
-      <c r="D97" s="35"/>
-      <c r="E97" s="35"/>
-      <c r="F97" s="35"/>
-      <c r="G97" s="53"/>
+      <c r="A97" s="45"/>
+      <c r="B97" s="29"/>
+      <c r="C97" s="29"/>
+      <c r="D97" s="29"/>
+      <c r="E97" s="29"/>
+      <c r="F97" s="29"/>
+      <c r="G97" s="46"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="52"/>
-      <c r="B98" s="35"/>
-      <c r="C98" s="35"/>
-      <c r="D98" s="35"/>
-      <c r="E98" s="35"/>
-      <c r="F98" s="35"/>
-      <c r="G98" s="53"/>
+      <c r="A98" s="45"/>
+      <c r="B98" s="29"/>
+      <c r="C98" s="29"/>
+      <c r="D98" s="29"/>
+      <c r="E98" s="29"/>
+      <c r="F98" s="29"/>
+      <c r="G98" s="46"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="52"/>
-      <c r="B99" s="35"/>
-      <c r="C99" s="35"/>
-      <c r="D99" s="35"/>
-      <c r="E99" s="35"/>
-      <c r="F99" s="35"/>
-      <c r="G99" s="53"/>
+      <c r="A99" s="45"/>
+      <c r="B99" s="29"/>
+      <c r="C99" s="29"/>
+      <c r="D99" s="29"/>
+      <c r="E99" s="29"/>
+      <c r="F99" s="29"/>
+      <c r="G99" s="46"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="52"/>
-      <c r="B100" s="35"/>
-      <c r="C100" s="35"/>
-      <c r="D100" s="35"/>
-      <c r="E100" s="35"/>
-      <c r="F100" s="35"/>
-      <c r="G100" s="53"/>
+      <c r="A100" s="45"/>
+      <c r="B100" s="29"/>
+      <c r="C100" s="29"/>
+      <c r="D100" s="29"/>
+      <c r="E100" s="29"/>
+      <c r="F100" s="29"/>
+      <c r="G100" s="46"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="52"/>
-      <c r="B101" s="35"/>
-      <c r="C101" s="35"/>
-      <c r="D101" s="35"/>
-      <c r="E101" s="35"/>
-      <c r="F101" s="35"/>
-      <c r="G101" s="53"/>
+      <c r="A101" s="45"/>
+      <c r="B101" s="29"/>
+      <c r="C101" s="29"/>
+      <c r="D101" s="29"/>
+      <c r="E101" s="29"/>
+      <c r="F101" s="29"/>
+      <c r="G101" s="46"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="52"/>
-      <c r="B102" s="35"/>
-      <c r="C102" s="35"/>
-      <c r="D102" s="35"/>
-      <c r="E102" s="35"/>
-      <c r="F102" s="35"/>
-      <c r="G102" s="53"/>
+      <c r="A102" s="45"/>
+      <c r="B102" s="29"/>
+      <c r="C102" s="29"/>
+      <c r="D102" s="29"/>
+      <c r="E102" s="29"/>
+      <c r="F102" s="29"/>
+      <c r="G102" s="46"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="52"/>
-      <c r="B103" s="35"/>
-      <c r="C103" s="35"/>
-      <c r="D103" s="35"/>
-      <c r="E103" s="35"/>
-      <c r="F103" s="35"/>
-      <c r="G103" s="53"/>
+      <c r="A103" s="45"/>
+      <c r="B103" s="29"/>
+      <c r="C103" s="29"/>
+      <c r="D103" s="29"/>
+      <c r="E103" s="29"/>
+      <c r="F103" s="29"/>
+      <c r="G103" s="46"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="52"/>
-      <c r="B104" s="35"/>
-      <c r="C104" s="35"/>
-      <c r="D104" s="35"/>
-      <c r="E104" s="35"/>
-      <c r="F104" s="35"/>
-      <c r="G104" s="53"/>
+      <c r="A104" s="45"/>
+      <c r="B104" s="29"/>
+      <c r="C104" s="29"/>
+      <c r="D104" s="29"/>
+      <c r="E104" s="29"/>
+      <c r="F104" s="29"/>
+      <c r="G104" s="46"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="52"/>
-      <c r="B105" s="35"/>
-      <c r="C105" s="35"/>
-      <c r="D105" s="35"/>
-      <c r="E105" s="35"/>
-      <c r="F105" s="35"/>
-      <c r="G105" s="53"/>
+      <c r="A105" s="45"/>
+      <c r="B105" s="29"/>
+      <c r="C105" s="29"/>
+      <c r="D105" s="29"/>
+      <c r="E105" s="29"/>
+      <c r="F105" s="29"/>
+      <c r="G105" s="46"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="52"/>
-      <c r="B106" s="35"/>
-      <c r="C106" s="35"/>
-      <c r="D106" s="35"/>
-      <c r="E106" s="35"/>
-      <c r="F106" s="35"/>
-      <c r="G106" s="53"/>
+      <c r="A106" s="45"/>
+      <c r="B106" s="29"/>
+      <c r="C106" s="29"/>
+      <c r="D106" s="29"/>
+      <c r="E106" s="29"/>
+      <c r="F106" s="29"/>
+      <c r="G106" s="46"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="52"/>
-      <c r="B107" s="35"/>
-      <c r="C107" s="35"/>
-      <c r="D107" s="35"/>
-      <c r="E107" s="35"/>
-      <c r="F107" s="35"/>
-      <c r="G107" s="53"/>
+      <c r="A107" s="45"/>
+      <c r="B107" s="29"/>
+      <c r="C107" s="29"/>
+      <c r="D107" s="29"/>
+      <c r="E107" s="29"/>
+      <c r="F107" s="29"/>
+      <c r="G107" s="46"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="52"/>
-      <c r="B108" s="35"/>
-      <c r="C108" s="35"/>
-      <c r="D108" s="35"/>
-      <c r="E108" s="35"/>
-      <c r="F108" s="35"/>
-      <c r="G108" s="53"/>
+      <c r="A108" s="45"/>
+      <c r="B108" s="29"/>
+      <c r="C108" s="29"/>
+      <c r="D108" s="29"/>
+      <c r="E108" s="29"/>
+      <c r="F108" s="29"/>
+      <c r="G108" s="46"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="52"/>
-      <c r="B109" s="35"/>
-      <c r="C109" s="35"/>
-      <c r="D109" s="35"/>
-      <c r="E109" s="35"/>
-      <c r="F109" s="35"/>
-      <c r="G109" s="53"/>
+      <c r="A109" s="45"/>
+      <c r="B109" s="29"/>
+      <c r="C109" s="29"/>
+      <c r="D109" s="29"/>
+      <c r="E109" s="29"/>
+      <c r="F109" s="29"/>
+      <c r="G109" s="46"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="52"/>
-      <c r="B110" s="35"/>
-      <c r="C110" s="35"/>
-      <c r="D110" s="35"/>
-      <c r="E110" s="35"/>
-      <c r="F110" s="35"/>
-      <c r="G110" s="53"/>
+      <c r="A110" s="45"/>
+      <c r="B110" s="29"/>
+      <c r="C110" s="29"/>
+      <c r="D110" s="29"/>
+      <c r="E110" s="29"/>
+      <c r="F110" s="29"/>
+      <c r="G110" s="46"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="52"/>
-      <c r="B111" s="35"/>
-      <c r="C111" s="35"/>
-      <c r="D111" s="35"/>
-      <c r="E111" s="35"/>
-      <c r="F111" s="35"/>
-      <c r="G111" s="53"/>
+      <c r="A111" s="45"/>
+      <c r="B111" s="29"/>
+      <c r="C111" s="29"/>
+      <c r="D111" s="29"/>
+      <c r="E111" s="29"/>
+      <c r="F111" s="29"/>
+      <c r="G111" s="46"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="52"/>
-      <c r="B112" s="35"/>
-      <c r="C112" s="35"/>
-      <c r="D112" s="35"/>
-      <c r="E112" s="35"/>
-      <c r="F112" s="35"/>
-      <c r="G112" s="53"/>
+      <c r="A112" s="45"/>
+      <c r="B112" s="29"/>
+      <c r="C112" s="29"/>
+      <c r="D112" s="29"/>
+      <c r="E112" s="29"/>
+      <c r="F112" s="29"/>
+      <c r="G112" s="46"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="52"/>
-      <c r="B113" s="35"/>
-      <c r="C113" s="35"/>
-      <c r="D113" s="35"/>
-      <c r="E113" s="35"/>
-      <c r="F113" s="35"/>
-      <c r="G113" s="53"/>
+      <c r="A113" s="45"/>
+      <c r="B113" s="29"/>
+      <c r="C113" s="29"/>
+      <c r="D113" s="29"/>
+      <c r="E113" s="29"/>
+      <c r="F113" s="29"/>
+      <c r="G113" s="46"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="52"/>
-      <c r="B114" s="35"/>
-      <c r="C114" s="35"/>
-      <c r="D114" s="35"/>
-      <c r="E114" s="35"/>
-      <c r="F114" s="35"/>
-      <c r="G114" s="53"/>
+      <c r="A114" s="45"/>
+      <c r="B114" s="29"/>
+      <c r="C114" s="29"/>
+      <c r="D114" s="29"/>
+      <c r="E114" s="29"/>
+      <c r="F114" s="29"/>
+      <c r="G114" s="46"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="52"/>
-      <c r="B115" s="35"/>
-      <c r="C115" s="35"/>
-      <c r="D115" s="35"/>
-      <c r="E115" s="35"/>
-      <c r="F115" s="35"/>
-      <c r="G115" s="53"/>
+      <c r="A115" s="45"/>
+      <c r="B115" s="29"/>
+      <c r="C115" s="29"/>
+      <c r="D115" s="29"/>
+      <c r="E115" s="29"/>
+      <c r="F115" s="29"/>
+      <c r="G115" s="46"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="52"/>
-      <c r="B116" s="35"/>
-      <c r="C116" s="35"/>
-      <c r="D116" s="35"/>
-      <c r="E116" s="35"/>
-      <c r="F116" s="35"/>
-      <c r="G116" s="53"/>
+      <c r="A116" s="45"/>
+      <c r="B116" s="29"/>
+      <c r="C116" s="29"/>
+      <c r="D116" s="29"/>
+      <c r="E116" s="29"/>
+      <c r="F116" s="29"/>
+      <c r="G116" s="46"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="52"/>
-      <c r="B117" s="35"/>
-      <c r="C117" s="35"/>
-      <c r="D117" s="35"/>
-      <c r="E117" s="35"/>
-      <c r="F117" s="35"/>
-      <c r="G117" s="53"/>
+      <c r="A117" s="45"/>
+      <c r="B117" s="29"/>
+      <c r="C117" s="29"/>
+      <c r="D117" s="29"/>
+      <c r="E117" s="29"/>
+      <c r="F117" s="29"/>
+      <c r="G117" s="46"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="52"/>
-      <c r="B118" s="35"/>
-      <c r="C118" s="35"/>
-      <c r="D118" s="35"/>
-      <c r="E118" s="35"/>
-      <c r="F118" s="35"/>
-      <c r="G118" s="53"/>
+      <c r="A118" s="45"/>
+      <c r="B118" s="29"/>
+      <c r="C118" s="29"/>
+      <c r="D118" s="29"/>
+      <c r="E118" s="29"/>
+      <c r="F118" s="29"/>
+      <c r="G118" s="46"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="52"/>
-      <c r="B119" s="35"/>
-      <c r="C119" s="35"/>
-      <c r="D119" s="35"/>
-      <c r="E119" s="35"/>
-      <c r="F119" s="35"/>
-      <c r="G119" s="53"/>
+      <c r="A119" s="45"/>
+      <c r="B119" s="29"/>
+      <c r="C119" s="29"/>
+      <c r="D119" s="29"/>
+      <c r="E119" s="29"/>
+      <c r="F119" s="29"/>
+      <c r="G119" s="46"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="52"/>
-      <c r="B120" s="35"/>
-      <c r="C120" s="35"/>
-      <c r="D120" s="35"/>
-      <c r="E120" s="35"/>
-      <c r="F120" s="35"/>
-      <c r="G120" s="53"/>
+      <c r="A120" s="45"/>
+      <c r="B120" s="29"/>
+      <c r="C120" s="29"/>
+      <c r="D120" s="29"/>
+      <c r="E120" s="29"/>
+      <c r="F120" s="29"/>
+      <c r="G120" s="46"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="52"/>
-      <c r="B121" s="35"/>
-      <c r="C121" s="35"/>
-      <c r="D121" s="35"/>
-      <c r="E121" s="35"/>
-      <c r="F121" s="35"/>
-      <c r="G121" s="53"/>
+      <c r="A121" s="45"/>
+      <c r="B121" s="29"/>
+      <c r="C121" s="29"/>
+      <c r="D121" s="29"/>
+      <c r="E121" s="29"/>
+      <c r="F121" s="29"/>
+      <c r="G121" s="46"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="52"/>
-      <c r="B122" s="35"/>
-      <c r="C122" s="35"/>
-      <c r="D122" s="35"/>
-      <c r="E122" s="35"/>
-      <c r="F122" s="35"/>
-      <c r="G122" s="53"/>
+      <c r="A122" s="45"/>
+      <c r="B122" s="29"/>
+      <c r="C122" s="29"/>
+      <c r="D122" s="29"/>
+      <c r="E122" s="29"/>
+      <c r="F122" s="29"/>
+      <c r="G122" s="46"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="52"/>
-      <c r="B123" s="35"/>
-      <c r="C123" s="35"/>
-      <c r="D123" s="35"/>
-      <c r="E123" s="35"/>
-      <c r="F123" s="35"/>
-      <c r="G123" s="53"/>
+      <c r="A123" s="45"/>
+      <c r="B123" s="29"/>
+      <c r="C123" s="29"/>
+      <c r="D123" s="29"/>
+      <c r="E123" s="29"/>
+      <c r="F123" s="29"/>
+      <c r="G123" s="46"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="52"/>
-      <c r="B124" s="35"/>
-      <c r="C124" s="35"/>
-      <c r="D124" s="35"/>
-      <c r="E124" s="35"/>
-      <c r="F124" s="35"/>
-      <c r="G124" s="53"/>
+      <c r="A124" s="45"/>
+      <c r="B124" s="29"/>
+      <c r="C124" s="29"/>
+      <c r="D124" s="29"/>
+      <c r="E124" s="29"/>
+      <c r="F124" s="29"/>
+      <c r="G124" s="46"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="52"/>
-      <c r="B125" s="35"/>
-      <c r="C125" s="35"/>
-      <c r="D125" s="35"/>
-      <c r="E125" s="35"/>
-      <c r="F125" s="35"/>
-      <c r="G125" s="53"/>
+      <c r="A125" s="45"/>
+      <c r="B125" s="29"/>
+      <c r="C125" s="29"/>
+      <c r="D125" s="29"/>
+      <c r="E125" s="29"/>
+      <c r="F125" s="29"/>
+      <c r="G125" s="46"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="52"/>
-      <c r="B126" s="35"/>
-      <c r="C126" s="35"/>
-      <c r="D126" s="35"/>
-      <c r="E126" s="35"/>
-      <c r="F126" s="35"/>
-      <c r="G126" s="53"/>
+      <c r="A126" s="45"/>
+      <c r="B126" s="29"/>
+      <c r="C126" s="29"/>
+      <c r="D126" s="29"/>
+      <c r="E126" s="29"/>
+      <c r="F126" s="29"/>
+      <c r="G126" s="46"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="52"/>
-      <c r="B127" s="35"/>
-      <c r="C127" s="35"/>
-      <c r="D127" s="35"/>
-      <c r="E127" s="35"/>
-      <c r="F127" s="35"/>
-      <c r="G127" s="53"/>
+      <c r="A127" s="45"/>
+      <c r="B127" s="29"/>
+      <c r="C127" s="29"/>
+      <c r="D127" s="29"/>
+      <c r="E127" s="29"/>
+      <c r="F127" s="29"/>
+      <c r="G127" s="46"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="52"/>
-      <c r="B128" s="35"/>
-      <c r="C128" s="35"/>
-      <c r="D128" s="35"/>
-      <c r="E128" s="35"/>
-      <c r="F128" s="35"/>
-      <c r="G128" s="53"/>
+      <c r="A128" s="45"/>
+      <c r="B128" s="29"/>
+      <c r="C128" s="29"/>
+      <c r="D128" s="29"/>
+      <c r="E128" s="29"/>
+      <c r="F128" s="29"/>
+      <c r="G128" s="46"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="52"/>
-      <c r="B129" s="35"/>
-      <c r="C129" s="35"/>
-      <c r="D129" s="35"/>
-      <c r="E129" s="35"/>
-      <c r="F129" s="35"/>
-      <c r="G129" s="53"/>
+      <c r="A129" s="45"/>
+      <c r="B129" s="29"/>
+      <c r="C129" s="29"/>
+      <c r="D129" s="29"/>
+      <c r="E129" s="29"/>
+      <c r="F129" s="29"/>
+      <c r="G129" s="46"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="52"/>
-      <c r="B130" s="35"/>
-      <c r="C130" s="35"/>
-      <c r="D130" s="35"/>
-      <c r="E130" s="35"/>
-      <c r="F130" s="35"/>
-      <c r="G130" s="53"/>
+      <c r="A130" s="45"/>
+      <c r="B130" s="29"/>
+      <c r="C130" s="29"/>
+      <c r="D130" s="29"/>
+      <c r="E130" s="29"/>
+      <c r="F130" s="29"/>
+      <c r="G130" s="46"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="52"/>
-      <c r="B131" s="35"/>
-      <c r="C131" s="35"/>
-      <c r="D131" s="35"/>
-      <c r="E131" s="35"/>
-      <c r="F131" s="35"/>
-      <c r="G131" s="53"/>
+      <c r="A131" s="45"/>
+      <c r="B131" s="29"/>
+      <c r="C131" s="29"/>
+      <c r="D131" s="29"/>
+      <c r="E131" s="29"/>
+      <c r="F131" s="29"/>
+      <c r="G131" s="46"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="52"/>
-      <c r="B132" s="35"/>
-      <c r="C132" s="35"/>
-      <c r="D132" s="35"/>
-      <c r="E132" s="35"/>
-      <c r="F132" s="35"/>
-      <c r="G132" s="53"/>
+      <c r="A132" s="45"/>
+      <c r="B132" s="29"/>
+      <c r="C132" s="29"/>
+      <c r="D132" s="29"/>
+      <c r="E132" s="29"/>
+      <c r="F132" s="29"/>
+      <c r="G132" s="46"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="52"/>
-      <c r="B133" s="35"/>
-      <c r="C133" s="35"/>
-      <c r="D133" s="35"/>
-      <c r="E133" s="35"/>
-      <c r="F133" s="35"/>
-      <c r="G133" s="53"/>
+      <c r="A133" s="45"/>
+      <c r="B133" s="29"/>
+      <c r="C133" s="29"/>
+      <c r="D133" s="29"/>
+      <c r="E133" s="29"/>
+      <c r="F133" s="29"/>
+      <c r="G133" s="46"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="52"/>
-      <c r="B134" s="35"/>
-      <c r="C134" s="35"/>
-      <c r="D134" s="35"/>
-      <c r="E134" s="35"/>
-      <c r="F134" s="35"/>
-      <c r="G134" s="53"/>
+      <c r="A134" s="45"/>
+      <c r="B134" s="29"/>
+      <c r="C134" s="29"/>
+      <c r="D134" s="29"/>
+      <c r="E134" s="29"/>
+      <c r="F134" s="29"/>
+      <c r="G134" s="46"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="52"/>
-      <c r="B135" s="35"/>
-      <c r="C135" s="35"/>
-      <c r="D135" s="35"/>
-      <c r="E135" s="35"/>
-      <c r="F135" s="35"/>
-      <c r="G135" s="53"/>
+      <c r="A135" s="45"/>
+      <c r="B135" s="29"/>
+      <c r="C135" s="29"/>
+      <c r="D135" s="29"/>
+      <c r="E135" s="29"/>
+      <c r="F135" s="29"/>
+      <c r="G135" s="46"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="52"/>
-      <c r="B136" s="35"/>
-      <c r="C136" s="35"/>
-      <c r="D136" s="35"/>
-      <c r="E136" s="35"/>
-      <c r="F136" s="35"/>
-      <c r="G136" s="53"/>
+      <c r="A136" s="45"/>
+      <c r="B136" s="29"/>
+      <c r="C136" s="29"/>
+      <c r="D136" s="29"/>
+      <c r="E136" s="29"/>
+      <c r="F136" s="29"/>
+      <c r="G136" s="46"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="52"/>
-      <c r="B137" s="35"/>
-      <c r="C137" s="35"/>
-      <c r="D137" s="35"/>
-      <c r="E137" s="35"/>
-      <c r="F137" s="35"/>
-      <c r="G137" s="53"/>
+      <c r="A137" s="45"/>
+      <c r="B137" s="29"/>
+      <c r="C137" s="29"/>
+      <c r="D137" s="29"/>
+      <c r="E137" s="29"/>
+      <c r="F137" s="29"/>
+      <c r="G137" s="46"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="52"/>
-      <c r="B138" s="35"/>
-      <c r="C138" s="35"/>
-      <c r="D138" s="35"/>
-      <c r="E138" s="35"/>
-      <c r="F138" s="35"/>
-      <c r="G138" s="53"/>
+      <c r="A138" s="45"/>
+      <c r="B138" s="29"/>
+      <c r="C138" s="29"/>
+      <c r="D138" s="29"/>
+      <c r="E138" s="29"/>
+      <c r="F138" s="29"/>
+      <c r="G138" s="46"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="52"/>
-      <c r="B139" s="35"/>
-      <c r="C139" s="35"/>
-      <c r="D139" s="35"/>
-      <c r="E139" s="35"/>
-      <c r="F139" s="35"/>
-      <c r="G139" s="53"/>
+      <c r="A139" s="45"/>
+      <c r="B139" s="29"/>
+      <c r="C139" s="29"/>
+      <c r="D139" s="29"/>
+      <c r="E139" s="29"/>
+      <c r="F139" s="29"/>
+      <c r="G139" s="46"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="52"/>
-      <c r="B140" s="35"/>
-      <c r="C140" s="35"/>
-      <c r="D140" s="35"/>
-      <c r="E140" s="35"/>
-      <c r="F140" s="35"/>
-      <c r="G140" s="53"/>
+      <c r="A140" s="45"/>
+      <c r="B140" s="29"/>
+      <c r="C140" s="29"/>
+      <c r="D140" s="29"/>
+      <c r="E140" s="29"/>
+      <c r="F140" s="29"/>
+      <c r="G140" s="46"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="52"/>
-      <c r="B141" s="35"/>
-      <c r="C141" s="35"/>
-      <c r="D141" s="35"/>
-      <c r="E141" s="35"/>
-      <c r="F141" s="35"/>
-      <c r="G141" s="53"/>
+      <c r="A141" s="45"/>
+      <c r="B141" s="29"/>
+      <c r="C141" s="29"/>
+      <c r="D141" s="29"/>
+      <c r="E141" s="29"/>
+      <c r="F141" s="29"/>
+      <c r="G141" s="46"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="52"/>
-      <c r="B142" s="35"/>
-      <c r="C142" s="35"/>
-      <c r="D142" s="35"/>
-      <c r="E142" s="35"/>
-      <c r="F142" s="35"/>
-      <c r="G142" s="53"/>
+      <c r="A142" s="45"/>
+      <c r="B142" s="29"/>
+      <c r="C142" s="29"/>
+      <c r="D142" s="29"/>
+      <c r="E142" s="29"/>
+      <c r="F142" s="29"/>
+      <c r="G142" s="46"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="52"/>
-      <c r="B143" s="35"/>
-      <c r="C143" s="35"/>
-      <c r="D143" s="35"/>
-      <c r="E143" s="35"/>
-      <c r="F143" s="35"/>
-      <c r="G143" s="53"/>
+      <c r="A143" s="45"/>
+      <c r="B143" s="29"/>
+      <c r="C143" s="29"/>
+      <c r="D143" s="29"/>
+      <c r="E143" s="29"/>
+      <c r="F143" s="29"/>
+      <c r="G143" s="46"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="52"/>
-      <c r="B144" s="35"/>
-      <c r="C144" s="35"/>
-      <c r="D144" s="35"/>
-      <c r="E144" s="35"/>
-      <c r="F144" s="35"/>
-      <c r="G144" s="53"/>
+      <c r="A144" s="45"/>
+      <c r="B144" s="29"/>
+      <c r="C144" s="29"/>
+      <c r="D144" s="29"/>
+      <c r="E144" s="29"/>
+      <c r="F144" s="29"/>
+      <c r="G144" s="46"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="52"/>
-      <c r="B145" s="35"/>
-      <c r="C145" s="35"/>
-      <c r="D145" s="35"/>
-      <c r="E145" s="35"/>
-      <c r="F145" s="35"/>
-      <c r="G145" s="53"/>
+      <c r="A145" s="45"/>
+      <c r="B145" s="29"/>
+      <c r="C145" s="29"/>
+      <c r="D145" s="29"/>
+      <c r="E145" s="29"/>
+      <c r="F145" s="29"/>
+      <c r="G145" s="46"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="52"/>
-      <c r="B146" s="35"/>
-      <c r="C146" s="35"/>
-      <c r="D146" s="35"/>
-      <c r="E146" s="35"/>
-      <c r="F146" s="35"/>
-      <c r="G146" s="53"/>
+      <c r="A146" s="45"/>
+      <c r="B146" s="29"/>
+      <c r="C146" s="29"/>
+      <c r="D146" s="29"/>
+      <c r="E146" s="29"/>
+      <c r="F146" s="29"/>
+      <c r="G146" s="46"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="52"/>
-      <c r="B147" s="35"/>
-      <c r="C147" s="35"/>
-      <c r="D147" s="35"/>
-      <c r="E147" s="35"/>
-      <c r="F147" s="35"/>
-      <c r="G147" s="53"/>
+      <c r="A147" s="45"/>
+      <c r="B147" s="29"/>
+      <c r="C147" s="29"/>
+      <c r="D147" s="29"/>
+      <c r="E147" s="29"/>
+      <c r="F147" s="29"/>
+      <c r="G147" s="46"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="52"/>
-      <c r="B148" s="35"/>
-      <c r="C148" s="35"/>
-      <c r="D148" s="35"/>
-      <c r="E148" s="35"/>
-      <c r="F148" s="35"/>
-      <c r="G148" s="53"/>
+      <c r="A148" s="45"/>
+      <c r="B148" s="29"/>
+      <c r="C148" s="29"/>
+      <c r="D148" s="29"/>
+      <c r="E148" s="29"/>
+      <c r="F148" s="29"/>
+      <c r="G148" s="46"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="52"/>
-      <c r="B149" s="35"/>
-      <c r="C149" s="35"/>
-      <c r="D149" s="35"/>
-      <c r="E149" s="35"/>
-      <c r="F149" s="35"/>
-      <c r="G149" s="53"/>
+      <c r="A149" s="45"/>
+      <c r="B149" s="29"/>
+      <c r="C149" s="29"/>
+      <c r="D149" s="29"/>
+      <c r="E149" s="29"/>
+      <c r="F149" s="29"/>
+      <c r="G149" s="46"/>
     </row>
     <row r="150" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="54"/>
-      <c r="B150" s="55"/>
-      <c r="C150" s="55"/>
-      <c r="D150" s="55"/>
-      <c r="E150" s="55"/>
-      <c r="F150" s="55"/>
-      <c r="G150" s="56"/>
+      <c r="A150" s="47"/>
+      <c r="B150" s="48"/>
+      <c r="C150" s="48"/>
+      <c r="D150" s="48"/>
+      <c r="E150" s="48"/>
+      <c r="F150" s="48"/>
+      <c r="G150" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -8726,7 +9593,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>BackTracing!$C$6</xm:f>
+            <xm:f>BackTracing!$B$6</xm:f>
           </x14:formula1>
           <xm:sqref>G3:G150</xm:sqref>
         </x14:dataValidation>
@@ -8756,10 +9623,10 @@
     <col min="13" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="12:12" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="12:12" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L2" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -8811,280 +9678,280 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>80</v>
+        <v>71</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>81</v>
+        <v>70</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D14" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D15" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D16" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D19" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D20" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D21" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D22" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D23" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D24" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D25" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D26" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D27" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D28" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D29" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D30" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D31" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D32" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D34" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -9110,34 +9977,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
-        <v>115</v>
+      <c r="A5" s="18" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
+      <c r="A6" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/BfR_Format_Backtrace.xlsx
+++ b/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/BfR_Format_Backtrace.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Stations" sheetId="2" r:id="rId1"/>
@@ -17,10 +17,10 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Stations!$A$1:$J$8</definedName>
     <definedName name="LotNumbers">BackTracing!$B$6</definedName>
-    <definedName name="Sampling">LookUp!$A$2:$A$20</definedName>
+    <definedName name="Sampling">LookUp!$A$2:$A$13</definedName>
     <definedName name="StationIDs">Stations!$A$2:$A$958</definedName>
-    <definedName name="ToB">LookUp!$B$2:$B$20</definedName>
-    <definedName name="Treatment">LookUp!$C$2:$C$20</definedName>
+    <definedName name="ToB">LookUp!$B$2:$B$12</definedName>
+    <definedName name="Treatment">LookUp!$C$2:$C$11</definedName>
     <definedName name="Units">LookUp!$D$2:$D$34</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -1859,55 +1859,22 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="30" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="30" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1934,6 +1901,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1944,10 +1917,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1956,6 +1935,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1970,20 +1952,38 @@
     <xf numFmtId="0" fontId="36" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="30" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="30" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2416,7 +2416,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2514,7 +2516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -2557,20 +2559,20 @@
       <c r="F2" s="32"/>
     </row>
     <row r="3" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="128" t="s">
+      <c r="A3" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="129"/>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="129"/>
-      <c r="I3" s="129"/>
-      <c r="J3" s="129"/>
-      <c r="K3" s="129"/>
-      <c r="L3" s="129"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
       <c r="M3" s="67" t="s">
         <v>102</v>
       </c>
@@ -2584,33 +2586,33 @@
       <c r="U3" s="69"/>
     </row>
     <row r="4" spans="1:21" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="122" t="s">
+      <c r="A4" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="120" t="s">
+      <c r="B4" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="117" t="s">
+      <c r="C4" s="108" t="s">
         <v>110</v>
       </c>
       <c r="D4" s="109"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="117" t="s">
+      <c r="E4" s="110"/>
+      <c r="F4" s="108" t="s">
         <v>111</v>
       </c>
       <c r="G4" s="109"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="115" t="s">
+      <c r="H4" s="110"/>
+      <c r="I4" s="106" t="s">
         <v>116</v>
       </c>
-      <c r="J4" s="116"/>
-      <c r="K4" s="120" t="s">
+      <c r="J4" s="107"/>
+      <c r="K4" s="113" t="s">
         <v>113</v>
       </c>
-      <c r="L4" s="121" t="s">
+      <c r="L4" s="115" t="s">
         <v>117</v>
       </c>
-      <c r="M4" s="123" t="s">
+      <c r="M4" s="118" t="s">
         <v>106</v>
       </c>
       <c r="N4" s="51"/>
@@ -2623,8 +2625,8 @@
       <c r="U4" s="70"/>
     </row>
     <row r="5" spans="1:21" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="96"/>
-      <c r="B5" s="101"/>
+      <c r="A5" s="98"/>
+      <c r="B5" s="114"/>
       <c r="C5" s="26" t="s">
         <v>77</v>
       </c>
@@ -2649,9 +2651,9 @@
       <c r="J5" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="K5" s="101"/>
-      <c r="L5" s="108"/>
-      <c r="M5" s="98"/>
+      <c r="K5" s="114"/>
+      <c r="L5" s="116"/>
+      <c r="M5" s="119"/>
       <c r="N5" s="51"/>
       <c r="O5" s="51"/>
       <c r="P5" s="51"/>
@@ -2698,11 +2700,11 @@
       <c r="K7" s="22"/>
     </row>
     <row r="8" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="112" t="s">
+      <c r="A8" s="103" t="s">
         <v>96</v>
       </c>
-      <c r="B8" s="113"/>
-      <c r="C8" s="114"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="105"/>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
       <c r="F8" s="23"/>
@@ -2738,11 +2740,11 @@
       <c r="D11" s="22"/>
     </row>
     <row r="12" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="112" t="s">
+      <c r="A12" s="103" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="118"/>
-      <c r="C12" s="119"/>
+      <c r="B12" s="111"/>
+      <c r="C12" s="112"/>
       <c r="D12" s="62"/>
       <c r="E12" s="62"/>
       <c r="F12" s="62"/>
@@ -2765,23 +2767,23 @@
       <c r="U12" s="69"/>
     </row>
     <row r="13" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="126" t="s">
+      <c r="A13" s="122" t="s">
         <v>105</v>
       </c>
-      <c r="B13" s="124" t="s">
+      <c r="B13" s="120" t="s">
         <v>115</v>
       </c>
-      <c r="C13" s="125"/>
-      <c r="M13" s="130" t="s">
+      <c r="C13" s="121"/>
+      <c r="M13" s="97" t="s">
         <v>108</v>
       </c>
-      <c r="N13" s="131" t="s">
+      <c r="N13" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="O13" s="131" t="s">
+      <c r="O13" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="P13" s="110" t="s">
+      <c r="P13" s="101" t="s">
         <v>72</v>
       </c>
       <c r="Q13" s="88"/>
@@ -2791,17 +2793,17 @@
       <c r="U13" s="86"/>
     </row>
     <row r="14" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="127"/>
+      <c r="A14" s="123"/>
       <c r="B14" s="47" t="s">
         <v>103</v>
       </c>
       <c r="C14" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="M14" s="96"/>
-      <c r="N14" s="132"/>
-      <c r="O14" s="132"/>
-      <c r="P14" s="111"/>
+      <c r="M14" s="98"/>
+      <c r="N14" s="100"/>
+      <c r="O14" s="100"/>
+      <c r="P14" s="102"/>
       <c r="Q14" s="89"/>
       <c r="R14" s="66"/>
       <c r="S14" s="83"/>
@@ -2837,20 +2839,20 @@
       <c r="L16" s="28"/>
     </row>
     <row r="17" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="128" t="s">
+      <c r="A17" s="95" t="s">
         <v>99</v>
       </c>
-      <c r="B17" s="129"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="129"/>
-      <c r="E17" s="129"/>
-      <c r="F17" s="129"/>
-      <c r="G17" s="129"/>
-      <c r="H17" s="129"/>
-      <c r="I17" s="129"/>
-      <c r="J17" s="129"/>
-      <c r="K17" s="129"/>
-      <c r="L17" s="129"/>
+      <c r="B17" s="96"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="96"/>
       <c r="M17" s="67" t="s">
         <v>102</v>
       </c>
@@ -2864,33 +2866,33 @@
       <c r="U17" s="69"/>
     </row>
     <row r="18" spans="1:21" s="14" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="95" t="s">
+      <c r="A18" s="124" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="99" t="s">
+      <c r="B18" s="126" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="102" t="s">
+      <c r="C18" s="128" t="s">
         <v>110</v>
       </c>
       <c r="D18" s="109"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="104" t="s">
+      <c r="E18" s="110"/>
+      <c r="F18" s="129" t="s">
         <v>112</v>
       </c>
-      <c r="G18" s="105"/>
-      <c r="H18" s="106"/>
-      <c r="I18" s="102" t="s">
+      <c r="G18" s="130"/>
+      <c r="H18" s="131"/>
+      <c r="I18" s="128" t="s">
         <v>116</v>
       </c>
-      <c r="J18" s="103"/>
-      <c r="K18" s="99" t="s">
+      <c r="J18" s="110"/>
+      <c r="K18" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="L18" s="107" t="s">
+      <c r="L18" s="132" t="s">
         <v>105</v>
       </c>
-      <c r="M18" s="97" t="s">
+      <c r="M18" s="125" t="s">
         <v>107</v>
       </c>
       <c r="N18" s="52"/>
@@ -2903,8 +2905,8 @@
       <c r="U18" s="76"/>
     </row>
     <row r="19" spans="1:21" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="96"/>
-      <c r="B19" s="100"/>
+      <c r="A19" s="98"/>
+      <c r="B19" s="127"/>
       <c r="C19" s="13" t="s">
         <v>77</v>
       </c>
@@ -2929,9 +2931,9 @@
       <c r="J19" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="K19" s="101"/>
-      <c r="L19" s="108"/>
-      <c r="M19" s="98"/>
+      <c r="K19" s="114"/>
+      <c r="L19" s="116"/>
+      <c r="M19" s="119"/>
       <c r="N19" s="52"/>
       <c r="O19" s="52"/>
       <c r="P19" s="52"/>
@@ -4924,11 +4926,14 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="C18:E18"/>
     <mergeCell ref="P13:P14"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="I4:J4"/>
@@ -4942,14 +4947,11 @@
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
   </mergeCells>
   <dataValidations count="14">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="L16"/>

--- a/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/BfR_Format_Backtrace.xlsx
+++ b/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/BfR_Format_Backtrace.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Stations" sheetId="2" r:id="rId1"/>
@@ -16,6 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Stations!$A$1:$J$8</definedName>
+    <definedName name="Companies">Stations!$B$2:$B$958</definedName>
     <definedName name="LotNumbers">BackTracing!$B$6</definedName>
     <definedName name="Sampling">LookUp!$A$2:$A$13</definedName>
     <definedName name="StationIDs">Stations!$A$2:$A$958</definedName>
@@ -2416,7 +2417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2516,8 +2517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U106"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2545,7 +2546,10 @@
         <v>94</v>
       </c>
       <c r="B1" s="94"/>
-      <c r="C1" s="32"/>
+      <c r="C1" s="32" t="e">
+        <f>INDEX(Companies,MATCH(B1,StationIDs,0),1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
       <c r="F1" s="32"/>
@@ -2557,6 +2561,10 @@
       <c r="D2" s="32"/>
       <c r="E2" s="32"/>
       <c r="F2" s="32"/>
+      <c r="K2" s="2" t="e">
+        <f>INDEX(Companies,MATCH(K6,StationIDs,0),1)</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="3" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="95" t="s">

--- a/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/BfR_Format_Backtrace.xlsx
+++ b/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/BfR_Format_Backtrace.xlsx
@@ -10,9 +10,8 @@
     <sheet name="Stations" sheetId="2" r:id="rId1"/>
     <sheet name="BackTracing" sheetId="5" r:id="rId2"/>
     <sheet name="Opt_ForwardTracing" sheetId="1" r:id="rId3"/>
-    <sheet name="Opt_Sampling" sheetId="4" r:id="rId4"/>
-    <sheet name="LookUp" sheetId="3" r:id="rId5"/>
-    <sheet name="Help" sheetId="6" r:id="rId6"/>
+    <sheet name="LookUp" sheetId="3" r:id="rId4"/>
+    <sheet name="Help" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Stations!$A$1:$J$8</definedName>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="118">
   <si>
     <t>Supplier</t>
   </si>
@@ -249,9 +248,6 @@
   </si>
   <si>
     <t>Sampling</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> , </t>
   </si>
   <si>
     <t>Reporting Remark</t>
@@ -2451,7 +2447,7 @@
         <v>10</v>
       </c>
       <c r="E1" s="54" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>7</v>
@@ -2469,7 +2465,7 @@
         <v>12</v>
       </c>
       <c r="K1" s="58" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L1" s="59"/>
       <c r="M1" s="59"/>
@@ -2517,9 +2513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2543,7 +2537,7 @@
   <sheetData>
     <row r="1" spans="1:21" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B1" s="94"/>
       <c r="C1" s="32" t="e">
@@ -2568,7 +2562,7 @@
     </row>
     <row r="3" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B3" s="96"/>
       <c r="C3" s="96"/>
@@ -2582,7 +2576,7 @@
       <c r="K3" s="96"/>
       <c r="L3" s="96"/>
       <c r="M3" s="67" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N3" s="68"/>
       <c r="O3" s="68"/>
@@ -2601,27 +2595,27 @@
         <v>2</v>
       </c>
       <c r="C4" s="108" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D4" s="109"/>
       <c r="E4" s="110"/>
       <c r="F4" s="108" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G4" s="109"/>
       <c r="H4" s="110"/>
       <c r="I4" s="106" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J4" s="107"/>
       <c r="K4" s="113" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L4" s="115" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M4" s="118" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N4" s="51"/>
       <c r="O4" s="51"/>
@@ -2636,28 +2630,28 @@
       <c r="A5" s="98"/>
       <c r="B5" s="114"/>
       <c r="C5" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="E5" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="F5" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="J5" s="21" t="s">
         <v>79</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G5" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="H5" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="I5" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="J5" s="21" t="s">
-        <v>80</v>
       </c>
       <c r="K5" s="114"/>
       <c r="L5" s="116"/>
@@ -2709,7 +2703,7 @@
     </row>
     <row r="8" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="103" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B8" s="104"/>
       <c r="C8" s="105"/>
@@ -2731,7 +2725,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" s="22"/>
     </row>
@@ -2749,7 +2743,7 @@
     </row>
     <row r="12" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="103" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B12" s="111"/>
       <c r="C12" s="112"/>
@@ -2763,7 +2757,7 @@
       <c r="K12" s="62"/>
       <c r="L12" s="62"/>
       <c r="M12" s="67" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N12" s="68"/>
       <c r="O12" s="68"/>
@@ -2776,20 +2770,20 @@
     </row>
     <row r="13" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="122" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B13" s="120" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C13" s="121"/>
       <c r="M13" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="N13" s="99" t="s">
         <v>108</v>
       </c>
-      <c r="N13" s="99" t="s">
-        <v>109</v>
-      </c>
       <c r="O13" s="99" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P13" s="101" t="s">
         <v>72</v>
@@ -2803,10 +2797,10 @@
     <row r="14" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="123"/>
       <c r="B14" s="47" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C14" s="63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M14" s="98"/>
       <c r="N14" s="100"/>
@@ -2848,7 +2842,7 @@
     </row>
     <row r="17" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="95" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B17" s="96"/>
       <c r="C17" s="96"/>
@@ -2862,7 +2856,7 @@
       <c r="K17" s="96"/>
       <c r="L17" s="96"/>
       <c r="M17" s="67" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N17" s="68"/>
       <c r="O17" s="68"/>
@@ -2875,33 +2869,33 @@
     </row>
     <row r="18" spans="1:21" s="14" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="124" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B18" s="126" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C18" s="128" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D18" s="109"/>
       <c r="E18" s="110"/>
       <c r="F18" s="129" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G18" s="130"/>
       <c r="H18" s="131"/>
       <c r="I18" s="128" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J18" s="110"/>
       <c r="K18" s="126" t="s">
         <v>0</v>
       </c>
       <c r="L18" s="132" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M18" s="125" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N18" s="52"/>
       <c r="O18" s="52"/>
@@ -2916,28 +2910,28 @@
       <c r="A19" s="98"/>
       <c r="B19" s="127"/>
       <c r="C19" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="E19" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="F19" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H19" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="J19" s="16" t="s">
         <v>79</v>
-      </c>
-      <c r="F19" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="G19" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="H19" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="I19" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="J19" s="16" t="s">
-        <v>80</v>
       </c>
       <c r="K19" s="114"/>
       <c r="L19" s="116"/>
@@ -5036,34 +5030,34 @@
         <v>2</v>
       </c>
       <c r="B1" s="137" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C1" s="138"/>
       <c r="D1" s="138"/>
       <c r="E1" s="137" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F1" s="138"/>
       <c r="G1" s="133" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="136"/>
       <c r="B2" s="90" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="90" t="s">
+      <c r="D2" s="90" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="90" t="s">
+      <c r="E2" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="90" t="s">
         <v>79</v>
-      </c>
-      <c r="E2" s="90" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2" s="90" t="s">
-        <v>80</v>
       </c>
       <c r="G2" s="134"/>
     </row>
@@ -5107,38 +5101,6 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="L1:L2"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="4" width="11.42578125" style="2"/>
-    <col min="5" max="5" width="10.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="2"/>
-    <col min="7" max="7" width="10.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="2" customWidth="1"/>
-    <col min="9" max="11" width="11.42578125" style="2"/>
-    <col min="12" max="12" width="10.42578125" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="12:12" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L2" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5173,13 +5135,13 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -5187,13 +5149,13 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -5201,13 +5163,13 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -5215,7 +5177,7 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>67</v>
@@ -5229,7 +5191,7 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>62</v>
@@ -5243,7 +5205,7 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>14</v>
@@ -5257,7 +5219,7 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>63</v>
@@ -5271,7 +5233,7 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>64</v>
@@ -5285,7 +5247,7 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>65</v>
@@ -5299,7 +5261,7 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>66</v>
@@ -5438,7 +5400,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -5460,7 +5422,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -5473,12 +5435,12 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">

--- a/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/BfR_Format_Backtrace.xlsx
+++ b/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/BfR_Format_Backtrace.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Stations" sheetId="2" r:id="rId1"/>
@@ -12,33 +12,19 @@
     <sheet name="Opt_ForwardTracing" sheetId="1" r:id="rId3"/>
     <sheet name="LookUp" sheetId="3" r:id="rId4"/>
     <sheet name="Help" sheetId="6" r:id="rId5"/>
+    <sheet name="DataDictionary" sheetId="7" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Stations!$A$1:$J$8</definedName>
-    <definedName name="activity">[2]LookUp!$K$3:$K$16</definedName>
-    <definedName name="ay_company">[2]Business_List!$J$3:$J$480</definedName>
-    <definedName name="ay_id">[2]Business_List!$A$3:$A$578</definedName>
     <definedName name="Companies">Stations!$B$2:$B$958</definedName>
-    <definedName name="Country">[2]LookUp!$D$3:$D$219</definedName>
-    <definedName name="County">[2]LookUp!$B$3:$B$19</definedName>
-    <definedName name="europe">[1]LookUp!$A$1:$A$33</definedName>
-    <definedName name="micro">[2]LookUp!$F$9:$F$15</definedName>
-    <definedName name="NUTS">[2]LookUp!$H$3:$H$393</definedName>
-    <definedName name="pu">[2]LookUp!$M$3:$M$22</definedName>
     <definedName name="StationIDs">Stations!$A$2:$A$958</definedName>
-    <definedName name="world">[1]LookUp!$C$1:$C$246</definedName>
-    <definedName name="YN">[2]LookUp!$F$3:$F$5</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="242">
   <si>
     <t>Supplier</t>
   </si>
@@ -194,6 +180,592 @@
   </si>
   <si>
     <t>IMMER PFLICHT!!! Falls nicht bekannt, dann bitte eines ausdenken!</t>
+  </si>
+  <si>
+    <t>Serial_number</t>
+  </si>
+  <si>
+    <t>Unique Identifier of your entry in the table for use in case of later queries. Identification with abbreviation and serial number (e.g. AAW1).</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <r>
+      <t>Eindeutige</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Bezeichnung (darf nicht mehrfach vorkommen) Ihrer Eintragung in der Tabelle für Rückfragen. Identifikation laufender Nummer (z. B. 1 ff.). Bitte die lfd. Nummer fortführen. </t>
+    </r>
+  </si>
+  <si>
+    <t>Contact_Region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notifying member state </t>
+  </si>
+  <si>
+    <t>Kontakt_Region</t>
+  </si>
+  <si>
+    <t>Meldendes Land.</t>
+  </si>
+  <si>
+    <t>Contact_person</t>
+  </si>
+  <si>
+    <t>Name and telephone and/or e-mail address for the contact person in case of urgent on-site queries (inspector)</t>
+  </si>
+  <si>
+    <t>Kontakt_Person</t>
+  </si>
+  <si>
+    <t>Name und Telefon und/oder e-mail Addresse der Kontaktperson im Falle von eiligen Nachfragen (Prüfer).</t>
+  </si>
+  <si>
+    <t>ID_Receiver</t>
+  </si>
+  <si>
+    <t>Unique identifier for businesses included in the traceback exercise. The excel formula should provide this value when you select from the drop down list in the Address Receiver column</t>
+  </si>
+  <si>
+    <t>ID_Empfänger</t>
+  </si>
+  <si>
+    <t>Eindeutige Bezeichnung für Unternehmen. Die hinterlegte Excel Formel sollte diesen Wert anbieten, wenn Sie das Unternehmen in der Drop-Down Liste der Spalte Adresse_Empfänger auswählen.</t>
+  </si>
+  <si>
+    <t>Address_Receiver</t>
+  </si>
+  <si>
+    <t>Name, Address and Country  of the receiver business (Customer/ Destination/ Purchaser of the product from the business inspected ).  Please select this from the drop down list. If the business cannot be found in the list please add a new row in the Business_List worksheet, it should now appear in the drop down list for selection. In the Business_List sheet please try to ensure the information is complete including business registration/ VAT number.</t>
+  </si>
+  <si>
+    <t>Adresse_Empfänger</t>
+  </si>
+  <si>
+    <t>Name, Adresse und Land des Empfängerunternehmens (Abnehmer/ Bestimmungsort/ Auftraggeber des Produktes vom kontrollierten Unternehmen). Bitte aus der Drop-Down Liste auswählen. Sollte das Unternehmen nicht in der Liste zu finden sein, fügen Sie bitte in dem Arbeitsblatt "Business_List" eine neue Zeile ein. Das Unternehmen sollte jetzt in der drop down Liste im Arbeitsblatt "Transactions" erscheinen. Bitte stellen Sie sicher, dass in der Liste der Unternehmen (Arbeitsblatt "Business_List") die Informationen vollständig sind inkl. Straße, Postleitzahl, Handelsregisternummer/ Steuernummer.</t>
+  </si>
+  <si>
+    <t>Activity_Receiver</t>
+  </si>
+  <si>
+    <t>Select the type of activity for the reciever business from the drop down list</t>
+  </si>
+  <si>
+    <t>Tätigkeit_Empfänger</t>
+  </si>
+  <si>
+    <t>Wählen Sie die Tätigkeit des Empfängers in diesem Warenstrom aus der Drop-Down Liste aus.</t>
+  </si>
+  <si>
+    <t>ProductName_Out</t>
+  </si>
+  <si>
+    <t>Name of the product which was delivered by the business inspected to the receiver business . It is important that the name of the product as printed on the product carton or in the invoice and sent to the receiver address is reported here.</t>
+  </si>
+  <si>
+    <t>ProduktName_Raus</t>
+  </si>
+  <si>
+    <t>Bezeichnung des Produktes das vom kontrollierten Unternehmen an den Empfänger geliefert wurde. Es ist wichtig die Produktbezeichnung so zu nennen, wie sie auf der Kennzeichnung der Umverpackung oder dem Lieferschein zum Warenausgang verwendet ist.</t>
+  </si>
+  <si>
+    <t>ProductNo_Out</t>
+  </si>
+  <si>
+    <t>Product identifier number for the product delivered from the business inspected to the receiver business. This should uniquely identify the type of product from the product catalogue of the business inspected</t>
+  </si>
+  <si>
+    <t>ProduktNr_Raus</t>
+  </si>
+  <si>
+    <t>Produktidentifikationsnummer für das Produkt das vom kontrollierten Unternehmen an den Empfänger geliefert wurde. Diese sollte das Produkt im Produktkatalog des kontrollierten Unternehmens eindeutig identifizieren.</t>
+  </si>
+  <si>
+    <t>Day_To_Receiver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day of arrival or delivery date of the product to the receiver business </t>
+  </si>
+  <si>
+    <t>Tag_an_Empfänger</t>
+  </si>
+  <si>
+    <t>Tag der Ankunft oder Lieferdatum des Produktes beim Empfängerunternehmen.</t>
+  </si>
+  <si>
+    <t>Month_To_Receiver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Month of arrival or delivery date of the product to the receiver business </t>
+  </si>
+  <si>
+    <t>Monat_an_Empfänger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monat der Ankunft oder Lieferdatum des Produktes beim Empfängerunternehmen. </t>
+  </si>
+  <si>
+    <t>Year_To_Receiver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year of arrival or delivery date of the product to the receiver business </t>
+  </si>
+  <si>
+    <t>Jahr_an_Empfänger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jahr der Ankunft oder Lieferdatum des Produktes beim Empfängerunternehmen. </t>
+  </si>
+  <si>
+    <t>Amount_KG_Out</t>
+  </si>
+  <si>
+    <t>Report the total weight in kilograms of the product sent to the receiver by the business inspected</t>
+  </si>
+  <si>
+    <t>Menge_Kg_Raus</t>
+  </si>
+  <si>
+    <t>Mitteilung der Gesamtmenge in kg des Produktes das vom kontrollierten Unternehmen an den Empfänger versendet wurde.</t>
+  </si>
+  <si>
+    <t>Type_PU_Out</t>
+  </si>
+  <si>
+    <t>Select the type of packing unit used to send the product to the receiver by the business inspected</t>
+  </si>
+  <si>
+    <t>Art_VPE_Raus</t>
+  </si>
+  <si>
+    <t>Wählen Sie die Art der Verpackungseinheit aus, die zur Versendung vom kontrollierten Unternehmen an den Empfänger verwendet wurde.</t>
+  </si>
+  <si>
+    <t>No_PU_Out</t>
+  </si>
+  <si>
+    <t>Enter the number of packing units used to send the product to the receiver by the business inspected</t>
+  </si>
+  <si>
+    <t>Anzahl_VPE_Raus</t>
+  </si>
+  <si>
+    <t>Geben Sie die Anzahl der Verpackungseinheiten an, die vom kontrollierten Unternehmen an den Empfänger versendet wurde.</t>
+  </si>
+  <si>
+    <t>LotNo_Out</t>
+  </si>
+  <si>
+    <t>Unique identifier of consignment (lot number, batch number, order number). This will be used to track the product in the supply chain. Where possible include copies of shipping labels, invoices etc with the completed excel sheet</t>
+  </si>
+  <si>
+    <t>LosNr_Raus</t>
+  </si>
+  <si>
+    <t>Eindeutige Bezeichnung der Lieferung (Losnummer/ Chargennummer/ Auftragsnummer). Diese wird zur Rückverfolgung des Produktes in der Lieferkette verwendet. Wo möglich fügen Sie Kopien von Versandetiketten, Lieferpapieren usw. der ausgefüllten Exceltabelle bei.</t>
+  </si>
+  <si>
+    <t>Day_Expiry_Out</t>
+  </si>
+  <si>
+    <t>Day of the Expiration date or Best Before date of the outbound product</t>
+  </si>
+  <si>
+    <t>Tag_Verfall_Raus</t>
+  </si>
+  <si>
+    <t>Tag des Verfallsdatums oder Mindesthalbarkeitsdatums des abgehenden Produktes.</t>
+  </si>
+  <si>
+    <t>Month_Expiry_Out</t>
+  </si>
+  <si>
+    <t>Month of the Expiration date or Best Before date of the outbound product</t>
+  </si>
+  <si>
+    <t>Monat_Verfall_Raus</t>
+  </si>
+  <si>
+    <t>Monat des Verfallsdatums oder Mindesthalbarkeitsdatums des abgehenden Produktes.</t>
+  </si>
+  <si>
+    <t>Year_Expiry_Out</t>
+  </si>
+  <si>
+    <t>Year of the Expiration date or Best Before date of the outbound product</t>
+  </si>
+  <si>
+    <t>Jahr_Verfall_Raus</t>
+  </si>
+  <si>
+    <t>Jahr des Verfallsdatums oder Mindesthalbarkeitsdatums des abgehenden Produktes.</t>
+  </si>
+  <si>
+    <t>Day_Prod_Out</t>
+  </si>
+  <si>
+    <t>Day of production for the outbound product</t>
+  </si>
+  <si>
+    <t>Tag_Prod_Raus</t>
+  </si>
+  <si>
+    <t>Tag der Produktion des abgehenden Produktes.</t>
+  </si>
+  <si>
+    <t>Month_Prod_Out</t>
+  </si>
+  <si>
+    <t>Month of production for the outbound product</t>
+  </si>
+  <si>
+    <t>Monat_Prod_Raus</t>
+  </si>
+  <si>
+    <t>Monat der Produktion des abgehenden Produktes</t>
+  </si>
+  <si>
+    <t>Year_Prod_Out</t>
+  </si>
+  <si>
+    <t>Year of production for the outbound product</t>
+  </si>
+  <si>
+    <t>Jahr_Prod_Raus</t>
+  </si>
+  <si>
+    <t>Jahr der Produktion des abgehenden Produktes.</t>
+  </si>
+  <si>
+    <t>ID_BusinessInspected</t>
+  </si>
+  <si>
+    <t>Unique identifer for businesses included in the traceback exercise. The excel formula should provide this value when you select from the drop down list in the Address BusinessInspected column</t>
+  </si>
+  <si>
+    <t>ID_kontrolliertes Unternehmen</t>
+  </si>
+  <si>
+    <t>ID Nummer laut Tabellenblatt Liste_Unternehmen (Arbeitsblatt "Business_List").</t>
+  </si>
+  <si>
+    <t>Address_BusinessInspected</t>
+  </si>
+  <si>
+    <t>Name, Address and Country of the Business Inspected.  Please select this from the drop down list. If the business cannot be found in the list please add a new row in the Business_List worksheet, it should now appear in the drop down list for selection. In the Business_List sheet please try to ensure the information is complete including business registration/ VAT number.</t>
+  </si>
+  <si>
+    <t>Adresse_kontrolliertes Unternehmen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name, Adresse und Land des kontrollierten Unternehmens entsprechend der Liste_Unternehmen (Arbeitsblatt "Business_List"). Bei fehlenden Angaben bitte neue Zeilen in der Liste_Unternehmen einfügen. Bitte vollständige Angaben (auch Handelsregisternummer/ Steuernummer) eintragen. Der Eintrag sollte dann in der Drop-Down Liste im Arbeitsblatt "Transactions" erscheinen. </t>
+  </si>
+  <si>
+    <t>Activity_BusinessInspected</t>
+  </si>
+  <si>
+    <t>Select the type of activity for the  Business  Inspected from the drop down list</t>
+  </si>
+  <si>
+    <t>Tätigkeit_kontrolliertes Unternehmen</t>
+  </si>
+  <si>
+    <t>Auswahl über Drop-Down Liste. Bitte wählen Sie die Tätigkeit aus, die für die Ware zutrifft.</t>
+  </si>
+  <si>
+    <t>ProductName_In</t>
+  </si>
+  <si>
+    <t>Name of the product which was delivered to the business inspected by the supplier business. It is important that the name of the product as printed on the product carton or in the invoice and sent to the business inspected address is reported here.</t>
+  </si>
+  <si>
+    <t>Produktname_Rein</t>
+  </si>
+  <si>
+    <t>Name des Produktes, welches vom Zulieferer an das kontrollierte Unternehmen geliefert wurde. Wichtig: Hier bitte die Namensangabe vom Karton oder der Rechnung verwenden.</t>
+  </si>
+  <si>
+    <t>ProductNo_In</t>
+  </si>
+  <si>
+    <t>Product identifier number for the product delivered by the business inspected from the supplier business. This should uniquely identify the type of product from the product catalogue of the supplier</t>
+  </si>
+  <si>
+    <t>ProduktNr_Rein</t>
+  </si>
+  <si>
+    <t>Produktidentifikationsnummer für das Produkt das vom Zulieferer an das kontrollierte Unternehmen geliefert wurde. Diese sollte das Produkt im Produktkatalog des Zulieferers eindeutig identifizieren.</t>
+  </si>
+  <si>
+    <t>Day_From_Supplier</t>
+  </si>
+  <si>
+    <t>Day of arrival or delivery date of the product to the business inspected</t>
+  </si>
+  <si>
+    <t>Tag_vom_Zulieferer</t>
+  </si>
+  <si>
+    <t>Tag der Ankunft oder Lieferdatum des Produktes beim kontrollierten Unternehmen.</t>
+  </si>
+  <si>
+    <t>Month_From_Supplier</t>
+  </si>
+  <si>
+    <t>Month of arrival or delivery date of the product to the business inspected</t>
+  </si>
+  <si>
+    <t>Monat_vom_Zulieferer</t>
+  </si>
+  <si>
+    <t>Monat der Ankunft oder Lieferdatum des Produktes beim kontrollierten Unternehmen.</t>
+  </si>
+  <si>
+    <t>Year_From_Supplier</t>
+  </si>
+  <si>
+    <t>Year of arrival or delivery date of the product to the business inspected</t>
+  </si>
+  <si>
+    <t>Jahr_vom_Zulieferer</t>
+  </si>
+  <si>
+    <t>Jahr der Ankunft oder Lieferdatum des Produktes beim kontrollierten Unternehmen.</t>
+  </si>
+  <si>
+    <t>Amount_KG_In</t>
+  </si>
+  <si>
+    <t>Report the total weight in kilograms of the product sent by the supplier to the business inspected</t>
+  </si>
+  <si>
+    <t>Menge_Kg_Rein</t>
+  </si>
+  <si>
+    <t>Angabe des Gesamtgewichtes in kg des Produktes das vom Zulieferer an das kontrollierte Unternehmen versendet wurde.</t>
+  </si>
+  <si>
+    <t>Type_PU_In</t>
+  </si>
+  <si>
+    <t>Select the type of packing unit used to send the product from the supplier to the business inspected</t>
+  </si>
+  <si>
+    <t>Art_VPE_Rein</t>
+  </si>
+  <si>
+    <t>Wählen Sie die Verpackungseinheit aus, die zur Versendung vom Zulieferer an das kontrollierte Unternehmen verwendet wurde.</t>
+  </si>
+  <si>
+    <t>No_PU_In</t>
+  </si>
+  <si>
+    <t>Enter the number of packing units used to send the product from the supplier to the business inspected</t>
+  </si>
+  <si>
+    <t>Nr_VPE_Rein</t>
+  </si>
+  <si>
+    <t>Geben Sie die Anzahl der Verpackungseinheiten an, die vom Zulieferer an das kontrollierte Unternehmen versendet wurde.</t>
+  </si>
+  <si>
+    <t>LotNo_In</t>
+  </si>
+  <si>
+    <t>LosNr_Rein</t>
+  </si>
+  <si>
+    <t>Day_Expiry_In</t>
+  </si>
+  <si>
+    <t>Day of the Expiration date or Best Before date of the inbound product</t>
+  </si>
+  <si>
+    <t>Tag_Verfall_Rein</t>
+  </si>
+  <si>
+    <t>Tag des Verfallsdatums oder Mindesthalbarkeitsdatums des eingehenden Produktes.</t>
+  </si>
+  <si>
+    <t>Month_Expiry_In</t>
+  </si>
+  <si>
+    <t>Month of the Expiration date or Best Before date of the inbound product</t>
+  </si>
+  <si>
+    <t>Monat_Verfall_Rein</t>
+  </si>
+  <si>
+    <t>Monat des Verfallsdatums oder Mindesthalbarkeitsdatums des eingehenden Produktes.</t>
+  </si>
+  <si>
+    <t>Year_Expiry_In</t>
+  </si>
+  <si>
+    <t>Year the Expiration date or Best Before date of the inbound product</t>
+  </si>
+  <si>
+    <t>Jahr_Verfall_Rein</t>
+  </si>
+  <si>
+    <t>Jahr des Verfallsdatums oder Mindesthalbarkeitsdatums des eingehenden Produktes.</t>
+  </si>
+  <si>
+    <t>Day_Prod_In</t>
+  </si>
+  <si>
+    <t>Day of production for the inbound product. If the supplier is the primary producer the date of harvest should be recorded</t>
+  </si>
+  <si>
+    <t>Tag_Prod_Rein</t>
+  </si>
+  <si>
+    <t>Tag der Herstellung des eingehenden Produktes. Sollte es sich bei dem Zulieferer um einen Primärerzeuger handeln, bitte den Tag der Ausstallung angeben.</t>
+  </si>
+  <si>
+    <t>Month_Prod_In</t>
+  </si>
+  <si>
+    <t>Month of production for the inbound product. If the supplier is the primary producer the date of harvest should be recorded</t>
+  </si>
+  <si>
+    <t>Monat_Prod_Rein</t>
+  </si>
+  <si>
+    <t>Monat der Herstellung des eingehenden Produktes. Sollte es sich bei dem Zulieferer um einen Primärerzeuger handeln, bitte den Monat der Ausstallung angeben.</t>
+  </si>
+  <si>
+    <t>Year_Prod_In</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year of production for the inbound product. If the supplier is the primary producer the date of harvest should be recorded. If the date is not available please ensure the year of harvest is recorded when the supplier is a primary producer. </t>
+  </si>
+  <si>
+    <t>Jahr_Prod_Rein</t>
+  </si>
+  <si>
+    <t>Jahr der Herstellung des eingehenden Produktes. Sollte es sich bei dem Zulieferer um einen Primärerzeuger handeln, bitte das Jahr der Ausstallung angeben.</t>
+  </si>
+  <si>
+    <t>ID_Supplier</t>
+  </si>
+  <si>
+    <t>Unique identifer for businesses included in the traceback exercise. The excel formula should provide this value when you select from the drop down list in the Address Supplier column</t>
+  </si>
+  <si>
+    <t>ID_Zulieferer</t>
+  </si>
+  <si>
+    <t>Eindeutige Identifikationsnummer des Unternehmens für die Produktrückverfolgbarkeit. Das Excel-Formular sollte diese Identifikationsnummer automatisch anbieten, wenn der Zulieferer aus der Drop-Down Liste in der Spalte "Adresse_Zulieferer" ausgewählt wird</t>
+  </si>
+  <si>
+    <t>Address_Supplier</t>
+  </si>
+  <si>
+    <t>Name, Address and Country of the Supplier to the Business Inspected.  Please select this from the drop down list. If the business cannot be found in the list please add a new row in the Business_List worksheet, it should now appear in the drop down list for selection. In the Business_List sheet please try to ensure the information is complete including business registration/ VAT number.</t>
+  </si>
+  <si>
+    <t>Adresse_Zulieferer</t>
+  </si>
+  <si>
+    <t>Name, Adresse und Land des Zulieferers des kontrollierten Unternehmens. Bitte wählen Sie dieses aus der Drop-Down Liste. Falls das Unternehmen nicht in der Liste vorhanden ist, tragen Sie das Unternehmen bitte in einer neuen Zeile im Arbeitsblatt "Business_List" ein. Anschließend sollte es in der Auswahl der Drop-Down Liste im Arbeitsblatt "Transactions" erscheinen. Bitte stellen Sie sicher, dass im Arbeitsblatt "Business_List" die Angaben vollständig sind, inklusive der Handelsregisternummer/Steuernummer.</t>
+  </si>
+  <si>
+    <t>Activity_Supplier</t>
+  </si>
+  <si>
+    <t>Select the type of activity for the Supplier from the drop down list</t>
+  </si>
+  <si>
+    <t>Tätigkeit_Zulieferer</t>
+  </si>
+  <si>
+    <t>Auswahl über Drop-Down Liste.</t>
+  </si>
+  <si>
+    <t>EndChain</t>
+  </si>
+  <si>
+    <t>Has the end of the chain been reached? Select Yes or No</t>
+  </si>
+  <si>
+    <t>EndeKette</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wurde das Ende der Warenkette erreicht? JA oder NEIN. </t>
+  </si>
+  <si>
+    <t>Explanation_EndChain</t>
+  </si>
+  <si>
+    <t>If YES (supplier is not being traced further), please give reason, e.g. supplier unknown, supplier abroad (importer), no upstream supplier, this is the primary producer.</t>
+  </si>
+  <si>
+    <t>Erklärung_EndeKette</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenn JA (Zulieferer wurde nicht weiter zurückverfolgt), bitte Grund angegeben, z.B. Zulieferer unbekannt, ausländischer Zulieferer (Importeur); kein Zulieferer, sondern es handelt sich um den Primärerzeuger.  </t>
+  </si>
+  <si>
+    <t>If NO: please complete additional rows until the chain end has been completed</t>
+  </si>
+  <si>
+    <t>Wenn NEIN: bitte zusätzliche Zeilen ausfüllen bis die komplette Warenkette abgebildet ist.</t>
+  </si>
+  <si>
+    <t>OriginCountry</t>
+  </si>
+  <si>
+    <t>Report the origin country from the product label</t>
+  </si>
+  <si>
+    <t>UrsprungLand</t>
+  </si>
+  <si>
+    <t>Angabe des Ursprungslandes laut Produktetikett.</t>
+  </si>
+  <si>
+    <t>Contact_Questions_Remarks</t>
+  </si>
+  <si>
+    <t>Report any uncertainties or additional information required in relation to this transaction with the Business Inspected</t>
+  </si>
+  <si>
+    <t>Fragen_Anmerkungen</t>
+  </si>
+  <si>
+    <t>Bitte berichten Sie alle Unklarheiten oder zusätzlich erforderlichen Informationen bzgl. der Transaktion des kontrollierten Unternehmens (Quellenangabe, z.B. Lieferschein vom xxx, Sachstandsbericht vom xxx).</t>
+  </si>
+  <si>
+    <t>Further_Traceback</t>
+  </si>
+  <si>
+    <t>Is a further trace-back order started? Yes, No.</t>
+  </si>
+  <si>
+    <t>Weitere_Rückverfolgung</t>
+  </si>
+  <si>
+    <t>Sind weitere Ermittlungen zur Rückverfolgbarkeit angeordnet? JA/NEIN.</t>
+  </si>
+  <si>
+    <t>MicrobiologicalSample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please select from the drop down list to indicate if a sample/s have been taken for laboratory testing from the business inspected </t>
+  </si>
+  <si>
+    <t>Mikrobiologische_Proben</t>
+  </si>
+  <si>
+    <t>Bitte aus der Drop-Down Liste auswählen, wenn Probenahme/n für Laboranalysen bei dem kontrollierten Unternehmen erfolgt sind. Bitte geben Sie im Feld Fragen_Anmerkungen zusätzlich an, auf welche Probe sich das Ergebnis bezieht.</t>
   </si>
 </sst>
 </file>
@@ -475,7 +1047,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="32">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -661,8 +1233,86 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="62">
+  <borders count="66">
     <border>
       <left/>
       <right/>
@@ -1467,6 +2117,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1584,7 +2288,7 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="38" fillId="31" borderId="61" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="203">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
@@ -1869,56 +2573,75 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="30" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="30" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="30" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2013,72 +2736,53 @@
     <xf numFmtId="0" fontId="33" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="30" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="30" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="30" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2100,6 +2804,116 @@
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="62" xfId="112" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="62" xfId="112" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="63" xfId="112" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="112" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="112"/>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="62" xfId="112" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="63" xfId="112" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="63" xfId="112" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="62" xfId="112" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="63" xfId="112" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="35" borderId="62" xfId="112" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="35" borderId="63" xfId="112" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="36" borderId="62" xfId="112" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="62" xfId="112" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="36" borderId="63" xfId="112" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="36" borderId="62" xfId="112" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="36" borderId="63" xfId="112" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="38" borderId="62" xfId="112" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="62" xfId="112" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="38" borderId="63" xfId="112" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="40" borderId="62" xfId="112" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="62" xfId="112" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="40" borderId="63" xfId="112" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="112" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="2" fillId="40" borderId="62" xfId="112" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="40" borderId="63" xfId="112" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="42" borderId="62" xfId="112" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="62" xfId="112" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="42" borderId="63" xfId="112" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="44" borderId="62" xfId="112" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="62" xfId="112" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="44" borderId="63" xfId="112" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="63" xfId="112" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="44" borderId="64" xfId="112" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="44" borderId="65" xfId="112" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="64" xfId="112" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="44" borderId="62" xfId="112" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="112" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="114">
@@ -2226,7204 +3040,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="DataDictionary"/>
-      <sheetName val="Transactions"/>
-      <sheetName val="Business_List"/>
-      <sheetName val="LookUp"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>Firmen_ID
-(lfd. Nummer)</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>Austria</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>Austria</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>Belgium</v>
-          </cell>
-          <cell r="C2" t="str">
-            <v>Belgium</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>Bulgaria</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>Bulgaria</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>Cyprus</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>Cyprus</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>Czech Republic</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>Czech Republic</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>Denmark</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>Denmark</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>EEA</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>Estonia</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>Estonia</v>
-          </cell>
-          <cell r="C8" t="str">
-            <v>European Union</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>European Union</v>
-          </cell>
-          <cell r="C9" t="str">
-            <v>Finland</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>Finland</v>
-          </cell>
-          <cell r="C10" t="str">
-            <v>France</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>France</v>
-          </cell>
-          <cell r="C11" t="str">
-            <v>Germany</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>Germany</v>
-          </cell>
-          <cell r="C12" t="str">
-            <v>Greece</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>Greece</v>
-          </cell>
-          <cell r="C13" t="str">
-            <v>Hungary</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>Hungary</v>
-          </cell>
-          <cell r="C14" t="str">
-            <v>Ireland</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>Iceland</v>
-          </cell>
-          <cell r="C15" t="str">
-            <v>Italy</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>Ireland</v>
-          </cell>
-          <cell r="C16" t="str">
-            <v>Latvia</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>Italy</v>
-          </cell>
-          <cell r="C17" t="str">
-            <v>Lithuania</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>Latvia</v>
-          </cell>
-          <cell r="C18" t="str">
-            <v>Luxembourg</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>Liechtenstein</v>
-          </cell>
-          <cell r="C19" t="str">
-            <v>Malta</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>Lithuania</v>
-          </cell>
-          <cell r="C20" t="str">
-            <v>Netherlands</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>Luxembourg</v>
-          </cell>
-          <cell r="C21" t="str">
-            <v>Poland</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>Malta</v>
-          </cell>
-          <cell r="C22" t="str">
-            <v>Portugal</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>Netherlands</v>
-          </cell>
-          <cell r="C23" t="str">
-            <v>Romania</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>Norway</v>
-          </cell>
-          <cell r="C24" t="str">
-            <v>Slovakia</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>Poland</v>
-          </cell>
-          <cell r="C25" t="str">
-            <v>Slovenia</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>Portugal</v>
-          </cell>
-          <cell r="C26" t="str">
-            <v>Spain</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27" t="str">
-            <v>Romania</v>
-          </cell>
-          <cell r="C27" t="str">
-            <v>Sweden</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28" t="str">
-            <v>Slovakia</v>
-          </cell>
-          <cell r="C28" t="str">
-            <v>United Kingdom</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29" t="str">
-            <v>Slovenia</v>
-          </cell>
-          <cell r="C29" t="str">
-            <v>Iceland</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30" t="str">
-            <v>Spain</v>
-          </cell>
-          <cell r="C30" t="str">
-            <v>Liechtenstein</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31" t="str">
-            <v>Sweden</v>
-          </cell>
-          <cell r="C31" t="str">
-            <v>Norway</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32" t="str">
-            <v>Switzerland</v>
-          </cell>
-          <cell r="C32" t="str">
-            <v>Switzerland</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33" t="str">
-            <v>United Kingdom</v>
-          </cell>
-          <cell r="C33" t="str">
-            <v>Afghanistan</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="C34" t="str">
-            <v>Aland Islands</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="C35" t="str">
-            <v>Albania</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="C36" t="str">
-            <v>Algeria</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="C37" t="str">
-            <v>American Samoa</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="C38" t="str">
-            <v>Andorra</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="C39" t="str">
-            <v>Angola</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="C40" t="str">
-            <v>Anguilla</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="C41" t="str">
-            <v>Antarctica</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="C42" t="str">
-            <v>Antigua And Barbuda</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="C43" t="str">
-            <v>Argentina</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="C44" t="str">
-            <v>Armenia</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="C45" t="str">
-            <v>Aruba</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="C46" t="str">
-            <v>Australia</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="C47" t="str">
-            <v>Azerbaijan</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="C48" t="str">
-            <v>Bahamas</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="C49" t="str">
-            <v>Bahrain</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="C50" t="str">
-            <v>Bangladesh</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="C51" t="str">
-            <v>Barbados</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="C52" t="str">
-            <v>Belarus</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="C53" t="str">
-            <v>Belize</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="C54" t="str">
-            <v>Benin</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="C55" t="str">
-            <v>Bermuda</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="C56" t="str">
-            <v>Bhutan</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="C57" t="str">
-            <v>Bolivia</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="C58" t="str">
-            <v>Bosnia And Herzegowina</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="C59" t="str">
-            <v>Botswana</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="C60" t="str">
-            <v>Bouvetisland</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="C61" t="str">
-            <v>Brazil</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="C62" t="str">
-            <v>British Indian Ocean Territory</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="C63" t="str">
-            <v>Brunei Darussalam</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="C64" t="str">
-            <v>Burkina Faso</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="C65" t="str">
-            <v>Burundi</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="C66" t="str">
-            <v>Cambodia</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="C67" t="str">
-            <v>Cameroon</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="C68" t="str">
-            <v>Canada</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="C69" t="str">
-            <v>Capeverde</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="C70" t="str">
-            <v>Cayman Islands</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="C71" t="str">
-            <v>Central African Republic</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="C72" t="str">
-            <v>Chad</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="C73" t="str">
-            <v>Chile</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="C74" t="str">
-            <v>China</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="C75" t="str">
-            <v>Christmas Island</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="C76" t="str">
-            <v>Cocos (Keeling) Islands</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="C77" t="str">
-            <v>Colombia</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="C78" t="str">
-            <v>Comoros</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="C79" t="str">
-            <v>Congo</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="C80" t="str">
-            <v>Congo, The Democratic republi of the</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="C81" t="str">
-            <v>Cook Islands</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="C82" t="str">
-            <v>Costa Rica</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="C83" t="str">
-            <v>Cote D'Ivoire</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="C84" t="str">
-            <v>Croatia</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="C85" t="str">
-            <v>Cuba</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="C86" t="str">
-            <v>Djibouti</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="C87" t="str">
-            <v>Dominica</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="C88" t="str">
-            <v>Dominican Republic</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="C89" t="str">
-            <v>Ecuador</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="C90" t="str">
-            <v>Egypt</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="C91" t="str">
-            <v>El Salvador</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="C92" t="str">
-            <v>Equatorial Guinea</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="C93" t="str">
-            <v>Eritrea</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="C94" t="str">
-            <v>Ethiopia</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="C95" t="str">
-            <v>Falkland Islands</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="C96" t="str">
-            <v>Faroe Islands</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="C97" t="str">
-            <v>Fiji</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="C98" t="str">
-            <v>French Guiana</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="C99" t="str">
-            <v>French Polynesia</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="C100" t="str">
-            <v>French Southern Territories</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="C101" t="str">
-            <v>Gabon</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="C102" t="str">
-            <v>Gambia</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="C103" t="str">
-            <v>Georgia</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="C104" t="str">
-            <v>Ghana</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="C105" t="str">
-            <v>Gibraltar</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="C106" t="str">
-            <v>Greenland</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="C107" t="str">
-            <v>Grenada</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="C108" t="str">
-            <v>Guadeloupe</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="C109" t="str">
-            <v>Guam</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="C110" t="str">
-            <v>Guatemala</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="C111" t="str">
-            <v>Guinea</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="C112" t="str">
-            <v>Guinea-Bissau</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="C113" t="str">
-            <v>Guyana</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="C114" t="str">
-            <v>Haiti</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="C115" t="str">
-            <v>Heard And Mcdonald Islands</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="C116" t="str">
-            <v>Honduras</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="C117" t="str">
-            <v>Hongkong</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="C118" t="str">
-            <v>India</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="C119" t="str">
-            <v>Indonesia</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="C120" t="str">
-            <v>Iran</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="C121" t="str">
-            <v>Iraq</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="C122" t="str">
-            <v>Israel</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="C123" t="str">
-            <v>Jamaica</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="C124" t="str">
-            <v>Japan</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="C125" t="str">
-            <v>Jordan</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="C126" t="str">
-            <v>Kazakhstan</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="C127" t="str">
-            <v>Kenya</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="C128" t="str">
-            <v>Kiribati</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="C129" t="str">
-            <v>Korea (North)</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="C130" t="str">
-            <v>Korea (South)</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="C131" t="str">
-            <v>Kuwait</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="C132" t="str">
-            <v>Kyrgyzstan</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="C133" t="str">
-            <v>Laos</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="C134" t="str">
-            <v>Lebanon</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="C135" t="str">
-            <v>Lesotho</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="C136" t="str">
-            <v>Liberia</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="C137" t="str">
-            <v>Libya</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="C138" t="str">
-            <v>Macau</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="C139" t="str">
-            <v>Macedonia, The Former Yugoslav Republic of</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="C140" t="str">
-            <v>Madagascar</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="C141" t="str">
-            <v>Malawi</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="C142" t="str">
-            <v>Malaysia</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="C143" t="str">
-            <v>Maldives</v>
-          </cell>
-        </row>
-        <row r="144">
-          <cell r="C144" t="str">
-            <v>Mali</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="C145" t="str">
-            <v>Marshall Islands</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="C146" t="str">
-            <v>Martinique</v>
-          </cell>
-        </row>
-        <row r="147">
-          <cell r="C147" t="str">
-            <v>Mauritania</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="C148" t="str">
-            <v>Mauritius</v>
-          </cell>
-        </row>
-        <row r="149">
-          <cell r="C149" t="str">
-            <v>Mayotte</v>
-          </cell>
-        </row>
-        <row r="150">
-          <cell r="C150" t="str">
-            <v>Mexico</v>
-          </cell>
-        </row>
-        <row r="151">
-          <cell r="C151" t="str">
-            <v>Micronesia</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="C152" t="str">
-            <v>Moldova</v>
-          </cell>
-        </row>
-        <row r="153">
-          <cell r="C153" t="str">
-            <v>Monaco</v>
-          </cell>
-        </row>
-        <row r="154">
-          <cell r="C154" t="str">
-            <v>Mongolia</v>
-          </cell>
-        </row>
-        <row r="155">
-          <cell r="C155" t="str">
-            <v>Montenegro</v>
-          </cell>
-        </row>
-        <row r="156">
-          <cell r="C156" t="str">
-            <v>Montserrat</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="C157" t="str">
-            <v>Morocco</v>
-          </cell>
-        </row>
-        <row r="158">
-          <cell r="C158" t="str">
-            <v>Mozambique</v>
-          </cell>
-        </row>
-        <row r="159">
-          <cell r="C159" t="str">
-            <v>Myanmar</v>
-          </cell>
-        </row>
-        <row r="160">
-          <cell r="C160" t="str">
-            <v>Namibia</v>
-          </cell>
-        </row>
-        <row r="161">
-          <cell r="C161" t="str">
-            <v>Nauru</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="C162" t="str">
-            <v>Nepal</v>
-          </cell>
-        </row>
-        <row r="163">
-          <cell r="C163" t="str">
-            <v>Netherlands Antilles</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="C164" t="str">
-            <v>New Caledonia</v>
-          </cell>
-        </row>
-        <row r="165">
-          <cell r="C165" t="str">
-            <v>New Zealand</v>
-          </cell>
-        </row>
-        <row r="166">
-          <cell r="C166" t="str">
-            <v>Nicaragua</v>
-          </cell>
-        </row>
-        <row r="167">
-          <cell r="C167" t="str">
-            <v>Niger</v>
-          </cell>
-        </row>
-        <row r="168">
-          <cell r="C168" t="str">
-            <v>Nigeria</v>
-          </cell>
-        </row>
-        <row r="169">
-          <cell r="C169" t="str">
-            <v>Niue</v>
-          </cell>
-        </row>
-        <row r="170">
-          <cell r="C170" t="str">
-            <v>Non EEA</v>
-          </cell>
-        </row>
-        <row r="171">
-          <cell r="C171" t="str">
-            <v>Non EU</v>
-          </cell>
-        </row>
-        <row r="172">
-          <cell r="C172" t="str">
-            <v>Norfolk Island</v>
-          </cell>
-        </row>
-        <row r="173">
-          <cell r="C173" t="str">
-            <v>Northern Mariana Islands</v>
-          </cell>
-        </row>
-        <row r="174">
-          <cell r="C174" t="str">
-            <v>Oman</v>
-          </cell>
-        </row>
-        <row r="175">
-          <cell r="C175" t="str">
-            <v>Pakistan</v>
-          </cell>
-        </row>
-        <row r="176">
-          <cell r="C176" t="str">
-            <v>Palau</v>
-          </cell>
-        </row>
-        <row r="177">
-          <cell r="C177" t="str">
-            <v>Palestinian territory, occupied</v>
-          </cell>
-        </row>
-        <row r="178">
-          <cell r="C178" t="str">
-            <v>Panama</v>
-          </cell>
-        </row>
-        <row r="179">
-          <cell r="C179" t="str">
-            <v>Papua New Guinea</v>
-          </cell>
-        </row>
-        <row r="180">
-          <cell r="C180" t="str">
-            <v>Paraguay</v>
-          </cell>
-        </row>
-        <row r="181">
-          <cell r="C181" t="str">
-            <v>Peru</v>
-          </cell>
-        </row>
-        <row r="182">
-          <cell r="C182" t="str">
-            <v>Philippines</v>
-          </cell>
-        </row>
-        <row r="183">
-          <cell r="C183" t="str">
-            <v>Pitcairn</v>
-          </cell>
-        </row>
-        <row r="184">
-          <cell r="C184" t="str">
-            <v>Puerto Rico</v>
-          </cell>
-        </row>
-        <row r="185">
-          <cell r="C185" t="str">
-            <v>Qatar</v>
-          </cell>
-        </row>
-        <row r="186">
-          <cell r="C186" t="str">
-            <v>Reunion</v>
-          </cell>
-        </row>
-        <row r="187">
-          <cell r="C187" t="str">
-            <v>Russia</v>
-          </cell>
-        </row>
-        <row r="188">
-          <cell r="C188" t="str">
-            <v>Rwanda</v>
-          </cell>
-        </row>
-        <row r="189">
-          <cell r="C189" t="str">
-            <v>Saint Kitts And Nevis</v>
-          </cell>
-        </row>
-        <row r="190">
-          <cell r="C190" t="str">
-            <v>Saint Lucia</v>
-          </cell>
-        </row>
-        <row r="191">
-          <cell r="C191" t="str">
-            <v>Saint Vincent And The Grenadines</v>
-          </cell>
-        </row>
-        <row r="192">
-          <cell r="C192" t="str">
-            <v>Samoa</v>
-          </cell>
-        </row>
-        <row r="193">
-          <cell r="C193" t="str">
-            <v>San Marino</v>
-          </cell>
-        </row>
-        <row r="194">
-          <cell r="C194" t="str">
-            <v>Saotome And Principe</v>
-          </cell>
-        </row>
-        <row r="195">
-          <cell r="C195" t="str">
-            <v>Saudi Arabia</v>
-          </cell>
-        </row>
-        <row r="196">
-          <cell r="C196" t="str">
-            <v>Senegal</v>
-          </cell>
-        </row>
-        <row r="197">
-          <cell r="C197" t="str">
-            <v>Serbia</v>
-          </cell>
-        </row>
-        <row r="198">
-          <cell r="C198" t="str">
-            <v>Seychelles</v>
-          </cell>
-        </row>
-        <row r="199">
-          <cell r="C199" t="str">
-            <v>Sierra Leone</v>
-          </cell>
-        </row>
-        <row r="200">
-          <cell r="C200" t="str">
-            <v>Singapore</v>
-          </cell>
-        </row>
-        <row r="201">
-          <cell r="C201" t="str">
-            <v>Solomon Islands</v>
-          </cell>
-        </row>
-        <row r="202">
-          <cell r="C202" t="str">
-            <v>Somalia</v>
-          </cell>
-        </row>
-        <row r="203">
-          <cell r="C203" t="str">
-            <v>South Africa</v>
-          </cell>
-        </row>
-        <row r="204">
-          <cell r="C204" t="str">
-            <v>South Georgia</v>
-          </cell>
-        </row>
-        <row r="205">
-          <cell r="C205" t="str">
-            <v>Sri Lanka</v>
-          </cell>
-        </row>
-        <row r="206">
-          <cell r="C206" t="str">
-            <v>St. Helena</v>
-          </cell>
-        </row>
-        <row r="207">
-          <cell r="C207" t="str">
-            <v>St. Pierre And Miquelon</v>
-          </cell>
-        </row>
-        <row r="208">
-          <cell r="C208" t="str">
-            <v>Sudan</v>
-          </cell>
-        </row>
-        <row r="209">
-          <cell r="C209" t="str">
-            <v>Suriname</v>
-          </cell>
-        </row>
-        <row r="210">
-          <cell r="C210" t="str">
-            <v>Svalbard And Janmayen</v>
-          </cell>
-        </row>
-        <row r="211">
-          <cell r="C211" t="str">
-            <v>Swaziland</v>
-          </cell>
-        </row>
-        <row r="212">
-          <cell r="C212" t="str">
-            <v>Syria</v>
-          </cell>
-        </row>
-        <row r="213">
-          <cell r="C213" t="str">
-            <v>Taiwan</v>
-          </cell>
-        </row>
-        <row r="214">
-          <cell r="C214" t="str">
-            <v>Tajikistan</v>
-          </cell>
-        </row>
-        <row r="215">
-          <cell r="C215" t="str">
-            <v>Tanzania</v>
-          </cell>
-        </row>
-        <row r="216">
-          <cell r="C216" t="str">
-            <v>Thailand</v>
-          </cell>
-        </row>
-        <row r="217">
-          <cell r="C217" t="str">
-            <v>Timor-Leste</v>
-          </cell>
-        </row>
-        <row r="218">
-          <cell r="C218" t="str">
-            <v>Togo</v>
-          </cell>
-        </row>
-        <row r="219">
-          <cell r="C219" t="str">
-            <v>Tokelau</v>
-          </cell>
-        </row>
-        <row r="220">
-          <cell r="C220" t="str">
-            <v>Tonga</v>
-          </cell>
-        </row>
-        <row r="221">
-          <cell r="C221" t="str">
-            <v>Trinidad And Tobago</v>
-          </cell>
-        </row>
-        <row r="222">
-          <cell r="C222" t="str">
-            <v>Tunisia</v>
-          </cell>
-        </row>
-        <row r="223">
-          <cell r="C223" t="str">
-            <v>Turkey</v>
-          </cell>
-        </row>
-        <row r="224">
-          <cell r="C224" t="str">
-            <v>Turkmenistan</v>
-          </cell>
-        </row>
-        <row r="225">
-          <cell r="C225" t="str">
-            <v>Turks And Caicos</v>
-          </cell>
-        </row>
-        <row r="226">
-          <cell r="C226" t="str">
-            <v>Tuvalu</v>
-          </cell>
-        </row>
-        <row r="227">
-          <cell r="C227" t="str">
-            <v>Uganda</v>
-          </cell>
-        </row>
-        <row r="228">
-          <cell r="C228" t="str">
-            <v>Ukraine</v>
-          </cell>
-        </row>
-        <row r="229">
-          <cell r="C229" t="str">
-            <v>United Arab Emirates</v>
-          </cell>
-        </row>
-        <row r="230">
-          <cell r="C230" t="str">
-            <v>United States</v>
-          </cell>
-        </row>
-        <row r="231">
-          <cell r="C231" t="str">
-            <v>United States Minoroutlying Islands</v>
-          </cell>
-        </row>
-        <row r="232">
-          <cell r="C232" t="str">
-            <v>Uruguay</v>
-          </cell>
-        </row>
-        <row r="233">
-          <cell r="C233" t="str">
-            <v>Uzbekistan</v>
-          </cell>
-        </row>
-        <row r="234">
-          <cell r="C234" t="str">
-            <v>Vanuatu</v>
-          </cell>
-        </row>
-        <row r="235">
-          <cell r="C235" t="str">
-            <v>Vatican</v>
-          </cell>
-        </row>
-        <row r="236">
-          <cell r="C236" t="str">
-            <v>Venezuela</v>
-          </cell>
-        </row>
-        <row r="237">
-          <cell r="C237" t="str">
-            <v>Vietnam</v>
-          </cell>
-        </row>
-        <row r="238">
-          <cell r="C238" t="str">
-            <v>Virgin Islands (British)</v>
-          </cell>
-        </row>
-        <row r="239">
-          <cell r="C239" t="str">
-            <v>Virgin Islands (U.S.)</v>
-          </cell>
-        </row>
-        <row r="240">
-          <cell r="C240" t="str">
-            <v>Wallis And Futuna Islands</v>
-          </cell>
-        </row>
-        <row r="241">
-          <cell r="C241" t="str">
-            <v>Western Sahara</v>
-          </cell>
-        </row>
-        <row r="242">
-          <cell r="C242" t="str">
-            <v>Yemen</v>
-          </cell>
-        </row>
-        <row r="243">
-          <cell r="C243" t="str">
-            <v>Zambia</v>
-          </cell>
-        </row>
-        <row r="244">
-          <cell r="C244" t="str">
-            <v>Zimbabwe</v>
-          </cell>
-        </row>
-        <row r="245">
-          <cell r="C245" t="str">
-            <v>Non domestic, import</v>
-          </cell>
-        </row>
-        <row r="246">
-          <cell r="C246" t="str">
-            <v>Unknown</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="DataDictionary"/>
-      <sheetName val="Transactions"/>
-      <sheetName val="Business_List"/>
-      <sheetName val="LookUp"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2">
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>Company_ID</v>
-          </cell>
-          <cell r="J3" t="str">
-            <v>LookUp</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>1</v>
-          </cell>
-          <cell r="J4" t="str">
-            <v>Firma1, Straße1 1, 12345, Stadt1, BB</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>2</v>
-          </cell>
-          <cell r="J5" t="str">
-            <v>Firma2, Straße2 2, 23456, Stadt2, SN</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>3</v>
-          </cell>
-          <cell r="J6" t="str">
-            <v>Firma3, Straße3 3, 34567, Stadt3, SN</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>4</v>
-          </cell>
-          <cell r="J7" t="str">
-            <v>Firma4, Straße4 4, 45678, Stadt4, SN</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>5</v>
-          </cell>
-          <cell r="J8" t="str">
-            <v>Firma5, Straße5 5, 56789, Stadt5, ST</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>6</v>
-          </cell>
-          <cell r="J9" t="str">
-            <v>Fleischerei Langheinrich, Hauptstraße 20, 04617, Monstab, TH</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>7</v>
-          </cell>
-          <cell r="J10" t="str">
-            <v>Fleischzerlegung Baraneck, Porphyrstraße 1, 04600, Altenburg, TH</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>8</v>
-          </cell>
-          <cell r="J11" t="str">
-            <v>Heinz Tummel GmbH &amp; Co KG, Eggeroder Straße 8, 48624, Schöppingen, NW</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>9</v>
-          </cell>
-          <cell r="J12" t="str">
-            <v>Blömer Fleisch GmbH, Dorfstraße , 18513, Vorland, MV</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>10</v>
-          </cell>
-          <cell r="J13" t="str">
-            <v xml:space="preserve">BVBA Debra-Meat, Hoogserleistraat 3, B-8700, Tielt, </v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>11</v>
-          </cell>
-          <cell r="J14" t="str">
-            <v>Südost Fleisch GmbH, Am Poschwitzer Park 7, 04600, Altenburg, TH</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>12</v>
-          </cell>
-          <cell r="J15" t="str">
-            <v>Klixer Edelfleisch GmbH, Hauptstraße 57, 02694, Grossdubrau, SN</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>13</v>
-          </cell>
-          <cell r="J16" t="str">
-            <v xml:space="preserve">Schweinefarm ROETTIG GBR, Auenweg 3, 09661, ROSSAU, </v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>14</v>
-          </cell>
-          <cell r="J17" t="str">
-            <v xml:space="preserve">SCHWEINEMASTANLAGE GMBH, Dorfstraße 56, 99510, HERMSTEDT, </v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>15</v>
-          </cell>
-          <cell r="J18" t="str">
-            <v xml:space="preserve">STOEDTENER QUALITAETSSCHWEINE GmbH, Friedenstraße 1, 99610, STOEDTEN, </v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>16</v>
-          </cell>
-          <cell r="J19" t="str">
-            <v>RUSS TILMANN, Breitbacher Straße  1a, 97516, OBERSCHWARZACH, BY</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>17</v>
-          </cell>
-          <cell r="J20" t="str">
-            <v xml:space="preserve">Wolfgang Schirber, Klingenweg 51, 97640, Oberstreu, </v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>18</v>
-          </cell>
-          <cell r="J21" t="str">
-            <v xml:space="preserve">EZG Fleischschwein Groß Leine e.G., Siegadeier Straße 6, 15913, Märkische Heide, </v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>19</v>
-          </cell>
-          <cell r="J22" t="str">
-            <v>Nordhäuser Schweinemast GmbH &amp; Co.KG, Kommunikationsweg 11, 99734, Nordhausen, TH</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>20</v>
-          </cell>
-          <cell r="J23" t="str">
-            <v>Agrargenossenschaft Weidagrund e.G., Hauptstraße 13, 07952, Pausa, SN</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>21</v>
-          </cell>
-          <cell r="J24" t="str">
-            <v xml:space="preserve">Wirtschaftshof Sachsenland/Wittgensdorf e.G., Limbacher Strasse 86, 09247, Roehrsdorf, </v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>22</v>
-          </cell>
-          <cell r="J25" t="str">
-            <v>Schlegel GbR, Schulstraße 7, 04808, Wurzen, SN</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>23</v>
-          </cell>
-          <cell r="J26" t="str">
-            <v xml:space="preserve">Agrargenossenschaft Thonhausen e.G.,  , 04626, Vollmershain, </v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27" t="str">
-            <v>24</v>
-          </cell>
-          <cell r="J27" t="str">
-            <v xml:space="preserve">Dittersdorf Landgenossenschaft e.G., Plothener Strasse 1, 07907, Dittersdorf, </v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28" t="str">
-            <v>25</v>
-          </cell>
-          <cell r="J28" t="str">
-            <v xml:space="preserve">Agrargenossenschaft Bauda e.G. Schweinehaltung Nasseböhla, Baudaer Mühlweg 1, 01561, Grossenhain / OT Bauda, </v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29" t="str">
-            <v>26</v>
-          </cell>
-          <cell r="J29" t="str">
-            <v>Urlebener Mast GmbH, Bruchstedter Straße 1, 99955, Urleben, TH</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30" t="str">
-            <v>27</v>
-          </cell>
-          <cell r="J30" t="str">
-            <v>LSM Schweinemast GmbH &amp; Co KG, Tierbestand Langenreichenbach, An der B 100 , 06774, Schlaitz, SN</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31" t="str">
-            <v>28</v>
-          </cell>
-          <cell r="J31" t="str">
-            <v xml:space="preserve">Agrargenossenschaft Reinstädt,  , , Reinstädt, </v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32" t="str">
-            <v>29</v>
-          </cell>
-          <cell r="J32" t="str">
-            <v xml:space="preserve">Agrargenossenschaft Theuma-Neuensalz e.G, Stöckigter Weg 22, 08541, Theuma, </v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33" t="str">
-            <v>30</v>
-          </cell>
-          <cell r="J33" t="str">
-            <v>Kröstauer Agrarproduktions- und Handels GmbH, Kürbitzer Straße 11, 08538, Weischlitz, SN</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34" t="str">
-            <v>31</v>
-          </cell>
-          <cell r="J34" t="str">
-            <v>Agrarbetriebsgesellschaft Kriepitz, Gödlauer Straße 6, 01920, Elstra, SN</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35" t="str">
-            <v>32</v>
-          </cell>
-          <cell r="J35" t="str">
-            <v>Agrargenossenschaft Vorspreewald e.G. Turnow, Frankfurter Strasse 1, 03185, Turnow-Preilack, BB</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36" t="str">
-            <v>33</v>
-          </cell>
-          <cell r="J36" t="str">
-            <v>Landgenossenschaft Oppurg e.G, Im langen Sand , 07381, Pößneck, TH</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37" t="str">
-            <v>34</v>
-          </cell>
-          <cell r="J37" t="str">
-            <v>Agrarprodukte Elsteraue GmbH &amp; Co KG, Viehweg 2, 04442, Zwenkau, SN</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38" t="str">
-            <v>35</v>
-          </cell>
-          <cell r="J38" t="str">
-            <v>Agrargenossenschaft mbH + Co.KG KG Leinetal, Straße der Freundschaft 4, 04509, Löbnitz, SN</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39" t="str">
-            <v>36</v>
-          </cell>
-          <cell r="J39" t="str">
-            <v>Siegfried Thamm GbR, Schernecker Straße 18, 96269, Grossheirath / OT Buchenroth, BY</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40" t="str">
-            <v>37</v>
-          </cell>
-          <cell r="J40" t="str">
-            <v>Grethener Qualitätsfleisch GmbH, Grethener Strasse 18, 04668, Parthenstein, SN</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41" t="str">
-            <v>38</v>
-          </cell>
-          <cell r="J41" t="str">
-            <v>Axel und Hendrik Dressel GbR, Am Roten Brunnen 1-2, 96145, Sesslach, BY</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42" t="str">
-            <v>39</v>
-          </cell>
-          <cell r="J42" t="str">
-            <v>Norbert Reinhardt, Bachstraße 3, 35315, Homberg, HE</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43" t="str">
-            <v>40</v>
-          </cell>
-          <cell r="J43" t="str">
-            <v>Agrargenossenschaft Ebersbach e.G., Hauptstraße 62, 01561, Ebersbach, SN</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44" t="str">
-            <v>41</v>
-          </cell>
-          <cell r="J44" t="str">
-            <v>MIKU Agrarprodukte GmbH, Hinterer Weg 21, 02763, Mittelherwigsdorf, SN</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45" t="str">
-            <v>42</v>
-          </cell>
-          <cell r="J45" t="str">
-            <v>Agrarset Agrargenossenschaft e.G. Naundorf, Schweinemastanlage Naundorf, Am Lagerhaus 1, 09306, Erlau / Neugepülzig, SN</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46" t="str">
-            <v>43</v>
-          </cell>
-          <cell r="J46" t="str">
-            <v>Landhof Hartmannsdorf e.G., Schweinestall Herlagrün, Rothenkirchener Straße 49, 08107, Hartmannsdorf, SN</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47" t="str">
-            <v>44</v>
-          </cell>
-          <cell r="J47" t="str">
-            <v>Agrargenossenschaft Dorfchemnitz e.G., An den Gütern  5, 08297, Zwönitz, SN</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48" t="str">
-            <v>45</v>
-          </cell>
-          <cell r="J48" t="str">
-            <v>Agrar Horka GmbH, Zschäschütz 9, 04720, Döbeln, SN</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49" t="str">
-            <v>46</v>
-          </cell>
-          <cell r="J49" t="str">
-            <v>Christoph Esser, Stiftsgut Hechendorf 7, 06571, Wiehe, TH</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50" t="str">
-            <v>47</v>
-          </cell>
-          <cell r="J50" t="str">
-            <v>Martin Steinborn, Standort Bieberach, Großenhainer Straße 20 a, 01561, Schönfeld, SN</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51" t="str">
-            <v>48</v>
-          </cell>
-          <cell r="J51" t="str">
-            <v>Agrargenossenschaft Kriebitzsch e.G., Wintersdorfer Straße , 04610, Meuselwitz / Waltersdorf, TH</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52" t="str">
-            <v>49</v>
-          </cell>
-          <cell r="J52" t="str">
-            <v>Agrargenossenschaft Niedersynderstedt e.G, Kastanienallee 7, 99444, Blankenhain, TH</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53" t="str">
-            <v>50</v>
-          </cell>
-          <cell r="J53" t="str">
-            <v xml:space="preserve">Thüringer Qualitätsfleisch GmbH Witzleben, Zum Wolfetal 72b, 99310, Witzleben, </v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54" t="str">
-            <v>51</v>
-          </cell>
-          <cell r="J54" t="str">
-            <v xml:space="preserve">Fleischerei AFS Agrarfarm GmbH, Waldweg 5, 09487, Schlettau, </v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55" t="str">
-            <v>52</v>
-          </cell>
-          <cell r="J55" t="str">
-            <v xml:space="preserve">Pikant Wurst- und Wildspezialtäten GmbH, Maxhütte-Gewerbering 8, 08056, Zwickau, </v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="A56" t="str">
-            <v>53</v>
-          </cell>
-          <cell r="J56" t="str">
-            <v xml:space="preserve">Fleigeno Plauen eG, Zum Plom 1, 08541, Neuensalz, </v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="A57" t="str">
-            <v>54</v>
-          </cell>
-          <cell r="J57" t="str">
-            <v xml:space="preserve">Pflegeheim „Am Schotterberg“, Waldschlösschenstr. 39, 09456, Annaberg-Buchholz, </v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="A58" t="str">
-            <v>55</v>
-          </cell>
-          <cell r="J58" t="str">
-            <v xml:space="preserve">Teterower Fleisch GmbH, Koppelbergstraße 2, 17166, Teterow, </v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59" t="str">
-            <v>56</v>
-          </cell>
-          <cell r="J59" t="str">
-            <v xml:space="preserve">Westfleisch Paderborn, Halberstädter Straße 40, 33106, Paderborn, </v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="A60" t="str">
-            <v>57</v>
-          </cell>
-          <cell r="J60" t="str">
-            <v xml:space="preserve">Georges Goosens En Zonen N.V., Dui ven melkersstraat / rue des Solombophiles 133, 1070, Brussel (Belgie), </v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61" t="str">
-            <v>58</v>
-          </cell>
-          <cell r="J61" t="str">
-            <v xml:space="preserve">Covameat, Komen Straat 73, 8953, Wijschate (Belgie), </v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="A62" t="str">
-            <v>59</v>
-          </cell>
-          <cell r="J62" t="str">
-            <v xml:space="preserve">Spedition Büttner, Drewitzer Straße 20, 03042, Cottbus, </v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63" t="str">
-            <v>60</v>
-          </cell>
-          <cell r="J63" t="str">
-            <v>Privatfleischerei Arnold, Saathainer Str. 9, 04910 , Kraupa, BB</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64" t="str">
-            <v>61</v>
-          </cell>
-          <cell r="J64" t="str">
-            <v>Emil Färber GmbH Großschlächterei &amp; Co.KG Belgern, Dresdener Str.  1, 04874, Belgern, SN</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65" t="str">
-            <v>62</v>
-          </cell>
-          <cell r="J65" t="str">
-            <v>Marktkauf Lauchhammer, Liebenwerdaer Straße 46, 01979, Lauchhammer, BB</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66" t="str">
-            <v>63</v>
-          </cell>
-          <cell r="J66" t="str">
-            <v>Bauerngut Fleisch- und Wurstwaren, Südstraße  4, 06420, Könnern, ST</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="A67" t="str">
-            <v>64</v>
-          </cell>
-          <cell r="J67" t="str">
-            <v>Fleischlager Freienbrink, Birkenstr. 4, 15537, Grünheide, BB</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68" t="str">
-            <v>65</v>
-          </cell>
-          <cell r="J68" t="str">
-            <v>VION Zeven, Tannenkamp 26, 27404, Zeven, NI</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="A69" t="str">
-            <v>66</v>
-          </cell>
-          <cell r="J69" t="str">
-            <v>Westfleisch Hamm, Kranstraße 32, 59071, Hamm, NW</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="A70" t="str">
-            <v>67</v>
-          </cell>
-          <cell r="J70" t="str">
-            <v>Tönnies Weißenfels, Am Schlachthof 1, 06667, Weißenfels, ST</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="A71" t="str">
-            <v>68</v>
-          </cell>
-          <cell r="J71" t="str">
-            <v>Real SB-Warenhaus, Nuthestraße , 14480, Potsdam, BB</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="A72" t="str">
-            <v>69</v>
-          </cell>
-          <cell r="J72" t="str">
-            <v>VION Perleberg, Buchholzer Chaussee 24, 19348, Perleberg, BB</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="A73" t="str">
-            <v>70</v>
-          </cell>
-          <cell r="J73" t="str">
-            <v>Fleischerei Jörg Schulze, Hauptstr. 97, 15295, Wiesenau, BB</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="A74" t="str">
-            <v>71</v>
-          </cell>
-          <cell r="J74" t="str">
-            <v>Willms Weißwasser GmbH &amp; Co. KG, Heinrich-Heine-Str. 80, 02943, Weißwasser, SN</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="A75" t="str">
-            <v>72</v>
-          </cell>
-          <cell r="J75" t="str">
-            <v>Willms Lager,  , 03042, Cottbus, BB</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="A76" t="str">
-            <v>73</v>
-          </cell>
-          <cell r="J76" t="str">
-            <v xml:space="preserve">Steinemann GmbH &amp; Co KG, Honkomper Weg 7, 49439, Steinfeld, </v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="A77" t="str">
-            <v>74</v>
-          </cell>
-          <cell r="J77" t="str">
-            <v>Fleischerei Peter Göpel, Hauptstraße 50, 07554, Pölzig, TH</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="A78" t="str">
-            <v>75</v>
-          </cell>
-          <cell r="J78" t="str">
-            <v xml:space="preserve">Wild-&amp; Fleischhandel Herbert Nisch, Altrascha 16, 02692, Großpostwitz, </v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="A79" t="str">
-            <v>76</v>
-          </cell>
-          <cell r="J79" t="str">
-            <v xml:space="preserve">Herman Albers GbR, Querweg 4, 25813, Simonsberg, </v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="A80" t="str">
-            <v>77</v>
-          </cell>
-          <cell r="J80" t="str">
-            <v xml:space="preserve">Schulte-Ebbert GbR, Teichstraße 21, 17168, Leikendorf, </v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="A81" t="str">
-            <v>78</v>
-          </cell>
-          <cell r="J81" t="str">
-            <v xml:space="preserve">J. Hansen GbR, Tweedweg 4, 25923, Braderup, </v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="A82" t="str">
-            <v>79</v>
-          </cell>
-          <cell r="J82" t="str">
-            <v xml:space="preserve">Müritz Fleischprodukte GmbH u. Co.KG, Malchower Chaussee 1, 17194, Hohen Wangelin, </v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="A83" t="str">
-            <v>80</v>
-          </cell>
-          <cell r="J83" t="str">
-            <v xml:space="preserve">AAK GbR Bredenfelde, Niendorfer Weg 1, 23881, Bredenfelde, </v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="A84" t="str">
-            <v>81</v>
-          </cell>
-          <cell r="J84" t="str">
-            <v xml:space="preserve">Josef Winter, Birkenharder Straße 66, 88433, Schemmerhofen / OT Aßmannshardt, </v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="A85" t="str">
-            <v>82</v>
-          </cell>
-          <cell r="J85" t="str">
-            <v xml:space="preserve">Peter Häge, Rüblinger Hof 1, 89547, Gerstetten, </v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="A86" t="str">
-            <v>83</v>
-          </cell>
-          <cell r="J86" t="str">
-            <v xml:space="preserve">Schweinemastbetrieb Hohenbocka, Inh. Beate Pätzold, Heidelandstraße 1, 01945, Hohenbocka, </v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="A87" t="str">
-            <v>84</v>
-          </cell>
-          <cell r="J87" t="str">
-            <v xml:space="preserve">Landwirtschaftliche Erz.-Gesellschaft mbH Branchewinda, Arnstädter Straße 2a, 99326, Ilmtal / OT Behringen, </v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="A88" t="str">
-            <v>85</v>
-          </cell>
-          <cell r="J88" t="str">
-            <v>Agrargenossenschaft Reinstädter Grund e.G.,  , 07768, BIBRA / OT Zwabitz, TH</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="A89" t="str">
-            <v>86</v>
-          </cell>
-          <cell r="J89" t="str">
-            <v xml:space="preserve">VABOR Agrarproduktion GmbH Herr Johan van den Borne, Neudorfer Straße 2, 01609, Wülknitz, </v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="A90" t="str">
-            <v>87</v>
-          </cell>
-          <cell r="J90" t="str">
-            <v xml:space="preserve">Agrargenossenschaft Jückelberg eG, Dorfstraße 7a, 04618, Jückelberg, </v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="A91" t="str">
-            <v>88</v>
-          </cell>
-          <cell r="J91" t="str">
-            <v xml:space="preserve">Märkischer Schweinehof GmbH, Langenlipsdorf Nr. , 14913, Niedergörsdorf, </v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="A92" t="str">
-            <v>89</v>
-          </cell>
-          <cell r="J92" t="str">
-            <v xml:space="preserve">Schlossgut Ulenhof KG, Halstener Straße 1, 32609, Hüllhorst, </v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="A93" t="str">
-            <v>90</v>
-          </cell>
-          <cell r="J93" t="str">
-            <v xml:space="preserve">Andreas Knöfel, Martin-Luther-Straße 33, 04808, Falkenhain, </v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="A94" t="str">
-            <v>91</v>
-          </cell>
-          <cell r="J94" t="str">
-            <v xml:space="preserve">Wille GbR, Vogelsang 2, 37130, Gleichen / OT Bremke, </v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="A95" t="str">
-            <v>92</v>
-          </cell>
-          <cell r="J95" t="str">
-            <v xml:space="preserve">Wille GbR, Gelliehäuser Straße 1, 37130, Gleichen / OT Benniehausen, </v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="A96" t="str">
-            <v>93</v>
-          </cell>
-          <cell r="J96" t="str">
-            <v xml:space="preserve">Heckmann, Hans-Jürgen, Almushof , 36208, Wildeck / OT Obersuhl, </v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="A97" t="str">
-            <v>94</v>
-          </cell>
-          <cell r="J97" t="str">
-            <v xml:space="preserve">Wicke, Lothar, Am Riegelbach 2, 36214, Nentershausen / OT Dens, </v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="A98" t="str">
-            <v>95</v>
-          </cell>
-          <cell r="J98" t="str">
-            <v xml:space="preserve">Bauernhof GmbH Meuselwitz Sauenzuchtanlage, Meuselwitzer Dorfstraße 2, 04680, Colditz / OT Meuselwitz, </v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="A99" t="str">
-            <v>96</v>
-          </cell>
-          <cell r="J99" t="str">
-            <v xml:space="preserve">Agrarprodukt GmbH Zilly, Heudeber Weg 4, 38835, Osterwieck/Zilly, </v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="A100" t="str">
-            <v>97</v>
-          </cell>
-          <cell r="J100" t="str">
-            <v xml:space="preserve">EGO Schlachthof Georgsmarienhütte GmbH, Hardenberger Weg  18, 49124, Georgsmarienhütte, </v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="A101" t="str">
-            <v>98</v>
-          </cell>
-          <cell r="J101" t="str">
-            <v>BMR Schlachthof Garrel GmbH, Dieselstraße 6, 49681, Garrel, NI</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="A102" t="str">
-            <v>99</v>
-          </cell>
-          <cell r="J102" t="str">
-            <v>Burkhardt Willige, Bösenseller Str.  125, 48161, Münster, NW</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="A103" t="str">
-            <v>100</v>
-          </cell>
-          <cell r="J103" t="str">
-            <v>Elisabeth Hesping, Altenlünne, Am Kreuzesch 1, 48480, Lünne, NI</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="A104" t="str">
-            <v>101</v>
-          </cell>
-          <cell r="J104" t="str">
-            <v>Enning GbR, Naendorf 83, 48629, Metelen, NW</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="A105" t="str">
-            <v>102</v>
-          </cell>
-          <cell r="J105" t="str">
-            <v>Ferdinand Bontrup, Welte 82, 48249, Dülmen, NW</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="A106" t="str">
-            <v>103</v>
-          </cell>
-          <cell r="J106" t="str">
-            <v>Heinrich Hüsing, Ramsberg 48, 48624, Schöppingen, NW</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="A107" t="str">
-            <v>104</v>
-          </cell>
-          <cell r="J107" t="str">
-            <v>Heinrich Seegemann, Tinge 4 4, 48624, Schöppingen, NW</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="A108" t="str">
-            <v>105</v>
-          </cell>
-          <cell r="J108" t="str">
-            <v>Josef Borgert, Bergallee 35, 48653, Coesfeld, NW</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="A109" t="str">
-            <v>106</v>
-          </cell>
-          <cell r="J109" t="str">
-            <v>Kamphus KG, Hörsteler Str.  16, 48496, Hopsten, NW</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="A110" t="str">
-            <v>107</v>
-          </cell>
-          <cell r="J110" t="str">
-            <v>Markus Döbbeler, Alstätte 10, 48727, Billerbeck, NW</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="A111" t="str">
-            <v>108</v>
-          </cell>
-          <cell r="J111" t="str">
-            <v>Ralf Högemann, Kley 26, 48308, Senden, NW</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="A112" t="str">
-            <v>109</v>
-          </cell>
-          <cell r="J112" t="str">
-            <v>SPORK-Högemann GbR, Schenkingstr. 25, 48301, Nottuln, NW</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="A113" t="str">
-            <v>110</v>
-          </cell>
-          <cell r="J113" t="str">
-            <v>Wielens KG, Beßlinghook 16 16, 48683, Ahaus, NW</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="A114" t="str">
-            <v>111</v>
-          </cell>
-          <cell r="J114" t="str">
-            <v>Wießman KG, Höpingen 5, 48720, Rosendahl, NW</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="A115" t="str">
-            <v>112</v>
-          </cell>
-          <cell r="J115" t="str">
-            <v>Gerhard Finke, Hollich 51, 48565, Steinfurt, NW</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="A116" t="str">
-            <v>113</v>
-          </cell>
-          <cell r="J116" t="str">
-            <v>Reinhard Kamphus , Hörsteler Str.  16, 48496, Hopsten, NW</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="A117" t="str">
-            <v>114</v>
-          </cell>
-          <cell r="J117" t="str">
-            <v xml:space="preserve">Christoph Kiewe, Wettringer Str. 92  92, 48485, Neuenkirchen, </v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="A118" t="str">
-            <v>115</v>
-          </cell>
-          <cell r="J118" t="str">
-            <v>Georg Niehoff-Feldmann, Überwasser  26, 48346, Ostbevern, NW</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="A119" t="str">
-            <v>116</v>
-          </cell>
-          <cell r="J119" t="str">
-            <v>Wolfgang Minnebusch, Ostendorf  121, 48565, Steinfurt, NW</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="A120" t="str">
-            <v>117</v>
-          </cell>
-          <cell r="J120" t="str">
-            <v xml:space="preserve">528528001500451,  , , , </v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="A121" t="str">
-            <v>118</v>
-          </cell>
-          <cell r="J121" t="str">
-            <v xml:space="preserve">56000070047207,  , , , </v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="A122" t="str">
-            <v>119</v>
-          </cell>
-          <cell r="J122" t="str">
-            <v>SK-H KG, Haverbeck 6, 48624, Schöppingen, NW</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="A123" t="str">
-            <v>120</v>
-          </cell>
-          <cell r="J123" t="str">
-            <v>Britta Pohlkemper, Ebbinghoff 3, 48624, Schöppingen, NW</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="A124" t="str">
-            <v>121</v>
-          </cell>
-          <cell r="J124" t="str">
-            <v>Alfred Blettrup, Ramsberg 90, 48624, Schöppingen, NW</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="A125" t="str">
-            <v>122</v>
-          </cell>
-          <cell r="J125" t="str">
-            <v>Höing GmbH &amp; Co KG Viehhandel, Tungerloh-Capellen 47, 48712, Gescher, NW</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="A126" t="str">
-            <v>123</v>
-          </cell>
-          <cell r="J126" t="str">
-            <v>Norbert Holste, Heven 36, 48624, Schöppingen, NW</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="A127" t="str">
-            <v>124</v>
-          </cell>
-          <cell r="J127" t="str">
-            <v>Ewald Nienhaus, Storker Hook 17, 48599, Gronau, NW</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="A128" t="str">
-            <v>125</v>
-          </cell>
-          <cell r="J128" t="str">
-            <v>Heinrich Overwaul, Aulendorf  50, 48720, Rosendahl, NW</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="A129" t="str">
-            <v>126</v>
-          </cell>
-          <cell r="J129" t="str">
-            <v>Höpinger Agro KG, Höpingen  57, 48720, Rosendahl, NW</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="A130" t="str">
-            <v>127</v>
-          </cell>
-          <cell r="J130" t="str">
-            <v>Felix Wegmann, Höven  266, 48720, Rosendahl, NW</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="A131" t="str">
-            <v>128</v>
-          </cell>
-          <cell r="J131" t="str">
-            <v>Johannes Köster, Suttrup, An der Aa 1, 49832,  Freren, NI</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="A132" t="str">
-            <v>129</v>
-          </cell>
-          <cell r="J132" t="str">
-            <v>Hubert Veer, Talger 3, 49832,  BEESTEN, NI</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="A133" t="str">
-            <v>130</v>
-          </cell>
-          <cell r="J133" t="str">
-            <v>Norbert Meyerdirks, Dreierwalder Str. 14, 48480, SPELLE, NI</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="A134" t="str">
-            <v>131</v>
-          </cell>
-          <cell r="J134" t="str">
-            <v>Aalderink KG, Westlicher Dwarsdiek 9, 48527,  Nordhorn, NI</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="A135" t="str">
-            <v>132</v>
-          </cell>
-          <cell r="J135" t="str">
-            <v>August Gehring, Zum Albrock 151, 48432, Rheine, NW</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="A136" t="str">
-            <v>133</v>
-          </cell>
-          <cell r="J136" t="str">
-            <v>Krüler Stegmann GbR, Hollingen  13, 48282, Emsdetten, NW</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="A137" t="str">
-            <v>134</v>
-          </cell>
-          <cell r="J137" t="str">
-            <v>Franz- Josef Lammerting, Brückenstr.  6, 48432, Rheine, NW</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="A138" t="str">
-            <v>135</v>
-          </cell>
-          <cell r="J138" t="str">
-            <v>Claus Wohlbeck, Naendorf 78, 48629, Metelen, NW</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="A139" t="str">
-            <v>136</v>
-          </cell>
-          <cell r="J139" t="str">
-            <v xml:space="preserve">276034540328945,  , , , </v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="A140" t="str">
-            <v>137</v>
-          </cell>
-          <cell r="J140" t="str">
-            <v>Josef Alichmann, Heven  55, 48624, Schöppingen, NW</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="A141" t="str">
-            <v>138</v>
-          </cell>
-          <cell r="J141" t="str">
-            <v>SK-G KG, Tinge  17, 48624, Schöppingen, NW</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="A142" t="str">
-            <v>139</v>
-          </cell>
-          <cell r="J142" t="str">
-            <v>Ingrid Herbrs, Loher Str.  5, 49832, Beesten, NI</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="A143" t="str">
-            <v>140</v>
-          </cell>
-          <cell r="J143" t="str">
-            <v>Wolfgang Herbers, Loher Str.  5, 49832, Beesten, NI</v>
-          </cell>
-        </row>
-        <row r="144">
-          <cell r="A144" t="str">
-            <v>141</v>
-          </cell>
-          <cell r="J144" t="str">
-            <v>Hermann Bünker, Ahlde 25, 48488,  EMSBÜREN, NI</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="A145" t="str">
-            <v>142</v>
-          </cell>
-          <cell r="J145" t="str">
-            <v>Farwick KG,, Ahlde 12, 48488,  EMSBÜREN, NI</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="A146" t="str">
-            <v>143</v>
-          </cell>
-          <cell r="J146" t="str">
-            <v>Walburga Hoeke, Estringen, Rohstr. 2, 49811, Lingen, NI</v>
-          </cell>
-        </row>
-        <row r="147">
-          <cell r="A147" t="str">
-            <v>144</v>
-          </cell>
-          <cell r="J147" t="str">
-            <v>Gerd van Werde, Bramsche, Wesel Nr.  6, 49811, Lingen, NI</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="A148" t="str">
-            <v>145</v>
-          </cell>
-          <cell r="J148" t="str">
-            <v>Hermann van Werde, Thuiner Str.  2, 49832, Messingen, NI</v>
-          </cell>
-        </row>
-        <row r="149">
-          <cell r="A149" t="str">
-            <v>146</v>
-          </cell>
-          <cell r="J149" t="str">
-            <v>Norbert Meyerdirks, Dreierwalder Str.  14, 48480, SPELLE, NI</v>
-          </cell>
-        </row>
-        <row r="150">
-          <cell r="A150" t="str">
-            <v>147</v>
-          </cell>
-          <cell r="J150" t="str">
-            <v>Bernhard Nefigmann, Hollich  45, 48565,  Steinfurth, NW</v>
-          </cell>
-        </row>
-        <row r="151">
-          <cell r="A151" t="str">
-            <v>148</v>
-          </cell>
-          <cell r="J151" t="str">
-            <v>Josef Roters, Weiner  29, 48607, Ochtrup, NW</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="A152" t="str">
-            <v>149</v>
-          </cell>
-          <cell r="J152" t="str">
-            <v>Horst Stegemann, Hollich 34, 48565, Steinfurt, NW</v>
-          </cell>
-        </row>
-        <row r="153">
-          <cell r="A153" t="str">
-            <v>150</v>
-          </cell>
-          <cell r="J153" t="str">
-            <v>Bernhard Heckmann, Brüggerhook  27, 48432, Rheine, NRW</v>
-          </cell>
-        </row>
-        <row r="154">
-          <cell r="A154" t="str">
-            <v>151</v>
-          </cell>
-          <cell r="J154" t="str">
-            <v>Blömer GbR, Haltern  6, 48612, Horstmar, NW</v>
-          </cell>
-        </row>
-        <row r="155">
-          <cell r="A155" t="str">
-            <v>152</v>
-          </cell>
-          <cell r="J155" t="str">
-            <v>Markus Vestrick, Ramsberg  47, 48624, Schöppingen, NRW</v>
-          </cell>
-        </row>
-        <row r="156">
-          <cell r="A156" t="str">
-            <v>153</v>
-          </cell>
-          <cell r="J156" t="str">
-            <v>Hornhues Schweinemast GbR, Almsick  8, 48703, Stadtlohn, NRW</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="A157" t="str">
-            <v>154</v>
-          </cell>
-          <cell r="J157" t="str">
-            <v>Hubert Lefert, Ramsberg  26, 48624, Schöppingen, NRW</v>
-          </cell>
-        </row>
-        <row r="158">
-          <cell r="A158" t="str">
-            <v>155</v>
-          </cell>
-          <cell r="J158" t="str">
-            <v>Lindhaus KG, Ramsberg  32, 48624, Schöppingen, NRW</v>
-          </cell>
-        </row>
-        <row r="159">
-          <cell r="A159" t="str">
-            <v>156</v>
-          </cell>
-          <cell r="J159" t="str">
-            <v>Hubert Samberg, Haverbeck  35, 48624, Schöppingen, NRW</v>
-          </cell>
-        </row>
-        <row r="160">
-          <cell r="A160" t="str">
-            <v>157</v>
-          </cell>
-          <cell r="J160" t="str">
-            <v>Robert Schulze- Sievert, Tinge  3, 48624, Schöppingen, NRW</v>
-          </cell>
-        </row>
-        <row r="161">
-          <cell r="A161" t="str">
-            <v>158</v>
-          </cell>
-          <cell r="J161" t="str">
-            <v>Markus Holtkötter, Walingen  10, 48329, Havixbeck, NRW</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="A162" t="str">
-            <v>159</v>
-          </cell>
-          <cell r="J162" t="str">
-            <v>Hans Hermann Blettrup, Görtfeld 1, 48720, Rosendahl, NRW</v>
-          </cell>
-        </row>
-        <row r="163">
-          <cell r="A163" t="str">
-            <v>160</v>
-          </cell>
-          <cell r="J163" t="str">
-            <v>Brigitte Kampel KG , An der Dose  1, 49832,  Beesten, NI</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="A164" t="str">
-            <v>161</v>
-          </cell>
-          <cell r="J164" t="str">
-            <v>Jens Haman KG II, Hülshofweg 1, 49832,  Beesten, NI</v>
-          </cell>
-        </row>
-        <row r="165">
-          <cell r="A165" t="str">
-            <v>162</v>
-          </cell>
-          <cell r="J165" t="str">
-            <v>Christoph Kajüter, Ahlde  24, 48488,  Emsbüren, NI</v>
-          </cell>
-        </row>
-        <row r="166">
-          <cell r="A166" t="str">
-            <v>163</v>
-          </cell>
-          <cell r="J166" t="str">
-            <v>Heinrich Welling, Bernte  23 a, 48488,  Emsbüren, NI</v>
-          </cell>
-        </row>
-        <row r="167">
-          <cell r="A167" t="str">
-            <v>164</v>
-          </cell>
-          <cell r="J167" t="str">
-            <v>Hubert Rolimg, Bernte  6, 48488,  Emsbüren, NI</v>
-          </cell>
-        </row>
-        <row r="168">
-          <cell r="A168" t="str">
-            <v>165</v>
-          </cell>
-          <cell r="J168" t="str">
-            <v>Gerhard Hemker, Am Bloomholt  24, 49811, LINGEN, NI</v>
-          </cell>
-        </row>
-        <row r="169">
-          <cell r="A169" t="str">
-            <v>166</v>
-          </cell>
-          <cell r="J169" t="str">
-            <v>Konermann Schweinemast GbR, Brümsel, St.-Georg-Str.  8, 49832, Messingen, NI</v>
-          </cell>
-        </row>
-        <row r="170">
-          <cell r="A170" t="str">
-            <v>167</v>
-          </cell>
-          <cell r="J170" t="str">
-            <v>Monika Bernung, Zum Wasserwerk  3, 48400, Salzbergen, NI</v>
-          </cell>
-        </row>
-        <row r="171">
-          <cell r="A171" t="str">
-            <v>168</v>
-          </cell>
-          <cell r="J171" t="str">
-            <v>Berning GbR, Zum Wasserwerk  3, 48400, Salzbergen, NI</v>
-          </cell>
-        </row>
-        <row r="172">
-          <cell r="A172" t="str">
-            <v>169</v>
-          </cell>
-          <cell r="J172" t="str">
-            <v>Bernhar Ricker, Borkener Str.  3, 48480, Schapen, NI</v>
-          </cell>
-        </row>
-        <row r="173">
-          <cell r="A173" t="str">
-            <v>170</v>
-          </cell>
-          <cell r="J173" t="str">
-            <v>Heinrich Schulte, VENHAUS, Boennestr. 8, 48480, SPELLE, NI</v>
-          </cell>
-        </row>
-        <row r="174">
-          <cell r="A174" t="str">
-            <v>171</v>
-          </cell>
-          <cell r="J174" t="str">
-            <v>Werner Rinsche, Westdahler Weg  17, 59457, Werl, NW</v>
-          </cell>
-        </row>
-        <row r="175">
-          <cell r="A175" t="str">
-            <v>172</v>
-          </cell>
-          <cell r="J175" t="str">
-            <v>Heinrich Stolle, Höhenweg 1, 59457, Werl, NW</v>
-          </cell>
-        </row>
-        <row r="176">
-          <cell r="A176" t="str">
-            <v>173</v>
-          </cell>
-          <cell r="J176" t="str">
-            <v>Tiemann KG, Niedern 15, 48612, Horstmar, NW</v>
-          </cell>
-        </row>
-        <row r="177">
-          <cell r="A177" t="str">
-            <v>174</v>
-          </cell>
-          <cell r="J177" t="str">
-            <v>Linneschmidt GbR, Bernhard-Otte-Str.  20, 48496, Hopsten, NW</v>
-          </cell>
-        </row>
-        <row r="178">
-          <cell r="A178" t="str">
-            <v>175</v>
-          </cell>
-          <cell r="J178" t="str">
-            <v>Bertels KG, Bilk  14, 48493, Wettringen, NW</v>
-          </cell>
-        </row>
-        <row r="179">
-          <cell r="A179" t="str">
-            <v>176</v>
-          </cell>
-          <cell r="J179" t="str">
-            <v>Norbet Storm, Feldstr.  15, 48432, Rheine, NW</v>
-          </cell>
-        </row>
-        <row r="180">
-          <cell r="A180" t="str">
-            <v>178</v>
-          </cell>
-          <cell r="J180" t="str">
-            <v>Alfert GbR, Ramsberg  63, 48624, Schöppingen, NW</v>
-          </cell>
-        </row>
-        <row r="181">
-          <cell r="A181" t="str">
-            <v>179</v>
-          </cell>
-          <cell r="J181" t="str">
-            <v>Helmut Möllering Schweinemast, Köckelwick 23, 48691, Vreden, NW</v>
-          </cell>
-        </row>
-        <row r="182">
-          <cell r="A182" t="str">
-            <v>180</v>
-          </cell>
-          <cell r="J182" t="str">
-            <v>Felix Stoffers, Crosewick  6, 48691, Vreden, NW</v>
-          </cell>
-        </row>
-        <row r="183">
-          <cell r="A183" t="str">
-            <v>181</v>
-          </cell>
-          <cell r="J183" t="str">
-            <v>Reinhard Welling, Zum Gur  9, 46399, Bocholt, NW</v>
-          </cell>
-        </row>
-        <row r="184">
-          <cell r="A184" t="str">
-            <v>182</v>
-          </cell>
-          <cell r="J184" t="str">
-            <v>Heinrich Wenning, Eschstr.  44, 48691, Vreden, NW</v>
-          </cell>
-        </row>
-        <row r="185">
-          <cell r="A185" t="str">
-            <v>183</v>
-          </cell>
-          <cell r="J185" t="str">
-            <v>Wissing GbR, Alte Büdding  4, 46399, Bocholt, NW</v>
-          </cell>
-        </row>
-        <row r="186">
-          <cell r="A186" t="str">
-            <v>184</v>
-          </cell>
-          <cell r="J186" t="str">
-            <v>Hermann- Josef Gövert, Rockel  64, 48720, Rosendahl, NW</v>
-          </cell>
-        </row>
-        <row r="187">
-          <cell r="A187" t="str">
-            <v>185</v>
-          </cell>
-          <cell r="J187" t="str">
-            <v>Hubert Küdde, Weddern  120, 48249, Dülmen, NW</v>
-          </cell>
-        </row>
-        <row r="188">
-          <cell r="A188" t="str">
-            <v>186</v>
-          </cell>
-          <cell r="J188" t="str">
-            <v>Frank Stegemann, Natrup  29, 48329, Havixbeck, NW</v>
-          </cell>
-        </row>
-        <row r="189">
-          <cell r="A189" t="str">
-            <v>187</v>
-          </cell>
-          <cell r="J189" t="str">
-            <v>Hermeling GbR, Brookstr. 4, 49838, Langen, NI</v>
-          </cell>
-        </row>
-        <row r="190">
-          <cell r="A190" t="str">
-            <v>188</v>
-          </cell>
-          <cell r="J190" t="str">
-            <v>Bernhard Warburg KG, Steider Str. 93, 48499, Salzbergen, NI</v>
-          </cell>
-        </row>
-        <row r="191">
-          <cell r="A191" t="str">
-            <v>189</v>
-          </cell>
-          <cell r="J191" t="str">
-            <v>Fehring- Evering GbR, Mehringen 7, 48488, Emsbüren, NI</v>
-          </cell>
-        </row>
-        <row r="192">
-          <cell r="A192" t="str">
-            <v>190</v>
-          </cell>
-          <cell r="J192" t="str">
-            <v>Farwick KG,, Ahlde 12, 48488, Emsbüren, NI</v>
-          </cell>
-        </row>
-        <row r="193">
-          <cell r="A193" t="str">
-            <v>191</v>
-          </cell>
-          <cell r="J193" t="str">
-            <v>Gerd Feldmann, Gleesen, Moorlage 8, 48488, Emsbüren, NI</v>
-          </cell>
-        </row>
-        <row r="194">
-          <cell r="A194" t="str">
-            <v>192</v>
-          </cell>
-          <cell r="J194" t="str">
-            <v>Geog Pöling, Estringer Str.  1, 49811, Lingen, NI</v>
-          </cell>
-        </row>
-        <row r="195">
-          <cell r="A195" t="str">
-            <v>193</v>
-          </cell>
-          <cell r="J195" t="str">
-            <v>Ludger Wulkotte, Oberescher Weg  5, 48465, Engden, NI</v>
-          </cell>
-        </row>
-        <row r="196">
-          <cell r="A196" t="str">
-            <v>194</v>
-          </cell>
-          <cell r="J196" t="str">
-            <v xml:space="preserve">56000070073216,  , , , </v>
-          </cell>
-        </row>
-        <row r="197">
-          <cell r="A197" t="str">
-            <v>195</v>
-          </cell>
-          <cell r="J197" t="str">
-            <v>Patient_ID15,  , , , BB</v>
-          </cell>
-        </row>
-        <row r="198">
-          <cell r="A198" t="str">
-            <v>196</v>
-          </cell>
-          <cell r="J198" t="str">
-            <v>Patient_ID18,  , , , BB</v>
-          </cell>
-        </row>
-        <row r="199">
-          <cell r="A199" t="str">
-            <v>197</v>
-          </cell>
-          <cell r="J199" t="str">
-            <v>Patient_ID54,  , , , SN</v>
-          </cell>
-        </row>
-        <row r="200">
-          <cell r="A200" t="str">
-            <v>198</v>
-          </cell>
-          <cell r="J200" t="str">
-            <v>Patient_ID22,  , , , ST</v>
-          </cell>
-        </row>
-        <row r="201">
-          <cell r="A201" t="str">
-            <v>199</v>
-          </cell>
-          <cell r="J201" t="str">
-            <v>Patient_ID101,  , , , ST</v>
-          </cell>
-        </row>
-        <row r="202">
-          <cell r="A202" t="str">
-            <v>200</v>
-          </cell>
-          <cell r="J202" t="str">
-            <v>Patient_ID23,  , , , ST</v>
-          </cell>
-        </row>
-        <row r="203">
-          <cell r="A203" t="str">
-            <v>201</v>
-          </cell>
-          <cell r="J203" t="str">
-            <v>Patient_ID2,  , , , TH</v>
-          </cell>
-        </row>
-        <row r="204">
-          <cell r="A204" t="str">
-            <v>202</v>
-          </cell>
-          <cell r="J204" t="str">
-            <v>Patient_ID4,  , , , TH</v>
-          </cell>
-        </row>
-        <row r="205">
-          <cell r="A205" t="str">
-            <v>203</v>
-          </cell>
-          <cell r="J205" t="str">
-            <v>Patient_ID121,  , , , SN</v>
-          </cell>
-        </row>
-        <row r="206">
-          <cell r="A206" t="str">
-            <v>204</v>
-          </cell>
-          <cell r="J206" t="str">
-            <v>Patient_ID130,  , , , SN</v>
-          </cell>
-        </row>
-        <row r="207">
-          <cell r="A207" t="str">
-            <v>205</v>
-          </cell>
-          <cell r="J207" t="str">
-            <v>Patient_ID109,  , , , SN</v>
-          </cell>
-        </row>
-        <row r="208">
-          <cell r="A208" t="str">
-            <v>206</v>
-          </cell>
-          <cell r="J208" t="str">
-            <v>Patient_ID119,  , , , SN</v>
-          </cell>
-        </row>
-        <row r="209">
-          <cell r="A209" t="str">
-            <v>207</v>
-          </cell>
-          <cell r="J209" t="str">
-            <v>Patient_ID96,  , , , BB</v>
-          </cell>
-        </row>
-        <row r="210">
-          <cell r="A210" t="str">
-            <v>208</v>
-          </cell>
-          <cell r="J210" t="str">
-            <v>Patient_ID53,  , , , SN</v>
-          </cell>
-        </row>
-        <row r="211">
-          <cell r="A211" t="str">
-            <v>209</v>
-          </cell>
-          <cell r="J211" t="str">
-            <v>Patient_ID128,  , , , SN</v>
-          </cell>
-        </row>
-        <row r="212">
-          <cell r="A212" t="str">
-            <v>210</v>
-          </cell>
-          <cell r="J212" t="str">
-            <v>Netto, Dr.Schneider-Straße 36, 01589, Riesa, SN</v>
-          </cell>
-        </row>
-        <row r="213">
-          <cell r="A213" t="str">
-            <v>211</v>
-          </cell>
-          <cell r="J213" t="str">
-            <v>Fleischerei Arnold, Lange Straße  5-8, 04910, Elsterwerda, BB</v>
-          </cell>
-        </row>
-        <row r="214">
-          <cell r="A214" t="str">
-            <v>212</v>
-          </cell>
-          <cell r="J214" t="str">
-            <v>Fleischerei Arnold, Im Kaufland, Riesaer Str. 50, 01558, Großenhain, SN</v>
-          </cell>
-        </row>
-        <row r="215">
-          <cell r="A215" t="str">
-            <v>213</v>
-          </cell>
-          <cell r="J215" t="str">
-            <v>Fleisch- und Wurstwaren GmbH Naumburg, Filiale Jägerstraße 2, 06618, Naumburg, ST</v>
-          </cell>
-        </row>
-        <row r="216">
-          <cell r="A216" t="str">
-            <v>214</v>
-          </cell>
-          <cell r="J216" t="str">
-            <v>Fleischerei Kalz, Filiale Stauffenbergstraße , 04600, Altenburg, TH</v>
-          </cell>
-        </row>
-        <row r="217">
-          <cell r="J217" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="218">
-          <cell r="J218" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="219">
-          <cell r="J219" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="220">
-          <cell r="J220" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="221">
-          <cell r="J221" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="222">
-          <cell r="J222" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="223">
-          <cell r="J223" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="224">
-          <cell r="J224" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="225">
-          <cell r="J225" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="226">
-          <cell r="J226" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="227">
-          <cell r="J227" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="228">
-          <cell r="J228" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="229">
-          <cell r="J229" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="230">
-          <cell r="J230" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="231">
-          <cell r="J231" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="232">
-          <cell r="J232" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="233">
-          <cell r="J233" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="234">
-          <cell r="J234" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="235">
-          <cell r="J235" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="236">
-          <cell r="J236" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="237">
-          <cell r="J237" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="238">
-          <cell r="J238" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="239">
-          <cell r="J239" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="240">
-          <cell r="J240" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="241">
-          <cell r="J241" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="242">
-          <cell r="J242" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="243">
-          <cell r="J243" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="244">
-          <cell r="J244" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="245">
-          <cell r="J245" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="246">
-          <cell r="J246" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="247">
-          <cell r="J247" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="248">
-          <cell r="J248" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="249">
-          <cell r="J249" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="250">
-          <cell r="J250" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="251">
-          <cell r="J251" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="252">
-          <cell r="J252" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="253">
-          <cell r="J253" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="254">
-          <cell r="J254" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="255">
-          <cell r="J255" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="256">
-          <cell r="J256" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="257">
-          <cell r="J257" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="258">
-          <cell r="J258" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="259">
-          <cell r="J259" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="260">
-          <cell r="J260" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="261">
-          <cell r="J261" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="262">
-          <cell r="J262" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="263">
-          <cell r="J263" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="264">
-          <cell r="J264" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="265">
-          <cell r="J265" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="266">
-          <cell r="J266" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="267">
-          <cell r="J267" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="268">
-          <cell r="J268" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="269">
-          <cell r="J269" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="270">
-          <cell r="J270" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="271">
-          <cell r="J271" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="272">
-          <cell r="J272" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="273">
-          <cell r="J273" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="274">
-          <cell r="J274" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="275">
-          <cell r="J275" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="276">
-          <cell r="J276" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="277">
-          <cell r="J277" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="278">
-          <cell r="J278" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="279">
-          <cell r="J279" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="280">
-          <cell r="J280" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="281">
-          <cell r="J281" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="282">
-          <cell r="J282" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="283">
-          <cell r="J283" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="284">
-          <cell r="J284" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="285">
-          <cell r="J285" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="286">
-          <cell r="J286" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="287">
-          <cell r="J287" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="288">
-          <cell r="J288" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="289">
-          <cell r="J289" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="290">
-          <cell r="J290" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="291">
-          <cell r="J291" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="292">
-          <cell r="J292" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="293">
-          <cell r="J293" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="294">
-          <cell r="J294" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="295">
-          <cell r="J295" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="296">
-          <cell r="J296" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="297">
-          <cell r="J297" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="298">
-          <cell r="J298" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="299">
-          <cell r="J299" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="300">
-          <cell r="J300" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="301">
-          <cell r="J301" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="302">
-          <cell r="J302" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="303">
-          <cell r="J303" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="304">
-          <cell r="J304" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="305">
-          <cell r="J305" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="306">
-          <cell r="J306" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="307">
-          <cell r="J307" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="308">
-          <cell r="J308" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="309">
-          <cell r="J309" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="310">
-          <cell r="J310" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="311">
-          <cell r="J311" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="312">
-          <cell r="J312" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="313">
-          <cell r="J313" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="314">
-          <cell r="J314" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="315">
-          <cell r="J315" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="316">
-          <cell r="J316" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="317">
-          <cell r="J317" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="318">
-          <cell r="J318" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="319">
-          <cell r="J319" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="320">
-          <cell r="J320" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="321">
-          <cell r="J321" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="322">
-          <cell r="J322" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="323">
-          <cell r="J323" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="324">
-          <cell r="J324" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="325">
-          <cell r="J325" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="326">
-          <cell r="J326" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="327">
-          <cell r="J327" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="328">
-          <cell r="J328" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="329">
-          <cell r="J329" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="330">
-          <cell r="J330" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="331">
-          <cell r="J331" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="332">
-          <cell r="J332" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="333">
-          <cell r="J333" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="334">
-          <cell r="J334" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="335">
-          <cell r="J335" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="336">
-          <cell r="J336" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="337">
-          <cell r="J337" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="338">
-          <cell r="J338" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="339">
-          <cell r="J339" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="340">
-          <cell r="J340" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="341">
-          <cell r="J341" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="342">
-          <cell r="J342" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="343">
-          <cell r="J343" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="344">
-          <cell r="J344" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="345">
-          <cell r="J345" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="346">
-          <cell r="J346" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="347">
-          <cell r="J347" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="348">
-          <cell r="J348" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="349">
-          <cell r="J349" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="350">
-          <cell r="J350" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="351">
-          <cell r="J351" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="352">
-          <cell r="J352" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="353">
-          <cell r="J353" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="354">
-          <cell r="J354" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="355">
-          <cell r="J355" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="356">
-          <cell r="J356" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="357">
-          <cell r="J357" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="358">
-          <cell r="J358" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="359">
-          <cell r="J359" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="360">
-          <cell r="J360" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="361">
-          <cell r="J361" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="362">
-          <cell r="J362" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="363">
-          <cell r="J363" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="364">
-          <cell r="J364" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="365">
-          <cell r="J365" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="366">
-          <cell r="J366" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="367">
-          <cell r="J367" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="368">
-          <cell r="J368" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="369">
-          <cell r="J369" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="370">
-          <cell r="J370" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="371">
-          <cell r="J371" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="372">
-          <cell r="J372" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="373">
-          <cell r="J373" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="374">
-          <cell r="J374" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="375">
-          <cell r="J375" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="376">
-          <cell r="J376" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="377">
-          <cell r="J377" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="378">
-          <cell r="J378" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="379">
-          <cell r="J379" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="380">
-          <cell r="J380" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="381">
-          <cell r="J381" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="382">
-          <cell r="J382" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="383">
-          <cell r="J383" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="384">
-          <cell r="J384" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="385">
-          <cell r="J385" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="386">
-          <cell r="J386" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="387">
-          <cell r="J387" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="388">
-          <cell r="J388" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="389">
-          <cell r="J389" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="390">
-          <cell r="J390" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="391">
-          <cell r="J391" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="392">
-          <cell r="J392" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="393">
-          <cell r="J393" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="394">
-          <cell r="J394" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="395">
-          <cell r="J395" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="396">
-          <cell r="J396" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="397">
-          <cell r="J397" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="398">
-          <cell r="J398" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="399">
-          <cell r="J399" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="400">
-          <cell r="J400" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="401">
-          <cell r="J401" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="402">
-          <cell r="J402" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="403">
-          <cell r="J403" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="404">
-          <cell r="J404" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="405">
-          <cell r="J405" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="406">
-          <cell r="J406" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="407">
-          <cell r="J407" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="408">
-          <cell r="J408" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="409">
-          <cell r="J409" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="410">
-          <cell r="J410" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="411">
-          <cell r="J411" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="412">
-          <cell r="J412" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="413">
-          <cell r="J413" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="414">
-          <cell r="J414" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="415">
-          <cell r="J415" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="416">
-          <cell r="J416" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="417">
-          <cell r="J417" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="418">
-          <cell r="J418" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="419">
-          <cell r="J419" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="420">
-          <cell r="J420" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="421">
-          <cell r="J421" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="422">
-          <cell r="J422" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="423">
-          <cell r="J423" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="424">
-          <cell r="J424" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="425">
-          <cell r="J425" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="426">
-          <cell r="J426" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="427">
-          <cell r="J427" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="428">
-          <cell r="J428" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="429">
-          <cell r="J429" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="430">
-          <cell r="J430" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="431">
-          <cell r="J431" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="432">
-          <cell r="J432" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="433">
-          <cell r="J433" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="434">
-          <cell r="J434" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="435">
-          <cell r="J435" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="436">
-          <cell r="J436" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="437">
-          <cell r="J437" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="438">
-          <cell r="J438" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="439">
-          <cell r="J439" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="440">
-          <cell r="J440" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="441">
-          <cell r="J441" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="442">
-          <cell r="J442" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="443">
-          <cell r="J443" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="444">
-          <cell r="J444" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="445">
-          <cell r="J445" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="446">
-          <cell r="J446" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="447">
-          <cell r="J447" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="448">
-          <cell r="J448" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="449">
-          <cell r="J449" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="450">
-          <cell r="J450" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="451">
-          <cell r="J451" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="452">
-          <cell r="J452" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="453">
-          <cell r="J453" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="454">
-          <cell r="J454" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="455">
-          <cell r="J455" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="456">
-          <cell r="J456" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="457">
-          <cell r="J457" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="458">
-          <cell r="J458" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="459">
-          <cell r="J459" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="460">
-          <cell r="J460" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="461">
-          <cell r="J461" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="462">
-          <cell r="J462" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="463">
-          <cell r="J463" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="464">
-          <cell r="J464" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="465">
-          <cell r="J465" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="466">
-          <cell r="J466" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="467">
-          <cell r="J467" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="468">
-          <cell r="J468" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="469">
-          <cell r="J469" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="470">
-          <cell r="J470" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="471">
-          <cell r="J471" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="472">
-          <cell r="J472" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="473">
-          <cell r="J473" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="474">
-          <cell r="J474" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="475">
-          <cell r="J475" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="476">
-          <cell r="J476" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="477">
-          <cell r="J477" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="478">
-          <cell r="J478" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="479">
-          <cell r="J479" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-        <row r="480">
-          <cell r="J480" t="str">
-            <v xml:space="preserve">,  , , , </v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3">
-        <row r="3">
-          <cell r="B3" t="str">
-            <v>BB</v>
-          </cell>
-          <cell r="D3" t="str">
-            <v>Deutschland</v>
-          </cell>
-          <cell r="F3" t="str">
-            <v>Ja</v>
-          </cell>
-          <cell r="H3" t="str">
-            <v>Ahrweiler</v>
-          </cell>
-          <cell r="K3" t="str">
-            <v>Primärproduktion</v>
-          </cell>
-          <cell r="M3" t="str">
-            <v>100g Pakete</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4" t="str">
-            <v>BE</v>
-          </cell>
-          <cell r="D4" t="str">
-            <v>Europa</v>
-          </cell>
-          <cell r="F4" t="str">
-            <v>Nein</v>
-          </cell>
-          <cell r="H4" t="str">
-            <v>Aichach-Friedberg</v>
-          </cell>
-          <cell r="K4" t="str">
-            <v>Händler</v>
-          </cell>
-          <cell r="M4" t="str">
-            <v>125g Pakete</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5" t="str">
-            <v>BW</v>
-          </cell>
-          <cell r="D5" t="str">
-            <v>Albanien</v>
-          </cell>
-          <cell r="F5" t="str">
-            <v>Unbekannt</v>
-          </cell>
-          <cell r="H5" t="str">
-            <v>Alb-Donau-Kreis</v>
-          </cell>
-          <cell r="K5" t="str">
-            <v>Transporteur/Lager bzw. Händler mit Tierkontakt</v>
-          </cell>
-          <cell r="M5" t="str">
-            <v>200g Pakete</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6" t="str">
-            <v>BY</v>
-          </cell>
-          <cell r="D6" t="str">
-            <v>Bosnien und Herzegowina</v>
-          </cell>
-          <cell r="H6" t="str">
-            <v>Altenburger Land</v>
-          </cell>
-          <cell r="K6" t="str">
-            <v>Schlachthof</v>
-          </cell>
-          <cell r="M6" t="str">
-            <v>250g Pakete</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7" t="str">
-            <v>HB</v>
-          </cell>
-          <cell r="D7" t="str">
-            <v>Andorra</v>
-          </cell>
-          <cell r="H7" t="str">
-            <v>Altenkirchen (Westerwald)</v>
-          </cell>
-          <cell r="K7" t="str">
-            <v>Zerlegebetrieb</v>
-          </cell>
-          <cell r="M7" t="str">
-            <v>500g Pakete</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8" t="str">
-            <v>HE</v>
-          </cell>
-          <cell r="D8" t="str">
-            <v>Belgien</v>
-          </cell>
-          <cell r="H8" t="str">
-            <v>Altmarkkreis Salzwedel</v>
-          </cell>
-          <cell r="K8" t="str">
-            <v>Schlachthof und Zerlegebetrieb</v>
-          </cell>
-          <cell r="M8" t="str">
-            <v>750g Pakete</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9" t="str">
-            <v>HH</v>
-          </cell>
-          <cell r="D9" t="str">
-            <v>Bulgarien</v>
-          </cell>
-          <cell r="F9" t="str">
-            <v>Untersuchung auf Salmonellen</v>
-          </cell>
-          <cell r="H9" t="str">
-            <v>Altötting</v>
-          </cell>
-          <cell r="K9" t="str">
-            <v>Hersteller von Fleischwaren</v>
-          </cell>
-          <cell r="M9" t="str">
-            <v>1kg Pakete</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10" t="str">
-            <v>MV</v>
-          </cell>
-          <cell r="D10" t="str">
-            <v>Dänemark und Faröer</v>
-          </cell>
-          <cell r="F10" t="str">
-            <v>Keine Probe verfügbar</v>
-          </cell>
-          <cell r="H10" t="str">
-            <v>Alzey-Worms</v>
-          </cell>
-          <cell r="K10" t="str">
-            <v>Verarbeitungsbetrieb für Fleischwaren</v>
-          </cell>
-          <cell r="M10" t="str">
-            <v>2,5kg Pakete</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11" t="str">
-            <v>NI</v>
-          </cell>
-          <cell r="D11" t="str">
-            <v>Estland</v>
-          </cell>
-          <cell r="F11" t="str">
-            <v>Keine Untersuchung auf Salmonellen</v>
-          </cell>
-          <cell r="H11" t="str">
-            <v>Amberg</v>
-          </cell>
-          <cell r="K11" t="str">
-            <v>Verpacker</v>
-          </cell>
-          <cell r="M11" t="str">
-            <v>5kg Pakete</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12" t="str">
-            <v>NW</v>
-          </cell>
-          <cell r="D12" t="str">
-            <v>Finnland</v>
-          </cell>
-          <cell r="F12" t="str">
-            <v>Nachweis Salmonella</v>
-          </cell>
-          <cell r="H12" t="str">
-            <v>Amberg-Sulzbach</v>
-          </cell>
-          <cell r="K12" t="str">
-            <v>Verkaufsstelle</v>
-          </cell>
-          <cell r="M12" t="str">
-            <v>10kg Pakete</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13" t="str">
-            <v>RP</v>
-          </cell>
-          <cell r="D13" t="str">
-            <v>Frankreich, einschl. Korsika</v>
-          </cell>
-          <cell r="F13" t="str">
-            <v>Nachweis Salmonella Gruppe C</v>
-          </cell>
-          <cell r="H13" t="str">
-            <v>Ammerland</v>
-          </cell>
-          <cell r="K13" t="str">
-            <v>Ausgabestelle für verzehrsfertige Lebensmittel</v>
-          </cell>
-          <cell r="M13" t="str">
-            <v>20kg Pakete</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14" t="str">
-            <v>SH</v>
-          </cell>
-          <cell r="D14" t="str">
-            <v>Kroatien</v>
-          </cell>
-          <cell r="F14" t="str">
-            <v>Nachweis Salmonella München</v>
-          </cell>
-          <cell r="H14" t="str">
-            <v>Anhalt-Bitterfeld</v>
-          </cell>
-          <cell r="K14" t="str">
-            <v>Verzehrer</v>
-          </cell>
-          <cell r="M14" t="str">
-            <v>25kg Pakete</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15" t="str">
-            <v>SL</v>
-          </cell>
-          <cell r="D15" t="str">
-            <v>Slowenien</v>
-          </cell>
-          <cell r="F15" t="str">
-            <v>Nachweis Salmonella München 25a</v>
-          </cell>
-          <cell r="H15" t="str">
-            <v>Annaberg</v>
-          </cell>
-          <cell r="K15" t="str">
-            <v>Importeur</v>
-          </cell>
-          <cell r="M15" t="str">
-            <v>50kg Pakete</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16" t="str">
-            <v>SN</v>
-          </cell>
-          <cell r="D16" t="str">
-            <v>Kosovo</v>
-          </cell>
-          <cell r="H16" t="str">
-            <v>Ansbach</v>
-          </cell>
-          <cell r="K16" t="str">
-            <v>nicht bekannt</v>
-          </cell>
-          <cell r="M16" t="str">
-            <v>Pakete (Sonstige)</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17" t="str">
-            <v>ST</v>
-          </cell>
-          <cell r="D17" t="str">
-            <v>Griechenland</v>
-          </cell>
-          <cell r="H17" t="str">
-            <v>Aschaffenburg</v>
-          </cell>
-          <cell r="M17" t="str">
-            <v>Mastschweine</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18" t="str">
-            <v>TH</v>
-          </cell>
-          <cell r="D18" t="str">
-            <v>Irland</v>
-          </cell>
-          <cell r="H18" t="str">
-            <v>Augsburg</v>
-          </cell>
-          <cell r="M18" t="str">
-            <v>Läufer</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19" t="str">
-            <v>BMVg</v>
-          </cell>
-          <cell r="D19" t="str">
-            <v>Island</v>
-          </cell>
-          <cell r="H19" t="str">
-            <v>Aurich</v>
-          </cell>
-          <cell r="M19" t="str">
-            <v>Sauen</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="D20" t="str">
-            <v>Italien</v>
-          </cell>
-          <cell r="H20" t="str">
-            <v>Bad Dürkheim</v>
-          </cell>
-          <cell r="M20" t="str">
-            <v>Schweinehälften</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="D21" t="str">
-            <v>Lettland</v>
-          </cell>
-          <cell r="H21" t="str">
-            <v>Bad Kissingen</v>
-          </cell>
-          <cell r="M21" t="str">
-            <v>Stück</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="D22" t="str">
-            <v>Liechtenstein</v>
-          </cell>
-          <cell r="H22" t="str">
-            <v>Bad Kreuznach</v>
-          </cell>
-          <cell r="M22" t="str">
-            <v>lose</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="D23" t="str">
-            <v>Litauen</v>
-          </cell>
-          <cell r="H23" t="str">
-            <v>Bad Tölz-Wolfratshausen</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="D24" t="str">
-            <v>Luxemburg</v>
-          </cell>
-          <cell r="H24" t="str">
-            <v>Baden-Baden</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="D25" t="str">
-            <v>Mazedonien</v>
-          </cell>
-          <cell r="H25" t="str">
-            <v>Bamberg</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="D26" t="str">
-            <v>Malta</v>
-          </cell>
-          <cell r="H26" t="str">
-            <v>Barnim</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="D27" t="str">
-            <v>Republik Moldau</v>
-          </cell>
-          <cell r="H27" t="str">
-            <v>Bautzen</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="D28" t="str">
-            <v>Monaco</v>
-          </cell>
-          <cell r="H28" t="str">
-            <v>Bayreuth</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="D29" t="str">
-            <v>Niederlande</v>
-          </cell>
-          <cell r="H29" t="str">
-            <v>Berchtesgadener Land</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="D30" t="str">
-            <v>Norwegen, einschl. Bäreninsel und Spitzbergen, auch Svalbard</v>
-          </cell>
-          <cell r="H30" t="str">
-            <v>Bergstraße</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="D31" t="str">
-            <v>Österreich</v>
-          </cell>
-          <cell r="H31" t="str">
-            <v>Berlin, Stadt</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="D32" t="str">
-            <v>Polen</v>
-          </cell>
-          <cell r="H32" t="str">
-            <v>Bernkastel-Wittlich</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="D33" t="str">
-            <v>Portugal</v>
-          </cell>
-          <cell r="H33" t="str">
-            <v>Biberach</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="D34" t="str">
-            <v>Rumänien</v>
-          </cell>
-          <cell r="H34" t="str">
-            <v>Bielefeld, Stadt</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="D35" t="str">
-            <v>Slowakei</v>
-          </cell>
-          <cell r="H35" t="str">
-            <v>Birkenfeld</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="D36" t="str">
-            <v>San Marino</v>
-          </cell>
-          <cell r="H36" t="str">
-            <v>Bochum, Stadt</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="D37" t="str">
-            <v>Schweden</v>
-          </cell>
-          <cell r="H37" t="str">
-            <v>Bodenseekreis</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="D38" t="str">
-            <v>Schweiz</v>
-          </cell>
-          <cell r="H38" t="str">
-            <v>Bonn, Stadt</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="D39" t="str">
-            <v>Russische Föderation</v>
-          </cell>
-          <cell r="H39" t="str">
-            <v>Borken</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="D40" t="str">
-            <v>Spanien</v>
-          </cell>
-          <cell r="H40" t="str">
-            <v>Bottrop, Stadt</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="D41" t="str">
-            <v>Türkei</v>
-          </cell>
-          <cell r="H41" t="str">
-            <v>Brandenburg an der Havel, Stadt</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="D42" t="str">
-            <v>Tschechische Republik</v>
-          </cell>
-          <cell r="H42" t="str">
-            <v>Braunschweig, Stadt</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="D43" t="str">
-            <v>Ungarn</v>
-          </cell>
-          <cell r="H43" t="str">
-            <v>Breisgau-Hochschwarzwald</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="D44" t="str">
-            <v>Ukraine</v>
-          </cell>
-          <cell r="H44" t="str">
-            <v>Bremen, Stadt</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="D45" t="str">
-            <v>Vatikanstadt</v>
-          </cell>
-          <cell r="H45" t="str">
-            <v>Bremerhaven, Stadt</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="D46" t="str">
-            <v>Vereinigtes Königreich</v>
-          </cell>
-          <cell r="H46" t="str">
-            <v>Burgenlandkreis</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="D47" t="str">
-            <v>Weißrußland (Belarus)</v>
-          </cell>
-          <cell r="H47" t="str">
-            <v>Böblingen</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="D48" t="str">
-            <v>Montenegro</v>
-          </cell>
-          <cell r="H48" t="str">
-            <v>Börde</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="D49" t="str">
-            <v>Serbien</v>
-          </cell>
-          <cell r="H49" t="str">
-            <v>Calw</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="D50" t="str">
-            <v>Zypern</v>
-          </cell>
-          <cell r="H50" t="str">
-            <v>Celle</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="D51" t="str">
-            <v>Britisch abhängige Gebiete in Europa,</v>
-          </cell>
-          <cell r="H51" t="str">
-            <v>Cham</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="D52" t="str">
-            <v>Übriges Europa</v>
-          </cell>
-          <cell r="H52" t="str">
-            <v>Chemnitz, Stadt</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="D53" t="str">
-            <v>Afrika</v>
-          </cell>
-          <cell r="H53" t="str">
-            <v>Cloppenburg</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="D54" t="str">
-            <v>Algerien</v>
-          </cell>
-          <cell r="H54" t="str">
-            <v>Coburg</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="D55" t="str">
-            <v>Angola</v>
-          </cell>
-          <cell r="H55" t="str">
-            <v>Cochem-Zell</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="D56" t="str">
-            <v>Eritrea</v>
-          </cell>
-          <cell r="H56" t="str">
-            <v>Coesfeld</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="D57" t="str">
-            <v>Äthiopien</v>
-          </cell>
-          <cell r="H57" t="str">
-            <v>Cottbus, Stadt</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="D58" t="str">
-            <v>Lesotho</v>
-          </cell>
-          <cell r="H58" t="str">
-            <v>Cuxhaven</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="D59" t="str">
-            <v>Botsuana</v>
-          </cell>
-          <cell r="H59" t="str">
-            <v>Dachau</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="D60" t="str">
-            <v>Benin</v>
-          </cell>
-          <cell r="H60" t="str">
-            <v>Dahme-Spreewald</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="D61" t="str">
-            <v>Dschibuti</v>
-          </cell>
-          <cell r="H61" t="str">
-            <v>Darmstadt, Wissenschaftsstadt</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="D62" t="str">
-            <v>Cote d' Ivoire</v>
-          </cell>
-          <cell r="H62" t="str">
-            <v>Darmstadt-Dieburg</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="D63" t="str">
-            <v>Nigeria</v>
-          </cell>
-          <cell r="H63" t="str">
-            <v>Deggendorf</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="D64" t="str">
-            <v>Simbabwe</v>
-          </cell>
-          <cell r="H64" t="str">
-            <v>Delmenhorst, Stadt</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="D65" t="str">
-            <v>Gabun</v>
-          </cell>
-          <cell r="H65" t="str">
-            <v>Dessau-Roßlau, Stadt</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="D66" t="str">
-            <v>Gambia</v>
-          </cell>
-          <cell r="H66" t="str">
-            <v>Diepholz</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="D67" t="str">
-            <v>Ghana</v>
-          </cell>
-          <cell r="H67" t="str">
-            <v>Dillingen a.d.Donau</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="D68" t="str">
-            <v>Mauretanien</v>
-          </cell>
-          <cell r="H68" t="str">
-            <v>Dingolfing-Landau</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="D69" t="str">
-            <v>Kap Verde</v>
-          </cell>
-          <cell r="H69" t="str">
-            <v>Dithmarschen</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="D70" t="str">
-            <v>Kenia</v>
-          </cell>
-          <cell r="H70" t="str">
-            <v>Donau-Ries</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="D71" t="str">
-            <v>Komoren</v>
-          </cell>
-          <cell r="H71" t="str">
-            <v>Donnersbergkreis</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="D72" t="str">
-            <v>Kongo</v>
-          </cell>
-          <cell r="H72" t="str">
-            <v>Dortmund, Stadt</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="D73" t="str">
-            <v>Kongo, Dem. Republik (ehem. Zaire)</v>
-          </cell>
-          <cell r="H73" t="str">
-            <v>Dresden, Stadt</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="D74" t="str">
-            <v>Liberia</v>
-          </cell>
-          <cell r="H74" t="str">
-            <v>Duisburg, Stadt</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="D75" t="str">
-            <v>Libyen</v>
-          </cell>
-          <cell r="H75" t="str">
-            <v>Düren</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="D76" t="str">
-            <v>Madagaskar</v>
-          </cell>
-          <cell r="H76" t="str">
-            <v>Düsseldorf, Stadt</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="D77" t="str">
-            <v>Mali</v>
-          </cell>
-          <cell r="H77" t="str">
-            <v>Ebersberg</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="D78" t="str">
-            <v>Marokko</v>
-          </cell>
-          <cell r="H78" t="str">
-            <v>Eichsfeld</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="D79" t="str">
-            <v>Mauritius</v>
-          </cell>
-          <cell r="H79" t="str">
-            <v>Eichstätt</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="D80" t="str">
-            <v>Mosambik</v>
-          </cell>
-          <cell r="H80" t="str">
-            <v>Eifelkreis Bitburg-Prüm</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="D81" t="str">
-            <v>Niger</v>
-          </cell>
-          <cell r="H81" t="str">
-            <v>Eisenach, Stadt</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="D82" t="str">
-            <v>Malawi</v>
-          </cell>
-          <cell r="H82" t="str">
-            <v>Elbe-Elster</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="D83" t="str">
-            <v>Sambia</v>
-          </cell>
-          <cell r="H83" t="str">
-            <v>Emden, Stadt</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="D84" t="str">
-            <v>Burkina Faso</v>
-          </cell>
-          <cell r="H84" t="str">
-            <v>Emmendingen</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="D85" t="str">
-            <v>Guinea-Bissau</v>
-          </cell>
-          <cell r="H85" t="str">
-            <v>Emsland</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="D86" t="str">
-            <v>Guinea</v>
-          </cell>
-          <cell r="H86" t="str">
-            <v>Ennepe-Ruhr-Kreis</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="D87" t="str">
-            <v>Kamerun</v>
-          </cell>
-          <cell r="H87" t="str">
-            <v>Enzkreis</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="D88" t="str">
-            <v>Südafrika</v>
-          </cell>
-          <cell r="H88" t="str">
-            <v>Erding</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="D89" t="str">
-            <v>Ruanda</v>
-          </cell>
-          <cell r="H89" t="str">
-            <v>Erfurt, Stadt</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="D90" t="str">
-            <v>Namibia</v>
-          </cell>
-          <cell r="H90" t="str">
-            <v>Erlangen</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="D91" t="str">
-            <v>Sao Tome und Principe</v>
-          </cell>
-          <cell r="H91" t="str">
-            <v>Erlangen-Höchstadt</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="D92" t="str">
-            <v>Senegal</v>
-          </cell>
-          <cell r="H92" t="str">
-            <v>Erzgebirgskreis</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="D93" t="str">
-            <v>Seychellen</v>
-          </cell>
-          <cell r="H93" t="str">
-            <v>Essen, Stadt</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="D94" t="str">
-            <v>Sierra Leone</v>
-          </cell>
-          <cell r="H94" t="str">
-            <v>Esslingen</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="D95" t="str">
-            <v>Somalia</v>
-          </cell>
-          <cell r="H95" t="str">
-            <v>Euskirchen</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="D96" t="str">
-            <v>Äquatorialguinea</v>
-          </cell>
-          <cell r="H96" t="str">
-            <v>Flensburg, Stadt</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="D97" t="str">
-            <v>Republik Südsudan</v>
-          </cell>
-          <cell r="H97" t="str">
-            <v>Forchheim</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="D98" t="str">
-            <v>Republik Sudan</v>
-          </cell>
-          <cell r="H98" t="str">
-            <v>Frankenthal (Pfalz), kreisfreie Stadt</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="D99" t="str">
-            <v>Swasiland</v>
-          </cell>
-          <cell r="H99" t="str">
-            <v>Frankfurt (Oder), Stadt</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="D100" t="str">
-            <v>Tansania, Vereinigte Republik</v>
-          </cell>
-          <cell r="H100" t="str">
-            <v>Frankfurt am Main, Stadt</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="D101" t="str">
-            <v>Togo</v>
-          </cell>
-          <cell r="H101" t="str">
-            <v>Freiburg im Breisgau</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="D102" t="str">
-            <v>Tschad</v>
-          </cell>
-          <cell r="H102" t="str">
-            <v>Freising</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="D103" t="str">
-            <v>Tunesien</v>
-          </cell>
-          <cell r="H103" t="str">
-            <v>Freudenstadt</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="D104" t="str">
-            <v>Uganda</v>
-          </cell>
-          <cell r="H104" t="str">
-            <v>Freyung-Grafenau</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="D105" t="str">
-            <v>Ägypten</v>
-          </cell>
-          <cell r="H105" t="str">
-            <v>Friesland</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="D106" t="str">
-            <v>Zentralafrikanische Republik</v>
-          </cell>
-          <cell r="H106" t="str">
-            <v>Fulda</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="D107" t="str">
-            <v>Burundi</v>
-          </cell>
-          <cell r="H107" t="str">
-            <v>Fürstenfeldbruck</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="D108" t="str">
-            <v>Britisch abhängige Gebiete in Afrika,</v>
-          </cell>
-          <cell r="H108" t="str">
-            <v>Fürth</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="D109" t="str">
-            <v>Übriges Afrika, unselbständige Länder oder Gebiete in Afrika,</v>
-          </cell>
-          <cell r="H109" t="str">
-            <v>Garmisch-Partenkirchen</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="D110" t="str">
-            <v>Amerika</v>
-          </cell>
-          <cell r="H110" t="str">
-            <v>Gelsenkirchen, Stadt</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="D111" t="str">
-            <v>Antigua und Barbuda</v>
-          </cell>
-          <cell r="H111" t="str">
-            <v>Gera, Stadt</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="D112" t="str">
-            <v>Barbados</v>
-          </cell>
-          <cell r="H112" t="str">
-            <v>Germersheim</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="D113" t="str">
-            <v>Argentinien</v>
-          </cell>
-          <cell r="H113" t="str">
-            <v>Gießen</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="D114" t="str">
-            <v>Bahamas</v>
-          </cell>
-          <cell r="H114" t="str">
-            <v>Gifhorn</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="D115" t="str">
-            <v>Bolivien</v>
-          </cell>
-          <cell r="H115" t="str">
-            <v>Goslar</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="D116" t="str">
-            <v>Brasilien</v>
-          </cell>
-          <cell r="H116" t="str">
-            <v>Gotha</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="D117" t="str">
-            <v>Guyana</v>
-          </cell>
-          <cell r="H117" t="str">
-            <v>Grafschaft Bentheim</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="D118" t="str">
-            <v>Belize</v>
-          </cell>
-          <cell r="H118" t="str">
-            <v>Greiz</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="D119" t="str">
-            <v>Chile</v>
-          </cell>
-          <cell r="H119" t="str">
-            <v>Groß-Gerau</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="D120" t="str">
-            <v>Dominica</v>
-          </cell>
-          <cell r="H120" t="str">
-            <v>Göppingen</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="D121" t="str">
-            <v>Costa Rica</v>
-          </cell>
-          <cell r="H121" t="str">
-            <v>Görlitz</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="D122" t="str">
-            <v>Dominikanische Republik</v>
-          </cell>
-          <cell r="H122" t="str">
-            <v>Göttingen</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="D123" t="str">
-            <v>Ecuador, einschl. Galapagosinseln</v>
-          </cell>
-          <cell r="H123" t="str">
-            <v>Günzburg</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="D124" t="str">
-            <v>El Salvador</v>
-          </cell>
-          <cell r="H124" t="str">
-            <v>Gütersloh</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="D125" t="str">
-            <v>Grenada</v>
-          </cell>
-          <cell r="H125" t="str">
-            <v>Hagen, Stadt der FernUniversität</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="D126" t="str">
-            <v>Guatemala</v>
-          </cell>
-          <cell r="H126" t="str">
-            <v>Halle (Saale), Stadt</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="D127" t="str">
-            <v>Haiti</v>
-          </cell>
-          <cell r="H127" t="str">
-            <v>Hamburg, Freie und Hansestadt</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="D128" t="str">
-            <v>Honduras</v>
-          </cell>
-          <cell r="H128" t="str">
-            <v>Hameln-Pyrmont</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="D129" t="str">
-            <v>Kanada</v>
-          </cell>
-          <cell r="H129" t="str">
-            <v>Hamm, Stadt</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="D130" t="str">
-            <v>Kolumbien</v>
-          </cell>
-          <cell r="H130" t="str">
-            <v>Harburg</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="D131" t="str">
-            <v>Kuba</v>
-          </cell>
-          <cell r="H131" t="str">
-            <v>Harz</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="D132" t="str">
-            <v>Mexiko</v>
-          </cell>
-          <cell r="H132" t="str">
-            <v>Havelland</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="D133" t="str">
-            <v>Nicaragua</v>
-          </cell>
-          <cell r="H133" t="str">
-            <v>Haßberge</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="D134" t="str">
-            <v>Jamaika</v>
-          </cell>
-          <cell r="H134" t="str">
-            <v>Heidekreis</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="D135" t="str">
-            <v>Panama</v>
-          </cell>
-          <cell r="H135" t="str">
-            <v>Heidelberg</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="D136" t="str">
-            <v>Paraguay</v>
-          </cell>
-          <cell r="H136" t="str">
-            <v>Heidenheim</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="D137" t="str">
-            <v>Peru</v>
-          </cell>
-          <cell r="H137" t="str">
-            <v>Heilbronn</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="D138" t="str">
-            <v>Suriname</v>
-          </cell>
-          <cell r="H138" t="str">
-            <v>Heinsberg</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="D139" t="str">
-            <v>Uruguay</v>
-          </cell>
-          <cell r="H139" t="str">
-            <v>Helmstedt</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="D140" t="str">
-            <v>St. Lucia</v>
-          </cell>
-          <cell r="H140" t="str">
-            <v>Herford</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="D141" t="str">
-            <v>Venezuela</v>
-          </cell>
-          <cell r="H141" t="str">
-            <v>Herne, Stadt</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="D142" t="str">
-            <v>Vereinigte Staaten von Amerika</v>
-          </cell>
-          <cell r="H142" t="str">
-            <v>Hersfeld-Rotenburg</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="D143" t="str">
-            <v>St.Vincent und die Grenadinen</v>
-          </cell>
-          <cell r="H143" t="str">
-            <v>Herzogtum Lauenburg</v>
-          </cell>
-        </row>
-        <row r="144">
-          <cell r="D144" t="str">
-            <v>St.Kitts und Nevis</v>
-          </cell>
-          <cell r="H144" t="str">
-            <v>Hildburghausen</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="D145" t="str">
-            <v>Trinidad und Tobago</v>
-          </cell>
-          <cell r="H145" t="str">
-            <v>Hildesheim</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="D146" t="str">
-            <v>Britisch abhängige Gebiete in Amerika,</v>
-          </cell>
-          <cell r="H146" t="str">
-            <v>Hochsauerlandkreis</v>
-          </cell>
-        </row>
-        <row r="147">
-          <cell r="D147" t="str">
-            <v>Übriges Amerika, Unselbständige Länder oder Gebiete in Amerika,</v>
-          </cell>
-          <cell r="H147" t="str">
-            <v>Hochtaunuskreis</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="D148" t="str">
-            <v>Asien</v>
-          </cell>
-          <cell r="H148" t="str">
-            <v>Hof</v>
-          </cell>
-        </row>
-        <row r="149">
-          <cell r="D149" t="str">
-            <v>Jemen</v>
-          </cell>
-          <cell r="H149" t="str">
-            <v>Hohenlohekreis</v>
-          </cell>
-        </row>
-        <row r="150">
-          <cell r="D150" t="str">
-            <v>Armenien</v>
-          </cell>
-          <cell r="H150" t="str">
-            <v>Holzminden</v>
-          </cell>
-        </row>
-        <row r="151">
-          <cell r="D151" t="str">
-            <v>Afghanistan</v>
-          </cell>
-          <cell r="H151" t="str">
-            <v>Höxter</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="D152" t="str">
-            <v>Bahrain</v>
-          </cell>
-          <cell r="H152" t="str">
-            <v>Ilm-Kreis</v>
-          </cell>
-        </row>
-        <row r="153">
-          <cell r="D153" t="str">
-            <v>Aserbaidschan</v>
-          </cell>
-          <cell r="H153" t="str">
-            <v>Ingolstadt</v>
-          </cell>
-        </row>
-        <row r="154">
-          <cell r="D154" t="str">
-            <v>Bhutan</v>
-          </cell>
-          <cell r="H154" t="str">
-            <v>Jena, Stadt</v>
-          </cell>
-        </row>
-        <row r="155">
-          <cell r="D155" t="str">
-            <v>Myanmar (Birma)</v>
-          </cell>
-          <cell r="H155" t="str">
-            <v>Jerichower Land</v>
-          </cell>
-        </row>
-        <row r="156">
-          <cell r="D156" t="str">
-            <v>Brunei Darussalam</v>
-          </cell>
-          <cell r="H156" t="str">
-            <v>Kaiserslautern</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="D157" t="str">
-            <v>Georgien</v>
-          </cell>
-          <cell r="H157" t="str">
-            <v>Kaiserslautern, kreisfreie Stadt</v>
-          </cell>
-        </row>
-        <row r="158">
-          <cell r="D158" t="str">
-            <v>Sri Lanka</v>
-          </cell>
-          <cell r="H158" t="str">
-            <v>Karlsruhe</v>
-          </cell>
-        </row>
-        <row r="159">
-          <cell r="D159" t="str">
-            <v>Vietnam</v>
-          </cell>
-          <cell r="H159" t="str">
-            <v>Kassel</v>
-          </cell>
-        </row>
-        <row r="160">
-          <cell r="D160" t="str">
-            <v>Korea, Demokratische Volksrepublik</v>
-          </cell>
-          <cell r="H160" t="str">
-            <v>Kassel, documenta-Stadt</v>
-          </cell>
-        </row>
-        <row r="161">
-          <cell r="D161" t="str">
-            <v>Indien, einschl. Sikkim und Goa</v>
-          </cell>
-          <cell r="H161" t="str">
-            <v>Kaufbeuren</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="D162" t="str">
-            <v>Indonesien, einschl. Irian Jaya</v>
-          </cell>
-          <cell r="H162" t="str">
-            <v>Kelheim</v>
-          </cell>
-        </row>
-        <row r="163">
-          <cell r="D163" t="str">
-            <v>Irak</v>
-          </cell>
-          <cell r="H163" t="str">
-            <v>Kempten (Allgäu)</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="D164" t="str">
-            <v>Iran, Islamische Republik</v>
-          </cell>
-          <cell r="H164" t="str">
-            <v>Kiel, Landeshauptstadt</v>
-          </cell>
-        </row>
-        <row r="165">
-          <cell r="D165" t="str">
-            <v>Israel</v>
-          </cell>
-          <cell r="H165" t="str">
-            <v>Kitzingen</v>
-          </cell>
-        </row>
-        <row r="166">
-          <cell r="D166" t="str">
-            <v>Japan</v>
-          </cell>
-          <cell r="H166" t="str">
-            <v>Kleve</v>
-          </cell>
-        </row>
-        <row r="167">
-          <cell r="D167" t="str">
-            <v>Kasachstan</v>
-          </cell>
-          <cell r="H167" t="str">
-            <v>Koblenz, kreisfreie Stadt</v>
-          </cell>
-        </row>
-        <row r="168">
-          <cell r="D168" t="str">
-            <v>Jordanien</v>
-          </cell>
-          <cell r="H168" t="str">
-            <v>Konstanz</v>
-          </cell>
-        </row>
-        <row r="169">
-          <cell r="D169" t="str">
-            <v>Kambodscha</v>
-          </cell>
-          <cell r="H169" t="str">
-            <v>Krefeld, Stadt</v>
-          </cell>
-        </row>
-        <row r="170">
-          <cell r="D170" t="str">
-            <v>Katar</v>
-          </cell>
-          <cell r="H170" t="str">
-            <v>Kronach</v>
-          </cell>
-        </row>
-        <row r="171">
-          <cell r="D171" t="str">
-            <v>Kuwait</v>
-          </cell>
-          <cell r="H171" t="str">
-            <v>Kulmbach</v>
-          </cell>
-        </row>
-        <row r="172">
-          <cell r="D172" t="str">
-            <v>Laos, Demokratische Volksrepublik</v>
-          </cell>
-          <cell r="H172" t="str">
-            <v>Kusel</v>
-          </cell>
-        </row>
-        <row r="173">
-          <cell r="D173" t="str">
-            <v>Kirgistan</v>
-          </cell>
-          <cell r="H173" t="str">
-            <v>Kyffhäuserkreis</v>
-          </cell>
-        </row>
-        <row r="174">
-          <cell r="D174" t="str">
-            <v>Libanon</v>
-          </cell>
-          <cell r="H174" t="str">
-            <v>Köln, Stadt</v>
-          </cell>
-        </row>
-        <row r="175">
-          <cell r="D175" t="str">
-            <v>Malediven</v>
-          </cell>
-          <cell r="H175" t="str">
-            <v>Lahn-Dill-Kreis</v>
-          </cell>
-        </row>
-        <row r="176">
-          <cell r="D176" t="str">
-            <v>Oman</v>
-          </cell>
-          <cell r="H176" t="str">
-            <v>Landau in der Pfalz, kreisfreie Stadt</v>
-          </cell>
-        </row>
-        <row r="177">
-          <cell r="D177" t="str">
-            <v>Mongolei</v>
-          </cell>
-          <cell r="H177" t="str">
-            <v>Landkreis Rostock</v>
-          </cell>
-        </row>
-        <row r="178">
-          <cell r="D178" t="str">
-            <v>Nepal</v>
-          </cell>
-          <cell r="H178" t="str">
-            <v>Landsberg am Lech</v>
-          </cell>
-        </row>
-        <row r="179">
-          <cell r="D179" t="str">
-            <v>Bangladesch</v>
-          </cell>
-          <cell r="H179" t="str">
-            <v>Landshut</v>
-          </cell>
-        </row>
-        <row r="180">
-          <cell r="D180" t="str">
-            <v>Pakistan</v>
-          </cell>
-          <cell r="H180" t="str">
-            <v>Leer</v>
-          </cell>
-        </row>
-        <row r="181">
-          <cell r="D181" t="str">
-            <v>Philippinen</v>
-          </cell>
-          <cell r="H181" t="str">
-            <v>Leipzig</v>
-          </cell>
-        </row>
-        <row r="182">
-          <cell r="D182" t="str">
-            <v>Taiwan</v>
-          </cell>
-          <cell r="H182" t="str">
-            <v>Leipzig, Stadt</v>
-          </cell>
-        </row>
-        <row r="183">
-          <cell r="D183" t="str">
-            <v>Korea, Republik</v>
-          </cell>
-          <cell r="H183" t="str">
-            <v>Leverkusen, Stadt</v>
-          </cell>
-        </row>
-        <row r="184">
-          <cell r="D184" t="str">
-            <v>Vereinigte Arabische Emirate</v>
-          </cell>
-          <cell r="H184" t="str">
-            <v>Lichtenfels</v>
-          </cell>
-        </row>
-        <row r="185">
-          <cell r="D185" t="str">
-            <v>Tadschikistan</v>
-          </cell>
-          <cell r="H185" t="str">
-            <v>Limburg-Weilburg</v>
-          </cell>
-        </row>
-        <row r="186">
-          <cell r="D186" t="str">
-            <v>Turkmenistan</v>
-          </cell>
-          <cell r="H186" t="str">
-            <v>Lindau (Bodensee)</v>
-          </cell>
-        </row>
-        <row r="187">
-          <cell r="D187" t="str">
-            <v>Saudi-Arabien</v>
-          </cell>
-          <cell r="H187" t="str">
-            <v>Lippe</v>
-          </cell>
-        </row>
-        <row r="188">
-          <cell r="D188" t="str">
-            <v>Singapur</v>
-          </cell>
-          <cell r="H188" t="str">
-            <v>Ludwigsburg</v>
-          </cell>
-        </row>
-        <row r="189">
-          <cell r="D189" t="str">
-            <v>Syrien, Arabische Republik</v>
-          </cell>
-          <cell r="H189" t="str">
-            <v>Ludwigshafen am Rhein, kreisfreie Stadt</v>
-          </cell>
-        </row>
-        <row r="190">
-          <cell r="D190" t="str">
-            <v>Thailand</v>
-          </cell>
-          <cell r="H190" t="str">
-            <v>Ludwigslust-Parchim</v>
-          </cell>
-        </row>
-        <row r="191">
-          <cell r="D191" t="str">
-            <v>Usbekistan</v>
-          </cell>
-          <cell r="H191" t="str">
-            <v>Lörrach</v>
-          </cell>
-        </row>
-        <row r="192">
-          <cell r="D192" t="str">
-            <v>China, einschl. Tibet</v>
-          </cell>
-          <cell r="H192" t="str">
-            <v>Lübeck, Hansestadt</v>
-          </cell>
-        </row>
-        <row r="193">
-          <cell r="D193" t="str">
-            <v>Malaysia</v>
-          </cell>
-          <cell r="H193" t="str">
-            <v>Lüchow-Dannenberg</v>
-          </cell>
-        </row>
-        <row r="194">
-          <cell r="D194" t="str">
-            <v>Timor-Leste (ehem. Ost-Timor)</v>
-          </cell>
-          <cell r="H194" t="str">
-            <v>Lüneburg</v>
-          </cell>
-        </row>
-        <row r="195">
-          <cell r="D195" t="str">
-            <v>Übriges Asien</v>
-          </cell>
-          <cell r="H195" t="str">
-            <v>Magdeburg, Landeshauptstadt</v>
-          </cell>
-        </row>
-        <row r="196">
-          <cell r="D196" t="str">
-            <v>Australien und Ozeanien</v>
-          </cell>
-          <cell r="H196" t="str">
-            <v>Main-Kinzig-Kreis</v>
-          </cell>
-        </row>
-        <row r="197">
-          <cell r="D197" t="str">
-            <v>Australien, einschl. Kokosinseln, Weihnachtsinseln und Norfolk-Inseln</v>
-          </cell>
-          <cell r="H197" t="str">
-            <v>Main-Spessart</v>
-          </cell>
-        </row>
-        <row r="198">
-          <cell r="D198" t="str">
-            <v>Salomonen</v>
-          </cell>
-          <cell r="H198" t="str">
-            <v>Main-Tauber-Kreis</v>
-          </cell>
-        </row>
-        <row r="199">
-          <cell r="D199" t="str">
-            <v>Nördliche Marianen</v>
-          </cell>
-          <cell r="H199" t="str">
-            <v>Main-Taunus-Kreis</v>
-          </cell>
-        </row>
-        <row r="200">
-          <cell r="D200" t="str">
-            <v>Fidschi</v>
-          </cell>
-          <cell r="H200" t="str">
-            <v>Mainz, kreisfreie Stadt</v>
-          </cell>
-        </row>
-        <row r="201">
-          <cell r="D201" t="str">
-            <v>Cookinseln</v>
-          </cell>
-          <cell r="H201" t="str">
-            <v>Mainz-Bingen</v>
-          </cell>
-        </row>
-        <row r="202">
-          <cell r="D202" t="str">
-            <v>Kiribati</v>
-          </cell>
-          <cell r="H202" t="str">
-            <v>Mannheim</v>
-          </cell>
-        </row>
-        <row r="203">
-          <cell r="D203" t="str">
-            <v>Nauru</v>
-          </cell>
-          <cell r="H203" t="str">
-            <v>Mansfeld-Südharz</v>
-          </cell>
-        </row>
-        <row r="204">
-          <cell r="D204" t="str">
-            <v>Vanuatu</v>
-          </cell>
-          <cell r="H204" t="str">
-            <v>Marburg-Biedenkopf</v>
-          </cell>
-        </row>
-        <row r="205">
-          <cell r="D205" t="str">
-            <v>Niue</v>
-          </cell>
-          <cell r="H205" t="str">
-            <v>Mayen-Koblenz</v>
-          </cell>
-        </row>
-        <row r="206">
-          <cell r="D206" t="str">
-            <v>Neuseeland</v>
-          </cell>
-          <cell r="H206" t="str">
-            <v>Mecklenburgische Seenplatte</v>
-          </cell>
-        </row>
-        <row r="207">
-          <cell r="D207" t="str">
-            <v>Palau</v>
-          </cell>
-          <cell r="H207" t="str">
-            <v>Meißen</v>
-          </cell>
-        </row>
-        <row r="208">
-          <cell r="D208" t="str">
-            <v>Papua-Neuguinea</v>
-          </cell>
-          <cell r="H208" t="str">
-            <v>Memmingen</v>
-          </cell>
-        </row>
-        <row r="209">
-          <cell r="D209" t="str">
-            <v>Tuvalu</v>
-          </cell>
-          <cell r="H209" t="str">
-            <v>Merzig-Wadern</v>
-          </cell>
-        </row>
-        <row r="210">
-          <cell r="D210" t="str">
-            <v>Tonga</v>
-          </cell>
-          <cell r="H210" t="str">
-            <v>Mettmann</v>
-          </cell>
-        </row>
-        <row r="211">
-          <cell r="D211" t="str">
-            <v>Samoa</v>
-          </cell>
-          <cell r="H211" t="str">
-            <v>Miesbach</v>
-          </cell>
-        </row>
-        <row r="212">
-          <cell r="D212" t="str">
-            <v>Marshallinseln</v>
-          </cell>
-          <cell r="H212" t="str">
-            <v>Miltenberg</v>
-          </cell>
-        </row>
-        <row r="213">
-          <cell r="D213" t="str">
-            <v>Mikronesien, Föderierte Staaten von</v>
-          </cell>
-          <cell r="H213" t="str">
-            <v>Minden-Lübbecke</v>
-          </cell>
-        </row>
-        <row r="214">
-          <cell r="D214" t="str">
-            <v>Britisch abhängige Gebiete in Australien und Ozeanien</v>
-          </cell>
-          <cell r="H214" t="str">
-            <v>Mittelsachsen</v>
-          </cell>
-        </row>
-        <row r="215">
-          <cell r="D215" t="str">
-            <v>Übriges Ozeanien, Unselbständige Länder oder Gebiete in Australien und Ozeanien,</v>
-          </cell>
-          <cell r="H215" t="str">
-            <v>Märkisch-Oderland</v>
-          </cell>
-        </row>
-        <row r="216">
-          <cell r="D216" t="str">
-            <v>Von/nach See</v>
-          </cell>
-          <cell r="H216" t="str">
-            <v>Märkischer Kreis</v>
-          </cell>
-        </row>
-        <row r="217">
-          <cell r="D217" t="str">
-            <v>Unbekanntes Ausland</v>
-          </cell>
-          <cell r="H217" t="str">
-            <v>Mönchengladbach, Stadt</v>
-          </cell>
-        </row>
-        <row r="218">
-          <cell r="D218" t="str">
-            <v>Ungeklärt</v>
-          </cell>
-          <cell r="H218" t="str">
-            <v>Mühldorf a.Inn</v>
-          </cell>
-        </row>
-        <row r="219">
-          <cell r="D219" t="str">
-            <v>Ohne Angabe</v>
-          </cell>
-          <cell r="H219" t="str">
-            <v>Mülheim an der Ruhr, Stadt</v>
-          </cell>
-        </row>
-        <row r="220">
-          <cell r="H220" t="str">
-            <v>München</v>
-          </cell>
-        </row>
-        <row r="221">
-          <cell r="H221" t="str">
-            <v>München, Landeshauptstadt</v>
-          </cell>
-        </row>
-        <row r="222">
-          <cell r="H222" t="str">
-            <v>Münster, Stadt</v>
-          </cell>
-        </row>
-        <row r="223">
-          <cell r="H223" t="str">
-            <v>Neckar-Odenwald-Kreis</v>
-          </cell>
-        </row>
-        <row r="224">
-          <cell r="H224" t="str">
-            <v>Neu-Ulm</v>
-          </cell>
-        </row>
-        <row r="225">
-          <cell r="H225" t="str">
-            <v>Neuburg-Schrobenhausen</v>
-          </cell>
-        </row>
-        <row r="226">
-          <cell r="H226" t="str">
-            <v>Neumarkt i.d.OPf.</v>
-          </cell>
-        </row>
-        <row r="227">
-          <cell r="H227" t="str">
-            <v>Neumünster, Stadt</v>
-          </cell>
-        </row>
-        <row r="228">
-          <cell r="H228" t="str">
-            <v>Neunkirchen</v>
-          </cell>
-        </row>
-        <row r="229">
-          <cell r="H229" t="str">
-            <v>Neustadt a.d.Aisch-Bad Windsheim</v>
-          </cell>
-        </row>
-        <row r="230">
-          <cell r="H230" t="str">
-            <v>Neustadt a.d.Waldnaab</v>
-          </cell>
-        </row>
-        <row r="231">
-          <cell r="H231" t="str">
-            <v>Neustadt an der Weinstraße, kreisfreie Stadt</v>
-          </cell>
-        </row>
-        <row r="232">
-          <cell r="H232" t="str">
-            <v>Neuwied</v>
-          </cell>
-        </row>
-        <row r="233">
-          <cell r="H233" t="str">
-            <v>Niederschlesischer Oberlausitzkreis</v>
-          </cell>
-        </row>
-        <row r="234">
-          <cell r="H234" t="str">
-            <v>Nienburg (Weser)</v>
-          </cell>
-        </row>
-        <row r="235">
-          <cell r="H235" t="str">
-            <v>Nordfriesland</v>
-          </cell>
-        </row>
-        <row r="236">
-          <cell r="H236" t="str">
-            <v>Nordhausen</v>
-          </cell>
-        </row>
-        <row r="237">
-          <cell r="H237" t="str">
-            <v>Nordsachsen</v>
-          </cell>
-        </row>
-        <row r="238">
-          <cell r="H238" t="str">
-            <v>Nordwestmecklenburg</v>
-          </cell>
-        </row>
-        <row r="239">
-          <cell r="H239" t="str">
-            <v>Nordvorpommern</v>
-          </cell>
-        </row>
-        <row r="240">
-          <cell r="H240" t="str">
-            <v>Northeim</v>
-          </cell>
-        </row>
-        <row r="241">
-          <cell r="H241" t="str">
-            <v>Nürnberg</v>
-          </cell>
-        </row>
-        <row r="242">
-          <cell r="H242" t="str">
-            <v>Nürnberger Land</v>
-          </cell>
-        </row>
-        <row r="243">
-          <cell r="H243" t="str">
-            <v>Oberallgäu</v>
-          </cell>
-        </row>
-        <row r="244">
-          <cell r="H244" t="str">
-            <v>Oberbergischer Kreis</v>
-          </cell>
-        </row>
-        <row r="245">
-          <cell r="H245" t="str">
-            <v>Oberhausen, Stadt</v>
-          </cell>
-        </row>
-        <row r="246">
-          <cell r="H246" t="str">
-            <v>Oberhavel</v>
-          </cell>
-        </row>
-        <row r="247">
-          <cell r="H247" t="str">
-            <v>Oberspreewald-Lausitz</v>
-          </cell>
-        </row>
-        <row r="248">
-          <cell r="H248" t="str">
-            <v>Odenwaldkreis</v>
-          </cell>
-        </row>
-        <row r="249">
-          <cell r="H249" t="str">
-            <v>Oder-Spree</v>
-          </cell>
-        </row>
-        <row r="250">
-          <cell r="H250" t="str">
-            <v>Offenbach</v>
-          </cell>
-        </row>
-        <row r="251">
-          <cell r="H251" t="str">
-            <v>Offenbach am Main, Stadt</v>
-          </cell>
-        </row>
-        <row r="252">
-          <cell r="H252" t="str">
-            <v>Oldenburg</v>
-          </cell>
-        </row>
-        <row r="253">
-          <cell r="H253" t="str">
-            <v>Oldenburg (Oldenburg), Stadt</v>
-          </cell>
-        </row>
-        <row r="254">
-          <cell r="H254" t="str">
-            <v>Olpe</v>
-          </cell>
-        </row>
-        <row r="255">
-          <cell r="H255" t="str">
-            <v>Ortenaukreis</v>
-          </cell>
-        </row>
-        <row r="256">
-          <cell r="H256" t="str">
-            <v>Osnabrück</v>
-          </cell>
-        </row>
-        <row r="257">
-          <cell r="H257" t="str">
-            <v>Osnabrück, Stadt</v>
-          </cell>
-        </row>
-        <row r="258">
-          <cell r="H258" t="str">
-            <v>Ostalbkreis</v>
-          </cell>
-        </row>
-        <row r="259">
-          <cell r="H259" t="str">
-            <v>Ostallgäu</v>
-          </cell>
-        </row>
-        <row r="260">
-          <cell r="H260" t="str">
-            <v>Osterholz</v>
-          </cell>
-        </row>
-        <row r="261">
-          <cell r="H261" t="str">
-            <v>Osterode am Harz</v>
-          </cell>
-        </row>
-        <row r="262">
-          <cell r="H262" t="str">
-            <v>Ostholstein</v>
-          </cell>
-        </row>
-        <row r="263">
-          <cell r="H263" t="str">
-            <v>Ostprignitz-Ruppin</v>
-          </cell>
-        </row>
-        <row r="264">
-          <cell r="H264" t="str">
-            <v>Paderborn</v>
-          </cell>
-        </row>
-        <row r="265">
-          <cell r="H265" t="str">
-            <v>Passau</v>
-          </cell>
-        </row>
-        <row r="266">
-          <cell r="H266" t="str">
-            <v>Peine</v>
-          </cell>
-        </row>
-        <row r="267">
-          <cell r="H267" t="str">
-            <v>Pfaffenhofen a.d.Ilm</v>
-          </cell>
-        </row>
-        <row r="268">
-          <cell r="H268" t="str">
-            <v>Pforzheim</v>
-          </cell>
-        </row>
-        <row r="269">
-          <cell r="H269" t="str">
-            <v>Pinneberg</v>
-          </cell>
-        </row>
-        <row r="270">
-          <cell r="H270" t="str">
-            <v>Pirmasens, kreisfreie Stadt</v>
-          </cell>
-        </row>
-        <row r="271">
-          <cell r="H271" t="str">
-            <v>Plön</v>
-          </cell>
-        </row>
-        <row r="272">
-          <cell r="H272" t="str">
-            <v>Potsdam, Stadt</v>
-          </cell>
-        </row>
-        <row r="273">
-          <cell r="H273" t="str">
-            <v>Potsdam-Mittelmark</v>
-          </cell>
-        </row>
-        <row r="274">
-          <cell r="H274" t="str">
-            <v>Prignitz</v>
-          </cell>
-        </row>
-        <row r="275">
-          <cell r="H275" t="str">
-            <v>Rastatt</v>
-          </cell>
-        </row>
-        <row r="276">
-          <cell r="H276" t="str">
-            <v>Ravensburg</v>
-          </cell>
-        </row>
-        <row r="277">
-          <cell r="H277" t="str">
-            <v>Recklinghausen</v>
-          </cell>
-        </row>
-        <row r="278">
-          <cell r="H278" t="str">
-            <v>Regen</v>
-          </cell>
-        </row>
-        <row r="279">
-          <cell r="H279" t="str">
-            <v>Regensburg</v>
-          </cell>
-        </row>
-        <row r="280">
-          <cell r="H280" t="str">
-            <v>Region Hannover</v>
-          </cell>
-        </row>
-        <row r="281">
-          <cell r="H281" t="str">
-            <v>Region Zusammen</v>
-          </cell>
-        </row>
-        <row r="282">
-          <cell r="H282" t="str">
-            <v>Regionalverband Saarbrücken</v>
-          </cell>
-        </row>
-        <row r="283">
-          <cell r="H283" t="str">
-            <v>Rems-Murr-Kreis</v>
-          </cell>
-        </row>
-        <row r="284">
-          <cell r="H284" t="str">
-            <v>Remscheid, Stadt</v>
-          </cell>
-        </row>
-        <row r="285">
-          <cell r="H285" t="str">
-            <v>Rendsburg-Eckernförde</v>
-          </cell>
-        </row>
-        <row r="286">
-          <cell r="H286" t="str">
-            <v>Reutlingen</v>
-          </cell>
-        </row>
-        <row r="287">
-          <cell r="H287" t="str">
-            <v>Rhein-Erft-Kreis</v>
-          </cell>
-        </row>
-        <row r="288">
-          <cell r="H288" t="str">
-            <v>Rhein-Hunsrück-Kreis</v>
-          </cell>
-        </row>
-        <row r="289">
-          <cell r="H289" t="str">
-            <v>Rhein-Kreis Neuss</v>
-          </cell>
-        </row>
-        <row r="290">
-          <cell r="H290" t="str">
-            <v>Rhein-Lahn-Kreis</v>
-          </cell>
-        </row>
-        <row r="291">
-          <cell r="H291" t="str">
-            <v>Rhein-Neckar-Kreis</v>
-          </cell>
-        </row>
-        <row r="292">
-          <cell r="H292" t="str">
-            <v>Rhein-Pfalz-Kreis</v>
-          </cell>
-        </row>
-        <row r="293">
-          <cell r="H293" t="str">
-            <v>Rhein-Sieg-Kreis</v>
-          </cell>
-        </row>
-        <row r="294">
-          <cell r="H294" t="str">
-            <v>Rheingau-Taunus-Kreis</v>
-          </cell>
-        </row>
-        <row r="295">
-          <cell r="H295" t="str">
-            <v>Rheinisch-Bergischer Kreis</v>
-          </cell>
-        </row>
-        <row r="296">
-          <cell r="H296" t="str">
-            <v>Rhön-Grabfeld</v>
-          </cell>
-        </row>
-        <row r="297">
-          <cell r="H297" t="str">
-            <v>Rosenheim</v>
-          </cell>
-        </row>
-        <row r="298">
-          <cell r="H298" t="str">
-            <v>Rostock</v>
-          </cell>
-        </row>
-        <row r="299">
-          <cell r="H299" t="str">
-            <v>Rotenburg (Wümme)</v>
-          </cell>
-        </row>
-        <row r="300">
-          <cell r="H300" t="str">
-            <v>Roth</v>
-          </cell>
-        </row>
-        <row r="301">
-          <cell r="H301" t="str">
-            <v>Rottal-Inn</v>
-          </cell>
-        </row>
-        <row r="302">
-          <cell r="H302" t="str">
-            <v>Rottweil</v>
-          </cell>
-        </row>
-        <row r="303">
-          <cell r="H303" t="str">
-            <v>Saale-Holzland-Kreis</v>
-          </cell>
-        </row>
-        <row r="304">
-          <cell r="H304" t="str">
-            <v>Saale-Orla-Kreis</v>
-          </cell>
-        </row>
-        <row r="305">
-          <cell r="H305" t="str">
-            <v>Saalekreis</v>
-          </cell>
-        </row>
-        <row r="306">
-          <cell r="H306" t="str">
-            <v>Saalfeld-Rudolstadt</v>
-          </cell>
-        </row>
-        <row r="307">
-          <cell r="H307" t="str">
-            <v>Saarlouis</v>
-          </cell>
-        </row>
-        <row r="308">
-          <cell r="H308" t="str">
-            <v>Saarpfalz-Kreis</v>
-          </cell>
-        </row>
-        <row r="309">
-          <cell r="H309" t="str">
-            <v>Salzgitter, Stadt</v>
-          </cell>
-        </row>
-        <row r="310">
-          <cell r="H310" t="str">
-            <v>Salzlandkreis</v>
-          </cell>
-        </row>
-        <row r="311">
-          <cell r="H311" t="str">
-            <v>Schaumburg</v>
-          </cell>
-        </row>
-        <row r="312">
-          <cell r="H312" t="str">
-            <v>Schleswig-Flensburg</v>
-          </cell>
-        </row>
-        <row r="313">
-          <cell r="H313" t="str">
-            <v>Schmalkalden-Meiningen</v>
-          </cell>
-        </row>
-        <row r="314">
-          <cell r="H314" t="str">
-            <v>Schwabach</v>
-          </cell>
-        </row>
-        <row r="315">
-          <cell r="H315" t="str">
-            <v>Schwalm-Eder-Kreis</v>
-          </cell>
-        </row>
-        <row r="316">
-          <cell r="H316" t="str">
-            <v>Schwandorf</v>
-          </cell>
-        </row>
-        <row r="317">
-          <cell r="H317" t="str">
-            <v>Schwarzwald-Baar-Kreis</v>
-          </cell>
-        </row>
-        <row r="318">
-          <cell r="H318" t="str">
-            <v>Schweinfurt</v>
-          </cell>
-        </row>
-        <row r="319">
-          <cell r="H319" t="str">
-            <v>Schwerin</v>
-          </cell>
-        </row>
-        <row r="320">
-          <cell r="H320" t="str">
-            <v>Schwäbisch Hall</v>
-          </cell>
-        </row>
-        <row r="321">
-          <cell r="H321" t="str">
-            <v>Segeberg</v>
-          </cell>
-        </row>
-        <row r="322">
-          <cell r="H322" t="str">
-            <v>Siegen-Wittgenstein</v>
-          </cell>
-        </row>
-        <row r="323">
-          <cell r="H323" t="str">
-            <v>Sigmaringen</v>
-          </cell>
-        </row>
-        <row r="324">
-          <cell r="H324" t="str">
-            <v>Soest</v>
-          </cell>
-        </row>
-        <row r="325">
-          <cell r="H325" t="str">
-            <v>Solingen, Klingenstadt</v>
-          </cell>
-        </row>
-        <row r="326">
-          <cell r="H326" t="str">
-            <v>Sonneberg</v>
-          </cell>
-        </row>
-        <row r="327">
-          <cell r="H327" t="str">
-            <v>Speyer, kreisfreie Stadt</v>
-          </cell>
-        </row>
-        <row r="328">
-          <cell r="H328" t="str">
-            <v>Spree-Neiße</v>
-          </cell>
-        </row>
-        <row r="329">
-          <cell r="H329" t="str">
-            <v>St. Wendel</v>
-          </cell>
-        </row>
-        <row r="330">
-          <cell r="H330" t="str">
-            <v>Stade</v>
-          </cell>
-        </row>
-        <row r="331">
-          <cell r="H331" t="str">
-            <v>Starnberg</v>
-          </cell>
-        </row>
-        <row r="332">
-          <cell r="H332" t="str">
-            <v>Steinburg</v>
-          </cell>
-        </row>
-        <row r="333">
-          <cell r="H333" t="str">
-            <v>Steinfurt</v>
-          </cell>
-        </row>
-        <row r="334">
-          <cell r="H334" t="str">
-            <v>Stendal</v>
-          </cell>
-        </row>
-        <row r="335">
-          <cell r="H335" t="str">
-            <v>Stormarn</v>
-          </cell>
-        </row>
-        <row r="336">
-          <cell r="H336" t="str">
-            <v>Straubing</v>
-          </cell>
-        </row>
-        <row r="337">
-          <cell r="H337" t="str">
-            <v>Straubing-Bogen</v>
-          </cell>
-        </row>
-        <row r="338">
-          <cell r="H338" t="str">
-            <v>Stuttgart</v>
-          </cell>
-        </row>
-        <row r="339">
-          <cell r="H339" t="str">
-            <v>Städteregion Aachen</v>
-          </cell>
-        </row>
-        <row r="340">
-          <cell r="H340" t="str">
-            <v>Suhl, Stadt</v>
-          </cell>
-        </row>
-        <row r="341">
-          <cell r="H341" t="str">
-            <v>Sächsische Schweiz-Osterzgebirge</v>
-          </cell>
-        </row>
-        <row r="342">
-          <cell r="H342" t="str">
-            <v>Sömmerda</v>
-          </cell>
-        </row>
-        <row r="343">
-          <cell r="H343" t="str">
-            <v>Südliche Weinstraße</v>
-          </cell>
-        </row>
-        <row r="344">
-          <cell r="H344" t="str">
-            <v>Südwestpfalz</v>
-          </cell>
-        </row>
-        <row r="345">
-          <cell r="H345" t="str">
-            <v>Teltow-Fläming</v>
-          </cell>
-        </row>
-        <row r="346">
-          <cell r="H346" t="str">
-            <v>Torgau-Oschatz</v>
-          </cell>
-        </row>
-        <row r="347">
-          <cell r="H347" t="str">
-            <v>Tirschenreuth</v>
-          </cell>
-        </row>
-        <row r="348">
-          <cell r="H348" t="str">
-            <v>Traunstein</v>
-          </cell>
-        </row>
-        <row r="349">
-          <cell r="H349" t="str">
-            <v>Trier, kreisfreie Stadt</v>
-          </cell>
-        </row>
-        <row r="350">
-          <cell r="H350" t="str">
-            <v>Trier-Saarburg</v>
-          </cell>
-        </row>
-        <row r="351">
-          <cell r="H351" t="str">
-            <v>Tuttlingen</v>
-          </cell>
-        </row>
-        <row r="352">
-          <cell r="H352" t="str">
-            <v>Tübingen</v>
-          </cell>
-        </row>
-        <row r="353">
-          <cell r="H353" t="str">
-            <v>Uckermark</v>
-          </cell>
-        </row>
-        <row r="354">
-          <cell r="H354" t="str">
-            <v>Uelzen</v>
-          </cell>
-        </row>
-        <row r="355">
-          <cell r="H355" t="str">
-            <v>Ulm</v>
-          </cell>
-        </row>
-        <row r="356">
-          <cell r="H356" t="str">
-            <v>Unna</v>
-          </cell>
-        </row>
-        <row r="357">
-          <cell r="H357" t="str">
-            <v>Unstrut-Hainich-Kreis</v>
-          </cell>
-        </row>
-        <row r="358">
-          <cell r="H358" t="str">
-            <v>Unterallgäu</v>
-          </cell>
-        </row>
-        <row r="359">
-          <cell r="H359" t="str">
-            <v>Vechta</v>
-          </cell>
-        </row>
-        <row r="360">
-          <cell r="H360" t="str">
-            <v>Verden</v>
-          </cell>
-        </row>
-        <row r="361">
-          <cell r="H361" t="str">
-            <v>Viersen</v>
-          </cell>
-        </row>
-        <row r="362">
-          <cell r="H362" t="str">
-            <v>Vogelsbergkreis</v>
-          </cell>
-        </row>
-        <row r="363">
-          <cell r="H363" t="str">
-            <v>Vogtlandkreis</v>
-          </cell>
-        </row>
-        <row r="364">
-          <cell r="H364" t="str">
-            <v>Vorpommern-Greifswald</v>
-          </cell>
-        </row>
-        <row r="365">
-          <cell r="H365" t="str">
-            <v>Vorpommern-Rügen</v>
-          </cell>
-        </row>
-        <row r="366">
-          <cell r="H366" t="str">
-            <v>Vulkaneifel</v>
-          </cell>
-        </row>
-        <row r="367">
-          <cell r="H367" t="str">
-            <v>Waldeck-Frankenberg</v>
-          </cell>
-        </row>
-        <row r="368">
-          <cell r="H368" t="str">
-            <v>Waldshut</v>
-          </cell>
-        </row>
-        <row r="369">
-          <cell r="H369" t="str">
-            <v>Warendorf</v>
-          </cell>
-        </row>
-        <row r="370">
-          <cell r="H370" t="str">
-            <v>Wartburgkreis</v>
-          </cell>
-        </row>
-        <row r="371">
-          <cell r="H371" t="str">
-            <v>Weiden i.d.OPf.</v>
-          </cell>
-        </row>
-        <row r="372">
-          <cell r="H372" t="str">
-            <v>Weilheim-Schongau</v>
-          </cell>
-        </row>
-        <row r="373">
-          <cell r="H373" t="str">
-            <v>Weimar, Stadt</v>
-          </cell>
-        </row>
-        <row r="374">
-          <cell r="H374" t="str">
-            <v>Weimarer Land</v>
-          </cell>
-        </row>
-        <row r="375">
-          <cell r="H375" t="str">
-            <v>Weißenburg-Gunzenhausen</v>
-          </cell>
-        </row>
-        <row r="376">
-          <cell r="H376" t="str">
-            <v>Werra-Meißner-Kreis</v>
-          </cell>
-        </row>
-        <row r="377">
-          <cell r="H377" t="str">
-            <v>Wesel</v>
-          </cell>
-        </row>
-        <row r="378">
-          <cell r="H378" t="str">
-            <v>Wesermarsch</v>
-          </cell>
-        </row>
-        <row r="379">
-          <cell r="H379" t="str">
-            <v>Westerwaldkreis</v>
-          </cell>
-        </row>
-        <row r="380">
-          <cell r="H380" t="str">
-            <v>Wetteraukreis</v>
-          </cell>
-        </row>
-        <row r="381">
-          <cell r="H381" t="str">
-            <v>Wiesbaden, Landeshauptstadt</v>
-          </cell>
-        </row>
-        <row r="382">
-          <cell r="H382" t="str">
-            <v>Wilhelmshaven, Stadt</v>
-          </cell>
-        </row>
-        <row r="383">
-          <cell r="H383" t="str">
-            <v>Wittenberg</v>
-          </cell>
-        </row>
-        <row r="384">
-          <cell r="H384" t="str">
-            <v>Wittmund</v>
-          </cell>
-        </row>
-        <row r="385">
-          <cell r="H385" t="str">
-            <v>Wolfenbüttel</v>
-          </cell>
-        </row>
-        <row r="386">
-          <cell r="H386" t="str">
-            <v>Wolfsburg, Stadt</v>
-          </cell>
-        </row>
-        <row r="387">
-          <cell r="H387" t="str">
-            <v>Worms, kreisfreie Stadt</v>
-          </cell>
-        </row>
-        <row r="388">
-          <cell r="H388" t="str">
-            <v>Wunsiedel i.Fichtelgebirge</v>
-          </cell>
-        </row>
-        <row r="389">
-          <cell r="H389" t="str">
-            <v>Wuppertal, Stadt</v>
-          </cell>
-        </row>
-        <row r="390">
-          <cell r="H390" t="str">
-            <v>Würzburg</v>
-          </cell>
-        </row>
-        <row r="391">
-          <cell r="H391" t="str">
-            <v>Zollernalbkreis</v>
-          </cell>
-        </row>
-        <row r="392">
-          <cell r="H392" t="str">
-            <v>Zweibrücken, kreisfreie Stadt</v>
-          </cell>
-        </row>
-        <row r="393">
-          <cell r="H393" t="str">
-            <v>Zwickau</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9715,7 +3331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9813,7 +3429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V106"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9860,20 +3476,20 @@
       <c r="M2" s="37"/>
     </row>
     <row r="3" spans="1:22" s="64" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="136" t="s">
+      <c r="A3" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="137"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="137"/>
-      <c r="L3" s="137"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
       <c r="M3" s="76"/>
       <c r="N3" s="79" t="s">
         <v>32</v>
@@ -9888,48 +3504,48 @@
       <c r="V3" s="78"/>
     </row>
     <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="124" t="s">
+      <c r="A4" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="128" t="s">
+      <c r="B4" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="115" t="s">
+      <c r="C4" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="116"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="112" t="s">
+      <c r="D4" s="126"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="113"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="111" t="s">
+      <c r="G4" s="123"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="121" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="97"/>
-      <c r="K4" s="120" t="s">
+      <c r="J4" s="111"/>
+      <c r="K4" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="144" t="s">
+      <c r="L4" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="122" t="s">
+      <c r="M4" s="132" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="126"/>
-      <c r="O4" s="134"/>
-      <c r="P4" s="134"/>
-      <c r="Q4" s="134"/>
-      <c r="R4" s="134"/>
-      <c r="S4" s="134"/>
-      <c r="T4" s="134"/>
-      <c r="U4" s="134"/>
-      <c r="V4" s="146"/>
+      <c r="N4" s="136"/>
+      <c r="O4" s="102"/>
+      <c r="P4" s="102"/>
+      <c r="Q4" s="102"/>
+      <c r="R4" s="102"/>
+      <c r="S4" s="102"/>
+      <c r="T4" s="102"/>
+      <c r="U4" s="102"/>
+      <c r="V4" s="103"/>
     </row>
     <row r="5" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="125"/>
-      <c r="B5" s="129"/>
+      <c r="A5" s="135"/>
+      <c r="B5" s="139"/>
       <c r="C5" s="90" t="s">
         <v>20</v>
       </c>
@@ -9954,18 +3570,18 @@
       <c r="J5" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="121"/>
-      <c r="L5" s="145"/>
-      <c r="M5" s="123"/>
-      <c r="N5" s="127"/>
-      <c r="O5" s="135"/>
-      <c r="P5" s="135"/>
-      <c r="Q5" s="135"/>
-      <c r="R5" s="135"/>
-      <c r="S5" s="135"/>
-      <c r="T5" s="135"/>
-      <c r="U5" s="135"/>
-      <c r="V5" s="147"/>
+      <c r="K5" s="131"/>
+      <c r="L5" s="115"/>
+      <c r="M5" s="133"/>
+      <c r="N5" s="137"/>
+      <c r="O5" s="99"/>
+      <c r="P5" s="99"/>
+      <c r="Q5" s="99"/>
+      <c r="R5" s="99"/>
+      <c r="S5" s="99"/>
+      <c r="T5" s="99"/>
+      <c r="U5" s="99"/>
+      <c r="V5" s="104"/>
     </row>
     <row r="6" spans="1:22" s="64" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="75"/>
@@ -10006,11 +3622,11 @@
       <c r="M7" s="64"/>
     </row>
     <row r="8" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="108" t="s">
+      <c r="A8" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="109"/>
-      <c r="C8" s="110"/>
+      <c r="B8" s="119"/>
+      <c r="C8" s="120"/>
       <c r="D8" s="65"/>
       <c r="E8" s="65"/>
       <c r="F8" s="65"/>
@@ -10050,11 +3666,11 @@
       <c r="M11" s="66"/>
     </row>
     <row r="12" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="108" t="s">
+      <c r="A12" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="118"/>
-      <c r="C12" s="119"/>
+      <c r="B12" s="128"/>
+      <c r="C12" s="129"/>
       <c r="D12" s="68"/>
       <c r="E12" s="68"/>
       <c r="F12" s="68"/>
@@ -10078,34 +3694,34 @@
       <c r="V12" s="61"/>
     </row>
     <row r="13" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="132" t="s">
+      <c r="A13" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="130" t="s">
+      <c r="B13" s="140" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="131"/>
+      <c r="C13" s="141"/>
       <c r="M13" s="66"/>
-      <c r="N13" s="141" t="s">
+      <c r="N13" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="O13" s="142" t="s">
+      <c r="O13" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="P13" s="142" t="s">
+      <c r="P13" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="Q13" s="106" t="s">
+      <c r="Q13" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="R13" s="148"/>
-      <c r="S13" s="148"/>
-      <c r="T13" s="150"/>
-      <c r="U13" s="151"/>
-      <c r="V13" s="152"/>
+      <c r="R13" s="95"/>
+      <c r="S13" s="95"/>
+      <c r="T13" s="97"/>
+      <c r="U13" s="98"/>
+      <c r="V13" s="100"/>
     </row>
     <row r="14" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="133"/>
+      <c r="A14" s="143"/>
       <c r="B14" s="33" t="s">
         <v>33</v>
       </c>
@@ -10113,15 +3729,15 @@
         <v>23</v>
       </c>
       <c r="M14" s="66"/>
-      <c r="N14" s="97"/>
-      <c r="O14" s="143"/>
-      <c r="P14" s="143"/>
-      <c r="Q14" s="107"/>
-      <c r="R14" s="149"/>
-      <c r="S14" s="149"/>
-      <c r="T14" s="149"/>
-      <c r="U14" s="135"/>
-      <c r="V14" s="153"/>
+      <c r="N14" s="111"/>
+      <c r="O14" s="113"/>
+      <c r="P14" s="113"/>
+      <c r="Q14" s="117"/>
+      <c r="R14" s="96"/>
+      <c r="S14" s="96"/>
+      <c r="T14" s="96"/>
+      <c r="U14" s="99"/>
+      <c r="V14" s="101"/>
     </row>
     <row r="15" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="34"/>
@@ -10153,20 +3769,20 @@
       <c r="M16" s="74"/>
     </row>
     <row r="17" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="138" t="s">
+      <c r="A17" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="139"/>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="139"/>
-      <c r="F17" s="139"/>
-      <c r="G17" s="139"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="139"/>
-      <c r="J17" s="139"/>
-      <c r="K17" s="139"/>
-      <c r="L17" s="140"/>
+      <c r="B17" s="108"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="108"/>
+      <c r="H17" s="108"/>
+      <c r="I17" s="108"/>
+      <c r="J17" s="108"/>
+      <c r="K17" s="108"/>
+      <c r="L17" s="109"/>
       <c r="M17" s="73"/>
       <c r="N17" s="81" t="s">
         <v>32</v>
@@ -10181,48 +3797,48 @@
       <c r="V17" s="70"/>
     </row>
     <row r="18" spans="1:22" s="71" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="91" t="s">
+      <c r="A18" s="144" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="95" t="s">
+      <c r="B18" s="148" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="98" t="s">
+      <c r="C18" s="150" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="101"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="100" t="s">
+      <c r="D18" s="153"/>
+      <c r="E18" s="151"/>
+      <c r="F18" s="152" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="101"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="98" t="s">
+      <c r="G18" s="153"/>
+      <c r="H18" s="151"/>
+      <c r="I18" s="150" t="s">
         <v>44</v>
       </c>
-      <c r="J18" s="99"/>
-      <c r="K18" s="95" t="s">
+      <c r="J18" s="151"/>
+      <c r="K18" s="148" t="s">
         <v>0</v>
       </c>
-      <c r="L18" s="104" t="s">
+      <c r="L18" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="M18" s="102" t="s">
+      <c r="M18" s="154" t="s">
         <v>35</v>
       </c>
-      <c r="N18" s="93"/>
-      <c r="O18" s="154"/>
-      <c r="P18" s="154"/>
-      <c r="Q18" s="154"/>
-      <c r="R18" s="154"/>
-      <c r="S18" s="154"/>
-      <c r="T18" s="154"/>
-      <c r="U18" s="154"/>
-      <c r="V18" s="156"/>
+      <c r="N18" s="146"/>
+      <c r="O18" s="91"/>
+      <c r="P18" s="91"/>
+      <c r="Q18" s="91"/>
+      <c r="R18" s="91"/>
+      <c r="S18" s="91"/>
+      <c r="T18" s="91"/>
+      <c r="U18" s="91"/>
+      <c r="V18" s="93"/>
     </row>
     <row r="19" spans="1:22" s="71" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="92"/>
-      <c r="B19" s="96"/>
+      <c r="A19" s="145"/>
+      <c r="B19" s="149"/>
       <c r="C19" s="14" t="s">
         <v>20</v>
       </c>
@@ -10247,18 +3863,18 @@
       <c r="J19" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K19" s="97"/>
-      <c r="L19" s="105"/>
-      <c r="M19" s="103"/>
-      <c r="N19" s="94"/>
-      <c r="O19" s="155"/>
-      <c r="P19" s="155"/>
-      <c r="Q19" s="155"/>
-      <c r="R19" s="155"/>
-      <c r="S19" s="155"/>
-      <c r="T19" s="155"/>
-      <c r="U19" s="155"/>
-      <c r="V19" s="157"/>
+      <c r="K19" s="111"/>
+      <c r="L19" s="157"/>
+      <c r="M19" s="155"/>
+      <c r="N19" s="147"/>
+      <c r="O19" s="92"/>
+      <c r="P19" s="92"/>
+      <c r="Q19" s="92"/>
+      <c r="R19" s="92"/>
+      <c r="S19" s="92"/>
+      <c r="T19" s="92"/>
+      <c r="U19" s="92"/>
+      <c r="V19" s="94"/>
     </row>
     <row r="20" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="42"/>
@@ -12330,32 +5946,15 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="U18:U19"/>
-    <mergeCell ref="V18:V19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="S18:S19"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="V13:V14"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="L18:L19"/>
     <mergeCell ref="Q13:Q14"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="I4:J4"/>
@@ -12370,15 +5969,32 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="V13:V14"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="U18:U19"/>
+    <mergeCell ref="V18:V19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="S18:S19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12422,7 +6038,7 @@
       <c r="G1" s="158" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="144" t="s">
+      <c r="H1" s="114" t="s">
         <v>41</v>
       </c>
     </row>
@@ -18676,4 +12292,1022 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D49"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" style="202" customWidth="1"/>
+    <col min="2" max="2" width="79.85546875" style="169" customWidth="1"/>
+    <col min="3" max="3" width="41.42578125" style="169" customWidth="1"/>
+    <col min="4" max="4" width="99.28515625" style="169" customWidth="1"/>
+    <col min="5" max="256" width="9.140625" style="169"/>
+    <col min="257" max="257" width="27.42578125" style="169" customWidth="1"/>
+    <col min="258" max="258" width="79.85546875" style="169" customWidth="1"/>
+    <col min="259" max="259" width="41.42578125" style="169" customWidth="1"/>
+    <col min="260" max="260" width="99.28515625" style="169" customWidth="1"/>
+    <col min="261" max="512" width="9.140625" style="169"/>
+    <col min="513" max="513" width="27.42578125" style="169" customWidth="1"/>
+    <col min="514" max="514" width="79.85546875" style="169" customWidth="1"/>
+    <col min="515" max="515" width="41.42578125" style="169" customWidth="1"/>
+    <col min="516" max="516" width="99.28515625" style="169" customWidth="1"/>
+    <col min="517" max="768" width="9.140625" style="169"/>
+    <col min="769" max="769" width="27.42578125" style="169" customWidth="1"/>
+    <col min="770" max="770" width="79.85546875" style="169" customWidth="1"/>
+    <col min="771" max="771" width="41.42578125" style="169" customWidth="1"/>
+    <col min="772" max="772" width="99.28515625" style="169" customWidth="1"/>
+    <col min="773" max="1024" width="9.140625" style="169"/>
+    <col min="1025" max="1025" width="27.42578125" style="169" customWidth="1"/>
+    <col min="1026" max="1026" width="79.85546875" style="169" customWidth="1"/>
+    <col min="1027" max="1027" width="41.42578125" style="169" customWidth="1"/>
+    <col min="1028" max="1028" width="99.28515625" style="169" customWidth="1"/>
+    <col min="1029" max="1280" width="9.140625" style="169"/>
+    <col min="1281" max="1281" width="27.42578125" style="169" customWidth="1"/>
+    <col min="1282" max="1282" width="79.85546875" style="169" customWidth="1"/>
+    <col min="1283" max="1283" width="41.42578125" style="169" customWidth="1"/>
+    <col min="1284" max="1284" width="99.28515625" style="169" customWidth="1"/>
+    <col min="1285" max="1536" width="9.140625" style="169"/>
+    <col min="1537" max="1537" width="27.42578125" style="169" customWidth="1"/>
+    <col min="1538" max="1538" width="79.85546875" style="169" customWidth="1"/>
+    <col min="1539" max="1539" width="41.42578125" style="169" customWidth="1"/>
+    <col min="1540" max="1540" width="99.28515625" style="169" customWidth="1"/>
+    <col min="1541" max="1792" width="9.140625" style="169"/>
+    <col min="1793" max="1793" width="27.42578125" style="169" customWidth="1"/>
+    <col min="1794" max="1794" width="79.85546875" style="169" customWidth="1"/>
+    <col min="1795" max="1795" width="41.42578125" style="169" customWidth="1"/>
+    <col min="1796" max="1796" width="99.28515625" style="169" customWidth="1"/>
+    <col min="1797" max="2048" width="9.140625" style="169"/>
+    <col min="2049" max="2049" width="27.42578125" style="169" customWidth="1"/>
+    <col min="2050" max="2050" width="79.85546875" style="169" customWidth="1"/>
+    <col min="2051" max="2051" width="41.42578125" style="169" customWidth="1"/>
+    <col min="2052" max="2052" width="99.28515625" style="169" customWidth="1"/>
+    <col min="2053" max="2304" width="9.140625" style="169"/>
+    <col min="2305" max="2305" width="27.42578125" style="169" customWidth="1"/>
+    <col min="2306" max="2306" width="79.85546875" style="169" customWidth="1"/>
+    <col min="2307" max="2307" width="41.42578125" style="169" customWidth="1"/>
+    <col min="2308" max="2308" width="99.28515625" style="169" customWidth="1"/>
+    <col min="2309" max="2560" width="9.140625" style="169"/>
+    <col min="2561" max="2561" width="27.42578125" style="169" customWidth="1"/>
+    <col min="2562" max="2562" width="79.85546875" style="169" customWidth="1"/>
+    <col min="2563" max="2563" width="41.42578125" style="169" customWidth="1"/>
+    <col min="2564" max="2564" width="99.28515625" style="169" customWidth="1"/>
+    <col min="2565" max="2816" width="9.140625" style="169"/>
+    <col min="2817" max="2817" width="27.42578125" style="169" customWidth="1"/>
+    <col min="2818" max="2818" width="79.85546875" style="169" customWidth="1"/>
+    <col min="2819" max="2819" width="41.42578125" style="169" customWidth="1"/>
+    <col min="2820" max="2820" width="99.28515625" style="169" customWidth="1"/>
+    <col min="2821" max="3072" width="9.140625" style="169"/>
+    <col min="3073" max="3073" width="27.42578125" style="169" customWidth="1"/>
+    <col min="3074" max="3074" width="79.85546875" style="169" customWidth="1"/>
+    <col min="3075" max="3075" width="41.42578125" style="169" customWidth="1"/>
+    <col min="3076" max="3076" width="99.28515625" style="169" customWidth="1"/>
+    <col min="3077" max="3328" width="9.140625" style="169"/>
+    <col min="3329" max="3329" width="27.42578125" style="169" customWidth="1"/>
+    <col min="3330" max="3330" width="79.85546875" style="169" customWidth="1"/>
+    <col min="3331" max="3331" width="41.42578125" style="169" customWidth="1"/>
+    <col min="3332" max="3332" width="99.28515625" style="169" customWidth="1"/>
+    <col min="3333" max="3584" width="9.140625" style="169"/>
+    <col min="3585" max="3585" width="27.42578125" style="169" customWidth="1"/>
+    <col min="3586" max="3586" width="79.85546875" style="169" customWidth="1"/>
+    <col min="3587" max="3587" width="41.42578125" style="169" customWidth="1"/>
+    <col min="3588" max="3588" width="99.28515625" style="169" customWidth="1"/>
+    <col min="3589" max="3840" width="9.140625" style="169"/>
+    <col min="3841" max="3841" width="27.42578125" style="169" customWidth="1"/>
+    <col min="3842" max="3842" width="79.85546875" style="169" customWidth="1"/>
+    <col min="3843" max="3843" width="41.42578125" style="169" customWidth="1"/>
+    <col min="3844" max="3844" width="99.28515625" style="169" customWidth="1"/>
+    <col min="3845" max="4096" width="9.140625" style="169"/>
+    <col min="4097" max="4097" width="27.42578125" style="169" customWidth="1"/>
+    <col min="4098" max="4098" width="79.85546875" style="169" customWidth="1"/>
+    <col min="4099" max="4099" width="41.42578125" style="169" customWidth="1"/>
+    <col min="4100" max="4100" width="99.28515625" style="169" customWidth="1"/>
+    <col min="4101" max="4352" width="9.140625" style="169"/>
+    <col min="4353" max="4353" width="27.42578125" style="169" customWidth="1"/>
+    <col min="4354" max="4354" width="79.85546875" style="169" customWidth="1"/>
+    <col min="4355" max="4355" width="41.42578125" style="169" customWidth="1"/>
+    <col min="4356" max="4356" width="99.28515625" style="169" customWidth="1"/>
+    <col min="4357" max="4608" width="9.140625" style="169"/>
+    <col min="4609" max="4609" width="27.42578125" style="169" customWidth="1"/>
+    <col min="4610" max="4610" width="79.85546875" style="169" customWidth="1"/>
+    <col min="4611" max="4611" width="41.42578125" style="169" customWidth="1"/>
+    <col min="4612" max="4612" width="99.28515625" style="169" customWidth="1"/>
+    <col min="4613" max="4864" width="9.140625" style="169"/>
+    <col min="4865" max="4865" width="27.42578125" style="169" customWidth="1"/>
+    <col min="4866" max="4866" width="79.85546875" style="169" customWidth="1"/>
+    <col min="4867" max="4867" width="41.42578125" style="169" customWidth="1"/>
+    <col min="4868" max="4868" width="99.28515625" style="169" customWidth="1"/>
+    <col min="4869" max="5120" width="9.140625" style="169"/>
+    <col min="5121" max="5121" width="27.42578125" style="169" customWidth="1"/>
+    <col min="5122" max="5122" width="79.85546875" style="169" customWidth="1"/>
+    <col min="5123" max="5123" width="41.42578125" style="169" customWidth="1"/>
+    <col min="5124" max="5124" width="99.28515625" style="169" customWidth="1"/>
+    <col min="5125" max="5376" width="9.140625" style="169"/>
+    <col min="5377" max="5377" width="27.42578125" style="169" customWidth="1"/>
+    <col min="5378" max="5378" width="79.85546875" style="169" customWidth="1"/>
+    <col min="5379" max="5379" width="41.42578125" style="169" customWidth="1"/>
+    <col min="5380" max="5380" width="99.28515625" style="169" customWidth="1"/>
+    <col min="5381" max="5632" width="9.140625" style="169"/>
+    <col min="5633" max="5633" width="27.42578125" style="169" customWidth="1"/>
+    <col min="5634" max="5634" width="79.85546875" style="169" customWidth="1"/>
+    <col min="5635" max="5635" width="41.42578125" style="169" customWidth="1"/>
+    <col min="5636" max="5636" width="99.28515625" style="169" customWidth="1"/>
+    <col min="5637" max="5888" width="9.140625" style="169"/>
+    <col min="5889" max="5889" width="27.42578125" style="169" customWidth="1"/>
+    <col min="5890" max="5890" width="79.85546875" style="169" customWidth="1"/>
+    <col min="5891" max="5891" width="41.42578125" style="169" customWidth="1"/>
+    <col min="5892" max="5892" width="99.28515625" style="169" customWidth="1"/>
+    <col min="5893" max="6144" width="9.140625" style="169"/>
+    <col min="6145" max="6145" width="27.42578125" style="169" customWidth="1"/>
+    <col min="6146" max="6146" width="79.85546875" style="169" customWidth="1"/>
+    <col min="6147" max="6147" width="41.42578125" style="169" customWidth="1"/>
+    <col min="6148" max="6148" width="99.28515625" style="169" customWidth="1"/>
+    <col min="6149" max="6400" width="9.140625" style="169"/>
+    <col min="6401" max="6401" width="27.42578125" style="169" customWidth="1"/>
+    <col min="6402" max="6402" width="79.85546875" style="169" customWidth="1"/>
+    <col min="6403" max="6403" width="41.42578125" style="169" customWidth="1"/>
+    <col min="6404" max="6404" width="99.28515625" style="169" customWidth="1"/>
+    <col min="6405" max="6656" width="9.140625" style="169"/>
+    <col min="6657" max="6657" width="27.42578125" style="169" customWidth="1"/>
+    <col min="6658" max="6658" width="79.85546875" style="169" customWidth="1"/>
+    <col min="6659" max="6659" width="41.42578125" style="169" customWidth="1"/>
+    <col min="6660" max="6660" width="99.28515625" style="169" customWidth="1"/>
+    <col min="6661" max="6912" width="9.140625" style="169"/>
+    <col min="6913" max="6913" width="27.42578125" style="169" customWidth="1"/>
+    <col min="6914" max="6914" width="79.85546875" style="169" customWidth="1"/>
+    <col min="6915" max="6915" width="41.42578125" style="169" customWidth="1"/>
+    <col min="6916" max="6916" width="99.28515625" style="169" customWidth="1"/>
+    <col min="6917" max="7168" width="9.140625" style="169"/>
+    <col min="7169" max="7169" width="27.42578125" style="169" customWidth="1"/>
+    <col min="7170" max="7170" width="79.85546875" style="169" customWidth="1"/>
+    <col min="7171" max="7171" width="41.42578125" style="169" customWidth="1"/>
+    <col min="7172" max="7172" width="99.28515625" style="169" customWidth="1"/>
+    <col min="7173" max="7424" width="9.140625" style="169"/>
+    <col min="7425" max="7425" width="27.42578125" style="169" customWidth="1"/>
+    <col min="7426" max="7426" width="79.85546875" style="169" customWidth="1"/>
+    <col min="7427" max="7427" width="41.42578125" style="169" customWidth="1"/>
+    <col min="7428" max="7428" width="99.28515625" style="169" customWidth="1"/>
+    <col min="7429" max="7680" width="9.140625" style="169"/>
+    <col min="7681" max="7681" width="27.42578125" style="169" customWidth="1"/>
+    <col min="7682" max="7682" width="79.85546875" style="169" customWidth="1"/>
+    <col min="7683" max="7683" width="41.42578125" style="169" customWidth="1"/>
+    <col min="7684" max="7684" width="99.28515625" style="169" customWidth="1"/>
+    <col min="7685" max="7936" width="9.140625" style="169"/>
+    <col min="7937" max="7937" width="27.42578125" style="169" customWidth="1"/>
+    <col min="7938" max="7938" width="79.85546875" style="169" customWidth="1"/>
+    <col min="7939" max="7939" width="41.42578125" style="169" customWidth="1"/>
+    <col min="7940" max="7940" width="99.28515625" style="169" customWidth="1"/>
+    <col min="7941" max="8192" width="9.140625" style="169"/>
+    <col min="8193" max="8193" width="27.42578125" style="169" customWidth="1"/>
+    <col min="8194" max="8194" width="79.85546875" style="169" customWidth="1"/>
+    <col min="8195" max="8195" width="41.42578125" style="169" customWidth="1"/>
+    <col min="8196" max="8196" width="99.28515625" style="169" customWidth="1"/>
+    <col min="8197" max="8448" width="9.140625" style="169"/>
+    <col min="8449" max="8449" width="27.42578125" style="169" customWidth="1"/>
+    <col min="8450" max="8450" width="79.85546875" style="169" customWidth="1"/>
+    <col min="8451" max="8451" width="41.42578125" style="169" customWidth="1"/>
+    <col min="8452" max="8452" width="99.28515625" style="169" customWidth="1"/>
+    <col min="8453" max="8704" width="9.140625" style="169"/>
+    <col min="8705" max="8705" width="27.42578125" style="169" customWidth="1"/>
+    <col min="8706" max="8706" width="79.85546875" style="169" customWidth="1"/>
+    <col min="8707" max="8707" width="41.42578125" style="169" customWidth="1"/>
+    <col min="8708" max="8708" width="99.28515625" style="169" customWidth="1"/>
+    <col min="8709" max="8960" width="9.140625" style="169"/>
+    <col min="8961" max="8961" width="27.42578125" style="169" customWidth="1"/>
+    <col min="8962" max="8962" width="79.85546875" style="169" customWidth="1"/>
+    <col min="8963" max="8963" width="41.42578125" style="169" customWidth="1"/>
+    <col min="8964" max="8964" width="99.28515625" style="169" customWidth="1"/>
+    <col min="8965" max="9216" width="9.140625" style="169"/>
+    <col min="9217" max="9217" width="27.42578125" style="169" customWidth="1"/>
+    <col min="9218" max="9218" width="79.85546875" style="169" customWidth="1"/>
+    <col min="9219" max="9219" width="41.42578125" style="169" customWidth="1"/>
+    <col min="9220" max="9220" width="99.28515625" style="169" customWidth="1"/>
+    <col min="9221" max="9472" width="9.140625" style="169"/>
+    <col min="9473" max="9473" width="27.42578125" style="169" customWidth="1"/>
+    <col min="9474" max="9474" width="79.85546875" style="169" customWidth="1"/>
+    <col min="9475" max="9475" width="41.42578125" style="169" customWidth="1"/>
+    <col min="9476" max="9476" width="99.28515625" style="169" customWidth="1"/>
+    <col min="9477" max="9728" width="9.140625" style="169"/>
+    <col min="9729" max="9729" width="27.42578125" style="169" customWidth="1"/>
+    <col min="9730" max="9730" width="79.85546875" style="169" customWidth="1"/>
+    <col min="9731" max="9731" width="41.42578125" style="169" customWidth="1"/>
+    <col min="9732" max="9732" width="99.28515625" style="169" customWidth="1"/>
+    <col min="9733" max="9984" width="9.140625" style="169"/>
+    <col min="9985" max="9985" width="27.42578125" style="169" customWidth="1"/>
+    <col min="9986" max="9986" width="79.85546875" style="169" customWidth="1"/>
+    <col min="9987" max="9987" width="41.42578125" style="169" customWidth="1"/>
+    <col min="9988" max="9988" width="99.28515625" style="169" customWidth="1"/>
+    <col min="9989" max="10240" width="9.140625" style="169"/>
+    <col min="10241" max="10241" width="27.42578125" style="169" customWidth="1"/>
+    <col min="10242" max="10242" width="79.85546875" style="169" customWidth="1"/>
+    <col min="10243" max="10243" width="41.42578125" style="169" customWidth="1"/>
+    <col min="10244" max="10244" width="99.28515625" style="169" customWidth="1"/>
+    <col min="10245" max="10496" width="9.140625" style="169"/>
+    <col min="10497" max="10497" width="27.42578125" style="169" customWidth="1"/>
+    <col min="10498" max="10498" width="79.85546875" style="169" customWidth="1"/>
+    <col min="10499" max="10499" width="41.42578125" style="169" customWidth="1"/>
+    <col min="10500" max="10500" width="99.28515625" style="169" customWidth="1"/>
+    <col min="10501" max="10752" width="9.140625" style="169"/>
+    <col min="10753" max="10753" width="27.42578125" style="169" customWidth="1"/>
+    <col min="10754" max="10754" width="79.85546875" style="169" customWidth="1"/>
+    <col min="10755" max="10755" width="41.42578125" style="169" customWidth="1"/>
+    <col min="10756" max="10756" width="99.28515625" style="169" customWidth="1"/>
+    <col min="10757" max="11008" width="9.140625" style="169"/>
+    <col min="11009" max="11009" width="27.42578125" style="169" customWidth="1"/>
+    <col min="11010" max="11010" width="79.85546875" style="169" customWidth="1"/>
+    <col min="11011" max="11011" width="41.42578125" style="169" customWidth="1"/>
+    <col min="11012" max="11012" width="99.28515625" style="169" customWidth="1"/>
+    <col min="11013" max="11264" width="9.140625" style="169"/>
+    <col min="11265" max="11265" width="27.42578125" style="169" customWidth="1"/>
+    <col min="11266" max="11266" width="79.85546875" style="169" customWidth="1"/>
+    <col min="11267" max="11267" width="41.42578125" style="169" customWidth="1"/>
+    <col min="11268" max="11268" width="99.28515625" style="169" customWidth="1"/>
+    <col min="11269" max="11520" width="9.140625" style="169"/>
+    <col min="11521" max="11521" width="27.42578125" style="169" customWidth="1"/>
+    <col min="11522" max="11522" width="79.85546875" style="169" customWidth="1"/>
+    <col min="11523" max="11523" width="41.42578125" style="169" customWidth="1"/>
+    <col min="11524" max="11524" width="99.28515625" style="169" customWidth="1"/>
+    <col min="11525" max="11776" width="9.140625" style="169"/>
+    <col min="11777" max="11777" width="27.42578125" style="169" customWidth="1"/>
+    <col min="11778" max="11778" width="79.85546875" style="169" customWidth="1"/>
+    <col min="11779" max="11779" width="41.42578125" style="169" customWidth="1"/>
+    <col min="11780" max="11780" width="99.28515625" style="169" customWidth="1"/>
+    <col min="11781" max="12032" width="9.140625" style="169"/>
+    <col min="12033" max="12033" width="27.42578125" style="169" customWidth="1"/>
+    <col min="12034" max="12034" width="79.85546875" style="169" customWidth="1"/>
+    <col min="12035" max="12035" width="41.42578125" style="169" customWidth="1"/>
+    <col min="12036" max="12036" width="99.28515625" style="169" customWidth="1"/>
+    <col min="12037" max="12288" width="9.140625" style="169"/>
+    <col min="12289" max="12289" width="27.42578125" style="169" customWidth="1"/>
+    <col min="12290" max="12290" width="79.85546875" style="169" customWidth="1"/>
+    <col min="12291" max="12291" width="41.42578125" style="169" customWidth="1"/>
+    <col min="12292" max="12292" width="99.28515625" style="169" customWidth="1"/>
+    <col min="12293" max="12544" width="9.140625" style="169"/>
+    <col min="12545" max="12545" width="27.42578125" style="169" customWidth="1"/>
+    <col min="12546" max="12546" width="79.85546875" style="169" customWidth="1"/>
+    <col min="12547" max="12547" width="41.42578125" style="169" customWidth="1"/>
+    <col min="12548" max="12548" width="99.28515625" style="169" customWidth="1"/>
+    <col min="12549" max="12800" width="9.140625" style="169"/>
+    <col min="12801" max="12801" width="27.42578125" style="169" customWidth="1"/>
+    <col min="12802" max="12802" width="79.85546875" style="169" customWidth="1"/>
+    <col min="12803" max="12803" width="41.42578125" style="169" customWidth="1"/>
+    <col min="12804" max="12804" width="99.28515625" style="169" customWidth="1"/>
+    <col min="12805" max="13056" width="9.140625" style="169"/>
+    <col min="13057" max="13057" width="27.42578125" style="169" customWidth="1"/>
+    <col min="13058" max="13058" width="79.85546875" style="169" customWidth="1"/>
+    <col min="13059" max="13059" width="41.42578125" style="169" customWidth="1"/>
+    <col min="13060" max="13060" width="99.28515625" style="169" customWidth="1"/>
+    <col min="13061" max="13312" width="9.140625" style="169"/>
+    <col min="13313" max="13313" width="27.42578125" style="169" customWidth="1"/>
+    <col min="13314" max="13314" width="79.85546875" style="169" customWidth="1"/>
+    <col min="13315" max="13315" width="41.42578125" style="169" customWidth="1"/>
+    <col min="13316" max="13316" width="99.28515625" style="169" customWidth="1"/>
+    <col min="13317" max="13568" width="9.140625" style="169"/>
+    <col min="13569" max="13569" width="27.42578125" style="169" customWidth="1"/>
+    <col min="13570" max="13570" width="79.85546875" style="169" customWidth="1"/>
+    <col min="13571" max="13571" width="41.42578125" style="169" customWidth="1"/>
+    <col min="13572" max="13572" width="99.28515625" style="169" customWidth="1"/>
+    <col min="13573" max="13824" width="9.140625" style="169"/>
+    <col min="13825" max="13825" width="27.42578125" style="169" customWidth="1"/>
+    <col min="13826" max="13826" width="79.85546875" style="169" customWidth="1"/>
+    <col min="13827" max="13827" width="41.42578125" style="169" customWidth="1"/>
+    <col min="13828" max="13828" width="99.28515625" style="169" customWidth="1"/>
+    <col min="13829" max="14080" width="9.140625" style="169"/>
+    <col min="14081" max="14081" width="27.42578125" style="169" customWidth="1"/>
+    <col min="14082" max="14082" width="79.85546875" style="169" customWidth="1"/>
+    <col min="14083" max="14083" width="41.42578125" style="169" customWidth="1"/>
+    <col min="14084" max="14084" width="99.28515625" style="169" customWidth="1"/>
+    <col min="14085" max="14336" width="9.140625" style="169"/>
+    <col min="14337" max="14337" width="27.42578125" style="169" customWidth="1"/>
+    <col min="14338" max="14338" width="79.85546875" style="169" customWidth="1"/>
+    <col min="14339" max="14339" width="41.42578125" style="169" customWidth="1"/>
+    <col min="14340" max="14340" width="99.28515625" style="169" customWidth="1"/>
+    <col min="14341" max="14592" width="9.140625" style="169"/>
+    <col min="14593" max="14593" width="27.42578125" style="169" customWidth="1"/>
+    <col min="14594" max="14594" width="79.85546875" style="169" customWidth="1"/>
+    <col min="14595" max="14595" width="41.42578125" style="169" customWidth="1"/>
+    <col min="14596" max="14596" width="99.28515625" style="169" customWidth="1"/>
+    <col min="14597" max="14848" width="9.140625" style="169"/>
+    <col min="14849" max="14849" width="27.42578125" style="169" customWidth="1"/>
+    <col min="14850" max="14850" width="79.85546875" style="169" customWidth="1"/>
+    <col min="14851" max="14851" width="41.42578125" style="169" customWidth="1"/>
+    <col min="14852" max="14852" width="99.28515625" style="169" customWidth="1"/>
+    <col min="14853" max="15104" width="9.140625" style="169"/>
+    <col min="15105" max="15105" width="27.42578125" style="169" customWidth="1"/>
+    <col min="15106" max="15106" width="79.85546875" style="169" customWidth="1"/>
+    <col min="15107" max="15107" width="41.42578125" style="169" customWidth="1"/>
+    <col min="15108" max="15108" width="99.28515625" style="169" customWidth="1"/>
+    <col min="15109" max="15360" width="9.140625" style="169"/>
+    <col min="15361" max="15361" width="27.42578125" style="169" customWidth="1"/>
+    <col min="15362" max="15362" width="79.85546875" style="169" customWidth="1"/>
+    <col min="15363" max="15363" width="41.42578125" style="169" customWidth="1"/>
+    <col min="15364" max="15364" width="99.28515625" style="169" customWidth="1"/>
+    <col min="15365" max="15616" width="9.140625" style="169"/>
+    <col min="15617" max="15617" width="27.42578125" style="169" customWidth="1"/>
+    <col min="15618" max="15618" width="79.85546875" style="169" customWidth="1"/>
+    <col min="15619" max="15619" width="41.42578125" style="169" customWidth="1"/>
+    <col min="15620" max="15620" width="99.28515625" style="169" customWidth="1"/>
+    <col min="15621" max="15872" width="9.140625" style="169"/>
+    <col min="15873" max="15873" width="27.42578125" style="169" customWidth="1"/>
+    <col min="15874" max="15874" width="79.85546875" style="169" customWidth="1"/>
+    <col min="15875" max="15875" width="41.42578125" style="169" customWidth="1"/>
+    <col min="15876" max="15876" width="99.28515625" style="169" customWidth="1"/>
+    <col min="15877" max="16128" width="9.140625" style="169"/>
+    <col min="16129" max="16129" width="27.42578125" style="169" customWidth="1"/>
+    <col min="16130" max="16130" width="79.85546875" style="169" customWidth="1"/>
+    <col min="16131" max="16131" width="41.42578125" style="169" customWidth="1"/>
+    <col min="16132" max="16132" width="99.28515625" style="169" customWidth="1"/>
+    <col min="16133" max="16384" width="9.140625" style="169"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="165" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="166" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="167" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="168" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="170" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="166" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="171" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="172" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="170" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="166" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="171" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="172" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="173" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="166" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="174" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="172" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="175" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="166" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="176" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="172" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="175" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="166" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="176" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="172" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="177" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="178" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="179" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="172" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="177" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="178" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="179" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="172" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="180" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="178" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="181" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="172" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="180" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="178" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="181" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="172" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="180" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="178" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="181" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="172" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="180" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="178" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="181" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="172" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="177" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="178" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="179" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="172" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="180" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" s="178" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="181" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="172" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="177" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="178" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="179" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" s="172" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="177" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="178" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="179" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="172" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="177" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="178" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="179" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="172" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="177" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="178" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="179" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="172" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="180" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" s="178" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" s="181" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" s="172" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="180" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" s="178" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="181" t="s">
+        <v>128</v>
+      </c>
+      <c r="D20" s="172" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="180" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21" s="178" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" s="181" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21" s="172" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="182" t="s">
+        <v>134</v>
+      </c>
+      <c r="B22" s="183" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="184" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" s="172" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="182" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23" s="183" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" s="184" t="s">
+        <v>140</v>
+      </c>
+      <c r="D23" s="172" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="182" t="s">
+        <v>142</v>
+      </c>
+      <c r="B24" s="183" t="s">
+        <v>143</v>
+      </c>
+      <c r="C24" s="184" t="s">
+        <v>144</v>
+      </c>
+      <c r="D24" s="172" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="188" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="185" t="s">
+        <v>146</v>
+      </c>
+      <c r="B25" s="186" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" s="187" t="s">
+        <v>148</v>
+      </c>
+      <c r="D25" s="172" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="188" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="185" t="s">
+        <v>150</v>
+      </c>
+      <c r="B26" s="186" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" s="187" t="s">
+        <v>152</v>
+      </c>
+      <c r="D26" s="172" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="188" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="185" t="s">
+        <v>154</v>
+      </c>
+      <c r="B27" s="186" t="s">
+        <v>155</v>
+      </c>
+      <c r="C27" s="187" t="s">
+        <v>156</v>
+      </c>
+      <c r="D27" s="172" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="188" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="185" t="s">
+        <v>158</v>
+      </c>
+      <c r="B28" s="186" t="s">
+        <v>159</v>
+      </c>
+      <c r="C28" s="187" t="s">
+        <v>160</v>
+      </c>
+      <c r="D28" s="172" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="188" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="185" t="s">
+        <v>162</v>
+      </c>
+      <c r="B29" s="186" t="s">
+        <v>163</v>
+      </c>
+      <c r="C29" s="187" t="s">
+        <v>164</v>
+      </c>
+      <c r="D29" s="172" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="188" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="189" t="s">
+        <v>166</v>
+      </c>
+      <c r="B30" s="186" t="s">
+        <v>167</v>
+      </c>
+      <c r="C30" s="190" t="s">
+        <v>168</v>
+      </c>
+      <c r="D30" s="172" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="188" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="185" t="s">
+        <v>170</v>
+      </c>
+      <c r="B31" s="186" t="s">
+        <v>171</v>
+      </c>
+      <c r="C31" s="187" t="s">
+        <v>172</v>
+      </c>
+      <c r="D31" s="172" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="188" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="189" t="s">
+        <v>174</v>
+      </c>
+      <c r="B32" s="186" t="s">
+        <v>175</v>
+      </c>
+      <c r="C32" s="190" t="s">
+        <v>176</v>
+      </c>
+      <c r="D32" s="172" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="188" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="185" t="s">
+        <v>178</v>
+      </c>
+      <c r="B33" s="186" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="187" t="s">
+        <v>179</v>
+      </c>
+      <c r="D33" s="172" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="188" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="185" t="s">
+        <v>180</v>
+      </c>
+      <c r="B34" s="186" t="s">
+        <v>181</v>
+      </c>
+      <c r="C34" s="187" t="s">
+        <v>182</v>
+      </c>
+      <c r="D34" s="172" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="188" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="185" t="s">
+        <v>184</v>
+      </c>
+      <c r="B35" s="186" t="s">
+        <v>185</v>
+      </c>
+      <c r="C35" s="187" t="s">
+        <v>186</v>
+      </c>
+      <c r="D35" s="172" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="188" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="185" t="s">
+        <v>188</v>
+      </c>
+      <c r="B36" s="186" t="s">
+        <v>189</v>
+      </c>
+      <c r="C36" s="187" t="s">
+        <v>190</v>
+      </c>
+      <c r="D36" s="172" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="188" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="B37" s="186" t="s">
+        <v>193</v>
+      </c>
+      <c r="C37" s="187" t="s">
+        <v>194</v>
+      </c>
+      <c r="D37" s="172" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="188" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="185" t="s">
+        <v>196</v>
+      </c>
+      <c r="B38" s="186" t="s">
+        <v>197</v>
+      </c>
+      <c r="C38" s="187" t="s">
+        <v>198</v>
+      </c>
+      <c r="D38" s="172" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" s="188" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="185" t="s">
+        <v>200</v>
+      </c>
+      <c r="B39" s="186" t="s">
+        <v>201</v>
+      </c>
+      <c r="C39" s="187" t="s">
+        <v>202</v>
+      </c>
+      <c r="D39" s="172" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="191" t="s">
+        <v>204</v>
+      </c>
+      <c r="B40" s="192" t="s">
+        <v>205</v>
+      </c>
+      <c r="C40" s="193" t="s">
+        <v>206</v>
+      </c>
+      <c r="D40" s="172" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="191" t="s">
+        <v>208</v>
+      </c>
+      <c r="B41" s="192" t="s">
+        <v>209</v>
+      </c>
+      <c r="C41" s="193" t="s">
+        <v>210</v>
+      </c>
+      <c r="D41" s="172" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="191" t="s">
+        <v>212</v>
+      </c>
+      <c r="B42" s="192" t="s">
+        <v>213</v>
+      </c>
+      <c r="C42" s="193" t="s">
+        <v>214</v>
+      </c>
+      <c r="D42" s="172" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="194" t="s">
+        <v>216</v>
+      </c>
+      <c r="B43" s="195" t="s">
+        <v>217</v>
+      </c>
+      <c r="C43" s="196" t="s">
+        <v>218</v>
+      </c>
+      <c r="D43" s="197" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" s="188" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="198" t="s">
+        <v>220</v>
+      </c>
+      <c r="B44" s="195" t="s">
+        <v>221</v>
+      </c>
+      <c r="C44" s="196" t="s">
+        <v>222</v>
+      </c>
+      <c r="D44" s="197" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" s="188" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="199"/>
+      <c r="B45" s="200" t="s">
+        <v>224</v>
+      </c>
+      <c r="C45" s="196"/>
+      <c r="D45" s="197" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="201" t="s">
+        <v>226</v>
+      </c>
+      <c r="B46" s="195" t="s">
+        <v>227</v>
+      </c>
+      <c r="C46" s="196" t="s">
+        <v>228</v>
+      </c>
+      <c r="D46" s="197" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="201" t="s">
+        <v>230</v>
+      </c>
+      <c r="B47" s="195" t="s">
+        <v>231</v>
+      </c>
+      <c r="C47" s="196" t="s">
+        <v>232</v>
+      </c>
+      <c r="D47" s="197" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="201" t="s">
+        <v>234</v>
+      </c>
+      <c r="B48" s="195" t="s">
+        <v>235</v>
+      </c>
+      <c r="C48" s="196" t="s">
+        <v>236</v>
+      </c>
+      <c r="D48" s="197" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="201" t="s">
+        <v>238</v>
+      </c>
+      <c r="B49" s="195" t="s">
+        <v>239</v>
+      </c>
+      <c r="C49" s="196" t="s">
+        <v>240</v>
+      </c>
+      <c r="D49" s="197" t="s">
+        <v>241</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/BfR_Format_Backtrace.xlsx
+++ b/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/BfR_Format_Backtrace.xlsx
@@ -12,7 +12,6 @@
     <sheet name="Opt_ForwardTracing" sheetId="1" r:id="rId3"/>
     <sheet name="LookUp" sheetId="3" r:id="rId4"/>
     <sheet name="Help" sheetId="6" r:id="rId5"/>
-    <sheet name="DataDictionary" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Stations!$A$1:$J$8</definedName>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
   <si>
     <t>Supplier</t>
   </si>
@@ -180,592 +179,6 @@
   </si>
   <si>
     <t>IMMER PFLICHT!!! Falls nicht bekannt, dann bitte eines ausdenken!</t>
-  </si>
-  <si>
-    <t>Serial_number</t>
-  </si>
-  <si>
-    <t>Unique Identifier of your entry in the table for use in case of later queries. Identification with abbreviation and serial number (e.g. AAW1).</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <r>
-      <t>Eindeutige</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Bezeichnung (darf nicht mehrfach vorkommen) Ihrer Eintragung in der Tabelle für Rückfragen. Identifikation laufender Nummer (z. B. 1 ff.). Bitte die lfd. Nummer fortführen. </t>
-    </r>
-  </si>
-  <si>
-    <t>Contact_Region</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notifying member state </t>
-  </si>
-  <si>
-    <t>Kontakt_Region</t>
-  </si>
-  <si>
-    <t>Meldendes Land.</t>
-  </si>
-  <si>
-    <t>Contact_person</t>
-  </si>
-  <si>
-    <t>Name and telephone and/or e-mail address for the contact person in case of urgent on-site queries (inspector)</t>
-  </si>
-  <si>
-    <t>Kontakt_Person</t>
-  </si>
-  <si>
-    <t>Name und Telefon und/oder e-mail Addresse der Kontaktperson im Falle von eiligen Nachfragen (Prüfer).</t>
-  </si>
-  <si>
-    <t>ID_Receiver</t>
-  </si>
-  <si>
-    <t>Unique identifier for businesses included in the traceback exercise. The excel formula should provide this value when you select from the drop down list in the Address Receiver column</t>
-  </si>
-  <si>
-    <t>ID_Empfänger</t>
-  </si>
-  <si>
-    <t>Eindeutige Bezeichnung für Unternehmen. Die hinterlegte Excel Formel sollte diesen Wert anbieten, wenn Sie das Unternehmen in der Drop-Down Liste der Spalte Adresse_Empfänger auswählen.</t>
-  </si>
-  <si>
-    <t>Address_Receiver</t>
-  </si>
-  <si>
-    <t>Name, Address and Country  of the receiver business (Customer/ Destination/ Purchaser of the product from the business inspected ).  Please select this from the drop down list. If the business cannot be found in the list please add a new row in the Business_List worksheet, it should now appear in the drop down list for selection. In the Business_List sheet please try to ensure the information is complete including business registration/ VAT number.</t>
-  </si>
-  <si>
-    <t>Adresse_Empfänger</t>
-  </si>
-  <si>
-    <t>Name, Adresse und Land des Empfängerunternehmens (Abnehmer/ Bestimmungsort/ Auftraggeber des Produktes vom kontrollierten Unternehmen). Bitte aus der Drop-Down Liste auswählen. Sollte das Unternehmen nicht in der Liste zu finden sein, fügen Sie bitte in dem Arbeitsblatt "Business_List" eine neue Zeile ein. Das Unternehmen sollte jetzt in der drop down Liste im Arbeitsblatt "Transactions" erscheinen. Bitte stellen Sie sicher, dass in der Liste der Unternehmen (Arbeitsblatt "Business_List") die Informationen vollständig sind inkl. Straße, Postleitzahl, Handelsregisternummer/ Steuernummer.</t>
-  </si>
-  <si>
-    <t>Activity_Receiver</t>
-  </si>
-  <si>
-    <t>Select the type of activity for the reciever business from the drop down list</t>
-  </si>
-  <si>
-    <t>Tätigkeit_Empfänger</t>
-  </si>
-  <si>
-    <t>Wählen Sie die Tätigkeit des Empfängers in diesem Warenstrom aus der Drop-Down Liste aus.</t>
-  </si>
-  <si>
-    <t>ProductName_Out</t>
-  </si>
-  <si>
-    <t>Name of the product which was delivered by the business inspected to the receiver business . It is important that the name of the product as printed on the product carton or in the invoice and sent to the receiver address is reported here.</t>
-  </si>
-  <si>
-    <t>ProduktName_Raus</t>
-  </si>
-  <si>
-    <t>Bezeichnung des Produktes das vom kontrollierten Unternehmen an den Empfänger geliefert wurde. Es ist wichtig die Produktbezeichnung so zu nennen, wie sie auf der Kennzeichnung der Umverpackung oder dem Lieferschein zum Warenausgang verwendet ist.</t>
-  </si>
-  <si>
-    <t>ProductNo_Out</t>
-  </si>
-  <si>
-    <t>Product identifier number for the product delivered from the business inspected to the receiver business. This should uniquely identify the type of product from the product catalogue of the business inspected</t>
-  </si>
-  <si>
-    <t>ProduktNr_Raus</t>
-  </si>
-  <si>
-    <t>Produktidentifikationsnummer für das Produkt das vom kontrollierten Unternehmen an den Empfänger geliefert wurde. Diese sollte das Produkt im Produktkatalog des kontrollierten Unternehmens eindeutig identifizieren.</t>
-  </si>
-  <si>
-    <t>Day_To_Receiver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Day of arrival or delivery date of the product to the receiver business </t>
-  </si>
-  <si>
-    <t>Tag_an_Empfänger</t>
-  </si>
-  <si>
-    <t>Tag der Ankunft oder Lieferdatum des Produktes beim Empfängerunternehmen.</t>
-  </si>
-  <si>
-    <t>Month_To_Receiver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Month of arrival or delivery date of the product to the receiver business </t>
-  </si>
-  <si>
-    <t>Monat_an_Empfänger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monat der Ankunft oder Lieferdatum des Produktes beim Empfängerunternehmen. </t>
-  </si>
-  <si>
-    <t>Year_To_Receiver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Year of arrival or delivery date of the product to the receiver business </t>
-  </si>
-  <si>
-    <t>Jahr_an_Empfänger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jahr der Ankunft oder Lieferdatum des Produktes beim Empfängerunternehmen. </t>
-  </si>
-  <si>
-    <t>Amount_KG_Out</t>
-  </si>
-  <si>
-    <t>Report the total weight in kilograms of the product sent to the receiver by the business inspected</t>
-  </si>
-  <si>
-    <t>Menge_Kg_Raus</t>
-  </si>
-  <si>
-    <t>Mitteilung der Gesamtmenge in kg des Produktes das vom kontrollierten Unternehmen an den Empfänger versendet wurde.</t>
-  </si>
-  <si>
-    <t>Type_PU_Out</t>
-  </si>
-  <si>
-    <t>Select the type of packing unit used to send the product to the receiver by the business inspected</t>
-  </si>
-  <si>
-    <t>Art_VPE_Raus</t>
-  </si>
-  <si>
-    <t>Wählen Sie die Art der Verpackungseinheit aus, die zur Versendung vom kontrollierten Unternehmen an den Empfänger verwendet wurde.</t>
-  </si>
-  <si>
-    <t>No_PU_Out</t>
-  </si>
-  <si>
-    <t>Enter the number of packing units used to send the product to the receiver by the business inspected</t>
-  </si>
-  <si>
-    <t>Anzahl_VPE_Raus</t>
-  </si>
-  <si>
-    <t>Geben Sie die Anzahl der Verpackungseinheiten an, die vom kontrollierten Unternehmen an den Empfänger versendet wurde.</t>
-  </si>
-  <si>
-    <t>LotNo_Out</t>
-  </si>
-  <si>
-    <t>Unique identifier of consignment (lot number, batch number, order number). This will be used to track the product in the supply chain. Where possible include copies of shipping labels, invoices etc with the completed excel sheet</t>
-  </si>
-  <si>
-    <t>LosNr_Raus</t>
-  </si>
-  <si>
-    <t>Eindeutige Bezeichnung der Lieferung (Losnummer/ Chargennummer/ Auftragsnummer). Diese wird zur Rückverfolgung des Produktes in der Lieferkette verwendet. Wo möglich fügen Sie Kopien von Versandetiketten, Lieferpapieren usw. der ausgefüllten Exceltabelle bei.</t>
-  </si>
-  <si>
-    <t>Day_Expiry_Out</t>
-  </si>
-  <si>
-    <t>Day of the Expiration date or Best Before date of the outbound product</t>
-  </si>
-  <si>
-    <t>Tag_Verfall_Raus</t>
-  </si>
-  <si>
-    <t>Tag des Verfallsdatums oder Mindesthalbarkeitsdatums des abgehenden Produktes.</t>
-  </si>
-  <si>
-    <t>Month_Expiry_Out</t>
-  </si>
-  <si>
-    <t>Month of the Expiration date or Best Before date of the outbound product</t>
-  </si>
-  <si>
-    <t>Monat_Verfall_Raus</t>
-  </si>
-  <si>
-    <t>Monat des Verfallsdatums oder Mindesthalbarkeitsdatums des abgehenden Produktes.</t>
-  </si>
-  <si>
-    <t>Year_Expiry_Out</t>
-  </si>
-  <si>
-    <t>Year of the Expiration date or Best Before date of the outbound product</t>
-  </si>
-  <si>
-    <t>Jahr_Verfall_Raus</t>
-  </si>
-  <si>
-    <t>Jahr des Verfallsdatums oder Mindesthalbarkeitsdatums des abgehenden Produktes.</t>
-  </si>
-  <si>
-    <t>Day_Prod_Out</t>
-  </si>
-  <si>
-    <t>Day of production for the outbound product</t>
-  </si>
-  <si>
-    <t>Tag_Prod_Raus</t>
-  </si>
-  <si>
-    <t>Tag der Produktion des abgehenden Produktes.</t>
-  </si>
-  <si>
-    <t>Month_Prod_Out</t>
-  </si>
-  <si>
-    <t>Month of production for the outbound product</t>
-  </si>
-  <si>
-    <t>Monat_Prod_Raus</t>
-  </si>
-  <si>
-    <t>Monat der Produktion des abgehenden Produktes</t>
-  </si>
-  <si>
-    <t>Year_Prod_Out</t>
-  </si>
-  <si>
-    <t>Year of production for the outbound product</t>
-  </si>
-  <si>
-    <t>Jahr_Prod_Raus</t>
-  </si>
-  <si>
-    <t>Jahr der Produktion des abgehenden Produktes.</t>
-  </si>
-  <si>
-    <t>ID_BusinessInspected</t>
-  </si>
-  <si>
-    <t>Unique identifer for businesses included in the traceback exercise. The excel formula should provide this value when you select from the drop down list in the Address BusinessInspected column</t>
-  </si>
-  <si>
-    <t>ID_kontrolliertes Unternehmen</t>
-  </si>
-  <si>
-    <t>ID Nummer laut Tabellenblatt Liste_Unternehmen (Arbeitsblatt "Business_List").</t>
-  </si>
-  <si>
-    <t>Address_BusinessInspected</t>
-  </si>
-  <si>
-    <t>Name, Address and Country of the Business Inspected.  Please select this from the drop down list. If the business cannot be found in the list please add a new row in the Business_List worksheet, it should now appear in the drop down list for selection. In the Business_List sheet please try to ensure the information is complete including business registration/ VAT number.</t>
-  </si>
-  <si>
-    <t>Adresse_kontrolliertes Unternehmen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name, Adresse und Land des kontrollierten Unternehmens entsprechend der Liste_Unternehmen (Arbeitsblatt "Business_List"). Bei fehlenden Angaben bitte neue Zeilen in der Liste_Unternehmen einfügen. Bitte vollständige Angaben (auch Handelsregisternummer/ Steuernummer) eintragen. Der Eintrag sollte dann in der Drop-Down Liste im Arbeitsblatt "Transactions" erscheinen. </t>
-  </si>
-  <si>
-    <t>Activity_BusinessInspected</t>
-  </si>
-  <si>
-    <t>Select the type of activity for the  Business  Inspected from the drop down list</t>
-  </si>
-  <si>
-    <t>Tätigkeit_kontrolliertes Unternehmen</t>
-  </si>
-  <si>
-    <t>Auswahl über Drop-Down Liste. Bitte wählen Sie die Tätigkeit aus, die für die Ware zutrifft.</t>
-  </si>
-  <si>
-    <t>ProductName_In</t>
-  </si>
-  <si>
-    <t>Name of the product which was delivered to the business inspected by the supplier business. It is important that the name of the product as printed on the product carton or in the invoice and sent to the business inspected address is reported here.</t>
-  </si>
-  <si>
-    <t>Produktname_Rein</t>
-  </si>
-  <si>
-    <t>Name des Produktes, welches vom Zulieferer an das kontrollierte Unternehmen geliefert wurde. Wichtig: Hier bitte die Namensangabe vom Karton oder der Rechnung verwenden.</t>
-  </si>
-  <si>
-    <t>ProductNo_In</t>
-  </si>
-  <si>
-    <t>Product identifier number for the product delivered by the business inspected from the supplier business. This should uniquely identify the type of product from the product catalogue of the supplier</t>
-  </si>
-  <si>
-    <t>ProduktNr_Rein</t>
-  </si>
-  <si>
-    <t>Produktidentifikationsnummer für das Produkt das vom Zulieferer an das kontrollierte Unternehmen geliefert wurde. Diese sollte das Produkt im Produktkatalog des Zulieferers eindeutig identifizieren.</t>
-  </si>
-  <si>
-    <t>Day_From_Supplier</t>
-  </si>
-  <si>
-    <t>Day of arrival or delivery date of the product to the business inspected</t>
-  </si>
-  <si>
-    <t>Tag_vom_Zulieferer</t>
-  </si>
-  <si>
-    <t>Tag der Ankunft oder Lieferdatum des Produktes beim kontrollierten Unternehmen.</t>
-  </si>
-  <si>
-    <t>Month_From_Supplier</t>
-  </si>
-  <si>
-    <t>Month of arrival or delivery date of the product to the business inspected</t>
-  </si>
-  <si>
-    <t>Monat_vom_Zulieferer</t>
-  </si>
-  <si>
-    <t>Monat der Ankunft oder Lieferdatum des Produktes beim kontrollierten Unternehmen.</t>
-  </si>
-  <si>
-    <t>Year_From_Supplier</t>
-  </si>
-  <si>
-    <t>Year of arrival or delivery date of the product to the business inspected</t>
-  </si>
-  <si>
-    <t>Jahr_vom_Zulieferer</t>
-  </si>
-  <si>
-    <t>Jahr der Ankunft oder Lieferdatum des Produktes beim kontrollierten Unternehmen.</t>
-  </si>
-  <si>
-    <t>Amount_KG_In</t>
-  </si>
-  <si>
-    <t>Report the total weight in kilograms of the product sent by the supplier to the business inspected</t>
-  </si>
-  <si>
-    <t>Menge_Kg_Rein</t>
-  </si>
-  <si>
-    <t>Angabe des Gesamtgewichtes in kg des Produktes das vom Zulieferer an das kontrollierte Unternehmen versendet wurde.</t>
-  </si>
-  <si>
-    <t>Type_PU_In</t>
-  </si>
-  <si>
-    <t>Select the type of packing unit used to send the product from the supplier to the business inspected</t>
-  </si>
-  <si>
-    <t>Art_VPE_Rein</t>
-  </si>
-  <si>
-    <t>Wählen Sie die Verpackungseinheit aus, die zur Versendung vom Zulieferer an das kontrollierte Unternehmen verwendet wurde.</t>
-  </si>
-  <si>
-    <t>No_PU_In</t>
-  </si>
-  <si>
-    <t>Enter the number of packing units used to send the product from the supplier to the business inspected</t>
-  </si>
-  <si>
-    <t>Nr_VPE_Rein</t>
-  </si>
-  <si>
-    <t>Geben Sie die Anzahl der Verpackungseinheiten an, die vom Zulieferer an das kontrollierte Unternehmen versendet wurde.</t>
-  </si>
-  <si>
-    <t>LotNo_In</t>
-  </si>
-  <si>
-    <t>LosNr_Rein</t>
-  </si>
-  <si>
-    <t>Day_Expiry_In</t>
-  </si>
-  <si>
-    <t>Day of the Expiration date or Best Before date of the inbound product</t>
-  </si>
-  <si>
-    <t>Tag_Verfall_Rein</t>
-  </si>
-  <si>
-    <t>Tag des Verfallsdatums oder Mindesthalbarkeitsdatums des eingehenden Produktes.</t>
-  </si>
-  <si>
-    <t>Month_Expiry_In</t>
-  </si>
-  <si>
-    <t>Month of the Expiration date or Best Before date of the inbound product</t>
-  </si>
-  <si>
-    <t>Monat_Verfall_Rein</t>
-  </si>
-  <si>
-    <t>Monat des Verfallsdatums oder Mindesthalbarkeitsdatums des eingehenden Produktes.</t>
-  </si>
-  <si>
-    <t>Year_Expiry_In</t>
-  </si>
-  <si>
-    <t>Year the Expiration date or Best Before date of the inbound product</t>
-  </si>
-  <si>
-    <t>Jahr_Verfall_Rein</t>
-  </si>
-  <si>
-    <t>Jahr des Verfallsdatums oder Mindesthalbarkeitsdatums des eingehenden Produktes.</t>
-  </si>
-  <si>
-    <t>Day_Prod_In</t>
-  </si>
-  <si>
-    <t>Day of production for the inbound product. If the supplier is the primary producer the date of harvest should be recorded</t>
-  </si>
-  <si>
-    <t>Tag_Prod_Rein</t>
-  </si>
-  <si>
-    <t>Tag der Herstellung des eingehenden Produktes. Sollte es sich bei dem Zulieferer um einen Primärerzeuger handeln, bitte den Tag der Ausstallung angeben.</t>
-  </si>
-  <si>
-    <t>Month_Prod_In</t>
-  </si>
-  <si>
-    <t>Month of production for the inbound product. If the supplier is the primary producer the date of harvest should be recorded</t>
-  </si>
-  <si>
-    <t>Monat_Prod_Rein</t>
-  </si>
-  <si>
-    <t>Monat der Herstellung des eingehenden Produktes. Sollte es sich bei dem Zulieferer um einen Primärerzeuger handeln, bitte den Monat der Ausstallung angeben.</t>
-  </si>
-  <si>
-    <t>Year_Prod_In</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Year of production for the inbound product. If the supplier is the primary producer the date of harvest should be recorded. If the date is not available please ensure the year of harvest is recorded when the supplier is a primary producer. </t>
-  </si>
-  <si>
-    <t>Jahr_Prod_Rein</t>
-  </si>
-  <si>
-    <t>Jahr der Herstellung des eingehenden Produktes. Sollte es sich bei dem Zulieferer um einen Primärerzeuger handeln, bitte das Jahr der Ausstallung angeben.</t>
-  </si>
-  <si>
-    <t>ID_Supplier</t>
-  </si>
-  <si>
-    <t>Unique identifer for businesses included in the traceback exercise. The excel formula should provide this value when you select from the drop down list in the Address Supplier column</t>
-  </si>
-  <si>
-    <t>ID_Zulieferer</t>
-  </si>
-  <si>
-    <t>Eindeutige Identifikationsnummer des Unternehmens für die Produktrückverfolgbarkeit. Das Excel-Formular sollte diese Identifikationsnummer automatisch anbieten, wenn der Zulieferer aus der Drop-Down Liste in der Spalte "Adresse_Zulieferer" ausgewählt wird</t>
-  </si>
-  <si>
-    <t>Address_Supplier</t>
-  </si>
-  <si>
-    <t>Name, Address and Country of the Supplier to the Business Inspected.  Please select this from the drop down list. If the business cannot be found in the list please add a new row in the Business_List worksheet, it should now appear in the drop down list for selection. In the Business_List sheet please try to ensure the information is complete including business registration/ VAT number.</t>
-  </si>
-  <si>
-    <t>Adresse_Zulieferer</t>
-  </si>
-  <si>
-    <t>Name, Adresse und Land des Zulieferers des kontrollierten Unternehmens. Bitte wählen Sie dieses aus der Drop-Down Liste. Falls das Unternehmen nicht in der Liste vorhanden ist, tragen Sie das Unternehmen bitte in einer neuen Zeile im Arbeitsblatt "Business_List" ein. Anschließend sollte es in der Auswahl der Drop-Down Liste im Arbeitsblatt "Transactions" erscheinen. Bitte stellen Sie sicher, dass im Arbeitsblatt "Business_List" die Angaben vollständig sind, inklusive der Handelsregisternummer/Steuernummer.</t>
-  </si>
-  <si>
-    <t>Activity_Supplier</t>
-  </si>
-  <si>
-    <t>Select the type of activity for the Supplier from the drop down list</t>
-  </si>
-  <si>
-    <t>Tätigkeit_Zulieferer</t>
-  </si>
-  <si>
-    <t>Auswahl über Drop-Down Liste.</t>
-  </si>
-  <si>
-    <t>EndChain</t>
-  </si>
-  <si>
-    <t>Has the end of the chain been reached? Select Yes or No</t>
-  </si>
-  <si>
-    <t>EndeKette</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wurde das Ende der Warenkette erreicht? JA oder NEIN. </t>
-  </si>
-  <si>
-    <t>Explanation_EndChain</t>
-  </si>
-  <si>
-    <t>If YES (supplier is not being traced further), please give reason, e.g. supplier unknown, supplier abroad (importer), no upstream supplier, this is the primary producer.</t>
-  </si>
-  <si>
-    <t>Erklärung_EndeKette</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wenn JA (Zulieferer wurde nicht weiter zurückverfolgt), bitte Grund angegeben, z.B. Zulieferer unbekannt, ausländischer Zulieferer (Importeur); kein Zulieferer, sondern es handelt sich um den Primärerzeuger.  </t>
-  </si>
-  <si>
-    <t>If NO: please complete additional rows until the chain end has been completed</t>
-  </si>
-  <si>
-    <t>Wenn NEIN: bitte zusätzliche Zeilen ausfüllen bis die komplette Warenkette abgebildet ist.</t>
-  </si>
-  <si>
-    <t>OriginCountry</t>
-  </si>
-  <si>
-    <t>Report the origin country from the product label</t>
-  </si>
-  <si>
-    <t>UrsprungLand</t>
-  </si>
-  <si>
-    <t>Angabe des Ursprungslandes laut Produktetikett.</t>
-  </si>
-  <si>
-    <t>Contact_Questions_Remarks</t>
-  </si>
-  <si>
-    <t>Report any uncertainties or additional information required in relation to this transaction with the Business Inspected</t>
-  </si>
-  <si>
-    <t>Fragen_Anmerkungen</t>
-  </si>
-  <si>
-    <t>Bitte berichten Sie alle Unklarheiten oder zusätzlich erforderlichen Informationen bzgl. der Transaktion des kontrollierten Unternehmens (Quellenangabe, z.B. Lieferschein vom xxx, Sachstandsbericht vom xxx).</t>
-  </si>
-  <si>
-    <t>Further_Traceback</t>
-  </si>
-  <si>
-    <t>Is a further trace-back order started? Yes, No.</t>
-  </si>
-  <si>
-    <t>Weitere_Rückverfolgung</t>
-  </si>
-  <si>
-    <t>Sind weitere Ermittlungen zur Rückverfolgbarkeit angeordnet? JA/NEIN.</t>
-  </si>
-  <si>
-    <t>MicrobiologicalSample</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please select from the drop down list to indicate if a sample/s have been taken for laboratory testing from the business inspected </t>
-  </si>
-  <si>
-    <t>Mikrobiologische_Proben</t>
-  </si>
-  <si>
-    <t>Bitte aus der Drop-Down Liste auswählen, wenn Probenahme/n für Laboranalysen bei dem kontrollierten Unternehmen erfolgt sind. Bitte geben Sie im Feld Fragen_Anmerkungen zusätzlich an, auf welche Probe sich das Ergebnis bezieht.</t>
   </si>
 </sst>
 </file>
@@ -1047,7 +460,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="45">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1233,86 +646,8 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="15"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="66">
+  <borders count="62">
     <border>
       <left/>
       <right/>
@@ -2117,60 +1452,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2288,7 +1569,7 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="38" fillId="31" borderId="61" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="203">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
@@ -2573,46 +1854,154 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="30" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="30" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="30" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="30" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2628,9 +2017,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2644,145 +2030,40 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="30" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="30" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="30" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2804,116 +2085,6 @@
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="62" xfId="112" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="62" xfId="112" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="63" xfId="112" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="112" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="112"/>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="62" xfId="112" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="63" xfId="112" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="63" xfId="112" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="62" xfId="112" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="63" xfId="112" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="35" borderId="62" xfId="112" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="35" borderId="63" xfId="112" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="36" borderId="62" xfId="112" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="62" xfId="112" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="36" borderId="63" xfId="112" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="36" borderId="62" xfId="112" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="36" borderId="63" xfId="112" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="38" borderId="62" xfId="112" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="62" xfId="112" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="38" borderId="63" xfId="112" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="40" borderId="62" xfId="112" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="62" xfId="112" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="40" borderId="63" xfId="112" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="112" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="2" fillId="40" borderId="62" xfId="112" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="40" borderId="63" xfId="112" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="42" borderId="62" xfId="112" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="62" xfId="112" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="42" borderId="63" xfId="112" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="44" borderId="62" xfId="112" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="62" xfId="112" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="44" borderId="63" xfId="112" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="63" xfId="112" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="44" borderId="64" xfId="112" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="44" borderId="65" xfId="112" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="64" xfId="112" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="44" borderId="62" xfId="112" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="112" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="114">
@@ -3476,20 +2647,20 @@
       <c r="M2" s="37"/>
     </row>
     <row r="3" spans="1:22" s="64" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106"/>
+      <c r="B3" s="137"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="137"/>
       <c r="M3" s="76"/>
       <c r="N3" s="79" t="s">
         <v>32</v>
@@ -3504,48 +2675,48 @@
       <c r="V3" s="78"/>
     </row>
     <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="134" t="s">
+      <c r="A4" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="138" t="s">
+      <c r="B4" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="125" t="s">
+      <c r="C4" s="115" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="126"/>
-      <c r="E4" s="127"/>
-      <c r="F4" s="122" t="s">
+      <c r="D4" s="116"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="123"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="121" t="s">
+      <c r="G4" s="113"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="111"/>
-      <c r="K4" s="130" t="s">
+      <c r="J4" s="97"/>
+      <c r="K4" s="120" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="114" t="s">
+      <c r="L4" s="144" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="132" t="s">
+      <c r="M4" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="136"/>
-      <c r="O4" s="102"/>
-      <c r="P4" s="102"/>
-      <c r="Q4" s="102"/>
-      <c r="R4" s="102"/>
-      <c r="S4" s="102"/>
-      <c r="T4" s="102"/>
-      <c r="U4" s="102"/>
-      <c r="V4" s="103"/>
+      <c r="N4" s="126"/>
+      <c r="O4" s="134"/>
+      <c r="P4" s="134"/>
+      <c r="Q4" s="134"/>
+      <c r="R4" s="134"/>
+      <c r="S4" s="134"/>
+      <c r="T4" s="134"/>
+      <c r="U4" s="134"/>
+      <c r="V4" s="146"/>
     </row>
     <row r="5" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="135"/>
-      <c r="B5" s="139"/>
+      <c r="A5" s="125"/>
+      <c r="B5" s="129"/>
       <c r="C5" s="90" t="s">
         <v>20</v>
       </c>
@@ -3570,18 +2741,18 @@
       <c r="J5" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="131"/>
-      <c r="L5" s="115"/>
-      <c r="M5" s="133"/>
-      <c r="N5" s="137"/>
-      <c r="O5" s="99"/>
-      <c r="P5" s="99"/>
-      <c r="Q5" s="99"/>
-      <c r="R5" s="99"/>
-      <c r="S5" s="99"/>
-      <c r="T5" s="99"/>
-      <c r="U5" s="99"/>
-      <c r="V5" s="104"/>
+      <c r="K5" s="121"/>
+      <c r="L5" s="145"/>
+      <c r="M5" s="123"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="135"/>
+      <c r="P5" s="135"/>
+      <c r="Q5" s="135"/>
+      <c r="R5" s="135"/>
+      <c r="S5" s="135"/>
+      <c r="T5" s="135"/>
+      <c r="U5" s="135"/>
+      <c r="V5" s="147"/>
     </row>
     <row r="6" spans="1:22" s="64" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="75"/>
@@ -3622,11 +2793,11 @@
       <c r="M7" s="64"/>
     </row>
     <row r="8" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="118" t="s">
+      <c r="A8" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="119"/>
-      <c r="C8" s="120"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="110"/>
       <c r="D8" s="65"/>
       <c r="E8" s="65"/>
       <c r="F8" s="65"/>
@@ -3666,11 +2837,11 @@
       <c r="M11" s="66"/>
     </row>
     <row r="12" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="118" t="s">
+      <c r="A12" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="128"/>
-      <c r="C12" s="129"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="119"/>
       <c r="D12" s="68"/>
       <c r="E12" s="68"/>
       <c r="F12" s="68"/>
@@ -3694,34 +2865,34 @@
       <c r="V12" s="61"/>
     </row>
     <row r="13" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="142" t="s">
+      <c r="A13" s="132" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="140" t="s">
+      <c r="B13" s="130" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="141"/>
+      <c r="C13" s="131"/>
       <c r="M13" s="66"/>
-      <c r="N13" s="110" t="s">
+      <c r="N13" s="141" t="s">
         <v>36</v>
       </c>
-      <c r="O13" s="112" t="s">
+      <c r="O13" s="142" t="s">
         <v>37</v>
       </c>
-      <c r="P13" s="112" t="s">
+      <c r="P13" s="142" t="s">
         <v>25</v>
       </c>
-      <c r="Q13" s="116" t="s">
+      <c r="Q13" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="R13" s="95"/>
-      <c r="S13" s="95"/>
-      <c r="T13" s="97"/>
-      <c r="U13" s="98"/>
-      <c r="V13" s="100"/>
+      <c r="R13" s="148"/>
+      <c r="S13" s="148"/>
+      <c r="T13" s="150"/>
+      <c r="U13" s="151"/>
+      <c r="V13" s="152"/>
     </row>
     <row r="14" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="143"/>
+      <c r="A14" s="133"/>
       <c r="B14" s="33" t="s">
         <v>33</v>
       </c>
@@ -3729,15 +2900,15 @@
         <v>23</v>
       </c>
       <c r="M14" s="66"/>
-      <c r="N14" s="111"/>
-      <c r="O14" s="113"/>
-      <c r="P14" s="113"/>
-      <c r="Q14" s="117"/>
-      <c r="R14" s="96"/>
-      <c r="S14" s="96"/>
-      <c r="T14" s="96"/>
-      <c r="U14" s="99"/>
-      <c r="V14" s="101"/>
+      <c r="N14" s="97"/>
+      <c r="O14" s="143"/>
+      <c r="P14" s="143"/>
+      <c r="Q14" s="107"/>
+      <c r="R14" s="149"/>
+      <c r="S14" s="149"/>
+      <c r="T14" s="149"/>
+      <c r="U14" s="135"/>
+      <c r="V14" s="153"/>
     </row>
     <row r="15" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="34"/>
@@ -3769,20 +2940,20 @@
       <c r="M16" s="74"/>
     </row>
     <row r="17" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="107" t="s">
+      <c r="A17" s="138" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="108"/>
-      <c r="C17" s="108"/>
-      <c r="D17" s="108"/>
-      <c r="E17" s="108"/>
-      <c r="F17" s="108"/>
-      <c r="G17" s="108"/>
-      <c r="H17" s="108"/>
-      <c r="I17" s="108"/>
-      <c r="J17" s="108"/>
-      <c r="K17" s="108"/>
-      <c r="L17" s="109"/>
+      <c r="B17" s="139"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="139"/>
+      <c r="F17" s="139"/>
+      <c r="G17" s="139"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="139"/>
+      <c r="J17" s="139"/>
+      <c r="K17" s="139"/>
+      <c r="L17" s="140"/>
       <c r="M17" s="73"/>
       <c r="N17" s="81" t="s">
         <v>32</v>
@@ -3797,48 +2968,48 @@
       <c r="V17" s="70"/>
     </row>
     <row r="18" spans="1:22" s="71" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="144" t="s">
+      <c r="A18" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="148" t="s">
+      <c r="B18" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="150" t="s">
+      <c r="C18" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="153"/>
-      <c r="E18" s="151"/>
-      <c r="F18" s="152" t="s">
+      <c r="D18" s="101"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="153"/>
-      <c r="H18" s="151"/>
-      <c r="I18" s="150" t="s">
+      <c r="G18" s="101"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="J18" s="151"/>
-      <c r="K18" s="148" t="s">
+      <c r="J18" s="99"/>
+      <c r="K18" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="L18" s="156" t="s">
+      <c r="L18" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="M18" s="154" t="s">
+      <c r="M18" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="N18" s="146"/>
-      <c r="O18" s="91"/>
-      <c r="P18" s="91"/>
-      <c r="Q18" s="91"/>
-      <c r="R18" s="91"/>
-      <c r="S18" s="91"/>
-      <c r="T18" s="91"/>
-      <c r="U18" s="91"/>
-      <c r="V18" s="93"/>
+      <c r="N18" s="93"/>
+      <c r="O18" s="154"/>
+      <c r="P18" s="154"/>
+      <c r="Q18" s="154"/>
+      <c r="R18" s="154"/>
+      <c r="S18" s="154"/>
+      <c r="T18" s="154"/>
+      <c r="U18" s="154"/>
+      <c r="V18" s="156"/>
     </row>
     <row r="19" spans="1:22" s="71" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="145"/>
-      <c r="B19" s="149"/>
+      <c r="A19" s="92"/>
+      <c r="B19" s="96"/>
       <c r="C19" s="14" t="s">
         <v>20</v>
       </c>
@@ -3863,18 +3034,18 @@
       <c r="J19" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K19" s="111"/>
-      <c r="L19" s="157"/>
-      <c r="M19" s="155"/>
-      <c r="N19" s="147"/>
-      <c r="O19" s="92"/>
-      <c r="P19" s="92"/>
-      <c r="Q19" s="92"/>
-      <c r="R19" s="92"/>
-      <c r="S19" s="92"/>
-      <c r="T19" s="92"/>
-      <c r="U19" s="92"/>
-      <c r="V19" s="94"/>
+      <c r="K19" s="97"/>
+      <c r="L19" s="105"/>
+      <c r="M19" s="103"/>
+      <c r="N19" s="94"/>
+      <c r="O19" s="155"/>
+      <c r="P19" s="155"/>
+      <c r="Q19" s="155"/>
+      <c r="R19" s="155"/>
+      <c r="S19" s="155"/>
+      <c r="T19" s="155"/>
+      <c r="U19" s="155"/>
+      <c r="V19" s="157"/>
     </row>
     <row r="20" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="42"/>
@@ -5946,15 +5117,32 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="U18:U19"/>
+    <mergeCell ref="V18:V19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="V13:V14"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
     <mergeCell ref="Q13:Q14"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="I4:J4"/>
@@ -5969,32 +5157,15 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="V13:V14"/>
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="U18:U19"/>
-    <mergeCell ref="V18:V19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="L18:L19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6038,7 +5209,7 @@
       <c r="G1" s="158" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="114" t="s">
+      <c r="H1" s="144" t="s">
         <v>41</v>
       </c>
     </row>
@@ -12292,1022 +11463,4 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D49"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="27.42578125" style="202" customWidth="1"/>
-    <col min="2" max="2" width="79.85546875" style="169" customWidth="1"/>
-    <col min="3" max="3" width="41.42578125" style="169" customWidth="1"/>
-    <col min="4" max="4" width="99.28515625" style="169" customWidth="1"/>
-    <col min="5" max="256" width="9.140625" style="169"/>
-    <col min="257" max="257" width="27.42578125" style="169" customWidth="1"/>
-    <col min="258" max="258" width="79.85546875" style="169" customWidth="1"/>
-    <col min="259" max="259" width="41.42578125" style="169" customWidth="1"/>
-    <col min="260" max="260" width="99.28515625" style="169" customWidth="1"/>
-    <col min="261" max="512" width="9.140625" style="169"/>
-    <col min="513" max="513" width="27.42578125" style="169" customWidth="1"/>
-    <col min="514" max="514" width="79.85546875" style="169" customWidth="1"/>
-    <col min="515" max="515" width="41.42578125" style="169" customWidth="1"/>
-    <col min="516" max="516" width="99.28515625" style="169" customWidth="1"/>
-    <col min="517" max="768" width="9.140625" style="169"/>
-    <col min="769" max="769" width="27.42578125" style="169" customWidth="1"/>
-    <col min="770" max="770" width="79.85546875" style="169" customWidth="1"/>
-    <col min="771" max="771" width="41.42578125" style="169" customWidth="1"/>
-    <col min="772" max="772" width="99.28515625" style="169" customWidth="1"/>
-    <col min="773" max="1024" width="9.140625" style="169"/>
-    <col min="1025" max="1025" width="27.42578125" style="169" customWidth="1"/>
-    <col min="1026" max="1026" width="79.85546875" style="169" customWidth="1"/>
-    <col min="1027" max="1027" width="41.42578125" style="169" customWidth="1"/>
-    <col min="1028" max="1028" width="99.28515625" style="169" customWidth="1"/>
-    <col min="1029" max="1280" width="9.140625" style="169"/>
-    <col min="1281" max="1281" width="27.42578125" style="169" customWidth="1"/>
-    <col min="1282" max="1282" width="79.85546875" style="169" customWidth="1"/>
-    <col min="1283" max="1283" width="41.42578125" style="169" customWidth="1"/>
-    <col min="1284" max="1284" width="99.28515625" style="169" customWidth="1"/>
-    <col min="1285" max="1536" width="9.140625" style="169"/>
-    <col min="1537" max="1537" width="27.42578125" style="169" customWidth="1"/>
-    <col min="1538" max="1538" width="79.85546875" style="169" customWidth="1"/>
-    <col min="1539" max="1539" width="41.42578125" style="169" customWidth="1"/>
-    <col min="1540" max="1540" width="99.28515625" style="169" customWidth="1"/>
-    <col min="1541" max="1792" width="9.140625" style="169"/>
-    <col min="1793" max="1793" width="27.42578125" style="169" customWidth="1"/>
-    <col min="1794" max="1794" width="79.85546875" style="169" customWidth="1"/>
-    <col min="1795" max="1795" width="41.42578125" style="169" customWidth="1"/>
-    <col min="1796" max="1796" width="99.28515625" style="169" customWidth="1"/>
-    <col min="1797" max="2048" width="9.140625" style="169"/>
-    <col min="2049" max="2049" width="27.42578125" style="169" customWidth="1"/>
-    <col min="2050" max="2050" width="79.85546875" style="169" customWidth="1"/>
-    <col min="2051" max="2051" width="41.42578125" style="169" customWidth="1"/>
-    <col min="2052" max="2052" width="99.28515625" style="169" customWidth="1"/>
-    <col min="2053" max="2304" width="9.140625" style="169"/>
-    <col min="2305" max="2305" width="27.42578125" style="169" customWidth="1"/>
-    <col min="2306" max="2306" width="79.85546875" style="169" customWidth="1"/>
-    <col min="2307" max="2307" width="41.42578125" style="169" customWidth="1"/>
-    <col min="2308" max="2308" width="99.28515625" style="169" customWidth="1"/>
-    <col min="2309" max="2560" width="9.140625" style="169"/>
-    <col min="2561" max="2561" width="27.42578125" style="169" customWidth="1"/>
-    <col min="2562" max="2562" width="79.85546875" style="169" customWidth="1"/>
-    <col min="2563" max="2563" width="41.42578125" style="169" customWidth="1"/>
-    <col min="2564" max="2564" width="99.28515625" style="169" customWidth="1"/>
-    <col min="2565" max="2816" width="9.140625" style="169"/>
-    <col min="2817" max="2817" width="27.42578125" style="169" customWidth="1"/>
-    <col min="2818" max="2818" width="79.85546875" style="169" customWidth="1"/>
-    <col min="2819" max="2819" width="41.42578125" style="169" customWidth="1"/>
-    <col min="2820" max="2820" width="99.28515625" style="169" customWidth="1"/>
-    <col min="2821" max="3072" width="9.140625" style="169"/>
-    <col min="3073" max="3073" width="27.42578125" style="169" customWidth="1"/>
-    <col min="3074" max="3074" width="79.85546875" style="169" customWidth="1"/>
-    <col min="3075" max="3075" width="41.42578125" style="169" customWidth="1"/>
-    <col min="3076" max="3076" width="99.28515625" style="169" customWidth="1"/>
-    <col min="3077" max="3328" width="9.140625" style="169"/>
-    <col min="3329" max="3329" width="27.42578125" style="169" customWidth="1"/>
-    <col min="3330" max="3330" width="79.85546875" style="169" customWidth="1"/>
-    <col min="3331" max="3331" width="41.42578125" style="169" customWidth="1"/>
-    <col min="3332" max="3332" width="99.28515625" style="169" customWidth="1"/>
-    <col min="3333" max="3584" width="9.140625" style="169"/>
-    <col min="3585" max="3585" width="27.42578125" style="169" customWidth="1"/>
-    <col min="3586" max="3586" width="79.85546875" style="169" customWidth="1"/>
-    <col min="3587" max="3587" width="41.42578125" style="169" customWidth="1"/>
-    <col min="3588" max="3588" width="99.28515625" style="169" customWidth="1"/>
-    <col min="3589" max="3840" width="9.140625" style="169"/>
-    <col min="3841" max="3841" width="27.42578125" style="169" customWidth="1"/>
-    <col min="3842" max="3842" width="79.85546875" style="169" customWidth="1"/>
-    <col min="3843" max="3843" width="41.42578125" style="169" customWidth="1"/>
-    <col min="3844" max="3844" width="99.28515625" style="169" customWidth="1"/>
-    <col min="3845" max="4096" width="9.140625" style="169"/>
-    <col min="4097" max="4097" width="27.42578125" style="169" customWidth="1"/>
-    <col min="4098" max="4098" width="79.85546875" style="169" customWidth="1"/>
-    <col min="4099" max="4099" width="41.42578125" style="169" customWidth="1"/>
-    <col min="4100" max="4100" width="99.28515625" style="169" customWidth="1"/>
-    <col min="4101" max="4352" width="9.140625" style="169"/>
-    <col min="4353" max="4353" width="27.42578125" style="169" customWidth="1"/>
-    <col min="4354" max="4354" width="79.85546875" style="169" customWidth="1"/>
-    <col min="4355" max="4355" width="41.42578125" style="169" customWidth="1"/>
-    <col min="4356" max="4356" width="99.28515625" style="169" customWidth="1"/>
-    <col min="4357" max="4608" width="9.140625" style="169"/>
-    <col min="4609" max="4609" width="27.42578125" style="169" customWidth="1"/>
-    <col min="4610" max="4610" width="79.85546875" style="169" customWidth="1"/>
-    <col min="4611" max="4611" width="41.42578125" style="169" customWidth="1"/>
-    <col min="4612" max="4612" width="99.28515625" style="169" customWidth="1"/>
-    <col min="4613" max="4864" width="9.140625" style="169"/>
-    <col min="4865" max="4865" width="27.42578125" style="169" customWidth="1"/>
-    <col min="4866" max="4866" width="79.85546875" style="169" customWidth="1"/>
-    <col min="4867" max="4867" width="41.42578125" style="169" customWidth="1"/>
-    <col min="4868" max="4868" width="99.28515625" style="169" customWidth="1"/>
-    <col min="4869" max="5120" width="9.140625" style="169"/>
-    <col min="5121" max="5121" width="27.42578125" style="169" customWidth="1"/>
-    <col min="5122" max="5122" width="79.85546875" style="169" customWidth="1"/>
-    <col min="5123" max="5123" width="41.42578125" style="169" customWidth="1"/>
-    <col min="5124" max="5124" width="99.28515625" style="169" customWidth="1"/>
-    <col min="5125" max="5376" width="9.140625" style="169"/>
-    <col min="5377" max="5377" width="27.42578125" style="169" customWidth="1"/>
-    <col min="5378" max="5378" width="79.85546875" style="169" customWidth="1"/>
-    <col min="5379" max="5379" width="41.42578125" style="169" customWidth="1"/>
-    <col min="5380" max="5380" width="99.28515625" style="169" customWidth="1"/>
-    <col min="5381" max="5632" width="9.140625" style="169"/>
-    <col min="5633" max="5633" width="27.42578125" style="169" customWidth="1"/>
-    <col min="5634" max="5634" width="79.85546875" style="169" customWidth="1"/>
-    <col min="5635" max="5635" width="41.42578125" style="169" customWidth="1"/>
-    <col min="5636" max="5636" width="99.28515625" style="169" customWidth="1"/>
-    <col min="5637" max="5888" width="9.140625" style="169"/>
-    <col min="5889" max="5889" width="27.42578125" style="169" customWidth="1"/>
-    <col min="5890" max="5890" width="79.85546875" style="169" customWidth="1"/>
-    <col min="5891" max="5891" width="41.42578125" style="169" customWidth="1"/>
-    <col min="5892" max="5892" width="99.28515625" style="169" customWidth="1"/>
-    <col min="5893" max="6144" width="9.140625" style="169"/>
-    <col min="6145" max="6145" width="27.42578125" style="169" customWidth="1"/>
-    <col min="6146" max="6146" width="79.85546875" style="169" customWidth="1"/>
-    <col min="6147" max="6147" width="41.42578125" style="169" customWidth="1"/>
-    <col min="6148" max="6148" width="99.28515625" style="169" customWidth="1"/>
-    <col min="6149" max="6400" width="9.140625" style="169"/>
-    <col min="6401" max="6401" width="27.42578125" style="169" customWidth="1"/>
-    <col min="6402" max="6402" width="79.85546875" style="169" customWidth="1"/>
-    <col min="6403" max="6403" width="41.42578125" style="169" customWidth="1"/>
-    <col min="6404" max="6404" width="99.28515625" style="169" customWidth="1"/>
-    <col min="6405" max="6656" width="9.140625" style="169"/>
-    <col min="6657" max="6657" width="27.42578125" style="169" customWidth="1"/>
-    <col min="6658" max="6658" width="79.85546875" style="169" customWidth="1"/>
-    <col min="6659" max="6659" width="41.42578125" style="169" customWidth="1"/>
-    <col min="6660" max="6660" width="99.28515625" style="169" customWidth="1"/>
-    <col min="6661" max="6912" width="9.140625" style="169"/>
-    <col min="6913" max="6913" width="27.42578125" style="169" customWidth="1"/>
-    <col min="6914" max="6914" width="79.85546875" style="169" customWidth="1"/>
-    <col min="6915" max="6915" width="41.42578125" style="169" customWidth="1"/>
-    <col min="6916" max="6916" width="99.28515625" style="169" customWidth="1"/>
-    <col min="6917" max="7168" width="9.140625" style="169"/>
-    <col min="7169" max="7169" width="27.42578125" style="169" customWidth="1"/>
-    <col min="7170" max="7170" width="79.85546875" style="169" customWidth="1"/>
-    <col min="7171" max="7171" width="41.42578125" style="169" customWidth="1"/>
-    <col min="7172" max="7172" width="99.28515625" style="169" customWidth="1"/>
-    <col min="7173" max="7424" width="9.140625" style="169"/>
-    <col min="7425" max="7425" width="27.42578125" style="169" customWidth="1"/>
-    <col min="7426" max="7426" width="79.85546875" style="169" customWidth="1"/>
-    <col min="7427" max="7427" width="41.42578125" style="169" customWidth="1"/>
-    <col min="7428" max="7428" width="99.28515625" style="169" customWidth="1"/>
-    <col min="7429" max="7680" width="9.140625" style="169"/>
-    <col min="7681" max="7681" width="27.42578125" style="169" customWidth="1"/>
-    <col min="7682" max="7682" width="79.85546875" style="169" customWidth="1"/>
-    <col min="7683" max="7683" width="41.42578125" style="169" customWidth="1"/>
-    <col min="7684" max="7684" width="99.28515625" style="169" customWidth="1"/>
-    <col min="7685" max="7936" width="9.140625" style="169"/>
-    <col min="7937" max="7937" width="27.42578125" style="169" customWidth="1"/>
-    <col min="7938" max="7938" width="79.85546875" style="169" customWidth="1"/>
-    <col min="7939" max="7939" width="41.42578125" style="169" customWidth="1"/>
-    <col min="7940" max="7940" width="99.28515625" style="169" customWidth="1"/>
-    <col min="7941" max="8192" width="9.140625" style="169"/>
-    <col min="8193" max="8193" width="27.42578125" style="169" customWidth="1"/>
-    <col min="8194" max="8194" width="79.85546875" style="169" customWidth="1"/>
-    <col min="8195" max="8195" width="41.42578125" style="169" customWidth="1"/>
-    <col min="8196" max="8196" width="99.28515625" style="169" customWidth="1"/>
-    <col min="8197" max="8448" width="9.140625" style="169"/>
-    <col min="8449" max="8449" width="27.42578125" style="169" customWidth="1"/>
-    <col min="8450" max="8450" width="79.85546875" style="169" customWidth="1"/>
-    <col min="8451" max="8451" width="41.42578125" style="169" customWidth="1"/>
-    <col min="8452" max="8452" width="99.28515625" style="169" customWidth="1"/>
-    <col min="8453" max="8704" width="9.140625" style="169"/>
-    <col min="8705" max="8705" width="27.42578125" style="169" customWidth="1"/>
-    <col min="8706" max="8706" width="79.85546875" style="169" customWidth="1"/>
-    <col min="8707" max="8707" width="41.42578125" style="169" customWidth="1"/>
-    <col min="8708" max="8708" width="99.28515625" style="169" customWidth="1"/>
-    <col min="8709" max="8960" width="9.140625" style="169"/>
-    <col min="8961" max="8961" width="27.42578125" style="169" customWidth="1"/>
-    <col min="8962" max="8962" width="79.85546875" style="169" customWidth="1"/>
-    <col min="8963" max="8963" width="41.42578125" style="169" customWidth="1"/>
-    <col min="8964" max="8964" width="99.28515625" style="169" customWidth="1"/>
-    <col min="8965" max="9216" width="9.140625" style="169"/>
-    <col min="9217" max="9217" width="27.42578125" style="169" customWidth="1"/>
-    <col min="9218" max="9218" width="79.85546875" style="169" customWidth="1"/>
-    <col min="9219" max="9219" width="41.42578125" style="169" customWidth="1"/>
-    <col min="9220" max="9220" width="99.28515625" style="169" customWidth="1"/>
-    <col min="9221" max="9472" width="9.140625" style="169"/>
-    <col min="9473" max="9473" width="27.42578125" style="169" customWidth="1"/>
-    <col min="9474" max="9474" width="79.85546875" style="169" customWidth="1"/>
-    <col min="9475" max="9475" width="41.42578125" style="169" customWidth="1"/>
-    <col min="9476" max="9476" width="99.28515625" style="169" customWidth="1"/>
-    <col min="9477" max="9728" width="9.140625" style="169"/>
-    <col min="9729" max="9729" width="27.42578125" style="169" customWidth="1"/>
-    <col min="9730" max="9730" width="79.85546875" style="169" customWidth="1"/>
-    <col min="9731" max="9731" width="41.42578125" style="169" customWidth="1"/>
-    <col min="9732" max="9732" width="99.28515625" style="169" customWidth="1"/>
-    <col min="9733" max="9984" width="9.140625" style="169"/>
-    <col min="9985" max="9985" width="27.42578125" style="169" customWidth="1"/>
-    <col min="9986" max="9986" width="79.85546875" style="169" customWidth="1"/>
-    <col min="9987" max="9987" width="41.42578125" style="169" customWidth="1"/>
-    <col min="9988" max="9988" width="99.28515625" style="169" customWidth="1"/>
-    <col min="9989" max="10240" width="9.140625" style="169"/>
-    <col min="10241" max="10241" width="27.42578125" style="169" customWidth="1"/>
-    <col min="10242" max="10242" width="79.85546875" style="169" customWidth="1"/>
-    <col min="10243" max="10243" width="41.42578125" style="169" customWidth="1"/>
-    <col min="10244" max="10244" width="99.28515625" style="169" customWidth="1"/>
-    <col min="10245" max="10496" width="9.140625" style="169"/>
-    <col min="10497" max="10497" width="27.42578125" style="169" customWidth="1"/>
-    <col min="10498" max="10498" width="79.85546875" style="169" customWidth="1"/>
-    <col min="10499" max="10499" width="41.42578125" style="169" customWidth="1"/>
-    <col min="10500" max="10500" width="99.28515625" style="169" customWidth="1"/>
-    <col min="10501" max="10752" width="9.140625" style="169"/>
-    <col min="10753" max="10753" width="27.42578125" style="169" customWidth="1"/>
-    <col min="10754" max="10754" width="79.85546875" style="169" customWidth="1"/>
-    <col min="10755" max="10755" width="41.42578125" style="169" customWidth="1"/>
-    <col min="10756" max="10756" width="99.28515625" style="169" customWidth="1"/>
-    <col min="10757" max="11008" width="9.140625" style="169"/>
-    <col min="11009" max="11009" width="27.42578125" style="169" customWidth="1"/>
-    <col min="11010" max="11010" width="79.85546875" style="169" customWidth="1"/>
-    <col min="11011" max="11011" width="41.42578125" style="169" customWidth="1"/>
-    <col min="11012" max="11012" width="99.28515625" style="169" customWidth="1"/>
-    <col min="11013" max="11264" width="9.140625" style="169"/>
-    <col min="11265" max="11265" width="27.42578125" style="169" customWidth="1"/>
-    <col min="11266" max="11266" width="79.85546875" style="169" customWidth="1"/>
-    <col min="11267" max="11267" width="41.42578125" style="169" customWidth="1"/>
-    <col min="11268" max="11268" width="99.28515625" style="169" customWidth="1"/>
-    <col min="11269" max="11520" width="9.140625" style="169"/>
-    <col min="11521" max="11521" width="27.42578125" style="169" customWidth="1"/>
-    <col min="11522" max="11522" width="79.85546875" style="169" customWidth="1"/>
-    <col min="11523" max="11523" width="41.42578125" style="169" customWidth="1"/>
-    <col min="11524" max="11524" width="99.28515625" style="169" customWidth="1"/>
-    <col min="11525" max="11776" width="9.140625" style="169"/>
-    <col min="11777" max="11777" width="27.42578125" style="169" customWidth="1"/>
-    <col min="11778" max="11778" width="79.85546875" style="169" customWidth="1"/>
-    <col min="11779" max="11779" width="41.42578125" style="169" customWidth="1"/>
-    <col min="11780" max="11780" width="99.28515625" style="169" customWidth="1"/>
-    <col min="11781" max="12032" width="9.140625" style="169"/>
-    <col min="12033" max="12033" width="27.42578125" style="169" customWidth="1"/>
-    <col min="12034" max="12034" width="79.85546875" style="169" customWidth="1"/>
-    <col min="12035" max="12035" width="41.42578125" style="169" customWidth="1"/>
-    <col min="12036" max="12036" width="99.28515625" style="169" customWidth="1"/>
-    <col min="12037" max="12288" width="9.140625" style="169"/>
-    <col min="12289" max="12289" width="27.42578125" style="169" customWidth="1"/>
-    <col min="12290" max="12290" width="79.85546875" style="169" customWidth="1"/>
-    <col min="12291" max="12291" width="41.42578125" style="169" customWidth="1"/>
-    <col min="12292" max="12292" width="99.28515625" style="169" customWidth="1"/>
-    <col min="12293" max="12544" width="9.140625" style="169"/>
-    <col min="12545" max="12545" width="27.42578125" style="169" customWidth="1"/>
-    <col min="12546" max="12546" width="79.85546875" style="169" customWidth="1"/>
-    <col min="12547" max="12547" width="41.42578125" style="169" customWidth="1"/>
-    <col min="12548" max="12548" width="99.28515625" style="169" customWidth="1"/>
-    <col min="12549" max="12800" width="9.140625" style="169"/>
-    <col min="12801" max="12801" width="27.42578125" style="169" customWidth="1"/>
-    <col min="12802" max="12802" width="79.85546875" style="169" customWidth="1"/>
-    <col min="12803" max="12803" width="41.42578125" style="169" customWidth="1"/>
-    <col min="12804" max="12804" width="99.28515625" style="169" customWidth="1"/>
-    <col min="12805" max="13056" width="9.140625" style="169"/>
-    <col min="13057" max="13057" width="27.42578125" style="169" customWidth="1"/>
-    <col min="13058" max="13058" width="79.85546875" style="169" customWidth="1"/>
-    <col min="13059" max="13059" width="41.42578125" style="169" customWidth="1"/>
-    <col min="13060" max="13060" width="99.28515625" style="169" customWidth="1"/>
-    <col min="13061" max="13312" width="9.140625" style="169"/>
-    <col min="13313" max="13313" width="27.42578125" style="169" customWidth="1"/>
-    <col min="13314" max="13314" width="79.85546875" style="169" customWidth="1"/>
-    <col min="13315" max="13315" width="41.42578125" style="169" customWidth="1"/>
-    <col min="13316" max="13316" width="99.28515625" style="169" customWidth="1"/>
-    <col min="13317" max="13568" width="9.140625" style="169"/>
-    <col min="13569" max="13569" width="27.42578125" style="169" customWidth="1"/>
-    <col min="13570" max="13570" width="79.85546875" style="169" customWidth="1"/>
-    <col min="13571" max="13571" width="41.42578125" style="169" customWidth="1"/>
-    <col min="13572" max="13572" width="99.28515625" style="169" customWidth="1"/>
-    <col min="13573" max="13824" width="9.140625" style="169"/>
-    <col min="13825" max="13825" width="27.42578125" style="169" customWidth="1"/>
-    <col min="13826" max="13826" width="79.85546875" style="169" customWidth="1"/>
-    <col min="13827" max="13827" width="41.42578125" style="169" customWidth="1"/>
-    <col min="13828" max="13828" width="99.28515625" style="169" customWidth="1"/>
-    <col min="13829" max="14080" width="9.140625" style="169"/>
-    <col min="14081" max="14081" width="27.42578125" style="169" customWidth="1"/>
-    <col min="14082" max="14082" width="79.85546875" style="169" customWidth="1"/>
-    <col min="14083" max="14083" width="41.42578125" style="169" customWidth="1"/>
-    <col min="14084" max="14084" width="99.28515625" style="169" customWidth="1"/>
-    <col min="14085" max="14336" width="9.140625" style="169"/>
-    <col min="14337" max="14337" width="27.42578125" style="169" customWidth="1"/>
-    <col min="14338" max="14338" width="79.85546875" style="169" customWidth="1"/>
-    <col min="14339" max="14339" width="41.42578125" style="169" customWidth="1"/>
-    <col min="14340" max="14340" width="99.28515625" style="169" customWidth="1"/>
-    <col min="14341" max="14592" width="9.140625" style="169"/>
-    <col min="14593" max="14593" width="27.42578125" style="169" customWidth="1"/>
-    <col min="14594" max="14594" width="79.85546875" style="169" customWidth="1"/>
-    <col min="14595" max="14595" width="41.42578125" style="169" customWidth="1"/>
-    <col min="14596" max="14596" width="99.28515625" style="169" customWidth="1"/>
-    <col min="14597" max="14848" width="9.140625" style="169"/>
-    <col min="14849" max="14849" width="27.42578125" style="169" customWidth="1"/>
-    <col min="14850" max="14850" width="79.85546875" style="169" customWidth="1"/>
-    <col min="14851" max="14851" width="41.42578125" style="169" customWidth="1"/>
-    <col min="14852" max="14852" width="99.28515625" style="169" customWidth="1"/>
-    <col min="14853" max="15104" width="9.140625" style="169"/>
-    <col min="15105" max="15105" width="27.42578125" style="169" customWidth="1"/>
-    <col min="15106" max="15106" width="79.85546875" style="169" customWidth="1"/>
-    <col min="15107" max="15107" width="41.42578125" style="169" customWidth="1"/>
-    <col min="15108" max="15108" width="99.28515625" style="169" customWidth="1"/>
-    <col min="15109" max="15360" width="9.140625" style="169"/>
-    <col min="15361" max="15361" width="27.42578125" style="169" customWidth="1"/>
-    <col min="15362" max="15362" width="79.85546875" style="169" customWidth="1"/>
-    <col min="15363" max="15363" width="41.42578125" style="169" customWidth="1"/>
-    <col min="15364" max="15364" width="99.28515625" style="169" customWidth="1"/>
-    <col min="15365" max="15616" width="9.140625" style="169"/>
-    <col min="15617" max="15617" width="27.42578125" style="169" customWidth="1"/>
-    <col min="15618" max="15618" width="79.85546875" style="169" customWidth="1"/>
-    <col min="15619" max="15619" width="41.42578125" style="169" customWidth="1"/>
-    <col min="15620" max="15620" width="99.28515625" style="169" customWidth="1"/>
-    <col min="15621" max="15872" width="9.140625" style="169"/>
-    <col min="15873" max="15873" width="27.42578125" style="169" customWidth="1"/>
-    <col min="15874" max="15874" width="79.85546875" style="169" customWidth="1"/>
-    <col min="15875" max="15875" width="41.42578125" style="169" customWidth="1"/>
-    <col min="15876" max="15876" width="99.28515625" style="169" customWidth="1"/>
-    <col min="15877" max="16128" width="9.140625" style="169"/>
-    <col min="16129" max="16129" width="27.42578125" style="169" customWidth="1"/>
-    <col min="16130" max="16130" width="79.85546875" style="169" customWidth="1"/>
-    <col min="16131" max="16131" width="41.42578125" style="169" customWidth="1"/>
-    <col min="16132" max="16132" width="99.28515625" style="169" customWidth="1"/>
-    <col min="16133" max="16384" width="9.140625" style="169"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="165" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="166" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="167" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="168" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="170" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="166" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="171" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="172" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="170" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="166" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="171" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="172" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="173" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="166" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="174" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="172" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="175" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="166" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="176" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="172" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="175" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="166" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="176" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="172" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="177" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" s="178" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" s="179" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="172" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="177" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" s="178" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="179" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" s="172" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="180" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" s="178" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="181" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="172" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="180" t="s">
-        <v>86</v>
-      </c>
-      <c r="B10" s="178" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" s="181" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" s="172" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="180" t="s">
-        <v>90</v>
-      </c>
-      <c r="B11" s="178" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="181" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="172" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="180" t="s">
-        <v>94</v>
-      </c>
-      <c r="B12" s="178" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" s="181" t="s">
-        <v>96</v>
-      </c>
-      <c r="D12" s="172" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="177" t="s">
-        <v>98</v>
-      </c>
-      <c r="B13" s="178" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" s="179" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" s="172" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="180" t="s">
-        <v>102</v>
-      </c>
-      <c r="B14" s="178" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="181" t="s">
-        <v>104</v>
-      </c>
-      <c r="D14" s="172" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="177" t="s">
-        <v>106</v>
-      </c>
-      <c r="B15" s="178" t="s">
-        <v>107</v>
-      </c>
-      <c r="C15" s="179" t="s">
-        <v>108</v>
-      </c>
-      <c r="D15" s="172" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="177" t="s">
-        <v>110</v>
-      </c>
-      <c r="B16" s="178" t="s">
-        <v>111</v>
-      </c>
-      <c r="C16" s="179" t="s">
-        <v>112</v>
-      </c>
-      <c r="D16" s="172" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="177" t="s">
-        <v>114</v>
-      </c>
-      <c r="B17" s="178" t="s">
-        <v>115</v>
-      </c>
-      <c r="C17" s="179" t="s">
-        <v>116</v>
-      </c>
-      <c r="D17" s="172" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="177" t="s">
-        <v>118</v>
-      </c>
-      <c r="B18" s="178" t="s">
-        <v>119</v>
-      </c>
-      <c r="C18" s="179" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18" s="172" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="180" t="s">
-        <v>122</v>
-      </c>
-      <c r="B19" s="178" t="s">
-        <v>123</v>
-      </c>
-      <c r="C19" s="181" t="s">
-        <v>124</v>
-      </c>
-      <c r="D19" s="172" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="180" t="s">
-        <v>126</v>
-      </c>
-      <c r="B20" s="178" t="s">
-        <v>127</v>
-      </c>
-      <c r="C20" s="181" t="s">
-        <v>128</v>
-      </c>
-      <c r="D20" s="172" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="180" t="s">
-        <v>130</v>
-      </c>
-      <c r="B21" s="178" t="s">
-        <v>131</v>
-      </c>
-      <c r="C21" s="181" t="s">
-        <v>132</v>
-      </c>
-      <c r="D21" s="172" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="182" t="s">
-        <v>134</v>
-      </c>
-      <c r="B22" s="183" t="s">
-        <v>135</v>
-      </c>
-      <c r="C22" s="184" t="s">
-        <v>136</v>
-      </c>
-      <c r="D22" s="172" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="182" t="s">
-        <v>138</v>
-      </c>
-      <c r="B23" s="183" t="s">
-        <v>139</v>
-      </c>
-      <c r="C23" s="184" t="s">
-        <v>140</v>
-      </c>
-      <c r="D23" s="172" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="182" t="s">
-        <v>142</v>
-      </c>
-      <c r="B24" s="183" t="s">
-        <v>143</v>
-      </c>
-      <c r="C24" s="184" t="s">
-        <v>144</v>
-      </c>
-      <c r="D24" s="172" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" s="188" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="185" t="s">
-        <v>146</v>
-      </c>
-      <c r="B25" s="186" t="s">
-        <v>147</v>
-      </c>
-      <c r="C25" s="187" t="s">
-        <v>148</v>
-      </c>
-      <c r="D25" s="172" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" s="188" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="185" t="s">
-        <v>150</v>
-      </c>
-      <c r="B26" s="186" t="s">
-        <v>151</v>
-      </c>
-      <c r="C26" s="187" t="s">
-        <v>152</v>
-      </c>
-      <c r="D26" s="172" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" s="188" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="185" t="s">
-        <v>154</v>
-      </c>
-      <c r="B27" s="186" t="s">
-        <v>155</v>
-      </c>
-      <c r="C27" s="187" t="s">
-        <v>156</v>
-      </c>
-      <c r="D27" s="172" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" s="188" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="185" t="s">
-        <v>158</v>
-      </c>
-      <c r="B28" s="186" t="s">
-        <v>159</v>
-      </c>
-      <c r="C28" s="187" t="s">
-        <v>160</v>
-      </c>
-      <c r="D28" s="172" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" s="188" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="185" t="s">
-        <v>162</v>
-      </c>
-      <c r="B29" s="186" t="s">
-        <v>163</v>
-      </c>
-      <c r="C29" s="187" t="s">
-        <v>164</v>
-      </c>
-      <c r="D29" s="172" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" s="188" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="189" t="s">
-        <v>166</v>
-      </c>
-      <c r="B30" s="186" t="s">
-        <v>167</v>
-      </c>
-      <c r="C30" s="190" t="s">
-        <v>168</v>
-      </c>
-      <c r="D30" s="172" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" s="188" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="185" t="s">
-        <v>170</v>
-      </c>
-      <c r="B31" s="186" t="s">
-        <v>171</v>
-      </c>
-      <c r="C31" s="187" t="s">
-        <v>172</v>
-      </c>
-      <c r="D31" s="172" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" s="188" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="189" t="s">
-        <v>174</v>
-      </c>
-      <c r="B32" s="186" t="s">
-        <v>175</v>
-      </c>
-      <c r="C32" s="190" t="s">
-        <v>176</v>
-      </c>
-      <c r="D32" s="172" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" s="188" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="185" t="s">
-        <v>178</v>
-      </c>
-      <c r="B33" s="186" t="s">
-        <v>107</v>
-      </c>
-      <c r="C33" s="187" t="s">
-        <v>179</v>
-      </c>
-      <c r="D33" s="172" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" s="188" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="185" t="s">
-        <v>180</v>
-      </c>
-      <c r="B34" s="186" t="s">
-        <v>181</v>
-      </c>
-      <c r="C34" s="187" t="s">
-        <v>182</v>
-      </c>
-      <c r="D34" s="172" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" s="188" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="185" t="s">
-        <v>184</v>
-      </c>
-      <c r="B35" s="186" t="s">
-        <v>185</v>
-      </c>
-      <c r="C35" s="187" t="s">
-        <v>186</v>
-      </c>
-      <c r="D35" s="172" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" s="188" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="185" t="s">
-        <v>188</v>
-      </c>
-      <c r="B36" s="186" t="s">
-        <v>189</v>
-      </c>
-      <c r="C36" s="187" t="s">
-        <v>190</v>
-      </c>
-      <c r="D36" s="172" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" s="188" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="185" t="s">
-        <v>192</v>
-      </c>
-      <c r="B37" s="186" t="s">
-        <v>193</v>
-      </c>
-      <c r="C37" s="187" t="s">
-        <v>194</v>
-      </c>
-      <c r="D37" s="172" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" s="188" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="185" t="s">
-        <v>196</v>
-      </c>
-      <c r="B38" s="186" t="s">
-        <v>197</v>
-      </c>
-      <c r="C38" s="187" t="s">
-        <v>198</v>
-      </c>
-      <c r="D38" s="172" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" s="188" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="185" t="s">
-        <v>200</v>
-      </c>
-      <c r="B39" s="186" t="s">
-        <v>201</v>
-      </c>
-      <c r="C39" s="187" t="s">
-        <v>202</v>
-      </c>
-      <c r="D39" s="172" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="191" t="s">
-        <v>204</v>
-      </c>
-      <c r="B40" s="192" t="s">
-        <v>205</v>
-      </c>
-      <c r="C40" s="193" t="s">
-        <v>206</v>
-      </c>
-      <c r="D40" s="172" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="191" t="s">
-        <v>208</v>
-      </c>
-      <c r="B41" s="192" t="s">
-        <v>209</v>
-      </c>
-      <c r="C41" s="193" t="s">
-        <v>210</v>
-      </c>
-      <c r="D41" s="172" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="191" t="s">
-        <v>212</v>
-      </c>
-      <c r="B42" s="192" t="s">
-        <v>213</v>
-      </c>
-      <c r="C42" s="193" t="s">
-        <v>214</v>
-      </c>
-      <c r="D42" s="172" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="194" t="s">
-        <v>216</v>
-      </c>
-      <c r="B43" s="195" t="s">
-        <v>217</v>
-      </c>
-      <c r="C43" s="196" t="s">
-        <v>218</v>
-      </c>
-      <c r="D43" s="197" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" s="188" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="198" t="s">
-        <v>220</v>
-      </c>
-      <c r="B44" s="195" t="s">
-        <v>221</v>
-      </c>
-      <c r="C44" s="196" t="s">
-        <v>222</v>
-      </c>
-      <c r="D44" s="197" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" s="188" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="199"/>
-      <c r="B45" s="200" t="s">
-        <v>224</v>
-      </c>
-      <c r="C45" s="196"/>
-      <c r="D45" s="197" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="201" t="s">
-        <v>226</v>
-      </c>
-      <c r="B46" s="195" t="s">
-        <v>227</v>
-      </c>
-      <c r="C46" s="196" t="s">
-        <v>228</v>
-      </c>
-      <c r="D46" s="197" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="201" t="s">
-        <v>230</v>
-      </c>
-      <c r="B47" s="195" t="s">
-        <v>231</v>
-      </c>
-      <c r="C47" s="196" t="s">
-        <v>232</v>
-      </c>
-      <c r="D47" s="197" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="201" t="s">
-        <v>234</v>
-      </c>
-      <c r="B48" s="195" t="s">
-        <v>235</v>
-      </c>
-      <c r="C48" s="196" t="s">
-        <v>236</v>
-      </c>
-      <c r="D48" s="197" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="201" t="s">
-        <v>238</v>
-      </c>
-      <c r="B49" s="195" t="s">
-        <v>239</v>
-      </c>
-      <c r="C49" s="196" t="s">
-        <v>240</v>
-      </c>
-      <c r="D49" s="197" t="s">
-        <v>241</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/BfR_Format_Backtrace.xlsx
+++ b/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/BfR_Format_Backtrace.xlsx
@@ -185,7 +185,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1854,56 +1854,75 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="30" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="30" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="30" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1998,72 +2017,53 @@
     <xf numFmtId="0" fontId="33" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="30" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="30" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="30" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2504,7 +2504,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.28515625" style="2" customWidth="1"/>
@@ -2520,7 +2520,7 @@
     <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="12" customFormat="1" ht="30">
       <c r="A1" s="22" t="s">
         <v>3</v>
       </c>
@@ -2563,7 +2563,7 @@
       <c r="R1" s="28"/>
       <c r="S1" s="28"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="A2" s="17"/>
       <c r="B2"/>
       <c r="C2"/>
@@ -2572,7 +2572,7 @@
       <c r="F2"/>
       <c r="K2" s="29"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3" s="17"/>
       <c r="B3"/>
       <c r="C3"/>
@@ -2582,12 +2582,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J8"/>
-  <dataValidations count="4">
+  <dataValidations count="3">
     <dataValidation sqref="E2:E3"/>
-    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:I1 K1:XFD1"/>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576">
-      <formula1>1</formula1>
-    </dataValidation>
+    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:XFD1 B1:I1"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576">
       <formula1>ToB</formula1>
     </dataValidation>
@@ -2602,7 +2599,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="26.7109375" style="37" customWidth="1"/>
     <col min="2" max="2" width="24" style="37" customWidth="1"/>
@@ -2623,7 +2620,7 @@
     <col min="17" max="16384" width="11.42578125" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="21" customHeight="1" thickBot="1">
       <c r="A1" s="19" t="s">
         <v>26</v>
       </c>
@@ -2637,7 +2634,7 @@
       <c r="F1" s="58"/>
       <c r="M1" s="37"/>
     </row>
-    <row r="2" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="21" customHeight="1" thickBot="1">
       <c r="A2" s="18"/>
       <c r="B2" s="59"/>
       <c r="C2" s="58"/>
@@ -2646,21 +2643,21 @@
       <c r="F2" s="58"/>
       <c r="M2" s="37"/>
     </row>
-    <row r="3" spans="1:22" s="64" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="136" t="s">
+    <row r="3" spans="1:22" s="64" customFormat="1" ht="21" customHeight="1" thickBot="1">
+      <c r="A3" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="137"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="137"/>
-      <c r="L3" s="137"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
       <c r="M3" s="76"/>
       <c r="N3" s="79" t="s">
         <v>32</v>
@@ -2674,49 +2671,49 @@
       <c r="U3" s="77"/>
       <c r="V3" s="78"/>
     </row>
-    <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="124" t="s">
+    <row r="4" spans="1:22" ht="18.75" customHeight="1">
+      <c r="A4" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="128" t="s">
+      <c r="B4" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="115" t="s">
+      <c r="C4" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="116"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="112" t="s">
+      <c r="D4" s="126"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="113"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="111" t="s">
+      <c r="G4" s="123"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="121" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="97"/>
-      <c r="K4" s="120" t="s">
+      <c r="J4" s="111"/>
+      <c r="K4" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="144" t="s">
+      <c r="L4" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="122" t="s">
+      <c r="M4" s="132" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="126"/>
-      <c r="O4" s="134"/>
-      <c r="P4" s="134"/>
-      <c r="Q4" s="134"/>
-      <c r="R4" s="134"/>
-      <c r="S4" s="134"/>
-      <c r="T4" s="134"/>
-      <c r="U4" s="134"/>
-      <c r="V4" s="146"/>
-    </row>
-    <row r="5" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="125"/>
-      <c r="B5" s="129"/>
+      <c r="N4" s="136"/>
+      <c r="O4" s="102"/>
+      <c r="P4" s="102"/>
+      <c r="Q4" s="102"/>
+      <c r="R4" s="102"/>
+      <c r="S4" s="102"/>
+      <c r="T4" s="102"/>
+      <c r="U4" s="102"/>
+      <c r="V4" s="103"/>
+    </row>
+    <row r="5" spans="1:22" ht="17.25" customHeight="1">
+      <c r="A5" s="135"/>
+      <c r="B5" s="139"/>
       <c r="C5" s="90" t="s">
         <v>20</v>
       </c>
@@ -2741,20 +2738,20 @@
       <c r="J5" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="121"/>
-      <c r="L5" s="145"/>
-      <c r="M5" s="123"/>
-      <c r="N5" s="127"/>
-      <c r="O5" s="135"/>
-      <c r="P5" s="135"/>
-      <c r="Q5" s="135"/>
-      <c r="R5" s="135"/>
-      <c r="S5" s="135"/>
-      <c r="T5" s="135"/>
-      <c r="U5" s="135"/>
-      <c r="V5" s="147"/>
-    </row>
-    <row r="6" spans="1:22" s="64" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K5" s="131"/>
+      <c r="L5" s="115"/>
+      <c r="M5" s="133"/>
+      <c r="N5" s="137"/>
+      <c r="O5" s="99"/>
+      <c r="P5" s="99"/>
+      <c r="Q5" s="99"/>
+      <c r="R5" s="99"/>
+      <c r="S5" s="99"/>
+      <c r="T5" s="99"/>
+      <c r="U5" s="99"/>
+      <c r="V5" s="104"/>
+    </row>
+    <row r="6" spans="1:22" s="64" customFormat="1" ht="21" customHeight="1">
       <c r="A6" s="75"/>
       <c r="B6" s="75"/>
       <c r="C6" s="75"/>
@@ -2778,7 +2775,7 @@
       <c r="U6" s="75"/>
       <c r="V6" s="75"/>
     </row>
-    <row r="7" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="21" customHeight="1" thickBot="1">
       <c r="A7" s="62"/>
       <c r="B7" s="40"/>
       <c r="C7" s="40"/>
@@ -2792,12 +2789,12 @@
       <c r="K7" s="63"/>
       <c r="M7" s="64"/>
     </row>
-    <row r="8" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="108" t="s">
+    <row r="8" spans="1:22" ht="21" customHeight="1">
+      <c r="A8" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="109"/>
-      <c r="C8" s="110"/>
+      <c r="B8" s="119"/>
+      <c r="C8" s="120"/>
       <c r="D8" s="65"/>
       <c r="E8" s="65"/>
       <c r="F8" s="65"/>
@@ -2809,7 +2806,7 @@
       <c r="L8" s="66"/>
       <c r="M8" s="66"/>
     </row>
-    <row r="9" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" ht="21" customHeight="1">
       <c r="A9" s="20" t="s">
         <v>11</v>
       </c>
@@ -2822,26 +2819,26 @@
       <c r="D9" s="63"/>
       <c r="M9" s="66"/>
     </row>
-    <row r="10" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="21" customHeight="1" thickBot="1">
       <c r="A10" s="49"/>
       <c r="B10" s="50"/>
       <c r="C10" s="67"/>
       <c r="D10" s="63"/>
       <c r="M10" s="66"/>
     </row>
-    <row r="11" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="21" customHeight="1" thickBot="1">
       <c r="A11" s="41"/>
       <c r="B11" s="41"/>
       <c r="C11" s="41"/>
       <c r="D11" s="63"/>
       <c r="M11" s="66"/>
     </row>
-    <row r="12" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="108" t="s">
+    <row r="12" spans="1:22" ht="21" customHeight="1" thickBot="1">
+      <c r="A12" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="118"/>
-      <c r="C12" s="119"/>
+      <c r="B12" s="128"/>
+      <c r="C12" s="129"/>
       <c r="D12" s="68"/>
       <c r="E12" s="68"/>
       <c r="F12" s="68"/>
@@ -2864,35 +2861,35 @@
       <c r="U12" s="60"/>
       <c r="V12" s="61"/>
     </row>
-    <row r="13" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="132" t="s">
+    <row r="13" spans="1:22" ht="18" customHeight="1">
+      <c r="A13" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="130" t="s">
+      <c r="B13" s="140" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="131"/>
+      <c r="C13" s="141"/>
       <c r="M13" s="66"/>
-      <c r="N13" s="141" t="s">
+      <c r="N13" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="O13" s="142" t="s">
+      <c r="O13" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="P13" s="142" t="s">
+      <c r="P13" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="Q13" s="106" t="s">
+      <c r="Q13" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="R13" s="148"/>
-      <c r="S13" s="148"/>
-      <c r="T13" s="150"/>
-      <c r="U13" s="151"/>
-      <c r="V13" s="152"/>
-    </row>
-    <row r="14" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="133"/>
+      <c r="R13" s="95"/>
+      <c r="S13" s="95"/>
+      <c r="T13" s="97"/>
+      <c r="U13" s="98"/>
+      <c r="V13" s="100"/>
+    </row>
+    <row r="14" spans="1:22" ht="17.25" customHeight="1">
+      <c r="A14" s="143"/>
       <c r="B14" s="33" t="s">
         <v>33</v>
       </c>
@@ -2900,17 +2897,17 @@
         <v>23</v>
       </c>
       <c r="M14" s="66"/>
-      <c r="N14" s="97"/>
-      <c r="O14" s="143"/>
-      <c r="P14" s="143"/>
-      <c r="Q14" s="107"/>
-      <c r="R14" s="149"/>
-      <c r="S14" s="149"/>
-      <c r="T14" s="149"/>
-      <c r="U14" s="135"/>
-      <c r="V14" s="153"/>
-    </row>
-    <row r="15" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N14" s="111"/>
+      <c r="O14" s="113"/>
+      <c r="P14" s="113"/>
+      <c r="Q14" s="117"/>
+      <c r="R14" s="96"/>
+      <c r="S14" s="96"/>
+      <c r="T14" s="96"/>
+      <c r="U14" s="99"/>
+      <c r="V14" s="101"/>
+    </row>
+    <row r="15" spans="1:22" ht="21" customHeight="1">
       <c r="A15" s="34"/>
       <c r="B15" s="35"/>
       <c r="C15" s="36"/>
@@ -2925,7 +2922,7 @@
       <c r="U15" s="39"/>
       <c r="V15" s="36"/>
     </row>
-    <row r="16" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" ht="21" customHeight="1" thickBot="1">
       <c r="A16" s="40"/>
       <c r="B16" s="40"/>
       <c r="C16" s="40"/>
@@ -2939,21 +2936,21 @@
       <c r="L16" s="40"/>
       <c r="M16" s="74"/>
     </row>
-    <row r="17" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="138" t="s">
+    <row r="17" spans="1:22" ht="21" customHeight="1">
+      <c r="A17" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="139"/>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="139"/>
-      <c r="F17" s="139"/>
-      <c r="G17" s="139"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="139"/>
-      <c r="J17" s="139"/>
-      <c r="K17" s="139"/>
-      <c r="L17" s="140"/>
+      <c r="B17" s="108"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="108"/>
+      <c r="H17" s="108"/>
+      <c r="I17" s="108"/>
+      <c r="J17" s="108"/>
+      <c r="K17" s="108"/>
+      <c r="L17" s="109"/>
       <c r="M17" s="73"/>
       <c r="N17" s="81" t="s">
         <v>32</v>
@@ -2967,49 +2964,49 @@
       <c r="U17" s="69"/>
       <c r="V17" s="70"/>
     </row>
-    <row r="18" spans="1:22" s="71" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="91" t="s">
+    <row r="18" spans="1:22" s="71" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A18" s="144" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="95" t="s">
+      <c r="B18" s="148" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="98" t="s">
+      <c r="C18" s="150" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="101"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="100" t="s">
+      <c r="D18" s="153"/>
+      <c r="E18" s="151"/>
+      <c r="F18" s="152" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="101"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="98" t="s">
+      <c r="G18" s="153"/>
+      <c r="H18" s="151"/>
+      <c r="I18" s="150" t="s">
         <v>44</v>
       </c>
-      <c r="J18" s="99"/>
-      <c r="K18" s="95" t="s">
+      <c r="J18" s="151"/>
+      <c r="K18" s="148" t="s">
         <v>0</v>
       </c>
-      <c r="L18" s="104" t="s">
+      <c r="L18" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="M18" s="102" t="s">
+      <c r="M18" s="154" t="s">
         <v>35</v>
       </c>
-      <c r="N18" s="93"/>
-      <c r="O18" s="154"/>
-      <c r="P18" s="154"/>
-      <c r="Q18" s="154"/>
-      <c r="R18" s="154"/>
-      <c r="S18" s="154"/>
-      <c r="T18" s="154"/>
-      <c r="U18" s="154"/>
-      <c r="V18" s="156"/>
-    </row>
-    <row r="19" spans="1:22" s="71" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="92"/>
-      <c r="B19" s="96"/>
+      <c r="N18" s="146"/>
+      <c r="O18" s="91"/>
+      <c r="P18" s="91"/>
+      <c r="Q18" s="91"/>
+      <c r="R18" s="91"/>
+      <c r="S18" s="91"/>
+      <c r="T18" s="91"/>
+      <c r="U18" s="91"/>
+      <c r="V18" s="93"/>
+    </row>
+    <row r="19" spans="1:22" s="71" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A19" s="145"/>
+      <c r="B19" s="149"/>
       <c r="C19" s="14" t="s">
         <v>20</v>
       </c>
@@ -3034,20 +3031,20 @@
       <c r="J19" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K19" s="97"/>
-      <c r="L19" s="105"/>
-      <c r="M19" s="103"/>
-      <c r="N19" s="94"/>
-      <c r="O19" s="155"/>
-      <c r="P19" s="155"/>
-      <c r="Q19" s="155"/>
-      <c r="R19" s="155"/>
-      <c r="S19" s="155"/>
-      <c r="T19" s="155"/>
-      <c r="U19" s="155"/>
-      <c r="V19" s="157"/>
-    </row>
-    <row r="20" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K19" s="111"/>
+      <c r="L19" s="157"/>
+      <c r="M19" s="155"/>
+      <c r="N19" s="147"/>
+      <c r="O19" s="92"/>
+      <c r="P19" s="92"/>
+      <c r="Q19" s="92"/>
+      <c r="R19" s="92"/>
+      <c r="S19" s="92"/>
+      <c r="T19" s="92"/>
+      <c r="U19" s="92"/>
+      <c r="V19" s="94"/>
+    </row>
+    <row r="20" spans="1:22" ht="21" customHeight="1">
       <c r="A20" s="42"/>
       <c r="B20" s="43"/>
       <c r="C20" s="44"/>
@@ -3071,7 +3068,7 @@
       <c r="U20" s="46"/>
       <c r="V20" s="47"/>
     </row>
-    <row r="21" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" ht="21" customHeight="1">
       <c r="A21" s="42"/>
       <c r="B21" s="43"/>
       <c r="C21" s="44"/>
@@ -3095,7 +3092,7 @@
       <c r="U21" s="46"/>
       <c r="V21" s="47"/>
     </row>
-    <row r="22" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" ht="21" customHeight="1">
       <c r="A22" s="42"/>
       <c r="B22" s="43"/>
       <c r="C22" s="44"/>
@@ -3119,7 +3116,7 @@
       <c r="U22" s="46"/>
       <c r="V22" s="47"/>
     </row>
-    <row r="23" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" ht="21" customHeight="1">
       <c r="A23" s="42"/>
       <c r="B23" s="43"/>
       <c r="C23" s="44"/>
@@ -3143,7 +3140,7 @@
       <c r="U23" s="46"/>
       <c r="V23" s="47"/>
     </row>
-    <row r="24" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" ht="21" customHeight="1">
       <c r="A24" s="42"/>
       <c r="B24" s="43"/>
       <c r="C24" s="44"/>
@@ -3167,7 +3164,7 @@
       <c r="U24" s="46"/>
       <c r="V24" s="47"/>
     </row>
-    <row r="25" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" ht="21" customHeight="1">
       <c r="A25" s="42"/>
       <c r="B25" s="43"/>
       <c r="C25" s="44"/>
@@ -3191,7 +3188,7 @@
       <c r="U25" s="46"/>
       <c r="V25" s="47"/>
     </row>
-    <row r="26" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" ht="21" customHeight="1">
       <c r="A26" s="42"/>
       <c r="B26" s="43"/>
       <c r="C26" s="44"/>
@@ -3215,7 +3212,7 @@
       <c r="U26" s="46"/>
       <c r="V26" s="47"/>
     </row>
-    <row r="27" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" ht="21" customHeight="1">
       <c r="A27" s="48"/>
       <c r="B27" s="43"/>
       <c r="C27" s="44"/>
@@ -3239,7 +3236,7 @@
       <c r="U27" s="46"/>
       <c r="V27" s="47"/>
     </row>
-    <row r="28" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" ht="21" customHeight="1">
       <c r="A28" s="48"/>
       <c r="B28" s="43"/>
       <c r="C28" s="44"/>
@@ -3263,7 +3260,7 @@
       <c r="U28" s="46"/>
       <c r="V28" s="47"/>
     </row>
-    <row r="29" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" ht="21" customHeight="1">
       <c r="A29" s="48"/>
       <c r="B29" s="43"/>
       <c r="C29" s="44"/>
@@ -3287,7 +3284,7 @@
       <c r="U29" s="46"/>
       <c r="V29" s="47"/>
     </row>
-    <row r="30" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" ht="21" customHeight="1">
       <c r="A30" s="48"/>
       <c r="B30" s="43"/>
       <c r="C30" s="44"/>
@@ -3311,7 +3308,7 @@
       <c r="U30" s="46"/>
       <c r="V30" s="47"/>
     </row>
-    <row r="31" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" ht="21" customHeight="1">
       <c r="A31" s="48"/>
       <c r="B31" s="43"/>
       <c r="C31" s="44"/>
@@ -3335,7 +3332,7 @@
       <c r="U31" s="46"/>
       <c r="V31" s="47"/>
     </row>
-    <row r="32" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" ht="21" customHeight="1">
       <c r="A32" s="48"/>
       <c r="B32" s="43"/>
       <c r="C32" s="44"/>
@@ -3359,7 +3356,7 @@
       <c r="U32" s="46"/>
       <c r="V32" s="47"/>
     </row>
-    <row r="33" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" ht="21" customHeight="1">
       <c r="A33" s="48"/>
       <c r="B33" s="43"/>
       <c r="C33" s="44"/>
@@ -3383,7 +3380,7 @@
       <c r="U33" s="46"/>
       <c r="V33" s="47"/>
     </row>
-    <row r="34" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" ht="21" customHeight="1">
       <c r="A34" s="48"/>
       <c r="B34" s="43"/>
       <c r="C34" s="44"/>
@@ -3407,7 +3404,7 @@
       <c r="U34" s="46"/>
       <c r="V34" s="47"/>
     </row>
-    <row r="35" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" ht="21" customHeight="1">
       <c r="A35" s="48"/>
       <c r="B35" s="43"/>
       <c r="C35" s="44"/>
@@ -3431,7 +3428,7 @@
       <c r="U35" s="46"/>
       <c r="V35" s="47"/>
     </row>
-    <row r="36" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" ht="21" customHeight="1">
       <c r="A36" s="48"/>
       <c r="B36" s="43"/>
       <c r="C36" s="44"/>
@@ -3455,7 +3452,7 @@
       <c r="U36" s="46"/>
       <c r="V36" s="47"/>
     </row>
-    <row r="37" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" ht="21" customHeight="1">
       <c r="A37" s="48"/>
       <c r="B37" s="43"/>
       <c r="C37" s="44"/>
@@ -3479,7 +3476,7 @@
       <c r="U37" s="46"/>
       <c r="V37" s="47"/>
     </row>
-    <row r="38" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" ht="21" customHeight="1">
       <c r="A38" s="48"/>
       <c r="B38" s="43"/>
       <c r="C38" s="44"/>
@@ -3503,7 +3500,7 @@
       <c r="U38" s="46"/>
       <c r="V38" s="47"/>
     </row>
-    <row r="39" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" ht="21" customHeight="1">
       <c r="A39" s="48"/>
       <c r="B39" s="43"/>
       <c r="C39" s="44"/>
@@ -3527,7 +3524,7 @@
       <c r="U39" s="46"/>
       <c r="V39" s="47"/>
     </row>
-    <row r="40" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" ht="21" customHeight="1">
       <c r="A40" s="48"/>
       <c r="B40" s="43"/>
       <c r="C40" s="44"/>
@@ -3551,7 +3548,7 @@
       <c r="U40" s="46"/>
       <c r="V40" s="47"/>
     </row>
-    <row r="41" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" ht="21" customHeight="1">
       <c r="A41" s="48"/>
       <c r="B41" s="43"/>
       <c r="C41" s="44"/>
@@ -3575,7 +3572,7 @@
       <c r="U41" s="46"/>
       <c r="V41" s="47"/>
     </row>
-    <row r="42" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" ht="21" customHeight="1">
       <c r="A42" s="48"/>
       <c r="B42" s="43"/>
       <c r="C42" s="44"/>
@@ -3599,7 +3596,7 @@
       <c r="U42" s="46"/>
       <c r="V42" s="47"/>
     </row>
-    <row r="43" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" ht="21" customHeight="1">
       <c r="A43" s="48"/>
       <c r="B43" s="43"/>
       <c r="C43" s="44"/>
@@ -3623,7 +3620,7 @@
       <c r="U43" s="46"/>
       <c r="V43" s="47"/>
     </row>
-    <row r="44" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" ht="21" customHeight="1">
       <c r="A44" s="48"/>
       <c r="B44" s="43"/>
       <c r="C44" s="44"/>
@@ -3647,7 +3644,7 @@
       <c r="U44" s="46"/>
       <c r="V44" s="47"/>
     </row>
-    <row r="45" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" ht="21" customHeight="1">
       <c r="A45" s="48"/>
       <c r="B45" s="43"/>
       <c r="C45" s="44"/>
@@ -3671,7 +3668,7 @@
       <c r="U45" s="46"/>
       <c r="V45" s="47"/>
     </row>
-    <row r="46" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" ht="21" customHeight="1">
       <c r="A46" s="48"/>
       <c r="B46" s="43"/>
       <c r="C46" s="44"/>
@@ -3695,7 +3692,7 @@
       <c r="U46" s="46"/>
       <c r="V46" s="47"/>
     </row>
-    <row r="47" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" ht="21" customHeight="1">
       <c r="A47" s="48"/>
       <c r="B47" s="43"/>
       <c r="C47" s="44"/>
@@ -3719,7 +3716,7 @@
       <c r="U47" s="46"/>
       <c r="V47" s="47"/>
     </row>
-    <row r="48" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:22" ht="21" customHeight="1">
       <c r="A48" s="48"/>
       <c r="B48" s="43"/>
       <c r="C48" s="44"/>
@@ -3743,7 +3740,7 @@
       <c r="U48" s="46"/>
       <c r="V48" s="47"/>
     </row>
-    <row r="49" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:22" ht="21" customHeight="1">
       <c r="A49" s="48"/>
       <c r="B49" s="43"/>
       <c r="C49" s="44"/>
@@ -3767,7 +3764,7 @@
       <c r="U49" s="46"/>
       <c r="V49" s="47"/>
     </row>
-    <row r="50" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:22" ht="21" customHeight="1">
       <c r="A50" s="48"/>
       <c r="B50" s="43"/>
       <c r="C50" s="44"/>
@@ -3791,7 +3788,7 @@
       <c r="U50" s="46"/>
       <c r="V50" s="47"/>
     </row>
-    <row r="51" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:22" ht="21" customHeight="1">
       <c r="A51" s="48"/>
       <c r="B51" s="43"/>
       <c r="C51" s="44"/>
@@ -3815,7 +3812,7 @@
       <c r="U51" s="46"/>
       <c r="V51" s="47"/>
     </row>
-    <row r="52" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:22" ht="21" customHeight="1">
       <c r="A52" s="48"/>
       <c r="B52" s="43"/>
       <c r="C52" s="44"/>
@@ -3839,7 +3836,7 @@
       <c r="U52" s="46"/>
       <c r="V52" s="47"/>
     </row>
-    <row r="53" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:22" ht="21" customHeight="1">
       <c r="A53" s="48"/>
       <c r="B53" s="43"/>
       <c r="C53" s="44"/>
@@ -3863,7 +3860,7 @@
       <c r="U53" s="46"/>
       <c r="V53" s="47"/>
     </row>
-    <row r="54" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:22" ht="21" customHeight="1">
       <c r="A54" s="48"/>
       <c r="B54" s="43"/>
       <c r="C54" s="44"/>
@@ -3887,7 +3884,7 @@
       <c r="U54" s="46"/>
       <c r="V54" s="47"/>
     </row>
-    <row r="55" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:22" ht="21" customHeight="1">
       <c r="A55" s="48"/>
       <c r="B55" s="43"/>
       <c r="C55" s="44"/>
@@ -3911,7 +3908,7 @@
       <c r="U55" s="46"/>
       <c r="V55" s="47"/>
     </row>
-    <row r="56" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:22" ht="21" customHeight="1">
       <c r="A56" s="48"/>
       <c r="B56" s="43"/>
       <c r="C56" s="44"/>
@@ -3935,7 +3932,7 @@
       <c r="U56" s="46"/>
       <c r="V56" s="47"/>
     </row>
-    <row r="57" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:22" ht="21" customHeight="1">
       <c r="A57" s="48"/>
       <c r="B57" s="43"/>
       <c r="C57" s="44"/>
@@ -3959,7 +3956,7 @@
       <c r="U57" s="46"/>
       <c r="V57" s="47"/>
     </row>
-    <row r="58" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:22" ht="21" customHeight="1">
       <c r="A58" s="48"/>
       <c r="B58" s="43"/>
       <c r="C58" s="44"/>
@@ -3983,7 +3980,7 @@
       <c r="U58" s="46"/>
       <c r="V58" s="47"/>
     </row>
-    <row r="59" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:22" ht="21" customHeight="1">
       <c r="A59" s="48"/>
       <c r="B59" s="43"/>
       <c r="C59" s="44"/>
@@ -4007,7 +4004,7 @@
       <c r="U59" s="46"/>
       <c r="V59" s="47"/>
     </row>
-    <row r="60" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:22" ht="21" customHeight="1">
       <c r="A60" s="48"/>
       <c r="B60" s="43"/>
       <c r="C60" s="44"/>
@@ -4031,7 +4028,7 @@
       <c r="U60" s="46"/>
       <c r="V60" s="47"/>
     </row>
-    <row r="61" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:22" ht="21" customHeight="1">
       <c r="A61" s="48"/>
       <c r="B61" s="43"/>
       <c r="C61" s="44"/>
@@ -4055,7 +4052,7 @@
       <c r="U61" s="46"/>
       <c r="V61" s="47"/>
     </row>
-    <row r="62" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:22" ht="21" customHeight="1">
       <c r="A62" s="48"/>
       <c r="B62" s="43"/>
       <c r="C62" s="44"/>
@@ -4079,7 +4076,7 @@
       <c r="U62" s="46"/>
       <c r="V62" s="47"/>
     </row>
-    <row r="63" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:22" ht="21" customHeight="1">
       <c r="A63" s="48"/>
       <c r="B63" s="43"/>
       <c r="C63" s="44"/>
@@ -4103,7 +4100,7 @@
       <c r="U63" s="46"/>
       <c r="V63" s="47"/>
     </row>
-    <row r="64" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:22" ht="21" customHeight="1">
       <c r="A64" s="48"/>
       <c r="B64" s="43"/>
       <c r="C64" s="44"/>
@@ -4127,7 +4124,7 @@
       <c r="U64" s="46"/>
       <c r="V64" s="47"/>
     </row>
-    <row r="65" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:22" ht="21" customHeight="1">
       <c r="A65" s="48"/>
       <c r="B65" s="43"/>
       <c r="C65" s="44"/>
@@ -4151,7 +4148,7 @@
       <c r="U65" s="46"/>
       <c r="V65" s="47"/>
     </row>
-    <row r="66" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:22" ht="21" customHeight="1">
       <c r="A66" s="48"/>
       <c r="B66" s="43"/>
       <c r="C66" s="44"/>
@@ -4175,7 +4172,7 @@
       <c r="U66" s="46"/>
       <c r="V66" s="47"/>
     </row>
-    <row r="67" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:22" ht="21" customHeight="1">
       <c r="A67" s="48"/>
       <c r="B67" s="43"/>
       <c r="C67" s="44"/>
@@ -4199,7 +4196,7 @@
       <c r="U67" s="46"/>
       <c r="V67" s="47"/>
     </row>
-    <row r="68" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:22" ht="21" customHeight="1">
       <c r="A68" s="48"/>
       <c r="B68" s="43"/>
       <c r="C68" s="44"/>
@@ -4223,7 +4220,7 @@
       <c r="U68" s="46"/>
       <c r="V68" s="47"/>
     </row>
-    <row r="69" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:22" ht="21" customHeight="1">
       <c r="A69" s="48"/>
       <c r="B69" s="43"/>
       <c r="C69" s="44"/>
@@ -4247,7 +4244,7 @@
       <c r="U69" s="46"/>
       <c r="V69" s="47"/>
     </row>
-    <row r="70" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:22" ht="21" customHeight="1">
       <c r="A70" s="48"/>
       <c r="B70" s="43"/>
       <c r="C70" s="44"/>
@@ -4271,7 +4268,7 @@
       <c r="U70" s="46"/>
       <c r="V70" s="47"/>
     </row>
-    <row r="71" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:22" ht="21" customHeight="1">
       <c r="A71" s="48"/>
       <c r="B71" s="43"/>
       <c r="C71" s="44"/>
@@ -4295,7 +4292,7 @@
       <c r="U71" s="46"/>
       <c r="V71" s="47"/>
     </row>
-    <row r="72" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:22" ht="21" customHeight="1">
       <c r="A72" s="48"/>
       <c r="B72" s="43"/>
       <c r="C72" s="44"/>
@@ -4319,7 +4316,7 @@
       <c r="U72" s="46"/>
       <c r="V72" s="47"/>
     </row>
-    <row r="73" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:22" ht="21" customHeight="1">
       <c r="A73" s="48"/>
       <c r="B73" s="43"/>
       <c r="C73" s="44"/>
@@ -4343,7 +4340,7 @@
       <c r="U73" s="46"/>
       <c r="V73" s="47"/>
     </row>
-    <row r="74" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:22" ht="21" customHeight="1">
       <c r="A74" s="48"/>
       <c r="B74" s="43"/>
       <c r="C74" s="44"/>
@@ -4367,7 +4364,7 @@
       <c r="U74" s="46"/>
       <c r="V74" s="47"/>
     </row>
-    <row r="75" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:22" ht="21" customHeight="1">
       <c r="A75" s="48"/>
       <c r="B75" s="43"/>
       <c r="C75" s="44"/>
@@ -4391,7 +4388,7 @@
       <c r="U75" s="46"/>
       <c r="V75" s="47"/>
     </row>
-    <row r="76" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:22" ht="21" customHeight="1">
       <c r="A76" s="48"/>
       <c r="B76" s="43"/>
       <c r="C76" s="44"/>
@@ -4415,7 +4412,7 @@
       <c r="U76" s="46"/>
       <c r="V76" s="47"/>
     </row>
-    <row r="77" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:22" ht="21" customHeight="1">
       <c r="A77" s="48"/>
       <c r="B77" s="43"/>
       <c r="C77" s="44"/>
@@ -4439,7 +4436,7 @@
       <c r="U77" s="46"/>
       <c r="V77" s="47"/>
     </row>
-    <row r="78" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:22" ht="21" customHeight="1">
       <c r="A78" s="48"/>
       <c r="B78" s="43"/>
       <c r="C78" s="44"/>
@@ -4463,7 +4460,7 @@
       <c r="U78" s="46"/>
       <c r="V78" s="47"/>
     </row>
-    <row r="79" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:22" ht="21" customHeight="1">
       <c r="A79" s="48"/>
       <c r="B79" s="43"/>
       <c r="C79" s="44"/>
@@ -4487,7 +4484,7 @@
       <c r="U79" s="46"/>
       <c r="V79" s="47"/>
     </row>
-    <row r="80" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:22" ht="21" customHeight="1">
       <c r="A80" s="48"/>
       <c r="B80" s="43"/>
       <c r="C80" s="44"/>
@@ -4511,7 +4508,7 @@
       <c r="U80" s="46"/>
       <c r="V80" s="47"/>
     </row>
-    <row r="81" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:22" ht="21" customHeight="1">
       <c r="A81" s="48"/>
       <c r="B81" s="43"/>
       <c r="C81" s="44"/>
@@ -4535,7 +4532,7 @@
       <c r="U81" s="46"/>
       <c r="V81" s="47"/>
     </row>
-    <row r="82" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:22" ht="21" customHeight="1">
       <c r="A82" s="48"/>
       <c r="B82" s="43"/>
       <c r="C82" s="44"/>
@@ -4559,7 +4556,7 @@
       <c r="U82" s="46"/>
       <c r="V82" s="47"/>
     </row>
-    <row r="83" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:22" ht="21" customHeight="1">
       <c r="A83" s="48"/>
       <c r="B83" s="43"/>
       <c r="C83" s="44"/>
@@ -4583,7 +4580,7 @@
       <c r="U83" s="46"/>
       <c r="V83" s="47"/>
     </row>
-    <row r="84" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:22" ht="21" customHeight="1">
       <c r="A84" s="48"/>
       <c r="B84" s="43"/>
       <c r="C84" s="44"/>
@@ -4607,7 +4604,7 @@
       <c r="U84" s="46"/>
       <c r="V84" s="47"/>
     </row>
-    <row r="85" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:22" ht="21" customHeight="1">
       <c r="A85" s="48"/>
       <c r="B85" s="43"/>
       <c r="C85" s="44"/>
@@ -4631,7 +4628,7 @@
       <c r="U85" s="46"/>
       <c r="V85" s="47"/>
     </row>
-    <row r="86" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:22" ht="21" customHeight="1">
       <c r="A86" s="48"/>
       <c r="B86" s="43"/>
       <c r="C86" s="44"/>
@@ -4655,7 +4652,7 @@
       <c r="U86" s="46"/>
       <c r="V86" s="47"/>
     </row>
-    <row r="87" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:22" ht="21" customHeight="1">
       <c r="A87" s="48"/>
       <c r="B87" s="43"/>
       <c r="C87" s="44"/>
@@ -4679,7 +4676,7 @@
       <c r="U87" s="46"/>
       <c r="V87" s="47"/>
     </row>
-    <row r="88" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:22" ht="21" customHeight="1">
       <c r="A88" s="48"/>
       <c r="B88" s="43"/>
       <c r="C88" s="44"/>
@@ -4703,7 +4700,7 @@
       <c r="U88" s="46"/>
       <c r="V88" s="47"/>
     </row>
-    <row r="89" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:22" ht="21" customHeight="1">
       <c r="A89" s="48"/>
       <c r="B89" s="43"/>
       <c r="C89" s="44"/>
@@ -4727,7 +4724,7 @@
       <c r="U89" s="46"/>
       <c r="V89" s="47"/>
     </row>
-    <row r="90" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:22" ht="21" customHeight="1">
       <c r="A90" s="48"/>
       <c r="B90" s="43"/>
       <c r="C90" s="44"/>
@@ -4751,7 +4748,7 @@
       <c r="U90" s="46"/>
       <c r="V90" s="47"/>
     </row>
-    <row r="91" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:22" ht="21" customHeight="1">
       <c r="A91" s="48"/>
       <c r="B91" s="43"/>
       <c r="C91" s="44"/>
@@ -4775,7 +4772,7 @@
       <c r="U91" s="46"/>
       <c r="V91" s="47"/>
     </row>
-    <row r="92" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:22" ht="21" customHeight="1">
       <c r="A92" s="48"/>
       <c r="B92" s="43"/>
       <c r="C92" s="44"/>
@@ -4799,7 +4796,7 @@
       <c r="U92" s="46"/>
       <c r="V92" s="47"/>
     </row>
-    <row r="93" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:22" ht="21" customHeight="1">
       <c r="A93" s="48"/>
       <c r="B93" s="43"/>
       <c r="C93" s="44"/>
@@ -4823,7 +4820,7 @@
       <c r="U93" s="46"/>
       <c r="V93" s="47"/>
     </row>
-    <row r="94" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:22" ht="21" customHeight="1">
       <c r="A94" s="48"/>
       <c r="B94" s="43"/>
       <c r="C94" s="44"/>
@@ -4847,7 +4844,7 @@
       <c r="U94" s="46"/>
       <c r="V94" s="47"/>
     </row>
-    <row r="95" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:22" ht="21" customHeight="1">
       <c r="A95" s="48"/>
       <c r="B95" s="43"/>
       <c r="C95" s="44"/>
@@ -4871,7 +4868,7 @@
       <c r="U95" s="46"/>
       <c r="V95" s="47"/>
     </row>
-    <row r="96" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:22" ht="21" customHeight="1">
       <c r="A96" s="48"/>
       <c r="B96" s="43"/>
       <c r="C96" s="44"/>
@@ -4895,7 +4892,7 @@
       <c r="U96" s="46"/>
       <c r="V96" s="47"/>
     </row>
-    <row r="97" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:22" ht="21" customHeight="1">
       <c r="A97" s="48"/>
       <c r="B97" s="43"/>
       <c r="C97" s="44"/>
@@ -4919,7 +4916,7 @@
       <c r="U97" s="46"/>
       <c r="V97" s="47"/>
     </row>
-    <row r="98" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:22" ht="21" customHeight="1">
       <c r="A98" s="48"/>
       <c r="B98" s="43"/>
       <c r="C98" s="44"/>
@@ -4943,7 +4940,7 @@
       <c r="U98" s="46"/>
       <c r="V98" s="47"/>
     </row>
-    <row r="99" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:22" ht="21" customHeight="1">
       <c r="A99" s="48"/>
       <c r="B99" s="43"/>
       <c r="C99" s="44"/>
@@ -4967,7 +4964,7 @@
       <c r="U99" s="46"/>
       <c r="V99" s="47"/>
     </row>
-    <row r="100" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:22" ht="21" customHeight="1">
       <c r="A100" s="48"/>
       <c r="B100" s="43"/>
       <c r="C100" s="44"/>
@@ -4991,7 +4988,7 @@
       <c r="U100" s="46"/>
       <c r="V100" s="47"/>
     </row>
-    <row r="101" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:22" ht="21" customHeight="1">
       <c r="A101" s="48"/>
       <c r="B101" s="43"/>
       <c r="C101" s="44"/>
@@ -5015,7 +5012,7 @@
       <c r="U101" s="46"/>
       <c r="V101" s="47"/>
     </row>
-    <row r="102" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:22" ht="21" customHeight="1">
       <c r="A102" s="48"/>
       <c r="B102" s="43"/>
       <c r="C102" s="44"/>
@@ -5039,7 +5036,7 @@
       <c r="U102" s="46"/>
       <c r="V102" s="47"/>
     </row>
-    <row r="103" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:22" ht="21" customHeight="1">
       <c r="A103" s="48"/>
       <c r="B103" s="43"/>
       <c r="C103" s="44"/>
@@ -5063,7 +5060,7 @@
       <c r="U103" s="46"/>
       <c r="V103" s="47"/>
     </row>
-    <row r="104" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:22" ht="21" customHeight="1">
       <c r="A104" s="48"/>
       <c r="B104" s="43"/>
       <c r="C104" s="44"/>
@@ -5087,7 +5084,7 @@
       <c r="U104" s="46"/>
       <c r="V104" s="47"/>
     </row>
-    <row r="105" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:22" ht="21" customHeight="1" thickBot="1">
       <c r="A105" s="49"/>
       <c r="B105" s="50"/>
       <c r="C105" s="51"/>
@@ -5111,38 +5108,21 @@
       <c r="U105" s="53"/>
       <c r="V105" s="54"/>
     </row>
-    <row r="106" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:22" ht="30" customHeight="1">
       <c r="K106" s="63"/>
       <c r="M106" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="U18:U19"/>
-    <mergeCell ref="V18:V19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="S18:S19"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="V13:V14"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="L18:L19"/>
     <mergeCell ref="Q13:Q14"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="I4:J4"/>
@@ -5157,15 +5137,32 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="V13:V14"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="U18:U19"/>
+    <mergeCell ref="V18:V19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="S18:S19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5177,10 +5174,10 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="22.42578125" style="87" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="88" customWidth="1"/>
@@ -5193,7 +5190,7 @@
     <col min="9" max="16384" width="9.140625" style="84"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="37" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="37" customFormat="1" ht="12.75">
       <c r="A1" s="160" t="s">
         <v>2</v>
       </c>
@@ -5209,11 +5206,11 @@
       <c r="G1" s="158" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="144" t="s">
+      <c r="H1" s="114" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="86" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="86" customFormat="1" ht="12.75">
       <c r="A2" s="161"/>
       <c r="B2" s="85" t="s">
         <v>20</v>
@@ -5233,5989 +5230,5989 @@
       <c r="G2" s="159"/>
       <c r="H2" s="164"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="H3" s="84" t="e">
         <f t="shared" ref="H3:H66" si="0">INDEX(Companies,MATCH(G3,StationIDs,0),1)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="H4" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="H5" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="H6" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="H7" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="H8" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="H9" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="H10" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="H11" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="H12" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="H13" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="H14" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="H15" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="H16" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="8:8">
       <c r="H17" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="8:8">
       <c r="H18" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="8:8">
       <c r="H19" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="8:8">
       <c r="H20" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="8:8">
       <c r="H21" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="8:8">
       <c r="H22" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="8:8">
       <c r="H23" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="8:8">
       <c r="H24" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="25" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="8:8">
       <c r="H25" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="8:8">
       <c r="H26" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="8:8">
       <c r="H27" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="8:8">
       <c r="H28" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="29" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="8:8">
       <c r="H29" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="8:8">
       <c r="H30" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="8:8">
       <c r="H31" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="8:8">
       <c r="H32" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="33" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="8:8">
       <c r="H33" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="8:8">
       <c r="H34" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="35" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="8:8">
       <c r="H35" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="36" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="8:8">
       <c r="H36" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="37" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="8:8">
       <c r="H37" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="38" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="8:8">
       <c r="H38" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="8:8">
       <c r="H39" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="8:8">
       <c r="H40" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="8:8">
       <c r="H41" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="8:8">
       <c r="H42" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="43" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="8:8">
       <c r="H43" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="44" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="8:8">
       <c r="H44" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="45" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="8:8">
       <c r="H45" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="8:8">
       <c r="H46" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="8:8">
       <c r="H47" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="8:8">
       <c r="H48" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="8:8">
       <c r="H49" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="8:8">
       <c r="H50" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="8:8">
       <c r="H51" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="8:8">
       <c r="H52" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="8:8">
       <c r="H53" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="8:8">
       <c r="H54" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="55" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="8:8">
       <c r="H55" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="56" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="8:8">
       <c r="H56" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="57" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="8:8">
       <c r="H57" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="58" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="8:8">
       <c r="H58" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="59" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="8:8">
       <c r="H59" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="60" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="8:8">
       <c r="H60" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="8:8">
       <c r="H61" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="62" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="8:8">
       <c r="H62" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="63" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="8:8">
       <c r="H63" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="64" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="8:8">
       <c r="H64" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="65" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="8:8">
       <c r="H65" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="66" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="8:8">
       <c r="H66" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="67" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="8:8">
       <c r="H67" s="84" t="e">
         <f t="shared" ref="H67:H130" si="1">INDEX(Companies,MATCH(G67,StationIDs,0),1)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="68" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="8:8">
       <c r="H68" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="69" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="8:8">
       <c r="H69" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="70" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="8:8">
       <c r="H70" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="71" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="8:8">
       <c r="H71" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="72" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="8:8">
       <c r="H72" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="73" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="8:8">
       <c r="H73" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="74" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="8:8">
       <c r="H74" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="75" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="8:8">
       <c r="H75" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="76" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="8:8">
       <c r="H76" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="77" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="8:8">
       <c r="H77" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="78" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="8:8">
       <c r="H78" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="79" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="8:8">
       <c r="H79" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="80" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="8:8">
       <c r="H80" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="81" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="8:8">
       <c r="H81" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="82" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="8:8">
       <c r="H82" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="83" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="8:8">
       <c r="H83" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="84" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="8:8">
       <c r="H84" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="85" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="8:8">
       <c r="H85" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="86" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="8:8">
       <c r="H86" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="87" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="8:8">
       <c r="H87" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="88" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="8:8">
       <c r="H88" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="89" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="8:8">
       <c r="H89" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="90" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="8:8">
       <c r="H90" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="91" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="8:8">
       <c r="H91" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="92" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="8:8">
       <c r="H92" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="93" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="8:8">
       <c r="H93" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="94" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="8:8">
       <c r="H94" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="95" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="8:8">
       <c r="H95" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="96" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="8:8">
       <c r="H96" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="97" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="8:8">
       <c r="H97" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="98" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="8:8">
       <c r="H98" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="99" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="8:8">
       <c r="H99" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="100" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="8:8">
       <c r="H100" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="101" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="8:8">
       <c r="H101" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="102" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="8:8">
       <c r="H102" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="103" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="8:8">
       <c r="H103" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="104" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="8:8">
       <c r="H104" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="105" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="8:8">
       <c r="H105" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="106" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="8:8">
       <c r="H106" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="107" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="8:8">
       <c r="H107" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="108" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="8:8">
       <c r="H108" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="109" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="8:8">
       <c r="H109" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="110" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="8:8">
       <c r="H110" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="111" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="8:8">
       <c r="H111" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="112" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="8:8">
       <c r="H112" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="113" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="8:8">
       <c r="H113" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="114" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="8:8">
       <c r="H114" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="115" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="8:8">
       <c r="H115" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="116" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="8:8">
       <c r="H116" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="117" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="8:8">
       <c r="H117" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="118" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="8:8">
       <c r="H118" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="119" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="8:8">
       <c r="H119" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="120" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="8:8">
       <c r="H120" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="121" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="8:8">
       <c r="H121" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="122" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="8:8">
       <c r="H122" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="123" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="8:8">
       <c r="H123" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="124" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="8:8">
       <c r="H124" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="125" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="8:8">
       <c r="H125" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="126" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="8:8">
       <c r="H126" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="127" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="8:8">
       <c r="H127" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="128" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="8:8">
       <c r="H128" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="129" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="8:8">
       <c r="H129" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="130" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="8:8">
       <c r="H130" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="131" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="8:8">
       <c r="H131" s="84" t="e">
         <f t="shared" ref="H131:H194" si="2">INDEX(Companies,MATCH(G131,StationIDs,0),1)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="132" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="8:8">
       <c r="H132" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="133" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="8:8">
       <c r="H133" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="134" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="8:8">
       <c r="H134" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="135" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="8:8">
       <c r="H135" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="136" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="8:8">
       <c r="H136" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="137" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="8:8">
       <c r="H137" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="138" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="8:8">
       <c r="H138" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="139" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="8:8">
       <c r="H139" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="140" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="8:8">
       <c r="H140" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="141" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="8:8">
       <c r="H141" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="142" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="8:8">
       <c r="H142" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="143" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="8:8">
       <c r="H143" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="144" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="8:8">
       <c r="H144" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="145" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="8:8">
       <c r="H145" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="146" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="8:8">
       <c r="H146" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="147" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="8:8">
       <c r="H147" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="148" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="8:8">
       <c r="H148" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="149" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="8:8">
       <c r="H149" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="150" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="8:8">
       <c r="H150" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="151" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="8:8">
       <c r="H151" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="152" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="8:8">
       <c r="H152" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="153" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="8:8">
       <c r="H153" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="154" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="8:8">
       <c r="H154" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="155" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="8:8">
       <c r="H155" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="156" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="8:8">
       <c r="H156" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="157" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="8:8">
       <c r="H157" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="158" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="8:8">
       <c r="H158" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="159" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="8:8">
       <c r="H159" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="160" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="8:8">
       <c r="H160" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="161" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="8:8">
       <c r="H161" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="162" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="8:8">
       <c r="H162" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="163" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="8:8">
       <c r="H163" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="164" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="8:8">
       <c r="H164" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="165" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="8:8">
       <c r="H165" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="166" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="8:8">
       <c r="H166" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="167" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="8:8">
       <c r="H167" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="168" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="8:8">
       <c r="H168" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="169" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="8:8">
       <c r="H169" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="170" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="8:8">
       <c r="H170" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="171" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="8:8">
       <c r="H171" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="172" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="8:8">
       <c r="H172" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="173" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="8:8">
       <c r="H173" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="174" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="8:8">
       <c r="H174" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="175" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="8:8">
       <c r="H175" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="176" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="8:8">
       <c r="H176" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="177" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="8:8">
       <c r="H177" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="178" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="8:8">
       <c r="H178" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="179" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="8:8">
       <c r="H179" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="180" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="8:8">
       <c r="H180" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="181" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="8:8">
       <c r="H181" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="182" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="8:8">
       <c r="H182" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="183" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="8:8">
       <c r="H183" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="184" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="8:8">
       <c r="H184" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="185" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="8:8">
       <c r="H185" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="186" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="8:8">
       <c r="H186" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="187" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="8:8">
       <c r="H187" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="188" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="8:8">
       <c r="H188" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="189" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="8:8">
       <c r="H189" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="190" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="8:8">
       <c r="H190" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="191" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="8:8">
       <c r="H191" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="192" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="8:8">
       <c r="H192" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="193" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="8:8">
       <c r="H193" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="194" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="8:8">
       <c r="H194" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="195" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="8:8">
       <c r="H195" s="84" t="e">
         <f t="shared" ref="H195:H258" si="3">INDEX(Companies,MATCH(G195,StationIDs,0),1)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="196" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="8:8">
       <c r="H196" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="197" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="197" spans="8:8">
       <c r="H197" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="198" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="198" spans="8:8">
       <c r="H198" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="199" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="199" spans="8:8">
       <c r="H199" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="200" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="200" spans="8:8">
       <c r="H200" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="201" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="201" spans="8:8">
       <c r="H201" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="202" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="202" spans="8:8">
       <c r="H202" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="203" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="203" spans="8:8">
       <c r="H203" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="204" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="204" spans="8:8">
       <c r="H204" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="205" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="205" spans="8:8">
       <c r="H205" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="206" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="206" spans="8:8">
       <c r="H206" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="207" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="207" spans="8:8">
       <c r="H207" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="208" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="208" spans="8:8">
       <c r="H208" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="209" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="209" spans="8:8">
       <c r="H209" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="210" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="210" spans="8:8">
       <c r="H210" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="211" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="211" spans="8:8">
       <c r="H211" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="212" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="212" spans="8:8">
       <c r="H212" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="213" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="213" spans="8:8">
       <c r="H213" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="214" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="214" spans="8:8">
       <c r="H214" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="215" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="215" spans="8:8">
       <c r="H215" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="216" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="216" spans="8:8">
       <c r="H216" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="217" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="217" spans="8:8">
       <c r="H217" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="218" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="218" spans="8:8">
       <c r="H218" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="219" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="219" spans="8:8">
       <c r="H219" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="220" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="220" spans="8:8">
       <c r="H220" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="221" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="221" spans="8:8">
       <c r="H221" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="222" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="222" spans="8:8">
       <c r="H222" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="223" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="223" spans="8:8">
       <c r="H223" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="224" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="224" spans="8:8">
       <c r="H224" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="225" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="225" spans="8:8">
       <c r="H225" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="226" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="226" spans="8:8">
       <c r="H226" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="227" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="227" spans="8:8">
       <c r="H227" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="228" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="228" spans="8:8">
       <c r="H228" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="229" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="229" spans="8:8">
       <c r="H229" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="230" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="230" spans="8:8">
       <c r="H230" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="231" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="231" spans="8:8">
       <c r="H231" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="232" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="232" spans="8:8">
       <c r="H232" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="233" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="233" spans="8:8">
       <c r="H233" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="234" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="234" spans="8:8">
       <c r="H234" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="235" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="235" spans="8:8">
       <c r="H235" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="236" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="236" spans="8:8">
       <c r="H236" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="237" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="237" spans="8:8">
       <c r="H237" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="238" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="238" spans="8:8">
       <c r="H238" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="239" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="239" spans="8:8">
       <c r="H239" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="240" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="240" spans="8:8">
       <c r="H240" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="241" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="241" spans="8:8">
       <c r="H241" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="242" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="242" spans="8:8">
       <c r="H242" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="243" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="243" spans="8:8">
       <c r="H243" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="244" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="244" spans="8:8">
       <c r="H244" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="245" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="245" spans="8:8">
       <c r="H245" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="246" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="246" spans="8:8">
       <c r="H246" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="247" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="247" spans="8:8">
       <c r="H247" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="248" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="248" spans="8:8">
       <c r="H248" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="249" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="249" spans="8:8">
       <c r="H249" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="250" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="250" spans="8:8">
       <c r="H250" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="251" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="251" spans="8:8">
       <c r="H251" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="252" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="252" spans="8:8">
       <c r="H252" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="253" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="253" spans="8:8">
       <c r="H253" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="254" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="254" spans="8:8">
       <c r="H254" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="255" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="255" spans="8:8">
       <c r="H255" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="256" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="256" spans="8:8">
       <c r="H256" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="257" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="257" spans="8:8">
       <c r="H257" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="258" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="258" spans="8:8">
       <c r="H258" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="259" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="259" spans="8:8">
       <c r="H259" s="84" t="e">
         <f t="shared" ref="H259:H322" si="4">INDEX(Companies,MATCH(G259,StationIDs,0),1)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="260" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="260" spans="8:8">
       <c r="H260" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="261" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="261" spans="8:8">
       <c r="H261" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="262" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="262" spans="8:8">
       <c r="H262" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="263" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="263" spans="8:8">
       <c r="H263" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="264" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="264" spans="8:8">
       <c r="H264" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="265" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="265" spans="8:8">
       <c r="H265" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="266" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="266" spans="8:8">
       <c r="H266" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="267" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="267" spans="8:8">
       <c r="H267" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="268" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="268" spans="8:8">
       <c r="H268" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="269" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="269" spans="8:8">
       <c r="H269" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="270" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="270" spans="8:8">
       <c r="H270" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="271" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="271" spans="8:8">
       <c r="H271" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="272" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="272" spans="8:8">
       <c r="H272" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="273" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="273" spans="8:8">
       <c r="H273" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="274" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="274" spans="8:8">
       <c r="H274" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="275" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="275" spans="8:8">
       <c r="H275" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="276" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="276" spans="8:8">
       <c r="H276" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="277" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="277" spans="8:8">
       <c r="H277" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="278" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="278" spans="8:8">
       <c r="H278" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="279" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="279" spans="8:8">
       <c r="H279" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="280" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="280" spans="8:8">
       <c r="H280" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="281" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="281" spans="8:8">
       <c r="H281" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="282" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="282" spans="8:8">
       <c r="H282" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="283" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="283" spans="8:8">
       <c r="H283" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="284" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="284" spans="8:8">
       <c r="H284" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="285" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="285" spans="8:8">
       <c r="H285" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="286" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="286" spans="8:8">
       <c r="H286" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="287" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="287" spans="8:8">
       <c r="H287" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="288" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="288" spans="8:8">
       <c r="H288" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="289" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="289" spans="8:8">
       <c r="H289" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="290" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="290" spans="8:8">
       <c r="H290" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="291" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="291" spans="8:8">
       <c r="H291" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="292" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="292" spans="8:8">
       <c r="H292" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="293" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="293" spans="8:8">
       <c r="H293" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="294" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="294" spans="8:8">
       <c r="H294" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="295" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="295" spans="8:8">
       <c r="H295" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="296" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="296" spans="8:8">
       <c r="H296" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="297" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="297" spans="8:8">
       <c r="H297" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="298" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="298" spans="8:8">
       <c r="H298" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="299" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="299" spans="8:8">
       <c r="H299" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="300" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="300" spans="8:8">
       <c r="H300" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="301" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="301" spans="8:8">
       <c r="H301" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="302" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="302" spans="8:8">
       <c r="H302" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="303" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="303" spans="8:8">
       <c r="H303" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="304" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="304" spans="8:8">
       <c r="H304" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="305" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="305" spans="8:8">
       <c r="H305" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="306" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="306" spans="8:8">
       <c r="H306" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="307" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="307" spans="8:8">
       <c r="H307" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="308" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="308" spans="8:8">
       <c r="H308" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="309" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="309" spans="8:8">
       <c r="H309" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="310" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="310" spans="8:8">
       <c r="H310" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="311" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="311" spans="8:8">
       <c r="H311" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="312" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="312" spans="8:8">
       <c r="H312" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="313" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="313" spans="8:8">
       <c r="H313" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="314" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="314" spans="8:8">
       <c r="H314" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="315" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="315" spans="8:8">
       <c r="H315" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="316" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="316" spans="8:8">
       <c r="H316" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="317" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="317" spans="8:8">
       <c r="H317" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="318" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="318" spans="8:8">
       <c r="H318" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="319" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="319" spans="8:8">
       <c r="H319" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="320" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="320" spans="8:8">
       <c r="H320" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="321" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="321" spans="8:8">
       <c r="H321" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="322" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="322" spans="8:8">
       <c r="H322" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="323" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="323" spans="8:8">
       <c r="H323" s="84" t="e">
         <f t="shared" ref="H323:H386" si="5">INDEX(Companies,MATCH(G323,StationIDs,0),1)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="324" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="324" spans="8:8">
       <c r="H324" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="325" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="325" spans="8:8">
       <c r="H325" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="326" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="326" spans="8:8">
       <c r="H326" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="327" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="327" spans="8:8">
       <c r="H327" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="328" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="328" spans="8:8">
       <c r="H328" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="329" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="329" spans="8:8">
       <c r="H329" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="330" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="330" spans="8:8">
       <c r="H330" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="331" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="331" spans="8:8">
       <c r="H331" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="332" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="332" spans="8:8">
       <c r="H332" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="333" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="333" spans="8:8">
       <c r="H333" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="334" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="334" spans="8:8">
       <c r="H334" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="335" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="335" spans="8:8">
       <c r="H335" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="336" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="336" spans="8:8">
       <c r="H336" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="337" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="337" spans="8:8">
       <c r="H337" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="338" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="338" spans="8:8">
       <c r="H338" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="339" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="339" spans="8:8">
       <c r="H339" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="340" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="340" spans="8:8">
       <c r="H340" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="341" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="341" spans="8:8">
       <c r="H341" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="342" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="342" spans="8:8">
       <c r="H342" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="343" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="343" spans="8:8">
       <c r="H343" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="344" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="344" spans="8:8">
       <c r="H344" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="345" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="345" spans="8:8">
       <c r="H345" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="346" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="346" spans="8:8">
       <c r="H346" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="347" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="347" spans="8:8">
       <c r="H347" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="348" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="348" spans="8:8">
       <c r="H348" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="349" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="349" spans="8:8">
       <c r="H349" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="350" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="350" spans="8:8">
       <c r="H350" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="351" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="351" spans="8:8">
       <c r="H351" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="352" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="352" spans="8:8">
       <c r="H352" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="353" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="353" spans="8:8">
       <c r="H353" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="354" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="354" spans="8:8">
       <c r="H354" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="355" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="355" spans="8:8">
       <c r="H355" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="356" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="356" spans="8:8">
       <c r="H356" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="357" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="357" spans="8:8">
       <c r="H357" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="358" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="358" spans="8:8">
       <c r="H358" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="359" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="359" spans="8:8">
       <c r="H359" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="360" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="360" spans="8:8">
       <c r="H360" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="361" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="361" spans="8:8">
       <c r="H361" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="362" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="362" spans="8:8">
       <c r="H362" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="363" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="363" spans="8:8">
       <c r="H363" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="364" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="364" spans="8:8">
       <c r="H364" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="365" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="365" spans="8:8">
       <c r="H365" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="366" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="366" spans="8:8">
       <c r="H366" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="367" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="367" spans="8:8">
       <c r="H367" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="368" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="368" spans="8:8">
       <c r="H368" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="369" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="369" spans="8:8">
       <c r="H369" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="370" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="370" spans="8:8">
       <c r="H370" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="371" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="371" spans="8:8">
       <c r="H371" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="372" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="372" spans="8:8">
       <c r="H372" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="373" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="373" spans="8:8">
       <c r="H373" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="374" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="374" spans="8:8">
       <c r="H374" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="375" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="375" spans="8:8">
       <c r="H375" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="376" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="376" spans="8:8">
       <c r="H376" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="377" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="377" spans="8:8">
       <c r="H377" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="378" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="378" spans="8:8">
       <c r="H378" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="379" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="379" spans="8:8">
       <c r="H379" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="380" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="380" spans="8:8">
       <c r="H380" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="381" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="381" spans="8:8">
       <c r="H381" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="382" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="382" spans="8:8">
       <c r="H382" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="383" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="383" spans="8:8">
       <c r="H383" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="384" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="384" spans="8:8">
       <c r="H384" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="385" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="385" spans="8:8">
       <c r="H385" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="386" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="386" spans="8:8">
       <c r="H386" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="387" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="387" spans="8:8">
       <c r="H387" s="84" t="e">
         <f t="shared" ref="H387:H450" si="6">INDEX(Companies,MATCH(G387,StationIDs,0),1)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="388" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="388" spans="8:8">
       <c r="H388" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="389" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="389" spans="8:8">
       <c r="H389" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="390" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="390" spans="8:8">
       <c r="H390" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="391" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="391" spans="8:8">
       <c r="H391" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="392" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="392" spans="8:8">
       <c r="H392" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="393" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="393" spans="8:8">
       <c r="H393" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="394" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="394" spans="8:8">
       <c r="H394" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="395" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="395" spans="8:8">
       <c r="H395" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="396" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="396" spans="8:8">
       <c r="H396" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="397" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="397" spans="8:8">
       <c r="H397" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="398" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="398" spans="8:8">
       <c r="H398" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="399" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="399" spans="8:8">
       <c r="H399" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="400" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="400" spans="8:8">
       <c r="H400" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="401" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="401" spans="8:8">
       <c r="H401" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="402" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="402" spans="8:8">
       <c r="H402" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="403" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="403" spans="8:8">
       <c r="H403" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="404" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="404" spans="8:8">
       <c r="H404" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="405" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="405" spans="8:8">
       <c r="H405" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="406" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="406" spans="8:8">
       <c r="H406" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="407" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="407" spans="8:8">
       <c r="H407" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="408" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="408" spans="8:8">
       <c r="H408" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="409" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="409" spans="8:8">
       <c r="H409" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="410" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="410" spans="8:8">
       <c r="H410" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="411" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="411" spans="8:8">
       <c r="H411" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="412" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="412" spans="8:8">
       <c r="H412" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="413" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="413" spans="8:8">
       <c r="H413" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="414" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="414" spans="8:8">
       <c r="H414" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="415" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="415" spans="8:8">
       <c r="H415" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="416" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="416" spans="8:8">
       <c r="H416" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="417" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="417" spans="8:8">
       <c r="H417" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="418" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="418" spans="8:8">
       <c r="H418" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="419" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="419" spans="8:8">
       <c r="H419" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="420" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="420" spans="8:8">
       <c r="H420" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="421" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="421" spans="8:8">
       <c r="H421" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="422" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="422" spans="8:8">
       <c r="H422" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="423" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="423" spans="8:8">
       <c r="H423" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="424" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="424" spans="8:8">
       <c r="H424" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="425" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="425" spans="8:8">
       <c r="H425" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="426" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="426" spans="8:8">
       <c r="H426" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="427" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="427" spans="8:8">
       <c r="H427" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="428" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="428" spans="8:8">
       <c r="H428" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="429" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="429" spans="8:8">
       <c r="H429" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="430" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="430" spans="8:8">
       <c r="H430" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="431" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="431" spans="8:8">
       <c r="H431" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="432" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="432" spans="8:8">
       <c r="H432" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="433" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="433" spans="8:8">
       <c r="H433" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="434" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="434" spans="8:8">
       <c r="H434" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="435" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="435" spans="8:8">
       <c r="H435" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="436" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="436" spans="8:8">
       <c r="H436" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="437" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="437" spans="8:8">
       <c r="H437" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="438" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="438" spans="8:8">
       <c r="H438" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="439" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="439" spans="8:8">
       <c r="H439" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="440" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="440" spans="8:8">
       <c r="H440" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="441" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="441" spans="8:8">
       <c r="H441" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="442" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="442" spans="8:8">
       <c r="H442" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="443" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="443" spans="8:8">
       <c r="H443" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="444" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="444" spans="8:8">
       <c r="H444" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="445" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="445" spans="8:8">
       <c r="H445" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="446" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="446" spans="8:8">
       <c r="H446" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="447" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="447" spans="8:8">
       <c r="H447" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="448" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="448" spans="8:8">
       <c r="H448" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="449" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="449" spans="8:8">
       <c r="H449" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="450" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="450" spans="8:8">
       <c r="H450" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="451" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="451" spans="8:8">
       <c r="H451" s="84" t="e">
         <f t="shared" ref="H451:H514" si="7">INDEX(Companies,MATCH(G451,StationIDs,0),1)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="452" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="452" spans="8:8">
       <c r="H452" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="453" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="453" spans="8:8">
       <c r="H453" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="454" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="454" spans="8:8">
       <c r="H454" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="455" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="455" spans="8:8">
       <c r="H455" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="456" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="456" spans="8:8">
       <c r="H456" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="457" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="457" spans="8:8">
       <c r="H457" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="458" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="458" spans="8:8">
       <c r="H458" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="459" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="459" spans="8:8">
       <c r="H459" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="460" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="460" spans="8:8">
       <c r="H460" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="461" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="461" spans="8:8">
       <c r="H461" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="462" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="462" spans="8:8">
       <c r="H462" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="463" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="463" spans="8:8">
       <c r="H463" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="464" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="464" spans="8:8">
       <c r="H464" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="465" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="465" spans="8:8">
       <c r="H465" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="466" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="466" spans="8:8">
       <c r="H466" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="467" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="467" spans="8:8">
       <c r="H467" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="468" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="468" spans="8:8">
       <c r="H468" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="469" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="469" spans="8:8">
       <c r="H469" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="470" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="470" spans="8:8">
       <c r="H470" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="471" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="471" spans="8:8">
       <c r="H471" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="472" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="472" spans="8:8">
       <c r="H472" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="473" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="473" spans="8:8">
       <c r="H473" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="474" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="474" spans="8:8">
       <c r="H474" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="475" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="475" spans="8:8">
       <c r="H475" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="476" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="476" spans="8:8">
       <c r="H476" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="477" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="477" spans="8:8">
       <c r="H477" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="478" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="478" spans="8:8">
       <c r="H478" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="479" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="479" spans="8:8">
       <c r="H479" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="480" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="480" spans="8:8">
       <c r="H480" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="481" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="481" spans="8:8">
       <c r="H481" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="482" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="482" spans="8:8">
       <c r="H482" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="483" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="483" spans="8:8">
       <c r="H483" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="484" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="484" spans="8:8">
       <c r="H484" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="485" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="485" spans="8:8">
       <c r="H485" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="486" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="486" spans="8:8">
       <c r="H486" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="487" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="487" spans="8:8">
       <c r="H487" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="488" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="488" spans="8:8">
       <c r="H488" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="489" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="489" spans="8:8">
       <c r="H489" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="490" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="490" spans="8:8">
       <c r="H490" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="491" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="491" spans="8:8">
       <c r="H491" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="492" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="492" spans="8:8">
       <c r="H492" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="493" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="493" spans="8:8">
       <c r="H493" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="494" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="494" spans="8:8">
       <c r="H494" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="495" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="495" spans="8:8">
       <c r="H495" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="496" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="496" spans="8:8">
       <c r="H496" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="497" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="497" spans="8:8">
       <c r="H497" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="498" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="498" spans="8:8">
       <c r="H498" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="499" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="499" spans="8:8">
       <c r="H499" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="500" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="500" spans="8:8">
       <c r="H500" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="501" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="501" spans="8:8">
       <c r="H501" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="502" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="502" spans="8:8">
       <c r="H502" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="503" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="503" spans="8:8">
       <c r="H503" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="504" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="504" spans="8:8">
       <c r="H504" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="505" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="505" spans="8:8">
       <c r="H505" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="506" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="506" spans="8:8">
       <c r="H506" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="507" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="507" spans="8:8">
       <c r="H507" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="508" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="508" spans="8:8">
       <c r="H508" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="509" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="509" spans="8:8">
       <c r="H509" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="510" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="510" spans="8:8">
       <c r="H510" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="511" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="511" spans="8:8">
       <c r="H511" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="512" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="512" spans="8:8">
       <c r="H512" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="513" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="513" spans="8:8">
       <c r="H513" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="514" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="514" spans="8:8">
       <c r="H514" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="515" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="515" spans="8:8">
       <c r="H515" s="84" t="e">
         <f t="shared" ref="H515:H578" si="8">INDEX(Companies,MATCH(G515,StationIDs,0),1)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="516" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="516" spans="8:8">
       <c r="H516" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="517" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="517" spans="8:8">
       <c r="H517" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="518" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="518" spans="8:8">
       <c r="H518" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="519" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="519" spans="8:8">
       <c r="H519" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="520" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="520" spans="8:8">
       <c r="H520" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="521" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="521" spans="8:8">
       <c r="H521" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="522" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="522" spans="8:8">
       <c r="H522" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="523" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="523" spans="8:8">
       <c r="H523" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="524" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="524" spans="8:8">
       <c r="H524" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="525" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="525" spans="8:8">
       <c r="H525" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="526" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="526" spans="8:8">
       <c r="H526" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="527" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="527" spans="8:8">
       <c r="H527" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="528" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="528" spans="8:8">
       <c r="H528" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="529" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="529" spans="8:8">
       <c r="H529" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="530" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="530" spans="8:8">
       <c r="H530" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="531" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="531" spans="8:8">
       <c r="H531" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="532" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="532" spans="8:8">
       <c r="H532" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="533" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="533" spans="8:8">
       <c r="H533" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="534" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="534" spans="8:8">
       <c r="H534" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="535" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="535" spans="8:8">
       <c r="H535" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="536" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="536" spans="8:8">
       <c r="H536" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="537" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="537" spans="8:8">
       <c r="H537" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="538" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="538" spans="8:8">
       <c r="H538" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="539" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="539" spans="8:8">
       <c r="H539" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="540" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="540" spans="8:8">
       <c r="H540" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="541" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="541" spans="8:8">
       <c r="H541" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="542" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="542" spans="8:8">
       <c r="H542" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="543" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="543" spans="8:8">
       <c r="H543" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="544" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="544" spans="8:8">
       <c r="H544" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="545" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="545" spans="8:8">
       <c r="H545" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="546" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="546" spans="8:8">
       <c r="H546" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="547" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="547" spans="8:8">
       <c r="H547" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="548" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="548" spans="8:8">
       <c r="H548" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="549" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="549" spans="8:8">
       <c r="H549" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="550" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="550" spans="8:8">
       <c r="H550" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="551" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="551" spans="8:8">
       <c r="H551" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="552" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="552" spans="8:8">
       <c r="H552" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="553" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="553" spans="8:8">
       <c r="H553" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="554" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="554" spans="8:8">
       <c r="H554" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="555" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="555" spans="8:8">
       <c r="H555" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="556" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="556" spans="8:8">
       <c r="H556" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="557" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="557" spans="8:8">
       <c r="H557" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="558" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="558" spans="8:8">
       <c r="H558" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="559" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="559" spans="8:8">
       <c r="H559" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="560" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="560" spans="8:8">
       <c r="H560" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="561" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="561" spans="8:8">
       <c r="H561" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="562" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="562" spans="8:8">
       <c r="H562" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="563" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="563" spans="8:8">
       <c r="H563" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="564" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="564" spans="8:8">
       <c r="H564" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="565" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="565" spans="8:8">
       <c r="H565" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="566" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="566" spans="8:8">
       <c r="H566" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="567" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="567" spans="8:8">
       <c r="H567" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="568" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="568" spans="8:8">
       <c r="H568" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="569" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="569" spans="8:8">
       <c r="H569" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="570" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="570" spans="8:8">
       <c r="H570" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="571" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="571" spans="8:8">
       <c r="H571" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="572" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="572" spans="8:8">
       <c r="H572" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="573" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="573" spans="8:8">
       <c r="H573" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="574" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="574" spans="8:8">
       <c r="H574" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="575" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="575" spans="8:8">
       <c r="H575" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="576" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="576" spans="8:8">
       <c r="H576" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="577" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="577" spans="8:8">
       <c r="H577" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="578" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="578" spans="8:8">
       <c r="H578" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="579" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="579" spans="8:8">
       <c r="H579" s="84" t="e">
         <f t="shared" ref="H579:H642" si="9">INDEX(Companies,MATCH(G579,StationIDs,0),1)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="580" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="580" spans="8:8">
       <c r="H580" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="581" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="581" spans="8:8">
       <c r="H581" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="582" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="582" spans="8:8">
       <c r="H582" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="583" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="583" spans="8:8">
       <c r="H583" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="584" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="584" spans="8:8">
       <c r="H584" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="585" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="585" spans="8:8">
       <c r="H585" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="586" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="586" spans="8:8">
       <c r="H586" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="587" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="587" spans="8:8">
       <c r="H587" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="588" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="588" spans="8:8">
       <c r="H588" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="589" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="589" spans="8:8">
       <c r="H589" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="590" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="590" spans="8:8">
       <c r="H590" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="591" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="591" spans="8:8">
       <c r="H591" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="592" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="592" spans="8:8">
       <c r="H592" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="593" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="593" spans="8:8">
       <c r="H593" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="594" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="594" spans="8:8">
       <c r="H594" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="595" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="595" spans="8:8">
       <c r="H595" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="596" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="596" spans="8:8">
       <c r="H596" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="597" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="597" spans="8:8">
       <c r="H597" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="598" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="598" spans="8:8">
       <c r="H598" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="599" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="599" spans="8:8">
       <c r="H599" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="600" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="600" spans="8:8">
       <c r="H600" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="601" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="601" spans="8:8">
       <c r="H601" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="602" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="602" spans="8:8">
       <c r="H602" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="603" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="603" spans="8:8">
       <c r="H603" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="604" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="604" spans="8:8">
       <c r="H604" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="605" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="605" spans="8:8">
       <c r="H605" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="606" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="606" spans="8:8">
       <c r="H606" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="607" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="607" spans="8:8">
       <c r="H607" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="608" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="608" spans="8:8">
       <c r="H608" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="609" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="609" spans="8:8">
       <c r="H609" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="610" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="610" spans="8:8">
       <c r="H610" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="611" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="611" spans="8:8">
       <c r="H611" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="612" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="612" spans="8:8">
       <c r="H612" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="613" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="613" spans="8:8">
       <c r="H613" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="614" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="614" spans="8:8">
       <c r="H614" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="615" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="615" spans="8:8">
       <c r="H615" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="616" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="616" spans="8:8">
       <c r="H616" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="617" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="617" spans="8:8">
       <c r="H617" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="618" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="618" spans="8:8">
       <c r="H618" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="619" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="619" spans="8:8">
       <c r="H619" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="620" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="620" spans="8:8">
       <c r="H620" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="621" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="621" spans="8:8">
       <c r="H621" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="622" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="622" spans="8:8">
       <c r="H622" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="623" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="623" spans="8:8">
       <c r="H623" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="624" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="624" spans="8:8">
       <c r="H624" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="625" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="625" spans="8:8">
       <c r="H625" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="626" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="626" spans="8:8">
       <c r="H626" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="627" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="627" spans="8:8">
       <c r="H627" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="628" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="628" spans="8:8">
       <c r="H628" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="629" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="629" spans="8:8">
       <c r="H629" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="630" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="630" spans="8:8">
       <c r="H630" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="631" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="631" spans="8:8">
       <c r="H631" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="632" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="632" spans="8:8">
       <c r="H632" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="633" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="633" spans="8:8">
       <c r="H633" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="634" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="634" spans="8:8">
       <c r="H634" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="635" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="635" spans="8:8">
       <c r="H635" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="636" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="636" spans="8:8">
       <c r="H636" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="637" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="637" spans="8:8">
       <c r="H637" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="638" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="638" spans="8:8">
       <c r="H638" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="639" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="639" spans="8:8">
       <c r="H639" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="640" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="640" spans="8:8">
       <c r="H640" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="641" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="641" spans="8:8">
       <c r="H641" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="642" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="642" spans="8:8">
       <c r="H642" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="643" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="643" spans="8:8">
       <c r="H643" s="84" t="e">
         <f t="shared" ref="H643:H706" si="10">INDEX(Companies,MATCH(G643,StationIDs,0),1)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="644" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="644" spans="8:8">
       <c r="H644" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="645" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="645" spans="8:8">
       <c r="H645" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="646" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="646" spans="8:8">
       <c r="H646" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="647" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="647" spans="8:8">
       <c r="H647" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="648" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="648" spans="8:8">
       <c r="H648" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="649" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="649" spans="8:8">
       <c r="H649" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="650" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="650" spans="8:8">
       <c r="H650" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="651" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="651" spans="8:8">
       <c r="H651" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="652" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="652" spans="8:8">
       <c r="H652" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="653" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="653" spans="8:8">
       <c r="H653" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="654" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="654" spans="8:8">
       <c r="H654" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="655" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="655" spans="8:8">
       <c r="H655" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="656" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="656" spans="8:8">
       <c r="H656" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="657" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="657" spans="8:8">
       <c r="H657" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="658" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="658" spans="8:8">
       <c r="H658" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="659" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="659" spans="8:8">
       <c r="H659" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="660" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="660" spans="8:8">
       <c r="H660" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="661" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="661" spans="8:8">
       <c r="H661" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="662" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="662" spans="8:8">
       <c r="H662" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="663" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="663" spans="8:8">
       <c r="H663" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="664" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="664" spans="8:8">
       <c r="H664" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="665" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="665" spans="8:8">
       <c r="H665" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="666" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="666" spans="8:8">
       <c r="H666" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="667" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="667" spans="8:8">
       <c r="H667" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="668" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="668" spans="8:8">
       <c r="H668" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="669" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="669" spans="8:8">
       <c r="H669" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="670" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="670" spans="8:8">
       <c r="H670" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="671" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="671" spans="8:8">
       <c r="H671" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="672" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="672" spans="8:8">
       <c r="H672" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="673" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="673" spans="8:8">
       <c r="H673" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="674" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="674" spans="8:8">
       <c r="H674" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="675" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="675" spans="8:8">
       <c r="H675" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="676" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="676" spans="8:8">
       <c r="H676" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="677" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="677" spans="8:8">
       <c r="H677" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="678" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="678" spans="8:8">
       <c r="H678" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="679" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="679" spans="8:8">
       <c r="H679" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="680" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="680" spans="8:8">
       <c r="H680" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="681" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="681" spans="8:8">
       <c r="H681" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="682" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="682" spans="8:8">
       <c r="H682" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="683" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="683" spans="8:8">
       <c r="H683" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="684" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="684" spans="8:8">
       <c r="H684" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="685" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="685" spans="8:8">
       <c r="H685" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="686" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="686" spans="8:8">
       <c r="H686" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="687" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="687" spans="8:8">
       <c r="H687" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="688" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="688" spans="8:8">
       <c r="H688" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="689" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="689" spans="8:8">
       <c r="H689" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="690" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="690" spans="8:8">
       <c r="H690" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="691" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="691" spans="8:8">
       <c r="H691" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="692" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="692" spans="8:8">
       <c r="H692" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="693" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="693" spans="8:8">
       <c r="H693" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="694" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="694" spans="8:8">
       <c r="H694" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="695" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="695" spans="8:8">
       <c r="H695" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="696" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="696" spans="8:8">
       <c r="H696" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="697" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="697" spans="8:8">
       <c r="H697" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="698" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="698" spans="8:8">
       <c r="H698" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="699" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="699" spans="8:8">
       <c r="H699" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="700" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="700" spans="8:8">
       <c r="H700" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="701" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="701" spans="8:8">
       <c r="H701" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="702" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="702" spans="8:8">
       <c r="H702" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="703" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="703" spans="8:8">
       <c r="H703" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="704" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="704" spans="8:8">
       <c r="H704" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="705" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="705" spans="8:8">
       <c r="H705" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="706" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="706" spans="8:8">
       <c r="H706" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="707" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="707" spans="8:8">
       <c r="H707" s="84" t="e">
         <f t="shared" ref="H707:H770" si="11">INDEX(Companies,MATCH(G707,StationIDs,0),1)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="708" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="708" spans="8:8">
       <c r="H708" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="709" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="709" spans="8:8">
       <c r="H709" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="710" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="710" spans="8:8">
       <c r="H710" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="711" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="711" spans="8:8">
       <c r="H711" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="712" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="712" spans="8:8">
       <c r="H712" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="713" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="713" spans="8:8">
       <c r="H713" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="714" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="714" spans="8:8">
       <c r="H714" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="715" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="715" spans="8:8">
       <c r="H715" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="716" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="716" spans="8:8">
       <c r="H716" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="717" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="717" spans="8:8">
       <c r="H717" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="718" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="718" spans="8:8">
       <c r="H718" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="719" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="719" spans="8:8">
       <c r="H719" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="720" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="720" spans="8:8">
       <c r="H720" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="721" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="721" spans="8:8">
       <c r="H721" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="722" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="722" spans="8:8">
       <c r="H722" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="723" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="723" spans="8:8">
       <c r="H723" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="724" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="724" spans="8:8">
       <c r="H724" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="725" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="725" spans="8:8">
       <c r="H725" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="726" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="726" spans="8:8">
       <c r="H726" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="727" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="727" spans="8:8">
       <c r="H727" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="728" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="728" spans="8:8">
       <c r="H728" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="729" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="729" spans="8:8">
       <c r="H729" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="730" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="730" spans="8:8">
       <c r="H730" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="731" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="731" spans="8:8">
       <c r="H731" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="732" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="732" spans="8:8">
       <c r="H732" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="733" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="733" spans="8:8">
       <c r="H733" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="734" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="734" spans="8:8">
       <c r="H734" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="735" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="735" spans="8:8">
       <c r="H735" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="736" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="736" spans="8:8">
       <c r="H736" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="737" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="737" spans="8:8">
       <c r="H737" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="738" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="738" spans="8:8">
       <c r="H738" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="739" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="739" spans="8:8">
       <c r="H739" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="740" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="740" spans="8:8">
       <c r="H740" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="741" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="741" spans="8:8">
       <c r="H741" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="742" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="742" spans="8:8">
       <c r="H742" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="743" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="743" spans="8:8">
       <c r="H743" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="744" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="744" spans="8:8">
       <c r="H744" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="745" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="745" spans="8:8">
       <c r="H745" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="746" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="746" spans="8:8">
       <c r="H746" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="747" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="747" spans="8:8">
       <c r="H747" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="748" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="748" spans="8:8">
       <c r="H748" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="749" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="749" spans="8:8">
       <c r="H749" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="750" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="750" spans="8:8">
       <c r="H750" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="751" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="751" spans="8:8">
       <c r="H751" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="752" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="752" spans="8:8">
       <c r="H752" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="753" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="753" spans="8:8">
       <c r="H753" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="754" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="754" spans="8:8">
       <c r="H754" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="755" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="755" spans="8:8">
       <c r="H755" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="756" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="756" spans="8:8">
       <c r="H756" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="757" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="757" spans="8:8">
       <c r="H757" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="758" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="758" spans="8:8">
       <c r="H758" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="759" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="759" spans="8:8">
       <c r="H759" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="760" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="760" spans="8:8">
       <c r="H760" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="761" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="761" spans="8:8">
       <c r="H761" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="762" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="762" spans="8:8">
       <c r="H762" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="763" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="763" spans="8:8">
       <c r="H763" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="764" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="764" spans="8:8">
       <c r="H764" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="765" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="765" spans="8:8">
       <c r="H765" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="766" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="766" spans="8:8">
       <c r="H766" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="767" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="767" spans="8:8">
       <c r="H767" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="768" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="768" spans="8:8">
       <c r="H768" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="769" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="769" spans="8:8">
       <c r="H769" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="770" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="770" spans="8:8">
       <c r="H770" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="771" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="771" spans="8:8">
       <c r="H771" s="84" t="e">
         <f t="shared" ref="H771:H834" si="12">INDEX(Companies,MATCH(G771,StationIDs,0),1)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="772" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="772" spans="8:8">
       <c r="H772" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="773" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="773" spans="8:8">
       <c r="H773" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="774" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="774" spans="8:8">
       <c r="H774" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="775" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="775" spans="8:8">
       <c r="H775" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="776" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="776" spans="8:8">
       <c r="H776" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="777" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="777" spans="8:8">
       <c r="H777" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="778" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="778" spans="8:8">
       <c r="H778" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="779" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="779" spans="8:8">
       <c r="H779" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="780" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="780" spans="8:8">
       <c r="H780" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="781" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="781" spans="8:8">
       <c r="H781" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="782" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="782" spans="8:8">
       <c r="H782" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="783" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="783" spans="8:8">
       <c r="H783" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="784" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="784" spans="8:8">
       <c r="H784" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="785" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="785" spans="8:8">
       <c r="H785" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="786" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="786" spans="8:8">
       <c r="H786" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="787" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="787" spans="8:8">
       <c r="H787" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="788" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="788" spans="8:8">
       <c r="H788" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="789" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="789" spans="8:8">
       <c r="H789" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="790" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="790" spans="8:8">
       <c r="H790" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="791" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="791" spans="8:8">
       <c r="H791" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="792" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="792" spans="8:8">
       <c r="H792" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="793" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="793" spans="8:8">
       <c r="H793" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="794" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="794" spans="8:8">
       <c r="H794" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="795" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="795" spans="8:8">
       <c r="H795" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="796" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="796" spans="8:8">
       <c r="H796" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="797" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="797" spans="8:8">
       <c r="H797" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="798" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="798" spans="8:8">
       <c r="H798" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="799" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="799" spans="8:8">
       <c r="H799" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="800" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="800" spans="8:8">
       <c r="H800" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="801" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="801" spans="8:8">
       <c r="H801" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="802" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="802" spans="8:8">
       <c r="H802" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="803" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="803" spans="8:8">
       <c r="H803" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="804" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="804" spans="8:8">
       <c r="H804" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="805" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="805" spans="8:8">
       <c r="H805" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="806" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="806" spans="8:8">
       <c r="H806" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="807" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="807" spans="8:8">
       <c r="H807" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="808" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="808" spans="8:8">
       <c r="H808" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="809" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="809" spans="8:8">
       <c r="H809" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="810" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="810" spans="8:8">
       <c r="H810" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="811" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="811" spans="8:8">
       <c r="H811" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="812" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="812" spans="8:8">
       <c r="H812" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="813" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="813" spans="8:8">
       <c r="H813" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="814" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="814" spans="8:8">
       <c r="H814" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="815" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="815" spans="8:8">
       <c r="H815" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="816" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="816" spans="8:8">
       <c r="H816" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="817" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="817" spans="8:8">
       <c r="H817" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="818" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="818" spans="8:8">
       <c r="H818" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="819" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="819" spans="8:8">
       <c r="H819" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="820" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="820" spans="8:8">
       <c r="H820" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="821" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="821" spans="8:8">
       <c r="H821" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="822" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="822" spans="8:8">
       <c r="H822" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="823" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="823" spans="8:8">
       <c r="H823" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="824" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="824" spans="8:8">
       <c r="H824" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="825" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="825" spans="8:8">
       <c r="H825" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="826" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="826" spans="8:8">
       <c r="H826" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="827" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="827" spans="8:8">
       <c r="H827" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="828" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="828" spans="8:8">
       <c r="H828" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="829" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="829" spans="8:8">
       <c r="H829" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="830" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="830" spans="8:8">
       <c r="H830" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="831" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="831" spans="8:8">
       <c r="H831" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="832" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="832" spans="8:8">
       <c r="H832" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="833" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="833" spans="8:8">
       <c r="H833" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="834" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="834" spans="8:8">
       <c r="H834" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="835" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="835" spans="8:8">
       <c r="H835" s="84" t="e">
         <f t="shared" ref="H835:H898" si="13">INDEX(Companies,MATCH(G835,StationIDs,0),1)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="836" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="836" spans="8:8">
       <c r="H836" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="837" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="837" spans="8:8">
       <c r="H837" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="838" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="838" spans="8:8">
       <c r="H838" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="839" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="839" spans="8:8">
       <c r="H839" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="840" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="840" spans="8:8">
       <c r="H840" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="841" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="841" spans="8:8">
       <c r="H841" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="842" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="842" spans="8:8">
       <c r="H842" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="843" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="843" spans="8:8">
       <c r="H843" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="844" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="844" spans="8:8">
       <c r="H844" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="845" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="845" spans="8:8">
       <c r="H845" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="846" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="846" spans="8:8">
       <c r="H846" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="847" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="847" spans="8:8">
       <c r="H847" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="848" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="848" spans="8:8">
       <c r="H848" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="849" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="849" spans="8:8">
       <c r="H849" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="850" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="850" spans="8:8">
       <c r="H850" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="851" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="851" spans="8:8">
       <c r="H851" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="852" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="852" spans="8:8">
       <c r="H852" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="853" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="853" spans="8:8">
       <c r="H853" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="854" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="854" spans="8:8">
       <c r="H854" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="855" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="855" spans="8:8">
       <c r="H855" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="856" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="856" spans="8:8">
       <c r="H856" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="857" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="857" spans="8:8">
       <c r="H857" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="858" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="858" spans="8:8">
       <c r="H858" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="859" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="859" spans="8:8">
       <c r="H859" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="860" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="860" spans="8:8">
       <c r="H860" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="861" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="861" spans="8:8">
       <c r="H861" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="862" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="862" spans="8:8">
       <c r="H862" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="863" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="863" spans="8:8">
       <c r="H863" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="864" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="864" spans="8:8">
       <c r="H864" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="865" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="865" spans="8:8">
       <c r="H865" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="866" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="866" spans="8:8">
       <c r="H866" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="867" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="867" spans="8:8">
       <c r="H867" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="868" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="868" spans="8:8">
       <c r="H868" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="869" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="869" spans="8:8">
       <c r="H869" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="870" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="870" spans="8:8">
       <c r="H870" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="871" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="871" spans="8:8">
       <c r="H871" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="872" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="872" spans="8:8">
       <c r="H872" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="873" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="873" spans="8:8">
       <c r="H873" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="874" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="874" spans="8:8">
       <c r="H874" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="875" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="875" spans="8:8">
       <c r="H875" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="876" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="876" spans="8:8">
       <c r="H876" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="877" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="877" spans="8:8">
       <c r="H877" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="878" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="878" spans="8:8">
       <c r="H878" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="879" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="879" spans="8:8">
       <c r="H879" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="880" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="880" spans="8:8">
       <c r="H880" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="881" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="881" spans="8:8">
       <c r="H881" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="882" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="882" spans="8:8">
       <c r="H882" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="883" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="883" spans="8:8">
       <c r="H883" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="884" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="884" spans="8:8">
       <c r="H884" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="885" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="885" spans="8:8">
       <c r="H885" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="886" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="886" spans="8:8">
       <c r="H886" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="887" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="887" spans="8:8">
       <c r="H887" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="888" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="888" spans="8:8">
       <c r="H888" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="889" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="889" spans="8:8">
       <c r="H889" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="890" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="890" spans="8:8">
       <c r="H890" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="891" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="891" spans="8:8">
       <c r="H891" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="892" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="892" spans="8:8">
       <c r="H892" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="893" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="893" spans="8:8">
       <c r="H893" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="894" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="894" spans="8:8">
       <c r="H894" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="895" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="895" spans="8:8">
       <c r="H895" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="896" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="896" spans="8:8">
       <c r="H896" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="897" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="897" spans="8:8">
       <c r="H897" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="898" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="898" spans="8:8">
       <c r="H898" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="899" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="899" spans="8:8">
       <c r="H899" s="84" t="e">
         <f t="shared" ref="H899:H962" si="14">INDEX(Companies,MATCH(G899,StationIDs,0),1)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="900" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="900" spans="8:8">
       <c r="H900" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="901" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="901" spans="8:8">
       <c r="H901" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="902" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="902" spans="8:8">
       <c r="H902" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="903" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="903" spans="8:8">
       <c r="H903" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="904" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="904" spans="8:8">
       <c r="H904" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="905" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="905" spans="8:8">
       <c r="H905" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="906" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="906" spans="8:8">
       <c r="H906" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="907" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="907" spans="8:8">
       <c r="H907" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="908" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="908" spans="8:8">
       <c r="H908" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="909" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="909" spans="8:8">
       <c r="H909" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="910" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="910" spans="8:8">
       <c r="H910" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="911" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="911" spans="8:8">
       <c r="H911" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="912" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="912" spans="8:8">
       <c r="H912" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="913" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="913" spans="8:8">
       <c r="H913" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="914" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="914" spans="8:8">
       <c r="H914" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="915" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="915" spans="8:8">
       <c r="H915" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="916" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="916" spans="8:8">
       <c r="H916" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="917" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="917" spans="8:8">
       <c r="H917" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="918" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="918" spans="8:8">
       <c r="H918" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="919" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="919" spans="8:8">
       <c r="H919" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="920" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="920" spans="8:8">
       <c r="H920" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="921" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="921" spans="8:8">
       <c r="H921" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="922" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="922" spans="8:8">
       <c r="H922" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="923" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="923" spans="8:8">
       <c r="H923" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="924" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="924" spans="8:8">
       <c r="H924" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="925" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="925" spans="8:8">
       <c r="H925" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="926" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="926" spans="8:8">
       <c r="H926" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="927" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="927" spans="8:8">
       <c r="H927" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="928" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="928" spans="8:8">
       <c r="H928" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="929" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="929" spans="8:8">
       <c r="H929" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="930" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="930" spans="8:8">
       <c r="H930" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="931" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="931" spans="8:8">
       <c r="H931" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="932" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="932" spans="8:8">
       <c r="H932" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="933" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="933" spans="8:8">
       <c r="H933" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="934" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="934" spans="8:8">
       <c r="H934" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="935" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="935" spans="8:8">
       <c r="H935" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="936" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="936" spans="8:8">
       <c r="H936" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="937" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="937" spans="8:8">
       <c r="H937" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="938" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="938" spans="8:8">
       <c r="H938" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="939" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="939" spans="8:8">
       <c r="H939" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="940" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="940" spans="8:8">
       <c r="H940" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="941" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="941" spans="8:8">
       <c r="H941" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="942" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="942" spans="8:8">
       <c r="H942" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="943" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="943" spans="8:8">
       <c r="H943" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="944" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="944" spans="8:8">
       <c r="H944" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="945" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="945" spans="8:8">
       <c r="H945" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="946" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="946" spans="8:8">
       <c r="H946" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="947" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="947" spans="8:8">
       <c r="H947" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="948" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="948" spans="8:8">
       <c r="H948" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="949" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="949" spans="8:8">
       <c r="H949" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="950" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="950" spans="8:8">
       <c r="H950" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="951" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="951" spans="8:8">
       <c r="H951" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="952" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="952" spans="8:8">
       <c r="H952" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="953" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="953" spans="8:8">
       <c r="H953" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="954" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="954" spans="8:8">
       <c r="H954" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="955" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="955" spans="8:8">
       <c r="H955" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="956" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="956" spans="8:8">
       <c r="H956" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="957" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="957" spans="8:8">
       <c r="H957" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="958" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="958" spans="8:8">
       <c r="H958" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="959" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="959" spans="8:8">
       <c r="H959" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="960" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="960" spans="8:8">
       <c r="H960" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="961" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="961" spans="8:8">
       <c r="H961" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="962" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="962" spans="8:8">
       <c r="H962" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="963" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="963" spans="8:8">
       <c r="H963" s="84" t="e">
         <f t="shared" ref="H963:H1000" si="15">INDEX(Companies,MATCH(G963,StationIDs,0),1)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="964" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="964" spans="8:8">
       <c r="H964" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="965" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="965" spans="8:8">
       <c r="H965" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="966" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="966" spans="8:8">
       <c r="H966" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="967" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="967" spans="8:8">
       <c r="H967" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="968" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="968" spans="8:8">
       <c r="H968" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="969" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="969" spans="8:8">
       <c r="H969" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="970" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="970" spans="8:8">
       <c r="H970" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="971" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="971" spans="8:8">
       <c r="H971" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="972" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="972" spans="8:8">
       <c r="H972" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="973" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="973" spans="8:8">
       <c r="H973" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="974" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="974" spans="8:8">
       <c r="H974" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="975" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="975" spans="8:8">
       <c r="H975" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="976" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="976" spans="8:8">
       <c r="H976" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="977" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="977" spans="8:8">
       <c r="H977" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="978" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="978" spans="8:8">
       <c r="H978" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="979" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="979" spans="8:8">
       <c r="H979" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="980" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="980" spans="8:8">
       <c r="H980" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="981" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="981" spans="8:8">
       <c r="H981" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="982" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="982" spans="8:8">
       <c r="H982" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="983" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="983" spans="8:8">
       <c r="H983" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="984" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="984" spans="8:8">
       <c r="H984" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="985" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="985" spans="8:8">
       <c r="H985" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="986" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="986" spans="8:8">
       <c r="H986" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="987" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="987" spans="8:8">
       <c r="H987" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="988" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="988" spans="8:8">
       <c r="H988" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="989" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="989" spans="8:8">
       <c r="H989" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="990" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="990" spans="8:8">
       <c r="H990" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="991" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="991" spans="8:8">
       <c r="H991" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="992" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="992" spans="8:8">
       <c r="H992" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="993" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="993" spans="8:8">
       <c r="H993" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="994" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="994" spans="8:8">
       <c r="H994" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="995" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="995" spans="8:8">
       <c r="H995" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="996" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="996" spans="8:8">
       <c r="H996" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="997" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="997" spans="8:8">
       <c r="H997" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="998" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="998" spans="8:8">
       <c r="H998" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="999" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="999" spans="8:8">
       <c r="H999" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1000" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="1000" spans="8:8">
       <c r="H1000" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -11266,7 +11263,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="45.85546875" style="2" customWidth="1"/>
@@ -11275,7 +11272,7 @@
     <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
         <v>18</v>
       </c>
@@ -11289,124 +11286,124 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="7"/>
       <c r="D2" s="16"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="7"/>
       <c r="B3"/>
       <c r="D3" s="16"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="7"/>
       <c r="B4"/>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="7"/>
       <c r="B5"/>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="7"/>
       <c r="B6"/>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="8"/>
       <c r="B7"/>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="8"/>
       <c r="B8"/>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="8"/>
       <c r="B9"/>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="8"/>
       <c r="B10"/>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="8"/>
       <c r="B11"/>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="8"/>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="8"/>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="D15" s="7"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4">
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4">
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:4">
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:4">
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:4">
       <c r="D21" s="7"/>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:4">
       <c r="D22" s="7"/>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:4">
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:4">
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:4">
       <c r="D25" s="7"/>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:4">
       <c r="D26" s="7"/>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:4">
       <c r="D27" s="9"/>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:4">
       <c r="D28" s="7"/>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:4">
       <c r="D29" s="10"/>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:4">
       <c r="D30" s="10"/>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:4">
       <c r="D31" s="10"/>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:4">
       <c r="D32" s="10"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:4">
       <c r="D33" s="10"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:4">
       <c r="D34" s="10"/>
     </row>
   </sheetData>
@@ -11421,29 +11418,29 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="108.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="48.140625" style="2" customWidth="1"/>
     <col min="3" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -11451,12 +11448,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="75">
       <c r="A5" s="15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="15"/>
     </row>
   </sheetData>

--- a/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/BfR_Format_Backtrace.xlsx
+++ b/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/BfR_Format_Backtrace.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Stations" sheetId="2" r:id="rId1"/>
     <sheet name="BackTracing" sheetId="5" r:id="rId2"/>
-    <sheet name="Opt_ForwardTracing" sheetId="1" r:id="rId3"/>
+    <sheet name="ForwardTracing_Opt" sheetId="1" r:id="rId3"/>
     <sheet name="LookUp" sheetId="3" r:id="rId4"/>
     <sheet name="Help" sheetId="6" r:id="rId5"/>
   </sheets>
@@ -185,7 +185,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="39">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1854,46 +1854,154 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="30" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="30" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="30" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="30" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1909,9 +2017,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1925,145 +2030,40 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="30" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="30" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="30" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2504,7 +2504,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.28515625" style="2" customWidth="1"/>
@@ -2520,7 +2520,7 @@
     <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="12" customFormat="1" ht="30">
+    <row r="1" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>3</v>
       </c>
@@ -2563,7 +2563,7 @@
       <c r="R1" s="28"/>
       <c r="S1" s="28"/>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
       <c r="B2"/>
       <c r="C2"/>
@@ -2572,7 +2572,7 @@
       <c r="F2"/>
       <c r="K2" s="29"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
       <c r="B3"/>
       <c r="C3"/>
@@ -2597,9 +2597,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.7109375" style="37" customWidth="1"/>
     <col min="2" max="2" width="24" style="37" customWidth="1"/>
@@ -2620,225 +2622,225 @@
     <col min="17" max="16384" width="11.42578125" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="21" customHeight="1" thickBot="1">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="108" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="109"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+    </row>
+    <row r="2" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="63"/>
+      <c r="M2" s="66"/>
+    </row>
+    <row r="3" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="49"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="63"/>
+      <c r="M3" s="66"/>
+    </row>
+    <row r="4" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="63"/>
+      <c r="M4" s="66"/>
+    </row>
+    <row r="5" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="58" t="e">
-        <f>INDEX(Companies,MATCH(B1,StationIDs,0),1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="M1" s="37"/>
-    </row>
-    <row r="2" spans="1:22" ht="21" customHeight="1" thickBot="1">
-      <c r="A2" s="18"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="M2" s="37"/>
-    </row>
-    <row r="3" spans="1:22" s="64" customFormat="1" ht="21" customHeight="1" thickBot="1">
-      <c r="A3" s="105" t="s">
+      <c r="B5" s="57"/>
+      <c r="C5" s="58" t="e">
+        <f>INDEX(Companies,MATCH(B5,StationIDs,0),1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="M5" s="37"/>
+    </row>
+    <row r="6" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="M6" s="37"/>
+    </row>
+    <row r="7" spans="1:22" s="64" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="79" t="s">
+      <c r="B7" s="137"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="137"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="77"/>
-      <c r="P3" s="77"/>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="77"/>
-      <c r="S3" s="77"/>
-      <c r="T3" s="77"/>
-      <c r="U3" s="77"/>
-      <c r="V3" s="78"/>
-    </row>
-    <row r="4" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A4" s="134" t="s">
+      <c r="O7" s="77"/>
+      <c r="P7" s="77"/>
+      <c r="Q7" s="77"/>
+      <c r="R7" s="77"/>
+      <c r="S7" s="77"/>
+      <c r="T7" s="77"/>
+      <c r="U7" s="77"/>
+      <c r="V7" s="78"/>
+    </row>
+    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="138" t="s">
+      <c r="B8" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="125" t="s">
+      <c r="C8" s="115" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="126"/>
-      <c r="E4" s="127"/>
-      <c r="F4" s="122" t="s">
+      <c r="D8" s="116"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="123"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="121" t="s">
+      <c r="G8" s="113"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="111"/>
-      <c r="K4" s="130" t="s">
+      <c r="J8" s="97"/>
+      <c r="K8" s="120" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="114" t="s">
+      <c r="L8" s="144" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="132" t="s">
+      <c r="M8" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="136"/>
-      <c r="O4" s="102"/>
-      <c r="P4" s="102"/>
-      <c r="Q4" s="102"/>
-      <c r="R4" s="102"/>
-      <c r="S4" s="102"/>
-      <c r="T4" s="102"/>
-      <c r="U4" s="102"/>
-      <c r="V4" s="103"/>
-    </row>
-    <row r="5" spans="1:22" ht="17.25" customHeight="1">
-      <c r="A5" s="135"/>
-      <c r="B5" s="139"/>
-      <c r="C5" s="90" t="s">
+      <c r="N8" s="126"/>
+      <c r="O8" s="134"/>
+      <c r="P8" s="134"/>
+      <c r="Q8" s="134"/>
+      <c r="R8" s="134"/>
+      <c r="S8" s="134"/>
+      <c r="T8" s="134"/>
+      <c r="U8" s="134"/>
+      <c r="V8" s="146"/>
+    </row>
+    <row r="9" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="125"/>
+      <c r="B9" s="129"/>
+      <c r="C9" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="90" t="s">
+      <c r="D9" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="90" t="s">
+      <c r="E9" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F9" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="G9" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="55" t="s">
+      <c r="H9" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="32" t="s">
+      <c r="I9" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="32" t="s">
+      <c r="J9" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="131"/>
-      <c r="L5" s="115"/>
-      <c r="M5" s="133"/>
-      <c r="N5" s="137"/>
-      <c r="O5" s="99"/>
-      <c r="P5" s="99"/>
-      <c r="Q5" s="99"/>
-      <c r="R5" s="99"/>
-      <c r="S5" s="99"/>
-      <c r="T5" s="99"/>
-      <c r="U5" s="99"/>
-      <c r="V5" s="104"/>
-    </row>
-    <row r="6" spans="1:22" s="64" customFormat="1" ht="21" customHeight="1">
-      <c r="A6" s="75"/>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="75"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="75"/>
-      <c r="Q6" s="75"/>
-      <c r="R6" s="75"/>
-      <c r="S6" s="75"/>
-      <c r="T6" s="75"/>
-      <c r="U6" s="75"/>
-      <c r="V6" s="75"/>
-    </row>
-    <row r="7" spans="1:22" ht="21" customHeight="1" thickBot="1">
-      <c r="A7" s="62"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="63"/>
-      <c r="M7" s="64"/>
-    </row>
-    <row r="8" spans="1:22" ht="21" customHeight="1">
-      <c r="A8" s="118" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="119"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
-    </row>
-    <row r="9" spans="1:22" ht="21" customHeight="1">
-      <c r="A9" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="63"/>
-      <c r="M9" s="66"/>
-    </row>
-    <row r="10" spans="1:22" ht="21" customHeight="1" thickBot="1">
-      <c r="A10" s="49"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="63"/>
-      <c r="M10" s="66"/>
-    </row>
-    <row r="11" spans="1:22" ht="21" customHeight="1" thickBot="1">
-      <c r="A11" s="41"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="63"/>
-      <c r="M11" s="66"/>
-    </row>
-    <row r="12" spans="1:22" ht="21" customHeight="1" thickBot="1">
-      <c r="A12" s="118" t="s">
+      <c r="K9" s="121"/>
+      <c r="L9" s="145"/>
+      <c r="M9" s="123"/>
+      <c r="N9" s="127"/>
+      <c r="O9" s="135"/>
+      <c r="P9" s="135"/>
+      <c r="Q9" s="135"/>
+      <c r="R9" s="135"/>
+      <c r="S9" s="135"/>
+      <c r="T9" s="135"/>
+      <c r="U9" s="135"/>
+      <c r="V9" s="147"/>
+    </row>
+    <row r="10" spans="1:22" s="64" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="75"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="75"/>
+      <c r="N10" s="75"/>
+      <c r="O10" s="75"/>
+      <c r="P10" s="75"/>
+      <c r="Q10" s="75"/>
+      <c r="R10" s="75"/>
+      <c r="S10" s="75"/>
+      <c r="T10" s="75"/>
+      <c r="U10" s="75"/>
+      <c r="V10" s="75"/>
+    </row>
+    <row r="11" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="62"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="63"/>
+      <c r="M11" s="64"/>
+    </row>
+    <row r="12" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="128"/>
-      <c r="C12" s="129"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="119"/>
       <c r="D12" s="68"/>
       <c r="E12" s="68"/>
       <c r="F12" s="68"/>
@@ -2861,35 +2863,35 @@
       <c r="U12" s="60"/>
       <c r="V12" s="61"/>
     </row>
-    <row r="13" spans="1:22" ht="18" customHeight="1">
-      <c r="A13" s="142" t="s">
+    <row r="13" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="132" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="140" t="s">
+      <c r="B13" s="130" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="141"/>
+      <c r="C13" s="131"/>
       <c r="M13" s="66"/>
-      <c r="N13" s="110" t="s">
+      <c r="N13" s="141" t="s">
         <v>36</v>
       </c>
-      <c r="O13" s="112" t="s">
+      <c r="O13" s="142" t="s">
         <v>37</v>
       </c>
-      <c r="P13" s="112" t="s">
+      <c r="P13" s="142" t="s">
         <v>25</v>
       </c>
-      <c r="Q13" s="116" t="s">
+      <c r="Q13" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="R13" s="95"/>
-      <c r="S13" s="95"/>
-      <c r="T13" s="97"/>
-      <c r="U13" s="98"/>
-      <c r="V13" s="100"/>
-    </row>
-    <row r="14" spans="1:22" ht="17.25" customHeight="1">
-      <c r="A14" s="143"/>
+      <c r="R13" s="148"/>
+      <c r="S13" s="148"/>
+      <c r="T13" s="150"/>
+      <c r="U13" s="151"/>
+      <c r="V13" s="152"/>
+    </row>
+    <row r="14" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="133"/>
       <c r="B14" s="33" t="s">
         <v>33</v>
       </c>
@@ -2897,17 +2899,17 @@
         <v>23</v>
       </c>
       <c r="M14" s="66"/>
-      <c r="N14" s="111"/>
-      <c r="O14" s="113"/>
-      <c r="P14" s="113"/>
-      <c r="Q14" s="117"/>
-      <c r="R14" s="96"/>
-      <c r="S14" s="96"/>
-      <c r="T14" s="96"/>
-      <c r="U14" s="99"/>
-      <c r="V14" s="101"/>
-    </row>
-    <row r="15" spans="1:22" ht="21" customHeight="1">
+      <c r="N14" s="97"/>
+      <c r="O14" s="143"/>
+      <c r="P14" s="143"/>
+      <c r="Q14" s="107"/>
+      <c r="R14" s="149"/>
+      <c r="S14" s="149"/>
+      <c r="T14" s="149"/>
+      <c r="U14" s="135"/>
+      <c r="V14" s="153"/>
+    </row>
+    <row r="15" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="34"/>
       <c r="B15" s="35"/>
       <c r="C15" s="36"/>
@@ -2922,7 +2924,7 @@
       <c r="U15" s="39"/>
       <c r="V15" s="36"/>
     </row>
-    <row r="16" spans="1:22" ht="21" customHeight="1" thickBot="1">
+    <row r="16" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="40"/>
       <c r="C16" s="40"/>
@@ -2936,21 +2938,21 @@
       <c r="L16" s="40"/>
       <c r="M16" s="74"/>
     </row>
-    <row r="17" spans="1:22" ht="21" customHeight="1">
-      <c r="A17" s="107" t="s">
+    <row r="17" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="138" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="108"/>
-      <c r="C17" s="108"/>
-      <c r="D17" s="108"/>
-      <c r="E17" s="108"/>
-      <c r="F17" s="108"/>
-      <c r="G17" s="108"/>
-      <c r="H17" s="108"/>
-      <c r="I17" s="108"/>
-      <c r="J17" s="108"/>
-      <c r="K17" s="108"/>
-      <c r="L17" s="109"/>
+      <c r="B17" s="139"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="139"/>
+      <c r="F17" s="139"/>
+      <c r="G17" s="139"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="139"/>
+      <c r="J17" s="139"/>
+      <c r="K17" s="139"/>
+      <c r="L17" s="140"/>
       <c r="M17" s="73"/>
       <c r="N17" s="81" t="s">
         <v>32</v>
@@ -2964,49 +2966,49 @@
       <c r="U17" s="69"/>
       <c r="V17" s="70"/>
     </row>
-    <row r="18" spans="1:22" s="71" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A18" s="144" t="s">
+    <row r="18" spans="1:22" s="71" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="148" t="s">
+      <c r="B18" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="150" t="s">
+      <c r="C18" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="153"/>
-      <c r="E18" s="151"/>
-      <c r="F18" s="152" t="s">
+      <c r="D18" s="101"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="153"/>
-      <c r="H18" s="151"/>
-      <c r="I18" s="150" t="s">
+      <c r="G18" s="101"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="J18" s="151"/>
-      <c r="K18" s="148" t="s">
+      <c r="J18" s="99"/>
+      <c r="K18" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="L18" s="156" t="s">
+      <c r="L18" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="M18" s="154" t="s">
+      <c r="M18" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="N18" s="146"/>
-      <c r="O18" s="91"/>
-      <c r="P18" s="91"/>
-      <c r="Q18" s="91"/>
-      <c r="R18" s="91"/>
-      <c r="S18" s="91"/>
-      <c r="T18" s="91"/>
-      <c r="U18" s="91"/>
-      <c r="V18" s="93"/>
-    </row>
-    <row r="19" spans="1:22" s="71" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A19" s="145"/>
-      <c r="B19" s="149"/>
+      <c r="N18" s="93"/>
+      <c r="O18" s="154"/>
+      <c r="P18" s="154"/>
+      <c r="Q18" s="154"/>
+      <c r="R18" s="154"/>
+      <c r="S18" s="154"/>
+      <c r="T18" s="154"/>
+      <c r="U18" s="154"/>
+      <c r="V18" s="156"/>
+    </row>
+    <row r="19" spans="1:22" s="71" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="92"/>
+      <c r="B19" s="96"/>
       <c r="C19" s="14" t="s">
         <v>20</v>
       </c>
@@ -3031,20 +3033,20 @@
       <c r="J19" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K19" s="111"/>
-      <c r="L19" s="157"/>
-      <c r="M19" s="155"/>
-      <c r="N19" s="147"/>
-      <c r="O19" s="92"/>
-      <c r="P19" s="92"/>
-      <c r="Q19" s="92"/>
-      <c r="R19" s="92"/>
-      <c r="S19" s="92"/>
-      <c r="T19" s="92"/>
-      <c r="U19" s="92"/>
-      <c r="V19" s="94"/>
-    </row>
-    <row r="20" spans="1:22" ht="21" customHeight="1">
+      <c r="K19" s="97"/>
+      <c r="L19" s="105"/>
+      <c r="M19" s="103"/>
+      <c r="N19" s="94"/>
+      <c r="O19" s="155"/>
+      <c r="P19" s="155"/>
+      <c r="Q19" s="155"/>
+      <c r="R19" s="155"/>
+      <c r="S19" s="155"/>
+      <c r="T19" s="155"/>
+      <c r="U19" s="155"/>
+      <c r="V19" s="157"/>
+    </row>
+    <row r="20" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="42"/>
       <c r="B20" s="43"/>
       <c r="C20" s="44"/>
@@ -3068,7 +3070,7 @@
       <c r="U20" s="46"/>
       <c r="V20" s="47"/>
     </row>
-    <row r="21" spans="1:22" ht="21" customHeight="1">
+    <row r="21" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="42"/>
       <c r="B21" s="43"/>
       <c r="C21" s="44"/>
@@ -3092,7 +3094,7 @@
       <c r="U21" s="46"/>
       <c r="V21" s="47"/>
     </row>
-    <row r="22" spans="1:22" ht="21" customHeight="1">
+    <row r="22" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="42"/>
       <c r="B22" s="43"/>
       <c r="C22" s="44"/>
@@ -3116,7 +3118,7 @@
       <c r="U22" s="46"/>
       <c r="V22" s="47"/>
     </row>
-    <row r="23" spans="1:22" ht="21" customHeight="1">
+    <row r="23" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="42"/>
       <c r="B23" s="43"/>
       <c r="C23" s="44"/>
@@ -3140,7 +3142,7 @@
       <c r="U23" s="46"/>
       <c r="V23" s="47"/>
     </row>
-    <row r="24" spans="1:22" ht="21" customHeight="1">
+    <row r="24" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="42"/>
       <c r="B24" s="43"/>
       <c r="C24" s="44"/>
@@ -3164,7 +3166,7 @@
       <c r="U24" s="46"/>
       <c r="V24" s="47"/>
     </row>
-    <row r="25" spans="1:22" ht="21" customHeight="1">
+    <row r="25" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="42"/>
       <c r="B25" s="43"/>
       <c r="C25" s="44"/>
@@ -3188,7 +3190,7 @@
       <c r="U25" s="46"/>
       <c r="V25" s="47"/>
     </row>
-    <row r="26" spans="1:22" ht="21" customHeight="1">
+    <row r="26" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="42"/>
       <c r="B26" s="43"/>
       <c r="C26" s="44"/>
@@ -3212,7 +3214,7 @@
       <c r="U26" s="46"/>
       <c r="V26" s="47"/>
     </row>
-    <row r="27" spans="1:22" ht="21" customHeight="1">
+    <row r="27" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="48"/>
       <c r="B27" s="43"/>
       <c r="C27" s="44"/>
@@ -3236,7 +3238,7 @@
       <c r="U27" s="46"/>
       <c r="V27" s="47"/>
     </row>
-    <row r="28" spans="1:22" ht="21" customHeight="1">
+    <row r="28" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="48"/>
       <c r="B28" s="43"/>
       <c r="C28" s="44"/>
@@ -3260,7 +3262,7 @@
       <c r="U28" s="46"/>
       <c r="V28" s="47"/>
     </row>
-    <row r="29" spans="1:22" ht="21" customHeight="1">
+    <row r="29" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="48"/>
       <c r="B29" s="43"/>
       <c r="C29" s="44"/>
@@ -3284,7 +3286,7 @@
       <c r="U29" s="46"/>
       <c r="V29" s="47"/>
     </row>
-    <row r="30" spans="1:22" ht="21" customHeight="1">
+    <row r="30" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="48"/>
       <c r="B30" s="43"/>
       <c r="C30" s="44"/>
@@ -3308,7 +3310,7 @@
       <c r="U30" s="46"/>
       <c r="V30" s="47"/>
     </row>
-    <row r="31" spans="1:22" ht="21" customHeight="1">
+    <row r="31" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="48"/>
       <c r="B31" s="43"/>
       <c r="C31" s="44"/>
@@ -3332,7 +3334,7 @@
       <c r="U31" s="46"/>
       <c r="V31" s="47"/>
     </row>
-    <row r="32" spans="1:22" ht="21" customHeight="1">
+    <row r="32" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="48"/>
       <c r="B32" s="43"/>
       <c r="C32" s="44"/>
@@ -3356,7 +3358,7 @@
       <c r="U32" s="46"/>
       <c r="V32" s="47"/>
     </row>
-    <row r="33" spans="1:22" ht="21" customHeight="1">
+    <row r="33" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="48"/>
       <c r="B33" s="43"/>
       <c r="C33" s="44"/>
@@ -3380,7 +3382,7 @@
       <c r="U33" s="46"/>
       <c r="V33" s="47"/>
     </row>
-    <row r="34" spans="1:22" ht="21" customHeight="1">
+    <row r="34" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="48"/>
       <c r="B34" s="43"/>
       <c r="C34" s="44"/>
@@ -3404,7 +3406,7 @@
       <c r="U34" s="46"/>
       <c r="V34" s="47"/>
     </row>
-    <row r="35" spans="1:22" ht="21" customHeight="1">
+    <row r="35" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="48"/>
       <c r="B35" s="43"/>
       <c r="C35" s="44"/>
@@ -3428,7 +3430,7 @@
       <c r="U35" s="46"/>
       <c r="V35" s="47"/>
     </row>
-    <row r="36" spans="1:22" ht="21" customHeight="1">
+    <row r="36" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="48"/>
       <c r="B36" s="43"/>
       <c r="C36" s="44"/>
@@ -3452,7 +3454,7 @@
       <c r="U36" s="46"/>
       <c r="V36" s="47"/>
     </row>
-    <row r="37" spans="1:22" ht="21" customHeight="1">
+    <row r="37" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="48"/>
       <c r="B37" s="43"/>
       <c r="C37" s="44"/>
@@ -3476,7 +3478,7 @@
       <c r="U37" s="46"/>
       <c r="V37" s="47"/>
     </row>
-    <row r="38" spans="1:22" ht="21" customHeight="1">
+    <row r="38" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="48"/>
       <c r="B38" s="43"/>
       <c r="C38" s="44"/>
@@ -3500,7 +3502,7 @@
       <c r="U38" s="46"/>
       <c r="V38" s="47"/>
     </row>
-    <row r="39" spans="1:22" ht="21" customHeight="1">
+    <row r="39" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="48"/>
       <c r="B39" s="43"/>
       <c r="C39" s="44"/>
@@ -3524,7 +3526,7 @@
       <c r="U39" s="46"/>
       <c r="V39" s="47"/>
     </row>
-    <row r="40" spans="1:22" ht="21" customHeight="1">
+    <row r="40" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="48"/>
       <c r="B40" s="43"/>
       <c r="C40" s="44"/>
@@ -3548,7 +3550,7 @@
       <c r="U40" s="46"/>
       <c r="V40" s="47"/>
     </row>
-    <row r="41" spans="1:22" ht="21" customHeight="1">
+    <row r="41" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="48"/>
       <c r="B41" s="43"/>
       <c r="C41" s="44"/>
@@ -3572,7 +3574,7 @@
       <c r="U41" s="46"/>
       <c r="V41" s="47"/>
     </row>
-    <row r="42" spans="1:22" ht="21" customHeight="1">
+    <row r="42" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="48"/>
       <c r="B42" s="43"/>
       <c r="C42" s="44"/>
@@ -3596,7 +3598,7 @@
       <c r="U42" s="46"/>
       <c r="V42" s="47"/>
     </row>
-    <row r="43" spans="1:22" ht="21" customHeight="1">
+    <row r="43" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="48"/>
       <c r="B43" s="43"/>
       <c r="C43" s="44"/>
@@ -3620,7 +3622,7 @@
       <c r="U43" s="46"/>
       <c r="V43" s="47"/>
     </row>
-    <row r="44" spans="1:22" ht="21" customHeight="1">
+    <row r="44" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="48"/>
       <c r="B44" s="43"/>
       <c r="C44" s="44"/>
@@ -3644,7 +3646,7 @@
       <c r="U44" s="46"/>
       <c r="V44" s="47"/>
     </row>
-    <row r="45" spans="1:22" ht="21" customHeight="1">
+    <row r="45" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="48"/>
       <c r="B45" s="43"/>
       <c r="C45" s="44"/>
@@ -3668,7 +3670,7 @@
       <c r="U45" s="46"/>
       <c r="V45" s="47"/>
     </row>
-    <row r="46" spans="1:22" ht="21" customHeight="1">
+    <row r="46" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="48"/>
       <c r="B46" s="43"/>
       <c r="C46" s="44"/>
@@ -3692,7 +3694,7 @@
       <c r="U46" s="46"/>
       <c r="V46" s="47"/>
     </row>
-    <row r="47" spans="1:22" ht="21" customHeight="1">
+    <row r="47" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="48"/>
       <c r="B47" s="43"/>
       <c r="C47" s="44"/>
@@ -3716,7 +3718,7 @@
       <c r="U47" s="46"/>
       <c r="V47" s="47"/>
     </row>
-    <row r="48" spans="1:22" ht="21" customHeight="1">
+    <row r="48" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="48"/>
       <c r="B48" s="43"/>
       <c r="C48" s="44"/>
@@ -3740,7 +3742,7 @@
       <c r="U48" s="46"/>
       <c r="V48" s="47"/>
     </row>
-    <row r="49" spans="1:22" ht="21" customHeight="1">
+    <row r="49" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="48"/>
       <c r="B49" s="43"/>
       <c r="C49" s="44"/>
@@ -3764,7 +3766,7 @@
       <c r="U49" s="46"/>
       <c r="V49" s="47"/>
     </row>
-    <row r="50" spans="1:22" ht="21" customHeight="1">
+    <row r="50" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="48"/>
       <c r="B50" s="43"/>
       <c r="C50" s="44"/>
@@ -3788,7 +3790,7 @@
       <c r="U50" s="46"/>
       <c r="V50" s="47"/>
     </row>
-    <row r="51" spans="1:22" ht="21" customHeight="1">
+    <row r="51" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="48"/>
       <c r="B51" s="43"/>
       <c r="C51" s="44"/>
@@ -3812,7 +3814,7 @@
       <c r="U51" s="46"/>
       <c r="V51" s="47"/>
     </row>
-    <row r="52" spans="1:22" ht="21" customHeight="1">
+    <row r="52" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="48"/>
       <c r="B52" s="43"/>
       <c r="C52" s="44"/>
@@ -3836,7 +3838,7 @@
       <c r="U52" s="46"/>
       <c r="V52" s="47"/>
     </row>
-    <row r="53" spans="1:22" ht="21" customHeight="1">
+    <row r="53" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="48"/>
       <c r="B53" s="43"/>
       <c r="C53" s="44"/>
@@ -3860,7 +3862,7 @@
       <c r="U53" s="46"/>
       <c r="V53" s="47"/>
     </row>
-    <row r="54" spans="1:22" ht="21" customHeight="1">
+    <row r="54" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="48"/>
       <c r="B54" s="43"/>
       <c r="C54" s="44"/>
@@ -3884,7 +3886,7 @@
       <c r="U54" s="46"/>
       <c r="V54" s="47"/>
     </row>
-    <row r="55" spans="1:22" ht="21" customHeight="1">
+    <row r="55" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="48"/>
       <c r="B55" s="43"/>
       <c r="C55" s="44"/>
@@ -3908,7 +3910,7 @@
       <c r="U55" s="46"/>
       <c r="V55" s="47"/>
     </row>
-    <row r="56" spans="1:22" ht="21" customHeight="1">
+    <row r="56" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="48"/>
       <c r="B56" s="43"/>
       <c r="C56" s="44"/>
@@ -3932,7 +3934,7 @@
       <c r="U56" s="46"/>
       <c r="V56" s="47"/>
     </row>
-    <row r="57" spans="1:22" ht="21" customHeight="1">
+    <row r="57" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="48"/>
       <c r="B57" s="43"/>
       <c r="C57" s="44"/>
@@ -3956,7 +3958,7 @@
       <c r="U57" s="46"/>
       <c r="V57" s="47"/>
     </row>
-    <row r="58" spans="1:22" ht="21" customHeight="1">
+    <row r="58" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="48"/>
       <c r="B58" s="43"/>
       <c r="C58" s="44"/>
@@ -3980,7 +3982,7 @@
       <c r="U58" s="46"/>
       <c r="V58" s="47"/>
     </row>
-    <row r="59" spans="1:22" ht="21" customHeight="1">
+    <row r="59" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="48"/>
       <c r="B59" s="43"/>
       <c r="C59" s="44"/>
@@ -4004,7 +4006,7 @@
       <c r="U59" s="46"/>
       <c r="V59" s="47"/>
     </row>
-    <row r="60" spans="1:22" ht="21" customHeight="1">
+    <row r="60" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="48"/>
       <c r="B60" s="43"/>
       <c r="C60" s="44"/>
@@ -4028,7 +4030,7 @@
       <c r="U60" s="46"/>
       <c r="V60" s="47"/>
     </row>
-    <row r="61" spans="1:22" ht="21" customHeight="1">
+    <row r="61" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="48"/>
       <c r="B61" s="43"/>
       <c r="C61" s="44"/>
@@ -4052,7 +4054,7 @@
       <c r="U61" s="46"/>
       <c r="V61" s="47"/>
     </row>
-    <row r="62" spans="1:22" ht="21" customHeight="1">
+    <row r="62" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="48"/>
       <c r="B62" s="43"/>
       <c r="C62" s="44"/>
@@ -4076,7 +4078,7 @@
       <c r="U62" s="46"/>
       <c r="V62" s="47"/>
     </row>
-    <row r="63" spans="1:22" ht="21" customHeight="1">
+    <row r="63" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="48"/>
       <c r="B63" s="43"/>
       <c r="C63" s="44"/>
@@ -4100,7 +4102,7 @@
       <c r="U63" s="46"/>
       <c r="V63" s="47"/>
     </row>
-    <row r="64" spans="1:22" ht="21" customHeight="1">
+    <row r="64" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="48"/>
       <c r="B64" s="43"/>
       <c r="C64" s="44"/>
@@ -4124,7 +4126,7 @@
       <c r="U64" s="46"/>
       <c r="V64" s="47"/>
     </row>
-    <row r="65" spans="1:22" ht="21" customHeight="1">
+    <row r="65" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="48"/>
       <c r="B65" s="43"/>
       <c r="C65" s="44"/>
@@ -4148,7 +4150,7 @@
       <c r="U65" s="46"/>
       <c r="V65" s="47"/>
     </row>
-    <row r="66" spans="1:22" ht="21" customHeight="1">
+    <row r="66" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="48"/>
       <c r="B66" s="43"/>
       <c r="C66" s="44"/>
@@ -4172,7 +4174,7 @@
       <c r="U66" s="46"/>
       <c r="V66" s="47"/>
     </row>
-    <row r="67" spans="1:22" ht="21" customHeight="1">
+    <row r="67" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="48"/>
       <c r="B67" s="43"/>
       <c r="C67" s="44"/>
@@ -4196,7 +4198,7 @@
       <c r="U67" s="46"/>
       <c r="V67" s="47"/>
     </row>
-    <row r="68" spans="1:22" ht="21" customHeight="1">
+    <row r="68" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="48"/>
       <c r="B68" s="43"/>
       <c r="C68" s="44"/>
@@ -4220,7 +4222,7 @@
       <c r="U68" s="46"/>
       <c r="V68" s="47"/>
     </row>
-    <row r="69" spans="1:22" ht="21" customHeight="1">
+    <row r="69" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="48"/>
       <c r="B69" s="43"/>
       <c r="C69" s="44"/>
@@ -4244,7 +4246,7 @@
       <c r="U69" s="46"/>
       <c r="V69" s="47"/>
     </row>
-    <row r="70" spans="1:22" ht="21" customHeight="1">
+    <row r="70" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="48"/>
       <c r="B70" s="43"/>
       <c r="C70" s="44"/>
@@ -4268,7 +4270,7 @@
       <c r="U70" s="46"/>
       <c r="V70" s="47"/>
     </row>
-    <row r="71" spans="1:22" ht="21" customHeight="1">
+    <row r="71" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="48"/>
       <c r="B71" s="43"/>
       <c r="C71" s="44"/>
@@ -4292,7 +4294,7 @@
       <c r="U71" s="46"/>
       <c r="V71" s="47"/>
     </row>
-    <row r="72" spans="1:22" ht="21" customHeight="1">
+    <row r="72" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="48"/>
       <c r="B72" s="43"/>
       <c r="C72" s="44"/>
@@ -4316,7 +4318,7 @@
       <c r="U72" s="46"/>
       <c r="V72" s="47"/>
     </row>
-    <row r="73" spans="1:22" ht="21" customHeight="1">
+    <row r="73" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="48"/>
       <c r="B73" s="43"/>
       <c r="C73" s="44"/>
@@ -4340,7 +4342,7 @@
       <c r="U73" s="46"/>
       <c r="V73" s="47"/>
     </row>
-    <row r="74" spans="1:22" ht="21" customHeight="1">
+    <row r="74" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="48"/>
       <c r="B74" s="43"/>
       <c r="C74" s="44"/>
@@ -4364,7 +4366,7 @@
       <c r="U74" s="46"/>
       <c r="V74" s="47"/>
     </row>
-    <row r="75" spans="1:22" ht="21" customHeight="1">
+    <row r="75" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="48"/>
       <c r="B75" s="43"/>
       <c r="C75" s="44"/>
@@ -4388,7 +4390,7 @@
       <c r="U75" s="46"/>
       <c r="V75" s="47"/>
     </row>
-    <row r="76" spans="1:22" ht="21" customHeight="1">
+    <row r="76" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="48"/>
       <c r="B76" s="43"/>
       <c r="C76" s="44"/>
@@ -4412,7 +4414,7 @@
       <c r="U76" s="46"/>
       <c r="V76" s="47"/>
     </row>
-    <row r="77" spans="1:22" ht="21" customHeight="1">
+    <row r="77" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="48"/>
       <c r="B77" s="43"/>
       <c r="C77" s="44"/>
@@ -4436,7 +4438,7 @@
       <c r="U77" s="46"/>
       <c r="V77" s="47"/>
     </row>
-    <row r="78" spans="1:22" ht="21" customHeight="1">
+    <row r="78" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="48"/>
       <c r="B78" s="43"/>
       <c r="C78" s="44"/>
@@ -4460,7 +4462,7 @@
       <c r="U78" s="46"/>
       <c r="V78" s="47"/>
     </row>
-    <row r="79" spans="1:22" ht="21" customHeight="1">
+    <row r="79" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="48"/>
       <c r="B79" s="43"/>
       <c r="C79" s="44"/>
@@ -4484,7 +4486,7 @@
       <c r="U79" s="46"/>
       <c r="V79" s="47"/>
     </row>
-    <row r="80" spans="1:22" ht="21" customHeight="1">
+    <row r="80" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="48"/>
       <c r="B80" s="43"/>
       <c r="C80" s="44"/>
@@ -4508,7 +4510,7 @@
       <c r="U80" s="46"/>
       <c r="V80" s="47"/>
     </row>
-    <row r="81" spans="1:22" ht="21" customHeight="1">
+    <row r="81" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="48"/>
       <c r="B81" s="43"/>
       <c r="C81" s="44"/>
@@ -4532,7 +4534,7 @@
       <c r="U81" s="46"/>
       <c r="V81" s="47"/>
     </row>
-    <row r="82" spans="1:22" ht="21" customHeight="1">
+    <row r="82" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="48"/>
       <c r="B82" s="43"/>
       <c r="C82" s="44"/>
@@ -4556,7 +4558,7 @@
       <c r="U82" s="46"/>
       <c r="V82" s="47"/>
     </row>
-    <row r="83" spans="1:22" ht="21" customHeight="1">
+    <row r="83" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="48"/>
       <c r="B83" s="43"/>
       <c r="C83" s="44"/>
@@ -4580,7 +4582,7 @@
       <c r="U83" s="46"/>
       <c r="V83" s="47"/>
     </row>
-    <row r="84" spans="1:22" ht="21" customHeight="1">
+    <row r="84" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="48"/>
       <c r="B84" s="43"/>
       <c r="C84" s="44"/>
@@ -4604,7 +4606,7 @@
       <c r="U84" s="46"/>
       <c r="V84" s="47"/>
     </row>
-    <row r="85" spans="1:22" ht="21" customHeight="1">
+    <row r="85" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="48"/>
       <c r="B85" s="43"/>
       <c r="C85" s="44"/>
@@ -4628,7 +4630,7 @@
       <c r="U85" s="46"/>
       <c r="V85" s="47"/>
     </row>
-    <row r="86" spans="1:22" ht="21" customHeight="1">
+    <row r="86" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="48"/>
       <c r="B86" s="43"/>
       <c r="C86" s="44"/>
@@ -4652,7 +4654,7 @@
       <c r="U86" s="46"/>
       <c r="V86" s="47"/>
     </row>
-    <row r="87" spans="1:22" ht="21" customHeight="1">
+    <row r="87" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="48"/>
       <c r="B87" s="43"/>
       <c r="C87" s="44"/>
@@ -4676,7 +4678,7 @@
       <c r="U87" s="46"/>
       <c r="V87" s="47"/>
     </row>
-    <row r="88" spans="1:22" ht="21" customHeight="1">
+    <row r="88" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="48"/>
       <c r="B88" s="43"/>
       <c r="C88" s="44"/>
@@ -4700,7 +4702,7 @@
       <c r="U88" s="46"/>
       <c r="V88" s="47"/>
     </row>
-    <row r="89" spans="1:22" ht="21" customHeight="1">
+    <row r="89" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="48"/>
       <c r="B89" s="43"/>
       <c r="C89" s="44"/>
@@ -4724,7 +4726,7 @@
       <c r="U89" s="46"/>
       <c r="V89" s="47"/>
     </row>
-    <row r="90" spans="1:22" ht="21" customHeight="1">
+    <row r="90" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="48"/>
       <c r="B90" s="43"/>
       <c r="C90" s="44"/>
@@ -4748,7 +4750,7 @@
       <c r="U90" s="46"/>
       <c r="V90" s="47"/>
     </row>
-    <row r="91" spans="1:22" ht="21" customHeight="1">
+    <row r="91" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="48"/>
       <c r="B91" s="43"/>
       <c r="C91" s="44"/>
@@ -4772,7 +4774,7 @@
       <c r="U91" s="46"/>
       <c r="V91" s="47"/>
     </row>
-    <row r="92" spans="1:22" ht="21" customHeight="1">
+    <row r="92" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="48"/>
       <c r="B92" s="43"/>
       <c r="C92" s="44"/>
@@ -4796,7 +4798,7 @@
       <c r="U92" s="46"/>
       <c r="V92" s="47"/>
     </row>
-    <row r="93" spans="1:22" ht="21" customHeight="1">
+    <row r="93" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="48"/>
       <c r="B93" s="43"/>
       <c r="C93" s="44"/>
@@ -4820,7 +4822,7 @@
       <c r="U93" s="46"/>
       <c r="V93" s="47"/>
     </row>
-    <row r="94" spans="1:22" ht="21" customHeight="1">
+    <row r="94" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="48"/>
       <c r="B94" s="43"/>
       <c r="C94" s="44"/>
@@ -4844,7 +4846,7 @@
       <c r="U94" s="46"/>
       <c r="V94" s="47"/>
     </row>
-    <row r="95" spans="1:22" ht="21" customHeight="1">
+    <row r="95" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="48"/>
       <c r="B95" s="43"/>
       <c r="C95" s="44"/>
@@ -4868,7 +4870,7 @@
       <c r="U95" s="46"/>
       <c r="V95" s="47"/>
     </row>
-    <row r="96" spans="1:22" ht="21" customHeight="1">
+    <row r="96" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="48"/>
       <c r="B96" s="43"/>
       <c r="C96" s="44"/>
@@ -4892,7 +4894,7 @@
       <c r="U96" s="46"/>
       <c r="V96" s="47"/>
     </row>
-    <row r="97" spans="1:22" ht="21" customHeight="1">
+    <row r="97" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="48"/>
       <c r="B97" s="43"/>
       <c r="C97" s="44"/>
@@ -4916,7 +4918,7 @@
       <c r="U97" s="46"/>
       <c r="V97" s="47"/>
     </row>
-    <row r="98" spans="1:22" ht="21" customHeight="1">
+    <row r="98" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="48"/>
       <c r="B98" s="43"/>
       <c r="C98" s="44"/>
@@ -4940,7 +4942,7 @@
       <c r="U98" s="46"/>
       <c r="V98" s="47"/>
     </row>
-    <row r="99" spans="1:22" ht="21" customHeight="1">
+    <row r="99" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="48"/>
       <c r="B99" s="43"/>
       <c r="C99" s="44"/>
@@ -4964,7 +4966,7 @@
       <c r="U99" s="46"/>
       <c r="V99" s="47"/>
     </row>
-    <row r="100" spans="1:22" ht="21" customHeight="1">
+    <row r="100" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="48"/>
       <c r="B100" s="43"/>
       <c r="C100" s="44"/>
@@ -4988,7 +4990,7 @@
       <c r="U100" s="46"/>
       <c r="V100" s="47"/>
     </row>
-    <row r="101" spans="1:22" ht="21" customHeight="1">
+    <row r="101" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="48"/>
       <c r="B101" s="43"/>
       <c r="C101" s="44"/>
@@ -5012,7 +5014,7 @@
       <c r="U101" s="46"/>
       <c r="V101" s="47"/>
     </row>
-    <row r="102" spans="1:22" ht="21" customHeight="1">
+    <row r="102" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="48"/>
       <c r="B102" s="43"/>
       <c r="C102" s="44"/>
@@ -5036,7 +5038,7 @@
       <c r="U102" s="46"/>
       <c r="V102" s="47"/>
     </row>
-    <row r="103" spans="1:22" ht="21" customHeight="1">
+    <row r="103" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="48"/>
       <c r="B103" s="43"/>
       <c r="C103" s="44"/>
@@ -5060,7 +5062,7 @@
       <c r="U103" s="46"/>
       <c r="V103" s="47"/>
     </row>
-    <row r="104" spans="1:22" ht="21" customHeight="1">
+    <row r="104" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="48"/>
       <c r="B104" s="43"/>
       <c r="C104" s="44"/>
@@ -5084,7 +5086,7 @@
       <c r="U104" s="46"/>
       <c r="V104" s="47"/>
     </row>
-    <row r="105" spans="1:22" ht="21" customHeight="1" thickBot="1">
+    <row r="105" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="49"/>
       <c r="B105" s="50"/>
       <c r="C105" s="51"/>
@@ -5108,12 +5110,52 @@
       <c r="U105" s="53"/>
       <c r="V105" s="54"/>
     </row>
-    <row r="106" spans="1:22" ht="30" customHeight="1">
+    <row r="106" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K106" s="63"/>
       <c r="M106" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="U18:U19"/>
+    <mergeCell ref="V18:V19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="V13:V14"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="Q8:Q9"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="N18:N19"/>
     <mergeCell ref="B18:B19"/>
@@ -5123,46 +5165,6 @@
     <mergeCell ref="M18:M19"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="L18:L19"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="V13:V14"/>
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="U18:U19"/>
-    <mergeCell ref="V18:V19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="S18:S19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5174,10 +5176,10 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.42578125" style="87" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="88" customWidth="1"/>
@@ -5190,7 +5192,7 @@
     <col min="9" max="16384" width="9.140625" style="84"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="37" customFormat="1" ht="12.75">
+    <row r="1" spans="1:8" s="37" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="160" t="s">
         <v>2</v>
       </c>
@@ -5206,11 +5208,11 @@
       <c r="G1" s="158" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="114" t="s">
+      <c r="H1" s="144" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="86" customFormat="1" ht="12.75">
+    <row r="2" spans="1:8" s="86" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="161"/>
       <c r="B2" s="85" t="s">
         <v>20</v>
@@ -5230,5989 +5232,5989 @@
       <c r="G2" s="159"/>
       <c r="H2" s="164"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" s="84" t="e">
         <f t="shared" ref="H3:H66" si="0">INDEX(Companies,MATCH(G3,StationIDs,0),1)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H5" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H6" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H7" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H8" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H9" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H10" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H11" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H12" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H13" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H14" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H15" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H16" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="17" spans="8:8">
+    <row r="17" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H17" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="8:8">
+    <row r="18" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H18" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="8:8">
+    <row r="19" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H19" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="8:8">
+    <row r="20" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H20" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="8:8">
+    <row r="21" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H21" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="22" spans="8:8">
+    <row r="22" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H22" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="23" spans="8:8">
+    <row r="23" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H23" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="24" spans="8:8">
+    <row r="24" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H24" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="25" spans="8:8">
+    <row r="25" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H25" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="8:8">
+    <row r="26" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H26" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="8:8">
+    <row r="27" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H27" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="8:8">
+    <row r="28" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H28" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="29" spans="8:8">
+    <row r="29" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H29" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="8:8">
+    <row r="30" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H30" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="8:8">
+    <row r="31" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H31" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="8:8">
+    <row r="32" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H32" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="33" spans="8:8">
+    <row r="33" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H33" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="8:8">
+    <row r="34" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H34" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="35" spans="8:8">
+    <row r="35" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H35" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="36" spans="8:8">
+    <row r="36" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H36" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="37" spans="8:8">
+    <row r="37" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H37" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="38" spans="8:8">
+    <row r="38" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H38" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="8:8">
+    <row r="39" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H39" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="8:8">
+    <row r="40" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H40" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="8:8">
+    <row r="41" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H41" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="8:8">
+    <row r="42" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H42" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="43" spans="8:8">
+    <row r="43" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H43" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="44" spans="8:8">
+    <row r="44" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H44" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="45" spans="8:8">
+    <row r="45" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H45" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="8:8">
+    <row r="46" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H46" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="8:8">
+    <row r="47" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H47" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="8:8">
+    <row r="48" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H48" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="8:8">
+    <row r="49" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H49" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="8:8">
+    <row r="50" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H50" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="8:8">
+    <row r="51" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H51" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="8:8">
+    <row r="52" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H52" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="8:8">
+    <row r="53" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H53" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="8:8">
+    <row r="54" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H54" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="55" spans="8:8">
+    <row r="55" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H55" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="56" spans="8:8">
+    <row r="56" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H56" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="57" spans="8:8">
+    <row r="57" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H57" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="58" spans="8:8">
+    <row r="58" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H58" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="59" spans="8:8">
+    <row r="59" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H59" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="60" spans="8:8">
+    <row r="60" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H60" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="8:8">
+    <row r="61" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H61" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="62" spans="8:8">
+    <row r="62" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H62" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="63" spans="8:8">
+    <row r="63" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H63" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="64" spans="8:8">
+    <row r="64" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H64" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="65" spans="8:8">
+    <row r="65" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H65" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="66" spans="8:8">
+    <row r="66" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H66" s="84" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="67" spans="8:8">
+    <row r="67" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H67" s="84" t="e">
         <f t="shared" ref="H67:H130" si="1">INDEX(Companies,MATCH(G67,StationIDs,0),1)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="68" spans="8:8">
+    <row r="68" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H68" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="69" spans="8:8">
+    <row r="69" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H69" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="70" spans="8:8">
+    <row r="70" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H70" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="71" spans="8:8">
+    <row r="71" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H71" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="72" spans="8:8">
+    <row r="72" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H72" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="73" spans="8:8">
+    <row r="73" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H73" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="74" spans="8:8">
+    <row r="74" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H74" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="75" spans="8:8">
+    <row r="75" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H75" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="76" spans="8:8">
+    <row r="76" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H76" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="77" spans="8:8">
+    <row r="77" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H77" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="78" spans="8:8">
+    <row r="78" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H78" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="79" spans="8:8">
+    <row r="79" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H79" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="80" spans="8:8">
+    <row r="80" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H80" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="81" spans="8:8">
+    <row r="81" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H81" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="82" spans="8:8">
+    <row r="82" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H82" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="83" spans="8:8">
+    <row r="83" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H83" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="84" spans="8:8">
+    <row r="84" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H84" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="85" spans="8:8">
+    <row r="85" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H85" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="86" spans="8:8">
+    <row r="86" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H86" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="87" spans="8:8">
+    <row r="87" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H87" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="88" spans="8:8">
+    <row r="88" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H88" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="89" spans="8:8">
+    <row r="89" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H89" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="90" spans="8:8">
+    <row r="90" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H90" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="91" spans="8:8">
+    <row r="91" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H91" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="92" spans="8:8">
+    <row r="92" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H92" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="93" spans="8:8">
+    <row r="93" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H93" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="94" spans="8:8">
+    <row r="94" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H94" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="95" spans="8:8">
+    <row r="95" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H95" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="96" spans="8:8">
+    <row r="96" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H96" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="97" spans="8:8">
+    <row r="97" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H97" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="98" spans="8:8">
+    <row r="98" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H98" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="99" spans="8:8">
+    <row r="99" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H99" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="100" spans="8:8">
+    <row r="100" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H100" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="101" spans="8:8">
+    <row r="101" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H101" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="102" spans="8:8">
+    <row r="102" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H102" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="103" spans="8:8">
+    <row r="103" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H103" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="104" spans="8:8">
+    <row r="104" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H104" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="105" spans="8:8">
+    <row r="105" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H105" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="106" spans="8:8">
+    <row r="106" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H106" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="107" spans="8:8">
+    <row r="107" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H107" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="108" spans="8:8">
+    <row r="108" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H108" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="109" spans="8:8">
+    <row r="109" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H109" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="110" spans="8:8">
+    <row r="110" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H110" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="111" spans="8:8">
+    <row r="111" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H111" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="112" spans="8:8">
+    <row r="112" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H112" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="113" spans="8:8">
+    <row r="113" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H113" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="114" spans="8:8">
+    <row r="114" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H114" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="115" spans="8:8">
+    <row r="115" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H115" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="116" spans="8:8">
+    <row r="116" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H116" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="117" spans="8:8">
+    <row r="117" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H117" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="118" spans="8:8">
+    <row r="118" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H118" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="119" spans="8:8">
+    <row r="119" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H119" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="120" spans="8:8">
+    <row r="120" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H120" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="121" spans="8:8">
+    <row r="121" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H121" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="122" spans="8:8">
+    <row r="122" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H122" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="123" spans="8:8">
+    <row r="123" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H123" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="124" spans="8:8">
+    <row r="124" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H124" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="125" spans="8:8">
+    <row r="125" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H125" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="126" spans="8:8">
+    <row r="126" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H126" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="127" spans="8:8">
+    <row r="127" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H127" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="128" spans="8:8">
+    <row r="128" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H128" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="129" spans="8:8">
+    <row r="129" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H129" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="130" spans="8:8">
+    <row r="130" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H130" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="131" spans="8:8">
+    <row r="131" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H131" s="84" t="e">
         <f t="shared" ref="H131:H194" si="2">INDEX(Companies,MATCH(G131,StationIDs,0),1)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="132" spans="8:8">
+    <row r="132" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H132" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="133" spans="8:8">
+    <row r="133" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H133" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="134" spans="8:8">
+    <row r="134" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H134" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="135" spans="8:8">
+    <row r="135" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H135" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="136" spans="8:8">
+    <row r="136" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H136" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="137" spans="8:8">
+    <row r="137" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H137" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="138" spans="8:8">
+    <row r="138" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H138" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="139" spans="8:8">
+    <row r="139" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H139" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="140" spans="8:8">
+    <row r="140" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H140" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="141" spans="8:8">
+    <row r="141" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H141" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="142" spans="8:8">
+    <row r="142" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H142" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="143" spans="8:8">
+    <row r="143" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H143" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="144" spans="8:8">
+    <row r="144" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H144" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="145" spans="8:8">
+    <row r="145" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H145" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="146" spans="8:8">
+    <row r="146" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H146" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="147" spans="8:8">
+    <row r="147" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H147" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="148" spans="8:8">
+    <row r="148" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H148" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="149" spans="8:8">
+    <row r="149" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H149" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="150" spans="8:8">
+    <row r="150" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H150" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="151" spans="8:8">
+    <row r="151" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H151" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="152" spans="8:8">
+    <row r="152" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H152" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="153" spans="8:8">
+    <row r="153" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H153" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="154" spans="8:8">
+    <row r="154" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H154" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="155" spans="8:8">
+    <row r="155" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H155" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="156" spans="8:8">
+    <row r="156" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H156" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="157" spans="8:8">
+    <row r="157" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H157" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="158" spans="8:8">
+    <row r="158" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H158" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="159" spans="8:8">
+    <row r="159" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H159" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="160" spans="8:8">
+    <row r="160" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H160" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="161" spans="8:8">
+    <row r="161" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H161" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="162" spans="8:8">
+    <row r="162" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H162" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="163" spans="8:8">
+    <row r="163" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H163" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="164" spans="8:8">
+    <row r="164" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H164" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="165" spans="8:8">
+    <row r="165" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H165" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="166" spans="8:8">
+    <row r="166" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H166" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="167" spans="8:8">
+    <row r="167" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H167" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="168" spans="8:8">
+    <row r="168" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H168" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="169" spans="8:8">
+    <row r="169" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H169" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="170" spans="8:8">
+    <row r="170" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H170" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="171" spans="8:8">
+    <row r="171" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H171" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="172" spans="8:8">
+    <row r="172" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H172" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="173" spans="8:8">
+    <row r="173" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H173" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="174" spans="8:8">
+    <row r="174" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H174" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="175" spans="8:8">
+    <row r="175" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H175" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="176" spans="8:8">
+    <row r="176" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H176" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="177" spans="8:8">
+    <row r="177" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H177" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="178" spans="8:8">
+    <row r="178" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H178" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="179" spans="8:8">
+    <row r="179" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H179" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="180" spans="8:8">
+    <row r="180" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H180" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="181" spans="8:8">
+    <row r="181" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H181" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="182" spans="8:8">
+    <row r="182" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H182" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="183" spans="8:8">
+    <row r="183" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H183" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="184" spans="8:8">
+    <row r="184" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H184" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="185" spans="8:8">
+    <row r="185" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H185" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="186" spans="8:8">
+    <row r="186" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H186" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="187" spans="8:8">
+    <row r="187" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H187" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="188" spans="8:8">
+    <row r="188" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H188" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="189" spans="8:8">
+    <row r="189" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H189" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="190" spans="8:8">
+    <row r="190" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H190" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="191" spans="8:8">
+    <row r="191" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H191" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="192" spans="8:8">
+    <row r="192" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H192" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="193" spans="8:8">
+    <row r="193" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H193" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="194" spans="8:8">
+    <row r="194" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H194" s="84" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="195" spans="8:8">
+    <row r="195" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H195" s="84" t="e">
         <f t="shared" ref="H195:H258" si="3">INDEX(Companies,MATCH(G195,StationIDs,0),1)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="196" spans="8:8">
+    <row r="196" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H196" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="197" spans="8:8">
+    <row r="197" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H197" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="198" spans="8:8">
+    <row r="198" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H198" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="199" spans="8:8">
+    <row r="199" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H199" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="200" spans="8:8">
+    <row r="200" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H200" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="201" spans="8:8">
+    <row r="201" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H201" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="202" spans="8:8">
+    <row r="202" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H202" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="203" spans="8:8">
+    <row r="203" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H203" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="204" spans="8:8">
+    <row r="204" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H204" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="205" spans="8:8">
+    <row r="205" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H205" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="206" spans="8:8">
+    <row r="206" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H206" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="207" spans="8:8">
+    <row r="207" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H207" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="208" spans="8:8">
+    <row r="208" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H208" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="209" spans="8:8">
+    <row r="209" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H209" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="210" spans="8:8">
+    <row r="210" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H210" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="211" spans="8:8">
+    <row r="211" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H211" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="212" spans="8:8">
+    <row r="212" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H212" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="213" spans="8:8">
+    <row r="213" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H213" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="214" spans="8:8">
+    <row r="214" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H214" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="215" spans="8:8">
+    <row r="215" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H215" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="216" spans="8:8">
+    <row r="216" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H216" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="217" spans="8:8">
+    <row r="217" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H217" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="218" spans="8:8">
+    <row r="218" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H218" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="219" spans="8:8">
+    <row r="219" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H219" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="220" spans="8:8">
+    <row r="220" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H220" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="221" spans="8:8">
+    <row r="221" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H221" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="222" spans="8:8">
+    <row r="222" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H222" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="223" spans="8:8">
+    <row r="223" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H223" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="224" spans="8:8">
+    <row r="224" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H224" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="225" spans="8:8">
+    <row r="225" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H225" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="226" spans="8:8">
+    <row r="226" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H226" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="227" spans="8:8">
+    <row r="227" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H227" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="228" spans="8:8">
+    <row r="228" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H228" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="229" spans="8:8">
+    <row r="229" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H229" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="230" spans="8:8">
+    <row r="230" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H230" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="231" spans="8:8">
+    <row r="231" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H231" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="232" spans="8:8">
+    <row r="232" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H232" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="233" spans="8:8">
+    <row r="233" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H233" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="234" spans="8:8">
+    <row r="234" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H234" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="235" spans="8:8">
+    <row r="235" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H235" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="236" spans="8:8">
+    <row r="236" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H236" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="237" spans="8:8">
+    <row r="237" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H237" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="238" spans="8:8">
+    <row r="238" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H238" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="239" spans="8:8">
+    <row r="239" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H239" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="240" spans="8:8">
+    <row r="240" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H240" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="241" spans="8:8">
+    <row r="241" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H241" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="242" spans="8:8">
+    <row r="242" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H242" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="243" spans="8:8">
+    <row r="243" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H243" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="244" spans="8:8">
+    <row r="244" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H244" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="245" spans="8:8">
+    <row r="245" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H245" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="246" spans="8:8">
+    <row r="246" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H246" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="247" spans="8:8">
+    <row r="247" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H247" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="248" spans="8:8">
+    <row r="248" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H248" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="249" spans="8:8">
+    <row r="249" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H249" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="250" spans="8:8">
+    <row r="250" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H250" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="251" spans="8:8">
+    <row r="251" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H251" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="252" spans="8:8">
+    <row r="252" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H252" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="253" spans="8:8">
+    <row r="253" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H253" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="254" spans="8:8">
+    <row r="254" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H254" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="255" spans="8:8">
+    <row r="255" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H255" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="256" spans="8:8">
+    <row r="256" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H256" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="257" spans="8:8">
+    <row r="257" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H257" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="258" spans="8:8">
+    <row r="258" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H258" s="84" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="259" spans="8:8">
+    <row r="259" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H259" s="84" t="e">
         <f t="shared" ref="H259:H322" si="4">INDEX(Companies,MATCH(G259,StationIDs,0),1)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="260" spans="8:8">
+    <row r="260" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H260" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="261" spans="8:8">
+    <row r="261" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H261" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="262" spans="8:8">
+    <row r="262" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H262" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="263" spans="8:8">
+    <row r="263" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H263" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="264" spans="8:8">
+    <row r="264" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H264" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="265" spans="8:8">
+    <row r="265" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H265" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="266" spans="8:8">
+    <row r="266" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H266" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="267" spans="8:8">
+    <row r="267" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H267" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="268" spans="8:8">
+    <row r="268" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H268" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="269" spans="8:8">
+    <row r="269" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H269" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="270" spans="8:8">
+    <row r="270" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H270" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="271" spans="8:8">
+    <row r="271" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H271" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="272" spans="8:8">
+    <row r="272" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H272" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="273" spans="8:8">
+    <row r="273" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H273" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="274" spans="8:8">
+    <row r="274" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H274" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="275" spans="8:8">
+    <row r="275" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H275" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="276" spans="8:8">
+    <row r="276" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H276" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="277" spans="8:8">
+    <row r="277" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H277" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="278" spans="8:8">
+    <row r="278" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H278" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="279" spans="8:8">
+    <row r="279" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H279" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="280" spans="8:8">
+    <row r="280" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H280" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="281" spans="8:8">
+    <row r="281" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H281" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="282" spans="8:8">
+    <row r="282" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H282" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="283" spans="8:8">
+    <row r="283" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H283" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="284" spans="8:8">
+    <row r="284" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H284" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="285" spans="8:8">
+    <row r="285" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H285" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="286" spans="8:8">
+    <row r="286" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H286" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="287" spans="8:8">
+    <row r="287" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H287" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="288" spans="8:8">
+    <row r="288" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H288" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="289" spans="8:8">
+    <row r="289" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H289" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="290" spans="8:8">
+    <row r="290" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H290" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="291" spans="8:8">
+    <row r="291" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H291" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="292" spans="8:8">
+    <row r="292" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H292" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="293" spans="8:8">
+    <row r="293" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H293" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="294" spans="8:8">
+    <row r="294" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H294" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="295" spans="8:8">
+    <row r="295" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H295" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="296" spans="8:8">
+    <row r="296" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H296" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="297" spans="8:8">
+    <row r="297" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H297" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="298" spans="8:8">
+    <row r="298" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H298" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="299" spans="8:8">
+    <row r="299" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H299" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="300" spans="8:8">
+    <row r="300" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H300" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="301" spans="8:8">
+    <row r="301" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H301" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="302" spans="8:8">
+    <row r="302" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H302" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="303" spans="8:8">
+    <row r="303" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H303" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="304" spans="8:8">
+    <row r="304" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H304" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="305" spans="8:8">
+    <row r="305" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H305" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="306" spans="8:8">
+    <row r="306" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H306" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="307" spans="8:8">
+    <row r="307" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H307" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="308" spans="8:8">
+    <row r="308" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H308" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="309" spans="8:8">
+    <row r="309" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H309" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="310" spans="8:8">
+    <row r="310" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H310" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="311" spans="8:8">
+    <row r="311" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H311" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="312" spans="8:8">
+    <row r="312" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H312" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="313" spans="8:8">
+    <row r="313" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H313" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="314" spans="8:8">
+    <row r="314" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H314" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="315" spans="8:8">
+    <row r="315" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H315" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="316" spans="8:8">
+    <row r="316" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H316" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="317" spans="8:8">
+    <row r="317" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H317" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="318" spans="8:8">
+    <row r="318" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H318" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="319" spans="8:8">
+    <row r="319" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H319" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="320" spans="8:8">
+    <row r="320" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H320" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="321" spans="8:8">
+    <row r="321" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H321" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="322" spans="8:8">
+    <row r="322" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H322" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="323" spans="8:8">
+    <row r="323" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H323" s="84" t="e">
         <f t="shared" ref="H323:H386" si="5">INDEX(Companies,MATCH(G323,StationIDs,0),1)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="324" spans="8:8">
+    <row r="324" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H324" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="325" spans="8:8">
+    <row r="325" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H325" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="326" spans="8:8">
+    <row r="326" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H326" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="327" spans="8:8">
+    <row r="327" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H327" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="328" spans="8:8">
+    <row r="328" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H328" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="329" spans="8:8">
+    <row r="329" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H329" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="330" spans="8:8">
+    <row r="330" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H330" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="331" spans="8:8">
+    <row r="331" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H331" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="332" spans="8:8">
+    <row r="332" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H332" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="333" spans="8:8">
+    <row r="333" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H333" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="334" spans="8:8">
+    <row r="334" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H334" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="335" spans="8:8">
+    <row r="335" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H335" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="336" spans="8:8">
+    <row r="336" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H336" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="337" spans="8:8">
+    <row r="337" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H337" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="338" spans="8:8">
+    <row r="338" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H338" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="339" spans="8:8">
+    <row r="339" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H339" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="340" spans="8:8">
+    <row r="340" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H340" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="341" spans="8:8">
+    <row r="341" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H341" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="342" spans="8:8">
+    <row r="342" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H342" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="343" spans="8:8">
+    <row r="343" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H343" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="344" spans="8:8">
+    <row r="344" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H344" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="345" spans="8:8">
+    <row r="345" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H345" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="346" spans="8:8">
+    <row r="346" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H346" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="347" spans="8:8">
+    <row r="347" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H347" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="348" spans="8:8">
+    <row r="348" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H348" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="349" spans="8:8">
+    <row r="349" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H349" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="350" spans="8:8">
+    <row r="350" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H350" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="351" spans="8:8">
+    <row r="351" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H351" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="352" spans="8:8">
+    <row r="352" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H352" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="353" spans="8:8">
+    <row r="353" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H353" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="354" spans="8:8">
+    <row r="354" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H354" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="355" spans="8:8">
+    <row r="355" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H355" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="356" spans="8:8">
+    <row r="356" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H356" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="357" spans="8:8">
+    <row r="357" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H357" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="358" spans="8:8">
+    <row r="358" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H358" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="359" spans="8:8">
+    <row r="359" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H359" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="360" spans="8:8">
+    <row r="360" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H360" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="361" spans="8:8">
+    <row r="361" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H361" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="362" spans="8:8">
+    <row r="362" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H362" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="363" spans="8:8">
+    <row r="363" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H363" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="364" spans="8:8">
+    <row r="364" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H364" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="365" spans="8:8">
+    <row r="365" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H365" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="366" spans="8:8">
+    <row r="366" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H366" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="367" spans="8:8">
+    <row r="367" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H367" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="368" spans="8:8">
+    <row r="368" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H368" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="369" spans="8:8">
+    <row r="369" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H369" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="370" spans="8:8">
+    <row r="370" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H370" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="371" spans="8:8">
+    <row r="371" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H371" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="372" spans="8:8">
+    <row r="372" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H372" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="373" spans="8:8">
+    <row r="373" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H373" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="374" spans="8:8">
+    <row r="374" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H374" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="375" spans="8:8">
+    <row r="375" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H375" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="376" spans="8:8">
+    <row r="376" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H376" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="377" spans="8:8">
+    <row r="377" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H377" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="378" spans="8:8">
+    <row r="378" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H378" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="379" spans="8:8">
+    <row r="379" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H379" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="380" spans="8:8">
+    <row r="380" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H380" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="381" spans="8:8">
+    <row r="381" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H381" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="382" spans="8:8">
+    <row r="382" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H382" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="383" spans="8:8">
+    <row r="383" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H383" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="384" spans="8:8">
+    <row r="384" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H384" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="385" spans="8:8">
+    <row r="385" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H385" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="386" spans="8:8">
+    <row r="386" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H386" s="84" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="387" spans="8:8">
+    <row r="387" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H387" s="84" t="e">
         <f t="shared" ref="H387:H450" si="6">INDEX(Companies,MATCH(G387,StationIDs,0),1)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="388" spans="8:8">
+    <row r="388" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H388" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="389" spans="8:8">
+    <row r="389" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H389" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="390" spans="8:8">
+    <row r="390" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H390" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="391" spans="8:8">
+    <row r="391" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H391" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="392" spans="8:8">
+    <row r="392" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H392" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="393" spans="8:8">
+    <row r="393" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H393" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="394" spans="8:8">
+    <row r="394" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H394" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="395" spans="8:8">
+    <row r="395" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H395" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="396" spans="8:8">
+    <row r="396" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H396" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="397" spans="8:8">
+    <row r="397" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H397" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="398" spans="8:8">
+    <row r="398" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H398" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="399" spans="8:8">
+    <row r="399" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H399" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="400" spans="8:8">
+    <row r="400" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H400" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="401" spans="8:8">
+    <row r="401" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H401" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="402" spans="8:8">
+    <row r="402" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H402" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="403" spans="8:8">
+    <row r="403" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H403" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="404" spans="8:8">
+    <row r="404" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H404" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="405" spans="8:8">
+    <row r="405" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H405" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="406" spans="8:8">
+    <row r="406" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H406" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="407" spans="8:8">
+    <row r="407" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H407" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="408" spans="8:8">
+    <row r="408" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H408" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="409" spans="8:8">
+    <row r="409" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H409" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="410" spans="8:8">
+    <row r="410" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H410" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="411" spans="8:8">
+    <row r="411" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H411" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="412" spans="8:8">
+    <row r="412" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H412" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="413" spans="8:8">
+    <row r="413" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H413" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="414" spans="8:8">
+    <row r="414" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H414" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="415" spans="8:8">
+    <row r="415" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H415" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="416" spans="8:8">
+    <row r="416" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H416" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="417" spans="8:8">
+    <row r="417" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H417" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="418" spans="8:8">
+    <row r="418" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H418" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="419" spans="8:8">
+    <row r="419" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H419" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="420" spans="8:8">
+    <row r="420" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H420" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="421" spans="8:8">
+    <row r="421" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H421" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="422" spans="8:8">
+    <row r="422" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H422" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="423" spans="8:8">
+    <row r="423" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H423" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="424" spans="8:8">
+    <row r="424" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H424" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="425" spans="8:8">
+    <row r="425" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H425" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="426" spans="8:8">
+    <row r="426" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H426" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="427" spans="8:8">
+    <row r="427" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H427" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="428" spans="8:8">
+    <row r="428" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H428" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="429" spans="8:8">
+    <row r="429" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H429" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="430" spans="8:8">
+    <row r="430" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H430" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="431" spans="8:8">
+    <row r="431" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H431" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="432" spans="8:8">
+    <row r="432" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H432" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="433" spans="8:8">
+    <row r="433" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H433" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="434" spans="8:8">
+    <row r="434" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H434" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="435" spans="8:8">
+    <row r="435" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H435" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="436" spans="8:8">
+    <row r="436" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H436" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="437" spans="8:8">
+    <row r="437" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H437" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="438" spans="8:8">
+    <row r="438" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H438" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="439" spans="8:8">
+    <row r="439" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H439" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="440" spans="8:8">
+    <row r="440" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H440" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="441" spans="8:8">
+    <row r="441" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H441" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="442" spans="8:8">
+    <row r="442" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H442" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="443" spans="8:8">
+    <row r="443" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H443" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="444" spans="8:8">
+    <row r="444" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H444" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="445" spans="8:8">
+    <row r="445" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H445" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="446" spans="8:8">
+    <row r="446" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H446" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="447" spans="8:8">
+    <row r="447" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H447" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="448" spans="8:8">
+    <row r="448" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H448" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="449" spans="8:8">
+    <row r="449" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H449" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="450" spans="8:8">
+    <row r="450" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H450" s="84" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="451" spans="8:8">
+    <row r="451" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H451" s="84" t="e">
         <f t="shared" ref="H451:H514" si="7">INDEX(Companies,MATCH(G451,StationIDs,0),1)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="452" spans="8:8">
+    <row r="452" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H452" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="453" spans="8:8">
+    <row r="453" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H453" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="454" spans="8:8">
+    <row r="454" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H454" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="455" spans="8:8">
+    <row r="455" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H455" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="456" spans="8:8">
+    <row r="456" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H456" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="457" spans="8:8">
+    <row r="457" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H457" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="458" spans="8:8">
+    <row r="458" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H458" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="459" spans="8:8">
+    <row r="459" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H459" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="460" spans="8:8">
+    <row r="460" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H460" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="461" spans="8:8">
+    <row r="461" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H461" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="462" spans="8:8">
+    <row r="462" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H462" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="463" spans="8:8">
+    <row r="463" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H463" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="464" spans="8:8">
+    <row r="464" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H464" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="465" spans="8:8">
+    <row r="465" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H465" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="466" spans="8:8">
+    <row r="466" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H466" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="467" spans="8:8">
+    <row r="467" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H467" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="468" spans="8:8">
+    <row r="468" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H468" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="469" spans="8:8">
+    <row r="469" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H469" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="470" spans="8:8">
+    <row r="470" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H470" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="471" spans="8:8">
+    <row r="471" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H471" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="472" spans="8:8">
+    <row r="472" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H472" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="473" spans="8:8">
+    <row r="473" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H473" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="474" spans="8:8">
+    <row r="474" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H474" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="475" spans="8:8">
+    <row r="475" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H475" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="476" spans="8:8">
+    <row r="476" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H476" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="477" spans="8:8">
+    <row r="477" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H477" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="478" spans="8:8">
+    <row r="478" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H478" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="479" spans="8:8">
+    <row r="479" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H479" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="480" spans="8:8">
+    <row r="480" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H480" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="481" spans="8:8">
+    <row r="481" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H481" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="482" spans="8:8">
+    <row r="482" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H482" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="483" spans="8:8">
+    <row r="483" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H483" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="484" spans="8:8">
+    <row r="484" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H484" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="485" spans="8:8">
+    <row r="485" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H485" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="486" spans="8:8">
+    <row r="486" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H486" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="487" spans="8:8">
+    <row r="487" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H487" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="488" spans="8:8">
+    <row r="488" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H488" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="489" spans="8:8">
+    <row r="489" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H489" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="490" spans="8:8">
+    <row r="490" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H490" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="491" spans="8:8">
+    <row r="491" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H491" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="492" spans="8:8">
+    <row r="492" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H492" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="493" spans="8:8">
+    <row r="493" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H493" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="494" spans="8:8">
+    <row r="494" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H494" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="495" spans="8:8">
+    <row r="495" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H495" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="496" spans="8:8">
+    <row r="496" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H496" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="497" spans="8:8">
+    <row r="497" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H497" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="498" spans="8:8">
+    <row r="498" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H498" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="499" spans="8:8">
+    <row r="499" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H499" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="500" spans="8:8">
+    <row r="500" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H500" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="501" spans="8:8">
+    <row r="501" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H501" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="502" spans="8:8">
+    <row r="502" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H502" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="503" spans="8:8">
+    <row r="503" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H503" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="504" spans="8:8">
+    <row r="504" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H504" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="505" spans="8:8">
+    <row r="505" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H505" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="506" spans="8:8">
+    <row r="506" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H506" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="507" spans="8:8">
+    <row r="507" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H507" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="508" spans="8:8">
+    <row r="508" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H508" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="509" spans="8:8">
+    <row r="509" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H509" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="510" spans="8:8">
+    <row r="510" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H510" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="511" spans="8:8">
+    <row r="511" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H511" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="512" spans="8:8">
+    <row r="512" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H512" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="513" spans="8:8">
+    <row r="513" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H513" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="514" spans="8:8">
+    <row r="514" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H514" s="84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="515" spans="8:8">
+    <row r="515" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H515" s="84" t="e">
         <f t="shared" ref="H515:H578" si="8">INDEX(Companies,MATCH(G515,StationIDs,0),1)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="516" spans="8:8">
+    <row r="516" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H516" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="517" spans="8:8">
+    <row r="517" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H517" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="518" spans="8:8">
+    <row r="518" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H518" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="519" spans="8:8">
+    <row r="519" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H519" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="520" spans="8:8">
+    <row r="520" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H520" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="521" spans="8:8">
+    <row r="521" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H521" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="522" spans="8:8">
+    <row r="522" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H522" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="523" spans="8:8">
+    <row r="523" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H523" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="524" spans="8:8">
+    <row r="524" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H524" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="525" spans="8:8">
+    <row r="525" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H525" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="526" spans="8:8">
+    <row r="526" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H526" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="527" spans="8:8">
+    <row r="527" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H527" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="528" spans="8:8">
+    <row r="528" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H528" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="529" spans="8:8">
+    <row r="529" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H529" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="530" spans="8:8">
+    <row r="530" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H530" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="531" spans="8:8">
+    <row r="531" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H531" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="532" spans="8:8">
+    <row r="532" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H532" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="533" spans="8:8">
+    <row r="533" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H533" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="534" spans="8:8">
+    <row r="534" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H534" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="535" spans="8:8">
+    <row r="535" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H535" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="536" spans="8:8">
+    <row r="536" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H536" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="537" spans="8:8">
+    <row r="537" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H537" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="538" spans="8:8">
+    <row r="538" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H538" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="539" spans="8:8">
+    <row r="539" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H539" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="540" spans="8:8">
+    <row r="540" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H540" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="541" spans="8:8">
+    <row r="541" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H541" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="542" spans="8:8">
+    <row r="542" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H542" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="543" spans="8:8">
+    <row r="543" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H543" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="544" spans="8:8">
+    <row r="544" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H544" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="545" spans="8:8">
+    <row r="545" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H545" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="546" spans="8:8">
+    <row r="546" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H546" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="547" spans="8:8">
+    <row r="547" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H547" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="548" spans="8:8">
+    <row r="548" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H548" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="549" spans="8:8">
+    <row r="549" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H549" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="550" spans="8:8">
+    <row r="550" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H550" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="551" spans="8:8">
+    <row r="551" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H551" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="552" spans="8:8">
+    <row r="552" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H552" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="553" spans="8:8">
+    <row r="553" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H553" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="554" spans="8:8">
+    <row r="554" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H554" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="555" spans="8:8">
+    <row r="555" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H555" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="556" spans="8:8">
+    <row r="556" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H556" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="557" spans="8:8">
+    <row r="557" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H557" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="558" spans="8:8">
+    <row r="558" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H558" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="559" spans="8:8">
+    <row r="559" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H559" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="560" spans="8:8">
+    <row r="560" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H560" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="561" spans="8:8">
+    <row r="561" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H561" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="562" spans="8:8">
+    <row r="562" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H562" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="563" spans="8:8">
+    <row r="563" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H563" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="564" spans="8:8">
+    <row r="564" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H564" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="565" spans="8:8">
+    <row r="565" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H565" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="566" spans="8:8">
+    <row r="566" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H566" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="567" spans="8:8">
+    <row r="567" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H567" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="568" spans="8:8">
+    <row r="568" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H568" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="569" spans="8:8">
+    <row r="569" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H569" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="570" spans="8:8">
+    <row r="570" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H570" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="571" spans="8:8">
+    <row r="571" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H571" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="572" spans="8:8">
+    <row r="572" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H572" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="573" spans="8:8">
+    <row r="573" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H573" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="574" spans="8:8">
+    <row r="574" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H574" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="575" spans="8:8">
+    <row r="575" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H575" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="576" spans="8:8">
+    <row r="576" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H576" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="577" spans="8:8">
+    <row r="577" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H577" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="578" spans="8:8">
+    <row r="578" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H578" s="84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="579" spans="8:8">
+    <row r="579" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H579" s="84" t="e">
         <f t="shared" ref="H579:H642" si="9">INDEX(Companies,MATCH(G579,StationIDs,0),1)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="580" spans="8:8">
+    <row r="580" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H580" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="581" spans="8:8">
+    <row r="581" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H581" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="582" spans="8:8">
+    <row r="582" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H582" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="583" spans="8:8">
+    <row r="583" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H583" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="584" spans="8:8">
+    <row r="584" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H584" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="585" spans="8:8">
+    <row r="585" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H585" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="586" spans="8:8">
+    <row r="586" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H586" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="587" spans="8:8">
+    <row r="587" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H587" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="588" spans="8:8">
+    <row r="588" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H588" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="589" spans="8:8">
+    <row r="589" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H589" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="590" spans="8:8">
+    <row r="590" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H590" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="591" spans="8:8">
+    <row r="591" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H591" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="592" spans="8:8">
+    <row r="592" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H592" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="593" spans="8:8">
+    <row r="593" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H593" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="594" spans="8:8">
+    <row r="594" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H594" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="595" spans="8:8">
+    <row r="595" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H595" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="596" spans="8:8">
+    <row r="596" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H596" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="597" spans="8:8">
+    <row r="597" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H597" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="598" spans="8:8">
+    <row r="598" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H598" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="599" spans="8:8">
+    <row r="599" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H599" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="600" spans="8:8">
+    <row r="600" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H600" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="601" spans="8:8">
+    <row r="601" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H601" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="602" spans="8:8">
+    <row r="602" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H602" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="603" spans="8:8">
+    <row r="603" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H603" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="604" spans="8:8">
+    <row r="604" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H604" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="605" spans="8:8">
+    <row r="605" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H605" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="606" spans="8:8">
+    <row r="606" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H606" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="607" spans="8:8">
+    <row r="607" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H607" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="608" spans="8:8">
+    <row r="608" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H608" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="609" spans="8:8">
+    <row r="609" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H609" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="610" spans="8:8">
+    <row r="610" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H610" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="611" spans="8:8">
+    <row r="611" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H611" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="612" spans="8:8">
+    <row r="612" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H612" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="613" spans="8:8">
+    <row r="613" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H613" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="614" spans="8:8">
+    <row r="614" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H614" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="615" spans="8:8">
+    <row r="615" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H615" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="616" spans="8:8">
+    <row r="616" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H616" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="617" spans="8:8">
+    <row r="617" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H617" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="618" spans="8:8">
+    <row r="618" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H618" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="619" spans="8:8">
+    <row r="619" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H619" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="620" spans="8:8">
+    <row r="620" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H620" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="621" spans="8:8">
+    <row r="621" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H621" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="622" spans="8:8">
+    <row r="622" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H622" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="623" spans="8:8">
+    <row r="623" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H623" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="624" spans="8:8">
+    <row r="624" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H624" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="625" spans="8:8">
+    <row r="625" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H625" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="626" spans="8:8">
+    <row r="626" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H626" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="627" spans="8:8">
+    <row r="627" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H627" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="628" spans="8:8">
+    <row r="628" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H628" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="629" spans="8:8">
+    <row r="629" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H629" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="630" spans="8:8">
+    <row r="630" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H630" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="631" spans="8:8">
+    <row r="631" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H631" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="632" spans="8:8">
+    <row r="632" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H632" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="633" spans="8:8">
+    <row r="633" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H633" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="634" spans="8:8">
+    <row r="634" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H634" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="635" spans="8:8">
+    <row r="635" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H635" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="636" spans="8:8">
+    <row r="636" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H636" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="637" spans="8:8">
+    <row r="637" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H637" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="638" spans="8:8">
+    <row r="638" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H638" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="639" spans="8:8">
+    <row r="639" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H639" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="640" spans="8:8">
+    <row r="640" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H640" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="641" spans="8:8">
+    <row r="641" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H641" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="642" spans="8:8">
+    <row r="642" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H642" s="84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="643" spans="8:8">
+    <row r="643" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H643" s="84" t="e">
         <f t="shared" ref="H643:H706" si="10">INDEX(Companies,MATCH(G643,StationIDs,0),1)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="644" spans="8:8">
+    <row r="644" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H644" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="645" spans="8:8">
+    <row r="645" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H645" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="646" spans="8:8">
+    <row r="646" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H646" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="647" spans="8:8">
+    <row r="647" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H647" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="648" spans="8:8">
+    <row r="648" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H648" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="649" spans="8:8">
+    <row r="649" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H649" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="650" spans="8:8">
+    <row r="650" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H650" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="651" spans="8:8">
+    <row r="651" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H651" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="652" spans="8:8">
+    <row r="652" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H652" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="653" spans="8:8">
+    <row r="653" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H653" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="654" spans="8:8">
+    <row r="654" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H654" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="655" spans="8:8">
+    <row r="655" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H655" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="656" spans="8:8">
+    <row r="656" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H656" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="657" spans="8:8">
+    <row r="657" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H657" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="658" spans="8:8">
+    <row r="658" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H658" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="659" spans="8:8">
+    <row r="659" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H659" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="660" spans="8:8">
+    <row r="660" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H660" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="661" spans="8:8">
+    <row r="661" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H661" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="662" spans="8:8">
+    <row r="662" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H662" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="663" spans="8:8">
+    <row r="663" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H663" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="664" spans="8:8">
+    <row r="664" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H664" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="665" spans="8:8">
+    <row r="665" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H665" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="666" spans="8:8">
+    <row r="666" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H666" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="667" spans="8:8">
+    <row r="667" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H667" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="668" spans="8:8">
+    <row r="668" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H668" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="669" spans="8:8">
+    <row r="669" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H669" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="670" spans="8:8">
+    <row r="670" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H670" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="671" spans="8:8">
+    <row r="671" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H671" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="672" spans="8:8">
+    <row r="672" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H672" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="673" spans="8:8">
+    <row r="673" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H673" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="674" spans="8:8">
+    <row r="674" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H674" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="675" spans="8:8">
+    <row r="675" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H675" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="676" spans="8:8">
+    <row r="676" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H676" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="677" spans="8:8">
+    <row r="677" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H677" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="678" spans="8:8">
+    <row r="678" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H678" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="679" spans="8:8">
+    <row r="679" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H679" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="680" spans="8:8">
+    <row r="680" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H680" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="681" spans="8:8">
+    <row r="681" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H681" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="682" spans="8:8">
+    <row r="682" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H682" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="683" spans="8:8">
+    <row r="683" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H683" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="684" spans="8:8">
+    <row r="684" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H684" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="685" spans="8:8">
+    <row r="685" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H685" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="686" spans="8:8">
+    <row r="686" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H686" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="687" spans="8:8">
+    <row r="687" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H687" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="688" spans="8:8">
+    <row r="688" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H688" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="689" spans="8:8">
+    <row r="689" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H689" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="690" spans="8:8">
+    <row r="690" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H690" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="691" spans="8:8">
+    <row r="691" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H691" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="692" spans="8:8">
+    <row r="692" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H692" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="693" spans="8:8">
+    <row r="693" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H693" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="694" spans="8:8">
+    <row r="694" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H694" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="695" spans="8:8">
+    <row r="695" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H695" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="696" spans="8:8">
+    <row r="696" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H696" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="697" spans="8:8">
+    <row r="697" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H697" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="698" spans="8:8">
+    <row r="698" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H698" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="699" spans="8:8">
+    <row r="699" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H699" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="700" spans="8:8">
+    <row r="700" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H700" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="701" spans="8:8">
+    <row r="701" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H701" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="702" spans="8:8">
+    <row r="702" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H702" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="703" spans="8:8">
+    <row r="703" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H703" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="704" spans="8:8">
+    <row r="704" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H704" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="705" spans="8:8">
+    <row r="705" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H705" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="706" spans="8:8">
+    <row r="706" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H706" s="84" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="707" spans="8:8">
+    <row r="707" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H707" s="84" t="e">
         <f t="shared" ref="H707:H770" si="11">INDEX(Companies,MATCH(G707,StationIDs,0),1)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="708" spans="8:8">
+    <row r="708" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H708" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="709" spans="8:8">
+    <row r="709" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H709" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="710" spans="8:8">
+    <row r="710" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H710" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="711" spans="8:8">
+    <row r="711" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H711" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="712" spans="8:8">
+    <row r="712" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H712" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="713" spans="8:8">
+    <row r="713" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H713" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="714" spans="8:8">
+    <row r="714" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H714" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="715" spans="8:8">
+    <row r="715" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H715" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="716" spans="8:8">
+    <row r="716" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H716" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="717" spans="8:8">
+    <row r="717" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H717" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="718" spans="8:8">
+    <row r="718" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H718" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="719" spans="8:8">
+    <row r="719" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H719" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="720" spans="8:8">
+    <row r="720" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H720" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="721" spans="8:8">
+    <row r="721" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H721" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="722" spans="8:8">
+    <row r="722" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H722" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="723" spans="8:8">
+    <row r="723" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H723" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="724" spans="8:8">
+    <row r="724" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H724" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="725" spans="8:8">
+    <row r="725" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H725" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="726" spans="8:8">
+    <row r="726" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H726" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="727" spans="8:8">
+    <row r="727" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H727" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="728" spans="8:8">
+    <row r="728" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H728" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="729" spans="8:8">
+    <row r="729" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H729" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="730" spans="8:8">
+    <row r="730" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H730" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="731" spans="8:8">
+    <row r="731" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H731" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="732" spans="8:8">
+    <row r="732" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H732" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="733" spans="8:8">
+    <row r="733" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H733" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="734" spans="8:8">
+    <row r="734" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H734" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="735" spans="8:8">
+    <row r="735" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H735" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="736" spans="8:8">
+    <row r="736" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H736" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="737" spans="8:8">
+    <row r="737" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H737" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="738" spans="8:8">
+    <row r="738" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H738" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="739" spans="8:8">
+    <row r="739" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H739" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="740" spans="8:8">
+    <row r="740" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H740" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="741" spans="8:8">
+    <row r="741" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H741" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="742" spans="8:8">
+    <row r="742" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H742" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="743" spans="8:8">
+    <row r="743" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H743" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="744" spans="8:8">
+    <row r="744" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H744" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="745" spans="8:8">
+    <row r="745" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H745" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="746" spans="8:8">
+    <row r="746" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H746" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="747" spans="8:8">
+    <row r="747" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H747" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="748" spans="8:8">
+    <row r="748" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H748" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="749" spans="8:8">
+    <row r="749" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H749" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="750" spans="8:8">
+    <row r="750" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H750" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="751" spans="8:8">
+    <row r="751" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H751" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="752" spans="8:8">
+    <row r="752" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H752" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="753" spans="8:8">
+    <row r="753" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H753" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="754" spans="8:8">
+    <row r="754" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H754" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="755" spans="8:8">
+    <row r="755" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H755" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="756" spans="8:8">
+    <row r="756" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H756" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="757" spans="8:8">
+    <row r="757" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H757" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="758" spans="8:8">
+    <row r="758" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H758" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="759" spans="8:8">
+    <row r="759" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H759" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="760" spans="8:8">
+    <row r="760" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H760" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="761" spans="8:8">
+    <row r="761" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H761" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="762" spans="8:8">
+    <row r="762" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H762" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="763" spans="8:8">
+    <row r="763" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H763" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="764" spans="8:8">
+    <row r="764" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H764" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="765" spans="8:8">
+    <row r="765" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H765" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="766" spans="8:8">
+    <row r="766" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H766" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="767" spans="8:8">
+    <row r="767" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H767" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="768" spans="8:8">
+    <row r="768" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H768" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="769" spans="8:8">
+    <row r="769" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H769" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="770" spans="8:8">
+    <row r="770" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H770" s="84" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="771" spans="8:8">
+    <row r="771" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H771" s="84" t="e">
         <f t="shared" ref="H771:H834" si="12">INDEX(Companies,MATCH(G771,StationIDs,0),1)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="772" spans="8:8">
+    <row r="772" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H772" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="773" spans="8:8">
+    <row r="773" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H773" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="774" spans="8:8">
+    <row r="774" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H774" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="775" spans="8:8">
+    <row r="775" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H775" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="776" spans="8:8">
+    <row r="776" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H776" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="777" spans="8:8">
+    <row r="777" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H777" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="778" spans="8:8">
+    <row r="778" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H778" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="779" spans="8:8">
+    <row r="779" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H779" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="780" spans="8:8">
+    <row r="780" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H780" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="781" spans="8:8">
+    <row r="781" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H781" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="782" spans="8:8">
+    <row r="782" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H782" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="783" spans="8:8">
+    <row r="783" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H783" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="784" spans="8:8">
+    <row r="784" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H784" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="785" spans="8:8">
+    <row r="785" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H785" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="786" spans="8:8">
+    <row r="786" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H786" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="787" spans="8:8">
+    <row r="787" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H787" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="788" spans="8:8">
+    <row r="788" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H788" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="789" spans="8:8">
+    <row r="789" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H789" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="790" spans="8:8">
+    <row r="790" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H790" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="791" spans="8:8">
+    <row r="791" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H791" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="792" spans="8:8">
+    <row r="792" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H792" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="793" spans="8:8">
+    <row r="793" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H793" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="794" spans="8:8">
+    <row r="794" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H794" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="795" spans="8:8">
+    <row r="795" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H795" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="796" spans="8:8">
+    <row r="796" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H796" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="797" spans="8:8">
+    <row r="797" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H797" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="798" spans="8:8">
+    <row r="798" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H798" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="799" spans="8:8">
+    <row r="799" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H799" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="800" spans="8:8">
+    <row r="800" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H800" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="801" spans="8:8">
+    <row r="801" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H801" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="802" spans="8:8">
+    <row r="802" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H802" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="803" spans="8:8">
+    <row r="803" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H803" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="804" spans="8:8">
+    <row r="804" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H804" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="805" spans="8:8">
+    <row r="805" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H805" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="806" spans="8:8">
+    <row r="806" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H806" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="807" spans="8:8">
+    <row r="807" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H807" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="808" spans="8:8">
+    <row r="808" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H808" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="809" spans="8:8">
+    <row r="809" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H809" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="810" spans="8:8">
+    <row r="810" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H810" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="811" spans="8:8">
+    <row r="811" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H811" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="812" spans="8:8">
+    <row r="812" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H812" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="813" spans="8:8">
+    <row r="813" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H813" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="814" spans="8:8">
+    <row r="814" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H814" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="815" spans="8:8">
+    <row r="815" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H815" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="816" spans="8:8">
+    <row r="816" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H816" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="817" spans="8:8">
+    <row r="817" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H817" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="818" spans="8:8">
+    <row r="818" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H818" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="819" spans="8:8">
+    <row r="819" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H819" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="820" spans="8:8">
+    <row r="820" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H820" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="821" spans="8:8">
+    <row r="821" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H821" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="822" spans="8:8">
+    <row r="822" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H822" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="823" spans="8:8">
+    <row r="823" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H823" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="824" spans="8:8">
+    <row r="824" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H824" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="825" spans="8:8">
+    <row r="825" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H825" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="826" spans="8:8">
+    <row r="826" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H826" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="827" spans="8:8">
+    <row r="827" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H827" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="828" spans="8:8">
+    <row r="828" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H828" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="829" spans="8:8">
+    <row r="829" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H829" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="830" spans="8:8">
+    <row r="830" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H830" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="831" spans="8:8">
+    <row r="831" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H831" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="832" spans="8:8">
+    <row r="832" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H832" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="833" spans="8:8">
+    <row r="833" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H833" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="834" spans="8:8">
+    <row r="834" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H834" s="84" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="835" spans="8:8">
+    <row r="835" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H835" s="84" t="e">
         <f t="shared" ref="H835:H898" si="13">INDEX(Companies,MATCH(G835,StationIDs,0),1)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="836" spans="8:8">
+    <row r="836" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H836" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="837" spans="8:8">
+    <row r="837" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H837" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="838" spans="8:8">
+    <row r="838" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H838" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="839" spans="8:8">
+    <row r="839" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H839" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="840" spans="8:8">
+    <row r="840" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H840" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="841" spans="8:8">
+    <row r="841" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H841" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="842" spans="8:8">
+    <row r="842" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H842" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="843" spans="8:8">
+    <row r="843" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H843" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="844" spans="8:8">
+    <row r="844" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H844" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="845" spans="8:8">
+    <row r="845" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H845" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="846" spans="8:8">
+    <row r="846" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H846" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="847" spans="8:8">
+    <row r="847" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H847" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="848" spans="8:8">
+    <row r="848" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H848" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="849" spans="8:8">
+    <row r="849" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H849" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="850" spans="8:8">
+    <row r="850" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H850" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="851" spans="8:8">
+    <row r="851" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H851" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="852" spans="8:8">
+    <row r="852" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H852" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="853" spans="8:8">
+    <row r="853" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H853" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="854" spans="8:8">
+    <row r="854" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H854" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="855" spans="8:8">
+    <row r="855" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H855" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="856" spans="8:8">
+    <row r="856" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H856" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="857" spans="8:8">
+    <row r="857" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H857" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="858" spans="8:8">
+    <row r="858" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H858" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="859" spans="8:8">
+    <row r="859" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H859" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="860" spans="8:8">
+    <row r="860" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H860" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="861" spans="8:8">
+    <row r="861" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H861" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="862" spans="8:8">
+    <row r="862" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H862" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="863" spans="8:8">
+    <row r="863" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H863" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="864" spans="8:8">
+    <row r="864" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H864" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="865" spans="8:8">
+    <row r="865" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H865" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="866" spans="8:8">
+    <row r="866" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H866" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="867" spans="8:8">
+    <row r="867" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H867" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="868" spans="8:8">
+    <row r="868" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H868" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="869" spans="8:8">
+    <row r="869" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H869" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="870" spans="8:8">
+    <row r="870" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H870" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="871" spans="8:8">
+    <row r="871" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H871" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="872" spans="8:8">
+    <row r="872" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H872" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="873" spans="8:8">
+    <row r="873" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H873" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="874" spans="8:8">
+    <row r="874" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H874" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="875" spans="8:8">
+    <row r="875" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H875" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="876" spans="8:8">
+    <row r="876" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H876" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="877" spans="8:8">
+    <row r="877" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H877" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="878" spans="8:8">
+    <row r="878" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H878" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="879" spans="8:8">
+    <row r="879" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H879" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="880" spans="8:8">
+    <row r="880" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H880" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="881" spans="8:8">
+    <row r="881" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H881" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="882" spans="8:8">
+    <row r="882" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H882" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="883" spans="8:8">
+    <row r="883" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H883" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="884" spans="8:8">
+    <row r="884" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H884" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="885" spans="8:8">
+    <row r="885" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H885" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="886" spans="8:8">
+    <row r="886" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H886" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="887" spans="8:8">
+    <row r="887" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H887" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="888" spans="8:8">
+    <row r="888" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H888" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="889" spans="8:8">
+    <row r="889" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H889" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="890" spans="8:8">
+    <row r="890" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H890" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="891" spans="8:8">
+    <row r="891" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H891" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="892" spans="8:8">
+    <row r="892" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H892" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="893" spans="8:8">
+    <row r="893" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H893" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="894" spans="8:8">
+    <row r="894" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H894" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="895" spans="8:8">
+    <row r="895" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H895" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="896" spans="8:8">
+    <row r="896" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H896" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="897" spans="8:8">
+    <row r="897" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H897" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="898" spans="8:8">
+    <row r="898" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H898" s="84" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="899" spans="8:8">
+    <row r="899" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H899" s="84" t="e">
         <f t="shared" ref="H899:H962" si="14">INDEX(Companies,MATCH(G899,StationIDs,0),1)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="900" spans="8:8">
+    <row r="900" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H900" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="901" spans="8:8">
+    <row r="901" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H901" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="902" spans="8:8">
+    <row r="902" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H902" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="903" spans="8:8">
+    <row r="903" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H903" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="904" spans="8:8">
+    <row r="904" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H904" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="905" spans="8:8">
+    <row r="905" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H905" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="906" spans="8:8">
+    <row r="906" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H906" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="907" spans="8:8">
+    <row r="907" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H907" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="908" spans="8:8">
+    <row r="908" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H908" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="909" spans="8:8">
+    <row r="909" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H909" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="910" spans="8:8">
+    <row r="910" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H910" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="911" spans="8:8">
+    <row r="911" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H911" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="912" spans="8:8">
+    <row r="912" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H912" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="913" spans="8:8">
+    <row r="913" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H913" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="914" spans="8:8">
+    <row r="914" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H914" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="915" spans="8:8">
+    <row r="915" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H915" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="916" spans="8:8">
+    <row r="916" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H916" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="917" spans="8:8">
+    <row r="917" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H917" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="918" spans="8:8">
+    <row r="918" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H918" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="919" spans="8:8">
+    <row r="919" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H919" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="920" spans="8:8">
+    <row r="920" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H920" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="921" spans="8:8">
+    <row r="921" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H921" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="922" spans="8:8">
+    <row r="922" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H922" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="923" spans="8:8">
+    <row r="923" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H923" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="924" spans="8:8">
+    <row r="924" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H924" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="925" spans="8:8">
+    <row r="925" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H925" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="926" spans="8:8">
+    <row r="926" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H926" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="927" spans="8:8">
+    <row r="927" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H927" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="928" spans="8:8">
+    <row r="928" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H928" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="929" spans="8:8">
+    <row r="929" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H929" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="930" spans="8:8">
+    <row r="930" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H930" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="931" spans="8:8">
+    <row r="931" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H931" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="932" spans="8:8">
+    <row r="932" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H932" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="933" spans="8:8">
+    <row r="933" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H933" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="934" spans="8:8">
+    <row r="934" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H934" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="935" spans="8:8">
+    <row r="935" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H935" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="936" spans="8:8">
+    <row r="936" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H936" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="937" spans="8:8">
+    <row r="937" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H937" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="938" spans="8:8">
+    <row r="938" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H938" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="939" spans="8:8">
+    <row r="939" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H939" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="940" spans="8:8">
+    <row r="940" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H940" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="941" spans="8:8">
+    <row r="941" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H941" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="942" spans="8:8">
+    <row r="942" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H942" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="943" spans="8:8">
+    <row r="943" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H943" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="944" spans="8:8">
+    <row r="944" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H944" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="945" spans="8:8">
+    <row r="945" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H945" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="946" spans="8:8">
+    <row r="946" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H946" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="947" spans="8:8">
+    <row r="947" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H947" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="948" spans="8:8">
+    <row r="948" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H948" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="949" spans="8:8">
+    <row r="949" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H949" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="950" spans="8:8">
+    <row r="950" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H950" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="951" spans="8:8">
+    <row r="951" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H951" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="952" spans="8:8">
+    <row r="952" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H952" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="953" spans="8:8">
+    <row r="953" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H953" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="954" spans="8:8">
+    <row r="954" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H954" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="955" spans="8:8">
+    <row r="955" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H955" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="956" spans="8:8">
+    <row r="956" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H956" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="957" spans="8:8">
+    <row r="957" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H957" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="958" spans="8:8">
+    <row r="958" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H958" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="959" spans="8:8">
+    <row r="959" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H959" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="960" spans="8:8">
+    <row r="960" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H960" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="961" spans="8:8">
+    <row r="961" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H961" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="962" spans="8:8">
+    <row r="962" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H962" s="84" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="963" spans="8:8">
+    <row r="963" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H963" s="84" t="e">
         <f t="shared" ref="H963:H1000" si="15">INDEX(Companies,MATCH(G963,StationIDs,0),1)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="964" spans="8:8">
+    <row r="964" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H964" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="965" spans="8:8">
+    <row r="965" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H965" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="966" spans="8:8">
+    <row r="966" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H966" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="967" spans="8:8">
+    <row r="967" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H967" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="968" spans="8:8">
+    <row r="968" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H968" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="969" spans="8:8">
+    <row r="969" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H969" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="970" spans="8:8">
+    <row r="970" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H970" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="971" spans="8:8">
+    <row r="971" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H971" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="972" spans="8:8">
+    <row r="972" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H972" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="973" spans="8:8">
+    <row r="973" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H973" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="974" spans="8:8">
+    <row r="974" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H974" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="975" spans="8:8">
+    <row r="975" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H975" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="976" spans="8:8">
+    <row r="976" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H976" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="977" spans="8:8">
+    <row r="977" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H977" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="978" spans="8:8">
+    <row r="978" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H978" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="979" spans="8:8">
+    <row r="979" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H979" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="980" spans="8:8">
+    <row r="980" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H980" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="981" spans="8:8">
+    <row r="981" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H981" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="982" spans="8:8">
+    <row r="982" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H982" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="983" spans="8:8">
+    <row r="983" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H983" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="984" spans="8:8">
+    <row r="984" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H984" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="985" spans="8:8">
+    <row r="985" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H985" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="986" spans="8:8">
+    <row r="986" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H986" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="987" spans="8:8">
+    <row r="987" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H987" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="988" spans="8:8">
+    <row r="988" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H988" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="989" spans="8:8">
+    <row r="989" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H989" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="990" spans="8:8">
+    <row r="990" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H990" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="991" spans="8:8">
+    <row r="991" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H991" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="992" spans="8:8">
+    <row r="992" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H992" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="993" spans="8:8">
+    <row r="993" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H993" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="994" spans="8:8">
+    <row r="994" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H994" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="995" spans="8:8">
+    <row r="995" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H995" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="996" spans="8:8">
+    <row r="996" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H996" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="997" spans="8:8">
+    <row r="997" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H997" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="998" spans="8:8">
+    <row r="998" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H998" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="999" spans="8:8">
+    <row r="999" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H999" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1000" spans="8:8">
+    <row r="1000" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H1000" s="84" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -11263,7 +11265,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="45.85546875" style="2" customWidth="1"/>
@@ -11272,7 +11274,7 @@
     <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>18</v>
       </c>
@@ -11286,124 +11288,124 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="D2" s="16"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3"/>
       <c r="D3" s="16"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4"/>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5"/>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6"/>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7"/>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8"/>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9"/>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10"/>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11"/>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D15" s="7"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="4:4">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="4:4">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="4:4">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="4:4">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="4:4">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D21" s="7"/>
     </row>
-    <row r="22" spans="4:4">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D22" s="7"/>
     </row>
-    <row r="23" spans="4:4">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="4:4">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="4:4">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D25" s="7"/>
     </row>
-    <row r="26" spans="4:4">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D26" s="7"/>
     </row>
-    <row r="27" spans="4:4">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D27" s="9"/>
     </row>
-    <row r="28" spans="4:4">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D28" s="7"/>
     </row>
-    <row r="29" spans="4:4">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D29" s="10"/>
     </row>
-    <row r="30" spans="4:4">
+    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D30" s="10"/>
     </row>
-    <row r="31" spans="4:4">
+    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D31" s="10"/>
     </row>
-    <row r="32" spans="4:4">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D32" s="10"/>
     </row>
-    <row r="33" spans="4:4">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33" s="10"/>
     </row>
-    <row r="34" spans="4:4">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D34" s="10"/>
     </row>
   </sheetData>
@@ -11418,29 +11420,29 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="108.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="48.140625" style="2" customWidth="1"/>
     <col min="3" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -11448,12 +11450,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="75">
+    <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
     </row>
   </sheetData>

--- a/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/BfR_Format_Backtrace.xlsx
+++ b/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/BfR_Format_Backtrace.xlsx
@@ -1843,54 +1843,147 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="30" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="30" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="30" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="30" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1918,140 +2011,47 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="30" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="30" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="30" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2555,7 +2555,6 @@
       <c r="A3" s="89"/>
     </row>
   </sheetData>
-  <sheetProtection password="CF7A" sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="A1:J8"/>
   <dataValidations count="3">
     <dataValidation sqref="E2:E3"/>
@@ -2588,7 +2587,7 @@
     <col min="8" max="8" width="7.85546875" style="21" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" style="21" customWidth="1"/>
     <col min="10" max="10" width="13.28515625" style="21" customWidth="1"/>
-    <col min="11" max="11" width="16" style="21" customWidth="1"/>
+    <col min="11" max="11" width="36" style="21" customWidth="1"/>
     <col min="12" max="12" width="16.140625" style="21" customWidth="1"/>
     <col min="13" max="13" width="16.140625" style="24" customWidth="1"/>
     <col min="14" max="14" width="17.42578125" style="21" customWidth="1"/>
@@ -2598,11 +2597,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="21" customHeight="1">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="118"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="111"/>
       <c r="D1" s="37"/>
       <c r="E1" s="37"/>
       <c r="F1" s="37"/>
@@ -2665,20 +2664,20 @@
       <c r="M6" s="21"/>
     </row>
     <row r="7" spans="1:22" s="42" customFormat="1" ht="21" customHeight="1" thickBot="1">
-      <c r="A7" s="143" t="s">
+      <c r="A7" s="137" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="144"/>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="144"/>
-      <c r="I7" s="144"/>
-      <c r="J7" s="144"/>
-      <c r="K7" s="144"/>
-      <c r="L7" s="144"/>
+      <c r="B7" s="138"/>
+      <c r="C7" s="138"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="138"/>
+      <c r="J7" s="138"/>
+      <c r="K7" s="138"/>
+      <c r="L7" s="138"/>
       <c r="M7" s="71"/>
       <c r="N7" s="70" t="s">
         <v>32</v>
@@ -2693,48 +2692,48 @@
       <c r="V7" s="73"/>
     </row>
     <row r="8" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A8" s="133" t="s">
+      <c r="A8" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="137" t="s">
+      <c r="B8" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="124" t="s">
+      <c r="C8" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="125"/>
-      <c r="E8" s="126"/>
-      <c r="F8" s="121" t="s">
+      <c r="D8" s="117"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="122"/>
-      <c r="H8" s="123"/>
-      <c r="I8" s="119" t="s">
+      <c r="G8" s="114"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="112" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="120"/>
-      <c r="K8" s="129" t="s">
+      <c r="J8" s="98"/>
+      <c r="K8" s="121" t="s">
         <v>41</v>
       </c>
-      <c r="L8" s="112" t="s">
+      <c r="L8" s="146" t="s">
         <v>41</v>
       </c>
-      <c r="M8" s="131" t="s">
+      <c r="M8" s="123" t="s">
         <v>45</v>
       </c>
-      <c r="N8" s="135"/>
-      <c r="O8" s="99"/>
-      <c r="P8" s="99"/>
-      <c r="Q8" s="99"/>
-      <c r="R8" s="99"/>
-      <c r="S8" s="99"/>
-      <c r="T8" s="99"/>
-      <c r="U8" s="99"/>
-      <c r="V8" s="103"/>
+      <c r="N8" s="127"/>
+      <c r="O8" s="135"/>
+      <c r="P8" s="135"/>
+      <c r="Q8" s="135"/>
+      <c r="R8" s="135"/>
+      <c r="S8" s="135"/>
+      <c r="T8" s="135"/>
+      <c r="U8" s="135"/>
+      <c r="V8" s="148"/>
     </row>
     <row r="9" spans="1:22" ht="17.25" customHeight="1">
-      <c r="A9" s="134"/>
-      <c r="B9" s="138"/>
+      <c r="A9" s="126"/>
+      <c r="B9" s="130"/>
       <c r="C9" s="74" t="s">
         <v>20</v>
       </c>
@@ -2759,18 +2758,18 @@
       <c r="J9" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="130"/>
-      <c r="L9" s="113"/>
-      <c r="M9" s="132"/>
-      <c r="N9" s="136"/>
-      <c r="O9" s="100"/>
-      <c r="P9" s="100"/>
-      <c r="Q9" s="100"/>
-      <c r="R9" s="100"/>
-      <c r="S9" s="100"/>
-      <c r="T9" s="100"/>
-      <c r="U9" s="100"/>
-      <c r="V9" s="104"/>
+      <c r="K9" s="122"/>
+      <c r="L9" s="147"/>
+      <c r="M9" s="124"/>
+      <c r="N9" s="128"/>
+      <c r="O9" s="136"/>
+      <c r="P9" s="136"/>
+      <c r="Q9" s="136"/>
+      <c r="R9" s="136"/>
+      <c r="S9" s="136"/>
+      <c r="T9" s="136"/>
+      <c r="U9" s="136"/>
+      <c r="V9" s="149"/>
     </row>
     <row r="10" spans="1:22" s="42" customFormat="1" ht="21" customHeight="1">
       <c r="A10" s="49"/>
@@ -2811,11 +2810,11 @@
       <c r="M11" s="42"/>
     </row>
     <row r="12" spans="1:22" ht="21" customHeight="1" thickBot="1">
-      <c r="A12" s="116" t="s">
+      <c r="A12" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="127"/>
-      <c r="C12" s="128"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="120"/>
       <c r="D12" s="62"/>
       <c r="E12" s="62"/>
       <c r="F12" s="62"/>
@@ -2839,34 +2838,34 @@
       <c r="V12" s="39"/>
     </row>
     <row r="13" spans="1:22" ht="18" customHeight="1">
-      <c r="A13" s="141" t="s">
+      <c r="A13" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="139" t="s">
+      <c r="B13" s="131" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="140"/>
+      <c r="C13" s="132"/>
       <c r="M13" s="60"/>
-      <c r="N13" s="108" t="s">
+      <c r="N13" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="O13" s="110" t="s">
+      <c r="O13" s="144" t="s">
         <v>37</v>
       </c>
-      <c r="P13" s="110" t="s">
+      <c r="P13" s="144" t="s">
         <v>25</v>
       </c>
-      <c r="Q13" s="114" t="s">
+      <c r="Q13" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="R13" s="96"/>
-      <c r="S13" s="96"/>
-      <c r="T13" s="98"/>
-      <c r="U13" s="99"/>
-      <c r="V13" s="101"/>
+      <c r="R13" s="150"/>
+      <c r="S13" s="150"/>
+      <c r="T13" s="152"/>
+      <c r="U13" s="135"/>
+      <c r="V13" s="153"/>
     </row>
     <row r="14" spans="1:22" ht="17.25" customHeight="1">
-      <c r="A14" s="142"/>
+      <c r="A14" s="134"/>
       <c r="B14" s="77" t="s">
         <v>33</v>
       </c>
@@ -2874,15 +2873,15 @@
         <v>23</v>
       </c>
       <c r="M14" s="60"/>
-      <c r="N14" s="109"/>
-      <c r="O14" s="111"/>
-      <c r="P14" s="111"/>
-      <c r="Q14" s="115"/>
-      <c r="R14" s="97"/>
-      <c r="S14" s="97"/>
-      <c r="T14" s="97"/>
-      <c r="U14" s="100"/>
-      <c r="V14" s="102"/>
+      <c r="N14" s="143"/>
+      <c r="O14" s="145"/>
+      <c r="P14" s="145"/>
+      <c r="Q14" s="108"/>
+      <c r="R14" s="151"/>
+      <c r="S14" s="151"/>
+      <c r="T14" s="151"/>
+      <c r="U14" s="136"/>
+      <c r="V14" s="154"/>
     </row>
     <row r="15" spans="1:22" ht="21" customHeight="1">
       <c r="A15" s="18"/>
@@ -2914,20 +2913,20 @@
       <c r="M16" s="48"/>
     </row>
     <row r="17" spans="1:22" ht="21" customHeight="1">
-      <c r="A17" s="105" t="s">
+      <c r="A17" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="106"/>
-      <c r="C17" s="106"/>
-      <c r="D17" s="106"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="106"/>
-      <c r="G17" s="106"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="106"/>
-      <c r="J17" s="106"/>
-      <c r="K17" s="106"/>
-      <c r="L17" s="107"/>
+      <c r="B17" s="140"/>
+      <c r="C17" s="140"/>
+      <c r="D17" s="140"/>
+      <c r="E17" s="140"/>
+      <c r="F17" s="140"/>
+      <c r="G17" s="140"/>
+      <c r="H17" s="140"/>
+      <c r="I17" s="140"/>
+      <c r="J17" s="140"/>
+      <c r="K17" s="140"/>
+      <c r="L17" s="141"/>
       <c r="M17" s="79"/>
       <c r="N17" s="51" t="s">
         <v>32</v>
@@ -2942,48 +2941,48 @@
       <c r="V17" s="45"/>
     </row>
     <row r="18" spans="1:22" s="46" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A18" s="145" t="s">
+      <c r="A18" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="149" t="s">
+      <c r="B18" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="151" t="s">
+      <c r="C18" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="154"/>
-      <c r="E18" s="152"/>
-      <c r="F18" s="153" t="s">
+      <c r="D18" s="102"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="154"/>
-      <c r="H18" s="152"/>
-      <c r="I18" s="151" t="s">
+      <c r="G18" s="102"/>
+      <c r="H18" s="100"/>
+      <c r="I18" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="J18" s="152"/>
-      <c r="K18" s="149" t="s">
+      <c r="J18" s="100"/>
+      <c r="K18" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="L18" s="157" t="s">
+      <c r="L18" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="M18" s="155" t="s">
+      <c r="M18" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="N18" s="147"/>
-      <c r="O18" s="92"/>
-      <c r="P18" s="92"/>
-      <c r="Q18" s="92"/>
-      <c r="R18" s="92"/>
-      <c r="S18" s="92"/>
-      <c r="T18" s="92"/>
-      <c r="U18" s="92"/>
-      <c r="V18" s="94"/>
+      <c r="N18" s="94"/>
+      <c r="O18" s="155"/>
+      <c r="P18" s="155"/>
+      <c r="Q18" s="155"/>
+      <c r="R18" s="155"/>
+      <c r="S18" s="155"/>
+      <c r="T18" s="155"/>
+      <c r="U18" s="155"/>
+      <c r="V18" s="157"/>
     </row>
     <row r="19" spans="1:22" s="46" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A19" s="146"/>
-      <c r="B19" s="150"/>
+      <c r="A19" s="93"/>
+      <c r="B19" s="97"/>
       <c r="C19" s="80" t="s">
         <v>20</v>
       </c>
@@ -3008,18 +3007,18 @@
       <c r="J19" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="K19" s="120"/>
-      <c r="L19" s="158"/>
-      <c r="M19" s="156"/>
-      <c r="N19" s="148"/>
-      <c r="O19" s="93"/>
-      <c r="P19" s="93"/>
-      <c r="Q19" s="93"/>
-      <c r="R19" s="93"/>
-      <c r="S19" s="93"/>
-      <c r="T19" s="93"/>
-      <c r="U19" s="93"/>
-      <c r="V19" s="95"/>
+      <c r="K19" s="98"/>
+      <c r="L19" s="106"/>
+      <c r="M19" s="104"/>
+      <c r="N19" s="95"/>
+      <c r="O19" s="156"/>
+      <c r="P19" s="156"/>
+      <c r="Q19" s="156"/>
+      <c r="R19" s="156"/>
+      <c r="S19" s="156"/>
+      <c r="T19" s="156"/>
+      <c r="U19" s="156"/>
+      <c r="V19" s="158"/>
     </row>
     <row r="20" spans="1:22" ht="21" customHeight="1">
       <c r="A20" s="64"/>
@@ -5090,17 +5089,32 @@
       <c r="M106" s="21"/>
     </row>
   </sheetData>
-  <sheetProtection password="CF7A" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="49">
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="U18:U19"/>
+    <mergeCell ref="V18:V19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="V13:V14"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
     <mergeCell ref="Q13:Q14"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="I8:J8"/>
@@ -5116,31 +5130,15 @@
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="Q8:Q9"/>
     <mergeCell ref="A7:L7"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="V13:V14"/>
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="U18:U19"/>
-    <mergeCell ref="V18:V19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="L18:L19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5184,7 +5182,7 @@
       <c r="G1" s="159" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="112" t="s">
+      <c r="H1" s="146" t="s">
         <v>41</v>
       </c>
     </row>
@@ -11197,7 +11195,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="CF7A" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="5">
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="A1:A2"/>

--- a/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/BfR_Format_Backtrace.xlsx
+++ b/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/BfR_Format_Backtrace.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
   <si>
     <t>Supplier</t>
   </si>
@@ -77,9 +77,6 @@
     <t>Packing Units</t>
   </si>
   <si>
-    <t>"Pflicht"-Felder</t>
-  </si>
-  <si>
     <t>Sampling</t>
   </si>
   <si>
@@ -96,9 +93,6 @@
   </si>
   <si>
     <t>Type / Unit</t>
-  </si>
-  <si>
-    <t>ist bereits ausgefüllt vom Receiver, kann aber korrigiert werden vom Inspektor</t>
   </si>
   <si>
     <t>Treatment of product during production</t>
@@ -168,24 +162,34 @@
     <t>Additional Fields -&gt;</t>
   </si>
   <si>
-    <t>pro Exceltabelle wird nur eine "Station in Focus"  abgefragt.
-Es können mehrere Lieferungen bzw. Lots abgefragt werden.
-Für jedes Lot gilt es:
-- weitere Lotinformationen zu erfassen
-- alle Zutaten-Lieferungen zu erfassen</t>
+    <t>Must be filled in / must be checked by inspector</t>
   </si>
   <si>
-    <t>muss ausgefüllt bzw. überprüft werden vom Inspektor</t>
+    <t>ALWAYS MANDATORY!!! Please create a lot number if the true number is unknown.</t>
   </si>
   <si>
-    <t>IMMER PFLICHT!!! Falls nicht bekannt, dann bitte eines ausdenken!</t>
+    <t>already filled by receiver, may be corrected by inspector</t>
+  </si>
+  <si>
+    <t>Mandatory fields</t>
+  </si>
+  <si>
+    <t>are underlined</t>
+  </si>
+  <si>
+    <t>For each requested lot data has to be collected:
+- further lot information
+- all ingedients with associated delivery information en detail</t>
+  </si>
+  <si>
+    <t>Optionaly it is possible to give information on further yet unknown forwards deliveries for each requested lot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="39">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -458,6 +462,14 @@
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="32">
@@ -1569,7 +1581,7 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="38" fillId="31" borderId="61" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
@@ -1843,147 +1855,54 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="30" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="30" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="30" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2011,47 +1930,140 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="30" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="30" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="30" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2069,6 +2081,9 @@
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="114">
@@ -2488,7 +2503,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.28515625" style="2" customWidth="1"/>
@@ -2504,7 +2519,7 @@
     <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="11" customFormat="1" ht="30">
+    <row r="1" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="83" t="s">
         <v>3</v>
       </c>
@@ -2518,7 +2533,7 @@
         <v>10</v>
       </c>
       <c r="E1" s="84" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F1" s="84" t="s">
         <v>7</v>
@@ -2536,7 +2551,7 @@
         <v>12</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L1" s="16"/>
       <c r="M1" s="16"/>
@@ -2547,11 +2562,11 @@
       <c r="R1" s="16"/>
       <c r="S1" s="16"/>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="89"/>
       <c r="K2" s="90"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="89"/>
     </row>
   </sheetData>
@@ -2575,7 +2590,7 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.7109375" style="21" customWidth="1"/>
     <col min="2" max="2" width="24" style="21" customWidth="1"/>
@@ -2596,12 +2611,12 @@
     <col min="17" max="16384" width="11.42578125" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="21" customHeight="1">
-      <c r="A1" s="109" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="111"/>
+    <row r="1" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="116" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="117"/>
+      <c r="C1" s="118"/>
       <c r="D1" s="37"/>
       <c r="E1" s="37"/>
       <c r="F1" s="37"/>
@@ -2613,7 +2628,7 @@
       <c r="L1" s="60"/>
       <c r="M1" s="60"/>
     </row>
-    <row r="2" spans="1:22" ht="25.5" customHeight="1">
+    <row r="2" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="66" t="s">
         <v>11</v>
       </c>
@@ -2621,28 +2636,28 @@
         <v>13</v>
       </c>
       <c r="C2" s="68" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="41"/>
       <c r="M2" s="60"/>
     </row>
-    <row r="3" spans="1:22" ht="21" customHeight="1" thickBot="1">
+    <row r="3" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="31"/>
       <c r="B3" s="32"/>
       <c r="C3" s="43"/>
       <c r="D3" s="41"/>
       <c r="M3" s="60"/>
     </row>
-    <row r="4" spans="1:22" ht="21" customHeight="1" thickBot="1">
+    <row r="4" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
       <c r="D4" s="41"/>
       <c r="M4" s="60"/>
     </row>
-    <row r="5" spans="1:22" ht="21" customHeight="1" thickBot="1">
+    <row r="5" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="69" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5" s="59"/>
       <c r="C5" s="58" t="e">
@@ -2654,7 +2669,7 @@
       <c r="F5" s="61"/>
       <c r="M5" s="21"/>
     </row>
-    <row r="6" spans="1:22" ht="21" customHeight="1" thickBot="1">
+    <row r="6" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="37"/>
       <c r="C6" s="61"/>
@@ -2663,24 +2678,24 @@
       <c r="F6" s="61"/>
       <c r="M6" s="21"/>
     </row>
-    <row r="7" spans="1:22" s="42" customFormat="1" ht="21" customHeight="1" thickBot="1">
-      <c r="A7" s="137" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="138"/>
-      <c r="C7" s="138"/>
-      <c r="D7" s="138"/>
-      <c r="E7" s="138"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="138"/>
-      <c r="H7" s="138"/>
-      <c r="I7" s="138"/>
-      <c r="J7" s="138"/>
-      <c r="K7" s="138"/>
-      <c r="L7" s="138"/>
+    <row r="7" spans="1:22" s="42" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="143" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="144"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="144"/>
+      <c r="I7" s="144"/>
+      <c r="J7" s="144"/>
+      <c r="K7" s="144"/>
+      <c r="L7" s="144"/>
       <c r="M7" s="71"/>
       <c r="N7" s="70" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O7" s="72"/>
       <c r="P7" s="72"/>
@@ -2691,87 +2706,87 @@
       <c r="U7" s="72"/>
       <c r="V7" s="73"/>
     </row>
-    <row r="8" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A8" s="125" t="s">
+    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="129" t="s">
+      <c r="B8" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="116" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="117"/>
-      <c r="E8" s="118"/>
-      <c r="F8" s="113" t="s">
+      <c r="C8" s="124" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="125"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="121" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="122"/>
+      <c r="H8" s="123"/>
+      <c r="I8" s="119" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="120"/>
+      <c r="K8" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="114"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="112" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="98"/>
-      <c r="K8" s="121" t="s">
-        <v>41</v>
-      </c>
-      <c r="L8" s="146" t="s">
-        <v>41</v>
-      </c>
-      <c r="M8" s="123" t="s">
-        <v>45</v>
-      </c>
-      <c r="N8" s="127"/>
-      <c r="O8" s="135"/>
-      <c r="P8" s="135"/>
-      <c r="Q8" s="135"/>
-      <c r="R8" s="135"/>
-      <c r="S8" s="135"/>
-      <c r="T8" s="135"/>
-      <c r="U8" s="135"/>
-      <c r="V8" s="148"/>
-    </row>
-    <row r="9" spans="1:22" ht="17.25" customHeight="1">
-      <c r="A9" s="126"/>
-      <c r="B9" s="130"/>
+      <c r="L8" s="112" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="131" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" s="135"/>
+      <c r="O8" s="99"/>
+      <c r="P8" s="99"/>
+      <c r="Q8" s="99"/>
+      <c r="R8" s="99"/>
+      <c r="S8" s="99"/>
+      <c r="T8" s="99"/>
+      <c r="U8" s="99"/>
+      <c r="V8" s="103"/>
+    </row>
+    <row r="9" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="134"/>
+      <c r="B9" s="138"/>
       <c r="C9" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="74" t="s">
+      <c r="E9" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="74" t="s">
+      <c r="F9" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="75" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="76" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="75" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="75" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="76" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" s="76" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="122"/>
-      <c r="L9" s="147"/>
-      <c r="M9" s="124"/>
-      <c r="N9" s="128"/>
-      <c r="O9" s="136"/>
-      <c r="P9" s="136"/>
-      <c r="Q9" s="136"/>
-      <c r="R9" s="136"/>
-      <c r="S9" s="136"/>
-      <c r="T9" s="136"/>
-      <c r="U9" s="136"/>
-      <c r="V9" s="149"/>
-    </row>
-    <row r="10" spans="1:22" s="42" customFormat="1" ht="21" customHeight="1">
+      <c r="K9" s="130"/>
+      <c r="L9" s="113"/>
+      <c r="M9" s="132"/>
+      <c r="N9" s="136"/>
+      <c r="O9" s="100"/>
+      <c r="P9" s="100"/>
+      <c r="Q9" s="100"/>
+      <c r="R9" s="100"/>
+      <c r="S9" s="100"/>
+      <c r="T9" s="100"/>
+      <c r="U9" s="100"/>
+      <c r="V9" s="104"/>
+    </row>
+    <row r="10" spans="1:22" s="42" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="49"/>
       <c r="B10" s="49"/>
       <c r="C10" s="49"/>
@@ -2795,7 +2810,7 @@
       <c r="U10" s="49"/>
       <c r="V10" s="49"/>
     </row>
-    <row r="11" spans="1:22" ht="21" customHeight="1" thickBot="1">
+    <row r="11" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="40"/>
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
@@ -2809,12 +2824,12 @@
       <c r="K11" s="41"/>
       <c r="M11" s="42"/>
     </row>
-    <row r="12" spans="1:22" ht="21" customHeight="1" thickBot="1">
-      <c r="A12" s="109" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="119"/>
-      <c r="C12" s="120"/>
+    <row r="12" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="116" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="127"/>
+      <c r="C12" s="128"/>
       <c r="D12" s="62"/>
       <c r="E12" s="62"/>
       <c r="F12" s="62"/>
@@ -2826,7 +2841,7 @@
       <c r="L12" s="62"/>
       <c r="M12" s="60"/>
       <c r="N12" s="50" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O12" s="38"/>
       <c r="P12" s="38"/>
@@ -2837,53 +2852,53 @@
       <c r="U12" s="38"/>
       <c r="V12" s="39"/>
     </row>
-    <row r="13" spans="1:22" ht="18" customHeight="1">
-      <c r="A13" s="133" t="s">
+    <row r="13" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="141" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="139" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="140"/>
+      <c r="M13" s="60"/>
+      <c r="N13" s="108" t="s">
+        <v>34</v>
+      </c>
+      <c r="O13" s="110" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="131" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="132"/>
-      <c r="M13" s="60"/>
-      <c r="N13" s="142" t="s">
-        <v>36</v>
-      </c>
-      <c r="O13" s="144" t="s">
-        <v>37</v>
-      </c>
-      <c r="P13" s="144" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q13" s="107" t="s">
-        <v>18</v>
-      </c>
-      <c r="R13" s="150"/>
-      <c r="S13" s="150"/>
-      <c r="T13" s="152"/>
-      <c r="U13" s="135"/>
-      <c r="V13" s="153"/>
-    </row>
-    <row r="14" spans="1:22" ht="17.25" customHeight="1">
-      <c r="A14" s="134"/>
+      <c r="P13" s="110" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q13" s="114" t="s">
+        <v>17</v>
+      </c>
+      <c r="R13" s="96"/>
+      <c r="S13" s="96"/>
+      <c r="T13" s="98"/>
+      <c r="U13" s="99"/>
+      <c r="V13" s="101"/>
+    </row>
+    <row r="14" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="142"/>
       <c r="B14" s="77" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C14" s="78" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M14" s="60"/>
-      <c r="N14" s="143"/>
-      <c r="O14" s="145"/>
-      <c r="P14" s="145"/>
-      <c r="Q14" s="108"/>
-      <c r="R14" s="151"/>
-      <c r="S14" s="151"/>
-      <c r="T14" s="151"/>
-      <c r="U14" s="136"/>
-      <c r="V14" s="154"/>
-    </row>
-    <row r="15" spans="1:22" ht="21" customHeight="1">
+      <c r="N14" s="109"/>
+      <c r="O14" s="111"/>
+      <c r="P14" s="111"/>
+      <c r="Q14" s="115"/>
+      <c r="R14" s="97"/>
+      <c r="S14" s="97"/>
+      <c r="T14" s="97"/>
+      <c r="U14" s="100"/>
+      <c r="V14" s="102"/>
+    </row>
+    <row r="15" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="18"/>
       <c r="B15" s="19"/>
       <c r="C15" s="20"/>
@@ -2898,7 +2913,7 @@
       <c r="U15" s="63"/>
       <c r="V15" s="20"/>
     </row>
-    <row r="16" spans="1:22" ht="21" customHeight="1" thickBot="1">
+    <row r="16" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
@@ -2912,24 +2927,24 @@
       <c r="L16" s="23"/>
       <c r="M16" s="48"/>
     </row>
-    <row r="17" spans="1:22" ht="21" customHeight="1">
-      <c r="A17" s="139" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="140"/>
-      <c r="C17" s="140"/>
-      <c r="D17" s="140"/>
-      <c r="E17" s="140"/>
-      <c r="F17" s="140"/>
-      <c r="G17" s="140"/>
-      <c r="H17" s="140"/>
-      <c r="I17" s="140"/>
-      <c r="J17" s="140"/>
-      <c r="K17" s="140"/>
-      <c r="L17" s="141"/>
+    <row r="17" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="105" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="106"/>
+      <c r="C17" s="106"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="106"/>
+      <c r="G17" s="106"/>
+      <c r="H17" s="106"/>
+      <c r="I17" s="106"/>
+      <c r="J17" s="106"/>
+      <c r="K17" s="106"/>
+      <c r="L17" s="107"/>
       <c r="M17" s="79"/>
       <c r="N17" s="51" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O17" s="44"/>
       <c r="P17" s="44"/>
@@ -2940,87 +2955,87 @@
       <c r="U17" s="44"/>
       <c r="V17" s="45"/>
     </row>
-    <row r="18" spans="1:22" s="46" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A18" s="92" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="96" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="99" t="s">
+    <row r="18" spans="1:22" s="46" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="145" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="149" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="151" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="154"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="153" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="102"/>
-      <c r="E18" s="100"/>
-      <c r="F18" s="101" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="102"/>
-      <c r="H18" s="100"/>
-      <c r="I18" s="99" t="s">
-        <v>44</v>
-      </c>
-      <c r="J18" s="100"/>
-      <c r="K18" s="96" t="s">
+      <c r="G18" s="154"/>
+      <c r="H18" s="152"/>
+      <c r="I18" s="151" t="s">
+        <v>42</v>
+      </c>
+      <c r="J18" s="152"/>
+      <c r="K18" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="L18" s="105" t="s">
+      <c r="L18" s="157" t="s">
         <v>0</v>
       </c>
-      <c r="M18" s="103" t="s">
-        <v>35</v>
-      </c>
-      <c r="N18" s="94"/>
-      <c r="O18" s="155"/>
-      <c r="P18" s="155"/>
-      <c r="Q18" s="155"/>
-      <c r="R18" s="155"/>
-      <c r="S18" s="155"/>
-      <c r="T18" s="155"/>
-      <c r="U18" s="155"/>
-      <c r="V18" s="157"/>
-    </row>
-    <row r="19" spans="1:22" s="46" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A19" s="93"/>
-      <c r="B19" s="97"/>
+      <c r="M18" s="155" t="s">
+        <v>33</v>
+      </c>
+      <c r="N18" s="147"/>
+      <c r="O18" s="92"/>
+      <c r="P18" s="92"/>
+      <c r="Q18" s="92"/>
+      <c r="R18" s="92"/>
+      <c r="S18" s="92"/>
+      <c r="T18" s="92"/>
+      <c r="U18" s="92"/>
+      <c r="V18" s="94"/>
+    </row>
+    <row r="19" spans="1:22" s="46" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="146"/>
+      <c r="B19" s="150"/>
       <c r="C19" s="80" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="80" t="s">
+      <c r="E19" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="80" t="s">
+      <c r="F19" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="80" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="81" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" s="81" t="s">
-        <v>22</v>
-      </c>
-      <c r="I19" s="80" t="s">
-        <v>33</v>
-      </c>
-      <c r="J19" s="80" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" s="98"/>
-      <c r="L19" s="106"/>
-      <c r="M19" s="104"/>
-      <c r="N19" s="95"/>
-      <c r="O19" s="156"/>
-      <c r="P19" s="156"/>
-      <c r="Q19" s="156"/>
-      <c r="R19" s="156"/>
-      <c r="S19" s="156"/>
-      <c r="T19" s="156"/>
-      <c r="U19" s="156"/>
-      <c r="V19" s="158"/>
-    </row>
-    <row r="20" spans="1:22" ht="21" customHeight="1">
+      <c r="K19" s="120"/>
+      <c r="L19" s="158"/>
+      <c r="M19" s="156"/>
+      <c r="N19" s="148"/>
+      <c r="O19" s="93"/>
+      <c r="P19" s="93"/>
+      <c r="Q19" s="93"/>
+      <c r="R19" s="93"/>
+      <c r="S19" s="93"/>
+      <c r="T19" s="93"/>
+      <c r="U19" s="93"/>
+      <c r="V19" s="95"/>
+    </row>
+    <row r="20" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="64"/>
       <c r="B20" s="25"/>
       <c r="C20" s="26"/>
@@ -3044,7 +3059,7 @@
       <c r="U20" s="28"/>
       <c r="V20" s="29"/>
     </row>
-    <row r="21" spans="1:22" ht="21" customHeight="1">
+    <row r="21" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="64"/>
       <c r="B21" s="25"/>
       <c r="C21" s="26"/>
@@ -3068,7 +3083,7 @@
       <c r="U21" s="28"/>
       <c r="V21" s="29"/>
     </row>
-    <row r="22" spans="1:22" ht="21" customHeight="1">
+    <row r="22" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="64"/>
       <c r="B22" s="25"/>
       <c r="C22" s="26"/>
@@ -3092,7 +3107,7 @@
       <c r="U22" s="28"/>
       <c r="V22" s="29"/>
     </row>
-    <row r="23" spans="1:22" ht="21" customHeight="1">
+    <row r="23" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="64"/>
       <c r="B23" s="25"/>
       <c r="C23" s="26"/>
@@ -3116,7 +3131,7 @@
       <c r="U23" s="28"/>
       <c r="V23" s="29"/>
     </row>
-    <row r="24" spans="1:22" ht="21" customHeight="1">
+    <row r="24" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="64"/>
       <c r="B24" s="25"/>
       <c r="C24" s="26"/>
@@ -3140,7 +3155,7 @@
       <c r="U24" s="28"/>
       <c r="V24" s="29"/>
     </row>
-    <row r="25" spans="1:22" ht="21" customHeight="1">
+    <row r="25" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="64"/>
       <c r="B25" s="25"/>
       <c r="C25" s="26"/>
@@ -3164,7 +3179,7 @@
       <c r="U25" s="28"/>
       <c r="V25" s="29"/>
     </row>
-    <row r="26" spans="1:22" ht="21" customHeight="1">
+    <row r="26" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="64"/>
       <c r="B26" s="25"/>
       <c r="C26" s="26"/>
@@ -3188,7 +3203,7 @@
       <c r="U26" s="28"/>
       <c r="V26" s="29"/>
     </row>
-    <row r="27" spans="1:22" ht="21" customHeight="1">
+    <row r="27" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="30"/>
       <c r="B27" s="25"/>
       <c r="C27" s="26"/>
@@ -3212,7 +3227,7 @@
       <c r="U27" s="28"/>
       <c r="V27" s="29"/>
     </row>
-    <row r="28" spans="1:22" ht="21" customHeight="1">
+    <row r="28" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="30"/>
       <c r="B28" s="25"/>
       <c r="C28" s="26"/>
@@ -3236,7 +3251,7 @@
       <c r="U28" s="28"/>
       <c r="V28" s="29"/>
     </row>
-    <row r="29" spans="1:22" ht="21" customHeight="1">
+    <row r="29" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="30"/>
       <c r="B29" s="25"/>
       <c r="C29" s="26"/>
@@ -3260,7 +3275,7 @@
       <c r="U29" s="28"/>
       <c r="V29" s="29"/>
     </row>
-    <row r="30" spans="1:22" ht="21" customHeight="1">
+    <row r="30" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="30"/>
       <c r="B30" s="25"/>
       <c r="C30" s="26"/>
@@ -3284,7 +3299,7 @@
       <c r="U30" s="28"/>
       <c r="V30" s="29"/>
     </row>
-    <row r="31" spans="1:22" ht="21" customHeight="1">
+    <row r="31" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="30"/>
       <c r="B31" s="25"/>
       <c r="C31" s="26"/>
@@ -3308,7 +3323,7 @@
       <c r="U31" s="28"/>
       <c r="V31" s="29"/>
     </row>
-    <row r="32" spans="1:22" ht="21" customHeight="1">
+    <row r="32" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="30"/>
       <c r="B32" s="25"/>
       <c r="C32" s="26"/>
@@ -3332,7 +3347,7 @@
       <c r="U32" s="28"/>
       <c r="V32" s="29"/>
     </row>
-    <row r="33" spans="1:22" ht="21" customHeight="1">
+    <row r="33" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="30"/>
       <c r="B33" s="25"/>
       <c r="C33" s="26"/>
@@ -3356,7 +3371,7 @@
       <c r="U33" s="28"/>
       <c r="V33" s="29"/>
     </row>
-    <row r="34" spans="1:22" ht="21" customHeight="1">
+    <row r="34" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="30"/>
       <c r="B34" s="25"/>
       <c r="C34" s="26"/>
@@ -3380,7 +3395,7 @@
       <c r="U34" s="28"/>
       <c r="V34" s="29"/>
     </row>
-    <row r="35" spans="1:22" ht="21" customHeight="1">
+    <row r="35" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="30"/>
       <c r="B35" s="25"/>
       <c r="C35" s="26"/>
@@ -3404,7 +3419,7 @@
       <c r="U35" s="28"/>
       <c r="V35" s="29"/>
     </row>
-    <row r="36" spans="1:22" ht="21" customHeight="1">
+    <row r="36" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="30"/>
       <c r="B36" s="25"/>
       <c r="C36" s="26"/>
@@ -3428,7 +3443,7 @@
       <c r="U36" s="28"/>
       <c r="V36" s="29"/>
     </row>
-    <row r="37" spans="1:22" ht="21" customHeight="1">
+    <row r="37" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="30"/>
       <c r="B37" s="25"/>
       <c r="C37" s="26"/>
@@ -3452,7 +3467,7 @@
       <c r="U37" s="28"/>
       <c r="V37" s="29"/>
     </row>
-    <row r="38" spans="1:22" ht="21" customHeight="1">
+    <row r="38" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="30"/>
       <c r="B38" s="25"/>
       <c r="C38" s="26"/>
@@ -3476,7 +3491,7 @@
       <c r="U38" s="28"/>
       <c r="V38" s="29"/>
     </row>
-    <row r="39" spans="1:22" ht="21" customHeight="1">
+    <row r="39" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="30"/>
       <c r="B39" s="25"/>
       <c r="C39" s="26"/>
@@ -3500,7 +3515,7 @@
       <c r="U39" s="28"/>
       <c r="V39" s="29"/>
     </row>
-    <row r="40" spans="1:22" ht="21" customHeight="1">
+    <row r="40" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="30"/>
       <c r="B40" s="25"/>
       <c r="C40" s="26"/>
@@ -3524,7 +3539,7 @@
       <c r="U40" s="28"/>
       <c r="V40" s="29"/>
     </row>
-    <row r="41" spans="1:22" ht="21" customHeight="1">
+    <row r="41" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="30"/>
       <c r="B41" s="25"/>
       <c r="C41" s="26"/>
@@ -3548,7 +3563,7 @@
       <c r="U41" s="28"/>
       <c r="V41" s="29"/>
     </row>
-    <row r="42" spans="1:22" ht="21" customHeight="1">
+    <row r="42" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="30"/>
       <c r="B42" s="25"/>
       <c r="C42" s="26"/>
@@ -3572,7 +3587,7 @@
       <c r="U42" s="28"/>
       <c r="V42" s="29"/>
     </row>
-    <row r="43" spans="1:22" ht="21" customHeight="1">
+    <row r="43" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="30"/>
       <c r="B43" s="25"/>
       <c r="C43" s="26"/>
@@ -3596,7 +3611,7 @@
       <c r="U43" s="28"/>
       <c r="V43" s="29"/>
     </row>
-    <row r="44" spans="1:22" ht="21" customHeight="1">
+    <row r="44" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="30"/>
       <c r="B44" s="25"/>
       <c r="C44" s="26"/>
@@ -3620,7 +3635,7 @@
       <c r="U44" s="28"/>
       <c r="V44" s="29"/>
     </row>
-    <row r="45" spans="1:22" ht="21" customHeight="1">
+    <row r="45" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="30"/>
       <c r="B45" s="25"/>
       <c r="C45" s="26"/>
@@ -3644,7 +3659,7 @@
       <c r="U45" s="28"/>
       <c r="V45" s="29"/>
     </row>
-    <row r="46" spans="1:22" ht="21" customHeight="1">
+    <row r="46" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="30"/>
       <c r="B46" s="25"/>
       <c r="C46" s="26"/>
@@ -3668,7 +3683,7 @@
       <c r="U46" s="28"/>
       <c r="V46" s="29"/>
     </row>
-    <row r="47" spans="1:22" ht="21" customHeight="1">
+    <row r="47" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="30"/>
       <c r="B47" s="25"/>
       <c r="C47" s="26"/>
@@ -3692,7 +3707,7 @@
       <c r="U47" s="28"/>
       <c r="V47" s="29"/>
     </row>
-    <row r="48" spans="1:22" ht="21" customHeight="1">
+    <row r="48" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="30"/>
       <c r="B48" s="25"/>
       <c r="C48" s="26"/>
@@ -3716,7 +3731,7 @@
       <c r="U48" s="28"/>
       <c r="V48" s="29"/>
     </row>
-    <row r="49" spans="1:22" ht="21" customHeight="1">
+    <row r="49" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="30"/>
       <c r="B49" s="25"/>
       <c r="C49" s="26"/>
@@ -3740,7 +3755,7 @@
       <c r="U49" s="28"/>
       <c r="V49" s="29"/>
     </row>
-    <row r="50" spans="1:22" ht="21" customHeight="1">
+    <row r="50" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="30"/>
       <c r="B50" s="25"/>
       <c r="C50" s="26"/>
@@ -3764,7 +3779,7 @@
       <c r="U50" s="28"/>
       <c r="V50" s="29"/>
     </row>
-    <row r="51" spans="1:22" ht="21" customHeight="1">
+    <row r="51" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="30"/>
       <c r="B51" s="25"/>
       <c r="C51" s="26"/>
@@ -3788,7 +3803,7 @@
       <c r="U51" s="28"/>
       <c r="V51" s="29"/>
     </row>
-    <row r="52" spans="1:22" ht="21" customHeight="1">
+    <row r="52" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="30"/>
       <c r="B52" s="25"/>
       <c r="C52" s="26"/>
@@ -3812,7 +3827,7 @@
       <c r="U52" s="28"/>
       <c r="V52" s="29"/>
     </row>
-    <row r="53" spans="1:22" ht="21" customHeight="1">
+    <row r="53" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="30"/>
       <c r="B53" s="25"/>
       <c r="C53" s="26"/>
@@ -3836,7 +3851,7 @@
       <c r="U53" s="28"/>
       <c r="V53" s="29"/>
     </row>
-    <row r="54" spans="1:22" ht="21" customHeight="1">
+    <row r="54" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="30"/>
       <c r="B54" s="25"/>
       <c r="C54" s="26"/>
@@ -3860,7 +3875,7 @@
       <c r="U54" s="28"/>
       <c r="V54" s="29"/>
     </row>
-    <row r="55" spans="1:22" ht="21" customHeight="1">
+    <row r="55" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="30"/>
       <c r="B55" s="25"/>
       <c r="C55" s="26"/>
@@ -3884,7 +3899,7 @@
       <c r="U55" s="28"/>
       <c r="V55" s="29"/>
     </row>
-    <row r="56" spans="1:22" ht="21" customHeight="1">
+    <row r="56" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="30"/>
       <c r="B56" s="25"/>
       <c r="C56" s="26"/>
@@ -3908,7 +3923,7 @@
       <c r="U56" s="28"/>
       <c r="V56" s="29"/>
     </row>
-    <row r="57" spans="1:22" ht="21" customHeight="1">
+    <row r="57" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="30"/>
       <c r="B57" s="25"/>
       <c r="C57" s="26"/>
@@ -3932,7 +3947,7 @@
       <c r="U57" s="28"/>
       <c r="V57" s="29"/>
     </row>
-    <row r="58" spans="1:22" ht="21" customHeight="1">
+    <row r="58" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="30"/>
       <c r="B58" s="25"/>
       <c r="C58" s="26"/>
@@ -3956,7 +3971,7 @@
       <c r="U58" s="28"/>
       <c r="V58" s="29"/>
     </row>
-    <row r="59" spans="1:22" ht="21" customHeight="1">
+    <row r="59" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="30"/>
       <c r="B59" s="25"/>
       <c r="C59" s="26"/>
@@ -3980,7 +3995,7 @@
       <c r="U59" s="28"/>
       <c r="V59" s="29"/>
     </row>
-    <row r="60" spans="1:22" ht="21" customHeight="1">
+    <row r="60" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="30"/>
       <c r="B60" s="25"/>
       <c r="C60" s="26"/>
@@ -4004,7 +4019,7 @@
       <c r="U60" s="28"/>
       <c r="V60" s="29"/>
     </row>
-    <row r="61" spans="1:22" ht="21" customHeight="1">
+    <row r="61" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="30"/>
       <c r="B61" s="25"/>
       <c r="C61" s="26"/>
@@ -4028,7 +4043,7 @@
       <c r="U61" s="28"/>
       <c r="V61" s="29"/>
     </row>
-    <row r="62" spans="1:22" ht="21" customHeight="1">
+    <row r="62" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="30"/>
       <c r="B62" s="25"/>
       <c r="C62" s="26"/>
@@ -4052,7 +4067,7 @@
       <c r="U62" s="28"/>
       <c r="V62" s="29"/>
     </row>
-    <row r="63" spans="1:22" ht="21" customHeight="1">
+    <row r="63" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="30"/>
       <c r="B63" s="25"/>
       <c r="C63" s="26"/>
@@ -4076,7 +4091,7 @@
       <c r="U63" s="28"/>
       <c r="V63" s="29"/>
     </row>
-    <row r="64" spans="1:22" ht="21" customHeight="1">
+    <row r="64" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="30"/>
       <c r="B64" s="25"/>
       <c r="C64" s="26"/>
@@ -4100,7 +4115,7 @@
       <c r="U64" s="28"/>
       <c r="V64" s="29"/>
     </row>
-    <row r="65" spans="1:22" ht="21" customHeight="1">
+    <row r="65" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="30"/>
       <c r="B65" s="25"/>
       <c r="C65" s="26"/>
@@ -4124,7 +4139,7 @@
       <c r="U65" s="28"/>
       <c r="V65" s="29"/>
     </row>
-    <row r="66" spans="1:22" ht="21" customHeight="1">
+    <row r="66" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="30"/>
       <c r="B66" s="25"/>
       <c r="C66" s="26"/>
@@ -4148,7 +4163,7 @@
       <c r="U66" s="28"/>
       <c r="V66" s="29"/>
     </row>
-    <row r="67" spans="1:22" ht="21" customHeight="1">
+    <row r="67" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="30"/>
       <c r="B67" s="25"/>
       <c r="C67" s="26"/>
@@ -4172,7 +4187,7 @@
       <c r="U67" s="28"/>
       <c r="V67" s="29"/>
     </row>
-    <row r="68" spans="1:22" ht="21" customHeight="1">
+    <row r="68" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="30"/>
       <c r="B68" s="25"/>
       <c r="C68" s="26"/>
@@ -4196,7 +4211,7 @@
       <c r="U68" s="28"/>
       <c r="V68" s="29"/>
     </row>
-    <row r="69" spans="1:22" ht="21" customHeight="1">
+    <row r="69" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="30"/>
       <c r="B69" s="25"/>
       <c r="C69" s="26"/>
@@ -4220,7 +4235,7 @@
       <c r="U69" s="28"/>
       <c r="V69" s="29"/>
     </row>
-    <row r="70" spans="1:22" ht="21" customHeight="1">
+    <row r="70" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="30"/>
       <c r="B70" s="25"/>
       <c r="C70" s="26"/>
@@ -4244,7 +4259,7 @@
       <c r="U70" s="28"/>
       <c r="V70" s="29"/>
     </row>
-    <row r="71" spans="1:22" ht="21" customHeight="1">
+    <row r="71" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="30"/>
       <c r="B71" s="25"/>
       <c r="C71" s="26"/>
@@ -4268,7 +4283,7 @@
       <c r="U71" s="28"/>
       <c r="V71" s="29"/>
     </row>
-    <row r="72" spans="1:22" ht="21" customHeight="1">
+    <row r="72" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="30"/>
       <c r="B72" s="25"/>
       <c r="C72" s="26"/>
@@ -4292,7 +4307,7 @@
       <c r="U72" s="28"/>
       <c r="V72" s="29"/>
     </row>
-    <row r="73" spans="1:22" ht="21" customHeight="1">
+    <row r="73" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="30"/>
       <c r="B73" s="25"/>
       <c r="C73" s="26"/>
@@ -4316,7 +4331,7 @@
       <c r="U73" s="28"/>
       <c r="V73" s="29"/>
     </row>
-    <row r="74" spans="1:22" ht="21" customHeight="1">
+    <row r="74" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="30"/>
       <c r="B74" s="25"/>
       <c r="C74" s="26"/>
@@ -4340,7 +4355,7 @@
       <c r="U74" s="28"/>
       <c r="V74" s="29"/>
     </row>
-    <row r="75" spans="1:22" ht="21" customHeight="1">
+    <row r="75" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="30"/>
       <c r="B75" s="25"/>
       <c r="C75" s="26"/>
@@ -4364,7 +4379,7 @@
       <c r="U75" s="28"/>
       <c r="V75" s="29"/>
     </row>
-    <row r="76" spans="1:22" ht="21" customHeight="1">
+    <row r="76" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="30"/>
       <c r="B76" s="25"/>
       <c r="C76" s="26"/>
@@ -4388,7 +4403,7 @@
       <c r="U76" s="28"/>
       <c r="V76" s="29"/>
     </row>
-    <row r="77" spans="1:22" ht="21" customHeight="1">
+    <row r="77" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="30"/>
       <c r="B77" s="25"/>
       <c r="C77" s="26"/>
@@ -4412,7 +4427,7 @@
       <c r="U77" s="28"/>
       <c r="V77" s="29"/>
     </row>
-    <row r="78" spans="1:22" ht="21" customHeight="1">
+    <row r="78" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="30"/>
       <c r="B78" s="25"/>
       <c r="C78" s="26"/>
@@ -4436,7 +4451,7 @@
       <c r="U78" s="28"/>
       <c r="V78" s="29"/>
     </row>
-    <row r="79" spans="1:22" ht="21" customHeight="1">
+    <row r="79" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="30"/>
       <c r="B79" s="25"/>
       <c r="C79" s="26"/>
@@ -4460,7 +4475,7 @@
       <c r="U79" s="28"/>
       <c r="V79" s="29"/>
     </row>
-    <row r="80" spans="1:22" ht="21" customHeight="1">
+    <row r="80" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="30"/>
       <c r="B80" s="25"/>
       <c r="C80" s="26"/>
@@ -4484,7 +4499,7 @@
       <c r="U80" s="28"/>
       <c r="V80" s="29"/>
     </row>
-    <row r="81" spans="1:22" ht="21" customHeight="1">
+    <row r="81" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="30"/>
       <c r="B81" s="25"/>
       <c r="C81" s="26"/>
@@ -4508,7 +4523,7 @@
       <c r="U81" s="28"/>
       <c r="V81" s="29"/>
     </row>
-    <row r="82" spans="1:22" ht="21" customHeight="1">
+    <row r="82" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="30"/>
       <c r="B82" s="25"/>
       <c r="C82" s="26"/>
@@ -4532,7 +4547,7 @@
       <c r="U82" s="28"/>
       <c r="V82" s="29"/>
     </row>
-    <row r="83" spans="1:22" ht="21" customHeight="1">
+    <row r="83" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="30"/>
       <c r="B83" s="25"/>
       <c r="C83" s="26"/>
@@ -4556,7 +4571,7 @@
       <c r="U83" s="28"/>
       <c r="V83" s="29"/>
     </row>
-    <row r="84" spans="1:22" ht="21" customHeight="1">
+    <row r="84" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="30"/>
       <c r="B84" s="25"/>
       <c r="C84" s="26"/>
@@ -4580,7 +4595,7 @@
       <c r="U84" s="28"/>
       <c r="V84" s="29"/>
     </row>
-    <row r="85" spans="1:22" ht="21" customHeight="1">
+    <row r="85" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="30"/>
       <c r="B85" s="25"/>
       <c r="C85" s="26"/>
@@ -4604,7 +4619,7 @@
       <c r="U85" s="28"/>
       <c r="V85" s="29"/>
     </row>
-    <row r="86" spans="1:22" ht="21" customHeight="1">
+    <row r="86" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="30"/>
       <c r="B86" s="25"/>
       <c r="C86" s="26"/>
@@ -4628,7 +4643,7 @@
       <c r="U86" s="28"/>
       <c r="V86" s="29"/>
     </row>
-    <row r="87" spans="1:22" ht="21" customHeight="1">
+    <row r="87" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="30"/>
       <c r="B87" s="25"/>
       <c r="C87" s="26"/>
@@ -4652,7 +4667,7 @@
       <c r="U87" s="28"/>
       <c r="V87" s="29"/>
     </row>
-    <row r="88" spans="1:22" ht="21" customHeight="1">
+    <row r="88" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="30"/>
       <c r="B88" s="25"/>
       <c r="C88" s="26"/>
@@ -4676,7 +4691,7 @@
       <c r="U88" s="28"/>
       <c r="V88" s="29"/>
     </row>
-    <row r="89" spans="1:22" ht="21" customHeight="1">
+    <row r="89" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="30"/>
       <c r="B89" s="25"/>
       <c r="C89" s="26"/>
@@ -4700,7 +4715,7 @@
       <c r="U89" s="28"/>
       <c r="V89" s="29"/>
     </row>
-    <row r="90" spans="1:22" ht="21" customHeight="1">
+    <row r="90" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="30"/>
       <c r="B90" s="25"/>
       <c r="C90" s="26"/>
@@ -4724,7 +4739,7 @@
       <c r="U90" s="28"/>
       <c r="V90" s="29"/>
     </row>
-    <row r="91" spans="1:22" ht="21" customHeight="1">
+    <row r="91" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="30"/>
       <c r="B91" s="25"/>
       <c r="C91" s="26"/>
@@ -4748,7 +4763,7 @@
       <c r="U91" s="28"/>
       <c r="V91" s="29"/>
     </row>
-    <row r="92" spans="1:22" ht="21" customHeight="1">
+    <row r="92" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="30"/>
       <c r="B92" s="25"/>
       <c r="C92" s="26"/>
@@ -4772,7 +4787,7 @@
       <c r="U92" s="28"/>
       <c r="V92" s="29"/>
     </row>
-    <row r="93" spans="1:22" ht="21" customHeight="1">
+    <row r="93" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="30"/>
       <c r="B93" s="25"/>
       <c r="C93" s="26"/>
@@ -4796,7 +4811,7 @@
       <c r="U93" s="28"/>
       <c r="V93" s="29"/>
     </row>
-    <row r="94" spans="1:22" ht="21" customHeight="1">
+    <row r="94" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="30"/>
       <c r="B94" s="25"/>
       <c r="C94" s="26"/>
@@ -4820,7 +4835,7 @@
       <c r="U94" s="28"/>
       <c r="V94" s="29"/>
     </row>
-    <row r="95" spans="1:22" ht="21" customHeight="1">
+    <row r="95" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="30"/>
       <c r="B95" s="25"/>
       <c r="C95" s="26"/>
@@ -4844,7 +4859,7 @@
       <c r="U95" s="28"/>
       <c r="V95" s="29"/>
     </row>
-    <row r="96" spans="1:22" ht="21" customHeight="1">
+    <row r="96" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="30"/>
       <c r="B96" s="25"/>
       <c r="C96" s="26"/>
@@ -4868,7 +4883,7 @@
       <c r="U96" s="28"/>
       <c r="V96" s="29"/>
     </row>
-    <row r="97" spans="1:22" ht="21" customHeight="1">
+    <row r="97" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="30"/>
       <c r="B97" s="25"/>
       <c r="C97" s="26"/>
@@ -4892,7 +4907,7 @@
       <c r="U97" s="28"/>
       <c r="V97" s="29"/>
     </row>
-    <row r="98" spans="1:22" ht="21" customHeight="1">
+    <row r="98" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="30"/>
       <c r="B98" s="25"/>
       <c r="C98" s="26"/>
@@ -4916,7 +4931,7 @@
       <c r="U98" s="28"/>
       <c r="V98" s="29"/>
     </row>
-    <row r="99" spans="1:22" ht="21" customHeight="1">
+    <row r="99" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="30"/>
       <c r="B99" s="25"/>
       <c r="C99" s="26"/>
@@ -4940,7 +4955,7 @@
       <c r="U99" s="28"/>
       <c r="V99" s="29"/>
     </row>
-    <row r="100" spans="1:22" ht="21" customHeight="1">
+    <row r="100" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="30"/>
       <c r="B100" s="25"/>
       <c r="C100" s="26"/>
@@ -4964,7 +4979,7 @@
       <c r="U100" s="28"/>
       <c r="V100" s="29"/>
     </row>
-    <row r="101" spans="1:22" ht="21" customHeight="1">
+    <row r="101" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="30"/>
       <c r="B101" s="25"/>
       <c r="C101" s="26"/>
@@ -4988,7 +5003,7 @@
       <c r="U101" s="28"/>
       <c r="V101" s="29"/>
     </row>
-    <row r="102" spans="1:22" ht="21" customHeight="1">
+    <row r="102" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="30"/>
       <c r="B102" s="25"/>
       <c r="C102" s="26"/>
@@ -5012,7 +5027,7 @@
       <c r="U102" s="28"/>
       <c r="V102" s="29"/>
     </row>
-    <row r="103" spans="1:22" ht="21" customHeight="1">
+    <row r="103" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="30"/>
       <c r="B103" s="25"/>
       <c r="C103" s="26"/>
@@ -5036,7 +5051,7 @@
       <c r="U103" s="28"/>
       <c r="V103" s="29"/>
     </row>
-    <row r="104" spans="1:22" ht="21" customHeight="1">
+    <row r="104" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="30"/>
       <c r="B104" s="25"/>
       <c r="C104" s="26"/>
@@ -5060,7 +5075,7 @@
       <c r="U104" s="28"/>
       <c r="V104" s="29"/>
     </row>
-    <row r="105" spans="1:22" ht="21" customHeight="1" thickBot="1">
+    <row r="105" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="31"/>
       <c r="B105" s="32"/>
       <c r="C105" s="33"/>
@@ -5084,37 +5099,21 @@
       <c r="U105" s="35"/>
       <c r="V105" s="36"/>
     </row>
-    <row r="106" spans="1:22" ht="30" customHeight="1">
+    <row r="106" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K106" s="41"/>
       <c r="M106" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="U18:U19"/>
-    <mergeCell ref="V18:V19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="S18:S19"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="V13:V14"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="L18:L19"/>
     <mergeCell ref="Q13:Q14"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="I8:J8"/>
@@ -5130,15 +5129,31 @@
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="Q8:Q9"/>
     <mergeCell ref="A7:L7"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="V13:V14"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="U18:U19"/>
+    <mergeCell ref="V18:V19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="S18:S19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5153,7 +5168,7 @@
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.42578125" style="55" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="56" customWidth="1"/>
@@ -5166,6029 +5181,6029 @@
     <col min="9" max="16384" width="9.140625" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="21" customFormat="1" ht="12.75">
+    <row r="1" spans="1:8" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="161" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="163" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C1" s="164"/>
       <c r="D1" s="164"/>
       <c r="E1" s="163" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F1" s="164"/>
       <c r="G1" s="159" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="146" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="54" customFormat="1" ht="12.75">
+        <v>39</v>
+      </c>
+      <c r="H1" s="112" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="54" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="162"/>
       <c r="B2" s="91" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="91" t="s">
+      <c r="D2" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="91" t="s">
+      <c r="E2" s="91" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="91" t="s">
         <v>22</v>
-      </c>
-      <c r="E2" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="91" t="s">
-        <v>23</v>
       </c>
       <c r="G2" s="160"/>
       <c r="H2" s="165"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" s="53" t="e">
         <f t="shared" ref="H3:H66" si="0">INDEX(Companies,MATCH(G3,StationIDs,0),1)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" s="53" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H5" s="53" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H6" s="53" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H7" s="53" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H8" s="53" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H9" s="53" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H10" s="53" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H11" s="53" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H12" s="53" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H13" s="53" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H14" s="53" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H15" s="53" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H16" s="53" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="17" spans="8:8">
+    <row r="17" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H17" s="53" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="8:8">
+    <row r="18" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H18" s="53" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="8:8">
+    <row r="19" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H19" s="53" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="8:8">
+    <row r="20" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H20" s="53" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="8:8">
+    <row r="21" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H21" s="53" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="22" spans="8:8">
+    <row r="22" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H22" s="53" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="23" spans="8:8">
+    <row r="23" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H23" s="53" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="24" spans="8:8">
+    <row r="24" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H24" s="53" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="25" spans="8:8">
+    <row r="25" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H25" s="53" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="8:8">
+    <row r="26" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H26" s="53" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="8:8">
+    <row r="27" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H27" s="53" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="8:8">
+    <row r="28" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H28" s="53" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="29" spans="8:8">
+    <row r="29" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H29" s="53" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="8:8">
+    <row r="30" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H30" s="53" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="8:8">
+    <row r="31" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H31" s="53" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="8:8">
+    <row r="32" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H32" s="53" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="33" spans="8:8">
+    <row r="33" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H33" s="53" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="8:8">
+    <row r="34" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H34" s="53" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="35" spans="8:8">
+    <row r="35" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H35" s="53" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="36" spans="8:8">
+    <row r="36" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H36" s="53" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="37" spans="8:8">
+    <row r="37" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H37" s="53" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="38" spans="8:8">
+    <row r="38" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H38" s="53" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="8:8">
+    <row r="39" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H39" s="53" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="8:8">
+    <row r="40" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H40" s="53" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="8:8">
+    <row r="41" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H41" s="53" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="8:8">
+    <row r="42" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H42" s="53" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="43" spans="8:8">
+    <row r="43" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H43" s="53" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="44" spans="8:8">
+    <row r="44" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H44" s="53" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="45" spans="8:8">
+    <row r="45" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H45" s="53" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="8:8">
+    <row r="46" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H46" s="53" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="8:8">
+    <row r="47" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H47" s="53" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="8:8">
+    <row r="48" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H48" s="53" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="8:8">
+    <row r="49" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H49" s="53" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="8:8">
+    <row r="50" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H50" s="53" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="8:8">
+    <row r="51" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H51" s="53" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="8:8">
+    <row r="52" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H52" s="53" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="8:8">
+    <row r="53" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H53" s="53" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="8:8">
+    <row r="54" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H54" s="53" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="55" spans="8:8">
+    <row r="55" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H55" s="53" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="56" spans="8:8">
+    <row r="56" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H56" s="53" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="57" spans="8:8">
+    <row r="57" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H57" s="53" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="58" spans="8:8">
+    <row r="58" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H58" s="53" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="59" spans="8:8">
+    <row r="59" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H59" s="53" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="60" spans="8:8">
+    <row r="60" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H60" s="53" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="8:8">
+    <row r="61" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H61" s="53" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="62" spans="8:8">
+    <row r="62" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H62" s="53" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="63" spans="8:8">
+    <row r="63" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H63" s="53" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="64" spans="8:8">
+    <row r="64" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H64" s="53" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="65" spans="8:8">
+    <row r="65" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H65" s="53" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="66" spans="8:8">
+    <row r="66" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H66" s="53" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="67" spans="8:8">
+    <row r="67" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H67" s="53" t="e">
         <f t="shared" ref="H67:H130" si="1">INDEX(Companies,MATCH(G67,StationIDs,0),1)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="68" spans="8:8">
+    <row r="68" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H68" s="53" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="69" spans="8:8">
+    <row r="69" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H69" s="53" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="70" spans="8:8">
+    <row r="70" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H70" s="53" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="71" spans="8:8">
+    <row r="71" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H71" s="53" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="72" spans="8:8">
+    <row r="72" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H72" s="53" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="73" spans="8:8">
+    <row r="73" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H73" s="53" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="74" spans="8:8">
+    <row r="74" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H74" s="53" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="75" spans="8:8">
+    <row r="75" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H75" s="53" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="76" spans="8:8">
+    <row r="76" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H76" s="53" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="77" spans="8:8">
+    <row r="77" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H77" s="53" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="78" spans="8:8">
+    <row r="78" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H78" s="53" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="79" spans="8:8">
+    <row r="79" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H79" s="53" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="80" spans="8:8">
+    <row r="80" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H80" s="53" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="81" spans="8:8">
+    <row r="81" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H81" s="53" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="82" spans="8:8">
+    <row r="82" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H82" s="53" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="83" spans="8:8">
+    <row r="83" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H83" s="53" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="84" spans="8:8">
+    <row r="84" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H84" s="53" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="85" spans="8:8">
+    <row r="85" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H85" s="53" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="86" spans="8:8">
+    <row r="86" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H86" s="53" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="87" spans="8:8">
+    <row r="87" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H87" s="53" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="88" spans="8:8">
+    <row r="88" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H88" s="53" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="89" spans="8:8">
+    <row r="89" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H89" s="53" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="90" spans="8:8">
+    <row r="90" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H90" s="53" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="91" spans="8:8">
+    <row r="91" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H91" s="53" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="92" spans="8:8">
+    <row r="92" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H92" s="53" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="93" spans="8:8">
+    <row r="93" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H93" s="53" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="94" spans="8:8">
+    <row r="94" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H94" s="53" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="95" spans="8:8">
+    <row r="95" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H95" s="53" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="96" spans="8:8">
+    <row r="96" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H96" s="53" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="97" spans="8:8">
+    <row r="97" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H97" s="53" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="98" spans="8:8">
+    <row r="98" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H98" s="53" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="99" spans="8:8">
+    <row r="99" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H99" s="53" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="100" spans="8:8">
+    <row r="100" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H100" s="53" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="101" spans="8:8">
+    <row r="101" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H101" s="53" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="102" spans="8:8">
+    <row r="102" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H102" s="53" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="103" spans="8:8">
+    <row r="103" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H103" s="53" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="104" spans="8:8">
+    <row r="104" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H104" s="53" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="105" spans="8:8">
+    <row r="105" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H105" s="53" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="106" spans="8:8">
+    <row r="106" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H106" s="53" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="107" spans="8:8">
+    <row r="107" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H107" s="53" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="108" spans="8:8">
+    <row r="108" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H108" s="53" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="109" spans="8:8">
+    <row r="109" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H109" s="53" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="110" spans="8:8">
+    <row r="110" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H110" s="53" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="111" spans="8:8">
+    <row r="111" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H111" s="53" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="112" spans="8:8">
+    <row r="112" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H112" s="53" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="113" spans="8:8">
+    <row r="113" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H113" s="53" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="114" spans="8:8">
+    <row r="114" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H114" s="53" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="115" spans="8:8">
+    <row r="115" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H115" s="53" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="116" spans="8:8">
+    <row r="116" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H116" s="53" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="117" spans="8:8">
+    <row r="117" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H117" s="53" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="118" spans="8:8">
+    <row r="118" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H118" s="53" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="119" spans="8:8">
+    <row r="119" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H119" s="53" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="120" spans="8:8">
+    <row r="120" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H120" s="53" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="121" spans="8:8">
+    <row r="121" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H121" s="53" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="122" spans="8:8">
+    <row r="122" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H122" s="53" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="123" spans="8:8">
+    <row r="123" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H123" s="53" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="124" spans="8:8">
+    <row r="124" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H124" s="53" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="125" spans="8:8">
+    <row r="125" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H125" s="53" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="126" spans="8:8">
+    <row r="126" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H126" s="53" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="127" spans="8:8">
+    <row r="127" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H127" s="53" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="128" spans="8:8">
+    <row r="128" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H128" s="53" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="129" spans="8:8">
+    <row r="129" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H129" s="53" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="130" spans="8:8">
+    <row r="130" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H130" s="53" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="131" spans="8:8">
+    <row r="131" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H131" s="53" t="e">
         <f t="shared" ref="H131:H194" si="2">INDEX(Companies,MATCH(G131,StationIDs,0),1)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="132" spans="8:8">
+    <row r="132" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H132" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="133" spans="8:8">
+    <row r="133" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H133" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="134" spans="8:8">
+    <row r="134" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H134" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="135" spans="8:8">
+    <row r="135" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H135" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="136" spans="8:8">
+    <row r="136" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H136" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="137" spans="8:8">
+    <row r="137" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H137" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="138" spans="8:8">
+    <row r="138" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H138" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="139" spans="8:8">
+    <row r="139" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H139" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="140" spans="8:8">
+    <row r="140" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H140" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="141" spans="8:8">
+    <row r="141" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H141" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="142" spans="8:8">
+    <row r="142" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H142" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="143" spans="8:8">
+    <row r="143" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H143" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="144" spans="8:8">
+    <row r="144" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H144" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="145" spans="8:8">
+    <row r="145" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H145" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="146" spans="8:8">
+    <row r="146" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H146" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="147" spans="8:8">
+    <row r="147" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H147" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="148" spans="8:8">
+    <row r="148" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H148" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="149" spans="8:8">
+    <row r="149" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H149" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="150" spans="8:8">
+    <row r="150" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H150" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="151" spans="8:8">
+    <row r="151" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H151" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="152" spans="8:8">
+    <row r="152" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H152" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="153" spans="8:8">
+    <row r="153" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H153" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="154" spans="8:8">
+    <row r="154" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H154" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="155" spans="8:8">
+    <row r="155" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H155" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="156" spans="8:8">
+    <row r="156" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H156" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="157" spans="8:8">
+    <row r="157" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H157" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="158" spans="8:8">
+    <row r="158" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H158" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="159" spans="8:8">
+    <row r="159" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H159" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="160" spans="8:8">
+    <row r="160" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H160" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="161" spans="8:8">
+    <row r="161" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H161" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="162" spans="8:8">
+    <row r="162" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H162" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="163" spans="8:8">
+    <row r="163" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H163" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="164" spans="8:8">
+    <row r="164" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H164" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="165" spans="8:8">
+    <row r="165" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H165" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="166" spans="8:8">
+    <row r="166" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H166" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="167" spans="8:8">
+    <row r="167" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H167" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="168" spans="8:8">
+    <row r="168" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H168" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="169" spans="8:8">
+    <row r="169" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H169" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="170" spans="8:8">
+    <row r="170" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H170" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="171" spans="8:8">
+    <row r="171" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H171" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="172" spans="8:8">
+    <row r="172" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H172" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="173" spans="8:8">
+    <row r="173" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H173" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="174" spans="8:8">
+    <row r="174" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H174" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="175" spans="8:8">
+    <row r="175" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H175" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="176" spans="8:8">
+    <row r="176" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H176" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="177" spans="8:8">
+    <row r="177" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H177" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="178" spans="8:8">
+    <row r="178" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H178" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="179" spans="8:8">
+    <row r="179" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H179" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="180" spans="8:8">
+    <row r="180" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H180" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="181" spans="8:8">
+    <row r="181" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H181" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="182" spans="8:8">
+    <row r="182" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H182" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="183" spans="8:8">
+    <row r="183" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H183" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="184" spans="8:8">
+    <row r="184" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H184" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="185" spans="8:8">
+    <row r="185" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H185" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="186" spans="8:8">
+    <row r="186" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H186" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="187" spans="8:8">
+    <row r="187" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H187" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="188" spans="8:8">
+    <row r="188" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H188" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="189" spans="8:8">
+    <row r="189" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H189" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="190" spans="8:8">
+    <row r="190" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H190" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="191" spans="8:8">
+    <row r="191" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H191" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="192" spans="8:8">
+    <row r="192" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H192" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="193" spans="8:8">
+    <row r="193" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H193" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="194" spans="8:8">
+    <row r="194" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H194" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="195" spans="8:8">
+    <row r="195" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H195" s="53" t="e">
         <f t="shared" ref="H195:H258" si="3">INDEX(Companies,MATCH(G195,StationIDs,0),1)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="196" spans="8:8">
+    <row r="196" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H196" s="53" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="197" spans="8:8">
+    <row r="197" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H197" s="53" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="198" spans="8:8">
+    <row r="198" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H198" s="53" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="199" spans="8:8">
+    <row r="199" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H199" s="53" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="200" spans="8:8">
+    <row r="200" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H200" s="53" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="201" spans="8:8">
+    <row r="201" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H201" s="53" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="202" spans="8:8">
+    <row r="202" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H202" s="53" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="203" spans="8:8">
+    <row r="203" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H203" s="53" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="204" spans="8:8">
+    <row r="204" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H204" s="53" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="205" spans="8:8">
+    <row r="205" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H205" s="53" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="206" spans="8:8">
+    <row r="206" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H206" s="53" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="207" spans="8:8">
+    <row r="207" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H207" s="53" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="208" spans="8:8">
+    <row r="208" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H208" s="53" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="209" spans="8:8">
+    <row r="209" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H209" s="53" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="210" spans="8:8">
+    <row r="210" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H210" s="53" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="211" spans="8:8">
+    <row r="211" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H211" s="53" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="212" spans="8:8">
+    <row r="212" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H212" s="53" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="213" spans="8:8">
+    <row r="213" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H213" s="53" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="214" spans="8:8">
+    <row r="214" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H214" s="53" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="215" spans="8:8">
+    <row r="215" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H215" s="53" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="216" spans="8:8">
+    <row r="216" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H216" s="53" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="217" spans="8:8">
+    <row r="217" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H217" s="53" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="218" spans="8:8">
+    <row r="218" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H218" s="53" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="219" spans="8:8">
+    <row r="219" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H219" s="53" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="220" spans="8:8">
+    <row r="220" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H220" s="53" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="221" spans="8:8">
+    <row r="221" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H221" s="53" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="222" spans="8:8">
+    <row r="222" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H222" s="53" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="223" spans="8:8">
+    <row r="223" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H223" s="53" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="224" spans="8:8">
+    <row r="224" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H224" s="53" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="225" spans="8:8">
+    <row r="225" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H225" s="53" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="226" spans="8:8">
+    <row r="226" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H226" s="53" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="227" spans="8:8">
+    <row r="227" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H227" s="53" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="228" spans="8:8">
+    <row r="228" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H228" s="53" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="229" spans="8:8">
+    <row r="229" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H229" s="53" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="230" spans="8:8">
+    <row r="230" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H230" s="53" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="231" spans="8:8">
+    <row r="231" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H231" s="53" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="232" spans="8:8">
+    <row r="232" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H232" s="53" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="233" spans="8:8">
+    <row r="233" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H233" s="53" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="234" spans="8:8">
+    <row r="234" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H234" s="53" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="235" spans="8:8">
+    <row r="235" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H235" s="53" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="236" spans="8:8">
+    <row r="236" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H236" s="53" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="237" spans="8:8">
+    <row r="237" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H237" s="53" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="238" spans="8:8">
+    <row r="238" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H238" s="53" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="239" spans="8:8">
+    <row r="239" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H239" s="53" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="240" spans="8:8">
+    <row r="240" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H240" s="53" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="241" spans="8:8">
+    <row r="241" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H241" s="53" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="242" spans="8:8">
+    <row r="242" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H242" s="53" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="243" spans="8:8">
+    <row r="243" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H243" s="53" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="244" spans="8:8">
+    <row r="244" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H244" s="53" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="245" spans="8:8">
+    <row r="245" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H245" s="53" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="246" spans="8:8">
+    <row r="246" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H246" s="53" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="247" spans="8:8">
+    <row r="247" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H247" s="53" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="248" spans="8:8">
+    <row r="248" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H248" s="53" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="249" spans="8:8">
+    <row r="249" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H249" s="53" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="250" spans="8:8">
+    <row r="250" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H250" s="53" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="251" spans="8:8">
+    <row r="251" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H251" s="53" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="252" spans="8:8">
+    <row r="252" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H252" s="53" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="253" spans="8:8">
+    <row r="253" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H253" s="53" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="254" spans="8:8">
+    <row r="254" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H254" s="53" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="255" spans="8:8">
+    <row r="255" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H255" s="53" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="256" spans="8:8">
+    <row r="256" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H256" s="53" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="257" spans="8:8">
+    <row r="257" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H257" s="53" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="258" spans="8:8">
+    <row r="258" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H258" s="53" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="259" spans="8:8">
+    <row r="259" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H259" s="53" t="e">
         <f t="shared" ref="H259:H322" si="4">INDEX(Companies,MATCH(G259,StationIDs,0),1)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="260" spans="8:8">
+    <row r="260" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H260" s="53" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="261" spans="8:8">
+    <row r="261" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H261" s="53" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="262" spans="8:8">
+    <row r="262" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H262" s="53" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="263" spans="8:8">
+    <row r="263" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H263" s="53" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="264" spans="8:8">
+    <row r="264" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H264" s="53" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="265" spans="8:8">
+    <row r="265" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H265" s="53" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="266" spans="8:8">
+    <row r="266" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H266" s="53" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="267" spans="8:8">
+    <row r="267" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H267" s="53" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="268" spans="8:8">
+    <row r="268" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H268" s="53" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="269" spans="8:8">
+    <row r="269" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H269" s="53" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="270" spans="8:8">
+    <row r="270" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H270" s="53" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="271" spans="8:8">
+    <row r="271" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H271" s="53" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="272" spans="8:8">
+    <row r="272" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H272" s="53" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="273" spans="8:8">
+    <row r="273" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H273" s="53" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="274" spans="8:8">
+    <row r="274" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H274" s="53" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="275" spans="8:8">
+    <row r="275" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H275" s="53" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="276" spans="8:8">
+    <row r="276" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H276" s="53" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="277" spans="8:8">
+    <row r="277" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H277" s="53" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="278" spans="8:8">
+    <row r="278" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H278" s="53" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="279" spans="8:8">
+    <row r="279" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H279" s="53" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="280" spans="8:8">
+    <row r="280" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H280" s="53" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="281" spans="8:8">
+    <row r="281" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H281" s="53" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="282" spans="8:8">
+    <row r="282" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H282" s="53" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="283" spans="8:8">
+    <row r="283" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H283" s="53" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="284" spans="8:8">
+    <row r="284" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H284" s="53" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="285" spans="8:8">
+    <row r="285" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H285" s="53" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="286" spans="8:8">
+    <row r="286" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H286" s="53" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="287" spans="8:8">
+    <row r="287" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H287" s="53" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="288" spans="8:8">
+    <row r="288" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H288" s="53" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="289" spans="8:8">
+    <row r="289" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H289" s="53" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="290" spans="8:8">
+    <row r="290" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H290" s="53" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="291" spans="8:8">
+    <row r="291" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H291" s="53" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="292" spans="8:8">
+    <row r="292" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H292" s="53" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="293" spans="8:8">
+    <row r="293" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H293" s="53" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="294" spans="8:8">
+    <row r="294" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H294" s="53" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="295" spans="8:8">
+    <row r="295" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H295" s="53" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="296" spans="8:8">
+    <row r="296" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H296" s="53" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="297" spans="8:8">
+    <row r="297" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H297" s="53" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="298" spans="8:8">
+    <row r="298" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H298" s="53" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="299" spans="8:8">
+    <row r="299" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H299" s="53" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="300" spans="8:8">
+    <row r="300" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H300" s="53" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="301" spans="8:8">
+    <row r="301" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H301" s="53" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="302" spans="8:8">
+    <row r="302" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H302" s="53" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="303" spans="8:8">
+    <row r="303" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H303" s="53" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="304" spans="8:8">
+    <row r="304" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H304" s="53" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="305" spans="8:8">
+    <row r="305" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H305" s="53" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="306" spans="8:8">
+    <row r="306" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H306" s="53" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="307" spans="8:8">
+    <row r="307" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H307" s="53" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="308" spans="8:8">
+    <row r="308" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H308" s="53" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="309" spans="8:8">
+    <row r="309" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H309" s="53" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="310" spans="8:8">
+    <row r="310" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H310" s="53" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="311" spans="8:8">
+    <row r="311" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H311" s="53" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="312" spans="8:8">
+    <row r="312" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H312" s="53" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="313" spans="8:8">
+    <row r="313" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H313" s="53" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="314" spans="8:8">
+    <row r="314" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H314" s="53" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="315" spans="8:8">
+    <row r="315" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H315" s="53" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="316" spans="8:8">
+    <row r="316" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H316" s="53" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="317" spans="8:8">
+    <row r="317" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H317" s="53" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="318" spans="8:8">
+    <row r="318" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H318" s="53" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="319" spans="8:8">
+    <row r="319" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H319" s="53" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="320" spans="8:8">
+    <row r="320" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H320" s="53" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="321" spans="8:8">
+    <row r="321" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H321" s="53" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="322" spans="8:8">
+    <row r="322" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H322" s="53" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="323" spans="8:8">
+    <row r="323" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H323" s="53" t="e">
         <f t="shared" ref="H323:H386" si="5">INDEX(Companies,MATCH(G323,StationIDs,0),1)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="324" spans="8:8">
+    <row r="324" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H324" s="53" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="325" spans="8:8">
+    <row r="325" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H325" s="53" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="326" spans="8:8">
+    <row r="326" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H326" s="53" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="327" spans="8:8">
+    <row r="327" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H327" s="53" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="328" spans="8:8">
+    <row r="328" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H328" s="53" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="329" spans="8:8">
+    <row r="329" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H329" s="53" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="330" spans="8:8">
+    <row r="330" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H330" s="53" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="331" spans="8:8">
+    <row r="331" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H331" s="53" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="332" spans="8:8">
+    <row r="332" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H332" s="53" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="333" spans="8:8">
+    <row r="333" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H333" s="53" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="334" spans="8:8">
+    <row r="334" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H334" s="53" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="335" spans="8:8">
+    <row r="335" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H335" s="53" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="336" spans="8:8">
+    <row r="336" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H336" s="53" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="337" spans="8:8">
+    <row r="337" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H337" s="53" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="338" spans="8:8">
+    <row r="338" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H338" s="53" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="339" spans="8:8">
+    <row r="339" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H339" s="53" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="340" spans="8:8">
+    <row r="340" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H340" s="53" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="341" spans="8:8">
+    <row r="341" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H341" s="53" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="342" spans="8:8">
+    <row r="342" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H342" s="53" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="343" spans="8:8">
+    <row r="343" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H343" s="53" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="344" spans="8:8">
+    <row r="344" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H344" s="53" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="345" spans="8:8">
+    <row r="345" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H345" s="53" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="346" spans="8:8">
+    <row r="346" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H346" s="53" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="347" spans="8:8">
+    <row r="347" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H347" s="53" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="348" spans="8:8">
+    <row r="348" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H348" s="53" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="349" spans="8:8">
+    <row r="349" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H349" s="53" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="350" spans="8:8">
+    <row r="350" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H350" s="53" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="351" spans="8:8">
+    <row r="351" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H351" s="53" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="352" spans="8:8">
+    <row r="352" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H352" s="53" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="353" spans="8:8">
+    <row r="353" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H353" s="53" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="354" spans="8:8">
+    <row r="354" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H354" s="53" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="355" spans="8:8">
+    <row r="355" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H355" s="53" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="356" spans="8:8">
+    <row r="356" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H356" s="53" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="357" spans="8:8">
+    <row r="357" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H357" s="53" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="358" spans="8:8">
+    <row r="358" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H358" s="53" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="359" spans="8:8">
+    <row r="359" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H359" s="53" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="360" spans="8:8">
+    <row r="360" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H360" s="53" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="361" spans="8:8">
+    <row r="361" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H361" s="53" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="362" spans="8:8">
+    <row r="362" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H362" s="53" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="363" spans="8:8">
+    <row r="363" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H363" s="53" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="364" spans="8:8">
+    <row r="364" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H364" s="53" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="365" spans="8:8">
+    <row r="365" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H365" s="53" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="366" spans="8:8">
+    <row r="366" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H366" s="53" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="367" spans="8:8">
+    <row r="367" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H367" s="53" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="368" spans="8:8">
+    <row r="368" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H368" s="53" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="369" spans="8:8">
+    <row r="369" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H369" s="53" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="370" spans="8:8">
+    <row r="370" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H370" s="53" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="371" spans="8:8">
+    <row r="371" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H371" s="53" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="372" spans="8:8">
+    <row r="372" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H372" s="53" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="373" spans="8:8">
+    <row r="373" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H373" s="53" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="374" spans="8:8">
+    <row r="374" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H374" s="53" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="375" spans="8:8">
+    <row r="375" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H375" s="53" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="376" spans="8:8">
+    <row r="376" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H376" s="53" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="377" spans="8:8">
+    <row r="377" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H377" s="53" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="378" spans="8:8">
+    <row r="378" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H378" s="53" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="379" spans="8:8">
+    <row r="379" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H379" s="53" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="380" spans="8:8">
+    <row r="380" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H380" s="53" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="381" spans="8:8">
+    <row r="381" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H381" s="53" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="382" spans="8:8">
+    <row r="382" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H382" s="53" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="383" spans="8:8">
+    <row r="383" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H383" s="53" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="384" spans="8:8">
+    <row r="384" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H384" s="53" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="385" spans="8:8">
+    <row r="385" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H385" s="53" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="386" spans="8:8">
+    <row r="386" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H386" s="53" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="387" spans="8:8">
+    <row r="387" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H387" s="53" t="e">
         <f t="shared" ref="H387:H450" si="6">INDEX(Companies,MATCH(G387,StationIDs,0),1)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="388" spans="8:8">
+    <row r="388" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H388" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="389" spans="8:8">
+    <row r="389" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H389" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="390" spans="8:8">
+    <row r="390" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H390" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="391" spans="8:8">
+    <row r="391" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H391" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="392" spans="8:8">
+    <row r="392" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H392" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="393" spans="8:8">
+    <row r="393" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H393" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="394" spans="8:8">
+    <row r="394" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H394" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="395" spans="8:8">
+    <row r="395" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H395" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="396" spans="8:8">
+    <row r="396" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H396" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="397" spans="8:8">
+    <row r="397" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H397" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="398" spans="8:8">
+    <row r="398" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H398" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="399" spans="8:8">
+    <row r="399" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H399" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="400" spans="8:8">
+    <row r="400" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H400" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="401" spans="8:8">
+    <row r="401" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H401" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="402" spans="8:8">
+    <row r="402" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H402" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="403" spans="8:8">
+    <row r="403" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H403" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="404" spans="8:8">
+    <row r="404" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H404" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="405" spans="8:8">
+    <row r="405" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H405" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="406" spans="8:8">
+    <row r="406" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H406" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="407" spans="8:8">
+    <row r="407" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H407" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="408" spans="8:8">
+    <row r="408" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H408" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="409" spans="8:8">
+    <row r="409" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H409" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="410" spans="8:8">
+    <row r="410" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H410" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="411" spans="8:8">
+    <row r="411" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H411" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="412" spans="8:8">
+    <row r="412" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H412" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="413" spans="8:8">
+    <row r="413" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H413" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="414" spans="8:8">
+    <row r="414" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H414" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="415" spans="8:8">
+    <row r="415" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H415" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="416" spans="8:8">
+    <row r="416" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H416" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="417" spans="8:8">
+    <row r="417" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H417" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="418" spans="8:8">
+    <row r="418" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H418" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="419" spans="8:8">
+    <row r="419" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H419" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="420" spans="8:8">
+    <row r="420" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H420" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="421" spans="8:8">
+    <row r="421" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H421" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="422" spans="8:8">
+    <row r="422" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H422" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="423" spans="8:8">
+    <row r="423" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H423" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="424" spans="8:8">
+    <row r="424" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H424" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="425" spans="8:8">
+    <row r="425" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H425" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="426" spans="8:8">
+    <row r="426" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H426" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="427" spans="8:8">
+    <row r="427" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H427" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="428" spans="8:8">
+    <row r="428" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H428" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="429" spans="8:8">
+    <row r="429" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H429" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="430" spans="8:8">
+    <row r="430" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H430" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="431" spans="8:8">
+    <row r="431" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H431" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="432" spans="8:8">
+    <row r="432" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H432" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="433" spans="8:8">
+    <row r="433" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H433" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="434" spans="8:8">
+    <row r="434" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H434" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="435" spans="8:8">
+    <row r="435" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H435" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="436" spans="8:8">
+    <row r="436" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H436" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="437" spans="8:8">
+    <row r="437" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H437" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="438" spans="8:8">
+    <row r="438" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H438" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="439" spans="8:8">
+    <row r="439" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H439" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="440" spans="8:8">
+    <row r="440" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H440" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="441" spans="8:8">
+    <row r="441" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H441" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="442" spans="8:8">
+    <row r="442" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H442" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="443" spans="8:8">
+    <row r="443" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H443" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="444" spans="8:8">
+    <row r="444" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H444" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="445" spans="8:8">
+    <row r="445" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H445" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="446" spans="8:8">
+    <row r="446" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H446" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="447" spans="8:8">
+    <row r="447" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H447" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="448" spans="8:8">
+    <row r="448" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H448" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="449" spans="8:8">
+    <row r="449" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H449" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="450" spans="8:8">
+    <row r="450" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H450" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="451" spans="8:8">
+    <row r="451" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H451" s="53" t="e">
         <f t="shared" ref="H451:H514" si="7">INDEX(Companies,MATCH(G451,StationIDs,0),1)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="452" spans="8:8">
+    <row r="452" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H452" s="53" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="453" spans="8:8">
+    <row r="453" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H453" s="53" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="454" spans="8:8">
+    <row r="454" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H454" s="53" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="455" spans="8:8">
+    <row r="455" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H455" s="53" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="456" spans="8:8">
+    <row r="456" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H456" s="53" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="457" spans="8:8">
+    <row r="457" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H457" s="53" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="458" spans="8:8">
+    <row r="458" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H458" s="53" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="459" spans="8:8">
+    <row r="459" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H459" s="53" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="460" spans="8:8">
+    <row r="460" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H460" s="53" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="461" spans="8:8">
+    <row r="461" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H461" s="53" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="462" spans="8:8">
+    <row r="462" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H462" s="53" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="463" spans="8:8">
+    <row r="463" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H463" s="53" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="464" spans="8:8">
+    <row r="464" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H464" s="53" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="465" spans="8:8">
+    <row r="465" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H465" s="53" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="466" spans="8:8">
+    <row r="466" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H466" s="53" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="467" spans="8:8">
+    <row r="467" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H467" s="53" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="468" spans="8:8">
+    <row r="468" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H468" s="53" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="469" spans="8:8">
+    <row r="469" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H469" s="53" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="470" spans="8:8">
+    <row r="470" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H470" s="53" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="471" spans="8:8">
+    <row r="471" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H471" s="53" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="472" spans="8:8">
+    <row r="472" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H472" s="53" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="473" spans="8:8">
+    <row r="473" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H473" s="53" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="474" spans="8:8">
+    <row r="474" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H474" s="53" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="475" spans="8:8">
+    <row r="475" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H475" s="53" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="476" spans="8:8">
+    <row r="476" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H476" s="53" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="477" spans="8:8">
+    <row r="477" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H477" s="53" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="478" spans="8:8">
+    <row r="478" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H478" s="53" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="479" spans="8:8">
+    <row r="479" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H479" s="53" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="480" spans="8:8">
+    <row r="480" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H480" s="53" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="481" spans="8:8">
+    <row r="481" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H481" s="53" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="482" spans="8:8">
+    <row r="482" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H482" s="53" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="483" spans="8:8">
+    <row r="483" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H483" s="53" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="484" spans="8:8">
+    <row r="484" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H484" s="53" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="485" spans="8:8">
+    <row r="485" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H485" s="53" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="486" spans="8:8">
+    <row r="486" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H486" s="53" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="487" spans="8:8">
+    <row r="487" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H487" s="53" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="488" spans="8:8">
+    <row r="488" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H488" s="53" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="489" spans="8:8">
+    <row r="489" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H489" s="53" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="490" spans="8:8">
+    <row r="490" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H490" s="53" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="491" spans="8:8">
+    <row r="491" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H491" s="53" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="492" spans="8:8">
+    <row r="492" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H492" s="53" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="493" spans="8:8">
+    <row r="493" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H493" s="53" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="494" spans="8:8">
+    <row r="494" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H494" s="53" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="495" spans="8:8">
+    <row r="495" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H495" s="53" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="496" spans="8:8">
+    <row r="496" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H496" s="53" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="497" spans="8:8">
+    <row r="497" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H497" s="53" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="498" spans="8:8">
+    <row r="498" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H498" s="53" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="499" spans="8:8">
+    <row r="499" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H499" s="53" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="500" spans="8:8">
+    <row r="500" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H500" s="53" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="501" spans="8:8">
+    <row r="501" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H501" s="53" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="502" spans="8:8">
+    <row r="502" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H502" s="53" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="503" spans="8:8">
+    <row r="503" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H503" s="53" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="504" spans="8:8">
+    <row r="504" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H504" s="53" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="505" spans="8:8">
+    <row r="505" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H505" s="53" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="506" spans="8:8">
+    <row r="506" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H506" s="53" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="507" spans="8:8">
+    <row r="507" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H507" s="53" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="508" spans="8:8">
+    <row r="508" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H508" s="53" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="509" spans="8:8">
+    <row r="509" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H509" s="53" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="510" spans="8:8">
+    <row r="510" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H510" s="53" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="511" spans="8:8">
+    <row r="511" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H511" s="53" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="512" spans="8:8">
+    <row r="512" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H512" s="53" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="513" spans="8:8">
+    <row r="513" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H513" s="53" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="514" spans="8:8">
+    <row r="514" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H514" s="53" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="515" spans="8:8">
+    <row r="515" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H515" s="53" t="e">
         <f t="shared" ref="H515:H578" si="8">INDEX(Companies,MATCH(G515,StationIDs,0),1)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="516" spans="8:8">
+    <row r="516" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H516" s="53" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="517" spans="8:8">
+    <row r="517" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H517" s="53" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="518" spans="8:8">
+    <row r="518" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H518" s="53" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="519" spans="8:8">
+    <row r="519" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H519" s="53" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="520" spans="8:8">
+    <row r="520" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H520" s="53" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="521" spans="8:8">
+    <row r="521" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H521" s="53" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="522" spans="8:8">
+    <row r="522" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H522" s="53" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="523" spans="8:8">
+    <row r="523" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H523" s="53" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="524" spans="8:8">
+    <row r="524" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H524" s="53" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="525" spans="8:8">
+    <row r="525" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H525" s="53" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="526" spans="8:8">
+    <row r="526" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H526" s="53" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="527" spans="8:8">
+    <row r="527" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H527" s="53" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="528" spans="8:8">
+    <row r="528" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H528" s="53" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="529" spans="8:8">
+    <row r="529" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H529" s="53" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="530" spans="8:8">
+    <row r="530" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H530" s="53" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="531" spans="8:8">
+    <row r="531" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H531" s="53" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="532" spans="8:8">
+    <row r="532" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H532" s="53" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="533" spans="8:8">
+    <row r="533" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H533" s="53" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="534" spans="8:8">
+    <row r="534" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H534" s="53" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="535" spans="8:8">
+    <row r="535" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H535" s="53" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="536" spans="8:8">
+    <row r="536" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H536" s="53" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="537" spans="8:8">
+    <row r="537" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H537" s="53" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="538" spans="8:8">
+    <row r="538" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H538" s="53" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="539" spans="8:8">
+    <row r="539" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H539" s="53" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="540" spans="8:8">
+    <row r="540" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H540" s="53" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="541" spans="8:8">
+    <row r="541" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H541" s="53" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="542" spans="8:8">
+    <row r="542" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H542" s="53" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="543" spans="8:8">
+    <row r="543" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H543" s="53" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="544" spans="8:8">
+    <row r="544" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H544" s="53" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="545" spans="8:8">
+    <row r="545" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H545" s="53" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="546" spans="8:8">
+    <row r="546" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H546" s="53" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="547" spans="8:8">
+    <row r="547" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H547" s="53" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="548" spans="8:8">
+    <row r="548" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H548" s="53" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="549" spans="8:8">
+    <row r="549" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H549" s="53" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="550" spans="8:8">
+    <row r="550" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H550" s="53" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="551" spans="8:8">
+    <row r="551" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H551" s="53" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="552" spans="8:8">
+    <row r="552" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H552" s="53" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="553" spans="8:8">
+    <row r="553" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H553" s="53" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="554" spans="8:8">
+    <row r="554" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H554" s="53" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="555" spans="8:8">
+    <row r="555" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H555" s="53" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="556" spans="8:8">
+    <row r="556" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H556" s="53" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="557" spans="8:8">
+    <row r="557" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H557" s="53" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="558" spans="8:8">
+    <row r="558" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H558" s="53" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="559" spans="8:8">
+    <row r="559" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H559" s="53" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="560" spans="8:8">
+    <row r="560" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H560" s="53" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="561" spans="8:8">
+    <row r="561" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H561" s="53" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="562" spans="8:8">
+    <row r="562" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H562" s="53" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="563" spans="8:8">
+    <row r="563" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H563" s="53" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="564" spans="8:8">
+    <row r="564" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H564" s="53" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="565" spans="8:8">
+    <row r="565" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H565" s="53" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="566" spans="8:8">
+    <row r="566" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H566" s="53" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="567" spans="8:8">
+    <row r="567" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H567" s="53" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="568" spans="8:8">
+    <row r="568" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H568" s="53" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="569" spans="8:8">
+    <row r="569" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H569" s="53" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="570" spans="8:8">
+    <row r="570" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H570" s="53" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="571" spans="8:8">
+    <row r="571" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H571" s="53" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="572" spans="8:8">
+    <row r="572" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H572" s="53" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="573" spans="8:8">
+    <row r="573" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H573" s="53" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="574" spans="8:8">
+    <row r="574" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H574" s="53" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="575" spans="8:8">
+    <row r="575" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H575" s="53" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="576" spans="8:8">
+    <row r="576" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H576" s="53" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="577" spans="8:8">
+    <row r="577" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H577" s="53" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="578" spans="8:8">
+    <row r="578" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H578" s="53" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="579" spans="8:8">
+    <row r="579" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H579" s="53" t="e">
         <f t="shared" ref="H579:H642" si="9">INDEX(Companies,MATCH(G579,StationIDs,0),1)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="580" spans="8:8">
+    <row r="580" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H580" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="581" spans="8:8">
+    <row r="581" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H581" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="582" spans="8:8">
+    <row r="582" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H582" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="583" spans="8:8">
+    <row r="583" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H583" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="584" spans="8:8">
+    <row r="584" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H584" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="585" spans="8:8">
+    <row r="585" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H585" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="586" spans="8:8">
+    <row r="586" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H586" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="587" spans="8:8">
+    <row r="587" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H587" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="588" spans="8:8">
+    <row r="588" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H588" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="589" spans="8:8">
+    <row r="589" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H589" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="590" spans="8:8">
+    <row r="590" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H590" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="591" spans="8:8">
+    <row r="591" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H591" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="592" spans="8:8">
+    <row r="592" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H592" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="593" spans="8:8">
+    <row r="593" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H593" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="594" spans="8:8">
+    <row r="594" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H594" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="595" spans="8:8">
+    <row r="595" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H595" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="596" spans="8:8">
+    <row r="596" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H596" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="597" spans="8:8">
+    <row r="597" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H597" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="598" spans="8:8">
+    <row r="598" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H598" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="599" spans="8:8">
+    <row r="599" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H599" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="600" spans="8:8">
+    <row r="600" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H600" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="601" spans="8:8">
+    <row r="601" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H601" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="602" spans="8:8">
+    <row r="602" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H602" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="603" spans="8:8">
+    <row r="603" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H603" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="604" spans="8:8">
+    <row r="604" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H604" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="605" spans="8:8">
+    <row r="605" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H605" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="606" spans="8:8">
+    <row r="606" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H606" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="607" spans="8:8">
+    <row r="607" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H607" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="608" spans="8:8">
+    <row r="608" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H608" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="609" spans="8:8">
+    <row r="609" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H609" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="610" spans="8:8">
+    <row r="610" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H610" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="611" spans="8:8">
+    <row r="611" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H611" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="612" spans="8:8">
+    <row r="612" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H612" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="613" spans="8:8">
+    <row r="613" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H613" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="614" spans="8:8">
+    <row r="614" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H614" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="615" spans="8:8">
+    <row r="615" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H615" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="616" spans="8:8">
+    <row r="616" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H616" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="617" spans="8:8">
+    <row r="617" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H617" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="618" spans="8:8">
+    <row r="618" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H618" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="619" spans="8:8">
+    <row r="619" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H619" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="620" spans="8:8">
+    <row r="620" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H620" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="621" spans="8:8">
+    <row r="621" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H621" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="622" spans="8:8">
+    <row r="622" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H622" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="623" spans="8:8">
+    <row r="623" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H623" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="624" spans="8:8">
+    <row r="624" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H624" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="625" spans="8:8">
+    <row r="625" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H625" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="626" spans="8:8">
+    <row r="626" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H626" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="627" spans="8:8">
+    <row r="627" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H627" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="628" spans="8:8">
+    <row r="628" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H628" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="629" spans="8:8">
+    <row r="629" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H629" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="630" spans="8:8">
+    <row r="630" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H630" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="631" spans="8:8">
+    <row r="631" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H631" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="632" spans="8:8">
+    <row r="632" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H632" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="633" spans="8:8">
+    <row r="633" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H633" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="634" spans="8:8">
+    <row r="634" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H634" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="635" spans="8:8">
+    <row r="635" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H635" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="636" spans="8:8">
+    <row r="636" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H636" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="637" spans="8:8">
+    <row r="637" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H637" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="638" spans="8:8">
+    <row r="638" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H638" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="639" spans="8:8">
+    <row r="639" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H639" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="640" spans="8:8">
+    <row r="640" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H640" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="641" spans="8:8">
+    <row r="641" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H641" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="642" spans="8:8">
+    <row r="642" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H642" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="643" spans="8:8">
+    <row r="643" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H643" s="53" t="e">
         <f t="shared" ref="H643:H706" si="10">INDEX(Companies,MATCH(G643,StationIDs,0),1)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="644" spans="8:8">
+    <row r="644" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H644" s="53" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="645" spans="8:8">
+    <row r="645" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H645" s="53" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="646" spans="8:8">
+    <row r="646" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H646" s="53" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="647" spans="8:8">
+    <row r="647" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H647" s="53" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="648" spans="8:8">
+    <row r="648" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H648" s="53" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="649" spans="8:8">
+    <row r="649" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H649" s="53" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="650" spans="8:8">
+    <row r="650" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H650" s="53" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="651" spans="8:8">
+    <row r="651" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H651" s="53" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="652" spans="8:8">
+    <row r="652" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H652" s="53" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="653" spans="8:8">
+    <row r="653" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H653" s="53" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="654" spans="8:8">
+    <row r="654" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H654" s="53" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="655" spans="8:8">
+    <row r="655" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H655" s="53" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="656" spans="8:8">
+    <row r="656" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H656" s="53" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="657" spans="8:8">
+    <row r="657" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H657" s="53" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="658" spans="8:8">
+    <row r="658" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H658" s="53" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="659" spans="8:8">
+    <row r="659" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H659" s="53" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="660" spans="8:8">
+    <row r="660" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H660" s="53" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="661" spans="8:8">
+    <row r="661" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H661" s="53" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="662" spans="8:8">
+    <row r="662" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H662" s="53" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="663" spans="8:8">
+    <row r="663" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H663" s="53" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="664" spans="8:8">
+    <row r="664" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H664" s="53" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="665" spans="8:8">
+    <row r="665" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H665" s="53" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="666" spans="8:8">
+    <row r="666" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H666" s="53" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="667" spans="8:8">
+    <row r="667" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H667" s="53" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="668" spans="8:8">
+    <row r="668" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H668" s="53" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="669" spans="8:8">
+    <row r="669" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H669" s="53" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="670" spans="8:8">
+    <row r="670" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H670" s="53" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="671" spans="8:8">
+    <row r="671" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H671" s="53" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="672" spans="8:8">
+    <row r="672" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H672" s="53" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="673" spans="8:8">
+    <row r="673" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H673" s="53" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="674" spans="8:8">
+    <row r="674" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H674" s="53" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="675" spans="8:8">
+    <row r="675" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H675" s="53" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="676" spans="8:8">
+    <row r="676" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H676" s="53" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="677" spans="8:8">
+    <row r="677" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H677" s="53" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="678" spans="8:8">
+    <row r="678" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H678" s="53" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="679" spans="8:8">
+    <row r="679" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H679" s="53" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="680" spans="8:8">
+    <row r="680" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H680" s="53" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="681" spans="8:8">
+    <row r="681" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H681" s="53" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="682" spans="8:8">
+    <row r="682" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H682" s="53" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="683" spans="8:8">
+    <row r="683" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H683" s="53" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="684" spans="8:8">
+    <row r="684" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H684" s="53" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="685" spans="8:8">
+    <row r="685" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H685" s="53" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="686" spans="8:8">
+    <row r="686" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H686" s="53" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="687" spans="8:8">
+    <row r="687" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H687" s="53" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="688" spans="8:8">
+    <row r="688" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H688" s="53" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="689" spans="8:8">
+    <row r="689" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H689" s="53" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="690" spans="8:8">
+    <row r="690" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H690" s="53" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="691" spans="8:8">
+    <row r="691" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H691" s="53" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="692" spans="8:8">
+    <row r="692" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H692" s="53" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="693" spans="8:8">
+    <row r="693" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H693" s="53" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="694" spans="8:8">
+    <row r="694" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H694" s="53" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="695" spans="8:8">
+    <row r="695" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H695" s="53" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="696" spans="8:8">
+    <row r="696" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H696" s="53" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="697" spans="8:8">
+    <row r="697" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H697" s="53" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="698" spans="8:8">
+    <row r="698" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H698" s="53" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="699" spans="8:8">
+    <row r="699" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H699" s="53" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="700" spans="8:8">
+    <row r="700" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H700" s="53" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="701" spans="8:8">
+    <row r="701" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H701" s="53" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="702" spans="8:8">
+    <row r="702" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H702" s="53" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="703" spans="8:8">
+    <row r="703" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H703" s="53" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="704" spans="8:8">
+    <row r="704" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H704" s="53" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="705" spans="8:8">
+    <row r="705" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H705" s="53" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="706" spans="8:8">
+    <row r="706" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H706" s="53" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="707" spans="8:8">
+    <row r="707" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H707" s="53" t="e">
         <f t="shared" ref="H707:H770" si="11">INDEX(Companies,MATCH(G707,StationIDs,0),1)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="708" spans="8:8">
+    <row r="708" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H708" s="53" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="709" spans="8:8">
+    <row r="709" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H709" s="53" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="710" spans="8:8">
+    <row r="710" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H710" s="53" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="711" spans="8:8">
+    <row r="711" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H711" s="53" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="712" spans="8:8">
+    <row r="712" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H712" s="53" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="713" spans="8:8">
+    <row r="713" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H713" s="53" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="714" spans="8:8">
+    <row r="714" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H714" s="53" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="715" spans="8:8">
+    <row r="715" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H715" s="53" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="716" spans="8:8">
+    <row r="716" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H716" s="53" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="717" spans="8:8">
+    <row r="717" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H717" s="53" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="718" spans="8:8">
+    <row r="718" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H718" s="53" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="719" spans="8:8">
+    <row r="719" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H719" s="53" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="720" spans="8:8">
+    <row r="720" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H720" s="53" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="721" spans="8:8">
+    <row r="721" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H721" s="53" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="722" spans="8:8">
+    <row r="722" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H722" s="53" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="723" spans="8:8">
+    <row r="723" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H723" s="53" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="724" spans="8:8">
+    <row r="724" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H724" s="53" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="725" spans="8:8">
+    <row r="725" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H725" s="53" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="726" spans="8:8">
+    <row r="726" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H726" s="53" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="727" spans="8:8">
+    <row r="727" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H727" s="53" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="728" spans="8:8">
+    <row r="728" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H728" s="53" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="729" spans="8:8">
+    <row r="729" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H729" s="53" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="730" spans="8:8">
+    <row r="730" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H730" s="53" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="731" spans="8:8">
+    <row r="731" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H731" s="53" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="732" spans="8:8">
+    <row r="732" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H732" s="53" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="733" spans="8:8">
+    <row r="733" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H733" s="53" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="734" spans="8:8">
+    <row r="734" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H734" s="53" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="735" spans="8:8">
+    <row r="735" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H735" s="53" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="736" spans="8:8">
+    <row r="736" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H736" s="53" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="737" spans="8:8">
+    <row r="737" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H737" s="53" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="738" spans="8:8">
+    <row r="738" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H738" s="53" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="739" spans="8:8">
+    <row r="739" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H739" s="53" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="740" spans="8:8">
+    <row r="740" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H740" s="53" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="741" spans="8:8">
+    <row r="741" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H741" s="53" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="742" spans="8:8">
+    <row r="742" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H742" s="53" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="743" spans="8:8">
+    <row r="743" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H743" s="53" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="744" spans="8:8">
+    <row r="744" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H744" s="53" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="745" spans="8:8">
+    <row r="745" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H745" s="53" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="746" spans="8:8">
+    <row r="746" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H746" s="53" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="747" spans="8:8">
+    <row r="747" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H747" s="53" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="748" spans="8:8">
+    <row r="748" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H748" s="53" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="749" spans="8:8">
+    <row r="749" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H749" s="53" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="750" spans="8:8">
+    <row r="750" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H750" s="53" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="751" spans="8:8">
+    <row r="751" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H751" s="53" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="752" spans="8:8">
+    <row r="752" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H752" s="53" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="753" spans="8:8">
+    <row r="753" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H753" s="53" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="754" spans="8:8">
+    <row r="754" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H754" s="53" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="755" spans="8:8">
+    <row r="755" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H755" s="53" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="756" spans="8:8">
+    <row r="756" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H756" s="53" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="757" spans="8:8">
+    <row r="757" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H757" s="53" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="758" spans="8:8">
+    <row r="758" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H758" s="53" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="759" spans="8:8">
+    <row r="759" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H759" s="53" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="760" spans="8:8">
+    <row r="760" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H760" s="53" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="761" spans="8:8">
+    <row r="761" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H761" s="53" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="762" spans="8:8">
+    <row r="762" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H762" s="53" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="763" spans="8:8">
+    <row r="763" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H763" s="53" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="764" spans="8:8">
+    <row r="764" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H764" s="53" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="765" spans="8:8">
+    <row r="765" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H765" s="53" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="766" spans="8:8">
+    <row r="766" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H766" s="53" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="767" spans="8:8">
+    <row r="767" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H767" s="53" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="768" spans="8:8">
+    <row r="768" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H768" s="53" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="769" spans="8:8">
+    <row r="769" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H769" s="53" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="770" spans="8:8">
+    <row r="770" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H770" s="53" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="771" spans="8:8">
+    <row r="771" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H771" s="53" t="e">
         <f t="shared" ref="H771:H834" si="12">INDEX(Companies,MATCH(G771,StationIDs,0),1)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="772" spans="8:8">
+    <row r="772" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H772" s="53" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="773" spans="8:8">
+    <row r="773" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H773" s="53" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="774" spans="8:8">
+    <row r="774" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H774" s="53" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="775" spans="8:8">
+    <row r="775" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H775" s="53" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="776" spans="8:8">
+    <row r="776" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H776" s="53" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="777" spans="8:8">
+    <row r="777" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H777" s="53" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="778" spans="8:8">
+    <row r="778" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H778" s="53" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="779" spans="8:8">
+    <row r="779" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H779" s="53" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="780" spans="8:8">
+    <row r="780" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H780" s="53" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="781" spans="8:8">
+    <row r="781" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H781" s="53" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="782" spans="8:8">
+    <row r="782" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H782" s="53" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="783" spans="8:8">
+    <row r="783" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H783" s="53" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="784" spans="8:8">
+    <row r="784" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H784" s="53" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="785" spans="8:8">
+    <row r="785" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H785" s="53" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="786" spans="8:8">
+    <row r="786" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H786" s="53" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="787" spans="8:8">
+    <row r="787" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H787" s="53" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="788" spans="8:8">
+    <row r="788" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H788" s="53" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="789" spans="8:8">
+    <row r="789" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H789" s="53" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="790" spans="8:8">
+    <row r="790" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H790" s="53" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="791" spans="8:8">
+    <row r="791" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H791" s="53" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="792" spans="8:8">
+    <row r="792" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H792" s="53" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="793" spans="8:8">
+    <row r="793" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H793" s="53" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="794" spans="8:8">
+    <row r="794" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H794" s="53" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="795" spans="8:8">
+    <row r="795" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H795" s="53" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="796" spans="8:8">
+    <row r="796" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H796" s="53" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="797" spans="8:8">
+    <row r="797" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H797" s="53" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="798" spans="8:8">
+    <row r="798" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H798" s="53" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="799" spans="8:8">
+    <row r="799" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H799" s="53" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="800" spans="8:8">
+    <row r="800" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H800" s="53" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="801" spans="8:8">
+    <row r="801" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H801" s="53" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="802" spans="8:8">
+    <row r="802" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H802" s="53" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="803" spans="8:8">
+    <row r="803" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H803" s="53" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="804" spans="8:8">
+    <row r="804" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H804" s="53" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="805" spans="8:8">
+    <row r="805" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H805" s="53" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="806" spans="8:8">
+    <row r="806" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H806" s="53" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="807" spans="8:8">
+    <row r="807" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H807" s="53" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="808" spans="8:8">
+    <row r="808" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H808" s="53" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="809" spans="8:8">
+    <row r="809" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H809" s="53" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="810" spans="8:8">
+    <row r="810" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H810" s="53" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="811" spans="8:8">
+    <row r="811" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H811" s="53" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="812" spans="8:8">
+    <row r="812" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H812" s="53" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="813" spans="8:8">
+    <row r="813" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H813" s="53" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="814" spans="8:8">
+    <row r="814" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H814" s="53" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="815" spans="8:8">
+    <row r="815" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H815" s="53" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="816" spans="8:8">
+    <row r="816" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H816" s="53" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="817" spans="8:8">
+    <row r="817" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H817" s="53" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="818" spans="8:8">
+    <row r="818" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H818" s="53" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="819" spans="8:8">
+    <row r="819" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H819" s="53" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="820" spans="8:8">
+    <row r="820" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H820" s="53" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="821" spans="8:8">
+    <row r="821" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H821" s="53" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="822" spans="8:8">
+    <row r="822" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H822" s="53" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="823" spans="8:8">
+    <row r="823" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H823" s="53" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="824" spans="8:8">
+    <row r="824" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H824" s="53" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="825" spans="8:8">
+    <row r="825" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H825" s="53" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="826" spans="8:8">
+    <row r="826" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H826" s="53" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="827" spans="8:8">
+    <row r="827" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H827" s="53" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="828" spans="8:8">
+    <row r="828" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H828" s="53" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="829" spans="8:8">
+    <row r="829" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H829" s="53" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="830" spans="8:8">
+    <row r="830" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H830" s="53" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="831" spans="8:8">
+    <row r="831" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H831" s="53" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="832" spans="8:8">
+    <row r="832" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H832" s="53" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="833" spans="8:8">
+    <row r="833" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H833" s="53" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="834" spans="8:8">
+    <row r="834" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H834" s="53" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="835" spans="8:8">
+    <row r="835" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H835" s="53" t="e">
         <f t="shared" ref="H835:H898" si="13">INDEX(Companies,MATCH(G835,StationIDs,0),1)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="836" spans="8:8">
+    <row r="836" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H836" s="53" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="837" spans="8:8">
+    <row r="837" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H837" s="53" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="838" spans="8:8">
+    <row r="838" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H838" s="53" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="839" spans="8:8">
+    <row r="839" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H839" s="53" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="840" spans="8:8">
+    <row r="840" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H840" s="53" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="841" spans="8:8">
+    <row r="841" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H841" s="53" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="842" spans="8:8">
+    <row r="842" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H842" s="53" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="843" spans="8:8">
+    <row r="843" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H843" s="53" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="844" spans="8:8">
+    <row r="844" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H844" s="53" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="845" spans="8:8">
+    <row r="845" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H845" s="53" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="846" spans="8:8">
+    <row r="846" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H846" s="53" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="847" spans="8:8">
+    <row r="847" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H847" s="53" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="848" spans="8:8">
+    <row r="848" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H848" s="53" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="849" spans="8:8">
+    <row r="849" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H849" s="53" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="850" spans="8:8">
+    <row r="850" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H850" s="53" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="851" spans="8:8">
+    <row r="851" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H851" s="53" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="852" spans="8:8">
+    <row r="852" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H852" s="53" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="853" spans="8:8">
+    <row r="853" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H853" s="53" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="854" spans="8:8">
+    <row r="854" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H854" s="53" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="855" spans="8:8">
+    <row r="855" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H855" s="53" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="856" spans="8:8">
+    <row r="856" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H856" s="53" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="857" spans="8:8">
+    <row r="857" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H857" s="53" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="858" spans="8:8">
+    <row r="858" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H858" s="53" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="859" spans="8:8">
+    <row r="859" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H859" s="53" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="860" spans="8:8">
+    <row r="860" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H860" s="53" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="861" spans="8:8">
+    <row r="861" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H861" s="53" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="862" spans="8:8">
+    <row r="862" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H862" s="53" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="863" spans="8:8">
+    <row r="863" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H863" s="53" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="864" spans="8:8">
+    <row r="864" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H864" s="53" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="865" spans="8:8">
+    <row r="865" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H865" s="53" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="866" spans="8:8">
+    <row r="866" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H866" s="53" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="867" spans="8:8">
+    <row r="867" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H867" s="53" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="868" spans="8:8">
+    <row r="868" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H868" s="53" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="869" spans="8:8">
+    <row r="869" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H869" s="53" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="870" spans="8:8">
+    <row r="870" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H870" s="53" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="871" spans="8:8">
+    <row r="871" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H871" s="53" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="872" spans="8:8">
+    <row r="872" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H872" s="53" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="873" spans="8:8">
+    <row r="873" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H873" s="53" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="874" spans="8:8">
+    <row r="874" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H874" s="53" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="875" spans="8:8">
+    <row r="875" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H875" s="53" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="876" spans="8:8">
+    <row r="876" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H876" s="53" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="877" spans="8:8">
+    <row r="877" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H877" s="53" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="878" spans="8:8">
+    <row r="878" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H878" s="53" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="879" spans="8:8">
+    <row r="879" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H879" s="53" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="880" spans="8:8">
+    <row r="880" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H880" s="53" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="881" spans="8:8">
+    <row r="881" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H881" s="53" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="882" spans="8:8">
+    <row r="882" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H882" s="53" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="883" spans="8:8">
+    <row r="883" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H883" s="53" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="884" spans="8:8">
+    <row r="884" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H884" s="53" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="885" spans="8:8">
+    <row r="885" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H885" s="53" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="886" spans="8:8">
+    <row r="886" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H886" s="53" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="887" spans="8:8">
+    <row r="887" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H887" s="53" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="888" spans="8:8">
+    <row r="888" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H888" s="53" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="889" spans="8:8">
+    <row r="889" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H889" s="53" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="890" spans="8:8">
+    <row r="890" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H890" s="53" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="891" spans="8:8">
+    <row r="891" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H891" s="53" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="892" spans="8:8">
+    <row r="892" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H892" s="53" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="893" spans="8:8">
+    <row r="893" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H893" s="53" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="894" spans="8:8">
+    <row r="894" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H894" s="53" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="895" spans="8:8">
+    <row r="895" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H895" s="53" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="896" spans="8:8">
+    <row r="896" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H896" s="53" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="897" spans="8:8">
+    <row r="897" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H897" s="53" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="898" spans="8:8">
+    <row r="898" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H898" s="53" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="899" spans="8:8">
+    <row r="899" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H899" s="53" t="e">
         <f t="shared" ref="H899:H962" si="14">INDEX(Companies,MATCH(G899,StationIDs,0),1)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="900" spans="8:8">
+    <row r="900" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H900" s="53" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="901" spans="8:8">
+    <row r="901" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H901" s="53" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="902" spans="8:8">
+    <row r="902" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H902" s="53" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="903" spans="8:8">
+    <row r="903" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H903" s="53" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="904" spans="8:8">
+    <row r="904" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H904" s="53" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="905" spans="8:8">
+    <row r="905" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H905" s="53" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="906" spans="8:8">
+    <row r="906" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H906" s="53" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="907" spans="8:8">
+    <row r="907" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H907" s="53" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="908" spans="8:8">
+    <row r="908" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H908" s="53" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="909" spans="8:8">
+    <row r="909" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H909" s="53" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="910" spans="8:8">
+    <row r="910" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H910" s="53" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="911" spans="8:8">
+    <row r="911" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H911" s="53" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="912" spans="8:8">
+    <row r="912" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H912" s="53" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="913" spans="8:8">
+    <row r="913" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H913" s="53" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="914" spans="8:8">
+    <row r="914" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H914" s="53" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="915" spans="8:8">
+    <row r="915" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H915" s="53" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="916" spans="8:8">
+    <row r="916" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H916" s="53" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="917" spans="8:8">
+    <row r="917" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H917" s="53" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="918" spans="8:8">
+    <row r="918" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H918" s="53" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="919" spans="8:8">
+    <row r="919" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H919" s="53" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="920" spans="8:8">
+    <row r="920" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H920" s="53" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="921" spans="8:8">
+    <row r="921" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H921" s="53" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="922" spans="8:8">
+    <row r="922" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H922" s="53" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="923" spans="8:8">
+    <row r="923" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H923" s="53" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="924" spans="8:8">
+    <row r="924" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H924" s="53" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="925" spans="8:8">
+    <row r="925" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H925" s="53" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="926" spans="8:8">
+    <row r="926" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H926" s="53" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="927" spans="8:8">
+    <row r="927" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H927" s="53" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="928" spans="8:8">
+    <row r="928" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H928" s="53" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="929" spans="8:8">
+    <row r="929" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H929" s="53" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="930" spans="8:8">
+    <row r="930" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H930" s="53" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="931" spans="8:8">
+    <row r="931" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H931" s="53" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="932" spans="8:8">
+    <row r="932" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H932" s="53" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="933" spans="8:8">
+    <row r="933" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H933" s="53" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="934" spans="8:8">
+    <row r="934" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H934" s="53" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="935" spans="8:8">
+    <row r="935" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H935" s="53" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="936" spans="8:8">
+    <row r="936" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H936" s="53" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="937" spans="8:8">
+    <row r="937" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H937" s="53" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="938" spans="8:8">
+    <row r="938" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H938" s="53" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="939" spans="8:8">
+    <row r="939" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H939" s="53" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="940" spans="8:8">
+    <row r="940" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H940" s="53" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="941" spans="8:8">
+    <row r="941" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H941" s="53" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="942" spans="8:8">
+    <row r="942" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H942" s="53" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="943" spans="8:8">
+    <row r="943" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H943" s="53" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="944" spans="8:8">
+    <row r="944" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H944" s="53" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="945" spans="8:8">
+    <row r="945" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H945" s="53" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="946" spans="8:8">
+    <row r="946" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H946" s="53" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="947" spans="8:8">
+    <row r="947" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H947" s="53" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="948" spans="8:8">
+    <row r="948" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H948" s="53" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="949" spans="8:8">
+    <row r="949" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H949" s="53" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="950" spans="8:8">
+    <row r="950" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H950" s="53" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="951" spans="8:8">
+    <row r="951" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H951" s="53" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="952" spans="8:8">
+    <row r="952" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H952" s="53" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="953" spans="8:8">
+    <row r="953" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H953" s="53" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="954" spans="8:8">
+    <row r="954" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H954" s="53" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="955" spans="8:8">
+    <row r="955" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H955" s="53" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="956" spans="8:8">
+    <row r="956" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H956" s="53" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="957" spans="8:8">
+    <row r="957" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H957" s="53" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="958" spans="8:8">
+    <row r="958" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H958" s="53" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="959" spans="8:8">
+    <row r="959" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H959" s="53" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="960" spans="8:8">
+    <row r="960" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H960" s="53" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="961" spans="8:8">
+    <row r="961" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H961" s="53" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="962" spans="8:8">
+    <row r="962" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H962" s="53" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="963" spans="8:8">
+    <row r="963" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H963" s="53" t="e">
         <f t="shared" ref="H963:H1000" si="15">INDEX(Companies,MATCH(G963,StationIDs,0),1)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="964" spans="8:8">
+    <row r="964" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H964" s="53" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="965" spans="8:8">
+    <row r="965" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H965" s="53" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="966" spans="8:8">
+    <row r="966" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H966" s="53" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="967" spans="8:8">
+    <row r="967" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H967" s="53" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="968" spans="8:8">
+    <row r="968" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H968" s="53" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="969" spans="8:8">
+    <row r="969" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H969" s="53" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="970" spans="8:8">
+    <row r="970" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H970" s="53" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="971" spans="8:8">
+    <row r="971" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H971" s="53" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="972" spans="8:8">
+    <row r="972" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H972" s="53" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="973" spans="8:8">
+    <row r="973" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H973" s="53" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="974" spans="8:8">
+    <row r="974" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H974" s="53" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="975" spans="8:8">
+    <row r="975" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H975" s="53" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="976" spans="8:8">
+    <row r="976" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H976" s="53" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="977" spans="8:8">
+    <row r="977" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H977" s="53" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="978" spans="8:8">
+    <row r="978" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H978" s="53" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="979" spans="8:8">
+    <row r="979" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H979" s="53" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="980" spans="8:8">
+    <row r="980" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H980" s="53" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="981" spans="8:8">
+    <row r="981" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H981" s="53" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="982" spans="8:8">
+    <row r="982" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H982" s="53" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="983" spans="8:8">
+    <row r="983" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H983" s="53" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="984" spans="8:8">
+    <row r="984" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H984" s="53" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="985" spans="8:8">
+    <row r="985" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H985" s="53" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="986" spans="8:8">
+    <row r="986" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H986" s="53" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="987" spans="8:8">
+    <row r="987" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H987" s="53" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="988" spans="8:8">
+    <row r="988" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H988" s="53" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="989" spans="8:8">
+    <row r="989" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H989" s="53" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="990" spans="8:8">
+    <row r="990" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H990" s="53" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="991" spans="8:8">
+    <row r="991" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H991" s="53" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="992" spans="8:8">
+    <row r="992" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H992" s="53" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="993" spans="8:8">
+    <row r="993" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H993" s="53" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="994" spans="8:8">
+    <row r="994" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H994" s="53" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="995" spans="8:8">
+    <row r="995" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H995" s="53" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="996" spans="8:8">
+    <row r="996" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H996" s="53" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="997" spans="8:8">
+    <row r="997" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H997" s="53" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="998" spans="8:8">
+    <row r="998" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H998" s="53" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="999" spans="8:8">
+    <row r="999" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H999" s="53" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1000" spans="8:8">
+    <row r="1000" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H1000" s="53" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -11239,7 +11254,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="45.85546875" style="2" customWidth="1"/>
@@ -11248,9 +11263,9 @@
     <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>14</v>
@@ -11262,124 +11277,124 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="D2" s="13"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3"/>
       <c r="D3" s="13"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4"/>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5"/>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6"/>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7"/>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8"/>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9"/>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10"/>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11"/>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D15" s="7"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="4:4">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="4:4">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="4:4">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="4:4">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="4:4">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D21" s="7"/>
     </row>
-    <row r="22" spans="4:4">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D22" s="7"/>
     </row>
-    <row r="23" spans="4:4">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="4:4">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="4:4">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D25" s="7"/>
     </row>
-    <row r="26" spans="4:4">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D26" s="7"/>
     </row>
-    <row r="27" spans="4:4">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D27" s="9"/>
     </row>
-    <row r="28" spans="4:4">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D28" s="7"/>
     </row>
-    <row r="29" spans="4:4">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D29" s="10"/>
     </row>
-    <row r="30" spans="4:4">
+    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D30" s="10"/>
     </row>
-    <row r="31" spans="4:4">
+    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D31" s="10"/>
     </row>
-    <row r="32" spans="4:4">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D32" s="10"/>
     </row>
-    <row r="33" spans="4:4">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33" s="10"/>
     </row>
-    <row r="34" spans="4:4">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D34" s="10"/>
     </row>
   </sheetData>
@@ -11390,47 +11405,52 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="108.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="48.140625" style="2" customWidth="1"/>
     <col min="3" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="B3" s="166" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="75">
-      <c r="A5" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="12"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/BfR_Format_Backtrace.xlsx
+++ b/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/BfR_Format_Backtrace.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="52">
   <si>
     <t>Supplier</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>Type of business</t>
-  </si>
-  <si>
-    <t>Reporting Date</t>
   </si>
   <si>
     <t>Type of Business</t>
@@ -183,6 +180,9 @@
   </si>
   <si>
     <t>Optionaly it is possible to give information on further yet unknown forwards deliveries for each requested lot</t>
+  </si>
+  <si>
+    <t>Reporting Date: Day</t>
   </si>
 </sst>
 </file>
@@ -659,7 +659,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="62">
+  <borders count="63">
     <border>
       <left/>
       <right/>
@@ -1464,6 +1464,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1581,7 +1592,7 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="38" fillId="31" borderId="61" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
@@ -1855,54 +1866,148 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="30" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="30" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="30" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="30" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1930,140 +2035,47 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="30" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="30" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="30" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2082,9 +2094,11 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="114">
     <cellStyle name="20% - Accent1 2" xfId="4"/>
@@ -2533,7 +2547,7 @@
         <v>10</v>
       </c>
       <c r="E1" s="84" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F1" s="84" t="s">
         <v>7</v>
@@ -2551,7 +2565,7 @@
         <v>12</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L1" s="16"/>
       <c r="M1" s="16"/>
@@ -2587,16 +2601,16 @@
   <dimension ref="A1:V106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.7109375" style="21" customWidth="1"/>
     <col min="2" max="2" width="24" style="21" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="21" customWidth="1"/>
-    <col min="4" max="4" width="7" style="21" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="21" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="21" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="21" customWidth="1"/>
     <col min="6" max="6" width="6" style="21" customWidth="1"/>
     <col min="7" max="7" width="7.5703125" style="21" customWidth="1"/>
     <col min="8" max="8" width="7.85546875" style="21" customWidth="1"/>
@@ -2611,14 +2625,14 @@
     <col min="17" max="16384" width="11.42578125" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="116" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+    <row r="1" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="165" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
       <c r="F1" s="37"/>
       <c r="G1" s="37"/>
       <c r="H1" s="37"/>
@@ -2633,19 +2647,25 @@
         <v>11</v>
       </c>
       <c r="B2" s="67" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="68" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="41"/>
+        <v>51</v>
+      </c>
+      <c r="C2" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="68" t="s">
+        <v>17</v>
+      </c>
       <c r="M2" s="60"/>
     </row>
     <row r="3" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="31"/>
       <c r="B3" s="32"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="41"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="43"/>
       <c r="M3" s="60"/>
     </row>
     <row r="4" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2657,7 +2677,7 @@
     </row>
     <row r="5" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="69" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="59"/>
       <c r="C5" s="58" t="e">
@@ -2679,23 +2699,23 @@
       <c r="M6" s="21"/>
     </row>
     <row r="7" spans="1:22" s="42" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="143" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="144"/>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="144"/>
-      <c r="I7" s="144"/>
-      <c r="J7" s="144"/>
-      <c r="K7" s="144"/>
-      <c r="L7" s="144"/>
+      <c r="A7" s="136" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="137"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="137"/>
+      <c r="L7" s="137"/>
       <c r="M7" s="71"/>
       <c r="N7" s="70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O7" s="72"/>
       <c r="P7" s="72"/>
@@ -2707,84 +2727,84 @@
       <c r="V7" s="73"/>
     </row>
     <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="133" t="s">
+      <c r="A8" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="137" t="s">
+      <c r="B8" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="124" t="s">
+      <c r="C8" s="115" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="116"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="125"/>
-      <c r="E8" s="126"/>
-      <c r="F8" s="121" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="122"/>
-      <c r="H8" s="123"/>
-      <c r="I8" s="119" t="s">
+      <c r="G8" s="113"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="111" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="99"/>
+      <c r="K8" s="120" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="145" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" s="122" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="120"/>
-      <c r="K8" s="129" t="s">
-        <v>39</v>
-      </c>
-      <c r="L8" s="112" t="s">
-        <v>39</v>
-      </c>
-      <c r="M8" s="131" t="s">
-        <v>43</v>
-      </c>
-      <c r="N8" s="135"/>
-      <c r="O8" s="99"/>
-      <c r="P8" s="99"/>
-      <c r="Q8" s="99"/>
-      <c r="R8" s="99"/>
-      <c r="S8" s="99"/>
-      <c r="T8" s="99"/>
-      <c r="U8" s="99"/>
-      <c r="V8" s="103"/>
+      <c r="N8" s="126"/>
+      <c r="O8" s="134"/>
+      <c r="P8" s="134"/>
+      <c r="Q8" s="134"/>
+      <c r="R8" s="134"/>
+      <c r="S8" s="134"/>
+      <c r="T8" s="134"/>
+      <c r="U8" s="134"/>
+      <c r="V8" s="147"/>
     </row>
     <row r="9" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="134"/>
-      <c r="B9" s="138"/>
+      <c r="A9" s="125"/>
+      <c r="B9" s="129"/>
       <c r="C9" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="74" t="s">
+      <c r="E9" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="74" t="s">
+      <c r="F9" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="75" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="76" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="75" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="75" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="75" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="76" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="130"/>
-      <c r="L9" s="113"/>
-      <c r="M9" s="132"/>
-      <c r="N9" s="136"/>
-      <c r="O9" s="100"/>
-      <c r="P9" s="100"/>
-      <c r="Q9" s="100"/>
-      <c r="R9" s="100"/>
-      <c r="S9" s="100"/>
-      <c r="T9" s="100"/>
-      <c r="U9" s="100"/>
-      <c r="V9" s="104"/>
+      <c r="K9" s="121"/>
+      <c r="L9" s="146"/>
+      <c r="M9" s="123"/>
+      <c r="N9" s="127"/>
+      <c r="O9" s="135"/>
+      <c r="P9" s="135"/>
+      <c r="Q9" s="135"/>
+      <c r="R9" s="135"/>
+      <c r="S9" s="135"/>
+      <c r="T9" s="135"/>
+      <c r="U9" s="135"/>
+      <c r="V9" s="148"/>
     </row>
     <row r="10" spans="1:22" s="42" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="49"/>
@@ -2825,11 +2845,11 @@
       <c r="M11" s="42"/>
     </row>
     <row r="12" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="116" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="127"/>
-      <c r="C12" s="128"/>
+      <c r="A12" s="110" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="118"/>
+      <c r="C12" s="119"/>
       <c r="D12" s="62"/>
       <c r="E12" s="62"/>
       <c r="F12" s="62"/>
@@ -2841,7 +2861,7 @@
       <c r="L12" s="62"/>
       <c r="M12" s="60"/>
       <c r="N12" s="50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O12" s="38"/>
       <c r="P12" s="38"/>
@@ -2853,50 +2873,50 @@
       <c r="V12" s="39"/>
     </row>
     <row r="13" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="141" t="s">
+      <c r="A13" s="132" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="130" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="131"/>
+      <c r="M13" s="60"/>
+      <c r="N13" s="141" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="139" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="140"/>
-      <c r="M13" s="60"/>
-      <c r="N13" s="108" t="s">
+      <c r="O13" s="143" t="s">
         <v>34</v>
       </c>
-      <c r="O13" s="110" t="s">
-        <v>35</v>
-      </c>
-      <c r="P13" s="110" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q13" s="114" t="s">
-        <v>17</v>
-      </c>
-      <c r="R13" s="96"/>
-      <c r="S13" s="96"/>
-      <c r="T13" s="98"/>
-      <c r="U13" s="99"/>
-      <c r="V13" s="101"/>
+      <c r="P13" s="143" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q13" s="108" t="s">
+        <v>16</v>
+      </c>
+      <c r="R13" s="149"/>
+      <c r="S13" s="149"/>
+      <c r="T13" s="151"/>
+      <c r="U13" s="134"/>
+      <c r="V13" s="152"/>
     </row>
     <row r="14" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="142"/>
+      <c r="A14" s="133"/>
       <c r="B14" s="77" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="78" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M14" s="60"/>
-      <c r="N14" s="109"/>
-      <c r="O14" s="111"/>
-      <c r="P14" s="111"/>
-      <c r="Q14" s="115"/>
-      <c r="R14" s="97"/>
-      <c r="S14" s="97"/>
-      <c r="T14" s="97"/>
-      <c r="U14" s="100"/>
-      <c r="V14" s="102"/>
+      <c r="N14" s="142"/>
+      <c r="O14" s="144"/>
+      <c r="P14" s="144"/>
+      <c r="Q14" s="109"/>
+      <c r="R14" s="150"/>
+      <c r="S14" s="150"/>
+      <c r="T14" s="150"/>
+      <c r="U14" s="135"/>
+      <c r="V14" s="153"/>
     </row>
     <row r="15" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="18"/>
@@ -2928,23 +2948,23 @@
       <c r="M16" s="48"/>
     </row>
     <row r="17" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="105" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="106"/>
-      <c r="C17" s="106"/>
-      <c r="D17" s="106"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="106"/>
-      <c r="G17" s="106"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="106"/>
-      <c r="J17" s="106"/>
-      <c r="K17" s="106"/>
-      <c r="L17" s="107"/>
+      <c r="A17" s="138" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="139"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="139"/>
+      <c r="F17" s="139"/>
+      <c r="G17" s="139"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="139"/>
+      <c r="J17" s="139"/>
+      <c r="K17" s="139"/>
+      <c r="L17" s="140"/>
       <c r="M17" s="79"/>
       <c r="N17" s="51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O17" s="44"/>
       <c r="P17" s="44"/>
@@ -2956,84 +2976,84 @@
       <c r="V17" s="45"/>
     </row>
     <row r="18" spans="1:22" s="46" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="145" t="s">
+      <c r="A18" s="93" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="97" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="100" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="103"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="102" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="103"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="100" t="s">
+        <v>41</v>
+      </c>
+      <c r="J18" s="101"/>
+      <c r="K18" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="L18" s="106" t="s">
+        <v>0</v>
+      </c>
+      <c r="M18" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="149" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="151" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="154"/>
-      <c r="E18" s="152"/>
-      <c r="F18" s="153" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="154"/>
-      <c r="H18" s="152"/>
-      <c r="I18" s="151" t="s">
-        <v>42</v>
-      </c>
-      <c r="J18" s="152"/>
-      <c r="K18" s="149" t="s">
-        <v>0</v>
-      </c>
-      <c r="L18" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="M18" s="155" t="s">
-        <v>33</v>
-      </c>
-      <c r="N18" s="147"/>
-      <c r="O18" s="92"/>
-      <c r="P18" s="92"/>
-      <c r="Q18" s="92"/>
-      <c r="R18" s="92"/>
-      <c r="S18" s="92"/>
-      <c r="T18" s="92"/>
-      <c r="U18" s="92"/>
-      <c r="V18" s="94"/>
+      <c r="N18" s="95"/>
+      <c r="O18" s="154"/>
+      <c r="P18" s="154"/>
+      <c r="Q18" s="154"/>
+      <c r="R18" s="154"/>
+      <c r="S18" s="154"/>
+      <c r="T18" s="154"/>
+      <c r="U18" s="154"/>
+      <c r="V18" s="156"/>
     </row>
     <row r="19" spans="1:22" s="46" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="146"/>
-      <c r="B19" s="150"/>
+      <c r="A19" s="94"/>
+      <c r="B19" s="98"/>
       <c r="C19" s="80" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="80" t="s">
+      <c r="E19" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="80" t="s">
+      <c r="F19" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="80" t="s">
+        <v>30</v>
+      </c>
+      <c r="J19" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="81" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" s="81" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="I19" s="80" t="s">
-        <v>31</v>
-      </c>
-      <c r="J19" s="80" t="s">
-        <v>22</v>
-      </c>
-      <c r="K19" s="120"/>
-      <c r="L19" s="158"/>
-      <c r="M19" s="156"/>
-      <c r="N19" s="148"/>
-      <c r="O19" s="93"/>
-      <c r="P19" s="93"/>
-      <c r="Q19" s="93"/>
-      <c r="R19" s="93"/>
-      <c r="S19" s="93"/>
-      <c r="T19" s="93"/>
-      <c r="U19" s="93"/>
-      <c r="V19" s="95"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="107"/>
+      <c r="M19" s="105"/>
+      <c r="N19" s="96"/>
+      <c r="O19" s="155"/>
+      <c r="P19" s="155"/>
+      <c r="Q19" s="155"/>
+      <c r="R19" s="155"/>
+      <c r="S19" s="155"/>
+      <c r="T19" s="155"/>
+      <c r="U19" s="155"/>
+      <c r="V19" s="157"/>
     </row>
     <row r="20" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="64"/>
@@ -5105,17 +5125,32 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="U18:U19"/>
+    <mergeCell ref="V18:V19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="V13:V14"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
     <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="A1:C1"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="C8:E8"/>
@@ -5129,31 +5164,16 @@
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="Q8:Q9"/>
     <mergeCell ref="A7:L7"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="V13:V14"/>
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="U18:U19"/>
-    <mergeCell ref="V18:V19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="L18:L19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5182,44 +5202,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="160" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="163" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="163" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="164"/>
-      <c r="G1" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="112" t="s">
-        <v>39</v>
+      <c r="B1" s="162" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="162" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="163"/>
+      <c r="G1" s="158" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="145" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="54" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="162"/>
+      <c r="A2" s="161"/>
       <c r="B2" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="91" t="s">
+      <c r="D2" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="91" t="s">
+      <c r="E2" s="91" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="91" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="160"/>
-      <c r="H2" s="165"/>
+      <c r="G2" s="159"/>
+      <c r="H2" s="164"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" s="53" t="e">
@@ -11265,16 +11285,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -11418,20 +11438,20 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="92" t="s">
         <v>48</v>
-      </c>
-      <c r="B3" s="166" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -11439,17 +11459,17 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/BfR_Format_Backtrace.xlsx
+++ b/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/BfR_Format_Backtrace.xlsx
@@ -98,10 +98,6 @@
     <t>Station in Focus:</t>
   </si>
   <si>
-    <t>Lot Number
-of Ingredient</t>
-  </si>
-  <si>
     <t>Reporter Information</t>
   </si>
   <si>
@@ -183,6 +179,9 @@
   </si>
   <si>
     <t>Reporting Date: Day</t>
+  </si>
+  <si>
+    <t>Ingredient Lot Number</t>
   </si>
 </sst>
 </file>
@@ -1869,145 +1868,54 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="30" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="30" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="30" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2035,47 +1943,143 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="30" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="30" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="30" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2094,11 +2098,6 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="114">
     <cellStyle name="20% - Accent1 2" xfId="4"/>
@@ -2547,7 +2546,7 @@
         <v>10</v>
       </c>
       <c r="E1" s="84" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F1" s="84" t="s">
         <v>7</v>
@@ -2565,7 +2564,7 @@
         <v>12</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L1" s="16"/>
       <c r="M1" s="16"/>
@@ -2626,13 +2625,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="165" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="166"/>
-      <c r="C1" s="166"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
+      <c r="A1" s="144" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
       <c r="F1" s="37"/>
       <c r="G1" s="37"/>
       <c r="H1" s="37"/>
@@ -2647,7 +2646,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="67" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" s="67" t="s">
         <v>19</v>
@@ -2699,23 +2698,23 @@
       <c r="M6" s="21"/>
     </row>
     <row r="7" spans="1:22" s="42" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="136" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="137"/>
-      <c r="C7" s="137"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="137"/>
-      <c r="H7" s="137"/>
-      <c r="I7" s="137"/>
-      <c r="J7" s="137"/>
-      <c r="K7" s="137"/>
-      <c r="L7" s="137"/>
+      <c r="A7" s="142" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="143"/>
+      <c r="C7" s="143"/>
+      <c r="D7" s="143"/>
+      <c r="E7" s="143"/>
+      <c r="F7" s="143"/>
+      <c r="G7" s="143"/>
+      <c r="H7" s="143"/>
+      <c r="I7" s="143"/>
+      <c r="J7" s="143"/>
+      <c r="K7" s="143"/>
+      <c r="L7" s="143"/>
       <c r="M7" s="71"/>
       <c r="N7" s="70" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O7" s="72"/>
       <c r="P7" s="72"/>
@@ -2727,48 +2726,48 @@
       <c r="V7" s="73"/>
     </row>
     <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="124" t="s">
+      <c r="A8" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="128" t="s">
+      <c r="B8" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="115" t="s">
+      <c r="C8" s="122" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="123"/>
+      <c r="E8" s="124"/>
+      <c r="F8" s="119" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="116"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="112" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="113"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="111" t="s">
+      <c r="G8" s="120"/>
+      <c r="H8" s="121"/>
+      <c r="I8" s="117" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="118"/>
+      <c r="K8" s="128" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" s="113" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="J8" s="99"/>
-      <c r="K8" s="120" t="s">
-        <v>38</v>
-      </c>
-      <c r="L8" s="145" t="s">
-        <v>38</v>
-      </c>
-      <c r="M8" s="122" t="s">
-        <v>42</v>
-      </c>
-      <c r="N8" s="126"/>
-      <c r="O8" s="134"/>
-      <c r="P8" s="134"/>
-      <c r="Q8" s="134"/>
-      <c r="R8" s="134"/>
-      <c r="S8" s="134"/>
-      <c r="T8" s="134"/>
-      <c r="U8" s="134"/>
-      <c r="V8" s="147"/>
+      <c r="N8" s="134"/>
+      <c r="O8" s="100"/>
+      <c r="P8" s="100"/>
+      <c r="Q8" s="100"/>
+      <c r="R8" s="100"/>
+      <c r="S8" s="100"/>
+      <c r="T8" s="100"/>
+      <c r="U8" s="100"/>
+      <c r="V8" s="104"/>
     </row>
     <row r="9" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="125"/>
-      <c r="B9" s="129"/>
+      <c r="A9" s="133"/>
+      <c r="B9" s="137"/>
       <c r="C9" s="74" t="s">
         <v>18</v>
       </c>
@@ -2788,23 +2787,23 @@
         <v>20</v>
       </c>
       <c r="I9" s="76" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J9" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="121"/>
-      <c r="L9" s="146"/>
-      <c r="M9" s="123"/>
-      <c r="N9" s="127"/>
-      <c r="O9" s="135"/>
-      <c r="P9" s="135"/>
-      <c r="Q9" s="135"/>
-      <c r="R9" s="135"/>
-      <c r="S9" s="135"/>
-      <c r="T9" s="135"/>
-      <c r="U9" s="135"/>
-      <c r="V9" s="148"/>
+      <c r="K9" s="129"/>
+      <c r="L9" s="114"/>
+      <c r="M9" s="131"/>
+      <c r="N9" s="135"/>
+      <c r="O9" s="101"/>
+      <c r="P9" s="101"/>
+      <c r="Q9" s="101"/>
+      <c r="R9" s="101"/>
+      <c r="S9" s="101"/>
+      <c r="T9" s="101"/>
+      <c r="U9" s="101"/>
+      <c r="V9" s="105"/>
     </row>
     <row r="10" spans="1:22" s="42" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="49"/>
@@ -2845,11 +2844,11 @@
       <c r="M11" s="42"/>
     </row>
     <row r="12" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="110" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="118"/>
-      <c r="C12" s="119"/>
+      <c r="A12" s="125" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="126"/>
+      <c r="C12" s="127"/>
       <c r="D12" s="62"/>
       <c r="E12" s="62"/>
       <c r="F12" s="62"/>
@@ -2861,7 +2860,7 @@
       <c r="L12" s="62"/>
       <c r="M12" s="60"/>
       <c r="N12" s="50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O12" s="38"/>
       <c r="P12" s="38"/>
@@ -2873,50 +2872,50 @@
       <c r="V12" s="39"/>
     </row>
     <row r="13" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="132" t="s">
+      <c r="A13" s="140" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="138" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="139"/>
+      <c r="M13" s="60"/>
+      <c r="N13" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="130" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="131"/>
-      <c r="M13" s="60"/>
-      <c r="N13" s="141" t="s">
+      <c r="O13" s="111" t="s">
         <v>33</v>
       </c>
-      <c r="O13" s="143" t="s">
-        <v>34</v>
-      </c>
-      <c r="P13" s="143" t="s">
+      <c r="P13" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="Q13" s="108" t="s">
+      <c r="Q13" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="R13" s="149"/>
-      <c r="S13" s="149"/>
-      <c r="T13" s="151"/>
-      <c r="U13" s="134"/>
-      <c r="V13" s="152"/>
+      <c r="R13" s="97"/>
+      <c r="S13" s="97"/>
+      <c r="T13" s="99"/>
+      <c r="U13" s="100"/>
+      <c r="V13" s="102"/>
     </row>
     <row r="14" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="133"/>
+      <c r="A14" s="141"/>
       <c r="B14" s="77" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="78" t="s">
         <v>21</v>
       </c>
       <c r="M14" s="60"/>
-      <c r="N14" s="142"/>
-      <c r="O14" s="144"/>
-      <c r="P14" s="144"/>
-      <c r="Q14" s="109"/>
-      <c r="R14" s="150"/>
-      <c r="S14" s="150"/>
-      <c r="T14" s="150"/>
-      <c r="U14" s="135"/>
-      <c r="V14" s="153"/>
+      <c r="N14" s="110"/>
+      <c r="O14" s="112"/>
+      <c r="P14" s="112"/>
+      <c r="Q14" s="116"/>
+      <c r="R14" s="98"/>
+      <c r="S14" s="98"/>
+      <c r="T14" s="98"/>
+      <c r="U14" s="101"/>
+      <c r="V14" s="103"/>
     </row>
     <row r="15" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="18"/>
@@ -2948,23 +2947,23 @@
       <c r="M16" s="48"/>
     </row>
     <row r="17" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="138" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="139"/>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="139"/>
-      <c r="F17" s="139"/>
-      <c r="G17" s="139"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="139"/>
-      <c r="J17" s="139"/>
-      <c r="K17" s="139"/>
-      <c r="L17" s="140"/>
+      <c r="A17" s="106" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="107"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="107"/>
+      <c r="I17" s="107"/>
+      <c r="J17" s="107"/>
+      <c r="K17" s="107"/>
+      <c r="L17" s="108"/>
       <c r="M17" s="79"/>
       <c r="N17" s="51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O17" s="44"/>
       <c r="P17" s="44"/>
@@ -2976,48 +2975,48 @@
       <c r="V17" s="45"/>
     </row>
     <row r="18" spans="1:22" s="46" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="93" t="s">
+      <c r="A18" s="147" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="151" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="153" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="156"/>
+      <c r="E18" s="154"/>
+      <c r="F18" s="155" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="156"/>
+      <c r="H18" s="154"/>
+      <c r="I18" s="153" t="s">
+        <v>40</v>
+      </c>
+      <c r="J18" s="154"/>
+      <c r="K18" s="151" t="s">
+        <v>0</v>
+      </c>
+      <c r="L18" s="159" t="s">
+        <v>0</v>
+      </c>
+      <c r="M18" s="157" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="97" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="100" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="103"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="102" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" s="103"/>
-      <c r="H18" s="101"/>
-      <c r="I18" s="100" t="s">
-        <v>41</v>
-      </c>
-      <c r="J18" s="101"/>
-      <c r="K18" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="L18" s="106" t="s">
-        <v>0</v>
-      </c>
-      <c r="M18" s="104" t="s">
-        <v>32</v>
-      </c>
-      <c r="N18" s="95"/>
-      <c r="O18" s="154"/>
-      <c r="P18" s="154"/>
-      <c r="Q18" s="154"/>
-      <c r="R18" s="154"/>
-      <c r="S18" s="154"/>
-      <c r="T18" s="154"/>
-      <c r="U18" s="154"/>
-      <c r="V18" s="156"/>
+      <c r="N18" s="149"/>
+      <c r="O18" s="93"/>
+      <c r="P18" s="93"/>
+      <c r="Q18" s="93"/>
+      <c r="R18" s="93"/>
+      <c r="S18" s="93"/>
+      <c r="T18" s="93"/>
+      <c r="U18" s="93"/>
+      <c r="V18" s="95"/>
     </row>
     <row r="19" spans="1:22" s="46" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="94"/>
-      <c r="B19" s="98"/>
+      <c r="A19" s="148"/>
+      <c r="B19" s="152"/>
       <c r="C19" s="80" t="s">
         <v>18</v>
       </c>
@@ -3037,23 +3036,23 @@
         <v>20</v>
       </c>
       <c r="I19" s="80" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J19" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="K19" s="99"/>
-      <c r="L19" s="107"/>
-      <c r="M19" s="105"/>
-      <c r="N19" s="96"/>
-      <c r="O19" s="155"/>
-      <c r="P19" s="155"/>
-      <c r="Q19" s="155"/>
-      <c r="R19" s="155"/>
-      <c r="S19" s="155"/>
-      <c r="T19" s="155"/>
-      <c r="U19" s="155"/>
-      <c r="V19" s="157"/>
+      <c r="K19" s="118"/>
+      <c r="L19" s="160"/>
+      <c r="M19" s="158"/>
+      <c r="N19" s="150"/>
+      <c r="O19" s="94"/>
+      <c r="P19" s="94"/>
+      <c r="Q19" s="94"/>
+      <c r="R19" s="94"/>
+      <c r="S19" s="94"/>
+      <c r="T19" s="94"/>
+      <c r="U19" s="94"/>
+      <c r="V19" s="96"/>
     </row>
     <row r="20" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="64"/>
@@ -5125,31 +5124,17 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="U18:U19"/>
-    <mergeCell ref="V18:V19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="S18:S19"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="V13:V14"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="L18:L19"/>
     <mergeCell ref="Q13:Q14"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="F8:H8"/>
@@ -5163,17 +5148,31 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="V13:V14"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="U18:U19"/>
+    <mergeCell ref="V18:V19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="S18:S19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5202,27 +5201,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="163" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="162" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="162" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="163"/>
-      <c r="G1" s="158" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="145" t="s">
-        <v>38</v>
+      <c r="B1" s="165" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="165" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="166"/>
+      <c r="G1" s="161" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="113" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="54" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="161"/>
+      <c r="A2" s="164"/>
       <c r="B2" s="91" t="s">
         <v>18</v>
       </c>
@@ -5233,13 +5232,13 @@
         <v>20</v>
       </c>
       <c r="E2" s="91" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="159"/>
-      <c r="H2" s="164"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="167"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" s="53" t="e">
@@ -11438,20 +11437,20 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="92" t="s">
         <v>47</v>
-      </c>
-      <c r="B3" s="92" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -11459,17 +11458,17 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
